--- a/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
+++ b/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UFSprint17\Simulasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RefYieldItem" sheetId="11" r:id="rId1"/>
@@ -1206,6 +1206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1607,10 +1608,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1727,7 +1729,7 @@
       </c>
       <c r="B7" s="97">
         <f>B5-B6+D24+D25+D26+D27+D28+D29+D30+D31+D38</f>
-        <v>506740115</v>
+        <v>506660115</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>5</v>
@@ -1902,7 +1904,7 @@
       </c>
       <c r="B15" s="4">
         <f>IF(B16=1,B2+SUM(E6:E14)-SUM(D24:D31,D38)+B18,B2+SUM(E6:E14)-SUM(D24:D31,D38))</f>
-        <v>140746435</v>
+        <v>140676435</v>
       </c>
       <c r="D15" s="88" t="s">
         <v>95</v>
@@ -3236,6 +3238,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F276"/>
   <sheetViews>
     <sheetView topLeftCell="A211" workbookViewId="0">
@@ -9715,6 +9718,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F277"/>
   <sheetViews>
     <sheetView topLeftCell="A208" workbookViewId="0">

--- a/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
+++ b/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
@@ -1649,15 +1649,15 @@
         <v>99</v>
       </c>
       <c r="B2" t="n">
-        <v>3.5032E8</v>
+        <v>1.222E8</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B3">
-        <v>558153000.49000001</v>
+      <c r="B3" t="n">
+        <v>5.5811699855E8</v>
       </c>
       <c r="C3" s="95" t="s">
         <v>97</v>
@@ -1679,7 +1679,7 @@
         <v>30</v>
       </c>
       <c r="B5" t="n">
-        <v>6.02E8</v>
+        <v>6.1E8</v>
       </c>
       <c r="C5" s="89" t="s">
         <v>94</v>
@@ -1699,7 +1699,7 @@
         <v>100</v>
       </c>
       <c r="B6" t="n">
-        <v>3.5062E8</v>
+        <v>1.225E8</v>
       </c>
       <c r="C6" s="89" t="s">
         <v>94</v>
@@ -1708,7 +1708,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>4989500.0</v>
+        <v>1.11345E7</v>
       </c>
       <c r="F6" s="89" t="s">
         <v>94</v>
@@ -1717,7 +1717,7 @@
         <v>12</v>
       </c>
       <c r="H6" t="n">
-        <v>5022000.0</v>
+        <v>1.0967346E7</v>
       </c>
       <c r="I6" s="89" t="s">
         <v>94</v>
@@ -1735,7 +1735,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0</v>
+        <v>2.1440625E7</v>
       </c>
       <c r="F7" s="89" t="s">
         <v>94</v>
@@ -1744,7 +1744,7 @@
         <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0</v>
+        <v>2.24375E7</v>
       </c>
       <c r="I7" s="89" t="s">
         <v>94</v>
@@ -1755,7 +1755,7 @@
         <v>34</v>
       </c>
       <c r="B8" t="n">
-        <v>0.14684329</v>
+        <v>0.14682159</v>
       </c>
       <c r="C8" s="89" t="s">
         <v>94</v>
@@ -1781,7 +1781,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
       <c r="C9" s="89" t="s">
         <v>94</v>
@@ -1909,8 +1909,8 @@
       <c r="D15" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="E15">
-        <v>0</v>
+      <c r="E15" t="n">
+        <v>0.0</v>
       </c>
       <c r="F15" s="89" t="s">
         <v>94</v>
@@ -1920,8 +1920,8 @@
       <c r="A16" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" t="n">
+        <v>0.0</v>
       </c>
       <c r="C16" s="89" t="s">
         <v>94</v>
@@ -1929,8 +1929,8 @@
       <c r="D16" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="E16">
-        <v>3</v>
+      <c r="E16" t="n">
+        <v>3.0</v>
       </c>
       <c r="F16" s="89" t="s">
         <v>94</v>
@@ -1940,8 +1940,8 @@
       <c r="A17" t="s">
         <v>42</v>
       </c>
-      <c r="B17">
-        <v>62017000.049999997</v>
+      <c r="B17" t="n">
+        <v>6.201299984E7</v>
       </c>
       <c r="C17" s="88" t="s">
         <v>93</v>
@@ -2124,8 +2124,8 @@
         <v>15086435</v>
       </c>
       <c r="C25" s="25"/>
-      <c r="D25">
-        <v>6465615</v>
+      <c r="D25" t="n">
+        <v>6432188.0</v>
       </c>
       <c r="E25" s="89" t="s">
         <v>94</v>
@@ -2155,8 +2155,8 @@
         <v>50000</v>
       </c>
       <c r="C26" s="25"/>
-      <c r="D26">
-        <v>100000</v>
+      <c r="D26" t="n">
+        <v>100000.0</v>
       </c>
       <c r="E26" s="89" t="s">
         <v>94</v>
@@ -2186,8 +2186,8 @@
         <v>2250000</v>
       </c>
       <c r="C27" s="25"/>
-      <c r="D27">
-        <v>1000000</v>
+      <c r="D27" t="n">
+        <v>1000000.0</v>
       </c>
       <c r="E27" s="89" t="s">
         <v>94</v>
@@ -2217,8 +2217,8 @@
         <v>1050000</v>
       </c>
       <c r="C28" s="25"/>
-      <c r="D28">
-        <v>150000</v>
+      <c r="D28" t="n">
+        <v>150000.0</v>
       </c>
       <c r="E28" s="89" t="s">
         <v>94</v>
@@ -2248,8 +2248,8 @@
         <v>1000000</v>
       </c>
       <c r="C29" s="25"/>
-      <c r="D29">
-        <v>250000</v>
+      <c r="D29" t="n">
+        <v>250000.0</v>
       </c>
       <c r="E29" s="89" t="s">
         <v>94</v>
@@ -2308,8 +2308,8 @@
         <v>10000</v>
       </c>
       <c r="C31" s="25"/>
-      <c r="D31">
-        <v>40000</v>
+      <c r="D31" t="n">
+        <v>40000.0</v>
       </c>
       <c r="E31" s="89" t="s">
         <v>94</v>
@@ -2486,8 +2486,8 @@
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
-      <c r="D38">
-        <v>20000</v>
+      <c r="D38" t="n">
+        <v>20000.0</v>
       </c>
       <c r="E38" t="s">
         <v>94</v>
@@ -8142,8 +8142,8 @@
       <c r="A212" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B212">
-        <v>3</v>
+      <c r="B212" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="213" spans="1:6">

--- a/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
+++ b/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UFSprint17\Simulasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-Sprint17\Simulasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" firstSheet="1" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="RefYieldItem" r:id="rId1" sheetId="11"/>
@@ -1611,8 +1611,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1649,7 +1649,7 @@
         <v>99</v>
       </c>
       <c r="B2" t="n">
-        <v>1.222E8</v>
+        <v>1.22605E8</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1657,7 +1657,7 @@
         <v>71</v>
       </c>
       <c r="B3" t="n">
-        <v>5.5811699855E8</v>
+        <v>7.7217899174E8</v>
       </c>
       <c r="C3" s="95" t="s">
         <v>97</v>
@@ -1679,7 +1679,7 @@
         <v>30</v>
       </c>
       <c r="B5" t="n">
-        <v>6.1E8</v>
+        <v>6.11E8</v>
       </c>
       <c r="C5" s="89" t="s">
         <v>94</v>
@@ -1699,7 +1699,7 @@
         <v>100</v>
       </c>
       <c r="B6" t="n">
-        <v>1.225E8</v>
+        <v>1.2262E8</v>
       </c>
       <c r="C6" s="89" t="s">
         <v>94</v>
@@ -1708,7 +1708,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>1.11345E7</v>
+        <v>3.3151E7</v>
       </c>
       <c r="F6" s="89" t="s">
         <v>94</v>
@@ -1717,7 +1717,7 @@
         <v>12</v>
       </c>
       <c r="H6" t="n">
-        <v>1.0967346E7</v>
+        <v>2.476125E7</v>
       </c>
       <c r="I6" s="89" t="s">
         <v>94</v>
@@ -1729,13 +1729,13 @@
       </c>
       <c r="B7" s="97">
         <f>B5-B6+D24+D25+D26+D27+D28+D29+D30+D31+D38</f>
-        <v>506660115</v>
+        <v>534075143</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>2.1440625E7</v>
+        <v>4.3455345E7</v>
       </c>
       <c r="F7" s="89" t="s">
         <v>94</v>
@@ -1744,7 +1744,7 @@
         <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>2.24375E7</v>
+        <v>4.44542E7</v>
       </c>
       <c r="I7" s="89" t="s">
         <v>94</v>
@@ -1755,7 +1755,7 @@
         <v>34</v>
       </c>
       <c r="B8" t="n">
-        <v>0.14682159</v>
+        <v>0.1468207</v>
       </c>
       <c r="C8" s="89" t="s">
         <v>94</v>
@@ -1781,7 +1781,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>12.0</v>
+        <v>60.0</v>
       </c>
       <c r="C9" s="89" t="s">
         <v>94</v>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B12" s="23">
         <f>B8/(12/B10)</f>
-        <v>1.24967225E-2</v>
+        <v>1.2218919999999999E-2</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>10</v>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="B13" s="21">
         <f>B9/B10</f>
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>11</v>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B15" s="4">
         <f>IF(B16=1,B2+SUM(E6:E14)-SUM(D24:D31,D38)+B18,B2+SUM(E6:E14)-SUM(D24:D31,D38))</f>
-        <v>140676435</v>
+        <v>158413001</v>
       </c>
       <c r="D15" s="88" t="s">
         <v>95</v>
@@ -1941,7 +1941,7 @@
         <v>42</v>
       </c>
       <c r="B17" t="n">
-        <v>6.201299984E7</v>
+        <v>1.354699986E7</v>
       </c>
       <c r="C17" s="88" t="s">
         <v>93</v>
@@ -1950,7 +1950,7 @@
     <row r="18" spans="1:12">
       <c r="B18" s="98">
         <f>ROUND(B17,0)</f>
-        <v>62004762</v>
+        <v>13547000</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>43</v>
@@ -1995,14 +1995,14 @@
       </c>
       <c r="G20" s="92">
         <f>IF(B16=0,-B7,0)</f>
-        <v>-506740115</v>
+        <v>-534075143</v>
       </c>
       <c r="I20" s="91">
         <v>0</v>
       </c>
       <c r="J20" s="92">
         <f>IF(B16=0,B37-C37,0)</f>
-        <v>-501536416</v>
+        <v>-486541350</v>
       </c>
       <c r="L20" s="14"/>
     </row>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="C24" s="25"/>
       <c r="D24" t="n">
-        <v>1.11345E7</v>
+        <v>3.08145E7</v>
       </c>
       <c r="E24" s="89" t="s">
         <v>94</v>
@@ -2121,11 +2121,11 @@
       </c>
       <c r="B25" s="26">
         <f>E7-D25</f>
-        <v>15086435</v>
+        <v>30081501</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" t="n">
-        <v>6432188.0</v>
+        <v>1.3036604E7</v>
       </c>
       <c r="E25" s="89" t="s">
         <v>94</v>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B37" s="18">
         <f>SUM(B21:B31)</f>
-        <v>141946435</v>
+        <v>156941501</v>
       </c>
       <c r="C37" s="18">
         <f>SUM(C21:C35)</f>
@@ -3208,22 +3208,22 @@
     <row r="83" spans="6:12">
       <c r="G83" s="15">
         <f ca="1">IRR(G20:INDIRECT(CONCATENATE("G",IF(B16=1,B13+20+1,B13+20))))</f>
-        <v>1.2218885396515722E-2</v>
+        <v>8.9181361710057416E-2</v>
       </c>
       <c r="J83" s="15">
         <f ca="1">IRR(J20:INDIRECT(CONCATENATE("J",IF(B16=1,B13+20+1,B13+20))))</f>
-        <v>1.3539843612371039E-2</v>
+        <v>9.6243349515694243E-2</v>
       </c>
       <c r="L83" s="62"/>
     </row>
     <row r="84" spans="6:12">
       <c r="G84">
         <f ca="1">G83*12*100</f>
-        <v>14.662662475818866</v>
+        <v>107.0176340520689</v>
       </c>
       <c r="J84" s="16">
         <f ca="1">J83*12*100</f>
-        <v>16.247812334845246</v>
+        <v>115.4920194188331</v>
       </c>
     </row>
   </sheetData>
@@ -3241,8 +3241,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G276"/>
   <sheetViews>
-    <sheetView topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="E215" sqref="E215"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="B3" s="96">
         <f>'Gross Yield (CF)'!B7</f>
-        <v>506740115</v>
+        <v>534075143</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>87</v>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="B4" s="60">
         <f>'Gross Yield (CF)'!B8</f>
-        <v>0.14657716000000001</v>
+        <v>0.14662703999999999</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>85</v>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="B5" s="48">
         <f>'Gross Yield (CF)'!B9</f>
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>83</v>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="B9" s="63">
         <f>B4/(12/B6)</f>
-        <v>1.2214763333333335E-2</v>
+        <v>1.2218919999999999E-2</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>81</v>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="B10" s="57">
         <f>B5/B6</f>
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C10" s="48" t="s">
         <v>80</v>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="B11" s="57">
         <f>B3*-1</f>
-        <v>-506740115</v>
+        <v>-534075143</v>
       </c>
       <c r="C11" s="48" t="s">
         <v>78</v>
@@ -3428,15 +3428,15 @@
       </c>
       <c r="B14" s="103">
         <f>PMT(B9,B10,B11,B12,B13)</f>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="45" t="s">
         <v>71</v>
       </c>
       <c r="E14" s="45">
-        <f>E15+F16</f>
-        <v>547868426.46039236</v>
+        <f ca="1">E15+F16</f>
+        <v>756674877.23641396</v>
       </c>
       <c r="F14" s="48"/>
     </row>
@@ -3454,8 +3454,8 @@
         <v>72</v>
       </c>
       <c r="E15" s="45">
-        <f>SUM(E17:E28)</f>
-        <v>41128311.460392386</v>
+        <f ca="1">SUM(E17:INDIRECT(CONCATENATE("E",16+B10)))</f>
+        <v>222599734.23641396</v>
       </c>
       <c r="F15" s="44" t="s">
         <v>64</v>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="F16" s="44">
         <f>B3</f>
-        <v>506740115</v>
+        <v>534075143</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3492,19 +3492,19 @@
       </c>
       <c r="C17" s="42">
         <f>B14</f>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D17" s="42">
         <f ref="D17:D76" si="0" t="shared">C17-E17</f>
-        <v>39465991.628801577</v>
+        <v>6085426.5076346714</v>
       </c>
       <c r="E17" s="42">
         <f ref="E17:E76" si="1" t="shared">F16*$B$9</f>
-        <v>6189710.5762311174</v>
+        <v>6525821.4463055599</v>
       </c>
       <c r="F17" s="42">
         <f ref="F17:F27" si="2" t="shared">F16-D17</f>
-        <v>467274123.37119842</v>
+        <v>527989716.4923653</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3517,19 +3517,19 @@
       </c>
       <c r="C18" s="42">
         <f ref="C18:C76" si="4" t="shared">$C$17</f>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D18" s="42">
         <f si="0" t="shared"/>
-        <v>39948059.376262702</v>
+        <v>6159783.8472973397</v>
       </c>
       <c r="E18" s="42">
         <f si="1" t="shared"/>
-        <v>5707642.8287699912</v>
+        <v>6451464.1066428917</v>
       </c>
       <c r="F18" s="42">
         <f si="2" t="shared"/>
-        <v>427326063.99493569</v>
+        <v>521829932.64506799</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3542,19 +3542,19 @@
       </c>
       <c r="C19" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D19" s="42">
         <f si="0" t="shared"/>
-        <v>40436015.467169695</v>
+        <v>6235049.7533447575</v>
       </c>
       <c r="E19" s="42">
         <f si="1" t="shared"/>
-        <v>5219686.7378629949</v>
+        <v>6376198.2005954739</v>
       </c>
       <c r="F19" s="42">
         <f si="2" t="shared"/>
-        <v>386890048.52776599</v>
+        <v>515594882.89172322</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3567,19 +3567,19 @@
       </c>
       <c r="C20" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D20" s="42">
         <f si="0" t="shared"/>
-        <v>40929931.826244183</v>
+        <v>6311235.3274768973</v>
       </c>
       <c r="E20" s="42">
         <f si="1" t="shared"/>
-        <v>4725770.3787885103</v>
+        <v>6300012.6264633341</v>
       </c>
       <c r="F20" s="42">
         <f si="2" t="shared"/>
-        <v>345960116.70152181</v>
+        <v>509283647.5642463</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3592,19 +3592,19 @@
       </c>
       <c r="C21" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D21" s="42">
         <f si="0" t="shared"/>
-        <v>41429881.256751224</v>
+        <v>6388351.8070445117</v>
       </c>
       <c r="E21" s="42">
         <f si="1" t="shared"/>
-        <v>4225820.9482814698</v>
+        <v>6222896.1468957197</v>
       </c>
       <c r="F21" s="42">
         <f si="2" t="shared"/>
-        <v>304530235.44477057</v>
+        <v>502895295.75720179</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3617,19 +3617,19 @@
       </c>
       <c r="C22" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D22" s="42">
         <f si="0" t="shared"/>
-        <v>41935937.451230541</v>
+        <v>6466410.5667066434</v>
       </c>
       <c r="E22" s="42">
         <f si="1" t="shared"/>
-        <v>3719764.753802151</v>
+        <v>6144837.3872335879</v>
       </c>
       <c r="F22" s="42">
         <f si="2" t="shared"/>
-        <v>262594297.99354005</v>
+        <v>496428885.19049513</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C23" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D23" s="42">
         <f si="0" t="shared"/>
-        <v>42448175.002358794</v>
+        <v>6545423.1201083865</v>
       </c>
       <c r="E23" s="42">
         <f si="1" t="shared"/>
-        <v>3207527.2026739004</v>
+        <v>6065824.8338318449</v>
       </c>
       <c r="F23" s="42">
         <f si="2" t="shared"/>
-        <v>220146122.99118125</v>
+        <v>489883462.07038677</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3667,19 +3667,19 @@
       </c>
       <c r="C24" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D24" s="42">
         <f si="0" t="shared"/>
-        <v>42966669.41394452</v>
+        <v>6625401.1215791414</v>
       </c>
       <c r="E24" s="42">
         <f si="1" t="shared"/>
-        <v>2689032.7910881713</v>
+        <v>5985846.83236109</v>
       </c>
       <c r="F24" s="42">
         <f si="2" t="shared"/>
-        <v>177179453.57723674</v>
+        <v>483258060.9488076</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3692,19 +3692,19 @@
       </c>
       <c r="C25" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D25" s="42">
         <f si="0" t="shared"/>
-        <v>43491497.112057425</v>
+        <v>6706356.3678516271</v>
       </c>
       <c r="E25" s="42">
         <f si="1" t="shared"/>
-        <v>2164205.0929752672</v>
+        <v>5904891.5860886043</v>
       </c>
       <c r="F25" s="42">
         <f si="2" t="shared"/>
-        <v>133687956.46517932</v>
+        <v>476551704.58095598</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3717,19 +3717,19 @@
       </c>
       <c r="C26" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D26" s="42">
         <f si="0" t="shared"/>
-        <v>44022735.456293553</v>
+        <v>6788300.7998018973</v>
       </c>
       <c r="E26" s="42">
         <f si="1" t="shared"/>
-        <v>1632966.7487391355</v>
+        <v>5822947.1541383341</v>
       </c>
       <c r="F26" s="42">
         <f si="2" t="shared"/>
-        <v>89665221.008885771</v>
+        <v>469763403.7811541</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3742,19 +3742,19 @@
       </c>
       <c r="C27" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D27" s="42">
         <f si="0" t="shared"/>
-        <v>44560462.751178123</v>
+        <v>6871246.5042106118</v>
       </c>
       <c r="E27" s="42">
         <f si="1" t="shared"/>
-        <v>1095239.4538545678</v>
+        <v>5740001.4497296195</v>
       </c>
       <c r="F27" s="42">
         <f si="2" t="shared"/>
-        <v>45104758.257707648</v>
+        <v>462892157.2769435</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3767,19 +3767,19 @@
       </c>
       <c r="C28" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D28" s="42">
         <f si="0" t="shared"/>
-        <v>45104758.257707581</v>
+        <v>6955205.7155458415</v>
       </c>
       <c r="E28" s="42">
         <f si="1" t="shared"/>
-        <v>550943.94732511137</v>
+        <v>5656042.2383943899</v>
       </c>
       <c r="F28" s="42">
         <f ref="F28:F76" si="5" t="shared">F27-D28</f>
-        <v>6.7055225372314453E-8</v>
+        <v>455936951.56139767</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3792,19 +3792,19 @@
       </c>
       <c r="C29" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D29" s="42">
         <f si="0" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>7040190.8177676387</v>
       </c>
       <c r="E29" s="42">
         <f si="1" t="shared"/>
-        <v>8.1906370818614972E-10</v>
+        <v>5571057.1361725926</v>
       </c>
       <c r="F29" s="42">
         <f si="5" t="shared"/>
-        <v>-45655702.205032624</v>
+        <v>448896760.74363005</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3817,19 +3817,19 @@
       </c>
       <c r="C30" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D30" s="42">
         <f si="0" t="shared"/>
-        <v>46213375.802284308</v>
+        <v>7126214.3461546758</v>
       </c>
       <c r="E30" s="42">
         <f si="1" t="shared"/>
-        <v>-557673.5972516184</v>
+        <v>5485033.6077855555</v>
       </c>
       <c r="F30" s="42">
         <f si="5" t="shared"/>
-        <v>-91869078.007316932</v>
+        <v>441770546.39747536</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3842,19 +3842,19 @@
       </c>
       <c r="C31" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D31" s="42">
         <f si="0" t="shared"/>
-        <v>46777861.250543609</v>
+        <v>7213288.9891531924</v>
       </c>
       <c r="E31" s="42">
         <f si="1" t="shared"/>
-        <v>-1122159.0455109146</v>
+        <v>5397958.964787039</v>
       </c>
       <c r="F31" s="42">
         <f si="5" t="shared"/>
-        <v>-138646939.25786054</v>
+        <v>434557257.40832216</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3867,19 +3867,19 @@
       </c>
       <c r="C32" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D32" s="42">
         <f si="0" t="shared"/>
-        <v>47349241.754958503</v>
+        <v>7301427.5902485354</v>
       </c>
       <c r="E32" s="42">
         <f si="1" t="shared"/>
-        <v>-1693539.549925809</v>
+        <v>5309820.363691696</v>
       </c>
       <c r="F32" s="42">
         <f si="5" t="shared"/>
-        <v>-185996181.01281905</v>
+        <v>427255829.81807363</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3892,19 +3892,19 @@
       </c>
       <c r="C33" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D33" s="42">
         <f si="0" t="shared"/>
-        <v>47927601.537008107</v>
+        <v>7390643.1498595756</v>
       </c>
       <c r="E33" s="42">
         <f si="1" t="shared"/>
-        <v>-2271899.3319754121</v>
+        <v>5220604.8040806558</v>
       </c>
       <c r="F33" s="42">
         <f si="5" t="shared"/>
-        <v>-233923782.54982716</v>
+        <v>419865186.66821408</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3917,19 +3917,19 @@
       </c>
       <c r="C34" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D34" s="42">
         <f si="0" t="shared"/>
-        <v>48513025.846916959</v>
+        <v>7480948.8272562567</v>
       </c>
       <c r="E34" s="42">
         <f si="1" t="shared"/>
-        <v>-2857323.6418842692</v>
+        <v>5130299.1266839746</v>
       </c>
       <c r="F34" s="42">
         <f si="5" t="shared"/>
-        <v>-282436808.39674413</v>
+        <v>412384237.84095782</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3942,19 +3942,19 @@
       </c>
       <c r="C35" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D35" s="42">
         <f si="0" t="shared"/>
-        <v>49105600.976220936</v>
+        <v>7572357.942500595</v>
       </c>
       <c r="E35" s="42">
         <f si="1" t="shared"/>
-        <v>-3449898.7711882428</v>
+        <v>5038890.0114396363</v>
       </c>
       <c r="F35" s="42">
         <f si="5" t="shared"/>
-        <v>-331542409.3729651</v>
+        <v>404811879.89845723</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3967,19 +3967,19 @@
       </c>
       <c r="C36" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D36" s="42">
         <f si="0" t="shared"/>
-        <v>49705414.270486578</v>
+        <v>7664883.9784113746</v>
       </c>
       <c r="E36" s="42">
         <f si="1" t="shared"/>
-        <v>-4049712.0654538842</v>
+        <v>4946363.9755288567</v>
       </c>
       <c r="F36" s="42">
         <f si="5" t="shared"/>
-        <v>-381247823.64345169</v>
+        <v>397146995.92004585</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3992,19 +3992,19 @@
       </c>
       <c r="C37" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D37" s="42">
         <f si="0" t="shared"/>
-        <v>50312554.142185859</v>
+        <v>7758540.5825528651</v>
       </c>
       <c r="E37" s="42">
         <f si="1" t="shared"/>
-        <v>-4656851.9371531671</v>
+        <v>4852707.3713873662</v>
       </c>
       <c r="F37" s="42">
         <f si="5" t="shared"/>
-        <v>-431560377.78563756</v>
+        <v>389388455.337493</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4017,19 +4017,19 @@
       </c>
       <c r="C38" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D38" s="42">
         <f si="0" t="shared"/>
-        <v>50927110.083728179</v>
+        <v>7853341.5692478316</v>
       </c>
       <c r="E38" s="42">
         <f si="1" t="shared"/>
-        <v>-5271407.878695487</v>
+        <v>4757906.3846923998</v>
       </c>
       <c r="F38" s="42">
         <f si="5" t="shared"/>
-        <v>-482487487.86936575</v>
+        <v>381535113.76824516</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4042,19 +4042,19 @@
       </c>
       <c r="C39" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D39" s="42">
         <f si="0" t="shared"/>
-        <v>51549172.680651531</v>
+        <v>7949300.9216151452</v>
       </c>
       <c r="E39" s="42">
         <f si="1" t="shared"/>
-        <v>-5893470.4756188411</v>
+        <v>4661947.0323250862</v>
       </c>
       <c r="F39" s="42">
         <f si="5" t="shared"/>
-        <v>-534036660.5500173</v>
+        <v>373585812.84663004</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4067,19 +4067,19 @@
       </c>
       <c r="C40" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D40" s="42">
         <f si="0" t="shared"/>
-        <v>52178833.624974824</v>
+        <v>8046432.7936322866</v>
       </c>
       <c r="E40" s="42">
         <f si="1" t="shared"/>
-        <v>-6523131.4199421322</v>
+        <v>4564815.1603079448</v>
       </c>
       <c r="F40" s="42">
         <f si="5" t="shared"/>
-        <v>-586215494.17499208</v>
+        <v>365539380.05299777</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4092,19 +4092,19 @@
       </c>
       <c r="C41" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D41" s="42">
         <f si="0" t="shared"/>
-        <v>52816185.728713267</v>
+        <v>8144751.5122230565</v>
       </c>
       <c r="E41" s="42">
         <f si="1" t="shared"/>
-        <v>-7160483.5236805743</v>
+        <v>4466496.4417171748</v>
       </c>
       <c r="F41" s="42">
         <f si="5" t="shared"/>
-        <v>-639031679.90370536</v>
+        <v>357394628.5407747</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4117,19 +4117,19 @@
       </c>
       <c r="C42" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D42" s="42">
         <f si="0" t="shared"/>
-        <v>53461322.937558874</v>
+        <v>8244271.5793707883</v>
       </c>
       <c r="E42" s="42">
         <f si="1" t="shared"/>
-        <v>-7805620.732526185</v>
+        <v>4366976.3745694431</v>
       </c>
       <c r="F42" s="42">
         <f si="5" t="shared"/>
-        <v>-692493002.84126425</v>
+        <v>349150356.96140391</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4142,19 +4142,19 @@
       </c>
       <c r="C43" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D43" s="42">
         <f si="0" t="shared"/>
-        <v>54114340.34472806</v>
+        <v>8345007.6742573939</v>
       </c>
       <c r="E43" s="42">
         <f si="1" t="shared"/>
-        <v>-8458638.1396953706</v>
+        <v>4266240.2796828374</v>
       </c>
       <c r="F43" s="42">
         <f si="5" t="shared"/>
-        <v>-746607343.18599236</v>
+        <v>340805349.28714651</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4167,19 +4167,19 @@
       </c>
       <c r="C44" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D44" s="42">
         <f si="0" t="shared"/>
-        <v>54775334.204978369</v>
+        <v>8446974.6554285306</v>
       </c>
       <c r="E44" s="42">
         <f si="1" t="shared"/>
-        <v>-9119631.9999456778</v>
+        <v>4164273.2985117002</v>
       </c>
       <c r="F44" s="42">
         <f si="5" t="shared"/>
-        <v>-801382677.39097071</v>
+        <v>332358374.63171798</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4192,19 +4192,19 @@
       </c>
       <c r="C45" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D45" s="42">
         <f si="0" t="shared"/>
-        <v>55444401.948796421</v>
+        <v>8550187.5629852396</v>
       </c>
       <c r="E45" s="42">
         <f si="1" t="shared"/>
-        <v>-9788699.7437637262</v>
+        <v>4061060.3909549913</v>
       </c>
       <c r="F45" s="42">
         <f si="5" t="shared"/>
-        <v>-856827079.3397671</v>
+        <v>323808187.06873274</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4217,19 +4217,19 @@
       </c>
       <c r="C46" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D46" s="42">
         <f si="0" t="shared"/>
-        <v>56121642.196759172</v>
+        <v>8654661.6208023522</v>
       </c>
       <c r="E46" s="42">
         <f si="1" t="shared"/>
-        <v>-10465939.991726479</v>
+        <v>3956586.3331378796</v>
       </c>
       <c r="F46" s="42">
         <f si="5" t="shared"/>
-        <v>-912948721.53652632</v>
+        <v>315153525.4479304</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4242,19 +4242,19 @@
       </c>
       <c r="C47" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D47" s="42">
         <f si="0" t="shared"/>
-        <v>56807154.774070598</v>
+        <v>8760412.2387740053</v>
       </c>
       <c r="E47" s="42">
         <f si="1" t="shared"/>
-        <v>-11151452.569037907</v>
+        <v>3850835.7151662256</v>
       </c>
       <c r="F47" s="42">
         <f si="5" t="shared"/>
-        <v>-969755876.31059694</v>
+        <v>306393113.20915639</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4267,19 +4267,19 @@
       </c>
       <c r="C48" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D48" s="42">
         <f si="0" t="shared"/>
-        <v>57501040.725275904</v>
+        <v>8867455.0150866061</v>
       </c>
       <c r="E48" s="42">
         <f si="1" t="shared"/>
-        <v>-11845338.520243216</v>
+        <v>3743792.9388536252</v>
       </c>
       <c r="F48" s="42">
         <f si="5" t="shared"/>
-        <v>-1027256917.0358728</v>
+        <v>297525658.1940698</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4292,19 +4292,19 @@
       </c>
       <c r="C49" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D49" s="42">
         <f si="0" t="shared"/>
-        <v>58203402.329155512</v>
+        <v>8975805.7385195475</v>
       </c>
       <c r="E49" s="42">
         <f si="1" t="shared"/>
-        <v>-12547700.124122823</v>
+        <v>3635442.2154206834</v>
       </c>
       <c r="F49" s="42">
         <f si="5" t="shared"/>
-        <v>-1085460319.3650284</v>
+        <v>288549852.45555025</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4317,19 +4317,19 @@
       </c>
       <c r="C50" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D50" s="42">
         <f si="0" t="shared"/>
-        <v>58914343.113800928</v>
+        <v>9085480.39077406</v>
       </c>
       <c r="E50" s="42">
         <f si="1" t="shared"/>
-        <v>-13258640.90876824</v>
+        <v>3525767.5631661718</v>
       </c>
       <c r="F50" s="42">
         <f si="5" t="shared"/>
-        <v>-1144374662.4788294</v>
+        <v>279464372.06477618</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C51" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D51" s="42">
         <f si="0" t="shared"/>
-        <v>59633967.871874809</v>
+        <v>9196495.1488304958</v>
       </c>
       <c r="E51" s="42">
         <f si="1" t="shared"/>
-        <v>-13978265.666842116</v>
+        <v>3414752.8051097346</v>
       </c>
       <c r="F51" s="42">
         <f si="5" t="shared"/>
-        <v>-1204008630.3507042</v>
+        <v>270267876.91594571</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4367,19 +4367,19 @@
       </c>
       <c r="C52" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D52" s="42">
         <f si="0" t="shared"/>
-        <v>60362382.676057361</v>
+        <v>9308866.3873344436</v>
       </c>
       <c r="E52" s="42">
         <f si="1" t="shared"/>
-        <v>-14706680.47102467</v>
+        <v>3302381.5666057873</v>
       </c>
       <c r="F52" s="42">
         <f si="5" t="shared"/>
-        <v>-1264371013.0267615</v>
+        <v>260959010.52861127</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4392,19 +4392,19 @@
       </c>
       <c r="C53" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D53" s="42">
         <f si="0" t="shared"/>
-        <v>61099694.894681498</v>
+        <v>9422610.6810119729</v>
       </c>
       <c r="E53" s="42">
         <f si="1" t="shared"/>
-        <v>-15443992.689648811</v>
+        <v>3188637.2729282589</v>
       </c>
       <c r="F53" s="42">
         <f si="5" t="shared"/>
-        <v>-1325470707.921443</v>
+        <v>251536399.8475993</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4417,19 +4417,19 @@
       </c>
       <c r="C54" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D54" s="42">
         <f si="0" t="shared"/>
-        <v>61846013.207558915</v>
+        <v>9537744.8071144037</v>
       </c>
       <c r="E54" s="42">
         <f si="1" t="shared"/>
-        <v>-16190311.00252622</v>
+        <v>3073503.1468258277</v>
       </c>
       <c r="F54" s="42">
         <f si="5" t="shared"/>
-        <v>-1387316721.1290019</v>
+        <v>241998655.04048491</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4442,19 +4442,19 @@
       </c>
       <c r="C55" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D55" s="42">
         <f si="0" t="shared"/>
-        <v>62601447.62199945</v>
+        <v>9654285.7478929497</v>
       </c>
       <c r="E55" s="42">
         <f si="1" t="shared"/>
-        <v>-16945745.416966759</v>
+        <v>2956962.2060472816</v>
       </c>
       <c r="F55" s="42">
         <f si="5" t="shared"/>
-        <v>-1449918168.7510014</v>
+        <v>232344369.29259196</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4467,19 +4467,19 @@
       </c>
       <c r="C56" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D56" s="42">
         <f si="0" t="shared"/>
-        <v>63366109.489026234</v>
+        <v>9772250.6931035928</v>
       </c>
       <c r="E56" s="42">
         <f si="1" t="shared"/>
-        <v>-17710407.283993546</v>
+        <v>2838997.2608366376</v>
       </c>
       <c r="F56" s="42">
         <f si="5" t="shared"/>
-        <v>-1513284278.2400277</v>
+        <v>222572118.59948838</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4492,19 +4492,19 @@
       </c>
       <c r="C57" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D57" s="42">
         <f si="0" t="shared"/>
-        <v>64140111.519788787</v>
+        <v>9891657.0425425712</v>
       </c>
       <c r="E57" s="42">
         <f si="1" t="shared"/>
-        <v>-18484409.314756092</v>
+        <v>2719590.9113976606</v>
       </c>
       <c r="F57" s="42">
         <f si="5" t="shared"/>
-        <v>-1577424389.7598164</v>
+        <v>212680461.5569458</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4517,19 +4517,19 @@
       </c>
       <c r="C58" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D58" s="42">
         <f si="0" t="shared"/>
-        <v>64923567.80217661</v>
+        <v>10012522.408612836</v>
       </c>
       <c r="E58" s="42">
         <f si="1" t="shared"/>
-        <v>-19267865.597143918</v>
+        <v>2598725.5453273961</v>
       </c>
       <c r="F58" s="42">
         <f si="5" t="shared"/>
-        <v>-1642347957.5619931</v>
+        <v>202667939.14833295</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4542,19 +4542,19 @@
       </c>
       <c r="C59" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D59" s="42">
         <f si="0" t="shared"/>
-        <v>65716593.817635819</v>
+        <v>10134864.618921883</v>
       </c>
       <c r="E59" s="42">
         <f si="1" t="shared"/>
-        <v>-20060891.612603124</v>
+        <v>2476383.3350183484</v>
       </c>
       <c r="F59" s="42">
         <f si="5" t="shared"/>
-        <v>-1708064551.3796289</v>
+        <v>192533074.52941108</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4567,19 +4567,19 @@
       </c>
       <c r="C60" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D60" s="42">
         <f si="0" t="shared"/>
-        <v>66519306.458191037</v>
+        <v>10258701.71891132</v>
       </c>
       <c r="E60" s="42">
         <f si="1" t="shared"/>
-        <v>-20863604.253158342</v>
+        <v>2352546.2350289114</v>
       </c>
       <c r="F60" s="42">
         <f si="5" t="shared"/>
-        <v>-1774583857.8378201</v>
+        <v>182274372.81049976</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4592,19 +4592,19 @@
       </c>
       <c r="C61" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D61" s="42">
         <f si="0" t="shared"/>
-        <v>67331824.043675303</v>
+        <v>10384051.97451856</v>
       </c>
       <c r="E61" s="42">
         <f si="1" t="shared"/>
-        <v>-21676121.83864262</v>
+        <v>2227195.9794216715</v>
       </c>
       <c r="F61" s="42">
         <f si="5" t="shared"/>
-        <v>-1841915681.8814955</v>
+        <v>171890320.83598119</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4617,19 +4617,19 @@
       </c>
       <c r="C62" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D62" s="42">
         <f si="0" t="shared"/>
-        <v>68154266.339170456</v>
+        <v>10510933.874871043</v>
       </c>
       <c r="E62" s="42">
         <f si="1" t="shared"/>
-        <v>-22498564.134137757</v>
+        <v>2100314.0790691874</v>
       </c>
       <c r="F62" s="42">
         <f si="5" t="shared"/>
-        <v>-1910069948.2206659</v>
+        <v>161379386.96111014</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4642,19 +4642,19 @@
       </c>
       <c r="C63" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D63" s="42">
         <f si="0" t="shared"/>
-        <v>68986754.572660387</v>
+        <v>10639366.135013383</v>
       </c>
       <c r="E63" s="42">
         <f si="1" t="shared"/>
-        <v>-23331052.367627691</v>
+        <v>1971881.8189268478</v>
       </c>
       <c r="F63" s="42">
         <f si="5" t="shared"/>
-        <v>-1979056702.7933264</v>
+        <v>150740020.82609677</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4667,19 +4667,19 @@
       </c>
       <c r="C64" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D64" s="42">
         <f si="0" t="shared"/>
-        <v>69829411.452900186</v>
+        <v>10769367.698667821</v>
       </c>
       <c r="E64" s="42">
         <f si="1" t="shared"/>
-        <v>-24173709.247867491</v>
+        <v>1841880.2552724103</v>
       </c>
       <c r="F64" s="42">
         <f si="5" t="shared"/>
-        <v>-2048886114.2462265</v>
+        <v>139970653.12742895</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4692,19 +4692,19 @@
       </c>
       <c r="C65" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D65" s="42">
         <f si="0" t="shared"/>
-        <v>70682361.187503308</v>
+        <v>10900957.741028428</v>
       </c>
       <c r="E65" s="42">
         <f si="1" t="shared"/>
-        <v>-25026658.98247062</v>
+        <v>1710290.212911804</v>
       </c>
       <c r="F65" s="42">
         <f si="5" t="shared"/>
-        <v>-2119568475.4337299</v>
+        <v>129069695.38640052</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4717,19 +4717,19 @@
       </c>
       <c r="C66" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D66" s="42">
         <f si="0" t="shared"/>
-        <v>71545729.50124985</v>
+        <v>11034155.671589434</v>
       </c>
       <c r="E66" s="42">
         <f si="1" t="shared"/>
-        <v>-25890027.296217162</v>
+        <v>1577092.282350797</v>
       </c>
       <c r="F66" s="42">
         <f si="5" t="shared"/>
-        <v>-2191114204.9349799</v>
+        <v>118035539.71481109</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4742,19 +4742,19 @@
       </c>
       <c r="C67" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D67" s="42">
         <f si="0" t="shared"/>
-        <v>72419643.654618308</v>
+        <v>11168981.137008132</v>
       </c>
       <c r="E67" s="42">
         <f si="1" t="shared"/>
-        <v>-26763941.449585617</v>
+        <v>1442266.8169320994</v>
       </c>
       <c r="F67" s="42">
         <f si="5" t="shared"/>
-        <v>-2263533848.5895982</v>
+        <v>106866558.57780296</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4767,19 +4767,19 @@
       </c>
       <c r="C68" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D68" s="42">
         <f si="0" t="shared"/>
-        <v>73304232.4625438</v>
+        <v>11305454.024002744</v>
       </c>
       <c r="E68" s="42">
         <f si="1" t="shared"/>
-        <v>-27648530.257511113</v>
+        <v>1305793.9299374879</v>
       </c>
       <c r="F68" s="42">
         <f si="5" t="shared"/>
-        <v>-2336838081.0521421</v>
+        <v>95561104.55380021</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4792,19 +4792,19 @@
       </c>
       <c r="C69" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D69" s="42">
         <f si="0" t="shared"/>
-        <v>74199626.313405424</v>
+        <v>11443594.46228571</v>
       </c>
       <c r="E69" s="42">
         <f si="1" t="shared"/>
-        <v>-28543924.108372737</v>
+        <v>1167653.4916545204</v>
       </c>
       <c r="F69" s="42">
         <f si="5" t="shared"/>
-        <v>-2411037707.3655477</v>
+        <v>84117510.091514498</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4817,19 +4817,19 @@
       </c>
       <c r="C70" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D70" s="42">
         <f si="0" t="shared"/>
-        <v>75105957.188245445</v>
+        <v>11583422.827532822</v>
       </c>
       <c r="E70" s="42">
         <f si="1" t="shared"/>
-        <v>-29450254.983212758</v>
+        <v>1027825.1264074083</v>
       </c>
       <c r="F70" s="42">
         <f si="5" t="shared"/>
-        <v>-2486143664.553793</v>
+        <v>72534087.26398167</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4842,19 +4842,19 @@
       </c>
       <c r="C71" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D71" s="42">
         <f si="0" t="shared"/>
-        <v>76023358.680223331</v>
+        <v>11724959.744388621</v>
       </c>
       <c r="E71" s="42">
         <f si="1" t="shared"/>
-        <v>-30367656.475190639</v>
+        <v>886288.20955161087</v>
       </c>
       <c r="F71" s="42">
         <f si="5" t="shared"/>
-        <v>-2562167023.2340164</v>
+        <v>60809127.519593045</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4867,19 +4867,19 @@
       </c>
       <c r="C72" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D72" s="42">
         <f si="0" t="shared"/>
-        <v>76951966.01430738</v>
+        <v>11868226.089508526</v>
       </c>
       <c r="E72" s="42">
         <f si="1" t="shared"/>
-        <v>-31296263.809274681</v>
+        <v>743021.86443170579</v>
       </c>
       <c r="F72" s="42">
         <f si="5" t="shared"/>
-        <v>-2639118989.2483239</v>
+        <v>48940901.430084519</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4892,19 +4892,19 @@
       </c>
       <c r="C73" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D73" s="42">
         <f si="0" t="shared"/>
-        <v>77891916.067206845</v>
+        <v>12013242.994638143</v>
       </c>
       <c r="E73" s="42">
         <f si="1" t="shared"/>
-        <v>-32236213.862174157</v>
+        <v>598004.95930208836</v>
       </c>
       <c r="F73" s="42">
         <f si="5" t="shared"/>
-        <v>-2717010905.3155308</v>
+        <v>36927658.435446374</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4917,19 +4917,19 @@
       </c>
       <c r="C74" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D74" s="42">
         <f si="0" t="shared"/>
-        <v>78843347.387547642</v>
+        <v>12160031.849730186</v>
       </c>
       <c r="E74" s="42">
         <f si="1" t="shared"/>
-        <v>-33187645.182514954</v>
+        <v>451216.10421004437</v>
       </c>
       <c r="F74" s="42">
         <f si="5" t="shared"/>
-        <v>-2795854252.7030783</v>
+        <v>24767626.585716188</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4942,19 +4942,19 @@
       </c>
       <c r="C75" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D75" s="42">
         <f si="0" t="shared"/>
-        <v>79806400.216294318</v>
+        <v>12308614.306099493</v>
       </c>
       <c r="E75" s="42">
         <f si="1" t="shared"/>
-        <v>-34150698.011261635</v>
+        <v>302633.64784073923</v>
       </c>
       <c r="F75" s="42">
         <f si="5" t="shared"/>
-        <v>-2875660652.9193726</v>
+        <v>12459012.279616695</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4967,19 +4967,19 @@
       </c>
       <c r="C76" s="42">
         <f si="4" t="shared"/>
-        <v>45655702.205032691</v>
+        <v>12611247.953940231</v>
       </c>
       <c r="D76" s="42">
         <f si="0" t="shared"/>
-        <v>80781216.507421643</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="E76" s="42">
         <f si="1" t="shared"/>
-        <v>-35125514.302388951</v>
+        <v>152235.67432365401</v>
       </c>
       <c r="F76" s="42">
         <f si="5" t="shared"/>
-        <v>-2956441869.4267941</v>
+        <v>1.1734664440155029E-7</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5004,13 +5004,10 @@
         <v>72</v>
       </c>
       <c r="E79" s="45">
-        <f>SUM(E83:E94)</f>
-        <v>34516984.092491068</v>
-      </c>
-      <c r="F79" s="49">
-        <f>F80-E80</f>
-        <v>-165621099.91665101</v>
-      </c>
+        <f ca="1">SUM(E83:INDIRECT(CONCATENATE("E",82+B10)))</f>
+        <v>213465593.77699476</v>
+      </c>
+      <c r="F79" s="49"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="46" t="s">
@@ -5018,19 +5015,17 @@
       </c>
       <c r="B80" s="103">
         <f>PMT(B9,B10,B11,B12,B79)</f>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="C80" s="52"/>
       <c r="D80" s="51" t="s">
         <v>71</v>
       </c>
       <c r="E80" s="50">
-        <f>F82+E79</f>
-        <v>541257099.09249103</v>
-      </c>
-      <c r="F80" s="49">
-        <v>375635999.17584002</v>
-      </c>
+        <f ca="1">F82+E79</f>
+        <v>747540736.77699471</v>
+      </c>
+      <c r="F80" s="49"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="45"/>
@@ -5059,7 +5054,7 @@
       </c>
       <c r="F82" s="44">
         <f>B3</f>
-        <v>506740115</v>
+        <v>534075143</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5072,18 +5067,18 @@
       </c>
       <c r="C83" s="42">
         <f>B80</f>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D83" s="42">
         <f ref="D83:D142" si="6" t="shared">C83-E83</f>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="E83" s="42">
         <v>0</v>
       </c>
       <c r="F83" s="42">
         <f ref="F83:F94" si="7" t="shared">F82-D83</f>
-        <v>461635356.7422924</v>
+        <v>521616130.72038341</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5096,19 +5091,19 @@
       </c>
       <c r="C84" s="42">
         <f ref="C84:C142" si="9" t="shared">$C$83</f>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D84" s="42">
         <f si="6" t="shared"/>
-        <v>39465991.628801569</v>
+        <v>6085426.5076346705</v>
       </c>
       <c r="E84" s="42">
         <f ref="E84:E142" si="10" t="shared">F83*$B$9</f>
-        <v>5638766.6289060069</v>
+        <v>6373585.7719819071</v>
       </c>
       <c r="F84" s="42">
         <f si="7" t="shared"/>
-        <v>422169365.11349082</v>
+        <v>515530704.21274871</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5121,19 +5116,19 @@
       </c>
       <c r="C85" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D85" s="42">
         <f si="6" t="shared"/>
-        <v>39948059.376262695</v>
+        <v>6159783.8472973388</v>
       </c>
       <c r="E85" s="42">
         <f si="10" t="shared"/>
-        <v>5156698.8814448807</v>
+        <v>6299228.4323192388</v>
       </c>
       <c r="F85" s="42">
         <f si="7" t="shared"/>
-        <v>382221305.73722816</v>
+        <v>509370920.3654514</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5146,19 +5141,19 @@
       </c>
       <c r="C86" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D86" s="42">
         <f si="6" t="shared"/>
-        <v>40436015.467169687</v>
+        <v>6235049.7533447566</v>
       </c>
       <c r="E86" s="42">
         <f si="10" t="shared"/>
-        <v>4668742.7905378845</v>
+        <v>6223962.526271821</v>
       </c>
       <c r="F86" s="42">
         <f si="7" t="shared"/>
-        <v>341785290.27005845</v>
+        <v>503135870.61210662</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5171,19 +5166,19 @@
       </c>
       <c r="C87" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D87" s="42">
         <f si="6" t="shared"/>
-        <v>40929931.826244175</v>
+        <v>6311235.3274768963</v>
       </c>
       <c r="E87" s="42">
         <f si="10" t="shared"/>
-        <v>4174826.4314634008</v>
+        <v>6147776.9521396812</v>
       </c>
       <c r="F87" s="42">
         <f si="7" t="shared"/>
-        <v>300855358.44381428</v>
+        <v>496824635.2846297</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5196,19 +5191,19 @@
       </c>
       <c r="C88" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D88" s="42">
         <f si="6" t="shared"/>
-        <v>41429881.256751209</v>
+        <v>6388351.8070445107</v>
       </c>
       <c r="E88" s="42">
         <f si="10" t="shared"/>
-        <v>3674877.0009563603</v>
+        <v>6070660.4725720668</v>
       </c>
       <c r="F88" s="42">
         <f si="7" t="shared"/>
-        <v>259425477.18706307</v>
+        <v>490436283.4775852</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5221,19 +5216,19 @@
       </c>
       <c r="C89" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D89" s="42">
         <f si="6" t="shared"/>
-        <v>41935937.451230533</v>
+        <v>6466410.5667066425</v>
       </c>
       <c r="E89" s="42">
         <f si="10" t="shared"/>
-        <v>3168820.8064770414</v>
+        <v>5992601.712909935</v>
       </c>
       <c r="F89" s="42">
         <f si="7" t="shared"/>
-        <v>217489539.73583254</v>
+        <v>483969872.91087854</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5246,19 +5241,19 @@
       </c>
       <c r="C90" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D90" s="42">
         <f si="6" t="shared"/>
-        <v>42448175.002358779</v>
+        <v>6545423.1201083856</v>
       </c>
       <c r="E90" s="42">
         <f si="10" t="shared"/>
-        <v>2656583.2553487909</v>
+        <v>5913589.159508192</v>
       </c>
       <c r="F90" s="42">
         <f si="7" t="shared"/>
-        <v>175041364.73347378</v>
+        <v>477424449.79077017</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5271,19 +5266,19 @@
       </c>
       <c r="C91" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D91" s="42">
         <f si="6" t="shared"/>
-        <v>42966669.413944513</v>
+        <v>6625401.1215791404</v>
       </c>
       <c r="E91" s="42">
         <f si="10" t="shared"/>
-        <v>2138088.8437630623</v>
+        <v>5833611.1580374371</v>
       </c>
       <c r="F91" s="42">
         <f si="7" t="shared"/>
-        <v>132074695.31952927</v>
+        <v>470799048.669191</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5296,19 +5291,19 @@
       </c>
       <c r="C92" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D92" s="42">
         <f si="6" t="shared"/>
-        <v>43491497.112057418</v>
+        <v>6706356.3678516261</v>
       </c>
       <c r="E92" s="42">
         <f si="10" t="shared"/>
-        <v>1613261.1456501579</v>
+        <v>5752655.9117649514</v>
       </c>
       <c r="F92" s="42">
         <f si="7" t="shared"/>
-        <v>88583198.207471848</v>
+        <v>464092692.30133939</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5321,19 +5316,19 @@
       </c>
       <c r="C93" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D93" s="42">
         <f si="6" t="shared"/>
-        <v>44022735.456293546</v>
+        <v>6788300.7998018963</v>
       </c>
       <c r="E93" s="42">
         <f si="10" t="shared"/>
-        <v>1082022.8014140264</v>
+        <v>5670711.4798146812</v>
       </c>
       <c r="F93" s="42">
         <f si="7" t="shared"/>
-        <v>44560462.751178302</v>
+        <v>457304391.5015375</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5346,19 +5341,19 @@
       </c>
       <c r="C94" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D94" s="42">
         <f si="6" t="shared"/>
-        <v>44560462.751178116</v>
+        <v>6871246.5042106109</v>
       </c>
       <c r="E94" s="42">
         <f si="10" t="shared"/>
-        <v>544295.50652945857</v>
+        <v>5587765.7754059667</v>
       </c>
       <c r="F94" s="42">
         <f si="7" t="shared"/>
-        <v>1.862645149230957E-7</v>
+        <v>450433144.99732691</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5371,19 +5366,19 @@
       </c>
       <c r="C95" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D95" s="42">
         <f si="6" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>6955205.7155458396</v>
       </c>
       <c r="E95" s="42">
         <f si="10" t="shared"/>
-        <v>2.275176967183749E-9</v>
+        <v>5503806.5640707379</v>
       </c>
       <c r="F95" s="42">
         <f ref="F95:F142" si="11" t="shared">F94-D95</f>
-        <v>-45104758.257707387</v>
+        <v>443477939.28178108</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5396,19 +5391,19 @@
       </c>
       <c r="C96" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D96" s="42">
         <f si="6" t="shared"/>
-        <v>45655702.205032684</v>
+        <v>7040190.8177676378</v>
       </c>
       <c r="E96" s="42">
         <f si="10" t="shared"/>
-        <v>-550943.94732510811</v>
+        <v>5418821.4618489398</v>
       </c>
       <c r="F96" s="42">
         <f si="11" t="shared"/>
-        <v>-90760460.462740064</v>
+        <v>436437748.46401346</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5421,19 +5416,19 @@
       </c>
       <c r="C97" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D97" s="42">
         <f si="6" t="shared"/>
-        <v>46213375.8022843</v>
+        <v>7126214.3461546749</v>
       </c>
       <c r="E97" s="42">
         <f si="10" t="shared"/>
-        <v>-1108617.5445767271</v>
+        <v>5332797.9334619027</v>
       </c>
       <c r="F97" s="42">
         <f si="11" t="shared"/>
-        <v>-136973836.26502436</v>
+        <v>429311534.11785877</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5446,19 +5441,19 @@
       </c>
       <c r="C98" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D98" s="42">
         <f si="6" t="shared"/>
-        <v>46777861.250543594</v>
+        <v>7213288.9891531905</v>
       </c>
       <c r="E98" s="42">
         <f si="10" t="shared"/>
-        <v>-1673102.9928360234</v>
+        <v>5245723.290463387</v>
       </c>
       <c r="F98" s="42">
         <f si="11" t="shared"/>
-        <v>-183751697.51556796</v>
+        <v>422098245.12870556</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5471,19 +5466,19 @@
       </c>
       <c r="C99" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D99" s="42">
         <f si="6" t="shared"/>
-        <v>47349241.754958488</v>
+        <v>7301427.5902485345</v>
       </c>
       <c r="E99" s="42">
         <f si="10" t="shared"/>
-        <v>-2244483.4972509174</v>
+        <v>5157584.6893680431</v>
       </c>
       <c r="F99" s="42">
         <f si="11" t="shared"/>
-        <v>-231100939.27052644</v>
+        <v>414796817.53845704</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5496,19 +5491,19 @@
       </c>
       <c r="C100" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D100" s="42">
         <f si="6" t="shared"/>
-        <v>47927601.537008092</v>
+        <v>7390643.1498595746</v>
       </c>
       <c r="E100" s="42">
         <f si="10" t="shared"/>
-        <v>-2822843.2793005202</v>
+        <v>5068369.1297570029</v>
       </c>
       <c r="F100" s="42">
         <f si="11" t="shared"/>
-        <v>-279028540.80753452</v>
+        <v>407406174.38859749</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5521,19 +5516,19 @@
       </c>
       <c r="C101" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D101" s="42">
         <f si="6" t="shared"/>
-        <v>48513025.846916951</v>
+        <v>7480948.8272562558</v>
       </c>
       <c r="E101" s="42">
         <f si="10" t="shared"/>
-        <v>-3408267.5892093768</v>
+        <v>4978063.4523603218</v>
       </c>
       <c r="F101" s="42">
         <f si="11" t="shared"/>
-        <v>-327541566.65445149</v>
+        <v>399925225.56134123</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5546,19 +5541,19 @@
       </c>
       <c r="C102" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D102" s="42">
         <f si="6" t="shared"/>
-        <v>49105600.976220921</v>
+        <v>7572357.9425005941</v>
       </c>
       <c r="E102" s="42">
         <f si="10" t="shared"/>
-        <v>-4000842.7185133505</v>
+        <v>4886654.3371159835</v>
       </c>
       <c r="F102" s="42">
         <f si="11" t="shared"/>
-        <v>-376647167.6306724</v>
+        <v>392352867.61884063</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5571,19 +5566,19 @@
       </c>
       <c r="C103" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D103" s="42">
         <f si="6" t="shared"/>
-        <v>49705414.270486563</v>
+        <v>7664883.9784113737</v>
       </c>
       <c r="E103" s="42">
         <f si="10" t="shared"/>
-        <v>-4600656.0127789909</v>
+        <v>4794128.3012052039</v>
       </c>
       <c r="F103" s="42">
         <f si="11" t="shared"/>
-        <v>-426352581.90115893</v>
+        <v>384687983.64042926</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -5596,19 +5591,19 @@
       </c>
       <c r="C104" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D104" s="42">
         <f si="6" t="shared"/>
-        <v>50312554.142185844</v>
+        <v>7758540.5825528642</v>
       </c>
       <c r="E104" s="42">
         <f si="10" t="shared"/>
-        <v>-5207795.8844782738</v>
+        <v>4700471.6970637133</v>
       </c>
       <c r="F104" s="42">
         <f si="11" t="shared"/>
-        <v>-476665136.0433448</v>
+        <v>376929443.05787641</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -5621,19 +5616,19 @@
       </c>
       <c r="C105" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D105" s="42">
         <f si="6" t="shared"/>
-        <v>50927110.083728164</v>
+        <v>7853341.5692478307</v>
       </c>
       <c r="E105" s="42">
         <f si="10" t="shared"/>
-        <v>-5822351.8260205938</v>
+        <v>4605670.7103687469</v>
       </c>
       <c r="F105" s="42">
         <f si="11" t="shared"/>
-        <v>-527592246.12707293</v>
+        <v>369076101.48862857</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5646,19 +5641,19 @@
       </c>
       <c r="C106" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D106" s="42">
         <f si="6" t="shared"/>
-        <v>51549172.680651523</v>
+        <v>7949300.9216151442</v>
       </c>
       <c r="E106" s="42">
         <f si="10" t="shared"/>
-        <v>-6444414.4229439469</v>
+        <v>4509711.3580014333</v>
       </c>
       <c r="F106" s="42">
         <f si="11" t="shared"/>
-        <v>-579141418.80772448</v>
+        <v>361126800.56701344</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5671,19 +5666,19 @@
       </c>
       <c r="C107" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D107" s="42">
         <f si="6" t="shared"/>
-        <v>52178833.62497481</v>
+        <v>8046432.7936322857</v>
       </c>
       <c r="E107" s="42">
         <f si="10" t="shared"/>
-        <v>-7074075.367267238</v>
+        <v>4412579.4859842919</v>
       </c>
       <c r="F107" s="42">
         <f si="11" t="shared"/>
-        <v>-631320252.43269932</v>
+        <v>353080367.77338117</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5696,19 +5691,19 @@
       </c>
       <c r="C108" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D108" s="42">
         <f si="6" t="shared"/>
-        <v>52816185.728713252</v>
+        <v>8144751.5122230547</v>
       </c>
       <c r="E108" s="42">
         <f si="10" t="shared"/>
-        <v>-7711427.471005681</v>
+        <v>4314260.7673935229</v>
       </c>
       <c r="F108" s="42">
         <f si="11" t="shared"/>
-        <v>-684136438.1614126</v>
+        <v>344935616.26115811</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -5721,19 +5716,19 @@
       </c>
       <c r="C109" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D109" s="42">
         <f si="6" t="shared"/>
-        <v>53461322.937558867</v>
+        <v>8244271.5793707874</v>
       </c>
       <c r="E109" s="42">
         <f si="10" t="shared"/>
-        <v>-8356564.6798512908</v>
+        <v>4214740.7002457902</v>
       </c>
       <c r="F109" s="42">
         <f si="11" t="shared"/>
-        <v>-737597761.09897149</v>
+        <v>336691344.68178731</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -5746,19 +5741,19 @@
       </c>
       <c r="C110" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D110" s="42">
         <f si="6" t="shared"/>
-        <v>54114340.344728053</v>
+        <v>8345007.674257393</v>
       </c>
       <c r="E110" s="42">
         <f si="10" t="shared"/>
-        <v>-9009582.0870204773</v>
+        <v>4114004.6053591846</v>
       </c>
       <c r="F110" s="42">
         <f si="11" t="shared"/>
-        <v>-791712101.4436996</v>
+        <v>328346337.00752991</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -5771,19 +5766,19 @@
       </c>
       <c r="C111" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D111" s="42">
         <f si="6" t="shared"/>
-        <v>54775334.204978354</v>
+        <v>8446974.6554285306</v>
       </c>
       <c r="E111" s="42">
         <f si="10" t="shared"/>
-        <v>-9670575.9472707827</v>
+        <v>4012037.6241880474</v>
       </c>
       <c r="F111" s="42">
         <f si="11" t="shared"/>
-        <v>-846487435.64867795</v>
+        <v>319899362.35210139</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -5796,19 +5791,19 @@
       </c>
       <c r="C112" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D112" s="42">
         <f si="6" t="shared"/>
-        <v>55444401.948796406</v>
+        <v>8550187.5629852396</v>
       </c>
       <c r="E112" s="42">
         <f si="10" t="shared"/>
-        <v>-10339643.691088833</v>
+        <v>3908824.7166313385</v>
       </c>
       <c r="F112" s="42">
         <f si="11" t="shared"/>
-        <v>-901931837.59747434</v>
+        <v>311349174.78911614</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -5821,19 +5816,19 @@
       </c>
       <c r="C113" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D113" s="42">
         <f si="6" t="shared"/>
-        <v>56121642.196759157</v>
+        <v>8654661.6208023503</v>
       </c>
       <c r="E113" s="42">
         <f si="10" t="shared"/>
-        <v>-11016883.939051585</v>
+        <v>3804350.6588142267</v>
       </c>
       <c r="F113" s="42">
         <f si="11" t="shared"/>
-        <v>-958053479.79423344</v>
+        <v>302694513.1683138</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -5846,19 +5841,19 @@
       </c>
       <c r="C114" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D114" s="42">
         <f si="6" t="shared"/>
-        <v>56807154.774070583</v>
+        <v>8760412.2387740053</v>
       </c>
       <c r="E114" s="42">
         <f si="10" t="shared"/>
-        <v>-11702396.516363012</v>
+        <v>3698600.0408425727</v>
       </c>
       <c r="F114" s="42">
         <f si="11" t="shared"/>
-        <v>-1014860634.5683041</v>
+        <v>293934100.9295398</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -5871,19 +5866,19 @@
       </c>
       <c r="C115" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D115" s="42">
         <f si="6" t="shared"/>
-        <v>57501040.725275896</v>
+        <v>8867455.0150866061</v>
       </c>
       <c r="E115" s="42">
         <f si="10" t="shared"/>
-        <v>-12396282.467568321</v>
+        <v>3591557.2645299723</v>
       </c>
       <c r="F115" s="42">
         <f si="11" t="shared"/>
-        <v>-1072361675.2935799</v>
+        <v>285066645.91445321</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -5896,19 +5891,19 @@
       </c>
       <c r="C116" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D116" s="42">
         <f si="6" t="shared"/>
-        <v>58203402.329155505</v>
+        <v>8975805.7385195475</v>
       </c>
       <c r="E116" s="42">
         <f si="10" t="shared"/>
-        <v>-13098644.071447928</v>
+        <v>3483206.5410970305</v>
       </c>
       <c r="F116" s="42">
         <f si="11" t="shared"/>
-        <v>-1130565077.6227355</v>
+        <v>276090840.17593366</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -5921,19 +5916,19 @@
       </c>
       <c r="C117" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D117" s="42">
         <f si="6" t="shared"/>
-        <v>58914343.113800921</v>
+        <v>9085480.3907740582</v>
       </c>
       <c r="E117" s="42">
         <f si="10" t="shared"/>
-        <v>-13809584.856093345</v>
+        <v>3373531.8888425194</v>
       </c>
       <c r="F117" s="42">
         <f si="11" t="shared"/>
-        <v>-1189479420.7365365</v>
+        <v>267005359.78515959</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -5946,19 +5941,19 @@
       </c>
       <c r="C118" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D118" s="42">
         <f si="6" t="shared"/>
-        <v>59633967.871874794</v>
+        <v>9196495.1488304958</v>
       </c>
       <c r="E118" s="42">
         <f si="10" t="shared"/>
-        <v>-14529209.614167221</v>
+        <v>3262517.1307860822</v>
       </c>
       <c r="F118" s="42">
         <f si="11" t="shared"/>
-        <v>-1249113388.6084113</v>
+        <v>257808864.63632908</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -5971,19 +5966,19 @@
       </c>
       <c r="C119" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D119" s="42">
         <f si="6" t="shared"/>
-        <v>60362382.676057346</v>
+        <v>9308866.3873344436</v>
       </c>
       <c r="E119" s="42">
         <f si="10" t="shared"/>
-        <v>-15257624.418349775</v>
+        <v>3150145.8922821339</v>
       </c>
       <c r="F119" s="42">
         <f si="11" t="shared"/>
-        <v>-1309475771.2844687</v>
+        <v>248499998.24899465</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -5996,19 +5991,19 @@
       </c>
       <c r="C120" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D120" s="42">
         <f si="6" t="shared"/>
-        <v>61099694.894681491</v>
+        <v>9422610.6810119711</v>
       </c>
       <c r="E120" s="42">
         <f si="10" t="shared"/>
-        <v>-15994936.636973916</v>
+        <v>3036401.5986046055</v>
       </c>
       <c r="F120" s="42">
         <f si="11" t="shared"/>
-        <v>-1370575466.1791501</v>
+        <v>239077387.56798267</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -6021,19 +6016,19 @@
       </c>
       <c r="C121" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D121" s="42">
         <f si="6" t="shared"/>
-        <v>61846013.2075589</v>
+        <v>9537744.8071144037</v>
       </c>
       <c r="E121" s="42">
         <f si="10" t="shared"/>
-        <v>-16741254.949851325</v>
+        <v>2921267.4725021748</v>
       </c>
       <c r="F121" s="42">
         <f si="11" t="shared"/>
-        <v>-1432421479.386709</v>
+        <v>229539642.76086828</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -6046,19 +6041,19 @@
       </c>
       <c r="C122" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D122" s="42">
         <f si="6" t="shared"/>
-        <v>62601447.621999443</v>
+        <v>9654285.7478929497</v>
       </c>
       <c r="E122" s="42">
         <f si="10" t="shared"/>
-        <v>-17496689.364291865</v>
+        <v>2804726.5317236288</v>
       </c>
       <c r="F122" s="42">
         <f si="11" t="shared"/>
-        <v>-1495022927.0087085</v>
+        <v>219885357.01297534</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6071,19 +6066,19 @@
       </c>
       <c r="C123" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D123" s="42">
         <f si="6" t="shared"/>
-        <v>63366109.489026226</v>
+        <v>9772250.6931035928</v>
       </c>
       <c r="E123" s="42">
         <f si="10" t="shared"/>
-        <v>-18261351.231318653</v>
+        <v>2686761.5865129842</v>
       </c>
       <c r="F123" s="42">
         <f si="11" t="shared"/>
-        <v>-1558389036.4977348</v>
+        <v>210113106.31987175</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6096,19 +6091,19 @@
       </c>
       <c r="C124" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D124" s="42">
         <f si="6" t="shared"/>
-        <v>64140111.519788772</v>
+        <v>9891657.0425425693</v>
       </c>
       <c r="E124" s="42">
         <f si="10" t="shared"/>
-        <v>-19035353.262081195</v>
+        <v>2567355.2370740073</v>
       </c>
       <c r="F124" s="42">
         <f si="11" t="shared"/>
-        <v>-1622529148.0175235</v>
+        <v>200221449.27732918</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6121,19 +6116,19 @@
       </c>
       <c r="C125" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D125" s="42">
         <f si="6" t="shared"/>
-        <v>64923567.802176595</v>
+        <v>10012522.408612834</v>
       </c>
       <c r="E125" s="42">
         <f si="10" t="shared"/>
-        <v>-19818809.544469021</v>
+        <v>2446489.8710037428</v>
       </c>
       <c r="F125" s="42">
         <f si="11" t="shared"/>
-        <v>-1687452715.8197002</v>
+        <v>190208926.86871633</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6146,19 +6141,19 @@
       </c>
       <c r="C126" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D126" s="42">
         <f si="6" t="shared"/>
-        <v>65716593.817635804</v>
+        <v>10134864.618921883</v>
       </c>
       <c r="E126" s="42">
         <f si="10" t="shared"/>
-        <v>-20611835.559928231</v>
+        <v>2324147.6606946951</v>
       </c>
       <c r="F126" s="42">
         <f si="11" t="shared"/>
-        <v>-1753169309.637336</v>
+        <v>180074062.24979445</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6171,19 +6166,19 @@
       </c>
       <c r="C127" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D127" s="42">
         <f si="6" t="shared"/>
-        <v>66519306.458191022</v>
+        <v>10258701.71891132</v>
       </c>
       <c r="E127" s="42">
         <f si="10" t="shared"/>
-        <v>-21414548.200483449</v>
+        <v>2200310.5607052585</v>
       </c>
       <c r="F127" s="42">
         <f si="11" t="shared"/>
-        <v>-1819688616.0955269</v>
+        <v>169815360.53088313</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -6196,19 +6191,19 @@
       </c>
       <c r="C128" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D128" s="42">
         <f si="6" t="shared"/>
-        <v>67331824.043675303</v>
+        <v>10384051.97451856</v>
       </c>
       <c r="E128" s="42">
         <f si="10" t="shared"/>
-        <v>-22227065.785967723</v>
+        <v>2074960.3050980184</v>
       </c>
       <c r="F128" s="42">
         <f si="11" t="shared"/>
-        <v>-1887020440.1392021</v>
+        <v>159431308.55636457</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6221,19 +6216,19 @@
       </c>
       <c r="C129" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D129" s="42">
         <f si="6" t="shared"/>
-        <v>68154266.339170426</v>
+        <v>10510933.874871043</v>
       </c>
       <c r="E129" s="42">
         <f si="10" t="shared"/>
-        <v>-23049508.081462856</v>
+        <v>1948078.4047455341</v>
       </c>
       <c r="F129" s="42">
         <f si="11" t="shared"/>
-        <v>-1955174706.4783726</v>
+        <v>148920374.68149352</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6246,19 +6241,19 @@
       </c>
       <c r="C130" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D130" s="42">
         <f si="6" t="shared"/>
-        <v>68986754.572660357</v>
+        <v>10639366.135013383</v>
       </c>
       <c r="E130" s="42">
         <f si="10" t="shared"/>
-        <v>-23881996.314952791</v>
+        <v>1819646.1446031947</v>
       </c>
       <c r="F130" s="42">
         <f si="11" t="shared"/>
-        <v>-2024161461.051033</v>
+        <v>138281008.54648015</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6271,19 +6266,19 @@
       </c>
       <c r="C131" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D131" s="42">
         <f si="6" t="shared"/>
-        <v>69829411.452900171</v>
+        <v>10769367.698667821</v>
       </c>
       <c r="E131" s="42">
         <f si="10" t="shared"/>
-        <v>-24724653.19519259</v>
+        <v>1689644.5809487572</v>
       </c>
       <c r="F131" s="42">
         <f si="11" t="shared"/>
-        <v>-2093990872.5039332</v>
+        <v>127511640.84781232</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6296,19 +6291,19 @@
       </c>
       <c r="C132" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D132" s="42">
         <f si="6" t="shared"/>
-        <v>70682361.187503293</v>
+        <v>10900957.741028426</v>
       </c>
       <c r="E132" s="42">
         <f si="10" t="shared"/>
-        <v>-25577602.92979572</v>
+        <v>1558054.5385881509</v>
       </c>
       <c r="F132" s="42">
         <f si="11" t="shared"/>
-        <v>-2164673233.6914363</v>
+        <v>116610683.1067839</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6321,19 +6316,19 @@
       </c>
       <c r="C133" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D133" s="42">
         <f si="6" t="shared"/>
-        <v>71545729.501249835</v>
+        <v>11034155.671589434</v>
       </c>
       <c r="E133" s="42">
         <f si="10" t="shared"/>
-        <v>-26440971.243542258</v>
+        <v>1424856.6080271439</v>
       </c>
       <c r="F133" s="42">
         <f si="11" t="shared"/>
-        <v>-2236218963.1926861</v>
+        <v>105576527.43519446</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6346,19 +6341,19 @@
       </c>
       <c r="C134" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D134" s="42">
         <f si="6" t="shared"/>
-        <v>72419643.654618278</v>
+        <v>11168981.137008131</v>
       </c>
       <c r="E134" s="42">
         <f si="10" t="shared"/>
-        <v>-27314885.396910708</v>
+        <v>1290031.1426084463</v>
       </c>
       <c r="F134" s="42">
         <f si="11" t="shared"/>
-        <v>-2308638606.8473043</v>
+        <v>94407546.298186332</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6371,19 +6366,19 @@
       </c>
       <c r="C135" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D135" s="42">
         <f si="6" t="shared"/>
-        <v>73304232.462543786</v>
+        <v>11305454.024002742</v>
       </c>
       <c r="E135" s="42">
         <f si="10" t="shared"/>
-        <v>-28199474.204836205</v>
+        <v>1153558.2556138348</v>
       </c>
       <c r="F135" s="42">
         <f si="11" t="shared"/>
-        <v>-2381942839.3098483</v>
+        <v>83102092.274183586</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6396,19 +6391,19 @@
       </c>
       <c r="C136" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D136" s="42">
         <f si="6" t="shared"/>
-        <v>74199626.313405409</v>
+        <v>11443594.46228571</v>
       </c>
       <c r="E136" s="42">
         <f si="10" t="shared"/>
-        <v>-29094868.055697832</v>
+        <v>1015417.8173308673</v>
       </c>
       <c r="F136" s="42">
         <f si="11" t="shared"/>
-        <v>-2456142465.6232538</v>
+        <v>71658497.811897874</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6421,19 +6416,19 @@
       </c>
       <c r="C137" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D137" s="42">
         <f si="6" t="shared"/>
-        <v>75105957.188245431</v>
+        <v>11583422.827532822</v>
       </c>
       <c r="E137" s="42">
         <f si="10" t="shared"/>
-        <v>-30001198.930537853</v>
+        <v>875589.45208375517</v>
       </c>
       <c r="F137" s="42">
         <f si="11" t="shared"/>
-        <v>-2531248422.8114991</v>
+        <v>60075074.984365053</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6446,19 +6441,19 @@
       </c>
       <c r="C138" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D138" s="42">
         <f si="6" t="shared"/>
-        <v>76023358.680223316</v>
+        <v>11724959.744388619</v>
       </c>
       <c r="E138" s="42">
         <f si="10" t="shared"/>
-        <v>-30918600.422515735</v>
+        <v>734052.53522795776</v>
       </c>
       <c r="F138" s="42">
         <f si="11" t="shared"/>
-        <v>-2607271781.4917226</v>
+        <v>48350115.239976436</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6471,19 +6466,19 @@
       </c>
       <c r="C139" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D139" s="42">
         <f si="6" t="shared"/>
-        <v>76951966.01430735</v>
+        <v>11868226.089508524</v>
       </c>
       <c r="E139" s="42">
         <f si="10" t="shared"/>
-        <v>-31847207.756599776</v>
+        <v>590786.1901080528</v>
       </c>
       <c r="F139" s="42">
         <f si="11" t="shared"/>
-        <v>-2684223747.5060301</v>
+        <v>36481889.15046791</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6496,19 +6491,19 @@
       </c>
       <c r="C140" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D140" s="42">
         <f si="6" t="shared"/>
-        <v>77891916.06720683</v>
+        <v>12013242.994638143</v>
       </c>
       <c r="E140" s="42">
         <f si="10" t="shared"/>
-        <v>-32787157.809499253</v>
+        <v>445769.28497843532</v>
       </c>
       <c r="F140" s="42">
         <f si="11" t="shared"/>
-        <v>-2762115663.5732369</v>
+        <v>24468646.155829765</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -6521,19 +6516,19 @@
       </c>
       <c r="C141" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D141" s="42">
         <f si="6" t="shared"/>
-        <v>78843347.387547612</v>
+        <v>12160031.849730186</v>
       </c>
       <c r="E141" s="42">
         <f si="10" t="shared"/>
-        <v>-33738589.129840046</v>
+        <v>298980.42988639144</v>
       </c>
       <c r="F141" s="42">
         <f si="11" t="shared"/>
-        <v>-2840959010.9607844</v>
+        <v>12308614.306099579</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -6546,19 +6541,19 @@
       </c>
       <c r="C142" s="42">
         <f si="9" t="shared"/>
-        <v>45104758.257707573</v>
+        <v>12459012.279616578</v>
       </c>
       <c r="D142" s="42">
         <f si="6" t="shared"/>
-        <v>79806400.216294289</v>
+        <v>12308614.306099491</v>
       </c>
       <c r="E142" s="42">
         <f si="10" t="shared"/>
-        <v>-34701641.958586723</v>
+        <v>150397.97351708627</v>
       </c>
       <c r="F142" s="42">
         <f si="11" t="shared"/>
-        <v>-2920765411.1770787</v>
+        <v>8.754432201385498E-8</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="57" r="144" s="48" spans="1:6">
@@ -6590,8 +6585,8 @@
         <v>72</v>
       </c>
       <c r="E147" s="49">
-        <f ca="1">SUM(E151:E162)</f>
-        <v>50018569.198179618</v>
+        <f ca="1">SUM(E151:INDIRECT(CONCATENATE("E",150+B10)))</f>
+        <v>230109120.28709915</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -6599,15 +6594,15 @@
         <v>65</v>
       </c>
       <c r="B148" s="103">
-        <f ca="1">PMT(B9,B10-B146,-INDIRECT(CONCATENATE("F",150+B146)),0,0)</f>
-        <v>59798839.16327624</v>
+        <f ca="1">ROUND(PMT(B9,B10-B146,-INDIRECT(CONCATENATE("F",150+B146)),0,0),0)</f>
+        <v>13063268</v>
       </c>
       <c r="D148" s="85" t="s">
         <v>71</v>
       </c>
       <c r="E148" s="49">
         <f ca="1">F150+E147</f>
-        <v>556758684.1981796</v>
+        <v>764184263.28709912</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -6638,7 +6633,7 @@
       </c>
       <c r="F150" s="44">
         <f>B3</f>
-        <v>506740115</v>
+        <v>534075143</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -6651,18 +6646,18 @@
       </c>
       <c r="C151" s="84">
         <f>IF($B$15&lt;&gt;0,CEILING(E151,$B$15),E151)</f>
-        <v>6190000</v>
+        <v>6526000</v>
       </c>
       <c r="D151" s="84">
         <v>0</v>
       </c>
       <c r="E151" s="84">
-        <f>F150*$B$9</f>
-        <v>6189710.5762311174</v>
+        <f>IF($B$15&lt;&gt;0,CEILING(F150*$B$9,B$15),F150*$B$9)</f>
+        <v>6526000</v>
       </c>
       <c r="F151" s="84">
         <f>F150-D151</f>
-        <v>506740115</v>
+        <v>534075143</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -6675,18 +6670,18 @@
       </c>
       <c r="C152" s="84">
         <f>IF($B$15&lt;&gt;0,CEILING(E152,$B$15),E152)</f>
-        <v>6190000</v>
+        <v>6526000</v>
       </c>
       <c r="D152" s="84">
         <v>0</v>
       </c>
       <c r="E152" s="84">
-        <f ref="E152:E162" si="13" t="shared">F151*$B$9</f>
-        <v>6189710.5762311174</v>
+        <f ref="E152:E153" si="13" t="shared">IF($B$15&lt;&gt;0,CEILING(F151*$B$9,B$15),F151*$B$9)</f>
+        <v>6526000</v>
       </c>
       <c r="F152" s="84">
         <f ref="F152:F162" si="14" t="shared">F151-D152</f>
-        <v>506740115</v>
+        <v>534075143</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -6699,18 +6694,18 @@
       </c>
       <c r="C153" s="84">
         <f>IF($B$15&lt;&gt;0,CEILING(E153,$B$15),E153)</f>
-        <v>6190000</v>
+        <v>6526000</v>
       </c>
       <c r="D153" s="84">
         <v>0</v>
       </c>
       <c r="E153" s="84">
         <f si="13" t="shared"/>
-        <v>6189710.5762311174</v>
+        <v>6526000</v>
       </c>
       <c r="F153" s="84">
-        <f si="14" t="shared"/>
-        <v>506740115</v>
+        <f>F152-D153</f>
+        <v>534075143</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -6722,20 +6717,20 @@
         <v>43008</v>
       </c>
       <c r="C154" s="84">
-        <f ca="1" ref="C154:C210" si="15" t="shared">$B$148</f>
-        <v>59798839.16327624</v>
+        <f ca="1">$B$148</f>
+        <v>13063268</v>
       </c>
       <c r="D154" s="84">
-        <f ca="1" ref="D154:D162" si="16" t="shared">C154-E154</f>
-        <v>53609128.587045126</v>
+        <f ca="1">C154-E154</f>
+        <v>6537446.5536944401</v>
       </c>
       <c r="E154" s="84">
-        <f si="13" t="shared"/>
-        <v>6189710.5762311174</v>
+        <f>F153*$B$9</f>
+        <v>6525821.4463055599</v>
       </c>
       <c r="F154" s="84">
-        <f ca="1" si="14" t="shared"/>
-        <v>453130986.41295487</v>
+        <f ca="1">F153-D154</f>
+        <v>527537696.44630557</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -6747,20 +6742,20 @@
         <v>43038</v>
       </c>
       <c r="C155" s="84">
-        <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <f ca="1" ref="C154:C210" si="15" t="shared">$B$148</f>
+        <v>13063268</v>
       </c>
       <c r="D155" s="84">
-        <f ca="1" si="16" t="shared"/>
-        <v>54263951.405242115</v>
+        <f ca="1" ref="D154:D162" si="16" t="shared">C155-E155</f>
+        <v>6617327.0901383078</v>
       </c>
       <c r="E155" s="84">
-        <f ca="1" si="13" t="shared"/>
-        <v>5534887.7580341268</v>
+        <f ca="1" ref="E155:E162" si="17" t="shared">F154*$B$9</f>
+        <v>6445940.9098616922</v>
       </c>
       <c r="F155" s="84">
         <f ca="1" si="14" t="shared"/>
-        <v>398867035.00771272</v>
+        <v>520920369.35616726</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -6773,19 +6768,19 @@
       </c>
       <c r="C156" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D156" s="84">
         <f ca="1" si="16" t="shared"/>
-        <v>54926772.729188651</v>
+        <v>6698183.6804665411</v>
       </c>
       <c r="E156" s="84">
-        <f ca="1" si="13" t="shared"/>
-        <v>4872066.4340875931</v>
+        <f ca="1" si="17" t="shared"/>
+        <v>6365084.3195334589</v>
       </c>
       <c r="F156" s="84">
         <f ca="1" si="14" t="shared"/>
-        <v>343940262.27852404</v>
+        <v>514222185.67570072</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -6798,19 +6793,19 @@
       </c>
       <c r="C157" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D157" s="84">
         <f ca="1" si="16" t="shared"/>
-        <v>55597690.258739471</v>
+        <v>6780028.2510034675</v>
       </c>
       <c r="E157" s="84">
-        <f ca="1" si="13" t="shared"/>
-        <v>4201148.904536766</v>
+        <f ca="1" si="17" t="shared"/>
+        <v>6283239.7489965325</v>
       </c>
       <c r="F157" s="84">
         <f ca="1" si="14" t="shared"/>
-        <v>288342572.01978457</v>
+        <v>507442157.42469728</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -6823,19 +6818,19 @@
       </c>
       <c r="C158" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D158" s="84">
         <f ca="1" si="16" t="shared"/>
-        <v>56276802.887129948</v>
+        <v>6862872.8738002181</v>
       </c>
       <c r="E158" s="84">
-        <f ca="1" si="13" t="shared"/>
-        <v>3522036.2761462908</v>
+        <f ca="1" si="17" t="shared"/>
+        <v>6200395.1261997819</v>
       </c>
       <c r="F158" s="84">
         <f ca="1" si="14" t="shared"/>
-        <v>232065769.13265461</v>
+        <v>500579284.55089706</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -6848,19 +6843,19 @@
       </c>
       <c r="C159" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D159" s="84">
         <f ca="1" si="16" t="shared"/>
-        <v>56964210.715552889</v>
+        <v>6946729.7684153533</v>
       </c>
       <c r="E159" s="84">
-        <f ca="1" si="13" t="shared"/>
-        <v>2834628.4477233482</v>
+        <f ca="1" si="17" t="shared"/>
+        <v>6116538.2315846467</v>
       </c>
       <c r="F159" s="84">
         <f ca="1" si="14" t="shared"/>
-        <v>175101558.41710171</v>
+        <v>493632554.78248173</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -6873,19 +6868,19 @@
       </c>
       <c r="C160" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D160" s="84">
         <f ca="1" si="16" t="shared"/>
-        <v>57660015.067913502</v>
+        <v>7031611.3037172388</v>
       </c>
       <c r="E160" s="84">
-        <f ca="1" si="13" t="shared"/>
-        <v>2138824.0953627392</v>
+        <f ca="1" si="17" t="shared"/>
+        <v>6031656.6962827612</v>
       </c>
       <c r="F160" s="84">
         <f ca="1" si="14" t="shared"/>
-        <v>117441543.34918821</v>
+        <v>486600943.47876447</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -6898,19 +6893,19 @@
       </c>
       <c r="C161" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D161" s="84">
         <f ca="1" si="16" t="shared"/>
-        <v>58364318.505764499</v>
+        <v>7117529.9997084551</v>
       </c>
       <c r="E161" s="84">
-        <f ca="1" si="13" t="shared"/>
-        <v>1434520.6575117416</v>
+        <f ca="1" si="17" t="shared"/>
+        <v>5945738.0002915449</v>
       </c>
       <c r="F161" s="84">
         <f ca="1" si="14" t="shared"/>
-        <v>59077224.843423709</v>
+        <v>479483413.479056</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -6923,19 +6918,19 @@
       </c>
       <c r="C162" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D162" s="84">
         <f ca="1" si="16" t="shared"/>
-        <v>59077224.843423702</v>
+        <v>7204498.5293724937</v>
       </c>
       <c r="E162" s="84">
-        <f ca="1" si="13" t="shared"/>
-        <v>721614.31985254108</v>
+        <f ca="1" si="17" t="shared"/>
+        <v>5858769.4706275063</v>
       </c>
       <c r="F162" s="84">
         <f ca="1" si="14" t="shared"/>
-        <v>0</v>
+        <v>472278914.94968349</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -6948,19 +6943,19 @@
       </c>
       <c r="C163" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D163" s="84">
-        <f ca="1" ref="D163:D210" si="17" t="shared">C163-E163</f>
-        <v>59798839.16327624</v>
+        <f ca="1" ref="D163:D210" si="18" t="shared">C163-E163</f>
+        <v>7292529.7205430139</v>
       </c>
       <c r="E163" s="84">
-        <f ca="1" ref="E163:E210" si="18" t="shared">F162*$B$9</f>
-        <v>0</v>
+        <f ca="1" ref="E163:E210" si="19" t="shared">F162*$B$9</f>
+        <v>5770738.2794569861</v>
       </c>
       <c r="F163" s="84">
-        <f ca="1" ref="F163:F210" si="19" t="shared">F162-D163</f>
-        <v>-59798839.16327624</v>
+        <f ca="1" ref="F163:F210" si="20" t="shared">F162-D163</f>
+        <v>464986385.22914046</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -6973,19 +6968,19 @@
       </c>
       <c r="C164" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D164" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>60529267.831263721</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>7381636.5577959511</v>
       </c>
       <c r="E164" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-730428.66798748402</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>5681631.4422040489</v>
       </c>
       <c r="F164" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-120328106.99453996</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>457604748.67134452</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -6998,19 +6993,19 @@
       </c>
       <c r="C165" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D165" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>61268618.512562558</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>7471832.1843647351</v>
       </c>
       <c r="E165" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-1469779.3492863171</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>5591435.8156352649</v>
       </c>
       <c r="F165" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-181596725.50710252</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>450132916.48697978</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -7023,19 +7018,19 @@
       </c>
       <c r="C166" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D166" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>62017000.187453791</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>7563129.9040789129</v>
       </c>
       <c r="E166" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-2218161.0241775541</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>5500138.0959210871</v>
       </c>
       <c r="F166" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-243613725.6945563</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>442569786.58290088</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -7048,19 +7043,19 @@
       </c>
       <c r="C167" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D167" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>62774523.16738683</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>7655543.1833264614</v>
       </c>
       <c r="E167" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-2975684.004110591</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>5407724.8166735386</v>
       </c>
       <c r="F167" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-306388248.86194313</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>434914243.3995744</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -7073,19 +7068,19 @@
       </c>
       <c r="C168" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D168" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>63541299.111239314</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>7749085.6530400729</v>
       </c>
       <c r="E168" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-3742459.947963072</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>5314182.3469599271</v>
       </c>
       <c r="F168" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-369929547.97318244</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>427165157.74653435</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -7098,19 +7093,19 @@
       </c>
       <c r="C169" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D169" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>64317441.041775644</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>7843771.110707717</v>
       </c>
       <c r="E169" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-4518601.8784994036</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>5219496.889292283</v>
       </c>
       <c r="F169" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-434246989.01495808</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>419321386.63582665</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -7123,19 +7118,19 @@
       </c>
       <c r="C170" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D170" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>65103063.36230655</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>7939613.5224077655</v>
       </c>
       <c r="E170" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-5304224.1990303136</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>5123654.4775922345</v>
       </c>
       <c r="F170" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-499350052.37726462</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>411381773.11341888</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -7148,19 +7143,19 @@
       </c>
       <c r="C171" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D171" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>65898281.873552129</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>8036627.0248689838</v>
       </c>
       <c r="E171" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-6099442.7102758922</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>5026640.9751310162</v>
       </c>
       <c r="F171" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-565248334.2508167</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>403345146.08854991</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -7173,19 +7168,19 @@
       </c>
       <c r="C172" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D172" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>66703213.790710859</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>8134825.9275556961</v>
       </c>
       <c r="E172" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-6904374.6274346206</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>4928442.0724443039</v>
       </c>
       <c r="F172" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-631951548.04152751</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>395210320.16099423</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -7198,19 +7193,19 @@
       </c>
       <c r="C173" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D173" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>67517977.760737136</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>8234224.7147784242</v>
       </c>
       <c r="E173" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-7719138.5974608893</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>4829043.2852215758</v>
       </c>
       <c r="F173" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-699469525.80226469</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>386976095.44621581</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -7223,19 +7218,19 @@
       </c>
       <c r="C174" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D174" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>68342693.879829794</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>8334838.0478303246</v>
       </c>
       <c r="E174" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-8543854.7165535577</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>4728429.9521696754</v>
       </c>
       <c r="F174" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-767812219.68209445</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>378641257.39838547</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -7248,19 +7243,19 @@
       </c>
       <c r="C175" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D175" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>69177483.711134374</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>8436680.7671497203</v>
       </c>
       <c r="E175" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-9378644.5478581265</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>4626587.2328502797</v>
       </c>
       <c r="F175" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-836989703.39322877</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>370204576.63123572</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -7273,19 +7268,19 @@
       </c>
       <c r="C176" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D176" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>70022470.302661389</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>8539767.8945090622</v>
       </c>
       <c r="E176" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-10223631.139385154</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>4523500.1054909388</v>
       </c>
       <c r="F176" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-907012173.69589019</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>361664808.73672664</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -7298,19 +7293,19 @@
       </c>
       <c r="C177" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D177" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>70877778.205423772</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>8644114.6352306362</v>
       </c>
       <c r="E177" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-11078939.042147525</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>4419153.3647693638</v>
       </c>
       <c r="F177" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-977889951.90131402</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>353020694.10149598</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -7323,19 +7318,19 @@
       </c>
       <c r="C178" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D178" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>71743533.49179551</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>8749736.3804293498</v>
       </c>
       <c r="E178" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-11944694.32851927</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>4313531.6195706511</v>
       </c>
       <c r="F178" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-1049633485.3931096</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>344270957.72106665</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -7348,19 +7343,19 @@
       </c>
       <c r="C179" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D179" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>72619863.774094865</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>8856648.7092829049</v>
       </c>
       <c r="E179" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-12821024.610818624</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>4206619.2907170951</v>
       </c>
       <c r="F179" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-1122253349.1672044</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>335414309.01178372</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -7373,19 +7368,19 @@
       </c>
       <c r="C180" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D180" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>73506898.223394334</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>8964867.3913297355</v>
       </c>
       <c r="E180" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-13708059.0601181</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>4098400.608670264</v>
       </c>
       <c r="F180" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-1195760247.3905988</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>326449441.62045395</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -7398,19 +7393,19 @@
       </c>
       <c r="C181" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D181" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>74404767.588560522</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>9074408.3887950033</v>
       </c>
       <c r="E181" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-14605928.425284283</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>3988859.6112049972</v>
       </c>
       <c r="F181" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-1270165014.9791594</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>317375033.23165894</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -7423,19 +7418,19 @@
       </c>
       <c r="C182" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D182" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>75313604.215526462</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>9185287.8589450177</v>
       </c>
       <c r="E182" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-15514765.052250221</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>3877980.1410549819</v>
       </c>
       <c r="F182" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-1345478619.1946859</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>308189745.37271392</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -7448,19 +7443,19 @@
       </c>
       <c r="C183" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D183" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>76233542.066799462</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>9297522.1564704385</v>
       </c>
       <c r="E183" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-16434702.903523214</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>3765745.8435295615</v>
       </c>
       <c r="F183" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-1421712161.2614853</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>298892223.21624351</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -7473,19 +7468,19 @@
       </c>
       <c r="C184" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D184" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>77164716.741207123</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>9411127.8358985782</v>
       </c>
       <c r="E184" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-17365877.577930879</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>3652140.1641014218</v>
       </c>
       <c r="F184" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-1498876878.0026925</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>289481095.38034493</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -7498,19 +7493,19 @@
       </c>
       <c r="C185" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D185" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>78107265.493884668</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>9526121.6540351957</v>
       </c>
       <c r="E185" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-18308426.330608431</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>3537146.3459648043</v>
       </c>
       <c r="F185" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-1576984143.496577</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>279954973.72630972</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -7523,19 +7518,19 @@
       </c>
       <c r="C186" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D186" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>79061327.256506309</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>9642520.5724361204</v>
       </c>
       <c r="E186" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-19262488.093230065</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>3420747.4275638801</v>
       </c>
       <c r="F186" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-1656045470.7530832</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>270312453.15387362</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -7548,19 +7543,19 @@
       </c>
       <c r="C187" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D187" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>80027042.657763749</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>9760341.759909071</v>
       </c>
       <c r="E187" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-20228203.494487502</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>3302926.2400909294</v>
       </c>
       <c r="F187" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-1736072513.4108469</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>260552111.39396456</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -7573,19 +7568,19 @@
       </c>
       <c r="C188" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D188" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>81004554.04409489</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>9879602.5950460583</v>
       </c>
       <c r="E188" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-21205714.880818658</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>3183665.4049539412</v>
       </c>
       <c r="F188" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-1817077067.4549417</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>250672508.79891849</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -7598,19 +7593,19 @@
       </c>
       <c r="C189" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D189" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>81994005.500665724</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>10000320.668786719</v>
       </c>
       <c r="E189" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-22195166.337389484</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>3062947.331213281</v>
       </c>
       <c r="F189" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-1899071072.9556074</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>240672188.13013178</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -7623,19 +7618,19 @@
       </c>
       <c r="C190" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D190" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>82995542.872608393</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>10122513.78701297</v>
       </c>
       <c r="E190" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-23196703.709332149</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>2940754.2129870295</v>
       </c>
       <c r="F190" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-1982066615.8282158</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>230549674.34311882</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -7648,19 +7643,19 @@
       </c>
       <c r="C191" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D191" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>84009313.786518812</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>10246199.973175379</v>
       </c>
       <c r="E191" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-24210474.623242579</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>2817068.026824621</v>
       </c>
       <c r="F191" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-2066075929.6147346</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>220303474.36994344</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -7673,19 +7668,19 @@
       </c>
       <c r="C192" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D192" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>85035467.672216892</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>10371397.470951611</v>
       </c>
       <c r="E192" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-25236628.508940645</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>2691870.5290483893</v>
       </c>
       <c r="F192" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-2151111397.2869515</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>209932076.89899182</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -7698,19 +7693,19 @@
       </c>
       <c r="C193" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D193" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>86074155.784772336</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>10498124.746937372</v>
       </c>
       <c r="E193" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-26275316.621496093</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>2565143.2530626291</v>
       </c>
       <c r="F193" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-2237185553.0717239</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>199433952.15205446</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -7723,19 +7718,19 @@
       </c>
       <c r="C194" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D194" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>87125531.226799786</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>10626400.493370218</v>
       </c>
       <c r="E194" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-27326692.06352355</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>2436867.5066297813</v>
       </c>
       <c r="F194" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-2324311084.2985239</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>188807551.65868425</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -7748,19 +7743,19 @@
       </c>
       <c r="C195" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D195" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>88189748.971026093</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>10756243.63088667</v>
       </c>
       <c r="E195" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-28390909.807749856</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>2307024.3691133303</v>
       </c>
       <c r="F195" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-2412500833.2695498</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>178051308.02779758</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -7773,19 +7768,19 @@
       </c>
       <c r="C196" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D196" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>89266965.883133262</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>10887673.311312985</v>
       </c>
       <c r="E196" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-29468126.719857015</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>2175594.6886870163</v>
       </c>
       <c r="F196" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-2501767799.1526833</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>167163634.71648461</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -7798,19 +7793,19 @@
       </c>
       <c r="C197" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D197" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>90357340.744880468</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>11020708.920490053</v>
       </c>
       <c r="E197" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-30558501.581604231</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>2042559.0795099479</v>
       </c>
       <c r="F197" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-2592125139.8975639</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>156142925.79599455</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -7823,19 +7818,19 @@
       </c>
       <c r="C198" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D198" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>91461034.277508542</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>11155370.081132807</v>
       </c>
       <c r="E198" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-31662195.114232305</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>1907897.9188671936</v>
       </c>
       <c r="F198" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-2683586174.1750727</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>144987555.71486175</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -7848,19 +7843,19 @@
       </c>
       <c r="C199" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D199" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>92578209.165430203</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>11291676.655724561</v>
       </c>
       <c r="E199" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-32779370.002153963</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>1771591.3442754385</v>
       </c>
       <c r="F199" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-2776164383.3405027</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>133695879.0591372</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -7873,19 +7868,19 @@
       </c>
       <c r="C200" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D200" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>93709030.080209762</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>11429648.749446727</v>
       </c>
       <c r="E200" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-33910190.916933522</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>1633619.2505532727</v>
       </c>
       <c r="F200" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-2869873413.4207125</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>122266230.30969048</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -7898,19 +7893,19 @@
       </c>
       <c r="C201" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D201" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>94853663.704835743</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>11569306.713144317</v>
       </c>
       <c r="E201" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-35054824.541559495</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>1493961.286855683</v>
       </c>
       <c r="F201" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-2964727077.1255484</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>110696923.59654616</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -7923,19 +7918,19 @@
       </c>
       <c r="C202" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D202" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>96012278.758289903</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>11710671.146327689</v>
       </c>
       <c r="E202" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-36213439.595013656</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>1352596.8536723098</v>
       </c>
       <c r="F202" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-3060739355.8838382</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>98986252.450218469</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -7948,19 +7943,19 @@
       </c>
       <c r="C203" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D203" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>97185046.020416439</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>11853762.900210977</v>
       </c>
       <c r="E203" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-37386206.857140198</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>1209505.0997890234</v>
       </c>
       <c r="F203" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-3157924401.9042544</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>87132489.550007492</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -7973,19 +7968,19 @@
       </c>
       <c r="C204" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D204" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>98372138.357094929</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>11998603.080787623</v>
       </c>
       <c r="E204" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-38573299.193818688</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>1064664.9192123774</v>
       </c>
       <c r="F204" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-3256296540.2613492</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>75133886.469219863</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -7998,19 +7993,19 @@
       </c>
       <c r="C205" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D205" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>99573730.745720774</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>12145213.05194352</v>
       </c>
       <c r="E205" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-39774891.582444526</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>918054.94805647992</v>
       </c>
       <c r="F205" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-3355870271.0070701</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>62988673.417276345</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -8023,19 +8018,19 @@
       </c>
       <c r="C206" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D206" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>100790000.30099681</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>12293614.438608173</v>
       </c>
       <c r="E206" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-40991161.137720563</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>769653.56139182625</v>
       </c>
       <c r="F206" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-3456660271.3080668</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>50695058.978668168</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -8048,19 +8043,19 @@
       </c>
       <c r="C207" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D207" s="84">
-        <f ca="1" si="17" t="shared"/>
-        <v>102021126.30104008</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>12443829.129944373</v>
       </c>
       <c r="E207" s="84">
-        <f ca="1" si="18" t="shared"/>
-        <v>-42222287.137763835</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>619438.87005562801</v>
       </c>
       <c r="F207" s="84">
-        <f ca="1" si="19" t="shared"/>
-        <v>-3558681397.609107</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>38251229.848723799</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -8073,19 +8068,19 @@
       </c>
       <c r="C208" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D208" s="61">
-        <f ca="1" si="17" t="shared"/>
-        <v>103267290.21380739</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>12595879.282576831</v>
       </c>
       <c r="E208" s="42">
-        <f ca="1" si="18" t="shared"/>
-        <v>-43468451.050531149</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>467388.71742316819</v>
       </c>
       <c r="F208" s="42">
-        <f ca="1" si="19" t="shared"/>
-        <v>-3661948687.8229146</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>25655350.56614697</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -8098,19 +8093,19 @@
       </c>
       <c r="C209" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D209" s="61">
-        <f ca="1" si="17" t="shared"/>
-        <v>104528675.72384369</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>12749787.323860295</v>
       </c>
       <c r="E209" s="42">
-        <f ca="1" si="18" t="shared"/>
-        <v>-44729836.560567454</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>313480.67613970453</v>
       </c>
       <c r="F209" s="42">
-        <f ca="1" si="19" t="shared"/>
-        <v>-3766477363.5467582</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>12905563.242286675</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -8123,19 +8118,19 @@
       </c>
       <c r="C210" s="84">
         <f ca="1" si="15" t="shared"/>
-        <v>59798839.16327624</v>
+        <v>13063268</v>
       </c>
       <c r="D210" s="61">
-        <f ca="1" si="17" t="shared"/>
-        <v>105805468.75935718</v>
+        <f ca="1" si="18" t="shared"/>
+        <v>12905575.955187559</v>
       </c>
       <c r="E210" s="42">
-        <f ca="1" si="18" t="shared"/>
-        <v>-46006629.596080951</v>
+        <f ca="1" si="19" t="shared"/>
+        <v>157692.04481244148</v>
       </c>
       <c r="F210" s="42">
-        <f ca="1" si="19" t="shared"/>
-        <v>-3872282832.3061152</v>
+        <f ca="1" si="20" t="shared"/>
+        <v>-12.712900884449482</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -8157,8 +8152,8 @@
         <v>72</v>
       </c>
       <c r="E213" s="49">
-        <f ca="1">SUM(E217:E228)</f>
-        <v>51412886.687084273</v>
+        <f ca="1">SUM(E217:INDIRECT(CONCATENATE("E",216+B10)))</f>
+        <v>238160849.37877086</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -8167,14 +8162,14 @@
       </c>
       <c r="B214" s="102">
         <f ca="1">PMT(B9,B10-B212,-INDIRECT(CONCATENATE("F",216+B212)),0,0)</f>
-        <v>62017000.187453799</v>
+        <v>13547999.866294228</v>
       </c>
       <c r="D214" s="85" t="s">
         <v>71</v>
       </c>
       <c r="E214" s="49">
         <f ca="1">F216+E213</f>
-        <v>558153001.68708432</v>
+        <v>772235992.37877083</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -8205,7 +8200,7 @@
       </c>
       <c r="F216" s="44">
         <f>$B$3</f>
-        <v>506740115</v>
+        <v>534075143</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -8213,23 +8208,23 @@
         <v>1</v>
       </c>
       <c r="B217" s="43">
-        <f ref="B217:B276" si="20" t="shared">EDATE($B$7,$B$6*A217)</f>
+        <f ref="B217:B276" si="21" t="shared">EDATE($B$7,$B$6*A217)</f>
         <v>42916</v>
       </c>
       <c r="C217" s="42">
         <v>0</v>
       </c>
       <c r="D217" s="42">
-        <f ref="D217:D276" si="21" t="shared">C217-E217</f>
-        <v>-6189710.5762311174</v>
+        <f ref="D217:D276" si="22" t="shared">C217-E217</f>
+        <v>-6525821.4463055599</v>
       </c>
       <c r="E217" s="42">
-        <f ref="E217:E276" si="22" t="shared">F216*$B$9</f>
-        <v>6189710.5762311174</v>
+        <f ref="E217:E276" si="23" t="shared">F216*$B$9</f>
+        <v>6525821.4463055599</v>
       </c>
       <c r="F217" s="42">
-        <f ref="F217:F228" si="23" t="shared">F216-D217</f>
-        <v>512929825.57623112</v>
+        <f ref="F217:F228" si="24" t="shared">F216-D217</f>
+        <v>540600964.44630551</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -8237,23 +8232,23 @@
         <v>2</v>
       </c>
       <c r="B218" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>42946</v>
       </c>
       <c r="C218" s="42">
         <v>0</v>
       </c>
       <c r="D218" s="42">
-        <f si="21" t="shared"/>
-        <v>-6265316.4260216113</v>
+        <f si="22" t="shared"/>
+        <v>-6605559.9364922512</v>
       </c>
       <c r="E218" s="42">
-        <f si="22" t="shared"/>
-        <v>6265316.4260216113</v>
+        <f si="23" t="shared"/>
+        <v>6605559.9364922512</v>
       </c>
       <c r="F218" s="42">
-        <f si="23" t="shared"/>
-        <v>519195142.00225276</v>
+        <f si="24" t="shared"/>
+        <v>547206524.38279772</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -8261,23 +8256,23 @@
         <v>3</v>
       </c>
       <c r="B219" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>42977</v>
       </c>
       <c r="C219" s="42">
         <v>0</v>
       </c>
       <c r="D219" s="42">
-        <f si="21" t="shared"/>
-        <v>-6341845.7833739109</v>
+        <f si="22" t="shared"/>
+        <v>-6686272.7449114546</v>
       </c>
       <c r="E219" s="42">
-        <f si="22" t="shared"/>
-        <v>6341845.7833739109</v>
+        <f si="23" t="shared"/>
+        <v>6686272.7449114546</v>
       </c>
       <c r="F219" s="42">
-        <f si="23" t="shared"/>
-        <v>525536987.78562665</v>
+        <f si="24" t="shared"/>
+        <v>553892797.12770915</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -8285,24 +8280,24 @@
         <v>4</v>
       </c>
       <c r="B220" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43008</v>
       </c>
       <c r="C220" s="42">
-        <f ca="1" ref="C220:C276" si="24" t="shared">$B$214</f>
-        <v>62017000.187453799</v>
+        <f ca="1" ref="C220:C276" si="25" t="shared">$B$214</f>
+        <v>13547999.866294228</v>
       </c>
       <c r="D220" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>55597690.258739479</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>6780028.0896145198</v>
       </c>
       <c r="E220" s="42">
-        <f si="22" t="shared"/>
-        <v>6419309.928714321</v>
+        <f si="23" t="shared"/>
+        <v>6767971.7766797077</v>
       </c>
       <c r="F220" s="42">
-        <f ca="1" si="23" t="shared"/>
-        <v>469939297.52688718</v>
+        <f ca="1" si="24" t="shared"/>
+        <v>547112769.03809464</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -8310,24 +8305,24 @@
         <v>5</v>
       </c>
       <c r="B221" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43038</v>
       </c>
       <c r="C221" s="42">
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
+      </c>
+      <c r="D221" s="42">
+        <f ca="1" si="22" t="shared"/>
+        <v>6862872.7104392722</v>
+      </c>
+      <c r="E221" s="42">
+        <f ca="1" si="23" t="shared"/>
+        <v>6685127.1558549553</v>
+      </c>
+      <c r="F221" s="42">
         <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
-      </c>
-      <c r="D221" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>56276802.887129955</v>
-      </c>
-      <c r="E221" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>5740197.3003238458</v>
-      </c>
-      <c r="F221" s="42">
-        <f ca="1" si="23" t="shared"/>
-        <v>413662494.63975722</v>
+        <v>540249896.32765532</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -8335,24 +8330,24 @@
         <v>6</v>
       </c>
       <c r="B222" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43069</v>
       </c>
       <c r="C222" s="42">
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
+      </c>
+      <c r="D222" s="42">
+        <f ca="1" si="22" t="shared"/>
+        <v>6946729.603058314</v>
+      </c>
+      <c r="E222" s="42">
+        <f ca="1" si="23" t="shared"/>
+        <v>6601270.2632359136</v>
+      </c>
+      <c r="F222" s="42">
         <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
-      </c>
-      <c r="D222" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>56964210.715552896</v>
-      </c>
-      <c r="E222" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>5052789.4719009036</v>
-      </c>
-      <c r="F222" s="42">
-        <f ca="1" si="23" t="shared"/>
-        <v>356698283.92420435</v>
+        <v>533303166.72459698</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -8360,24 +8355,24 @@
         <v>7</v>
       </c>
       <c r="B223" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43099</v>
       </c>
       <c r="C223" s="42">
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
+      </c>
+      <c r="D223" s="42">
+        <f ca="1" si="22" t="shared"/>
+        <v>7031611.1363397157</v>
+      </c>
+      <c r="E223" s="42">
+        <f ca="1" si="23" t="shared"/>
+        <v>6516388.7299545119</v>
+      </c>
+      <c r="F223" s="42">
         <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
-      </c>
-      <c r="D223" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>57660015.067913502</v>
-      </c>
-      <c r="E223" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>4356985.1195402946</v>
-      </c>
-      <c r="F223" s="42">
-        <f ca="1" si="23" t="shared"/>
-        <v>299038268.85629082</v>
+        <v>526271555.58825725</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -8385,24 +8380,24 @@
         <v>8</v>
       </c>
       <c r="B224" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43130</v>
       </c>
       <c r="C224" s="42">
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
+      </c>
+      <c r="D224" s="42">
+        <f ca="1" si="22" t="shared"/>
+        <v>7117529.8302857596</v>
+      </c>
+      <c r="E224" s="42">
+        <f ca="1" si="23" t="shared"/>
+        <v>6430470.0360084679</v>
+      </c>
+      <c r="F224" s="42">
         <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
-      </c>
-      <c r="D224" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>58364318.505764499</v>
-      </c>
-      <c r="E224" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>3652681.6816892968</v>
-      </c>
-      <c r="F224" s="42">
-        <f ca="1" si="23" t="shared"/>
-        <v>240673950.35052633</v>
+        <v>519154025.75797147</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -8410,24 +8405,24 @@
         <v>9</v>
       </c>
       <c r="B225" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43159</v>
       </c>
       <c r="C225" s="42">
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
+      </c>
+      <c r="D225" s="42">
+        <f ca="1" si="22" t="shared"/>
+        <v>7204498.3578796349</v>
+      </c>
+      <c r="E225" s="42">
+        <f ca="1" si="23" t="shared"/>
+        <v>6343501.5084145926</v>
+      </c>
+      <c r="F225" s="42">
         <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
-      </c>
-      <c r="D225" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>59077224.843423702</v>
-      </c>
-      <c r="E225" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>2939775.3440300967</v>
-      </c>
-      <c r="F225" s="42">
-        <f ca="1" si="23" t="shared"/>
-        <v>181596725.50710264</v>
+        <v>511949527.40009183</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -8435,24 +8430,24 @@
         <v>10</v>
       </c>
       <c r="B226" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43189</v>
       </c>
       <c r="C226" s="42">
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
+      </c>
+      <c r="D226" s="42">
+        <f ca="1" si="22" t="shared"/>
+        <v>7292529.5469546979</v>
+      </c>
+      <c r="E226" s="42">
+        <f ca="1" si="23" t="shared"/>
+        <v>6255470.3193395296</v>
+      </c>
+      <c r="F226" s="42">
         <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
-      </c>
-      <c r="D226" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>59798839.16327624</v>
-      </c>
-      <c r="E226" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>2218161.0241775555</v>
-      </c>
-      <c r="F226" s="42">
-        <f ca="1" si="23" t="shared"/>
-        <v>121797886.3438264</v>
+        <v>504656997.85313714</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -8460,24 +8455,24 @@
         <v>11</v>
       </c>
       <c r="B227" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43220</v>
       </c>
       <c r="C227" s="42">
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
+      </c>
+      <c r="D227" s="42">
+        <f ca="1" si="22" t="shared"/>
+        <v>7381636.3820865732</v>
+      </c>
+      <c r="E227" s="42">
+        <f ca="1" si="23" t="shared"/>
+        <v>6166363.4842076544</v>
+      </c>
+      <c r="F227" s="42">
         <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
-      </c>
-      <c r="D227" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>60529267.831263728</v>
-      </c>
-      <c r="E227" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>1487732.3561900717</v>
-      </c>
-      <c r="F227" s="42">
-        <f ca="1" si="23" t="shared"/>
-        <v>61268618.51256267</v>
+        <v>497275361.47105056</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -8485,24 +8480,24 @@
         <v>12</v>
       </c>
       <c r="B228" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43250</v>
       </c>
       <c r="C228" s="42">
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
+      </c>
+      <c r="D228" s="42">
+        <f ca="1" si="22" t="shared"/>
+        <v>7471832.0065083783</v>
+      </c>
+      <c r="E228" s="42">
+        <f ca="1" si="23" t="shared"/>
+        <v>6076167.8597858492</v>
+      </c>
+      <c r="F228" s="42">
         <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
-      </c>
-      <c r="D228" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>61268618.512562558</v>
-      </c>
-      <c r="E228" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>748381.67489123845</v>
-      </c>
-      <c r="F228" s="42">
-        <f ca="1" si="23" t="shared"/>
-        <v>1.1175870895385742E-7</v>
+        <v>489803529.46454221</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -8510,24 +8505,24 @@
         <v>13</v>
       </c>
       <c r="B229" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43281</v>
       </c>
       <c r="C229" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D229" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>7563129.7240493437</v>
       </c>
       <c r="E229" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>1.3651061803102496E-9</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>5984870.1422448838</v>
       </c>
       <c r="F229" s="42">
-        <f ca="1" ref="F229:F276" si="25" t="shared">F228-D229</f>
-        <v>-62017000.187453687</v>
+        <f ca="1" ref="F229:F276" si="26" t="shared">F228-D229</f>
+        <v>482240399.74049288</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -8535,24 +8530,24 @@
         <v>14</v>
       </c>
       <c r="B230" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43311</v>
       </c>
       <c r="C230" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D230" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>62774523.167386837</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>7655543.001097125</v>
       </c>
       <c r="E230" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-757522.97993303591</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>5892456.8651971025</v>
       </c>
       <c r="F230" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-124791523.35484052</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>474584856.73939574</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -8560,24 +8555,24 @@
         <v>15</v>
       </c>
       <c r="B231" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43342</v>
       </c>
       <c r="C231" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D231" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>63541299.111239314</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>7749085.4685840905</v>
       </c>
       <c r="E231" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-1524298.9237855165</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>5798914.3977101371</v>
       </c>
       <c r="F231" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-188332822.46607983</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>466835771.27081168</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -8585,24 +8580,24 @@
         <v>16</v>
       </c>
       <c r="B232" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43373</v>
       </c>
       <c r="C232" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D232" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>64317441.041775644</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>7843770.9239978818</v>
       </c>
       <c r="E232" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-2300440.8543218486</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>5704228.9422963457</v>
       </c>
       <c r="F232" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-252650263.50785547</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>458992000.3468138</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -8610,24 +8605,24 @@
         <v>17</v>
       </c>
       <c r="B233" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43403</v>
       </c>
       <c r="C233" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D233" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>65103063.362306558</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>7939613.3334165374</v>
       </c>
       <c r="E233" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-3086063.1748527582</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>5608386.5328776902</v>
       </c>
       <c r="F233" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-317753326.87016201</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>451052387.01339728</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -8635,24 +8630,24 @@
         <v>18</v>
       </c>
       <c r="B234" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43434</v>
       </c>
       <c r="C234" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D234" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>65898281.873552136</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>8036626.8335684873</v>
       </c>
       <c r="E234" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-3881281.6860983367</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>5511373.0327257402</v>
       </c>
       <c r="F234" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-383651608.74371415</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>443015760.17982876</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -8660,24 +8655,24 @@
         <v>19</v>
       </c>
       <c r="B235" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43464</v>
       </c>
       <c r="C235" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D235" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>66703213.790710866</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>8134825.7339177141</v>
       </c>
       <c r="E235" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-4686213.6032570666</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>5413174.1323765134</v>
       </c>
       <c r="F235" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-450354822.53442502</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>434880934.44591105</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -8685,24 +8680,24 @@
         <v>20</v>
       </c>
       <c r="B236" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43495</v>
       </c>
       <c r="C236" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D236" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>67517977.760737136</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>8234224.5187743967</v>
       </c>
       <c r="E236" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-5500977.5732833361</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>5313775.3475198308</v>
       </c>
       <c r="F236" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-517872800.29516214</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>426646709.92713666</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -8710,24 +8705,24 @@
         <v>21</v>
       </c>
       <c r="B237" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43524</v>
       </c>
       <c r="C237" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D237" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>68342693.879829809</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>8334837.8494313387</v>
       </c>
       <c r="E237" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-6325693.6923760036</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>5213162.0168628888</v>
       </c>
       <c r="F237" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-586215494.17499197</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>418311872.07770532</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -8735,24 +8730,24 @@
         <v>22</v>
       </c>
       <c r="B238" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43554</v>
       </c>
       <c r="C238" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D238" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>69177483.711134374</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>8436680.5663265139</v>
       </c>
       <c r="E238" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-7160483.5236805733</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>5111319.2999677146</v>
       </c>
       <c r="F238" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-655392977.88612628</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>409875191.51137882</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -8760,24 +8755,24 @@
         <v>23</v>
       </c>
       <c r="B239" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43585</v>
       </c>
       <c r="C239" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D239" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>70022470.302661404</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>8539767.6912320107</v>
       </c>
       <c r="E239" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-8005470.1152076004</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>5008232.1750622168</v>
       </c>
       <c r="F239" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-725415448.1887877</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>401335423.8201468</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -8785,24 +8780,24 @@
         <v>24</v>
       </c>
       <c r="B240" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43615</v>
       </c>
       <c r="C240" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D240" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>70877778.205423772</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>8644114.4294697605</v>
       </c>
       <c r="E240" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-8860778.0179699715</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>4903885.436824468</v>
       </c>
       <c r="F240" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-796293226.39421153</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>392691309.39067703</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -8810,24 +8805,24 @@
         <v>25</v>
       </c>
       <c r="B241" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43646</v>
       </c>
       <c r="C241" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D241" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>71743533.49179551</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>8749736.1721542962</v>
       </c>
       <c r="E241" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-9726533.3043417148</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>4798263.6941399314</v>
       </c>
       <c r="F241" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-868036759.88600707</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>383941573.21852273</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -8835,24 +8830,24 @@
         <v>26</v>
       </c>
       <c r="B242" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43676</v>
       </c>
       <c r="C242" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D242" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>72619863.774094865</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>8856648.4984629564</v>
       </c>
       <c r="E242" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-10602863.586641071</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>4691351.3678312711</v>
       </c>
       <c r="F242" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-940656623.66010189</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>375084924.72005975</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -8860,24 +8855,24 @@
         <v>27</v>
       </c>
       <c r="B243" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43707</v>
       </c>
       <c r="C243" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D243" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>73506898.223394349</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>8964867.1779337954</v>
       </c>
       <c r="E243" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-11489898.035940547</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>4583132.6883604322</v>
       </c>
       <c r="F243" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-1014163521.8834963</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>366120057.54212594</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -8885,24 +8880,24 @@
         <v>28</v>
       </c>
       <c r="B244" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43738</v>
       </c>
       <c r="C244" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D244" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>74404767.588560522</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>9074408.1727915946</v>
       </c>
       <c r="E244" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-12387767.40110673</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>4473591.6935026329</v>
       </c>
       <c r="F244" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-1088568289.4720569</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>357045649.36933434</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -8910,24 +8905,24 @@
         <v>29</v>
       </c>
       <c r="B245" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43768</v>
       </c>
       <c r="C245" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D245" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>75313604.215526462</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>9185287.6403022818</v>
       </c>
       <c r="E245" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-13296604.028072668</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>4362712.2259919466</v>
       </c>
       <c r="F245" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-1163881893.6875834</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>347860361.72903204</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -8935,24 +8930,24 @@
         <v>30</v>
       </c>
       <c r="B246" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43799</v>
       </c>
       <c r="C246" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D246" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>76233542.066799462</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>9297521.9351561237</v>
       </c>
       <c r="E246" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-14216541.879345661</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>4250477.9311381038</v>
       </c>
       <c r="F246" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-1240115435.7543828</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>338562839.79387593</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -8960,24 +8955,24 @@
         <v>31</v>
       </c>
       <c r="B247" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43829</v>
       </c>
       <c r="C247" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D247" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>77164716.741207123</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>9411127.6118800417</v>
       </c>
       <c r="E247" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-15147716.553753326</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>4136872.2544141863</v>
       </c>
       <c r="F247" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-1317280152.49559</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>329151712.18199587</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -8985,24 +8980,24 @@
         <v>32</v>
       </c>
       <c r="B248" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43860</v>
       </c>
       <c r="C248" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D248" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>78107265.493884683</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>9526121.4272793941</v>
       </c>
       <c r="E248" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-16090265.306430876</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>4021878.439014833</v>
       </c>
       <c r="F248" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-1395387417.9894748</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>319625590.75471646</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -9010,24 +9005,24 @@
         <v>33</v>
       </c>
       <c r="B249" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43890</v>
       </c>
       <c r="C249" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D249" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>79061327.256506309</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>9642520.342909608</v>
       </c>
       <c r="E249" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-17044327.069052514</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>3905479.52338462</v>
       </c>
       <c r="F249" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-1474448745.245981</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>309983070.41180682</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -9035,24 +9030,24 @@
         <v>34</v>
       </c>
       <c r="B250" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43920</v>
       </c>
       <c r="C250" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D250" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>80027042.657763749</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>9760341.5275779925</v>
       </c>
       <c r="E250" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-18010042.47030995</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>3787658.3387162345</v>
       </c>
       <c r="F250" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-1554475787.9037447</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>300222728.88422883</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -9060,24 +9055,24 @@
         <v>35</v>
       </c>
       <c r="B251" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43951</v>
       </c>
       <c r="C251" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D251" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>81004554.044094905</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>9879602.3598761465</v>
       </c>
       <c r="E251" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-18987553.856641106</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>3668397.506418081</v>
       </c>
       <c r="F251" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-1635480341.9478395</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>290343126.52435267</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -9085,24 +9080,24 @@
         <v>36</v>
       </c>
       <c r="B252" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>43981</v>
       </c>
       <c r="C252" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D252" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>81994005.500665724</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>10000320.430743285</v>
       </c>
       <c r="E252" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-19977005.313211933</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>3547679.435550943</v>
       </c>
       <c r="F252" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-1717474347.4485052</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>280342806.09360939</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -9110,24 +9105,24 @@
         <v>37</v>
       </c>
       <c r="B253" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>44012</v>
       </c>
       <c r="C253" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D253" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>82995542.872608393</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>10122513.546060901</v>
       </c>
       <c r="E253" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-20978542.685154598</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>3425486.3202333255</v>
       </c>
       <c r="F253" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-1800469890.3211136</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>270220292.54754847</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -9135,24 +9130,24 @@
         <v>38</v>
       </c>
       <c r="B254" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>44042</v>
       </c>
       <c r="C254" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D254" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>84009313.786518827</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>10246199.729279136</v>
       </c>
       <c r="E254" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-21992313.599065028</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>3301800.1370150908</v>
       </c>
       <c r="F254" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-1884479204.1076324</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>259974092.81826934</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -9160,24 +9155,24 @@
         <v>39</v>
       </c>
       <c r="B255" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>44073</v>
       </c>
       <c r="C255" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D255" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>85035467.672216892</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>10371397.224075221</v>
       </c>
       <c r="E255" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-23018467.484763093</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>3176602.6422190075</v>
       </c>
       <c r="F255" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-1969514671.7798493</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>249602695.59419411</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -9185,24 +9180,24 @@
         <v>40</v>
       </c>
       <c r="B256" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>44104</v>
       </c>
       <c r="C256" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D256" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>86074155.784772336</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>10498124.497044418</v>
       </c>
       <c r="E256" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-24057155.597318541</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>3049875.36924981</v>
       </c>
       <c r="F256" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-2055588827.5646217</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>239104571.0971497</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -9210,24 +9205,24 @@
         <v>41</v>
       </c>
       <c r="B257" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>44134</v>
       </c>
       <c r="C257" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D257" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>87125531.226799801</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>10626400.240423843</v>
       </c>
       <c r="E257" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-25108531.039345998</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>2921599.6258703843</v>
       </c>
       <c r="F257" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-2142714358.7914214</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>228478170.85672587</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -9235,24 +9230,24 @@
         <v>42</v>
       </c>
       <c r="B258" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>44165</v>
       </c>
       <c r="C258" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D258" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>88189748.971026093</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>10756243.374849563</v>
       </c>
       <c r="E258" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-26172748.783572301</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>2791756.4914446645</v>
       </c>
       <c r="F258" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-2230904107.7624474</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>217721927.48187631</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -9260,24 +9255,24 @@
         <v>43</v>
       </c>
       <c r="B259" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>44195</v>
       </c>
       <c r="C259" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D259" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>89266965.883133262</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>10887673.052147379</v>
       </c>
       <c r="E259" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-27249965.69567946</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>2660326.8141468479</v>
       </c>
       <c r="F259" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-2320171073.6455808</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>206834254.42972893</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -9285,24 +9280,24 @@
         <v>44</v>
       </c>
       <c r="B260" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>44226</v>
       </c>
       <c r="C260" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D260" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>90357340.744880468</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>11020708.658157725</v>
       </c>
       <c r="E260" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-28340340.557426676</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>2527291.2081365031</v>
       </c>
       <c r="F260" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-2410528414.3904614</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>195813545.77157119</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -9310,24 +9305,24 @@
         <v>45</v>
       </c>
       <c r="B261" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>44255</v>
       </c>
       <c r="C261" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D261" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>91461034.277508557</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>11155369.815595061</v>
       </c>
       <c r="E261" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-29444034.09005475</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>2392630.0506991665</v>
       </c>
       <c r="F261" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-2501989448.6679702</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>184658175.95597613</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -9335,24 +9330,24 @@
         <v>46</v>
       </c>
       <c r="B262" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>44285</v>
       </c>
       <c r="C262" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D262" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>92578209.165430203</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>11291676.386942232</v>
       </c>
       <c r="E262" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-30561208.977976408</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>2256323.4793519955</v>
       </c>
       <c r="F262" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-2594567657.8334002</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>173366499.56903389</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -9360,24 +9355,24 @@
         <v>47</v>
       </c>
       <c r="B263" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>44316</v>
       </c>
       <c r="C263" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D263" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>93709030.080209762</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>11429648.477380168</v>
       </c>
       <c r="E263" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-31692029.892755967</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>2118351.3889140594</v>
       </c>
       <c r="F263" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-2688276687.91361</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>161936851.09165373</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -9385,24 +9380,24 @@
         <v>48</v>
       </c>
       <c r="B264" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>44346</v>
       </c>
       <c r="C264" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D264" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>94853663.704835743</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>11569306.437753398</v>
       </c>
       <c r="E264" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-32836663.517381944</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>1978693.4285408296</v>
       </c>
       <c r="F264" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-2783130351.6184459</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>150367544.65390033</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -9410,24 +9405,24 @@
         <v>49</v>
       </c>
       <c r="B265" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>44377</v>
       </c>
       <c r="C265" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D265" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>96012278.758289903</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>11710670.867571792</v>
       </c>
       <c r="E265" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-33995278.570836104</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>1837328.9987224357</v>
       </c>
       <c r="F265" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-2879142630.3767357</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>138656873.78632852</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -9435,24 +9430,24 @@
         <v>50</v>
       </c>
       <c r="B266" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>44407</v>
       </c>
       <c r="C266" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D266" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>97185046.020416439</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>11853762.618048983</v>
       </c>
       <c r="E266" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-35168045.83296264</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>1694237.2482452453</v>
       </c>
       <c r="F266" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-2976327676.3971519</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>126803111.16827954</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -9460,24 +9455,24 @@
         <v>51</v>
       </c>
       <c r="B267" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>44438</v>
       </c>
       <c r="C267" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D267" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>98372138.357094944</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>11998602.795177914</v>
       </c>
       <c r="E267" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-36355138.169641137</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>1549397.0711163143</v>
       </c>
       <c r="F267" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-3074699814.7542467</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>114804508.37310162</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -9485,24 +9480,24 @@
         <v>52</v>
       </c>
       <c r="B268" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>44469</v>
       </c>
       <c r="C268" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D268" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>99573730.745720774</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>12145212.762843968</v>
       </c>
       <c r="E268" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-37556730.558266968</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>1402787.1034502587</v>
       </c>
       <c r="F268" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-3174273545.4999676</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>102659295.61025766</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -9510,24 +9505,24 @@
         <v>53</v>
       </c>
       <c r="B269" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>44499</v>
       </c>
       <c r="C269" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D269" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>100790000.30099681</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>12293614.145976137</v>
       </c>
       <c r="E269" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-38773000.113543004</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>1254385.7203180895</v>
       </c>
       <c r="F269" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-3275063545.8009644</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>90365681.464281514</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -9535,24 +9530,24 @@
         <v>54</v>
       </c>
       <c r="B270" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>44530</v>
       </c>
       <c r="C270" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D270" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>102021126.30104008</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>12443828.833736688</v>
       </c>
       <c r="E270" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-40004126.113586277</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>1104171.0325575387</v>
       </c>
       <c r="F270" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-3377084672.1020045</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>77921852.630544826</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -9560,24 +9555,24 @@
         <v>55</v>
       </c>
       <c r="B271" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>44560</v>
       </c>
       <c r="C271" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D271" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>103267290.21380739</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>12595878.98274981</v>
       </c>
       <c r="E271" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-41250290.02635359</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>952120.88354441675</v>
       </c>
       <c r="F271" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-3480351962.3158121</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>65325973.647795014</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -9585,24 +9580,24 @@
         <v>56</v>
       </c>
       <c r="B272" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>44591</v>
       </c>
       <c r="C272" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D272" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>104528675.72384369</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>12749787.020369712</v>
       </c>
       <c r="E272" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-42511675.536389902</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>798212.84592451539</v>
       </c>
       <c r="F272" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-3584880638.0396557</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>52576186.627425298</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -9610,24 +9605,24 @@
         <v>57</v>
       </c>
       <c r="B273" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>44620</v>
       </c>
       <c r="C273" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D273" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>105805468.7593572</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>12905575.647988647</v>
       </c>
       <c r="E273" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-43788468.5719034</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>642424.2183055795</v>
       </c>
       <c r="F273" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-3690686106.7990127</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>39670610.979436651</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -9635,24 +9630,24 @@
         <v>58</v>
       </c>
       <c r="B274" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>44650</v>
       </c>
       <c r="C274" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D274" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>107097857.51962513</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>13063267.844385369</v>
       </c>
       <c r="E274" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-45080857.332171336</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>484732.02190885803</v>
       </c>
       <c r="F274" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-3797783964.3186378</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>26607343.13505128</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -9660,24 +9655,24 @@
         <v>59</v>
       </c>
       <c r="B275" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>44681</v>
       </c>
       <c r="C275" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D275" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>108406032.50273441</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>13222886.869114487</v>
       </c>
       <c r="E275" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-46389032.315280609</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>325112.99717974075</v>
       </c>
       <c r="F275" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-3906189996.821372</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>13384456.265936794</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -9685,24 +9680,24 @@
         <v>60</v>
       </c>
       <c r="B276" s="43">
-        <f si="20" t="shared"/>
+        <f si="21" t="shared"/>
         <v>44711</v>
       </c>
       <c r="C276" s="42">
-        <f ca="1" si="24" t="shared"/>
-        <v>62017000.187453799</v>
+        <f ca="1" si="25" t="shared"/>
+        <v>13547999.866294228</v>
       </c>
       <c r="D276" s="42">
-        <f ca="1" si="21" t="shared"/>
-        <v>109730186.53366095</v>
+        <f ca="1" si="22" t="shared"/>
+        <v>13384456.265937246</v>
       </c>
       <c r="E276" s="42">
-        <f ca="1" si="22" t="shared"/>
-        <v>-47713186.346207149</v>
+        <f ca="1" si="23" t="shared"/>
+        <v>163543.6003569804</v>
       </c>
       <c r="F276" s="42">
-        <f ca="1" si="25" t="shared"/>
-        <v>-4015920183.3550329</v>
+        <f ca="1" si="26" t="shared"/>
+        <v>-4.5262277126312256E-7</v>
       </c>
     </row>
   </sheetData>

--- a/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
+++ b/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
@@ -1649,7 +1649,7 @@
         <v>99</v>
       </c>
       <c r="B2" t="n">
-        <v>1.22605E8</v>
+        <v>3.5062E8</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1679,7 +1679,7 @@
         <v>30</v>
       </c>
       <c r="B5" t="n">
-        <v>6.11E8</v>
+        <v>1.002E9</v>
       </c>
       <c r="C5" s="89" t="s">
         <v>94</v>
@@ -1699,7 +1699,7 @@
         <v>100</v>
       </c>
       <c r="B6" t="n">
-        <v>1.2262E8</v>
+        <v>3.5062E8</v>
       </c>
       <c r="C6" s="89" t="s">
         <v>94</v>
@@ -1708,7 +1708,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>3.3151E7</v>
+        <v>3.92705E7</v>
       </c>
       <c r="F6" s="89" t="s">
         <v>94</v>
@@ -1717,7 +1717,7 @@
         <v>12</v>
       </c>
       <c r="H6" t="n">
-        <v>2.476125E7</v>
+        <v>2.932525E7</v>
       </c>
       <c r="I6" s="89" t="s">
         <v>94</v>
@@ -1735,7 +1735,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>4.3455345E7</v>
+        <v>0.0</v>
       </c>
       <c r="F7" s="89" t="s">
         <v>94</v>
@@ -1744,7 +1744,7 @@
         <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>4.44542E7</v>
+        <v>0.0</v>
       </c>
       <c r="I7" s="89" t="s">
         <v>94</v>
@@ -1755,7 +1755,7 @@
         <v>34</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1468207</v>
+        <v>0.14685478</v>
       </c>
       <c r="C8" s="89" t="s">
         <v>94</v>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="C24" s="25"/>
       <c r="D24" t="n">
-        <v>3.08145E7</v>
+        <v>3.6437E7</v>
       </c>
       <c r="E24" s="89" t="s">
         <v>94</v>

--- a/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
+++ b/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
@@ -1649,7 +1649,7 @@
         <v>99</v>
       </c>
       <c r="B2" t="n">
-        <v>3.5062E8</v>
+        <v>3.5042E8</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1657,7 +1657,7 @@
         <v>71</v>
       </c>
       <c r="B3" t="n">
-        <v>7.7217899174E8</v>
+        <v>9.9744298846E8</v>
       </c>
       <c r="C3" s="95" t="s">
         <v>97</v>
@@ -1755,7 +1755,7 @@
         <v>34</v>
       </c>
       <c r="B8" t="n">
-        <v>0.14685478</v>
+        <v>0.14690309</v>
       </c>
       <c r="C8" s="89" t="s">
         <v>94</v>
@@ -1941,7 +1941,7 @@
         <v>42</v>
       </c>
       <c r="B17" t="n">
-        <v>1.354699986E7</v>
+        <v>1.74989998E7</v>
       </c>
       <c r="C17" s="88" t="s">
         <v>93</v>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="C25" s="25"/>
       <c r="D25" t="n">
-        <v>1.3036604E7</v>
+        <v>0.0</v>
       </c>
       <c r="E25" s="89" t="s">
         <v>94</v>

--- a/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
+++ b/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-Sprint17\Simulasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UF-BNI\Simulasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -394,14 +394,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000000%"/>
     <numFmt numFmtId="165" formatCode="0.00000%"/>
     <numFmt numFmtId="166" formatCode="0.0000%"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -766,7 +765,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -924,8 +923,8 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -947,7 +946,6 @@
     <xf numFmtId="43" fontId="15" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1636,7 +1634,7 @@
   <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1658,7 +1656,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="112" t="s">
         <v>101</v>
       </c>
       <c r="C1" t="s">
@@ -1666,7 +1664,7 @@
       </c>
       <c r="D1" s="3">
         <f ca="1">IF(B16=1,'Regular Fixed'!E79,IF(AND(B16=0,E16=0),'Regular Fixed'!E15,IF(AND(B16=0,E16&gt;0,E15&gt;0),'Regular Fixed'!E147,IF(AND(B16=0,E16&gt;0,E15=0),'Regular Fixed'!E213))))</f>
-        <v>95075184.387745291</v>
+        <v>40493501.75900168</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1674,7 +1672,7 @@
         <v>98</v>
       </c>
       <c r="B2">
-        <v>122485000</v>
+        <v>280000000</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1682,7 +1680,7 @@
         <v>70</v>
       </c>
       <c r="B3">
-        <v>307799997.38999999</v>
+        <v>585256001.75999999</v>
       </c>
       <c r="C3" s="87" t="s">
         <v>96</v>
@@ -1704,7 +1702,7 @@
         <v>29</v>
       </c>
       <c r="B5">
-        <v>310000000</v>
+        <v>802000000</v>
       </c>
       <c r="C5" s="83" t="s">
         <v>93</v>
@@ -1724,7 +1722,7 @@
         <v>99</v>
       </c>
       <c r="B6">
-        <v>122500000</v>
+        <v>280000000</v>
       </c>
       <c r="C6" s="83" t="s">
         <v>93</v>
@@ -1733,7 +1731,7 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>21558500</v>
+        <v>21342500</v>
       </c>
       <c r="F6" s="83" t="s">
         <v>93</v>
@@ -1742,7 +1740,7 @@
         <v>12</v>
       </c>
       <c r="H6">
-        <v>21400960</v>
+        <v>22945640</v>
       </c>
       <c r="I6" s="83" t="s">
         <v>93</v>
@@ -1754,13 +1752,13 @@
       </c>
       <c r="B7" s="89">
         <f>B5-B6+D24+D25+D26+D27+D28+D29+D30+D31+D38</f>
-        <v>212724813</v>
+        <v>544762500</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E7">
-        <v>12834375</v>
+        <v>0</v>
       </c>
       <c r="F7" s="83" t="s">
         <v>93</v>
@@ -1769,7 +1767,7 @@
         <v>14</v>
       </c>
       <c r="H7">
-        <v>13156250</v>
+        <v>0</v>
       </c>
       <c r="I7" s="83" t="s">
         <v>93</v>
@@ -1780,7 +1778,7 @@
         <v>33</v>
       </c>
       <c r="B8">
-        <v>0.14692175000000002</v>
+        <v>0.10000218</v>
       </c>
       <c r="C8" s="83" t="s">
         <v>93</v>
@@ -1806,7 +1804,7 @@
         <v>34</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C9" s="83" t="s">
         <v>93</v>
@@ -1815,7 +1813,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>2250000</v>
+        <v>78300000</v>
       </c>
       <c r="F9" s="83" t="s">
         <v>93</v>
@@ -1832,7 +1830,7 @@
         <v>35</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10" s="83" t="s">
         <v>93</v>
@@ -1874,7 +1872,7 @@
       </c>
       <c r="B12" s="20">
         <f>B8/(12/B10)</f>
-        <v>1.2243479166666668E-2</v>
+        <v>5.0001089999999998E-2</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>10</v>
@@ -1892,7 +1890,7 @@
       </c>
       <c r="B13" s="18">
         <f>B9/B10</f>
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>11</v>
@@ -1929,7 +1927,7 @@
       </c>
       <c r="B15" s="3">
         <f>IF(B16=1,B2+SUM(E6:E14)-SUM(D24:D31,D38)+B18,B2+SUM(E6:E14)-SUM(D24:D31,D38))</f>
-        <v>136603062</v>
+        <v>505894000</v>
       </c>
       <c r="D15" s="82" t="s">
         <v>94</v>
@@ -1946,7 +1944,7 @@
         <v>40</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="83" t="s">
         <v>93</v>
@@ -1955,7 +1953,7 @@
         <v>95</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16" s="83" t="s">
         <v>93</v>
@@ -1966,7 +1964,7 @@
         <v>41</v>
       </c>
       <c r="B17">
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="C17" s="82" t="s">
         <v>92</v>
@@ -1975,7 +1973,7 @@
     <row r="18" spans="1:13">
       <c r="B18" s="90">
         <f>ROUND(B17,0)</f>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>42</v>
@@ -1987,7 +1985,7 @@
       </c>
       <c r="B19" s="13">
         <f ca="1">(D1/B7)/(B9/12/B10)*100</f>
-        <v>8.9387959069678704</v>
+        <v>22.299718735596713</v>
       </c>
       <c r="F19" s="85" t="s">
         <v>43</v>
@@ -2020,14 +2018,14 @@
       </c>
       <c r="G20" s="100">
         <f>IF(B16=0,-B7,0)</f>
-        <v>-212724813</v>
+        <v>0</v>
       </c>
       <c r="I20" s="85">
         <v>0</v>
       </c>
       <c r="J20" s="100">
         <f>IF(B16=0,B37-C37,0)</f>
-        <v>-207969148</v>
+        <v>0</v>
       </c>
       <c r="L20" s="13">
         <v>0</v>
@@ -2040,7 +2038,7 @@
       <c r="B21" s="22"/>
       <c r="C21" s="23">
         <f>B5</f>
-        <v>310000000</v>
+        <v>802000000</v>
       </c>
       <c r="D21" s="21"/>
       <c r="F21" s="105">
@@ -2048,14 +2046,14 @@
       </c>
       <c r="G21" s="101">
         <f>IF($B$16=0,IF(F21&lt;=$E$16,$E$15,$B$17),-B7+B17)</f>
-        <v>0</v>
+        <v>-398448499.56</v>
       </c>
       <c r="I21" s="85">
         <v>1</v>
       </c>
       <c r="J21" s="101">
         <f>IF(B16=0,IF(I21&lt;=$E$16,$E$15,$B$18),B37-C37)</f>
-        <v>0</v>
+        <v>-319081640</v>
       </c>
       <c r="L21" s="13">
         <v>-246450080</v>
@@ -2067,7 +2065,7 @@
       </c>
       <c r="B22" s="23">
         <f>B6</f>
-        <v>122500000</v>
+        <v>280000000</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="21"/>
@@ -2076,14 +2074,14 @@
       </c>
       <c r="G22" s="102">
         <f>IF($B$16=0,IF(F22&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>0</v>
+        <v>146314000.44</v>
       </c>
       <c r="I22" s="85">
         <v>2</v>
       </c>
       <c r="J22" s="100">
         <f>IF($B$16=0,IF(I22&lt;=$E$16,$E$15,$B$18),$B$18)</f>
-        <v>0</v>
+        <v>146314000</v>
       </c>
       <c r="L22" s="13">
         <v>6600000</v>
@@ -2095,7 +2093,7 @@
       </c>
       <c r="B23" s="98">
         <f>IF(B16=1,B18,0)</f>
-        <v>0</v>
+        <v>146314000</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="21"/>
@@ -2104,14 +2102,14 @@
       </c>
       <c r="G23" s="102">
         <f>IF($B$16=0,IF(F23&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>0</v>
+        <v>146314000.44</v>
       </c>
       <c r="I23" s="85">
         <v>3</v>
       </c>
       <c r="J23" s="100">
         <f>IF($B$16=0,IF(I23&lt;=$E$16,$E$15,$B$18),$B$18)</f>
-        <v>0</v>
+        <v>146314000</v>
       </c>
       <c r="L23" s="13">
         <v>6600000</v>
@@ -2123,11 +2121,11 @@
       </c>
       <c r="B24" s="98">
         <f t="shared" ref="B24:B31" si="0">E6-D24</f>
-        <v>1744000</v>
+        <v>0</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24">
-        <v>19814500</v>
+        <v>21342500</v>
       </c>
       <c r="E24" s="83" t="s">
         <v>93</v>
@@ -2137,7 +2135,7 @@
       </c>
       <c r="G24" s="102">
         <f>IF($B$16=0,IF(F24&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H24" s="104"/>
       <c r="I24" s="85">
@@ -2145,7 +2143,7 @@
       </c>
       <c r="J24" s="100">
         <f t="shared" ref="J24:J81" si="1">IF($B$16=0,IF(I24&lt;=$E$16,$E$15,$B$18),$B$18)</f>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L24" s="13">
         <v>6600000</v>
@@ -2158,11 +2156,11 @@
       </c>
       <c r="B25" s="23">
         <f t="shared" si="0"/>
-        <v>8984062</v>
+        <v>0</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25">
-        <v>3850313</v>
+        <v>0</v>
       </c>
       <c r="E25" s="83" t="s">
         <v>93</v>
@@ -2172,7 +2170,7 @@
       </c>
       <c r="G25" s="102">
         <f t="shared" ref="G25:G81" si="2">IF($B$16=0,IF(F25&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H25" s="104"/>
       <c r="I25" s="85">
@@ -2180,7 +2178,7 @@
       </c>
       <c r="J25" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L25" s="13">
         <v>6600000</v>
@@ -2193,11 +2191,11 @@
       </c>
       <c r="B26" s="23">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>150000</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="E26" s="83" t="s">
         <v>93</v>
@@ -2207,7 +2205,7 @@
       </c>
       <c r="G26" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H26" s="104"/>
       <c r="I26" s="85">
@@ -2215,7 +2213,7 @@
       </c>
       <c r="J26" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L26" s="13">
         <v>6600000</v>
@@ -2227,7 +2225,7 @@
       </c>
       <c r="B27" s="23">
         <f t="shared" si="0"/>
-        <v>1250000</v>
+        <v>77300000</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27">
@@ -2241,7 +2239,7 @@
       </c>
       <c r="G27" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H27" s="104"/>
       <c r="I27" s="85">
@@ -2249,7 +2247,7 @@
       </c>
       <c r="J27" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L27" s="13">
         <v>6600000</v>
@@ -2275,7 +2273,7 @@
       </c>
       <c r="G28" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H28" s="104"/>
       <c r="I28" s="85">
@@ -2283,7 +2281,7 @@
       </c>
       <c r="J28" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L28" s="13">
         <v>6600000</v>
@@ -2309,7 +2307,7 @@
       </c>
       <c r="G29" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H29" s="104"/>
       <c r="I29" s="85">
@@ -2317,7 +2315,7 @@
       </c>
       <c r="J29" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L29" s="13">
         <v>6600000</v>
@@ -2341,7 +2339,7 @@
       </c>
       <c r="G30" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H30" s="104"/>
       <c r="I30" s="85">
@@ -2349,7 +2347,7 @@
       </c>
       <c r="J30" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L30" s="13">
         <v>6600000</v>
@@ -2361,11 +2359,11 @@
       </c>
       <c r="B31" s="23">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="C31" s="22"/>
       <c r="D31">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="E31" s="83" t="s">
         <v>93</v>
@@ -2375,7 +2373,7 @@
       </c>
       <c r="G31" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H31" s="104"/>
       <c r="I31" s="85">
@@ -2383,7 +2381,7 @@
       </c>
       <c r="J31" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L31" s="13">
         <v>6600000</v>
@@ -2396,7 +2394,7 @@
       <c r="B32" s="22"/>
       <c r="C32" s="24">
         <f>H6</f>
-        <v>21400960</v>
+        <v>22945640</v>
       </c>
       <c r="D32" s="21"/>
       <c r="F32" s="105">
@@ -2404,7 +2402,7 @@
       </c>
       <c r="G32" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H32" s="104"/>
       <c r="I32" s="85">
@@ -2412,7 +2410,7 @@
       </c>
       <c r="J32" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L32" s="13">
         <v>6600000</v>
@@ -2425,7 +2423,7 @@
       <c r="B33" s="22"/>
       <c r="C33" s="24">
         <f>H7</f>
-        <v>13156250</v>
+        <v>0</v>
       </c>
       <c r="D33" s="21"/>
       <c r="F33" s="105">
@@ -2433,7 +2431,7 @@
       </c>
       <c r="G33" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H33" s="104"/>
       <c r="I33" s="85">
@@ -2441,7 +2439,7 @@
       </c>
       <c r="J33" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L33" s="13">
         <v>6600000</v>
@@ -2462,7 +2460,7 @@
       </c>
       <c r="G34" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H34" s="104"/>
       <c r="I34" s="85">
@@ -2470,7 +2468,7 @@
       </c>
       <c r="J34" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L34" s="13">
         <v>6600000</v>
@@ -2491,7 +2489,7 @@
       </c>
       <c r="G35" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H35" s="104"/>
       <c r="I35" s="85">
@@ -2499,7 +2497,7 @@
       </c>
       <c r="J35" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L35" s="13">
         <v>6600000</v>
@@ -2514,7 +2512,7 @@
       </c>
       <c r="G36" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H36" s="104"/>
       <c r="I36" s="85">
@@ -2522,7 +2520,7 @@
       </c>
       <c r="J36" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L36" s="13">
         <v>6600000</v>
@@ -2534,11 +2532,11 @@
       </c>
       <c r="B37" s="16">
         <f>SUM(B21:B35)</f>
-        <v>136588062</v>
+        <v>505864000</v>
       </c>
       <c r="C37" s="16">
         <f>SUM(C21:C35)</f>
-        <v>344557210</v>
+        <v>824945640</v>
       </c>
       <c r="D37" t="s">
         <v>49</v>
@@ -2548,7 +2546,7 @@
       </c>
       <c r="G37" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H37" s="104"/>
       <c r="I37" s="85">
@@ -2556,7 +2554,7 @@
       </c>
       <c r="J37" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L37" s="13">
         <v>6600000</v>
@@ -2579,7 +2577,7 @@
       </c>
       <c r="G38" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H38" s="104"/>
       <c r="I38" s="85">
@@ -2587,7 +2585,7 @@
       </c>
       <c r="J38" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L38" s="13">
         <v>6600000</v>
@@ -2599,7 +2597,7 @@
       </c>
       <c r="G39" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H39" s="104"/>
       <c r="I39" s="85">
@@ -2607,7 +2605,7 @@
       </c>
       <c r="J39" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="K39" s="35"/>
       <c r="L39" s="13">
@@ -2621,7 +2619,7 @@
       </c>
       <c r="G40" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H40" s="104"/>
       <c r="I40" s="85">
@@ -2629,7 +2627,7 @@
       </c>
       <c r="J40" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L40" s="13">
         <v>6600000</v>
@@ -2641,7 +2639,7 @@
       </c>
       <c r="G41" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H41" s="104"/>
       <c r="I41" s="85">
@@ -2649,7 +2647,7 @@
       </c>
       <c r="J41" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L41" s="13">
         <v>6600000</v>
@@ -2661,7 +2659,7 @@
       </c>
       <c r="G42" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H42" s="104"/>
       <c r="I42" s="85">
@@ -2669,7 +2667,7 @@
       </c>
       <c r="J42" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L42" s="13">
         <v>6600000</v>
@@ -2681,7 +2679,7 @@
       </c>
       <c r="G43" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H43" s="104"/>
       <c r="I43" s="85">
@@ -2689,7 +2687,7 @@
       </c>
       <c r="J43" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L43" s="13">
         <v>6600000</v>
@@ -2701,7 +2699,7 @@
       </c>
       <c r="G44" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H44" s="104"/>
       <c r="I44" s="85">
@@ -2709,7 +2707,7 @@
       </c>
       <c r="J44" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L44" s="13">
         <v>6600000</v>
@@ -2721,7 +2719,7 @@
       </c>
       <c r="G45" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H45" s="104"/>
       <c r="I45" s="85">
@@ -2729,7 +2727,7 @@
       </c>
       <c r="J45" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L45" s="13">
         <v>6600000</v>
@@ -2741,7 +2739,7 @@
       </c>
       <c r="G46" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H46" s="104"/>
       <c r="I46" s="85">
@@ -2749,7 +2747,7 @@
       </c>
       <c r="J46" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L46" s="13">
         <v>6600000</v>
@@ -2761,7 +2759,7 @@
       </c>
       <c r="G47" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H47" s="104"/>
       <c r="I47" s="85">
@@ -2769,7 +2767,7 @@
       </c>
       <c r="J47" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L47" s="13">
         <v>6600000</v>
@@ -2781,7 +2779,7 @@
       </c>
       <c r="G48" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H48" s="104"/>
       <c r="I48" s="85">
@@ -2789,7 +2787,7 @@
       </c>
       <c r="J48" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L48" s="13">
         <v>6600000</v>
@@ -2801,7 +2799,7 @@
       </c>
       <c r="G49" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H49" s="104"/>
       <c r="I49" s="85">
@@ -2809,7 +2807,7 @@
       </c>
       <c r="J49" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L49" s="13">
         <v>6600000</v>
@@ -2821,7 +2819,7 @@
       </c>
       <c r="G50" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H50" s="104"/>
       <c r="I50" s="85">
@@ -2829,7 +2827,7 @@
       </c>
       <c r="J50" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L50" s="13">
         <v>6600000</v>
@@ -2841,7 +2839,7 @@
       </c>
       <c r="G51" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H51" s="104"/>
       <c r="I51" s="85">
@@ -2849,7 +2847,7 @@
       </c>
       <c r="J51" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L51" s="13">
         <v>6600000</v>
@@ -2861,7 +2859,7 @@
       </c>
       <c r="G52" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H52" s="104"/>
       <c r="I52" s="85">
@@ -2869,7 +2867,7 @@
       </c>
       <c r="J52" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L52" s="13">
         <v>6600000</v>
@@ -2881,7 +2879,7 @@
       </c>
       <c r="G53" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H53" s="104"/>
       <c r="I53" s="85">
@@ -2889,7 +2887,7 @@
       </c>
       <c r="J53" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L53" s="13">
         <v>6600000</v>
@@ -2901,7 +2899,7 @@
       </c>
       <c r="G54" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H54" s="104"/>
       <c r="I54" s="85">
@@ -2909,7 +2907,7 @@
       </c>
       <c r="J54" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L54" s="13">
         <v>6600000</v>
@@ -2921,7 +2919,7 @@
       </c>
       <c r="G55" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H55" s="104"/>
       <c r="I55" s="85">
@@ -2929,7 +2927,7 @@
       </c>
       <c r="J55" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L55" s="13">
         <v>6600000</v>
@@ -2941,7 +2939,7 @@
       </c>
       <c r="G56" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H56" s="104"/>
       <c r="I56" s="85">
@@ -2949,7 +2947,7 @@
       </c>
       <c r="J56" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L56" s="13">
         <v>6600000</v>
@@ -2961,7 +2959,7 @@
       </c>
       <c r="G57" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H57" s="104"/>
       <c r="I57" s="85">
@@ -2969,7 +2967,7 @@
       </c>
       <c r="J57" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L57" s="13">
         <v>6600000</v>
@@ -2981,7 +2979,7 @@
       </c>
       <c r="G58" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H58" s="104"/>
       <c r="I58" s="85">
@@ -2989,7 +2987,7 @@
       </c>
       <c r="J58" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L58" s="13">
         <v>6600000</v>
@@ -3001,7 +2999,7 @@
       </c>
       <c r="G59" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H59" s="104"/>
       <c r="I59" s="85">
@@ -3009,7 +3007,7 @@
       </c>
       <c r="J59" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L59" s="13">
         <v>6600000</v>
@@ -3021,7 +3019,7 @@
       </c>
       <c r="G60" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H60" s="104"/>
       <c r="I60" s="85">
@@ -3029,7 +3027,7 @@
       </c>
       <c r="J60" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L60" s="13">
         <v>6600000</v>
@@ -3041,7 +3039,7 @@
       </c>
       <c r="G61" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H61" s="104"/>
       <c r="I61" s="85">
@@ -3049,7 +3047,7 @@
       </c>
       <c r="J61" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L61" s="13">
         <v>6600000</v>
@@ -3061,7 +3059,7 @@
       </c>
       <c r="G62" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H62" s="104"/>
       <c r="I62" s="85">
@@ -3069,7 +3067,7 @@
       </c>
       <c r="J62" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L62" s="13">
         <v>6600000</v>
@@ -3081,7 +3079,7 @@
       </c>
       <c r="G63" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H63" s="104"/>
       <c r="I63" s="85">
@@ -3089,7 +3087,7 @@
       </c>
       <c r="J63" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L63" s="13">
         <v>6600000</v>
@@ -3101,7 +3099,7 @@
       </c>
       <c r="G64" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H64" s="104"/>
       <c r="I64" s="85">
@@ -3109,7 +3107,7 @@
       </c>
       <c r="J64" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L64" s="13">
         <v>6600000</v>
@@ -3121,7 +3119,7 @@
       </c>
       <c r="G65" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H65" s="104"/>
       <c r="I65" s="85">
@@ -3129,7 +3127,7 @@
       </c>
       <c r="J65" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L65" s="13">
         <v>6600000</v>
@@ -3141,7 +3139,7 @@
       </c>
       <c r="G66" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H66" s="104"/>
       <c r="I66" s="85">
@@ -3149,7 +3147,7 @@
       </c>
       <c r="J66" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L66" s="13">
         <v>6600000</v>
@@ -3161,7 +3159,7 @@
       </c>
       <c r="G67" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H67" s="104"/>
       <c r="I67" s="85">
@@ -3169,7 +3167,7 @@
       </c>
       <c r="J67" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L67" s="13">
         <v>6600000</v>
@@ -3181,7 +3179,7 @@
       </c>
       <c r="G68" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H68" s="104"/>
       <c r="I68" s="85">
@@ -3189,7 +3187,7 @@
       </c>
       <c r="J68" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L68" s="13">
         <v>6600000</v>
@@ -3201,7 +3199,7 @@
       </c>
       <c r="G69" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H69" s="104"/>
       <c r="I69" s="85">
@@ -3209,7 +3207,7 @@
       </c>
       <c r="J69" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L69" s="13">
         <v>6600000</v>
@@ -3221,7 +3219,7 @@
       </c>
       <c r="G70" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H70" s="104"/>
       <c r="I70" s="85">
@@ -3229,7 +3227,7 @@
       </c>
       <c r="J70" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L70" s="13">
         <v>6600000</v>
@@ -3241,7 +3239,7 @@
       </c>
       <c r="G71" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H71" s="104"/>
       <c r="I71" s="85">
@@ -3249,7 +3247,7 @@
       </c>
       <c r="J71" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L71" s="13">
         <v>6600000</v>
@@ -3261,7 +3259,7 @@
       </c>
       <c r="G72" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H72" s="104"/>
       <c r="I72" s="85">
@@ -3269,7 +3267,7 @@
       </c>
       <c r="J72" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L72" s="13">
         <v>6600000</v>
@@ -3281,7 +3279,7 @@
       </c>
       <c r="G73" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H73" s="104"/>
       <c r="I73" s="85">
@@ -3289,7 +3287,7 @@
       </c>
       <c r="J73" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L73" s="13">
         <v>6600000</v>
@@ -3301,7 +3299,7 @@
       </c>
       <c r="G74" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H74" s="104"/>
       <c r="I74" s="85">
@@ -3309,7 +3307,7 @@
       </c>
       <c r="J74" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L74" s="13">
         <v>6600000</v>
@@ -3321,7 +3319,7 @@
       </c>
       <c r="G75" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H75" s="104"/>
       <c r="I75" s="85">
@@ -3329,7 +3327,7 @@
       </c>
       <c r="J75" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L75" s="13">
         <v>6600000</v>
@@ -3341,7 +3339,7 @@
       </c>
       <c r="G76" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H76" s="104"/>
       <c r="I76" s="85">
@@ -3349,7 +3347,7 @@
       </c>
       <c r="J76" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L76" s="13">
         <v>6600000</v>
@@ -3361,7 +3359,7 @@
       </c>
       <c r="G77" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H77" s="104"/>
       <c r="I77" s="85">
@@ -3369,7 +3367,7 @@
       </c>
       <c r="J77" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L77" s="13">
         <v>6600000</v>
@@ -3381,7 +3379,7 @@
       </c>
       <c r="G78" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H78" s="104"/>
       <c r="I78" s="85">
@@ -3389,7 +3387,7 @@
       </c>
       <c r="J78" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L78" s="13">
         <v>6600000</v>
@@ -3401,7 +3399,7 @@
       </c>
       <c r="G79" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H79" s="104"/>
       <c r="I79" s="85">
@@ -3409,7 +3407,7 @@
       </c>
       <c r="J79" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L79" s="13">
         <v>6600000</v>
@@ -3421,7 +3419,7 @@
       </c>
       <c r="G80" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H80" s="104"/>
       <c r="I80" s="85">
@@ -3429,7 +3427,7 @@
       </c>
       <c r="J80" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L80" s="13">
         <v>6600000</v>
@@ -3441,7 +3439,7 @@
       </c>
       <c r="G81" s="102">
         <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <v>146314000.44</v>
       </c>
       <c r="H81" s="104"/>
       <c r="I81" s="85">
@@ -3449,7 +3447,7 @@
       </c>
       <c r="J81" s="100">
         <f t="shared" si="1"/>
-        <v>5400000</v>
+        <v>146314000</v>
       </c>
       <c r="L81" s="13">
         <v>6600000</v>
@@ -3476,30 +3474,30 @@
       <c r="F83" s="106"/>
       <c r="G83" s="14">
         <f ca="1">_xlfn.NUMBERVALUE(IRR(G20:INDIRECT(CONCATENATE("G",IF(B16=1,B13+20+1,B13+20)))))</f>
-        <v>1.2243479139454999E-2</v>
+        <v>0.173721722870078</v>
       </c>
       <c r="J83" s="56">
         <f ca="1">IRR(J20:INDIRECT(CONCATENATE("J",B13+20)))</f>
-        <v>1.3043235545400211E-2</v>
+        <v>0.17813059097742445</v>
       </c>
       <c r="K83" s="110">
         <f ca="1">J83*12*100</f>
-        <v>15.651882654480254</v>
+        <v>213.75670917290935</v>
       </c>
       <c r="L83" s="104"/>
     </row>
     <row r="84" spans="6:13">
       <c r="G84">
         <f ca="1">_xlfn.NUMBERVALUE(G83*12*100)</f>
-        <v>14.692174967346</v>
+        <v>208.46606744409399</v>
       </c>
       <c r="J84">
         <f ca="1">_xlfn.NUMBERVALUE(K83)</f>
-        <v>15.6518826544803</v>
+        <v>213.75670917290901</v>
       </c>
     </row>
     <row r="85" spans="6:13">
-      <c r="J85" s="112"/>
+      <c r="J85" s="56"/>
       <c r="L85">
         <f>M82</f>
         <v>20.04227034082886</v>
@@ -3551,7 +3549,7 @@
       </c>
       <c r="B3" s="88">
         <f>'Gross Yield (CF)'!B7</f>
-        <v>212724813</v>
+        <v>544762500</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>86</v>
@@ -3567,7 +3565,7 @@
       </c>
       <c r="B4" s="55">
         <f>'Gross Yield (CF)'!B8</f>
-        <v>0.14692175000000002</v>
+        <v>0.10000218</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>84</v>
@@ -3584,7 +3582,7 @@
       </c>
       <c r="B5" s="43">
         <f>'Gross Yield (CF)'!B9</f>
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>82</v>
@@ -3599,7 +3597,7 @@
       </c>
       <c r="B6" s="43">
         <f>'Gross Yield (CF)'!B10</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>81</v>
@@ -3635,7 +3633,7 @@
       </c>
       <c r="B9" s="57">
         <f>B4/(12/B6)</f>
-        <v>1.2243479166666668E-2</v>
+        <v>5.0001089999999998E-2</v>
       </c>
       <c r="C9" s="43" t="s">
         <v>80</v>
@@ -3649,7 +3647,7 @@
       </c>
       <c r="B10" s="52">
         <f>B5/B6</f>
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="C10" s="43" t="s">
         <v>79</v>
@@ -3664,7 +3662,7 @@
       </c>
       <c r="B11" s="52">
         <f>B3*-1</f>
-        <v>-212724813</v>
+        <v>-544762500</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>77</v>
@@ -3707,7 +3705,7 @@
       </c>
       <c r="B14" s="95">
         <f>PMT(B9,B10,B11,B12,B13)</f>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="40" t="s">
@@ -3715,7 +3713,7 @@
       </c>
       <c r="E14" s="40">
         <f ca="1">E15+F16</f>
-        <v>301584069.42851001</v>
+        <v>614519439.7759937</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -3734,7 +3732,7 @@
       </c>
       <c r="E15" s="40">
         <f ca="1">SUM(E17:INDIRECT(CONCATENATE("E",16+B10)))</f>
-        <v>88859256.42851001</v>
+        <v>69756939.77599369</v>
       </c>
       <c r="F15" s="39" t="s">
         <v>63</v>
@@ -3758,7 +3756,7 @@
       </c>
       <c r="F16" s="39">
         <f>B3</f>
-        <v>212724813</v>
+        <v>544762500</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3767,23 +3765,23 @@
       </c>
       <c r="B17" s="38">
         <f>EDATE($B$7,$B$6*A17)</f>
-        <v>42916</v>
+        <v>43069</v>
       </c>
       <c r="C17" s="37">
         <f>B14</f>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D17" s="37">
         <f t="shared" ref="D17:D76" si="0">C17-E17</f>
-        <v>2421909.340943269</v>
+        <v>126391141.1528734</v>
       </c>
       <c r="E17" s="37">
         <f t="shared" ref="E17:E76" si="1">F16*$B$9</f>
-        <v>2604491.8161985627</v>
+        <v>27238718.791125</v>
       </c>
       <c r="F17" s="37">
         <f t="shared" ref="F17:F27" si="2">F16-D17</f>
-        <v>210302903.65905672</v>
+        <v>418371358.8471266</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3792,23 +3790,23 @@
       </c>
       <c r="B18" s="38">
         <f t="shared" ref="B18:B76" si="3">EDATE($B$7,$B$6*A18)</f>
-        <v>42946</v>
+        <v>43250</v>
       </c>
       <c r="C18" s="37">
         <f t="shared" ref="C18:C76" si="4">$C$17</f>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D18" s="37">
         <f t="shared" si="0"/>
-        <v>2451561.9375026631</v>
+        <v>132710835.97686093</v>
       </c>
       <c r="E18" s="37">
         <f t="shared" si="1"/>
-        <v>2574839.2196391686</v>
+        <v>20919023.967137471</v>
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>207851341.72155407</v>
+        <v>285660522.87026566</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3817,23 +3815,23 @@
       </c>
       <c r="B19" s="38">
         <f t="shared" si="3"/>
-        <v>42977</v>
+        <v>43434</v>
       </c>
       <c r="C19" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D19" s="37">
         <f t="shared" si="0"/>
-        <v>2481577.5850102701</v>
+        <v>139346522.43051517</v>
       </c>
       <c r="E19" s="37">
         <f t="shared" si="1"/>
-        <v>2544823.5721315616</v>
+        <v>14283337.513483211</v>
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>205369764.13654381</v>
+        <v>146314000.43975049</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3842,23 +3840,23 @@
       </c>
       <c r="B20" s="38">
         <f t="shared" si="3"/>
-        <v>43008</v>
+        <v>43615</v>
       </c>
       <c r="C20" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D20" s="37">
         <f t="shared" si="0"/>
-        <v>2511960.7284728102</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="E20" s="37">
         <f t="shared" si="1"/>
-        <v>2514440.4286690215</v>
+        <v>7315859.5042480035</v>
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>202857803.40807101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3867,23 +3865,23 @@
       </c>
       <c r="B21" s="38">
         <f t="shared" si="3"/>
-        <v>43038</v>
+        <v>43799</v>
       </c>
       <c r="C21" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D21" s="37">
         <f t="shared" si="0"/>
-        <v>2542715.8673193515</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="E21" s="37">
         <f t="shared" si="1"/>
-        <v>2483685.2898224802</v>
+        <v>0</v>
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>200315087.54075167</v>
+        <v>-153629859.9439984</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3892,23 +3890,23 @@
       </c>
       <c r="B22" s="38">
         <f t="shared" si="3"/>
-        <v>43069</v>
+        <v>43981</v>
       </c>
       <c r="C22" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D22" s="37">
         <f t="shared" si="0"/>
-        <v>2573847.5560676288</v>
+        <v>161311520.39774567</v>
       </c>
       <c r="E22" s="37">
         <f t="shared" si="1"/>
-        <v>2452553.6010742029</v>
+        <v>-7681660.4537472585</v>
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>197741239.98468405</v>
+        <v>-314941380.34174407</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3917,23 +3915,23 @@
       </c>
       <c r="B23" s="38">
         <f t="shared" si="3"/>
-        <v>43099</v>
+        <v>44165</v>
       </c>
       <c r="C23" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D23" s="37">
         <f t="shared" si="0"/>
-        <v>2605360.4049985185</v>
+        <v>169377272.24719018</v>
       </c>
       <c r="E23" s="37">
         <f t="shared" si="1"/>
-        <v>2421040.7521433132</v>
+        <v>-15747412.303191775</v>
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>195135879.57968554</v>
+        <v>-484318652.58893424</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3942,23 +3940,23 @@
       </c>
       <c r="B24" s="38">
         <f t="shared" si="3"/>
-        <v>43130</v>
+        <v>44346</v>
       </c>
       <c r="C24" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D24" s="37">
         <f t="shared" si="0"/>
-        <v>2637259.0808387762</v>
+        <v>177846320.48077643</v>
       </c>
       <c r="E24" s="37">
         <f t="shared" si="1"/>
-        <v>2389142.0763030555</v>
+        <v>-24216460.536778033</v>
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>192498620.49884677</v>
+        <v>-662164973.06971073</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3967,23 +3965,23 @@
       </c>
       <c r="B25" s="38">
         <f t="shared" si="3"/>
-        <v>43159</v>
+        <v>44530</v>
       </c>
       <c r="C25" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D25" s="37">
         <f t="shared" si="0"/>
-        <v>2669548.3074521283</v>
+        <v>186738830.35730457</v>
       </c>
       <c r="E25" s="37">
         <f t="shared" si="1"/>
-        <v>2356852.8496897034</v>
+        <v>-33108970.41330618</v>
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>189829072.19139463</v>
+        <v>-848903803.4270153</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3992,23 +3990,23 @@
       </c>
       <c r="B26" s="38">
         <f t="shared" si="3"/>
-        <v>43189</v>
+        <v>44711</v>
       </c>
       <c r="C26" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D26" s="37">
         <f t="shared" si="0"/>
-        <v>2702232.8665388287</v>
+        <v>196075975.42049488</v>
       </c>
       <c r="E26" s="37">
         <f t="shared" si="1"/>
-        <v>2324168.290603003</v>
+        <v>-42446115.476496495</v>
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>187126839.3248558</v>
+        <v>-1044979778.8475102</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4017,23 +4015,23 @@
       </c>
       <c r="B27" s="38">
         <f t="shared" si="3"/>
-        <v>43220</v>
+        <v>44895</v>
       </c>
       <c r="C27" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D27" s="37">
         <f t="shared" si="0"/>
-        <v>2735317.5983437789</v>
+        <v>205879987.91433287</v>
       </c>
       <c r="E27" s="37">
         <f t="shared" si="1"/>
-        <v>2291083.5587980528</v>
+        <v>-52250127.970334455</v>
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
-        <v>184391521.72651201</v>
+        <v>-1250859766.7618432</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4042,23 +4040,23 @@
       </c>
       <c r="B28" s="38">
         <f t="shared" si="3"/>
-        <v>43250</v>
+        <v>45076</v>
       </c>
       <c r="C28" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D28" s="37">
         <f t="shared" si="0"/>
-        <v>2768807.4023733176</v>
+        <v>216174211.71923631</v>
       </c>
       <c r="E28" s="37">
         <f t="shared" si="1"/>
-        <v>2257593.7547685141</v>
+        <v>-62544351.775237925</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" ref="F28:F76" si="5">F27-D28</f>
-        <v>181622714.3241387</v>
+        <v>-1467033978.4810796</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4067,23 +4065,23 @@
       </c>
       <c r="B29" s="38">
         <f t="shared" si="3"/>
-        <v>43281</v>
+        <v>45260</v>
       </c>
       <c r="C29" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D29" s="37">
         <f t="shared" si="0"/>
-        <v>2802707.2381207878</v>
+        <v>226983157.93508893</v>
       </c>
       <c r="E29" s="37">
         <f t="shared" si="1"/>
-        <v>2223693.9190210439</v>
+        <v>-73353297.991090521</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="5"/>
-        <v>178820007.08601791</v>
+        <v>-1694017136.4161685</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4092,23 +4090,23 @@
       </c>
       <c r="B30" s="38">
         <f t="shared" si="3"/>
-        <v>43311</v>
+        <v>45442</v>
       </c>
       <c r="C30" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D30" s="37">
         <f t="shared" si="0"/>
-        <v>2837022.1258009854</v>
+        <v>238332563.24348551</v>
       </c>
       <c r="E30" s="37">
         <f t="shared" si="1"/>
-        <v>2189379.0313408463</v>
+        <v>-84702703.299487114</v>
       </c>
       <c r="F30" s="37">
         <f t="shared" si="5"/>
-        <v>175982984.96021691</v>
+        <v>-1932349699.6596539</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4117,23 +4115,23 @@
       </c>
       <c r="B31" s="38">
         <f t="shared" si="3"/>
-        <v>43342</v>
+        <v>45626</v>
       </c>
       <c r="C31" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D31" s="37">
         <f t="shared" si="0"/>
-        <v>2871757.1470936025</v>
+        <v>250249451.18815371</v>
       </c>
       <c r="E31" s="37">
         <f t="shared" si="1"/>
-        <v>2154644.0100482292</v>
+        <v>-96619591.244155318</v>
       </c>
       <c r="F31" s="37">
         <f t="shared" si="5"/>
-        <v>173111227.81312332</v>
+        <v>-2182599150.8478074</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4142,23 +4140,23 @@
       </c>
       <c r="B32" s="38">
         <f t="shared" si="3"/>
-        <v>43373</v>
+        <v>45807</v>
       </c>
       <c r="C32" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D32" s="37">
         <f t="shared" si="0"/>
-        <v>2906917.4458957687</v>
+        <v>262762196.51946318</v>
       </c>
       <c r="E32" s="37">
         <f t="shared" si="1"/>
-        <v>2119483.711246063</v>
+        <v>-109132336.57546479</v>
       </c>
       <c r="F32" s="37">
         <f t="shared" si="5"/>
-        <v>170204310.36722755</v>
+        <v>-2445361347.3672705</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4167,23 +4165,23 @@
       </c>
       <c r="B33" s="38">
         <f t="shared" si="3"/>
-        <v>43403</v>
+        <v>45991</v>
       </c>
       <c r="C33" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D33" s="37">
         <f t="shared" si="0"/>
-        <v>2942508.2290838137</v>
+        <v>275900592.75623053</v>
       </c>
       <c r="E33" s="37">
         <f t="shared" si="1"/>
-        <v>2083892.9280580182</v>
+        <v>-122270732.81223215</v>
       </c>
       <c r="F33" s="37">
         <f t="shared" si="5"/>
-        <v>167261802.13814375</v>
+        <v>-2721261940.1235008</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4192,23 +4190,23 @@
       </c>
       <c r="B34" s="38">
         <f t="shared" si="3"/>
-        <v>43434</v>
+        <v>46172</v>
       </c>
       <c r="C34" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D34" s="37">
         <f t="shared" si="0"/>
-        <v>2978534.7672843463</v>
+        <v>289695923.1256882</v>
       </c>
       <c r="E34" s="37">
         <f t="shared" si="1"/>
-        <v>2047866.3898574854</v>
+        <v>-136066063.18168977</v>
       </c>
       <c r="F34" s="37">
         <f t="shared" si="5"/>
-        <v>164283267.37085941</v>
+        <v>-3010957863.2491889</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4217,23 +4215,23 @@
       </c>
       <c r="B35" s="38">
         <f t="shared" si="3"/>
-        <v>43464</v>
+        <v>46356</v>
       </c>
       <c r="C35" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D35" s="37">
         <f t="shared" si="0"/>
-        <v>3015002.3956547845</v>
+        <v>304181035.05052876</v>
       </c>
       <c r="E35" s="37">
         <f t="shared" si="1"/>
-        <v>2011398.7614870472</v>
+        <v>-150551175.10653037</v>
       </c>
       <c r="F35" s="37">
         <f t="shared" si="5"/>
-        <v>161268264.97520462</v>
+        <v>-3315138898.2997179</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4242,23 +4240,23 @@
       </c>
       <c r="B36" s="38">
         <f t="shared" si="3"/>
-        <v>43495</v>
+        <v>46537</v>
       </c>
       <c r="C36" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D36" s="37">
         <f t="shared" si="0"/>
-        <v>3051916.5146734342</v>
+        <v>319390418.36038339</v>
       </c>
       <c r="E36" s="37">
         <f t="shared" si="1"/>
-        <v>1974484.6424683977</v>
+        <v>-165760558.41638502</v>
       </c>
       <c r="F36" s="37">
         <f t="shared" si="5"/>
-        <v>158216348.46053118</v>
+        <v>-3634529316.6601014</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4267,23 +4265,23 @@
       </c>
       <c r="B37" s="38">
         <f t="shared" si="3"/>
-        <v>43524</v>
+        <v>46721</v>
       </c>
       <c r="C37" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D37" s="37">
         <f t="shared" si="0"/>
-        <v>3089282.5909392443</v>
+        <v>335360287.41395861</v>
       </c>
       <c r="E37" s="37">
         <f t="shared" si="1"/>
-        <v>1937118.5662025874</v>
+        <v>-181730427.46996021</v>
       </c>
       <c r="F37" s="37">
         <f t="shared" si="5"/>
-        <v>155127065.86959192</v>
+        <v>-3969889604.07406</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4292,23 +4290,23 @@
       </c>
       <c r="B38" s="38">
         <f t="shared" si="3"/>
-        <v>43554</v>
+        <v>46903</v>
       </c>
       <c r="C38" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D38" s="37">
         <f t="shared" si="0"/>
-        <v>3127106.1579813547</v>
+        <v>352128667.32736981</v>
       </c>
       <c r="E38" s="37">
         <f t="shared" si="1"/>
-        <v>1899294.9991604767</v>
+        <v>-198498807.38337144</v>
       </c>
       <c r="F38" s="37">
         <f t="shared" si="5"/>
-        <v>151999959.71161056</v>
+        <v>-4322018271.4014301</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4317,23 +4315,23 @@
       </c>
       <c r="B39" s="38">
         <f t="shared" si="3"/>
-        <v>43585</v>
+        <v>47087</v>
       </c>
       <c r="C39" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D39" s="37">
         <f t="shared" si="0"/>
-        <v>3165392.817078555</v>
+        <v>369735484.51398575</v>
       </c>
       <c r="E39" s="37">
         <f t="shared" si="1"/>
-        <v>1861008.3400632767</v>
+        <v>-216105624.56998733</v>
       </c>
       <c r="F39" s="37">
         <f t="shared" si="5"/>
-        <v>148834566.894532</v>
+        <v>-4691753755.9154158</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4342,23 +4340,23 @@
       </c>
       <c r="B40" s="38">
         <f t="shared" si="3"/>
-        <v>43615</v>
+        <v>47268</v>
       </c>
       <c r="C40" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D40" s="37">
         <f t="shared" si="0"/>
-        <v>3204148.2380887726</v>
+        <v>388222661.75136316</v>
       </c>
       <c r="E40" s="37">
         <f t="shared" si="1"/>
-        <v>1822252.9190530591</v>
+        <v>-234592801.80736473</v>
       </c>
       <c r="F40" s="37">
         <f t="shared" si="5"/>
-        <v>145630418.65644321</v>
+        <v>-5079976417.6667786</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4367,23 +4365,23 @@
       </c>
       <c r="B41" s="38">
         <f t="shared" si="3"/>
-        <v>43646</v>
+        <v>47452</v>
       </c>
       <c r="C41" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D41" s="37">
         <f t="shared" si="0"/>
-        <v>3243378.1602887241</v>
+        <v>407634218.00163257</v>
       </c>
       <c r="E41" s="37">
         <f t="shared" si="1"/>
-        <v>1783022.9968531074</v>
+        <v>-254004358.05763417</v>
       </c>
       <c r="F41" s="37">
         <f t="shared" si="5"/>
-        <v>142387040.49615449</v>
+        <v>-5487610635.6684113</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4392,23 +4390,23 @@
       </c>
       <c r="B42" s="38">
         <f t="shared" si="3"/>
-        <v>43676</v>
+        <v>47633</v>
       </c>
       <c r="C42" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D42" s="37">
         <f t="shared" si="0"/>
-        <v>3283088.3932238407</v>
+        <v>428016373.22301185</v>
       </c>
       <c r="E42" s="37">
         <f t="shared" si="1"/>
-        <v>1743312.7639179907</v>
+        <v>-274386513.27901345</v>
       </c>
       <c r="F42" s="37">
         <f t="shared" si="5"/>
-        <v>139103952.10293064</v>
+        <v>-5915627008.8914232</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4417,23 +4415,23 @@
       </c>
       <c r="B43" s="38">
         <f t="shared" si="3"/>
-        <v>43707</v>
+        <v>47817</v>
       </c>
       <c r="C43" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D43" s="37">
         <f t="shared" si="0"/>
-        <v>3323284.8175686025</v>
+        <v>449417658.42200923</v>
       </c>
       <c r="E43" s="37">
         <f t="shared" si="1"/>
-        <v>1703116.3395732292</v>
+        <v>-295787798.47801083</v>
       </c>
       <c r="F43" s="37">
         <f t="shared" si="5"/>
-        <v>135780667.28536204</v>
+        <v>-6365044667.3134327</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4442,23 +4440,23 @@
       </c>
       <c r="B44" s="38">
         <f t="shared" si="3"/>
-        <v>43738</v>
+        <v>47998</v>
       </c>
       <c r="C44" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D44" s="37">
         <f t="shared" si="0"/>
-        <v>3363973.3859974034</v>
+        <v>471889031.20835739</v>
       </c>
       <c r="E44" s="37">
         <f t="shared" si="1"/>
-        <v>1662427.7711444285</v>
+        <v>-318259171.264359</v>
       </c>
       <c r="F44" s="37">
         <f t="shared" si="5"/>
-        <v>132416693.89936464</v>
+        <v>-6836933698.5217905</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4467,23 +4465,23 @@
       </c>
       <c r="B45" s="38">
         <f t="shared" si="3"/>
-        <v>43768</v>
+        <v>48182</v>
       </c>
       <c r="C45" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D45" s="37">
         <f t="shared" si="0"/>
-        <v>3405160.1240660837</v>
+        <v>495483997.1278193</v>
       </c>
       <c r="E45" s="37">
         <f t="shared" si="1"/>
-        <v>1621241.0330757482</v>
+        <v>-341854137.1838209</v>
       </c>
       <c r="F45" s="37">
         <f t="shared" si="5"/>
-        <v>129011533.77529855</v>
+        <v>-7332417695.6496096</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4492,23 +4490,23 @@
       </c>
       <c r="B46" s="38">
         <f t="shared" si="3"/>
-        <v>43799</v>
+        <v>48364</v>
       </c>
       <c r="C46" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D46" s="37">
         <f t="shared" si="0"/>
-        <v>3446851.1311042504</v>
+        <v>520258737.0617671</v>
       </c>
       <c r="E46" s="37">
         <f t="shared" si="1"/>
-        <v>1579550.026037581</v>
+        <v>-366628877.1177687</v>
       </c>
       <c r="F46" s="37">
         <f t="shared" si="5"/>
-        <v>125564682.6441943</v>
+        <v>-7852676432.7113762</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4517,23 +4515,23 @@
       </c>
       <c r="B47" s="38">
         <f t="shared" si="3"/>
-        <v>43829</v>
+        <v>48548</v>
       </c>
       <c r="C47" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D47" s="37">
         <f t="shared" si="0"/>
-        <v>3489052.5811185269</v>
+        <v>546272240.99687886</v>
       </c>
       <c r="E47" s="37">
         <f t="shared" si="1"/>
-        <v>1537348.5760233048</v>
+        <v>-392642381.05288047</v>
       </c>
       <c r="F47" s="37">
         <f t="shared" si="5"/>
-        <v>122075630.06307578</v>
+        <v>-8398948673.7082548</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4542,23 +4540,23 @@
       </c>
       <c r="B48" s="38">
         <f t="shared" si="3"/>
-        <v>43860</v>
+        <v>48729</v>
       </c>
       <c r="C48" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D48" s="37">
         <f t="shared" si="0"/>
-        <v>3531770.7237068564</v>
+        <v>573586448.48346543</v>
       </c>
       <c r="E48" s="37">
         <f t="shared" si="1"/>
-        <v>1494630.4334349756</v>
+        <v>-419956588.53946704</v>
       </c>
       <c r="F48" s="37">
         <f t="shared" si="5"/>
-        <v>118543859.33936892</v>
+        <v>-8972535122.191721</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4567,23 +4565,23 @@
       </c>
       <c r="B49" s="38">
         <f t="shared" si="3"/>
-        <v>43890</v>
+        <v>48913</v>
       </c>
       <c r="C49" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D49" s="37">
         <f t="shared" si="0"/>
-        <v>3575011.8849840043</v>
+        <v>602266396.11686754</v>
       </c>
       <c r="E49" s="37">
         <f t="shared" si="1"/>
-        <v>1451389.2721578274</v>
+        <v>-448636536.17286921</v>
       </c>
       <c r="F49" s="37">
         <f t="shared" si="5"/>
-        <v>114968847.45438492</v>
+        <v>-9574801518.308588</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4592,23 +4590,23 @@
       </c>
       <c r="B50" s="38">
         <f t="shared" si="3"/>
-        <v>43920</v>
+        <v>49094</v>
       </c>
       <c r="C50" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D50" s="37">
         <f t="shared" si="0"/>
-        <v>3618782.4685183917</v>
+        <v>632380372.39308274</v>
       </c>
       <c r="E50" s="37">
         <f t="shared" si="1"/>
-        <v>1407618.68862344</v>
+        <v>-478750512.44908434</v>
       </c>
       <c r="F50" s="37">
         <f t="shared" si="5"/>
-        <v>111350064.98586653</v>
+        <v>-10207181890.701672</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4617,23 +4615,23 @@
       </c>
       <c r="B51" s="38">
         <f t="shared" si="3"/>
-        <v>43951</v>
+        <v>49278</v>
       </c>
       <c r="C51" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D51" s="37">
         <f t="shared" si="0"/>
-        <v>3663088.9562803954</v>
+        <v>664000080.30734277</v>
       </c>
       <c r="E51" s="37">
         <f t="shared" si="1"/>
-        <v>1363312.2008614365</v>
+        <v>-510370220.36334443</v>
       </c>
       <c r="F51" s="37">
         <f t="shared" si="5"/>
-        <v>107686976.02958614</v>
+        <v>-10871181971.009014</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4642,23 +4640,23 @@
       </c>
       <c r="B52" s="38">
         <f t="shared" si="3"/>
-        <v>43981</v>
+        <v>49459</v>
       </c>
       <c r="C52" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D52" s="37">
         <f t="shared" si="0"/>
-        <v>3707937.9096022611</v>
+        <v>697200808.08279753</v>
       </c>
       <c r="E52" s="37">
         <f t="shared" si="1"/>
-        <v>1318463.2475395708</v>
+        <v>-543570948.13879907</v>
       </c>
       <c r="F52" s="37">
         <f t="shared" si="5"/>
-        <v>103979038.11998388</v>
+        <v>-11568382779.091812</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4667,23 +4665,23 @@
       </c>
       <c r="B53" s="38">
         <f t="shared" si="3"/>
-        <v>44012</v>
+        <v>49643</v>
       </c>
       <c r="C53" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D53" s="37">
         <f t="shared" si="0"/>
-        <v>3753335.9701497694</v>
+        <v>732061608.4358182</v>
       </c>
       <c r="E53" s="37">
         <f t="shared" si="1"/>
-        <v>1273065.186992062</v>
+        <v>-578431748.49181974</v>
       </c>
       <c r="F53" s="37">
         <f t="shared" si="5"/>
-        <v>100225702.14983411</v>
+        <v>-12300444387.52763</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4692,23 +4690,23 @@
       </c>
       <c r="B54" s="38">
         <f t="shared" si="3"/>
-        <v>44042</v>
+        <v>49825</v>
       </c>
       <c r="C54" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D54" s="37">
         <f t="shared" si="0"/>
-        <v>3799289.8609057991</v>
+        <v>768665486.80476236</v>
       </c>
       <c r="E54" s="37">
         <f t="shared" si="1"/>
-        <v>1227111.2962360326</v>
+        <v>-615035626.86076391</v>
       </c>
       <c r="F54" s="37">
         <f t="shared" si="5"/>
-        <v>96426412.288928315</v>
+        <v>-13069109874.332392</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4717,23 +4715,23 @@
       </c>
       <c r="B55" s="38">
         <f t="shared" si="3"/>
-        <v>44073</v>
+        <v>50009</v>
       </c>
       <c r="C55" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D55" s="37">
         <f t="shared" si="0"/>
-        <v>3845806.3871659273</v>
+        <v>807099598.990381</v>
       </c>
       <c r="E55" s="37">
         <f t="shared" si="1"/>
-        <v>1180594.7699759046</v>
+        <v>-653469739.04638255</v>
       </c>
       <c r="F55" s="37">
         <f t="shared" si="5"/>
-        <v>92580605.901762381</v>
+        <v>-13876209473.322773</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4742,23 +4740,23 @@
       </c>
       <c r="B56" s="38">
         <f t="shared" si="3"/>
-        <v>44104</v>
+        <v>50190</v>
       </c>
       <c r="C56" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D56" s="37">
         <f t="shared" si="0"/>
-        <v>3892892.4375462271</v>
+        <v>847455458.67846298</v>
       </c>
       <c r="E56" s="37">
         <f t="shared" si="1"/>
-        <v>1133508.7195956048</v>
+        <v>-693825598.73446453</v>
       </c>
       <c r="F56" s="37">
         <f t="shared" si="5"/>
-        <v>88687713.464216158</v>
+        <v>-14723664932.001236</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4767,23 +4765,23 @@
       </c>
       <c r="B57" s="38">
         <f t="shared" si="3"/>
-        <v>44134</v>
+        <v>50374</v>
       </c>
       <c r="C57" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D57" s="37">
         <f t="shared" si="0"/>
-        <v>3940554.9850033983</v>
+        <v>889829155.33883595</v>
       </c>
       <c r="E57" s="37">
         <f t="shared" si="1"/>
-        <v>1085846.1721384334</v>
+        <v>-736199295.39483762</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="5"/>
-        <v>84747158.479212761</v>
+        <v>-15613494087.340073</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4792,23 +4790,23 @@
       </c>
       <c r="B58" s="38">
         <f t="shared" si="3"/>
-        <v>44165</v>
+        <v>50555</v>
       </c>
       <c r="C58" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D58" s="37">
         <f t="shared" si="0"/>
-        <v>3988801.0878673918</v>
+        <v>934321583.01955724</v>
       </c>
       <c r="E58" s="37">
         <f t="shared" si="1"/>
-        <v>1037600.0692744399</v>
+        <v>-780691723.07555878</v>
       </c>
       <c r="F58" s="37">
         <f t="shared" si="5"/>
-        <v>80758357.391345367</v>
+        <v>-16547815670.359631</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4817,23 +4815,23 @@
       </c>
       <c r="B59" s="38">
         <f t="shared" si="3"/>
-        <v>44195</v>
+        <v>50739</v>
       </c>
       <c r="C59" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D59" s="37">
         <f t="shared" si="0"/>
-        <v>4037637.8908866737</v>
+        <v>981038680.58106065</v>
       </c>
       <c r="E59" s="37">
         <f t="shared" si="1"/>
-        <v>988763.26625515812</v>
+        <v>-827408820.63706219</v>
       </c>
       <c r="F59" s="37">
         <f t="shared" si="5"/>
-        <v>76720719.500458688</v>
+        <v>-17528854350.940693</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4842,23 +4840,23 @@
       </c>
       <c r="B60" s="38">
         <f t="shared" si="3"/>
-        <v>44226</v>
+        <v>50920</v>
       </c>
       <c r="C60" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D60" s="37">
         <f t="shared" si="0"/>
-        <v>4087072.6262862887</v>
+        <v>1030091683.9422755</v>
       </c>
       <c r="E60" s="37">
         <f t="shared" si="1"/>
-        <v>939328.5308555431</v>
+        <v>-876461823.99827719</v>
       </c>
       <c r="F60" s="37">
         <f t="shared" si="5"/>
-        <v>72633646.874172404</v>
+        <v>-18558946034.882969</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4867,23 +4865,23 @@
       </c>
       <c r="B61" s="38">
         <f t="shared" si="3"/>
-        <v>44255</v>
+        <v>51104</v>
       </c>
       <c r="C61" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D61" s="37">
         <f t="shared" si="0"/>
-        <v>4137112.6148388782</v>
+        <v>1081597390.9393249</v>
       </c>
       <c r="E61" s="37">
         <f t="shared" si="1"/>
-        <v>889288.54230295343</v>
+        <v>-927967530.9953264</v>
       </c>
       <c r="F61" s="37">
         <f t="shared" si="5"/>
-        <v>68496534.259333521</v>
+        <v>-19640543425.822292</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4892,23 +4890,23 @@
       </c>
       <c r="B62" s="38">
         <f t="shared" si="3"/>
-        <v>44285</v>
+        <v>51286</v>
       </c>
       <c r="C62" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D62" s="37">
         <f t="shared" si="0"/>
-        <v>4187765.2669488122</v>
+        <v>1135678439.4274471</v>
       </c>
       <c r="E62" s="37">
         <f t="shared" si="1"/>
-        <v>838635.89019301964</v>
+        <v>-982048579.48344874</v>
       </c>
       <c r="F62" s="37">
         <f t="shared" si="5"/>
-        <v>64308768.992384709</v>
+        <v>-20776221865.249741</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4917,23 +4915,23 @@
       </c>
       <c r="B63" s="38">
         <f t="shared" si="3"/>
-        <v>44316</v>
+        <v>51470</v>
       </c>
       <c r="C63" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D63" s="37">
         <f t="shared" si="0"/>
-        <v>4239038.0837495904</v>
+        <v>1192463599.2883184</v>
       </c>
       <c r="E63" s="37">
         <f t="shared" si="1"/>
-        <v>787363.07339224161</v>
+        <v>-1038833739.3443201</v>
       </c>
       <c r="F63" s="37">
         <f t="shared" si="5"/>
-        <v>60069730.908635117</v>
+        <v>-21968685464.538059</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4942,23 +4940,23 @@
       </c>
       <c r="B64" s="38">
         <f t="shared" si="3"/>
-        <v>44346</v>
+        <v>51651</v>
       </c>
       <c r="C64" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D64" s="37">
         <f t="shared" si="0"/>
-        <v>4290938.6582146846</v>
+        <v>1252088079.0380576</v>
       </c>
       <c r="E64" s="37">
         <f t="shared" si="1"/>
-        <v>735462.49892714689</v>
+        <v>-1098458219.0940592</v>
       </c>
       <c r="F64" s="37">
         <f t="shared" si="5"/>
-        <v>55778792.250420436</v>
+        <v>-23220773543.576118</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4967,23 +4965,23 @@
       </c>
       <c r="B65" s="38">
         <f t="shared" si="3"/>
-        <v>44377</v>
+        <v>51835</v>
       </c>
       <c r="C65" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D65" s="37">
         <f t="shared" si="0"/>
-        <v>4343474.6762819812</v>
+        <v>1314693847.7659667</v>
       </c>
       <c r="E65" s="37">
         <f t="shared" si="1"/>
-        <v>682926.48085985077</v>
+        <v>-1161063987.8219683</v>
       </c>
       <c r="F65" s="37">
         <f t="shared" si="5"/>
-        <v>51435317.574138455</v>
+        <v>-24535467391.342087</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4992,23 +4990,23 @@
       </c>
       <c r="B66" s="38">
         <f t="shared" si="3"/>
-        <v>44407</v>
+        <v>52016</v>
       </c>
       <c r="C66" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D66" s="37">
         <f t="shared" si="0"/>
-        <v>4396653.9179919837</v>
+        <v>1380429973.1705592</v>
       </c>
       <c r="E66" s="37">
         <f t="shared" si="1"/>
-        <v>629747.23914984812</v>
+        <v>-1226800113.2265608</v>
       </c>
       <c r="F66" s="37">
         <f t="shared" si="5"/>
-        <v>47038663.656146474</v>
+        <v>-25915897364.512646</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5017,23 +5015,23 @@
       </c>
       <c r="B67" s="38">
         <f t="shared" si="3"/>
-        <v>44438</v>
+        <v>52200</v>
       </c>
       <c r="C67" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D67" s="37">
         <f t="shared" si="0"/>
-        <v>4450484.2586399615</v>
+        <v>1449452976.4977579</v>
       </c>
       <c r="E67" s="37">
         <f t="shared" si="1"/>
-        <v>575916.89850186987</v>
+        <v>-1295823116.5537596</v>
       </c>
       <c r="F67" s="37">
         <f t="shared" si="5"/>
-        <v>42588179.397506513</v>
+        <v>-27365350341.010403</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5042,23 +5040,23 @@
       </c>
       <c r="B68" s="38">
         <f t="shared" si="3"/>
-        <v>44469</v>
+        <v>52381</v>
       </c>
       <c r="C68" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D68" s="37">
         <f t="shared" si="0"/>
-        <v>4504973.6699421983</v>
+        <v>1521927205.2263901</v>
       </c>
       <c r="E68" s="37">
         <f t="shared" si="1"/>
-        <v>521427.48719963362</v>
+        <v>-1368297345.2823918</v>
       </c>
       <c r="F68" s="37">
         <f t="shared" si="5"/>
-        <v>38083205.727564313</v>
+        <v>-28887277546.236794</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5067,23 +5065,23 @@
       </c>
       <c r="B69" s="38">
         <f t="shared" si="3"/>
-        <v>44499</v>
+        <v>52565</v>
       </c>
       <c r="C69" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D69" s="37">
         <f t="shared" si="0"/>
-        <v>4560130.2212165175</v>
+        <v>1598025224.3883634</v>
       </c>
       <c r="E69" s="37">
         <f t="shared" si="1"/>
-        <v>466270.93592531438</v>
+        <v>-1444395364.444365</v>
       </c>
       <c r="F69" s="37">
         <f t="shared" si="5"/>
-        <v>33523075.506347794</v>
+        <v>-30485302770.625156</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5092,23 +5090,23 @@
       </c>
       <c r="B70" s="38">
         <f t="shared" si="3"/>
-        <v>44530</v>
+        <v>52747</v>
       </c>
       <c r="C70" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D70" s="37">
         <f t="shared" si="0"/>
-        <v>4615962.0805772692</v>
+        <v>1677928227.455276</v>
       </c>
       <c r="E70" s="37">
         <f t="shared" si="1"/>
-        <v>410439.07656456286</v>
+        <v>-1524298367.5112777</v>
       </c>
       <c r="F70" s="37">
         <f t="shared" si="5"/>
-        <v>28907113.425770525</v>
+        <v>-32163230998.080433</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5117,23 +5115,23 @@
       </c>
       <c r="B71" s="38">
         <f t="shared" si="3"/>
-        <v>44560</v>
+        <v>52931</v>
       </c>
       <c r="C71" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D71" s="37">
         <f t="shared" si="0"/>
-        <v>4672477.5161449397</v>
+        <v>1761826467.7698078</v>
       </c>
       <c r="E71" s="37">
         <f t="shared" si="1"/>
-        <v>353923.64099689177</v>
+        <v>-1608196607.8258095</v>
       </c>
       <c r="F71" s="37">
         <f t="shared" si="5"/>
-        <v>24234635.909625586</v>
+        <v>-33925057465.850243</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5142,23 +5140,23 @@
       </c>
       <c r="B72" s="38">
         <f t="shared" si="3"/>
-        <v>44591</v>
+        <v>53112</v>
       </c>
       <c r="C72" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D72" s="37">
         <f t="shared" si="0"/>
-        <v>4729684.8972705789</v>
+        <v>1849919711.5491481</v>
       </c>
       <c r="E72" s="37">
         <f t="shared" si="1"/>
-        <v>296716.25987125275</v>
+        <v>-1696289851.6051497</v>
       </c>
       <c r="F72" s="37">
         <f t="shared" si="5"/>
-        <v>19504951.012355007</v>
+        <v>-35774977177.399391</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5167,23 +5165,23 @@
       </c>
       <c r="B73" s="38">
         <f t="shared" si="3"/>
-        <v>44620</v>
+        <v>53296</v>
       </c>
       <c r="C73" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D73" s="37">
         <f t="shared" si="0"/>
-        <v>4787592.695775209</v>
+        <v>1942417713.5390911</v>
       </c>
       <c r="E73" s="37">
         <f t="shared" si="1"/>
-        <v>238808.46136662248</v>
+        <v>-1788787853.5950928</v>
       </c>
       <c r="F73" s="37">
         <f t="shared" si="5"/>
-        <v>14717358.316579798</v>
+        <v>-37717394890.938484</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5192,23 +5190,23 @@
       </c>
       <c r="B74" s="38">
         <f t="shared" si="3"/>
-        <v>44650</v>
+        <v>53477</v>
       </c>
       <c r="C74" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D74" s="37">
         <f t="shared" si="0"/>
-        <v>4846209.4872044185</v>
+        <v>2039540716.4513535</v>
       </c>
       <c r="E74" s="37">
         <f t="shared" si="1"/>
-        <v>180191.66993741319</v>
+        <v>-1885910856.5073552</v>
       </c>
       <c r="F74" s="37">
         <f t="shared" si="5"/>
-        <v>9871148.8293753788</v>
+        <v>-39756935607.389839</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5217,23 +5215,23 @@
       </c>
       <c r="B75" s="38">
         <f t="shared" si="3"/>
-        <v>44681</v>
+        <v>53661</v>
       </c>
       <c r="C75" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D75" s="37">
         <f t="shared" si="0"/>
-        <v>4905543.9520983081</v>
+        <v>2141519975.3733022</v>
       </c>
       <c r="E75" s="37">
         <f t="shared" si="1"/>
-        <v>120857.20504352351</v>
+        <v>-1987890115.4293039</v>
       </c>
       <c r="F75" s="37">
         <f t="shared" si="5"/>
-        <v>4965604.8772770707</v>
+        <v>-41898455582.763138</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5242,23 +5240,23 @@
       </c>
       <c r="B76" s="38">
         <f t="shared" si="3"/>
-        <v>44711</v>
+        <v>53842</v>
       </c>
       <c r="C76" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="D76" s="37">
         <f t="shared" si="0"/>
-        <v>4965604.8772769915</v>
+        <v>2248598308.3987403</v>
       </c>
       <c r="E76" s="37">
         <f t="shared" si="1"/>
-        <v>60796.279864840209</v>
+        <v>-2094968448.454742</v>
       </c>
       <c r="F76" s="37">
         <f t="shared" si="5"/>
-        <v>7.9162418842315674E-8</v>
+        <v>-44147053891.16188</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5284,7 +5282,7 @@
       </c>
       <c r="E79" s="40">
         <f ca="1">SUM(E83:INDIRECT(CONCATENATE("E",82+B10)))</f>
-        <v>85211479.636619627</v>
+        <v>40493501.75900168</v>
       </c>
       <c r="F79" s="44"/>
     </row>
@@ -5294,7 +5292,7 @@
       </c>
       <c r="B80" s="95">
         <f>PMT(B9,B10,B11,B12,B79)</f>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="C80" s="47"/>
       <c r="D80" s="46" t="s">
@@ -5302,7 +5300,7 @@
       </c>
       <c r="E80" s="45">
         <f ca="1">F82+E79</f>
-        <v>297936292.63661963</v>
+        <v>585256001.75900173</v>
       </c>
       <c r="F80" s="44"/>
     </row>
@@ -5333,7 +5331,7 @@
       </c>
       <c r="F82" s="39">
         <f>B3</f>
-        <v>212724813</v>
+        <v>544762500</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5342,22 +5340,22 @@
       </c>
       <c r="B83" s="38">
         <f>EDATE($B$7,$B$6*A83)</f>
-        <v>42916</v>
+        <v>43069</v>
       </c>
       <c r="C83" s="37">
         <f>B80</f>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D83" s="37">
         <f t="shared" ref="D83:D142" si="6">C83-E83</f>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="E83" s="37">
         <v>0</v>
       </c>
       <c r="F83" s="37">
         <f t="shared" ref="F83:F94" si="7">F82-D83</f>
-        <v>207759208.12272301</v>
+        <v>398448499.56024957</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5366,23 +5364,23 @@
       </c>
       <c r="B84" s="38">
         <f t="shared" ref="B84:B142" si="8">EDATE($B$7,$B$6*A84)</f>
-        <v>42946</v>
+        <v>43250</v>
       </c>
       <c r="C84" s="37">
         <f t="shared" ref="C84:C142" si="9">$C$83</f>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D84" s="37">
         <f t="shared" si="6"/>
-        <v>2421909.340943269</v>
+        <v>126391141.1528734</v>
       </c>
       <c r="E84" s="37">
         <f t="shared" ref="E84:E142" si="10">F83*$B$9</f>
-        <v>2543695.5363337235</v>
+        <v>19922859.286876999</v>
       </c>
       <c r="F84" s="37">
         <f t="shared" si="7"/>
-        <v>205337298.78177974</v>
+        <v>272057358.40737617</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5391,23 +5389,23 @@
       </c>
       <c r="B85" s="38">
         <f t="shared" si="8"/>
-        <v>42977</v>
+        <v>43434</v>
       </c>
       <c r="C85" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D85" s="37">
         <f t="shared" si="6"/>
-        <v>2451561.9375026631</v>
+        <v>132710835.97686093</v>
       </c>
       <c r="E85" s="37">
         <f t="shared" si="10"/>
-        <v>2514042.9397743293</v>
+        <v>13603164.462889472</v>
       </c>
       <c r="F85" s="37">
         <f t="shared" si="7"/>
-        <v>202885736.84427708</v>
+        <v>139346522.43051523</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5416,23 +5414,23 @@
       </c>
       <c r="B86" s="38">
         <f t="shared" si="8"/>
-        <v>43008</v>
+        <v>43615</v>
       </c>
       <c r="C86" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D86" s="37">
         <f t="shared" si="6"/>
-        <v>2481577.5850102701</v>
+        <v>139346522.4305152</v>
       </c>
       <c r="E86" s="37">
         <f t="shared" si="10"/>
-        <v>2484027.2922667223</v>
+        <v>6967478.0092352107</v>
       </c>
       <c r="F86" s="37">
         <f t="shared" si="7"/>
-        <v>200404159.25926682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5441,23 +5439,23 @@
       </c>
       <c r="B87" s="38">
         <f t="shared" si="8"/>
-        <v>43038</v>
+        <v>43799</v>
       </c>
       <c r="C87" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D87" s="37">
         <f t="shared" si="6"/>
-        <v>2511960.7284728102</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="E87" s="37">
         <f t="shared" si="10"/>
-        <v>2453644.1488041822</v>
+        <v>0</v>
       </c>
       <c r="F87" s="37">
         <f t="shared" si="7"/>
-        <v>197892198.53079402</v>
+        <v>-146314000.4397504</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5466,23 +5464,23 @@
       </c>
       <c r="B88" s="38">
         <f t="shared" si="8"/>
-        <v>43069</v>
+        <v>43981</v>
       </c>
       <c r="C88" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D88" s="37">
         <f t="shared" si="6"/>
-        <v>2542715.8673193515</v>
+        <v>153629859.9439984</v>
       </c>
       <c r="E88" s="37">
         <f t="shared" si="10"/>
-        <v>2422889.0099576409</v>
+        <v>-7315859.5042479988</v>
       </c>
       <c r="F88" s="37">
         <f t="shared" si="7"/>
-        <v>195349482.66347468</v>
+        <v>-299943860.38374877</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5491,23 +5489,23 @@
       </c>
       <c r="B89" s="38">
         <f t="shared" si="8"/>
-        <v>43099</v>
+        <v>44165</v>
       </c>
       <c r="C89" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D89" s="37">
         <f t="shared" si="6"/>
-        <v>2573847.5560676288</v>
+        <v>161311520.39774567</v>
       </c>
       <c r="E89" s="37">
         <f t="shared" si="10"/>
-        <v>2391757.3212093636</v>
+        <v>-14997519.957995256</v>
       </c>
       <c r="F89" s="37">
         <f t="shared" si="7"/>
-        <v>192775635.10740706</v>
+        <v>-461255380.78149444</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5516,23 +5514,23 @@
       </c>
       <c r="B90" s="38">
         <f t="shared" si="8"/>
-        <v>43130</v>
+        <v>44346</v>
       </c>
       <c r="C90" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D90" s="37">
         <f t="shared" si="6"/>
-        <v>2605360.4049985185</v>
+        <v>169377272.24719018</v>
       </c>
       <c r="E90" s="37">
         <f t="shared" si="10"/>
-        <v>2360244.4722784739</v>
+        <v>-23063271.807439774</v>
       </c>
       <c r="F90" s="37">
         <f t="shared" si="7"/>
-        <v>190170274.70240855</v>
+        <v>-630632653.02868462</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5541,23 +5539,23 @@
       </c>
       <c r="B91" s="38">
         <f t="shared" si="8"/>
-        <v>43159</v>
+        <v>44530</v>
       </c>
       <c r="C91" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D91" s="37">
         <f t="shared" si="6"/>
-        <v>2637259.0808387762</v>
+        <v>177846320.48077643</v>
       </c>
       <c r="E91" s="37">
         <f t="shared" si="10"/>
-        <v>2328345.7964382162</v>
+        <v>-31532320.04102603</v>
       </c>
       <c r="F91" s="37">
         <f t="shared" si="7"/>
-        <v>187533015.62156978</v>
+        <v>-808478973.50946105</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5566,23 +5564,23 @@
       </c>
       <c r="B92" s="38">
         <f t="shared" si="8"/>
-        <v>43189</v>
+        <v>44711</v>
       </c>
       <c r="C92" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D92" s="37">
         <f t="shared" si="6"/>
-        <v>2669548.3074521278</v>
+        <v>186738830.35730457</v>
       </c>
       <c r="E92" s="37">
         <f t="shared" si="10"/>
-        <v>2296056.5698248646</v>
+        <v>-40424829.917554177</v>
       </c>
       <c r="F92" s="37">
         <f t="shared" si="7"/>
-        <v>184863467.31411764</v>
+        <v>-995217803.86676562</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5591,23 +5589,23 @@
       </c>
       <c r="B93" s="38">
         <f t="shared" si="8"/>
-        <v>43220</v>
+        <v>44895</v>
       </c>
       <c r="C93" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D93" s="37">
         <f t="shared" si="6"/>
-        <v>2702232.8665388287</v>
+        <v>196075975.42049491</v>
       </c>
       <c r="E93" s="37">
         <f t="shared" si="10"/>
-        <v>2263372.0107381637</v>
+        <v>-49761974.980744496</v>
       </c>
       <c r="F93" s="37">
         <f t="shared" si="7"/>
-        <v>182161234.44757882</v>
+        <v>-1191293779.2872605</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5616,23 +5614,23 @@
       </c>
       <c r="B94" s="38">
         <f t="shared" si="8"/>
-        <v>43250</v>
+        <v>45076</v>
       </c>
       <c r="C94" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D94" s="37">
         <f t="shared" si="6"/>
-        <v>2735317.5983437784</v>
+        <v>205879987.91433287</v>
       </c>
       <c r="E94" s="37">
         <f t="shared" si="10"/>
-        <v>2230287.278933214</v>
+        <v>-59565987.474582449</v>
       </c>
       <c r="F94" s="37">
         <f t="shared" si="7"/>
-        <v>179425916.84923503</v>
+        <v>-1397173767.2015934</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5641,23 +5639,23 @@
       </c>
       <c r="B95" s="38">
         <f t="shared" si="8"/>
-        <v>43281</v>
+        <v>45260</v>
       </c>
       <c r="C95" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D95" s="37">
         <f t="shared" si="6"/>
-        <v>2768807.4023733176</v>
+        <v>216174211.71923631</v>
       </c>
       <c r="E95" s="37">
         <f t="shared" si="10"/>
-        <v>2196797.4749036748</v>
+        <v>-69860211.279485911</v>
       </c>
       <c r="F95" s="37">
         <f t="shared" ref="F95:F142" si="11">F94-D95</f>
-        <v>176657109.44686171</v>
+        <v>-1613347978.9208298</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5666,23 +5664,23 @@
       </c>
       <c r="B96" s="38">
         <f t="shared" si="8"/>
-        <v>43311</v>
+        <v>45442</v>
       </c>
       <c r="C96" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D96" s="37">
         <f t="shared" si="6"/>
-        <v>2802707.2381207878</v>
+        <v>226983157.93508893</v>
       </c>
       <c r="E96" s="37">
         <f t="shared" si="10"/>
-        <v>2162897.6391562046</v>
+        <v>-80669157.495338514</v>
       </c>
       <c r="F96" s="37">
         <f t="shared" si="11"/>
-        <v>173854402.20874092</v>
+        <v>-1840331136.8559186</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5691,23 +5689,23 @@
       </c>
       <c r="B97" s="38">
         <f t="shared" si="8"/>
-        <v>43342</v>
+        <v>45626</v>
       </c>
       <c r="C97" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D97" s="37">
         <f t="shared" si="6"/>
-        <v>2837022.1258009854</v>
+        <v>238332563.24348551</v>
       </c>
       <c r="E97" s="37">
         <f t="shared" si="10"/>
-        <v>2128582.751476007</v>
+        <v>-92018562.803735107</v>
       </c>
       <c r="F97" s="37">
         <f t="shared" si="11"/>
-        <v>171017380.08293992</v>
+        <v>-2078663700.0994041</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5716,23 +5714,23 @@
       </c>
       <c r="B98" s="38">
         <f t="shared" si="8"/>
-        <v>43373</v>
+        <v>45807</v>
       </c>
       <c r="C98" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D98" s="37">
         <f t="shared" si="6"/>
-        <v>2871757.1470936025</v>
+        <v>250249451.18815371</v>
       </c>
       <c r="E98" s="37">
         <f t="shared" si="10"/>
-        <v>2093847.7301833902</v>
+        <v>-103935450.74840331</v>
       </c>
       <c r="F98" s="37">
         <f t="shared" si="11"/>
-        <v>168145622.93584633</v>
+        <v>-2328913151.2875576</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5741,23 +5739,23 @@
       </c>
       <c r="B99" s="38">
         <f t="shared" si="8"/>
-        <v>43403</v>
+        <v>45991</v>
       </c>
       <c r="C99" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D99" s="37">
         <f t="shared" si="6"/>
-        <v>2906917.4458957687</v>
+        <v>262762196.51946318</v>
       </c>
       <c r="E99" s="37">
         <f t="shared" si="10"/>
-        <v>2058687.4313812237</v>
+        <v>-116448196.07971278</v>
       </c>
       <c r="F99" s="37">
         <f t="shared" si="11"/>
-        <v>165238705.48995057</v>
+        <v>-2591675347.8070207</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5766,23 +5764,23 @@
       </c>
       <c r="B100" s="38">
         <f t="shared" si="8"/>
-        <v>43434</v>
+        <v>46172</v>
       </c>
       <c r="C100" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D100" s="37">
         <f t="shared" si="6"/>
-        <v>2942508.2290838137</v>
+        <v>275900592.75623053</v>
       </c>
       <c r="E100" s="37">
         <f t="shared" si="10"/>
-        <v>2023096.6481931789</v>
+        <v>-129586592.31648014</v>
       </c>
       <c r="F100" s="37">
         <f t="shared" si="11"/>
-        <v>162296197.26086676</v>
+        <v>-2867575940.563251</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5791,23 +5789,23 @@
       </c>
       <c r="B101" s="38">
         <f t="shared" si="8"/>
-        <v>43464</v>
+        <v>46356</v>
       </c>
       <c r="C101" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D101" s="37">
         <f t="shared" si="6"/>
-        <v>2978534.7672843463</v>
+        <v>289695923.1256882</v>
       </c>
       <c r="E101" s="37">
         <f t="shared" si="10"/>
-        <v>1987070.1099926461</v>
+        <v>-143381922.68593776</v>
       </c>
       <c r="F101" s="37">
         <f t="shared" si="11"/>
-        <v>159317662.49358243</v>
+        <v>-3157271863.6889391</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5816,23 +5814,23 @@
       </c>
       <c r="B102" s="38">
         <f t="shared" si="8"/>
-        <v>43495</v>
+        <v>46537</v>
       </c>
       <c r="C102" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D102" s="37">
         <f t="shared" si="6"/>
-        <v>3015002.3956547845</v>
+        <v>304181035.05052876</v>
       </c>
       <c r="E102" s="37">
         <f t="shared" si="10"/>
-        <v>1950602.4816222081</v>
+        <v>-157867034.61077836</v>
       </c>
       <c r="F102" s="37">
         <f t="shared" si="11"/>
-        <v>156302660.09792763</v>
+        <v>-3461452898.7394676</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5841,23 +5839,23 @@
       </c>
       <c r="B103" s="38">
         <f t="shared" si="8"/>
-        <v>43524</v>
+        <v>46721</v>
       </c>
       <c r="C103" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D103" s="37">
         <f t="shared" si="6"/>
-        <v>3051916.5146734342</v>
+        <v>319390418.36038339</v>
       </c>
       <c r="E103" s="37">
         <f t="shared" si="10"/>
-        <v>1913688.3626035585</v>
+        <v>-173076417.92063299</v>
       </c>
       <c r="F103" s="37">
         <f t="shared" si="11"/>
-        <v>153250743.58325419</v>
+        <v>-3780843317.0998511</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -5866,23 +5864,23 @@
       </c>
       <c r="B104" s="38">
         <f t="shared" si="8"/>
-        <v>43554</v>
+        <v>46903</v>
       </c>
       <c r="C104" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D104" s="37">
         <f t="shared" si="6"/>
-        <v>3089282.5909392443</v>
+        <v>335360287.41395855</v>
       </c>
       <c r="E104" s="37">
         <f t="shared" si="10"/>
-        <v>1876322.2863377482</v>
+        <v>-189046286.97420818</v>
       </c>
       <c r="F104" s="37">
         <f t="shared" si="11"/>
-        <v>150161460.99231493</v>
+        <v>-4116203604.5138097</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -5891,23 +5889,23 @@
       </c>
       <c r="B105" s="38">
         <f t="shared" si="8"/>
-        <v>43585</v>
+        <v>47087</v>
       </c>
       <c r="C105" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D105" s="37">
         <f t="shared" si="6"/>
-        <v>3127106.1579813547</v>
+        <v>352128667.32736981</v>
       </c>
       <c r="E105" s="37">
         <f t="shared" si="10"/>
-        <v>1838498.7192956374</v>
+        <v>-205814666.88761941</v>
       </c>
       <c r="F105" s="37">
         <f t="shared" si="11"/>
-        <v>147034354.83433357</v>
+        <v>-4468332271.8411798</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5916,23 +5914,23 @@
       </c>
       <c r="B106" s="38">
         <f t="shared" si="8"/>
-        <v>43615</v>
+        <v>47268</v>
       </c>
       <c r="C106" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D106" s="37">
         <f t="shared" si="6"/>
-        <v>3165392.817078555</v>
+        <v>369735484.51398569</v>
       </c>
       <c r="E106" s="37">
         <f t="shared" si="10"/>
-        <v>1800212.0601984377</v>
+        <v>-223421484.07423529</v>
       </c>
       <c r="F106" s="37">
         <f t="shared" si="11"/>
-        <v>143868962.01725501</v>
+        <v>-4838067756.3551655</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5941,23 +5939,23 @@
       </c>
       <c r="B107" s="38">
         <f t="shared" si="8"/>
-        <v>43646</v>
+        <v>47452</v>
       </c>
       <c r="C107" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D107" s="37">
         <f t="shared" si="6"/>
-        <v>3204148.2380887726</v>
+        <v>388222661.7513631</v>
       </c>
       <c r="E107" s="37">
         <f t="shared" si="10"/>
-        <v>1761456.6391882198</v>
+        <v>-241908661.3116127</v>
       </c>
       <c r="F107" s="37">
         <f t="shared" si="11"/>
-        <v>140664813.77916622</v>
+        <v>-5226290418.1065283</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5966,23 +5964,23 @@
       </c>
       <c r="B108" s="38">
         <f t="shared" si="8"/>
-        <v>43676</v>
+        <v>47633</v>
       </c>
       <c r="C108" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D108" s="37">
         <f t="shared" si="6"/>
-        <v>3243378.1602887241</v>
+        <v>407634218.00163257</v>
       </c>
       <c r="E108" s="37">
         <f t="shared" si="10"/>
-        <v>1722226.7169882681</v>
+        <v>-261320217.56188214</v>
       </c>
       <c r="F108" s="37">
         <f t="shared" si="11"/>
-        <v>137421435.6188775</v>
+        <v>-5633924636.108161</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -5991,23 +5989,23 @@
       </c>
       <c r="B109" s="38">
         <f t="shared" si="8"/>
-        <v>43707</v>
+        <v>47817</v>
       </c>
       <c r="C109" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D109" s="37">
         <f t="shared" si="6"/>
-        <v>3283088.3932238407</v>
+        <v>428016373.22301185</v>
       </c>
       <c r="E109" s="37">
         <f t="shared" si="10"/>
-        <v>1682516.4840531514</v>
+        <v>-281702372.78326142</v>
       </c>
       <c r="F109" s="37">
         <f t="shared" si="11"/>
-        <v>134138347.22565366</v>
+        <v>-6061941009.3311729</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -6016,23 +6014,23 @@
       </c>
       <c r="B110" s="38">
         <f t="shared" si="8"/>
-        <v>43738</v>
+        <v>47998</v>
       </c>
       <c r="C110" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D110" s="37">
         <f t="shared" si="6"/>
-        <v>3323284.817568602</v>
+        <v>449417658.42200923</v>
       </c>
       <c r="E110" s="37">
         <f t="shared" si="10"/>
-        <v>1642320.0597083904</v>
+        <v>-303103657.9822588</v>
       </c>
       <c r="F110" s="37">
         <f t="shared" si="11"/>
-        <v>130815062.40808506</v>
+        <v>-6511358667.7531824</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6041,23 +6039,23 @@
       </c>
       <c r="B111" s="38">
         <f t="shared" si="8"/>
-        <v>43768</v>
+        <v>48182</v>
       </c>
       <c r="C111" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D111" s="37">
         <f t="shared" si="6"/>
-        <v>3363973.3859974029</v>
+        <v>471889031.20835733</v>
       </c>
       <c r="E111" s="37">
         <f t="shared" si="10"/>
-        <v>1601631.4912795895</v>
+        <v>-325575030.76860696</v>
       </c>
       <c r="F111" s="37">
         <f t="shared" si="11"/>
-        <v>127451089.02208766</v>
+        <v>-6983247698.9615402</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6066,23 +6064,23 @@
       </c>
       <c r="B112" s="38">
         <f t="shared" si="8"/>
-        <v>43799</v>
+        <v>48364</v>
       </c>
       <c r="C112" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D112" s="37">
         <f t="shared" si="6"/>
-        <v>3405160.1240660832</v>
+        <v>495483997.1278193</v>
       </c>
       <c r="E112" s="37">
         <f t="shared" si="10"/>
-        <v>1560444.7532109092</v>
+        <v>-349169996.68806887</v>
       </c>
       <c r="F112" s="37">
         <f t="shared" si="11"/>
-        <v>124045928.89802158</v>
+        <v>-7478731696.0893593</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6091,23 +6089,23 @@
       </c>
       <c r="B113" s="38">
         <f t="shared" si="8"/>
-        <v>43829</v>
+        <v>48548</v>
       </c>
       <c r="C113" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D113" s="37">
         <f t="shared" si="6"/>
-        <v>3446851.1311042504</v>
+        <v>520258737.0617671</v>
       </c>
       <c r="E113" s="37">
         <f t="shared" si="10"/>
-        <v>1518753.746172742</v>
+        <v>-373944736.62201667</v>
       </c>
       <c r="F113" s="37">
         <f t="shared" si="11"/>
-        <v>120599077.76691733</v>
+        <v>-7998990433.1511269</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -6116,23 +6114,23 @@
       </c>
       <c r="B114" s="38">
         <f t="shared" si="8"/>
-        <v>43860</v>
+        <v>48729</v>
       </c>
       <c r="C114" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D114" s="37">
         <f t="shared" si="6"/>
-        <v>3489052.5811185269</v>
+        <v>546272240.99687886</v>
       </c>
       <c r="E114" s="37">
         <f t="shared" si="10"/>
-        <v>1476552.2961584658</v>
+        <v>-399958240.55712849</v>
       </c>
       <c r="F114" s="37">
         <f t="shared" si="11"/>
-        <v>117110025.18579881</v>
+        <v>-8545262674.1480055</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6141,23 +6139,23 @@
       </c>
       <c r="B115" s="38">
         <f t="shared" si="8"/>
-        <v>43890</v>
+        <v>48913</v>
       </c>
       <c r="C115" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D115" s="37">
         <f t="shared" si="6"/>
-        <v>3531770.7237068559</v>
+        <v>573586448.48346543</v>
       </c>
       <c r="E115" s="37">
         <f t="shared" si="10"/>
-        <v>1433834.1535701365</v>
+        <v>-427272448.04371506</v>
       </c>
       <c r="F115" s="37">
         <f t="shared" si="11"/>
-        <v>113578254.46209195</v>
+        <v>-9118849122.6314716</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -6166,23 +6164,23 @@
       </c>
       <c r="B116" s="38">
         <f t="shared" si="8"/>
-        <v>43920</v>
+        <v>49094</v>
       </c>
       <c r="C116" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D116" s="37">
         <f t="shared" si="6"/>
-        <v>3575011.8849840043</v>
+        <v>602266396.11686766</v>
       </c>
       <c r="E116" s="37">
         <f t="shared" si="10"/>
-        <v>1390592.9922929883</v>
+        <v>-455952395.67711723</v>
       </c>
       <c r="F116" s="37">
         <f t="shared" si="11"/>
-        <v>110003242.57710795</v>
+        <v>-9721115518.7483387</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -6191,23 +6189,23 @@
       </c>
       <c r="B117" s="38">
         <f t="shared" si="8"/>
-        <v>43951</v>
+        <v>49278</v>
       </c>
       <c r="C117" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D117" s="37">
         <f t="shared" si="6"/>
-        <v>3618782.4685183913</v>
+        <v>632380372.39308274</v>
       </c>
       <c r="E117" s="37">
         <f t="shared" si="10"/>
-        <v>1346822.4087586009</v>
+        <v>-486066371.95333236</v>
       </c>
       <c r="F117" s="37">
         <f t="shared" si="11"/>
-        <v>106384460.10858956</v>
+        <v>-10353495891.141422</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -6216,23 +6214,23 @@
       </c>
       <c r="B118" s="38">
         <f t="shared" si="8"/>
-        <v>43981</v>
+        <v>49459</v>
       </c>
       <c r="C118" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D118" s="37">
         <f t="shared" si="6"/>
-        <v>3663088.9562803949</v>
+        <v>664000080.30734289</v>
       </c>
       <c r="E118" s="37">
         <f t="shared" si="10"/>
-        <v>1302515.9209965975</v>
+        <v>-517686079.86759245</v>
       </c>
       <c r="F118" s="37">
         <f t="shared" si="11"/>
-        <v>102721371.15230916</v>
+        <v>-11017495971.448765</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -6241,23 +6239,23 @@
       </c>
       <c r="B119" s="38">
         <f t="shared" si="8"/>
-        <v>44012</v>
+        <v>49643</v>
       </c>
       <c r="C119" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D119" s="37">
         <f t="shared" si="6"/>
-        <v>3707937.9096022607</v>
+        <v>697200808.08279753</v>
       </c>
       <c r="E119" s="37">
         <f t="shared" si="10"/>
-        <v>1257666.9676747317</v>
+        <v>-550886807.64304709</v>
       </c>
       <c r="F119" s="37">
         <f t="shared" si="11"/>
-        <v>99013433.24270691</v>
+        <v>-11714696779.531563</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -6266,23 +6264,23 @@
       </c>
       <c r="B120" s="38">
         <f t="shared" si="8"/>
-        <v>44042</v>
+        <v>49825</v>
       </c>
       <c r="C120" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D120" s="37">
         <f t="shared" si="6"/>
-        <v>3753335.9701497694</v>
+        <v>732061608.4358182</v>
       </c>
       <c r="E120" s="37">
         <f t="shared" si="10"/>
-        <v>1212268.907127223</v>
+        <v>-585747607.99606776</v>
       </c>
       <c r="F120" s="37">
         <f t="shared" si="11"/>
-        <v>95260097.272557139</v>
+        <v>-12446758387.967381</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -6291,23 +6289,23 @@
       </c>
       <c r="B121" s="38">
         <f t="shared" si="8"/>
-        <v>44073</v>
+        <v>50009</v>
       </c>
       <c r="C121" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D121" s="37">
         <f t="shared" si="6"/>
-        <v>3799289.8609057991</v>
+        <v>768665486.80476236</v>
       </c>
       <c r="E121" s="37">
         <f t="shared" si="10"/>
-        <v>1166315.0163711936</v>
+        <v>-622351486.36501193</v>
       </c>
       <c r="F121" s="37">
         <f t="shared" si="11"/>
-        <v>91460807.411651343</v>
+        <v>-13215423874.772142</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -6316,23 +6314,23 @@
       </c>
       <c r="B122" s="38">
         <f t="shared" si="8"/>
-        <v>44104</v>
+        <v>50190</v>
       </c>
       <c r="C122" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D122" s="37">
         <f t="shared" si="6"/>
-        <v>3845806.3871659269</v>
+        <v>807099598.990381</v>
       </c>
       <c r="E122" s="37">
         <f t="shared" si="10"/>
-        <v>1119798.4901110656</v>
+        <v>-660785598.55063057</v>
       </c>
       <c r="F122" s="37">
         <f t="shared" si="11"/>
-        <v>87615001.024485409</v>
+        <v>-14022523473.762524</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6341,23 +6339,23 @@
       </c>
       <c r="B123" s="38">
         <f t="shared" si="8"/>
-        <v>44134</v>
+        <v>50374</v>
       </c>
       <c r="C123" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D123" s="37">
         <f t="shared" si="6"/>
-        <v>3892892.4375462262</v>
+        <v>847455458.67846298</v>
       </c>
       <c r="E123" s="37">
         <f t="shared" si="10"/>
-        <v>1072712.439730766</v>
+        <v>-701141458.23871255</v>
       </c>
       <c r="F123" s="37">
         <f t="shared" si="11"/>
-        <v>83722108.586939186</v>
+        <v>-14869978932.440987</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6366,23 +6364,23 @@
       </c>
       <c r="B124" s="38">
         <f t="shared" si="8"/>
-        <v>44165</v>
+        <v>50555</v>
       </c>
       <c r="C124" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D124" s="37">
         <f t="shared" si="6"/>
-        <v>3940554.9850033978</v>
+        <v>889829155.33883607</v>
       </c>
       <c r="E124" s="37">
         <f t="shared" si="10"/>
-        <v>1025049.8922735945</v>
+        <v>-743515154.89908564</v>
       </c>
       <c r="F124" s="37">
         <f t="shared" si="11"/>
-        <v>79781553.601935789</v>
+        <v>-15759808087.779823</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6391,23 +6389,23 @@
       </c>
       <c r="B125" s="38">
         <f t="shared" si="8"/>
-        <v>44195</v>
+        <v>50739</v>
       </c>
       <c r="C125" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D125" s="37">
         <f t="shared" si="6"/>
-        <v>3988801.0878673913</v>
+        <v>934321583.01955724</v>
       </c>
       <c r="E125" s="37">
         <f t="shared" si="10"/>
-        <v>976803.7894096009</v>
+        <v>-788007582.5798068</v>
       </c>
       <c r="F125" s="37">
         <f t="shared" si="11"/>
-        <v>75792752.514068395</v>
+        <v>-16694129670.799381</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6416,23 +6414,23 @@
       </c>
       <c r="B126" s="38">
         <f t="shared" si="8"/>
-        <v>44226</v>
+        <v>50920</v>
       </c>
       <c r="C126" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D126" s="37">
         <f t="shared" si="6"/>
-        <v>4037637.8908866732</v>
+        <v>981038680.58106065</v>
       </c>
       <c r="E126" s="37">
         <f t="shared" si="10"/>
-        <v>927966.98639031907</v>
+        <v>-834724680.14131021</v>
       </c>
       <c r="F126" s="37">
         <f t="shared" si="11"/>
-        <v>71755114.623181716</v>
+        <v>-17675168351.380444</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6441,23 +6439,23 @@
       </c>
       <c r="B127" s="38">
         <f t="shared" si="8"/>
-        <v>44255</v>
+        <v>51104</v>
       </c>
       <c r="C127" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D127" s="37">
         <f t="shared" si="6"/>
-        <v>4087072.6262862883</v>
+        <v>1030091683.9422755</v>
       </c>
       <c r="E127" s="37">
         <f t="shared" si="10"/>
-        <v>878532.25099070417</v>
+        <v>-883777683.50252509</v>
       </c>
       <c r="F127" s="37">
         <f t="shared" si="11"/>
-        <v>67668041.996895432</v>
+        <v>-18705260035.32272</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -6466,23 +6464,23 @@
       </c>
       <c r="B128" s="38">
         <f t="shared" si="8"/>
-        <v>44285</v>
+        <v>51286</v>
       </c>
       <c r="C128" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D128" s="37">
         <f t="shared" si="6"/>
-        <v>4137112.6148388782</v>
+        <v>1081597390.9393249</v>
       </c>
       <c r="E128" s="37">
         <f t="shared" si="10"/>
-        <v>828492.26243811438</v>
+        <v>-935283390.49957442</v>
       </c>
       <c r="F128" s="37">
         <f t="shared" si="11"/>
-        <v>63530929.382056557</v>
+        <v>-19786857426.262043</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6491,23 +6489,23 @@
       </c>
       <c r="B129" s="38">
         <f t="shared" si="8"/>
-        <v>44316</v>
+        <v>51470</v>
       </c>
       <c r="C129" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D129" s="37">
         <f t="shared" si="6"/>
-        <v>4187765.2669488117</v>
+        <v>1135678439.4274471</v>
       </c>
       <c r="E129" s="37">
         <f t="shared" si="10"/>
-        <v>777839.61032818072</v>
+        <v>-989364438.98769677</v>
       </c>
       <c r="F129" s="37">
         <f t="shared" si="11"/>
-        <v>59343164.115107745</v>
+        <v>-20922535865.689491</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6516,23 +6514,23 @@
       </c>
       <c r="B130" s="38">
         <f t="shared" si="8"/>
-        <v>44346</v>
+        <v>51651</v>
       </c>
       <c r="C130" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D130" s="37">
         <f t="shared" si="6"/>
-        <v>4239038.0837495895</v>
+        <v>1192463599.2883184</v>
       </c>
       <c r="E130" s="37">
         <f t="shared" si="10"/>
-        <v>726566.79352740268</v>
+        <v>-1046149598.8485681</v>
       </c>
       <c r="F130" s="37">
         <f t="shared" si="11"/>
-        <v>55104126.031358153</v>
+        <v>-22114999464.97781</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6541,23 +6539,23 @@
       </c>
       <c r="B131" s="38">
         <f t="shared" si="8"/>
-        <v>44377</v>
+        <v>51835</v>
       </c>
       <c r="C131" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D131" s="37">
         <f t="shared" si="6"/>
-        <v>4290938.6582146846</v>
+        <v>1252088079.0380578</v>
       </c>
       <c r="E131" s="37">
         <f t="shared" si="10"/>
-        <v>674666.21906230797</v>
+        <v>-1105774078.5983074</v>
       </c>
       <c r="F131" s="37">
         <f t="shared" si="11"/>
-        <v>50813187.373143464</v>
+        <v>-23367087544.015869</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6566,23 +6564,23 @@
       </c>
       <c r="B132" s="38">
         <f t="shared" si="8"/>
-        <v>44407</v>
+        <v>52016</v>
       </c>
       <c r="C132" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D132" s="37">
         <f t="shared" si="6"/>
-        <v>4343474.6762819802</v>
+        <v>1314693847.7659669</v>
       </c>
       <c r="E132" s="37">
         <f t="shared" si="10"/>
-        <v>622130.20099501184</v>
+        <v>-1168379847.3262165</v>
       </c>
       <c r="F132" s="37">
         <f t="shared" si="11"/>
-        <v>46469712.696861483</v>
+        <v>-24681781391.781837</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6591,23 +6589,23 @@
       </c>
       <c r="B133" s="38">
         <f t="shared" si="8"/>
-        <v>44438</v>
+        <v>52200</v>
       </c>
       <c r="C133" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D133" s="37">
         <f t="shared" si="6"/>
-        <v>4396653.9179919837</v>
+        <v>1380429973.1705594</v>
       </c>
       <c r="E133" s="37">
         <f t="shared" si="10"/>
-        <v>568950.95928500907</v>
+        <v>-1234115972.730809</v>
       </c>
       <c r="F133" s="37">
         <f t="shared" si="11"/>
-        <v>42073058.778869502</v>
+        <v>-26062211364.952396</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6616,23 +6614,23 @@
       </c>
       <c r="B134" s="38">
         <f t="shared" si="8"/>
-        <v>44469</v>
+        <v>52381</v>
       </c>
       <c r="C134" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D134" s="37">
         <f t="shared" si="6"/>
-        <v>4450484.2586399615</v>
+        <v>1449452976.4977579</v>
       </c>
       <c r="E134" s="37">
         <f t="shared" si="10"/>
-        <v>515120.61863703094</v>
+        <v>-1303138976.0580075</v>
       </c>
       <c r="F134" s="37">
         <f t="shared" si="11"/>
-        <v>37622574.520229541</v>
+        <v>-27511664341.450153</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6641,23 +6639,23 @@
       </c>
       <c r="B135" s="38">
         <f t="shared" si="8"/>
-        <v>44499</v>
+        <v>52565</v>
       </c>
       <c r="C135" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D135" s="37">
         <f t="shared" si="6"/>
-        <v>4504973.6699421974</v>
+        <v>1521927205.2263901</v>
       </c>
       <c r="E135" s="37">
         <f t="shared" si="10"/>
-        <v>460631.20733479463</v>
+        <v>-1375613204.7866397</v>
       </c>
       <c r="F135" s="37">
         <f t="shared" si="11"/>
-        <v>33117600.850287344</v>
+        <v>-29033591546.676544</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6666,23 +6664,23 @@
       </c>
       <c r="B136" s="38">
         <f t="shared" si="8"/>
-        <v>44530</v>
+        <v>52747</v>
       </c>
       <c r="C136" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D136" s="37">
         <f t="shared" si="6"/>
-        <v>4560130.2212165166</v>
+        <v>1598025224.3883634</v>
       </c>
       <c r="E136" s="37">
         <f t="shared" si="10"/>
-        <v>405474.65606047545</v>
+        <v>-1451711223.9486129</v>
       </c>
       <c r="F136" s="37">
         <f t="shared" si="11"/>
-        <v>28557470.629070826</v>
+        <v>-30631616771.064907</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6691,23 +6689,23 @@
       </c>
       <c r="B137" s="38">
         <f t="shared" si="8"/>
-        <v>44560</v>
+        <v>52931</v>
       </c>
       <c r="C137" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D137" s="37">
         <f t="shared" si="6"/>
-        <v>4615962.0805772683</v>
+        <v>1677928227.4552763</v>
       </c>
       <c r="E137" s="37">
         <f t="shared" si="10"/>
-        <v>349642.79669972393</v>
+        <v>-1531614227.0155258</v>
       </c>
       <c r="F137" s="37">
         <f t="shared" si="11"/>
-        <v>23941508.548493557</v>
+        <v>-32309544998.520184</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6716,23 +6714,23 @@
       </c>
       <c r="B138" s="38">
         <f t="shared" si="8"/>
-        <v>44591</v>
+        <v>53112</v>
       </c>
       <c r="C138" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D138" s="37">
         <f t="shared" si="6"/>
-        <v>4672477.5161449397</v>
+        <v>1761826467.7698081</v>
       </c>
       <c r="E138" s="37">
         <f t="shared" si="10"/>
-        <v>293127.36113205279</v>
+        <v>-1615512467.3300576</v>
       </c>
       <c r="F138" s="37">
         <f t="shared" si="11"/>
-        <v>19269031.032348618</v>
+        <v>-34071371466.289993</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6741,23 +6739,23 @@
       </c>
       <c r="B139" s="38">
         <f t="shared" si="8"/>
-        <v>44620</v>
+        <v>53296</v>
       </c>
       <c r="C139" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D139" s="37">
         <f t="shared" si="6"/>
-        <v>4729684.8972705789</v>
+        <v>1849919711.5491483</v>
       </c>
       <c r="E139" s="37">
         <f t="shared" si="10"/>
-        <v>235919.98000641383</v>
+        <v>-1703605711.1093979</v>
       </c>
       <c r="F139" s="37">
         <f t="shared" si="11"/>
-        <v>14539346.135078039</v>
+        <v>-35921291177.839142</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6766,23 +6764,23 @@
       </c>
       <c r="B140" s="38">
         <f t="shared" si="8"/>
-        <v>44650</v>
+        <v>53477</v>
       </c>
       <c r="C140" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D140" s="37">
         <f t="shared" si="6"/>
-        <v>4787592.695775209</v>
+        <v>1942417713.5390913</v>
       </c>
       <c r="E140" s="37">
         <f t="shared" si="10"/>
-        <v>178012.18150178352</v>
+        <v>-1796103713.0993409</v>
       </c>
       <c r="F140" s="37">
         <f t="shared" si="11"/>
-        <v>9751753.43930283</v>
+        <v>-37863708891.378235</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -6791,23 +6789,23 @@
       </c>
       <c r="B141" s="38">
         <f t="shared" si="8"/>
-        <v>44681</v>
+        <v>53661</v>
       </c>
       <c r="C141" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D141" s="37">
         <f t="shared" si="6"/>
-        <v>4846209.4872044185</v>
+        <v>2039540716.4513538</v>
       </c>
       <c r="E141" s="37">
         <f t="shared" si="10"/>
-        <v>119395.39007257423</v>
+        <v>-1893226716.0116034</v>
       </c>
       <c r="F141" s="37">
         <f t="shared" si="11"/>
-        <v>4905543.9520984115</v>
+        <v>-39903249607.82959</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -6816,23 +6814,23 @@
       </c>
       <c r="B142" s="38">
         <f t="shared" si="8"/>
-        <v>44711</v>
+        <v>53842</v>
       </c>
       <c r="C142" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>146314000.4397504</v>
       </c>
       <c r="D142" s="37">
         <f t="shared" si="6"/>
-        <v>4905543.9520983081</v>
+        <v>2141519975.3733025</v>
       </c>
       <c r="E142" s="37">
         <f t="shared" si="10"/>
-        <v>60060.925178684571</v>
+        <v>-1995205974.933552</v>
       </c>
       <c r="F142" s="37">
         <f t="shared" si="11"/>
-        <v>1.0337680578231812E-7</v>
+        <v>-42044769583.202896</v>
       </c>
     </row>
     <row r="144" spans="1:6" s="43" customFormat="1" ht="57" customHeight="1">
@@ -6865,7 +6863,7 @@
       </c>
       <c r="E147" s="44">
         <f ca="1">SUM(E151:INDIRECT(CONCATENATE("E",150+B10)))</f>
-        <v>91855849.124388173</v>
+        <v>108955718.791125</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -6874,14 +6872,14 @@
       </c>
       <c r="B148" s="95">
         <f ca="1">PMT(B9,B10-B146,-INDIRECT(CONCATENATE("F",150+B146)),0,0)</f>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D148" s="79" t="s">
         <v>70</v>
       </c>
       <c r="E148" s="44">
         <f ca="1">F150+E147</f>
-        <v>304580662.12438816</v>
+        <v>653718218.79112506</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -6912,7 +6910,7 @@
       </c>
       <c r="F150" s="39">
         <f>B3</f>
-        <v>212724813</v>
+        <v>544762500</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -6921,11 +6919,11 @@
       </c>
       <c r="B151" s="38">
         <f t="shared" ref="B151:B210" si="12">EDATE($B$7,$B$6*A151)</f>
-        <v>42916</v>
+        <v>43069</v>
       </c>
       <c r="C151" s="78">
         <f>IF($B$146&gt;=A151,IF($B$15&lt;&gt;0,CEILING(E151,$B$15),E151),$B$148)</f>
-        <v>2605000</v>
+        <v>27239000</v>
       </c>
       <c r="D151" s="103">
         <f>IF($B$146&gt;=$A151,0,C151-E151)</f>
@@ -6933,11 +6931,11 @@
       </c>
       <c r="E151" s="78">
         <f>IF($B$146&gt;=A151,IF($B$15&lt;&gt;0,CEILING(F150*$B$9,B$15),F150*$B$9),F150*$B$9)</f>
-        <v>2605000</v>
+        <v>27239000</v>
       </c>
       <c r="F151" s="78">
         <f>F150-D151</f>
-        <v>212724813</v>
+        <v>544762500</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -6946,11 +6944,11 @@
       </c>
       <c r="B152" s="38">
         <f t="shared" si="12"/>
-        <v>42946</v>
+        <v>43250</v>
       </c>
       <c r="C152" s="78">
         <f t="shared" ref="C152:C210" si="13">IF($B$146&gt;=A152,IF($B$15&lt;&gt;0,CEILING(E152,$B$15),E152),$B$148)</f>
-        <v>2605000</v>
+        <v>27239000</v>
       </c>
       <c r="D152" s="103">
         <f t="shared" ref="D152:D210" si="14">IF($B$146&gt;=$A152,0,C152-E152)</f>
@@ -6958,11 +6956,11 @@
       </c>
       <c r="E152" s="78">
         <f t="shared" ref="E152:E210" si="15">IF($B$146&gt;=A152,IF($B$15&lt;&gt;0,CEILING(F151*$B$9,B$15),F151*$B$9),F151*$B$9)</f>
-        <v>2605000</v>
+        <v>27239000</v>
       </c>
       <c r="F152" s="78">
         <f t="shared" ref="F152:F162" si="16">F151-D152</f>
-        <v>212724813</v>
+        <v>544762500</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -6971,11 +6969,11 @@
       </c>
       <c r="B153" s="38">
         <f t="shared" si="12"/>
-        <v>42977</v>
+        <v>43434</v>
       </c>
       <c r="C153" s="78">
         <f t="shared" si="13"/>
-        <v>2605000</v>
+        <v>27239000</v>
       </c>
       <c r="D153" s="103">
         <f t="shared" si="14"/>
@@ -6983,11 +6981,11 @@
       </c>
       <c r="E153" s="78">
         <f t="shared" si="15"/>
-        <v>2605000</v>
+        <v>27239000</v>
       </c>
       <c r="F153" s="78">
         <f>F152-D153</f>
-        <v>212724813</v>
+        <v>544762500</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -6996,23 +6994,23 @@
       </c>
       <c r="B154" s="38">
         <f t="shared" si="12"/>
-        <v>43008</v>
+        <v>43615</v>
       </c>
       <c r="C154" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D154" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2601923.3087907038</v>
+        <v>544762500</v>
       </c>
       <c r="E154" s="78">
         <f t="shared" si="15"/>
-        <v>2604491.8161985627</v>
+        <v>27238718.791125</v>
       </c>
       <c r="F154" s="78">
         <f ca="1">F153-D154</f>
-        <v>210122889.69120929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -7021,23 +7019,23 @@
       </c>
       <c r="B155" s="38">
         <f t="shared" si="12"/>
-        <v>43038</v>
+        <v>43799</v>
       </c>
       <c r="C155" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D155" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2633779.9026151472</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="E155" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2572635.2223741193</v>
+        <v>0</v>
       </c>
       <c r="F155" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>207489109.78859413</v>
+        <v>-572001218.79112494</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -7046,23 +7044,23 @@
       </c>
       <c r="B156" s="38">
         <f t="shared" si="12"/>
-        <v>43069</v>
+        <v>43981</v>
       </c>
       <c r="C156" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D156" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2666026.5319824014</v>
+        <v>600601903.21200967</v>
       </c>
       <c r="E156" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2540388.5930068651</v>
+        <v>-28600684.420884728</v>
       </c>
       <c r="F156" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>204823083.25661173</v>
+        <v>-1172603122.0031347</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -7071,23 +7069,23 @@
       </c>
       <c r="B157" s="38">
         <f t="shared" si="12"/>
-        <v>43099</v>
+        <v>44165</v>
       </c>
       <c r="C157" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D157" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2698667.9722845084</v>
+        <v>630632653.02868462</v>
       </c>
       <c r="E157" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2507747.1527047581</v>
+        <v>-58631434.237559721</v>
       </c>
       <c r="F157" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>202124415.28432724</v>
+        <v>-1803235775.0318193</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -7096,23 +7094,23 @@
       </c>
       <c r="B158" s="38">
         <f t="shared" si="12"/>
-        <v>43130</v>
+        <v>44346</v>
       </c>
       <c r="C158" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D158" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2731709.057380924</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="E158" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2474706.0676083425</v>
+        <v>-90163754.278585747</v>
       </c>
       <c r="F158" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>199392706.22694632</v>
+        <v>-2465400748.1015301</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -7121,23 +7119,23 @@
       </c>
       <c r="B159" s="38">
         <f t="shared" si="12"/>
-        <v>43159</v>
+        <v>44530</v>
       </c>
       <c r="C159" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D159" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2765154.680314362</v>
+        <v>695273943.48301685</v>
       </c>
       <c r="E159" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2441260.4446749045</v>
+        <v>-123272724.69189192</v>
       </c>
       <c r="F159" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>196627551.54663196</v>
+        <v>-3160674691.584547</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -7146,23 +7144,23 @@
       </c>
       <c r="B160" s="38">
         <f t="shared" si="12"/>
-        <v>43189</v>
+        <v>44711</v>
       </c>
       <c r="C160" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D160" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2799009.7940354017</v>
+        <v>730038398.50576615</v>
       </c>
       <c r="E160" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2407405.3309538648</v>
+        <v>-158037179.71464118</v>
       </c>
       <c r="F160" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>193828541.75259656</v>
+        <v>-3890713090.090313</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -7171,23 +7169,23 @@
       </c>
       <c r="B161" s="38">
         <f t="shared" si="12"/>
-        <v>43220</v>
+        <v>44895</v>
       </c>
       <c r="C161" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D161" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2833279.4121359703</v>
+        <v>766541114.17290878</v>
       </c>
       <c r="E161" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2373135.7128532962</v>
+        <v>-194539895.38178384</v>
       </c>
       <c r="F161" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>190995262.3404606</v>
+        <v>-4657254204.2632217</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -7196,23 +7194,23 @@
       </c>
       <c r="B162" s="38">
         <f t="shared" si="12"/>
-        <v>43250</v>
+        <v>45076</v>
       </c>
       <c r="C162" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D162" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2867968.6095918021</v>
+        <v>804869005.41136861</v>
       </c>
       <c r="E162" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2338446.5153974644</v>
+        <v>-232867786.62024373</v>
       </c>
       <c r="F162" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>188127293.73086879</v>
+        <v>-5462123209.6745901</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -7221,23 +7219,23 @@
       </c>
       <c r="B163" s="38">
         <f t="shared" si="12"/>
-        <v>43281</v>
+        <v>45260</v>
       </c>
       <c r="C163" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D163" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2903082.5235139937</v>
+        <v>845113332.98915291</v>
       </c>
       <c r="E163" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2303332.6014752728</v>
+        <v>-273112114.19802803</v>
       </c>
       <c r="F163" s="78">
         <f t="shared" ref="F163:F210" ca="1" si="17">F162-D163</f>
-        <v>185224211.20735478</v>
+        <v>-6307236542.663743</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -7246,23 +7244,23 @@
       </c>
       <c r="B164" s="38">
         <f t="shared" si="12"/>
-        <v>43311</v>
+        <v>45442</v>
       </c>
       <c r="C164" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D164" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2938626.3539097514</v>
+        <v>887369920.81214356</v>
       </c>
       <c r="E164" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2267788.7710795151</v>
+        <v>-315368702.02101862</v>
       </c>
       <c r="F164" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>182285584.85344502</v>
+        <v>-7194606463.4758863</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -7271,23 +7269,23 @@
       </c>
       <c r="B165" s="38">
         <f t="shared" si="12"/>
-        <v>43342</v>
+        <v>45626</v>
       </c>
       <c r="C165" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D165" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2974605.3644524631</v>
+        <v>931739384.08596444</v>
       </c>
       <c r="E165" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2231809.7605368034</v>
+        <v>-359738165.2948395</v>
       </c>
       <c r="F165" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>179310979.48899257</v>
+        <v>-8126345847.5618505</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -7296,23 +7294,23 @@
       </c>
       <c r="B166" s="38">
         <f t="shared" si="12"/>
-        <v>43373</v>
+        <v>45807</v>
       </c>
       <c r="C166" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D166" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3011024.8832611917</v>
+        <v>978327368.88619137</v>
       </c>
       <c r="E166" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2195390.2417280748</v>
+        <v>-406326150.09506637</v>
       </c>
       <c r="F166" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>176299954.60573137</v>
+        <v>-9104673216.4480419</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -7321,23 +7319,23 @@
       </c>
       <c r="B167" s="38">
         <f t="shared" si="12"/>
-        <v>43403</v>
+        <v>45991</v>
       </c>
       <c r="C167" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D167" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3047890.303689715</v>
+        <v>1027244803.707333</v>
       </c>
       <c r="E167" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2158524.8212995515</v>
+        <v>-455243584.91620803</v>
       </c>
       <c r="F167" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>173252064.30204165</v>
+        <v>-10131918020.155375</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -7346,23 +7344,23 @@
       </c>
       <c r="B168" s="38">
         <f t="shared" si="12"/>
-        <v>43434</v>
+        <v>46172</v>
       </c>
       <c r="C168" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D168" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3085207.0851252256</v>
+        <v>1078608163.5895357</v>
       </c>
       <c r="E168" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2121208.0398640409</v>
+        <v>-506606944.79841065</v>
       </c>
       <c r="F168" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>170166857.21691641</v>
+        <v>-11210526183.744911</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -7371,23 +7369,23 @@
       </c>
       <c r="B169" s="38">
         <f t="shared" si="12"/>
-        <v>43464</v>
+        <v>46356</v>
       </c>
       <c r="C169" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D169" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3122980.7537968089</v>
+        <v>1132539747.4519107</v>
       </c>
       <c r="E169" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2083434.3711924576</v>
+        <v>-560538528.66078579</v>
       </c>
       <c r="F169" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>167043876.4631196</v>
+        <v>-12343065931.196821</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -7396,23 +7394,23 @@
       </c>
       <c r="B170" s="38">
         <f t="shared" si="12"/>
-        <v>43495</v>
+        <v>46537</v>
       </c>
       <c r="C170" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D170" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3161216.9035938215</v>
+        <v>1189167969.2928309</v>
       </c>
       <c r="E170" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2045198.2213954453</v>
+        <v>-617166750.501706</v>
       </c>
       <c r="F170" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>163882659.55952579</v>
+        <v>-13532233900.489653</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -7421,23 +7419,23 @@
       </c>
       <c r="B171" s="38">
         <f t="shared" si="12"/>
-        <v>43524</v>
+        <v>46721</v>
       </c>
       <c r="C171" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D171" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3199921.1968942862</v>
+        <v>1248627663.9505591</v>
       </c>
       <c r="E171" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2006493.9280949801</v>
+        <v>-676626445.15943408</v>
       </c>
       <c r="F171" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>160682738.3626315</v>
+        <v>-14780861564.440212</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -7446,23 +7444,23 @@
       </c>
       <c r="B172" s="38">
         <f t="shared" si="12"/>
-        <v>43554</v>
+        <v>46903</v>
       </c>
       <c r="C172" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D172" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3239099.3654034371</v>
+        <v>1311060408.1522408</v>
       </c>
       <c r="E172" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1967315.7595858297</v>
+        <v>-739059189.36111581</v>
       </c>
       <c r="F172" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>157443638.99722806</v>
+        <v>-16091921972.592453</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -7471,23 +7469,23 @@
       </c>
       <c r="B173" s="38">
         <f t="shared" si="12"/>
-        <v>43585</v>
+        <v>47087</v>
       </c>
       <c r="C173" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D173" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3278757.211002517</v>
+        <v>1376614857.6156979</v>
       </c>
       <c r="E173" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1927657.9139867495</v>
+        <v>-804613638.8245728</v>
       </c>
       <c r="F173" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>154164881.78622553</v>
+        <v>-17468536830.208153</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -7496,23 +7494,23 @@
       </c>
       <c r="B174" s="38">
         <f t="shared" si="12"/>
-        <v>43615</v>
+        <v>47268</v>
       </c>
       <c r="C174" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D174" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3318900.6066079848</v>
+        <v>1445447101.0066776</v>
       </c>
       <c r="E174" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1887514.518381282</v>
+        <v>-873445882.21555257</v>
       </c>
       <c r="F174" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>150845981.17961755</v>
+        <v>-18913983931.214828</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -7521,23 +7519,23 @@
       </c>
       <c r="B175" s="38">
         <f t="shared" si="12"/>
-        <v>43646</v>
+        <v>47452</v>
       </c>
       <c r="C175" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D175" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3359535.4970412264</v>
+        <v>1517721031.5943513</v>
       </c>
       <c r="E175" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1846879.6279480399</v>
+        <v>-945719812.80322647</v>
       </c>
       <c r="F175" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>147486445.68257633</v>
+        <v>-20431704962.809181</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -7546,23 +7544,23 @@
       </c>
       <c r="B176" s="38">
         <f t="shared" si="12"/>
-        <v>43676</v>
+        <v>47633</v>
       </c>
       <c r="C176" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D176" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3400667.8999089282</v>
+        <v>1593608737.4899936</v>
       </c>
       <c r="E176" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1805747.2250803385</v>
+        <v>-1021607518.6988685</v>
       </c>
       <c r="F176" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>144085777.7826674</v>
+        <v>-22025313700.299175</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -7571,23 +7569,23 @@
       </c>
       <c r="B177" s="38">
         <f t="shared" si="12"/>
-        <v>43707</v>
+        <v>47817</v>
       </c>
       <c r="C177" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D177" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3442303.9064942151</v>
+        <v>1673290911.3980169</v>
       </c>
       <c r="E177" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1764111.2184950514</v>
+        <v>-1101289692.6068921</v>
       </c>
       <c r="F177" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>140643473.8761732</v>
+        <v>-23698604611.697193</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -7596,23 +7594,23 @@
       </c>
       <c r="B178" s="38">
         <f t="shared" si="12"/>
-        <v>43738</v>
+        <v>47998</v>
       </c>
       <c r="C178" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D178" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3484449.6826587124</v>
+        <v>1756957280.8550115</v>
       </c>
       <c r="E178" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1721965.4423305544</v>
+        <v>-1184956062.0638864</v>
       </c>
       <c r="F178" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>137159024.1935145</v>
+        <v>-25455561892.552204</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -7621,23 +7619,23 @@
       </c>
       <c r="B179" s="38">
         <f t="shared" si="12"/>
-        <v>43768</v>
+        <v>48182</v>
       </c>
       <c r="C179" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D179" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3527111.4697556421</v>
+        <v>1844807059.9811978</v>
       </c>
       <c r="E179" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1679303.6552336242</v>
+        <v>-1272805841.190073</v>
       </c>
       <c r="F179" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>133631912.72375885</v>
+        <v>-27300368952.533401</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -7646,23 +7644,23 @@
       </c>
       <c r="B180" s="38">
         <f t="shared" si="12"/>
-        <v>43799</v>
+        <v>48364</v>
       </c>
       <c r="C180" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D180" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3570295.5855541066</v>
+        <v>1937049423.8199534</v>
       </c>
       <c r="E180" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1636119.5394351599</v>
+        <v>-1365048205.0288284</v>
       </c>
       <c r="F180" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>130061617.13820474</v>
+        <v>-29237418376.353355</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -7671,23 +7669,23 @@
       </c>
       <c r="B181" s="38">
         <f t="shared" si="12"/>
-        <v>43829</v>
+        <v>48548</v>
       </c>
       <c r="C181" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D181" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3614008.4251746805</v>
+        <v>2033904006.3948231</v>
       </c>
       <c r="E181" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1592406.6998145862</v>
+        <v>-1461902787.603698</v>
       </c>
       <c r="F181" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>126447608.71303006</v>
+        <v>-31271322382.748177</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -7696,23 +7694,23 @@
       </c>
       <c r="B182" s="38">
         <f t="shared" si="12"/>
-        <v>43860</v>
+        <v>48729</v>
       </c>
       <c r="C182" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D182" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3658256.4620364644</v>
+        <v>2135601423.6699309</v>
       </c>
       <c r="E182" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1548158.6629528021</v>
+        <v>-1563600204.8788059</v>
       </c>
       <c r="F182" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>122789352.25099359</v>
+        <v>-33406923806.418106</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -7721,23 +7719,23 @@
       </c>
       <c r="B183" s="38">
         <f t="shared" si="12"/>
-        <v>43890</v>
+        <v>48913</v>
       </c>
       <c r="C183" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D183" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3703046.2488157311</v>
+        <v>2242383822.6589789</v>
       </c>
       <c r="E183" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1503368.8761735351</v>
+        <v>-1670382603.8678541</v>
       </c>
       <c r="F183" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>119086306.00217786</v>
+        <v>-35649307629.077087</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -7746,23 +7744,23 @@
       </c>
       <c r="B184" s="38">
         <f t="shared" si="12"/>
-        <v>43920</v>
+        <v>49094</v>
       </c>
       <c r="C184" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D184" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3748384.4184163101</v>
+        <v>2354505457.9902949</v>
       </c>
       <c r="E184" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1458030.7065729564</v>
+        <v>-1782504239.1991701</v>
       </c>
       <c r="F184" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>115337921.58376156</v>
+        <v>-38003813087.067383</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -7771,23 +7769,23 @@
       </c>
       <c r="B185" s="38">
         <f t="shared" si="12"/>
-        <v>43951</v>
+        <v>49278</v>
       </c>
       <c r="C185" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D185" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3794277.6849518484</v>
+        <v>2472233297.3007588</v>
       </c>
       <c r="E185" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1412137.4400374184</v>
+        <v>-1900232078.509634</v>
       </c>
       <c r="F185" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>111543643.89880972</v>
+        <v>-40476046384.368141</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -7796,23 +7794,23 @@
       </c>
       <c r="B186" s="38">
         <f t="shared" si="12"/>
-        <v>43981</v>
+        <v>49459</v>
       </c>
       <c r="C186" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D186" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3840732.8447401039</v>
+        <v>2595847656.9000907</v>
       </c>
       <c r="E186" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1365682.2802491623</v>
+        <v>-2023846438.1089659</v>
       </c>
       <c r="F186" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>107702911.05406961</v>
+        <v>-43071894041.268234</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -7821,23 +7819,23 @@
       </c>
       <c r="B187" s="38">
         <f t="shared" si="12"/>
-        <v>44012</v>
+        <v>49643</v>
       </c>
       <c r="C187" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D187" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3887756.7773094121</v>
+        <v>2725642869.2190413</v>
       </c>
       <c r="E187" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1318658.3476798544</v>
+        <v>-2153641650.4279165</v>
       </c>
       <c r="F187" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>103815154.27676019</v>
+        <v>-45797536910.487274</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -7846,23 +7844,23 @@
       </c>
       <c r="B188" s="38">
         <f t="shared" si="12"/>
-        <v>44042</v>
+        <v>49825</v>
       </c>
       <c r="C188" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D188" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3935356.4464174667</v>
+        <v>2861927983.6307211</v>
       </c>
       <c r="E188" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1271058.6785717995</v>
+        <v>-2289926764.8395963</v>
       </c>
       <c r="F188" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>99879797.830342725</v>
+        <v>-48659464894.117996</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -7871,23 +7869,23 @@
       </c>
       <c r="B189" s="38">
         <f t="shared" si="12"/>
-        <v>44073</v>
+        <v>50009</v>
       </c>
       <c r="C189" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D189" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3983538.9010825865</v>
+        <v>3005027502.3137593</v>
       </c>
       <c r="E189" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1222876.2239066798</v>
+        <v>-2433026283.5226345</v>
       </c>
       <c r="F189" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>95896258.929260135</v>
+        <v>-51664492396.431755</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -7896,23 +7894,23 @@
       </c>
       <c r="B190" s="38">
         <f t="shared" si="12"/>
-        <v>44104</v>
+        <v>50190</v>
       </c>
       <c r="C190" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D190" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4032311.2766275974</v>
+        <v>3155282152.9094248</v>
       </c>
       <c r="E190" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1174103.8483616689</v>
+        <v>-2583280934.1183</v>
       </c>
       <c r="F190" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>91863947.652632535</v>
+        <v>-54819774549.341179</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -7921,23 +7919,23 @@
       </c>
       <c r="B191" s="38">
         <f t="shared" si="12"/>
-        <v>44134</v>
+        <v>50374</v>
       </c>
       <c r="C191" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D191" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4081680.7957365029</v>
+        <v>3313049699.8124423</v>
       </c>
       <c r="E191" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1124734.3292527639</v>
+        <v>-2741048481.0213175</v>
       </c>
       <c r="F191" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>87782266.856896028</v>
+        <v>-58132824249.153618</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -7946,23 +7944,23 @@
       </c>
       <c r="B192" s="38">
         <f t="shared" si="12"/>
-        <v>44165</v>
+        <v>50555</v>
       </c>
       <c r="C192" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D192" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4131654.7695240863</v>
+        <v>3478705796.0272374</v>
       </c>
       <c r="E192" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1074760.3554651805</v>
+        <v>-2906704577.2361126</v>
       </c>
       <c r="F192" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>83650612.087371945</v>
+        <v>-61611530045.180855</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -7971,23 +7969,23 @@
       </c>
       <c r="B193" s="38">
         <f t="shared" si="12"/>
-        <v>44195</v>
+        <v>50739</v>
       </c>
       <c r="C193" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D193" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4182240.5986186131</v>
+        <v>3652644877.6179166</v>
       </c>
       <c r="E193" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1024174.5263706534</v>
+        <v>-3080643658.8267918</v>
       </c>
       <c r="F193" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>79468371.488753334</v>
+        <v>-65264174922.798775</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -7996,23 +7994,23 @@
       </c>
       <c r="B194" s="38">
         <f t="shared" si="12"/>
-        <v>44226</v>
+        <v>50920</v>
       </c>
       <c r="C194" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D194" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4233445.7742577875</v>
+        <v>3835281102.8817291</v>
       </c>
       <c r="E194" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>972969.35073147889</v>
+        <v>-3263279884.0906043</v>
       </c>
       <c r="F194" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>75234925.71449554</v>
+        <v>-69099456025.680511</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -8021,23 +8019,23 @@
       </c>
       <c r="B195" s="38">
         <f t="shared" si="12"/>
-        <v>44255</v>
+        <v>51104</v>
       </c>
       <c r="C195" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D195" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4285277.8793981262</v>
+        <v>4027049338.4822183</v>
       </c>
       <c r="E195" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>921137.24559114059</v>
+        <v>-3455048119.6910934</v>
       </c>
       <c r="F195" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>70949647.835097417</v>
+        <v>-73126505364.162735</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -8046,23 +8044,23 @@
       </c>
       <c r="B196" s="38">
         <f t="shared" si="12"/>
-        <v>44285</v>
+        <v>51286</v>
       </c>
       <c r="C196" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D196" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4337744.5898379143</v>
+        <v>4228406194.8901086</v>
       </c>
       <c r="E196" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>868670.53515135206</v>
+        <v>-3656404976.0989838</v>
       </c>
       <c r="F196" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>66611903.245259501</v>
+        <v>-77354911559.052841</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -8071,23 +8069,23 @@
       </c>
       <c r="B197" s="38">
         <f t="shared" si="12"/>
-        <v>44316</v>
+        <v>51470</v>
       </c>
       <c r="C197" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D197" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4390853.6753539164</v>
+        <v>4439831113.5973663</v>
       </c>
       <c r="E197" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>815561.44963535049</v>
+        <v>-3867829894.8062415</v>
       </c>
       <c r="F197" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>62221049.569905587</v>
+        <v>-81794742672.650208</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -8096,23 +8094,23 @@
       </c>
       <c r="B198" s="38">
         <f t="shared" si="12"/>
-        <v>44346</v>
+        <v>51651</v>
       </c>
       <c r="C198" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D198" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4444613.0008519934</v>
+        <v>4661827508.6931486</v>
       </c>
       <c r="E198" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>761802.12413727306</v>
+        <v>-4089826289.9020233</v>
       </c>
       <c r="F198" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>57776436.56905359</v>
+        <v>-86456570181.343353</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -8121,23 +8119,23 @@
       </c>
       <c r="B199" s="38">
         <f t="shared" si="12"/>
-        <v>44377</v>
+        <v>51835</v>
       </c>
       <c r="C199" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D199" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4499030.5275318203</v>
+        <v>4894923965.5197906</v>
       </c>
       <c r="E199" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>707384.59745744581</v>
+        <v>-4322922746.7286654</v>
       </c>
       <c r="F199" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>53277406.041521773</v>
+        <v>-91351494146.863144</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -8146,23 +8144,23 @@
       </c>
       <c r="B200" s="38">
         <f t="shared" si="12"/>
-        <v>44407</v>
+        <v>52016</v>
       </c>
       <c r="C200" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D200" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4554114.3140658541</v>
+        <v>5139675499.2629023</v>
       </c>
       <c r="E200" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>652300.81092341268</v>
+        <v>-4567674280.471777</v>
       </c>
       <c r="F200" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>48723291.727455921</v>
+        <v>-96491169646.126053</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -8171,23 +8169,23 @@
       </c>
       <c r="B201" s="38">
         <f t="shared" si="12"/>
-        <v>44438</v>
+        <v>52200</v>
       </c>
       <c r="C201" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D201" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4609872.5177927371</v>
+        <v>5396664876.4723425</v>
       </c>
       <c r="E201" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>596542.60719652905</v>
+        <v>-4824663657.6812172</v>
       </c>
       <c r="F201" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>44113419.209663182</v>
+        <v>-101887834522.59839</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -8196,23 +8194,23 @@
       </c>
       <c r="B202" s="38">
         <f t="shared" si="12"/>
-        <v>44469</v>
+        <v>52381</v>
       </c>
       <c r="C202" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D202" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4666313.3959253225</v>
+        <v>5666504002.6606741</v>
       </c>
       <c r="E202" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>540101.72906394443</v>
+        <v>-5094502783.8695488</v>
       </c>
       <c r="F202" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>39447105.813737862</v>
+        <v>-107554338525.25906</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -8221,23 +8219,23 @@
       </c>
       <c r="B203" s="38">
         <f t="shared" si="12"/>
-        <v>44499</v>
+        <v>52565</v>
       </c>
       <c r="C203" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D203" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4723445.3067734716</v>
+        <v>5949835379.2830706</v>
       </c>
       <c r="E203" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>482969.81821579509</v>
+        <v>-5377834160.4919453</v>
       </c>
       <c r="F203" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>34723660.506964393</v>
+        <v>-113504173904.54213</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -8246,23 +8244,23 @@
       </c>
       <c r="B204" s="38">
         <f t="shared" si="12"/>
-        <v>44530</v>
+        <v>52747</v>
       </c>
       <c r="C204" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D204" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4781276.7109818421</v>
+        <v>6247333633.5677872</v>
       </c>
       <c r="E204" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>425138.41400742473</v>
+        <v>-5675332414.7766619</v>
       </c>
       <c r="F204" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>29942383.795982551</v>
+        <v>-119751507538.10992</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -8271,23 +8269,23 @@
       </c>
       <c r="B205" s="38">
         <f t="shared" si="12"/>
-        <v>44560</v>
+        <v>52931</v>
       </c>
       <c r="C205" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D205" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4839816.1727828169</v>
+        <v>6559707124.839838</v>
       </c>
       <c r="E205" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>366598.95220644999</v>
+        <v>-5987705906.0487127</v>
       </c>
       <c r="F205" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>25102567.623199735</v>
+        <v>-126311214662.94977</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -8296,23 +8294,23 @@
       </c>
       <c r="B206" s="38">
         <f t="shared" si="12"/>
-        <v>44591</v>
+        <v>53112</v>
       </c>
       <c r="C206" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D206" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4899072.3612647792</v>
+        <v>6887699631.1625957</v>
       </c>
       <c r="E206" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>307342.76372448716</v>
+        <v>-6315698412.3714705</v>
       </c>
       <c r="F206" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>20203495.261934955</v>
+        <v>-133198914294.11237</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -8321,23 +8319,23 @@
       </c>
       <c r="B207" s="38">
         <f t="shared" si="12"/>
-        <v>44620</v>
+        <v>53296</v>
       </c>
       <c r="C207" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D207" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4959054.0516559174</v>
+        <v>7232092120.313324</v>
       </c>
       <c r="E207" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>247361.07333334937</v>
+        <v>-6660090901.5221987</v>
       </c>
       <c r="F207" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>15244441.210279036</v>
+        <v>-140431006414.42569</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -8346,23 +8344,23 @@
       </c>
       <c r="B208" s="38">
         <f t="shared" si="12"/>
-        <v>44650</v>
+        <v>53477</v>
       </c>
       <c r="C208" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D208" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>5019770.1266237404</v>
+        <v>7593704609.3094015</v>
       </c>
       <c r="E208" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>186644.99836552617</v>
+        <v>-7021703390.5182762</v>
       </c>
       <c r="F208" s="37">
         <f t="shared" ca="1" si="17"/>
-        <v>10224671.083655296</v>
+        <v>-148024711023.73508</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -8371,23 +8369,23 @@
       </c>
       <c r="B209" s="38">
         <f t="shared" si="12"/>
-        <v>44681</v>
+        <v>53661</v>
       </c>
       <c r="C209" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D209" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>5081229.577590514</v>
+        <v>7973398116.9128942</v>
       </c>
       <c r="E209" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>125185.54739875272</v>
+        <v>-7401396898.121769</v>
       </c>
       <c r="F209" s="37">
         <f t="shared" ca="1" si="17"/>
-        <v>5143441.5060647819</v>
+        <v>-155998109140.64798</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -8396,23 +8394,23 @@
       </c>
       <c r="B210" s="38">
         <f t="shared" si="12"/>
-        <v>44711</v>
+        <v>53842</v>
       </c>
       <c r="C210" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>572001218.79112494</v>
       </c>
       <c r="D210" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>5143441.506064794</v>
+        <v>8372076713.7624874</v>
       </c>
       <c r="E210" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>62973.618924472787</v>
+        <v>-7800075494.9713621</v>
       </c>
       <c r="F210" s="37">
         <f t="shared" ca="1" si="17"/>
-        <v>-1.2107193470001221E-8</v>
+        <v>-164370185854.41046</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -8435,7 +8433,7 @@
       </c>
       <c r="E213" s="44">
         <f ca="1">SUM(E217:INDIRECT(CONCATENATE("E",216+B10)))</f>
-        <v>95075184.387745291</v>
+        <v>117402473.06971076</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -8444,14 +8442,14 @@
       </c>
       <c r="B214" s="94">
         <f ca="1">PMT(B9,B10-B212,-INDIRECT(CONCATENATE("F",216+B212)),0,0)</f>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D214" s="79" t="s">
         <v>70</v>
       </c>
       <c r="E214" s="44">
         <f ca="1">F216+E213</f>
-        <v>307799997.38774526</v>
+        <v>662164973.06971073</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -8482,7 +8480,7 @@
       </c>
       <c r="F216" s="39">
         <f>$B$3</f>
-        <v>212724813</v>
+        <v>544762500</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -8491,7 +8489,7 @@
       </c>
       <c r="B217" s="38">
         <f t="shared" ref="B217:B276" si="18">EDATE($B$7,$B$6*A217)</f>
-        <v>42916</v>
+        <v>43069</v>
       </c>
       <c r="C217" s="37">
         <f>IF($B$212&gt;=$A217,0,$B$214)</f>
@@ -8499,15 +8497,15 @@
       </c>
       <c r="D217" s="37">
         <f t="shared" ref="D217:D276" si="19">C217-E217</f>
-        <v>-2604491.8161985627</v>
+        <v>-27238718.791125</v>
       </c>
       <c r="E217" s="37">
         <f t="shared" ref="E217:E276" si="20">F216*$B$9</f>
-        <v>2604491.8161985627</v>
+        <v>27238718.791125</v>
       </c>
       <c r="F217" s="37">
         <f t="shared" ref="F217:F228" si="21">F216-D217</f>
-        <v>215329304.81619856</v>
+        <v>572001218.79112506</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -8516,7 +8514,7 @@
       </c>
       <c r="B218" s="38">
         <f t="shared" si="18"/>
-        <v>42946</v>
+        <v>43250</v>
       </c>
       <c r="C218" s="37">
         <f t="shared" ref="C218:C276" si="22">IF($B$212&gt;=$A218,0,$B$214)</f>
@@ -8524,15 +8522,15 @@
       </c>
       <c r="D218" s="37">
         <f t="shared" si="19"/>
-        <v>-2636379.8574899435</v>
+        <v>-28600684.420884736</v>
       </c>
       <c r="E218" s="37">
         <f t="shared" si="20"/>
-        <v>2636379.8574899435</v>
+        <v>28600684.420884736</v>
       </c>
       <c r="F218" s="37">
         <f t="shared" si="21"/>
-        <v>217965684.6736885</v>
+        <v>600601903.21200979</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -8541,7 +8539,7 @@
       </c>
       <c r="B219" s="38">
         <f t="shared" si="18"/>
-        <v>42977</v>
+        <v>43434</v>
       </c>
       <c r="C219" s="37">
         <f t="shared" si="22"/>
@@ -8549,15 +8547,15 @@
       </c>
       <c r="D219" s="37">
         <f t="shared" si="19"/>
-        <v>-2668658.3193505416</v>
+        <v>-30030749.816674989</v>
       </c>
       <c r="E219" s="37">
         <f t="shared" si="20"/>
-        <v>2668658.3193505416</v>
+        <v>30030749.816674989</v>
       </c>
       <c r="F219" s="37">
         <f t="shared" si="21"/>
-        <v>220634342.99303904</v>
+        <v>630632653.02868474</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -8566,23 +8564,23 @@
       </c>
       <c r="B220" s="38">
         <f t="shared" si="18"/>
-        <v>43008</v>
+        <v>43615</v>
       </c>
       <c r="C220" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D220" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>2698667.9722845079</v>
+        <v>630632653.02868474</v>
       </c>
       <c r="E220" s="37">
         <f t="shared" si="20"/>
-        <v>2701331.9818864614</v>
+        <v>31532320.041026037</v>
       </c>
       <c r="F220" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>217935675.02075455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -8591,23 +8589,23 @@
       </c>
       <c r="B221" s="38">
         <f t="shared" si="18"/>
-        <v>43038</v>
+        <v>43799</v>
       </c>
       <c r="C221" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D221" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>2731709.0573809235</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="E221" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2668290.8967900458</v>
+        <v>0</v>
       </c>
       <c r="F221" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>215203965.96337363</v>
+        <v>-662164973.06971073</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -8616,23 +8614,23 @@
       </c>
       <c r="B222" s="38">
         <f t="shared" si="18"/>
-        <v>43069</v>
+        <v>43981</v>
       </c>
       <c r="C222" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D222" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>2765154.6803143616</v>
+        <v>695273943.48301697</v>
       </c>
       <c r="E222" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2634845.2738566077</v>
+        <v>-33108970.41330618</v>
       </c>
       <c r="F222" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>212438811.28305927</v>
+        <v>-1357438916.5527277</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -8641,23 +8639,23 @@
       </c>
       <c r="B223" s="38">
         <f t="shared" si="18"/>
-        <v>43099</v>
+        <v>44165</v>
       </c>
       <c r="C223" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D223" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>2799009.7940354012</v>
+        <v>730038398.50576615</v>
       </c>
       <c r="E223" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2600990.1601355681</v>
+        <v>-67873425.436055422</v>
       </c>
       <c r="F223" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>209639801.48902386</v>
+        <v>-2087477315.0584939</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -8666,23 +8664,23 @@
       </c>
       <c r="B224" s="38">
         <f t="shared" si="18"/>
-        <v>43130</v>
+        <v>44346</v>
       </c>
       <c r="C224" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D224" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>2833279.4121359698</v>
+        <v>766541114.17290878</v>
       </c>
       <c r="E224" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2566720.5420349995</v>
+        <v>-104376141.1031981</v>
       </c>
       <c r="F224" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>206806522.07688791</v>
+        <v>-2854018429.2314024</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -8691,23 +8689,23 @@
       </c>
       <c r="B225" s="38">
         <f t="shared" si="18"/>
-        <v>43159</v>
+        <v>44530</v>
       </c>
       <c r="C225" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D225" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>2867968.6095918017</v>
+        <v>804869005.41136873</v>
       </c>
       <c r="E225" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2532031.3445791677</v>
+        <v>-142704032.34165797</v>
       </c>
       <c r="F225" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>203938553.46729609</v>
+        <v>-3658887434.6427712</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -8716,23 +8714,23 @@
       </c>
       <c r="B226" s="38">
         <f t="shared" si="18"/>
-        <v>43189</v>
+        <v>44711</v>
       </c>
       <c r="C226" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D226" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>2903082.5235139932</v>
+        <v>845113332.98915303</v>
       </c>
       <c r="E226" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2496917.4306569761</v>
+        <v>-182948359.91944233</v>
       </c>
       <c r="F226" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>201035470.94378209</v>
+        <v>-4504000767.6319246</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -8741,23 +8739,23 @@
       </c>
       <c r="B227" s="38">
         <f t="shared" si="18"/>
-        <v>43220</v>
+        <v>44895</v>
       </c>
       <c r="C227" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D227" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>2938626.3539097509</v>
+        <v>887369920.81214368</v>
       </c>
       <c r="E227" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2461373.6002612184</v>
+        <v>-225204947.74243295</v>
       </c>
       <c r="F227" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>198096844.58987233</v>
+        <v>-5391370688.444068</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -8766,23 +8764,23 @@
       </c>
       <c r="B228" s="38">
         <f t="shared" si="18"/>
-        <v>43250</v>
+        <v>45076</v>
       </c>
       <c r="C228" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D228" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>2974605.3644524626</v>
+        <v>931739384.08596444</v>
       </c>
       <c r="E228" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2425394.5897185067</v>
+        <v>-269574411.01625377</v>
       </c>
       <c r="F228" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>195122239.22541988</v>
+        <v>-6323110072.5300322</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -8791,23 +8789,23 @@
       </c>
       <c r="B229" s="38">
         <f t="shared" si="18"/>
-        <v>43281</v>
+        <v>45260</v>
       </c>
       <c r="C229" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D229" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3011024.8832611912</v>
+        <v>978327368.88619137</v>
       </c>
       <c r="E229" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2388975.0709097781</v>
+        <v>-316162395.81648064</v>
       </c>
       <c r="F229" s="37">
         <f t="shared" ref="F229:F276" ca="1" si="23">F228-D229</f>
-        <v>192111214.34215868</v>
+        <v>-7301437441.4162235</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -8816,23 +8814,23 @@
       </c>
       <c r="B230" s="38">
         <f t="shared" si="18"/>
-        <v>43311</v>
+        <v>45442</v>
       </c>
       <c r="C230" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D230" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3047890.303689715</v>
+        <v>1027244803.7073331</v>
       </c>
       <c r="E230" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2352109.6504812543</v>
+        <v>-365079830.6376223</v>
       </c>
       <c r="F230" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>189063324.03846896</v>
+        <v>-8328682245.1235561</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -8841,23 +8839,23 @@
       </c>
       <c r="B231" s="38">
         <f t="shared" si="18"/>
-        <v>43342</v>
+        <v>45626</v>
       </c>
       <c r="C231" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D231" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3085207.0851252251</v>
+        <v>1078608163.5895357</v>
       </c>
       <c r="E231" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2314792.8690457442</v>
+        <v>-416443190.51982498</v>
       </c>
       <c r="F231" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>185978116.95334372</v>
+        <v>-9407290408.7130928</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -8866,23 +8864,23 @@
       </c>
       <c r="B232" s="38">
         <f t="shared" si="18"/>
-        <v>43373</v>
+        <v>45807</v>
       </c>
       <c r="C232" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D232" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3122980.7537968084</v>
+        <v>1132539747.451911</v>
       </c>
       <c r="E232" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2277019.2003741609</v>
+        <v>-470374774.38220012</v>
       </c>
       <c r="F232" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>182855136.1995469</v>
+        <v>-10539830156.165005</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -8891,23 +8889,23 @@
       </c>
       <c r="B233" s="38">
         <f t="shared" si="18"/>
-        <v>43403</v>
+        <v>45991</v>
       </c>
       <c r="C233" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D233" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3161216.9035938205</v>
+        <v>1189167969.2928312</v>
       </c>
       <c r="E233" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2238783.0505771488</v>
+        <v>-527002996.22312045</v>
       </c>
       <c r="F233" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>179693919.29595309</v>
+        <v>-11728998125.457836</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -8916,23 +8914,23 @@
       </c>
       <c r="B234" s="38">
         <f t="shared" si="18"/>
-        <v>43434</v>
+        <v>46172</v>
       </c>
       <c r="C234" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D234" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3199921.1968942862</v>
+        <v>1248627663.9505591</v>
       </c>
       <c r="E234" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2200078.7572766831</v>
+        <v>-586462690.88084853</v>
       </c>
       <c r="F234" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>176493998.09905881</v>
+        <v>-12977625789.408396</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -8941,23 +8939,23 @@
       </c>
       <c r="B235" s="38">
         <f t="shared" si="18"/>
-        <v>43464</v>
+        <v>46356</v>
       </c>
       <c r="C235" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D235" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3239099.3654034361</v>
+        <v>1311060408.152241</v>
       </c>
       <c r="E235" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2160900.5887675332</v>
+        <v>-648895435.08253026</v>
       </c>
       <c r="F235" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>173254898.73365536</v>
+        <v>-14288686197.560637</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -8966,23 +8964,23 @@
       </c>
       <c r="B236" s="38">
         <f t="shared" si="18"/>
-        <v>43495</v>
+        <v>46537</v>
       </c>
       <c r="C236" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D236" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3278757.2110025166</v>
+        <v>1376614857.6156979</v>
       </c>
       <c r="E236" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2121242.7431684528</v>
+        <v>-714449884.54598713</v>
       </c>
       <c r="F236" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>169976141.52265283</v>
+        <v>-15665301055.176334</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -8991,23 +8989,23 @@
       </c>
       <c r="B237" s="38">
         <f t="shared" si="18"/>
-        <v>43524</v>
+        <v>46721</v>
       </c>
       <c r="C237" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D237" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3318900.6066079838</v>
+        <v>1445447101.0066776</v>
       </c>
       <c r="E237" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2081099.3475629853</v>
+        <v>-783282127.93696678</v>
       </c>
       <c r="F237" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>166657240.91604486</v>
+        <v>-17110748156.183012</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -9016,23 +9014,23 @@
       </c>
       <c r="B238" s="38">
         <f t="shared" si="18"/>
-        <v>43554</v>
+        <v>46903</v>
       </c>
       <c r="C238" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D238" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3359535.4970412264</v>
+        <v>1517721031.5943515</v>
       </c>
       <c r="E238" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2040464.4571297432</v>
+        <v>-855556058.5246408</v>
       </c>
       <c r="F238" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>163297705.41900364</v>
+        <v>-18628469187.777363</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -9041,23 +9039,23 @@
       </c>
       <c r="B239" s="38">
         <f t="shared" si="18"/>
-        <v>43585</v>
+        <v>47087</v>
       </c>
       <c r="C239" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D239" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3400667.8999089277</v>
+        <v>1593608737.4899936</v>
       </c>
       <c r="E239" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1999332.0542620416</v>
+        <v>-931443764.42028284</v>
       </c>
       <c r="F239" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>159897037.51909471</v>
+        <v>-20222077925.267357</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -9066,23 +9064,23 @@
       </c>
       <c r="B240" s="38">
         <f t="shared" si="18"/>
-        <v>43615</v>
+        <v>47268</v>
       </c>
       <c r="C240" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D240" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3442303.9064942147</v>
+        <v>1673290911.3980169</v>
       </c>
       <c r="E240" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1957696.0476767546</v>
+        <v>-1011125938.3283063</v>
       </c>
       <c r="F240" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>156454733.61260051</v>
+        <v>-21895368836.665375</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -9091,23 +9089,23 @@
       </c>
       <c r="B241" s="38">
         <f t="shared" si="18"/>
-        <v>43646</v>
+        <v>47452</v>
       </c>
       <c r="C241" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D241" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3484449.6826587114</v>
+        <v>1756957280.8550115</v>
       </c>
       <c r="E241" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1915550.2715122576</v>
+        <v>-1094792307.7853007</v>
       </c>
       <c r="F241" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>152970283.9299418</v>
+        <v>-23652326117.520386</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -9116,23 +9114,23 @@
       </c>
       <c r="B242" s="38">
         <f t="shared" si="18"/>
-        <v>43676</v>
+        <v>47633</v>
       </c>
       <c r="C242" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D242" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3527111.4697556421</v>
+        <v>1844807059.9811981</v>
       </c>
       <c r="E242" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1872888.4844153274</v>
+        <v>-1182642086.9114873</v>
       </c>
       <c r="F242" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>149443172.46018615</v>
+        <v>-25497133177.501583</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -9141,23 +9139,23 @@
       </c>
       <c r="B243" s="38">
         <f t="shared" si="18"/>
-        <v>43707</v>
+        <v>47817</v>
       </c>
       <c r="C243" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D243" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3570295.5855541062</v>
+        <v>1937049423.8199532</v>
       </c>
       <c r="E243" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1829704.3686168632</v>
+        <v>-1274884450.7502425</v>
       </c>
       <c r="F243" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>145872876.87463206</v>
+        <v>-27434182601.321537</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -9166,23 +9164,23 @@
       </c>
       <c r="B244" s="38">
         <f t="shared" si="18"/>
-        <v>43738</v>
+        <v>47998</v>
       </c>
       <c r="C244" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D244" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3614008.4251746796</v>
+        <v>2033904006.3948231</v>
       </c>
       <c r="E244" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1785991.5289962897</v>
+        <v>-1371739033.3251123</v>
       </c>
       <c r="F244" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>142258868.44945738</v>
+        <v>-29468086607.716362</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -9191,23 +9189,23 @@
       </c>
       <c r="B245" s="38">
         <f t="shared" si="18"/>
-        <v>43768</v>
+        <v>48182</v>
       </c>
       <c r="C245" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D245" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3658256.4620364634</v>
+        <v>2135601423.6699312</v>
       </c>
       <c r="E245" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1741743.4921345057</v>
+        <v>-1473436450.6002204</v>
       </c>
       <c r="F245" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>138600611.98742092</v>
+        <v>-31603688031.386292</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -9216,23 +9214,23 @@
       </c>
       <c r="B246" s="38">
         <f t="shared" si="18"/>
-        <v>43799</v>
+        <v>48364</v>
       </c>
       <c r="C246" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D246" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3703046.2488157311</v>
+        <v>2242383822.6589794</v>
       </c>
       <c r="E246" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1696953.7053552384</v>
+        <v>-1580218849.5892687</v>
       </c>
       <c r="F246" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>134897565.73860517</v>
+        <v>-33846071854.045273</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -9241,23 +9239,23 @@
       </c>
       <c r="B247" s="38">
         <f t="shared" si="18"/>
-        <v>43829</v>
+        <v>48548</v>
       </c>
       <c r="C247" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D247" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3748384.4184163096</v>
+        <v>2354505457.9902954</v>
       </c>
       <c r="E247" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1651615.5357546597</v>
+        <v>-1692340484.9205844</v>
       </c>
       <c r="F247" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>131149181.32018887</v>
+        <v>-36200577312.035568</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -9266,23 +9264,23 @@
       </c>
       <c r="B248" s="38">
         <f t="shared" si="18"/>
-        <v>43860</v>
+        <v>48729</v>
       </c>
       <c r="C248" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D248" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3794277.6849518474</v>
+        <v>2472233297.3007593</v>
       </c>
       <c r="E248" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1605722.2692191217</v>
+        <v>-1810068324.2310483</v>
       </c>
       <c r="F248" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>127354903.63523702</v>
+        <v>-38672810609.336327</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -9291,23 +9289,23 @@
       </c>
       <c r="B249" s="38">
         <f t="shared" si="18"/>
-        <v>43890</v>
+        <v>48913</v>
       </c>
       <c r="C249" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D249" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3840732.8447401039</v>
+        <v>2595847656.9000912</v>
       </c>
       <c r="E249" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1559267.1094308656</v>
+        <v>-1933682683.8303804</v>
       </c>
       <c r="F249" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>123514170.79049692</v>
+        <v>-41268658266.23642</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -9316,23 +9314,23 @@
       </c>
       <c r="B250" s="38">
         <f t="shared" si="18"/>
-        <v>43920</v>
+        <v>49094</v>
       </c>
       <c r="C250" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D250" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3887756.7773094117</v>
+        <v>2725642869.2190418</v>
       </c>
       <c r="E250" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1512243.1768615576</v>
+        <v>-2063477896.1493311</v>
       </c>
       <c r="F250" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>119626414.0131875</v>
+        <v>-43994301135.45546</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -9341,23 +9339,23 @@
       </c>
       <c r="B251" s="38">
         <f t="shared" si="18"/>
-        <v>43951</v>
+        <v>49278</v>
       </c>
       <c r="C251" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D251" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3935356.4464174667</v>
+        <v>2861927983.6307211</v>
       </c>
       <c r="E251" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1464643.5077535028</v>
+        <v>-2199763010.5610104</v>
       </c>
       <c r="F251" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>115691057.56677003</v>
+        <v>-46856229119.086182</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -9366,23 +9364,23 @@
       </c>
       <c r="B252" s="38">
         <f t="shared" si="18"/>
-        <v>43981</v>
+        <v>49459</v>
       </c>
       <c r="C252" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D252" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3983538.9010825865</v>
+        <v>3005027502.3137593</v>
       </c>
       <c r="E252" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1416461.0530883831</v>
+        <v>-2342862529.2440486</v>
       </c>
       <c r="F252" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>111707518.66568744</v>
+        <v>-49861256621.39994</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -9391,23 +9389,23 @@
       </c>
       <c r="B253" s="38">
         <f t="shared" si="18"/>
-        <v>44012</v>
+        <v>49643</v>
       </c>
       <c r="C253" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D253" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4032311.2766275974</v>
+        <v>3155282152.9094248</v>
       </c>
       <c r="E253" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1367688.6775433721</v>
+        <v>-2493117179.8397141</v>
       </c>
       <c r="F253" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>107675207.38905984</v>
+        <v>-53016538774.309364</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -9416,23 +9414,23 @@
       </c>
       <c r="B254" s="38">
         <f t="shared" si="18"/>
-        <v>44042</v>
+        <v>49825</v>
       </c>
       <c r="C254" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D254" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4081680.7957365019</v>
+        <v>3313049699.8124428</v>
       </c>
       <c r="E254" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1318319.1584344672</v>
+        <v>-2650884726.742732</v>
       </c>
       <c r="F254" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>103593526.59332334</v>
+        <v>-56329588474.121811</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -9441,23 +9439,23 @@
       </c>
       <c r="B255" s="38">
         <f t="shared" si="18"/>
-        <v>44073</v>
+        <v>50009</v>
       </c>
       <c r="C255" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D255" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4131654.7695240853</v>
+        <v>3478705796.0272379</v>
       </c>
       <c r="E255" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1268345.1846468837</v>
+        <v>-2816540822.9575272</v>
       </c>
       <c r="F255" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>99461871.823799253</v>
+        <v>-59808294270.149048</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -9466,23 +9464,23 @@
       </c>
       <c r="B256" s="38">
         <f t="shared" si="18"/>
-        <v>44104</v>
+        <v>50190</v>
       </c>
       <c r="C256" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D256" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4182240.5986186126</v>
+        <v>3652644877.6179175</v>
       </c>
       <c r="E256" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1217759.3555523567</v>
+        <v>-2990479904.5482068</v>
       </c>
       <c r="F256" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>95279631.225180641</v>
+        <v>-63460939147.766968</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -9491,23 +9489,23 @@
       </c>
       <c r="B257" s="38">
         <f t="shared" si="18"/>
-        <v>44134</v>
+        <v>50374</v>
       </c>
       <c r="C257" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D257" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4233445.7742577875</v>
+        <v>3835281102.8817301</v>
       </c>
       <c r="E257" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1166554.179913182</v>
+        <v>-3173116129.8120193</v>
       </c>
       <c r="F257" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>91046185.450922847</v>
+        <v>-67296220250.648697</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -9516,23 +9514,23 @@
       </c>
       <c r="B258" s="38">
         <f t="shared" si="18"/>
-        <v>44165</v>
+        <v>50555</v>
       </c>
       <c r="C258" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D258" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4285277.8793981252</v>
+        <v>4027049338.4822187</v>
       </c>
       <c r="E258" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1114722.0747728439</v>
+        <v>-3364884365.412508</v>
       </c>
       <c r="F258" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>86760907.571524724</v>
+        <v>-71323269589.13092</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -9541,23 +9539,23 @@
       </c>
       <c r="B259" s="38">
         <f t="shared" si="18"/>
-        <v>44195</v>
+        <v>50739</v>
       </c>
       <c r="C259" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D259" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4337744.5898379143</v>
+        <v>4228406194.8901086</v>
       </c>
       <c r="E259" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1062255.3643330554</v>
+        <v>-3566241221.8203979</v>
       </c>
       <c r="F259" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>82423162.981686816</v>
+        <v>-75551675784.021027</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -9566,23 +9564,23 @@
       </c>
       <c r="B260" s="38">
         <f t="shared" si="18"/>
-        <v>44226</v>
+        <v>50920</v>
       </c>
       <c r="C260" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D260" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4390853.6753539154</v>
+        <v>4439831113.5973663</v>
       </c>
       <c r="E260" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1009146.2788170539</v>
+        <v>-3777666140.5276556</v>
       </c>
       <c r="F260" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>78032309.306332901</v>
+        <v>-79991506897.618393</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -9591,23 +9589,23 @@
       </c>
       <c r="B261" s="38">
         <f t="shared" si="18"/>
-        <v>44255</v>
+        <v>51104</v>
       </c>
       <c r="C261" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D261" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4444613.0008519925</v>
+        <v>4661827508.6931486</v>
       </c>
       <c r="E261" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>955386.95331897645</v>
+        <v>-3999662535.6234379</v>
       </c>
       <c r="F261" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>73587696.305480912</v>
+        <v>-84653334406.311539</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -9616,23 +9614,23 @@
       </c>
       <c r="B262" s="38">
         <f t="shared" si="18"/>
-        <v>44285</v>
+        <v>51286</v>
       </c>
       <c r="C262" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D262" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4499030.5275318203</v>
+        <v>4894923965.5197906</v>
       </c>
       <c r="E262" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>900969.42663914931</v>
+        <v>-4232758992.4500794</v>
       </c>
       <c r="F262" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>69088665.777949095</v>
+        <v>-89548258371.831329</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -9641,23 +9639,23 @@
       </c>
       <c r="B263" s="38">
         <f t="shared" si="18"/>
-        <v>44316</v>
+        <v>51470</v>
       </c>
       <c r="C263" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D263" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4554114.3140658531</v>
+        <v>5139675499.2629023</v>
       </c>
       <c r="E263" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>845885.64010511618</v>
+        <v>-4477510526.1931915</v>
       </c>
       <c r="F263" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>64534551.463883244</v>
+        <v>-94687933871.094238</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -9666,23 +9664,23 @@
       </c>
       <c r="B264" s="38">
         <f t="shared" si="18"/>
-        <v>44346</v>
+        <v>51651</v>
       </c>
       <c r="C264" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D264" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4609872.5177927371</v>
+        <v>5396664876.4723415</v>
       </c>
       <c r="E264" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>790127.43637823244</v>
+        <v>-4734499903.4026308</v>
       </c>
       <c r="F264" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>59924678.946090505</v>
+        <v>-100084598747.56657</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -9691,23 +9689,23 @@
       </c>
       <c r="B265" s="38">
         <f t="shared" si="18"/>
-        <v>44377</v>
+        <v>51835</v>
       </c>
       <c r="C265" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D265" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4666313.3959253216</v>
+        <v>5666504002.6606741</v>
       </c>
       <c r="E265" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>733686.55824564782</v>
+        <v>-5004339029.5909634</v>
       </c>
       <c r="F265" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>55258365.550165184</v>
+        <v>-105751102750.22725</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -9716,23 +9714,23 @@
       </c>
       <c r="B266" s="38">
         <f t="shared" si="18"/>
-        <v>44407</v>
+        <v>52016</v>
       </c>
       <c r="C266" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D266" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4723445.3067734707</v>
+        <v>5949835379.2830706</v>
       </c>
       <c r="E266" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>676554.6473974986</v>
+        <v>-5287670406.2133598</v>
       </c>
       <c r="F266" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>50534920.243391715</v>
+        <v>-111700938129.51031</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -9741,23 +9739,23 @@
       </c>
       <c r="B267" s="38">
         <f t="shared" si="18"/>
-        <v>44438</v>
+        <v>52200</v>
       </c>
       <c r="C267" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D267" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4781276.7109818412</v>
+        <v>6247333633.5677872</v>
       </c>
       <c r="E267" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>618723.24318912812</v>
+        <v>-5585168660.4980764</v>
       </c>
       <c r="F267" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>45753643.532409877</v>
+        <v>-117948271763.07809</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -9766,23 +9764,23 @@
       </c>
       <c r="B268" s="38">
         <f t="shared" si="18"/>
-        <v>44469</v>
+        <v>52381</v>
       </c>
       <c r="C268" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D268" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4839816.172782816</v>
+        <v>6559707124.8398371</v>
       </c>
       <c r="E268" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>560183.78138815344</v>
+        <v>-5897542151.7701263</v>
       </c>
       <c r="F268" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>40913827.359627061</v>
+        <v>-124507978887.91794</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -9791,23 +9789,23 @@
       </c>
       <c r="B269" s="38">
         <f t="shared" si="18"/>
-        <v>44499</v>
+        <v>52565</v>
       </c>
       <c r="C269" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D269" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4899072.3612647783</v>
+        <v>6887699631.1625948</v>
       </c>
       <c r="E269" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>500927.59290619066</v>
+        <v>-6225534658.0928841</v>
       </c>
       <c r="F269" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>36014754.99836228</v>
+        <v>-131395678519.08054</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -9816,23 +9814,23 @@
       </c>
       <c r="B270" s="38">
         <f t="shared" si="18"/>
-        <v>44530</v>
+        <v>52747</v>
       </c>
       <c r="C270" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D270" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4959054.0516559165</v>
+        <v>7232092120.313323</v>
       </c>
       <c r="E270" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>440945.90251505282</v>
+        <v>-6569927147.2436123</v>
       </c>
       <c r="F270" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>31055700.946706362</v>
+        <v>-138627770639.39386</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -9841,23 +9839,23 @@
       </c>
       <c r="B271" s="38">
         <f t="shared" si="18"/>
-        <v>44560</v>
+        <v>52931</v>
       </c>
       <c r="C271" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D271" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>5019770.1266237395</v>
+        <v>7593704609.3094006</v>
       </c>
       <c r="E271" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>380229.82754722965</v>
+        <v>-6931539636.2396898</v>
       </c>
       <c r="F271" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>26035930.820082624</v>
+        <v>-146221475248.70325</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -9866,23 +9864,23 @@
       </c>
       <c r="B272" s="38">
         <f t="shared" si="18"/>
-        <v>44591</v>
+        <v>53112</v>
       </c>
       <c r="C272" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D272" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>5081229.577590513</v>
+        <v>7973398116.9128942</v>
       </c>
       <c r="E272" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>318770.37658045621</v>
+        <v>-7311233143.8431835</v>
       </c>
       <c r="F272" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>20954701.24249211</v>
+        <v>-154194873365.61615</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -9891,23 +9889,23 @@
       </c>
       <c r="B273" s="38">
         <f t="shared" si="18"/>
-        <v>44620</v>
+        <v>53296</v>
       </c>
       <c r="C273" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D273" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>5143441.5060647931</v>
+        <v>8372076713.7624865</v>
       </c>
       <c r="E273" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>256558.44810617628</v>
+        <v>-7709911740.6927757</v>
       </c>
       <c r="F273" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>15811259.736427316</v>
+        <v>-162566950079.37863</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -9916,23 +9914,23 @@
       </c>
       <c r="B274" s="38">
         <f t="shared" si="18"/>
-        <v>44650</v>
+        <v>53477</v>
       </c>
       <c r="C274" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D274" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>5206415.1249892656</v>
+        <v>8790689675.0142288</v>
       </c>
       <c r="E274" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>193584.82918170336</v>
+        <v>-8128524701.9445181</v>
       </c>
       <c r="F274" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>10604844.611438051</v>
+        <v>-171357639754.39285</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -9941,23 +9939,23 @@
       </c>
       <c r="B275" s="38">
         <f t="shared" si="18"/>
-        <v>44681</v>
+        <v>53661</v>
       </c>
       <c r="C275" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D275" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>5270159.7601050902</v>
+        <v>9230233740.616684</v>
       </c>
       <c r="E275" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>129840.19406587906</v>
+        <v>-8568068767.5469742</v>
       </c>
       <c r="F275" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>5334684.8513329607</v>
+        <v>-180587873495.00952</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -9966,23 +9964,23 @@
       </c>
       <c r="B276" s="38">
         <f t="shared" si="18"/>
-        <v>44711</v>
+        <v>53842</v>
       </c>
       <c r="C276" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>662164973.06971073</v>
       </c>
       <c r="D276" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>5334684.851332942</v>
+        <v>9691755488.6022949</v>
       </c>
       <c r="E276" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>65315.102838027378</v>
+        <v>-9029590515.5325851</v>
       </c>
       <c r="F276" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>1.862645149230957E-8</v>
+        <v>-190279628983.61182</v>
       </c>
     </row>
   </sheetData>

--- a/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
+++ b/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-Sprint17\Simulasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-BNI\Simulasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="103">
   <si>
     <t>*tempat nampung hasil REF_YIELD_ITEM di DB</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>CF dan FL - R3</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -926,6 +929,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -947,7 +951,6 @@
     <xf numFmtId="43" fontId="15" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1633,10 +1636,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1658,7 +1661,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="113" t="s">
         <v>101</v>
       </c>
       <c r="C1" t="s">
@@ -1666,7 +1669,7 @@
       </c>
       <c r="D1" s="3">
         <f ca="1">IF(B16=1,'Regular Fixed'!E79,IF(AND(B16=0,E16=0),'Regular Fixed'!E15,IF(AND(B16=0,E16&gt;0,E15&gt;0),'Regular Fixed'!E147,IF(AND(B16=0,E16&gt;0,E15=0),'Regular Fixed'!E213))))</f>
-        <v>95075184.387745291</v>
+        <v>191120291.49871498</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1674,7 +1677,7 @@
         <v>98</v>
       </c>
       <c r="B2">
-        <v>122485000</v>
+        <v>280010000</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1682,7 +1685,7 @@
         <v>70</v>
       </c>
       <c r="B3">
-        <v>307799997.38999999</v>
+        <v>695980006.5</v>
       </c>
       <c r="C3" s="87" t="s">
         <v>96</v>
@@ -1704,27 +1707,27 @@
         <v>29</v>
       </c>
       <c r="B5">
-        <v>310000000</v>
+        <v>700100000</v>
       </c>
       <c r="C5" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="113" t="s">
+      <c r="D5" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="114"/>
+      <c r="E5" s="115"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="114" t="s">
+      <c r="G5" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="115"/>
+      <c r="H5" s="116"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="92" t="s">
         <v>99</v>
       </c>
       <c r="B6">
-        <v>122500000</v>
+        <v>280020000</v>
       </c>
       <c r="C6" s="83" t="s">
         <v>93</v>
@@ -1733,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>21558500</v>
+        <v>65933833</v>
       </c>
       <c r="F6" s="83" t="s">
         <v>93</v>
@@ -1742,7 +1745,7 @@
         <v>12</v>
       </c>
       <c r="H6">
-        <v>21400960</v>
+        <v>34986933</v>
       </c>
       <c r="I6" s="83" t="s">
         <v>93</v>
@@ -1754,13 +1757,13 @@
       </c>
       <c r="B7" s="89">
         <f>B5-B6+D24+D25+D26+D27+D28+D29+D30+D31+D38</f>
-        <v>212724813</v>
+        <v>504859715</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E7">
-        <v>12834375</v>
+        <v>31409803</v>
       </c>
       <c r="F7" s="83" t="s">
         <v>93</v>
@@ -1769,7 +1772,7 @@
         <v>14</v>
       </c>
       <c r="H7">
-        <v>13156250</v>
+        <v>32372210</v>
       </c>
       <c r="I7" s="83" t="s">
         <v>93</v>
@@ -1780,7 +1783,7 @@
         <v>33</v>
       </c>
       <c r="B8">
-        <v>0.14692175000000002</v>
+        <v>0.14686972000000001</v>
       </c>
       <c r="C8" s="83" t="s">
         <v>93</v>
@@ -1815,7 +1818,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>2250000</v>
+        <v>21004000</v>
       </c>
       <c r="F9" s="83" t="s">
         <v>93</v>
@@ -1832,7 +1835,7 @@
         <v>35</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="83" t="s">
         <v>93</v>
@@ -1874,7 +1877,7 @@
       </c>
       <c r="B12" s="20">
         <f>B8/(12/B10)</f>
-        <v>1.2243479166666668E-2</v>
+        <v>3.6717430000000002E-2</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>10</v>
@@ -1892,7 +1895,7 @@
       </c>
       <c r="B13" s="18">
         <f>B9/B10</f>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>11</v>
@@ -1929,7 +1932,7 @@
       </c>
       <c r="B15" s="3">
         <f>IF(B16=1,B2+SUM(E6:E14)-SUM(D24:D31,D38)+B18,B2+SUM(E6:E14)-SUM(D24:D31,D38))</f>
-        <v>136603062</v>
+        <v>351076921</v>
       </c>
       <c r="D15" s="82" t="s">
         <v>94</v>
@@ -1946,7 +1949,7 @@
         <v>40</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="83" t="s">
         <v>93</v>
@@ -1955,7 +1958,7 @@
         <v>95</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16" s="83" t="s">
         <v>93</v>
@@ -1966,7 +1969,7 @@
         <v>41</v>
       </c>
       <c r="B17">
-        <v>5399999.9500000002</v>
+        <v>34799000.32</v>
       </c>
       <c r="C17" s="82" t="s">
         <v>92</v>
@@ -1975,7 +1978,7 @@
     <row r="18" spans="1:13">
       <c r="B18" s="90">
         <f>ROUND(B17,0)</f>
-        <v>5400000</v>
+        <v>34799000</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>42</v>
@@ -1987,7 +1990,7 @@
       </c>
       <c r="B19" s="13">
         <f ca="1">(D1/B7)/(B9/12/B10)*100</f>
-        <v>8.9387959069678704</v>
+        <v>22.71367104408974</v>
       </c>
       <c r="F19" s="85" t="s">
         <v>43</v>
@@ -2020,14 +2023,14 @@
       </c>
       <c r="G20" s="100">
         <f>IF(B16=0,-B7,0)</f>
-        <v>-212724813</v>
+        <v>0</v>
       </c>
       <c r="I20" s="85">
         <v>0</v>
       </c>
       <c r="J20" s="100">
         <f>IF(B16=0,B37-C37,0)</f>
-        <v>-207969148</v>
+        <v>0</v>
       </c>
       <c r="L20" s="13">
         <v>0</v>
@@ -2040,7 +2043,7 @@
       <c r="B21" s="22"/>
       <c r="C21" s="23">
         <f>B5</f>
-        <v>310000000</v>
+        <v>700100000</v>
       </c>
       <c r="D21" s="21"/>
       <c r="F21" s="105">
@@ -2048,14 +2051,18 @@
       </c>
       <c r="G21" s="101">
         <f>IF($B$16=0,IF(F21&lt;=$E$16,$E$15,$B$17),-B7+B17)</f>
-        <v>0</v>
+        <v>-470060714.68000001</v>
       </c>
       <c r="I21" s="85">
         <v>1</v>
       </c>
       <c r="J21" s="101">
         <f>IF(B16=0,IF(I21&lt;=$E$16,$E$15,$B$18),B37-C37)</f>
-        <v>0</v>
+        <v>-416422222</v>
+      </c>
+      <c r="K21" s="56">
+        <f>IRR(J20:J52)</f>
+        <v>7.4579026190375153E-2</v>
       </c>
       <c r="L21" s="13">
         <v>-246450080</v>
@@ -2067,7 +2074,7 @@
       </c>
       <c r="B22" s="23">
         <f>B6</f>
-        <v>122500000</v>
+        <v>280020000</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="21"/>
@@ -2076,14 +2083,18 @@
       </c>
       <c r="G22" s="102">
         <f>IF($B$16=0,IF(F22&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>0</v>
+        <v>34799000.32</v>
       </c>
       <c r="I22" s="85">
         <v>2</v>
       </c>
       <c r="J22" s="100">
         <f>IF($B$16=0,IF(I22&lt;=$E$16,$E$15,$B$18),$B$18)</f>
-        <v>0</v>
+        <v>34799000</v>
+      </c>
+      <c r="K22">
+        <f>K21*6*100</f>
+        <v>44.747415714225092</v>
       </c>
       <c r="L22" s="13">
         <v>6600000</v>
@@ -2095,7 +2106,7 @@
       </c>
       <c r="B23" s="98">
         <f>IF(B16=1,B18,0)</f>
-        <v>0</v>
+        <v>34799000</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="21"/>
@@ -2104,14 +2115,14 @@
       </c>
       <c r="G23" s="102">
         <f>IF($B$16=0,IF(F23&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>0</v>
+        <v>34799000.32</v>
       </c>
       <c r="I23" s="85">
         <v>3</v>
       </c>
       <c r="J23" s="100">
         <f>IF($B$16=0,IF(I23&lt;=$E$16,$E$15,$B$18),$B$18)</f>
-        <v>0</v>
+        <v>34799000</v>
       </c>
       <c r="L23" s="13">
         <v>6600000</v>
@@ -2122,12 +2133,12 @@
         <v>53</v>
       </c>
       <c r="B24" s="98">
-        <f t="shared" ref="B24:B31" si="0">E6-D24</f>
-        <v>1744000</v>
+        <f>E6-D24</f>
+        <v>0</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24">
-        <v>19814500</v>
+        <v>65933833</v>
       </c>
       <c r="E24" s="83" t="s">
         <v>93</v>
@@ -2137,15 +2148,15 @@
       </c>
       <c r="G24" s="102">
         <f>IF($B$16=0,IF(F24&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>5399999.9500000002</v>
+        <v>34799000.32</v>
       </c>
       <c r="H24" s="104"/>
       <c r="I24" s="85">
         <v>4</v>
       </c>
       <c r="J24" s="100">
-        <f t="shared" ref="J24:J81" si="1">IF($B$16=0,IF(I24&lt;=$E$16,$E$15,$B$18),$B$18)</f>
-        <v>5400000</v>
+        <f t="shared" ref="J24:J81" si="0">IF($B$16=0,IF(I24&lt;=$E$16,$E$15,$B$18),$B$18)</f>
+        <v>34799000</v>
       </c>
       <c r="L24" s="13">
         <v>6600000</v>
@@ -2157,12 +2168,12 @@
         <v>5</v>
       </c>
       <c r="B25" s="23">
-        <f t="shared" si="0"/>
-        <v>8984062</v>
+        <f>E7-D25</f>
+        <v>12563921</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25">
-        <v>3850313</v>
+        <v>18845882</v>
       </c>
       <c r="E25" s="83" t="s">
         <v>93</v>
@@ -2171,16 +2182,16 @@
         <v>5</v>
       </c>
       <c r="G25" s="102">
-        <f t="shared" ref="G25:G81" si="2">IF($B$16=0,IF(F25&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>5399999.9500000002</v>
+        <f t="shared" ref="G25:G81" si="1">IF($B$16=0,IF(F25&lt;=$E$16,$E$15,$B$17),$B$17)</f>
+        <v>34799000.32</v>
       </c>
       <c r="H25" s="104"/>
       <c r="I25" s="85">
         <v>5</v>
       </c>
       <c r="J25" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L25" s="13">
         <v>6600000</v>
@@ -2192,12 +2203,12 @@
         <v>6</v>
       </c>
       <c r="B26" s="23">
-        <f t="shared" si="0"/>
-        <v>50000</v>
+        <f t="shared" ref="B26:B30" si="2">E8-D26</f>
+        <v>150000</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="E26" s="83" t="s">
         <v>93</v>
@@ -2206,16 +2217,16 @@
         <v>6</v>
       </c>
       <c r="G26" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H26" s="104"/>
       <c r="I26" s="85">
         <v>6</v>
       </c>
       <c r="J26" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L26" s="13">
         <v>6600000</v>
@@ -2226,12 +2237,12 @@
         <v>7</v>
       </c>
       <c r="B27" s="23">
-        <f t="shared" si="0"/>
-        <v>1250000</v>
+        <f t="shared" si="2"/>
+        <v>21004000</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="E27" s="83" t="s">
         <v>93</v>
@@ -2240,16 +2251,16 @@
         <v>7</v>
       </c>
       <c r="G27" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H27" s="104"/>
       <c r="I27" s="85">
         <v>7</v>
       </c>
       <c r="J27" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L27" s="13">
         <v>6600000</v>
@@ -2260,12 +2271,12 @@
         <v>8</v>
       </c>
       <c r="B28" s="23">
-        <f t="shared" si="0"/>
-        <v>1050000</v>
+        <f t="shared" si="2"/>
+        <v>1200000</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="E28" s="83" t="s">
         <v>93</v>
@@ -2274,16 +2285,16 @@
         <v>8</v>
       </c>
       <c r="G28" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H28" s="104"/>
       <c r="I28" s="85">
         <v>8</v>
       </c>
       <c r="J28" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L28" s="13">
         <v>6600000</v>
@@ -2294,12 +2305,12 @@
         <v>9</v>
       </c>
       <c r="B29" s="23">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f t="shared" si="2"/>
+        <v>1250000</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="E29" s="83" t="s">
         <v>93</v>
@@ -2308,16 +2319,16 @@
         <v>9</v>
       </c>
       <c r="G29" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H29" s="104"/>
       <c r="I29" s="85">
         <v>9</v>
       </c>
       <c r="J29" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L29" s="13">
         <v>6600000</v>
@@ -2328,7 +2339,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="98">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C30" s="22"/>
@@ -2340,16 +2351,16 @@
         <v>10</v>
       </c>
       <c r="G30" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H30" s="104"/>
       <c r="I30" s="85">
         <v>10</v>
       </c>
       <c r="J30" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L30" s="13">
         <v>6600000</v>
@@ -2360,12 +2371,12 @@
         <v>11</v>
       </c>
       <c r="B31" s="23">
-        <f t="shared" si="0"/>
-        <v>10000</v>
+        <f>E13-D31</f>
+        <v>50000</v>
       </c>
       <c r="C31" s="22"/>
       <c r="D31">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="E31" s="83" t="s">
         <v>93</v>
@@ -2374,16 +2385,16 @@
         <v>11</v>
       </c>
       <c r="G31" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H31" s="104"/>
       <c r="I31" s="85">
         <v>11</v>
       </c>
       <c r="J31" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L31" s="13">
         <v>6600000</v>
@@ -2396,23 +2407,23 @@
       <c r="B32" s="22"/>
       <c r="C32" s="24">
         <f>H6</f>
-        <v>21400960</v>
+        <v>34986933</v>
       </c>
       <c r="D32" s="21"/>
       <c r="F32" s="105">
         <v>12</v>
       </c>
       <c r="G32" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H32" s="104"/>
       <c r="I32" s="85">
         <v>12</v>
       </c>
       <c r="J32" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L32" s="13">
         <v>6600000</v>
@@ -2425,23 +2436,23 @@
       <c r="B33" s="22"/>
       <c r="C33" s="24">
         <f>H7</f>
-        <v>13156250</v>
+        <v>32372210</v>
       </c>
       <c r="D33" s="21"/>
       <c r="F33" s="105">
         <v>13</v>
       </c>
       <c r="G33" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H33" s="104"/>
       <c r="I33" s="85">
         <v>13</v>
       </c>
       <c r="J33" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L33" s="13">
         <v>6600000</v>
@@ -2461,16 +2472,16 @@
         <v>14</v>
       </c>
       <c r="G34" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H34" s="104"/>
       <c r="I34" s="85">
         <v>14</v>
       </c>
       <c r="J34" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L34" s="13">
         <v>6600000</v>
@@ -2490,16 +2501,16 @@
         <v>15</v>
       </c>
       <c r="G35" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H35" s="104"/>
       <c r="I35" s="85">
         <v>15</v>
       </c>
       <c r="J35" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L35" s="13">
         <v>6600000</v>
@@ -2513,16 +2524,16 @@
         <v>16</v>
       </c>
       <c r="G36" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H36" s="104"/>
       <c r="I36" s="85">
         <v>16</v>
       </c>
       <c r="J36" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L36" s="13">
         <v>6600000</v>
@@ -2534,11 +2545,11 @@
       </c>
       <c r="B37" s="16">
         <f>SUM(B21:B35)</f>
-        <v>136588062</v>
+        <v>351036921</v>
       </c>
       <c r="C37" s="16">
         <f>SUM(C21:C35)</f>
-        <v>344557210</v>
+        <v>767459143</v>
       </c>
       <c r="D37" t="s">
         <v>49</v>
@@ -2547,16 +2558,16 @@
         <v>17</v>
       </c>
       <c r="G37" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H37" s="104"/>
       <c r="I37" s="85">
         <v>17</v>
       </c>
       <c r="J37" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L37" s="13">
         <v>6600000</v>
@@ -2569,7 +2580,7 @@
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
       <c r="D38">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E38" t="s">
         <v>93</v>
@@ -2578,16 +2589,16 @@
         <v>18</v>
       </c>
       <c r="G38" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H38" s="104"/>
       <c r="I38" s="85">
         <v>18</v>
       </c>
       <c r="J38" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L38" s="13">
         <v>6600000</v>
@@ -2598,16 +2609,16 @@
         <v>19</v>
       </c>
       <c r="G39" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H39" s="104"/>
       <c r="I39" s="85">
         <v>19</v>
       </c>
       <c r="J39" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="K39" s="35"/>
       <c r="L39" s="13">
@@ -2620,16 +2631,16 @@
         <v>20</v>
       </c>
       <c r="G40" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H40" s="104"/>
       <c r="I40" s="85">
         <v>20</v>
       </c>
       <c r="J40" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L40" s="13">
         <v>6600000</v>
@@ -2640,16 +2651,16 @@
         <v>21</v>
       </c>
       <c r="G41" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H41" s="104"/>
       <c r="I41" s="85">
         <v>21</v>
       </c>
       <c r="J41" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L41" s="13">
         <v>6600000</v>
@@ -2660,16 +2671,16 @@
         <v>22</v>
       </c>
       <c r="G42" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H42" s="104"/>
       <c r="I42" s="85">
         <v>22</v>
       </c>
       <c r="J42" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L42" s="13">
         <v>6600000</v>
@@ -2680,16 +2691,16 @@
         <v>23</v>
       </c>
       <c r="G43" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H43" s="104"/>
       <c r="I43" s="85">
         <v>23</v>
       </c>
       <c r="J43" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L43" s="13">
         <v>6600000</v>
@@ -2700,16 +2711,16 @@
         <v>24</v>
       </c>
       <c r="G44" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H44" s="104"/>
       <c r="I44" s="85">
         <v>24</v>
       </c>
       <c r="J44" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L44" s="13">
         <v>6600000</v>
@@ -2720,16 +2731,16 @@
         <v>25</v>
       </c>
       <c r="G45" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H45" s="104"/>
       <c r="I45" s="85">
         <v>25</v>
       </c>
       <c r="J45" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L45" s="13">
         <v>6600000</v>
@@ -2740,16 +2751,16 @@
         <v>26</v>
       </c>
       <c r="G46" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H46" s="104"/>
       <c r="I46" s="85">
         <v>26</v>
       </c>
       <c r="J46" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L46" s="13">
         <v>6600000</v>
@@ -2760,16 +2771,16 @@
         <v>27</v>
       </c>
       <c r="G47" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H47" s="104"/>
       <c r="I47" s="85">
         <v>27</v>
       </c>
       <c r="J47" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L47" s="13">
         <v>6600000</v>
@@ -2780,16 +2791,16 @@
         <v>28</v>
       </c>
       <c r="G48" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H48" s="104"/>
       <c r="I48" s="85">
         <v>28</v>
       </c>
       <c r="J48" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L48" s="13">
         <v>6600000</v>
@@ -2800,16 +2811,16 @@
         <v>29</v>
       </c>
       <c r="G49" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H49" s="104"/>
       <c r="I49" s="85">
         <v>29</v>
       </c>
       <c r="J49" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L49" s="13">
         <v>6600000</v>
@@ -2820,16 +2831,16 @@
         <v>30</v>
       </c>
       <c r="G50" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H50" s="104"/>
       <c r="I50" s="85">
         <v>30</v>
       </c>
       <c r="J50" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L50" s="13">
         <v>6600000</v>
@@ -2840,16 +2851,16 @@
         <v>31</v>
       </c>
       <c r="G51" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H51" s="104"/>
       <c r="I51" s="85">
         <v>31</v>
       </c>
       <c r="J51" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L51" s="13">
         <v>6600000</v>
@@ -2860,16 +2871,16 @@
         <v>32</v>
       </c>
       <c r="G52" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H52" s="104"/>
       <c r="I52" s="85">
         <v>32</v>
       </c>
       <c r="J52" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L52" s="13">
         <v>6600000</v>
@@ -2880,16 +2891,16 @@
         <v>33</v>
       </c>
       <c r="G53" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H53" s="104"/>
       <c r="I53" s="85">
         <v>33</v>
       </c>
       <c r="J53" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L53" s="13">
         <v>6600000</v>
@@ -2900,16 +2911,16 @@
         <v>34</v>
       </c>
       <c r="G54" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H54" s="104"/>
       <c r="I54" s="85">
         <v>34</v>
       </c>
       <c r="J54" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L54" s="13">
         <v>6600000</v>
@@ -2920,16 +2931,16 @@
         <v>35</v>
       </c>
       <c r="G55" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H55" s="104"/>
       <c r="I55" s="85">
         <v>35</v>
       </c>
       <c r="J55" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L55" s="13">
         <v>6600000</v>
@@ -2940,16 +2951,16 @@
         <v>36</v>
       </c>
       <c r="G56" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H56" s="104"/>
       <c r="I56" s="85">
         <v>36</v>
       </c>
       <c r="J56" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L56" s="13">
         <v>6600000</v>
@@ -2960,16 +2971,16 @@
         <v>37</v>
       </c>
       <c r="G57" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H57" s="104"/>
       <c r="I57" s="85">
         <v>37</v>
       </c>
       <c r="J57" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L57" s="13">
         <v>6600000</v>
@@ -2980,16 +2991,16 @@
         <v>38</v>
       </c>
       <c r="G58" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H58" s="104"/>
       <c r="I58" s="85">
         <v>38</v>
       </c>
       <c r="J58" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L58" s="13">
         <v>6600000</v>
@@ -3000,16 +3011,16 @@
         <v>39</v>
       </c>
       <c r="G59" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H59" s="104"/>
       <c r="I59" s="85">
         <v>39</v>
       </c>
       <c r="J59" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L59" s="13">
         <v>6600000</v>
@@ -3020,16 +3031,16 @@
         <v>40</v>
       </c>
       <c r="G60" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H60" s="104"/>
       <c r="I60" s="85">
         <v>40</v>
       </c>
       <c r="J60" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L60" s="13">
         <v>6600000</v>
@@ -3040,16 +3051,16 @@
         <v>41</v>
       </c>
       <c r="G61" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H61" s="104"/>
       <c r="I61" s="85">
         <v>41</v>
       </c>
       <c r="J61" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L61" s="13">
         <v>6600000</v>
@@ -3060,16 +3071,16 @@
         <v>42</v>
       </c>
       <c r="G62" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H62" s="104"/>
       <c r="I62" s="85">
         <v>42</v>
       </c>
       <c r="J62" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L62" s="13">
         <v>6600000</v>
@@ -3080,16 +3091,16 @@
         <v>43</v>
       </c>
       <c r="G63" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H63" s="104"/>
       <c r="I63" s="85">
         <v>43</v>
       </c>
       <c r="J63" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L63" s="13">
         <v>6600000</v>
@@ -3100,16 +3111,16 @@
         <v>44</v>
       </c>
       <c r="G64" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H64" s="104"/>
       <c r="I64" s="85">
         <v>44</v>
       </c>
       <c r="J64" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L64" s="13">
         <v>6600000</v>
@@ -3120,16 +3131,16 @@
         <v>45</v>
       </c>
       <c r="G65" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H65" s="104"/>
       <c r="I65" s="85">
         <v>45</v>
       </c>
       <c r="J65" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L65" s="13">
         <v>6600000</v>
@@ -3140,16 +3151,16 @@
         <v>46</v>
       </c>
       <c r="G66" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H66" s="104"/>
       <c r="I66" s="85">
         <v>46</v>
       </c>
       <c r="J66" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L66" s="13">
         <v>6600000</v>
@@ -3160,16 +3171,16 @@
         <v>47</v>
       </c>
       <c r="G67" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H67" s="104"/>
       <c r="I67" s="85">
         <v>47</v>
       </c>
       <c r="J67" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L67" s="13">
         <v>6600000</v>
@@ -3180,16 +3191,16 @@
         <v>48</v>
       </c>
       <c r="G68" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H68" s="104"/>
       <c r="I68" s="85">
         <v>48</v>
       </c>
       <c r="J68" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L68" s="13">
         <v>6600000</v>
@@ -3200,16 +3211,16 @@
         <v>49</v>
       </c>
       <c r="G69" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H69" s="104"/>
       <c r="I69" s="85">
         <v>49</v>
       </c>
       <c r="J69" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L69" s="13">
         <v>6600000</v>
@@ -3220,16 +3231,16 @@
         <v>50</v>
       </c>
       <c r="G70" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H70" s="104"/>
       <c r="I70" s="85">
         <v>50</v>
       </c>
       <c r="J70" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L70" s="13">
         <v>6600000</v>
@@ -3240,16 +3251,16 @@
         <v>51</v>
       </c>
       <c r="G71" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H71" s="104"/>
       <c r="I71" s="85">
         <v>51</v>
       </c>
       <c r="J71" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L71" s="13">
         <v>6600000</v>
@@ -3260,16 +3271,16 @@
         <v>52</v>
       </c>
       <c r="G72" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H72" s="104"/>
       <c r="I72" s="85">
         <v>52</v>
       </c>
       <c r="J72" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L72" s="13">
         <v>6600000</v>
@@ -3280,16 +3291,16 @@
         <v>53</v>
       </c>
       <c r="G73" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H73" s="104"/>
       <c r="I73" s="85">
         <v>53</v>
       </c>
       <c r="J73" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L73" s="13">
         <v>6600000</v>
@@ -3300,16 +3311,16 @@
         <v>54</v>
       </c>
       <c r="G74" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H74" s="104"/>
       <c r="I74" s="85">
         <v>54</v>
       </c>
       <c r="J74" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L74" s="13">
         <v>6600000</v>
@@ -3320,16 +3331,16 @@
         <v>55</v>
       </c>
       <c r="G75" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H75" s="104"/>
       <c r="I75" s="85">
         <v>55</v>
       </c>
       <c r="J75" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L75" s="13">
         <v>6600000</v>
@@ -3340,16 +3351,16 @@
         <v>56</v>
       </c>
       <c r="G76" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H76" s="104"/>
       <c r="I76" s="85">
         <v>56</v>
       </c>
       <c r="J76" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L76" s="13">
         <v>6600000</v>
@@ -3360,16 +3371,16 @@
         <v>57</v>
       </c>
       <c r="G77" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H77" s="104"/>
       <c r="I77" s="85">
         <v>57</v>
       </c>
       <c r="J77" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L77" s="13">
         <v>6600000</v>
@@ -3380,16 +3391,16 @@
         <v>58</v>
       </c>
       <c r="G78" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H78" s="104"/>
       <c r="I78" s="85">
         <v>58</v>
       </c>
       <c r="J78" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L78" s="13">
         <v>6600000</v>
@@ -3400,16 +3411,16 @@
         <v>59</v>
       </c>
       <c r="G79" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H79" s="104"/>
       <c r="I79" s="85">
         <v>59</v>
       </c>
       <c r="J79" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L79" s="13">
         <v>6600000</v>
@@ -3420,16 +3431,16 @@
         <v>60</v>
       </c>
       <c r="G80" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H80" s="104"/>
       <c r="I80" s="85">
         <v>60</v>
       </c>
       <c r="J80" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L80" s="13">
         <v>6600000</v>
@@ -3440,16 +3451,16 @@
         <v>61</v>
       </c>
       <c r="G81" s="102">
-        <f t="shared" si="2"/>
-        <v>5399999.9500000002</v>
+        <f t="shared" si="1"/>
+        <v>34799000.32</v>
       </c>
       <c r="H81" s="104"/>
       <c r="I81" s="85">
         <v>61</v>
       </c>
       <c r="J81" s="100">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
+        <f t="shared" si="0"/>
+        <v>34799000</v>
       </c>
       <c r="L81" s="13">
         <v>6600000</v>
@@ -3476,26 +3487,26 @@
       <c r="F83" s="106"/>
       <c r="G83" s="14">
         <f ca="1">_xlfn.NUMBERVALUE(IRR(G20:INDIRECT(CONCATENATE("G",IF(B16=1,B13+20+1,B13+20)))))</f>
-        <v>1.2243479139454999E-2</v>
+        <v>4.0688216158158499E-2</v>
       </c>
       <c r="J83" s="56">
         <f ca="1">IRR(J20:INDIRECT(CONCATENATE("J",B13+20)))</f>
-        <v>1.3043235545400211E-2</v>
+        <v>5.1215480806775959E-2</v>
       </c>
       <c r="K83" s="110">
-        <f ca="1">J83*12*100</f>
-        <v>15.651882654480254</v>
+        <f ca="1">J83*(12/B10)*100</f>
+        <v>20.486192322710384</v>
       </c>
       <c r="L83" s="104"/>
     </row>
     <row r="84" spans="6:13">
       <c r="G84">
         <f ca="1">_xlfn.NUMBERVALUE(G83*12*100)</f>
-        <v>14.692174967346</v>
+        <v>48.825859389790203</v>
       </c>
       <c r="J84">
         <f ca="1">_xlfn.NUMBERVALUE(K83)</f>
-        <v>15.6518826544803</v>
+        <v>20.486192322710401</v>
       </c>
     </row>
     <row r="85" spans="6:13">
@@ -3503,6 +3514,11 @@
       <c r="L85">
         <f>M82</f>
         <v>20.04227034082886</v>
+      </c>
+    </row>
+    <row r="90" spans="6:13">
+      <c r="J90" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3520,8 +3536,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F276"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="E214" sqref="E214"/>
+    <sheetView topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="F246" sqref="F246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3536,14 +3552,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="43" t="s">
@@ -3551,7 +3567,7 @@
       </c>
       <c r="B3" s="88">
         <f>'Gross Yield (CF)'!B7</f>
-        <v>212724813</v>
+        <v>504859715</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>86</v>
@@ -3567,7 +3583,7 @@
       </c>
       <c r="B4" s="55">
         <f>'Gross Yield (CF)'!B8</f>
-        <v>0.14692175000000002</v>
+        <v>0.14686972000000001</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>84</v>
@@ -3599,7 +3615,7 @@
       </c>
       <c r="B6" s="43">
         <f>'Gross Yield (CF)'!B10</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>81</v>
@@ -3635,7 +3651,7 @@
       </c>
       <c r="B9" s="57">
         <f>B4/(12/B6)</f>
-        <v>1.2243479166666668E-2</v>
+        <v>3.6717430000000002E-2</v>
       </c>
       <c r="C9" s="43" t="s">
         <v>80</v>
@@ -3649,7 +3665,7 @@
       </c>
       <c r="B10" s="52">
         <f>B5/B6</f>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C10" s="43" t="s">
         <v>79</v>
@@ -3664,7 +3680,7 @@
       </c>
       <c r="B11" s="52">
         <f>B3*-1</f>
-        <v>-212724813</v>
+        <v>-504859715</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>77</v>
@@ -3707,7 +3723,7 @@
       </c>
       <c r="B14" s="95">
         <f>PMT(B9,B10,B11,B12,B13)</f>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="40" t="s">
@@ -3715,7 +3731,7 @@
       </c>
       <c r="E14" s="40">
         <f ca="1">E15+F16</f>
-        <v>301584069.42851001</v>
+        <v>721534603.66873121</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -3734,7 +3750,7 @@
       </c>
       <c r="E15" s="40">
         <f ca="1">SUM(E17:INDIRECT(CONCATENATE("E",16+B10)))</f>
-        <v>88859256.42851001</v>
+        <v>216674888.66873118</v>
       </c>
       <c r="F15" s="39" t="s">
         <v>63</v>
@@ -3758,7 +3774,7 @@
       </c>
       <c r="F16" s="39">
         <f>B3</f>
-        <v>212724813</v>
+        <v>504859715</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3767,23 +3783,23 @@
       </c>
       <c r="B17" s="38">
         <f>EDATE($B$7,$B$6*A17)</f>
-        <v>42916</v>
+        <v>42977</v>
       </c>
       <c r="C17" s="37">
         <f>B14</f>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D17" s="37">
         <f t="shared" ref="D17:D76" si="0">C17-E17</f>
-        <v>2421909.340943269</v>
+        <v>17539578.938104115</v>
       </c>
       <c r="E17" s="37">
         <f t="shared" ref="E17:E76" si="1">F16*$B$9</f>
-        <v>2604491.8161985627</v>
+        <v>18537151.24533245</v>
       </c>
       <c r="F17" s="37">
         <f t="shared" ref="F17:F27" si="2">F16-D17</f>
-        <v>210302903.65905672</v>
+        <v>487320136.06189591</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3792,23 +3808,23 @@
       </c>
       <c r="B18" s="38">
         <f t="shared" ref="B18:B76" si="3">EDATE($B$7,$B$6*A18)</f>
-        <v>42946</v>
+        <v>43069</v>
       </c>
       <c r="C18" s="37">
         <f t="shared" ref="C18:C76" si="4">$C$17</f>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D18" s="37">
         <f t="shared" si="0"/>
-        <v>2451561.9375026631</v>
+        <v>18183587.199993424</v>
       </c>
       <c r="E18" s="37">
         <f t="shared" si="1"/>
-        <v>2574839.2196391686</v>
+        <v>17893142.983443141</v>
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>207851341.72155407</v>
+        <v>469136548.86190248</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3817,23 +3833,23 @@
       </c>
       <c r="B19" s="38">
         <f t="shared" si="3"/>
-        <v>42977</v>
+        <v>43159</v>
       </c>
       <c r="C19" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D19" s="37">
         <f t="shared" si="0"/>
-        <v>2481577.5850102701</v>
+        <v>18851241.790158082</v>
       </c>
       <c r="E19" s="37">
         <f t="shared" si="1"/>
-        <v>2544823.5721315616</v>
+        <v>17225488.393278483</v>
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>205369764.13654381</v>
+        <v>450285307.07174438</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3842,23 +3858,23 @@
       </c>
       <c r="B20" s="38">
         <f t="shared" si="3"/>
-        <v>43008</v>
+        <v>43250</v>
       </c>
       <c r="C20" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D20" s="37">
         <f t="shared" si="0"/>
-        <v>2511960.7284728102</v>
+        <v>19543410.941001285</v>
       </c>
       <c r="E20" s="37">
         <f t="shared" si="1"/>
-        <v>2514440.4286690215</v>
+        <v>16533319.24243528</v>
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>202857803.40807101</v>
+        <v>430741896.13074309</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3867,23 +3883,23 @@
       </c>
       <c r="B21" s="38">
         <f t="shared" si="3"/>
-        <v>43038</v>
+        <v>43342</v>
       </c>
       <c r="C21" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D21" s="37">
         <f t="shared" si="0"/>
-        <v>2542715.8673193515</v>
+        <v>20260994.764188737</v>
       </c>
       <c r="E21" s="37">
         <f t="shared" si="1"/>
-        <v>2483685.2898224802</v>
+        <v>15815735.41924783</v>
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>200315087.54075167</v>
+        <v>410480901.36655438</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3892,23 +3908,23 @@
       </c>
       <c r="B22" s="38">
         <f t="shared" si="3"/>
-        <v>43069</v>
+        <v>43434</v>
       </c>
       <c r="C22" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D22" s="37">
         <f t="shared" si="0"/>
-        <v>2573847.5560676288</v>
+        <v>21004926.4211732</v>
       </c>
       <c r="E22" s="37">
         <f t="shared" si="1"/>
-        <v>2452553.6010742029</v>
+        <v>15071803.762263365</v>
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>197741239.98468405</v>
+        <v>389475974.94538116</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3917,23 +3933,23 @@
       </c>
       <c r="B23" s="38">
         <f t="shared" si="3"/>
-        <v>43099</v>
+        <v>43524</v>
       </c>
       <c r="C23" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D23" s="37">
         <f t="shared" si="0"/>
-        <v>2605360.4049985185</v>
+        <v>21776173.33669778</v>
       </c>
       <c r="E23" s="37">
         <f t="shared" si="1"/>
-        <v>2421040.7521433132</v>
+        <v>14300556.846738787</v>
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>195135879.57968554</v>
+        <v>367699801.60868341</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3942,23 +3958,23 @@
       </c>
       <c r="B24" s="38">
         <f t="shared" si="3"/>
-        <v>43130</v>
+        <v>43615</v>
       </c>
       <c r="C24" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D24" s="37">
         <f t="shared" si="0"/>
-        <v>2637259.0808387762</v>
+        <v>22575738.456855845</v>
       </c>
       <c r="E24" s="37">
         <f t="shared" si="1"/>
-        <v>2389142.0763030555</v>
+        <v>13500991.72658072</v>
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>192498620.49884677</v>
+        <v>345124063.15182757</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3967,23 +3983,23 @@
       </c>
       <c r="B25" s="38">
         <f t="shared" si="3"/>
-        <v>43159</v>
+        <v>43707</v>
       </c>
       <c r="C25" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D25" s="37">
         <f t="shared" si="0"/>
-        <v>2669548.3074521283</v>
+        <v>23404661.553343758</v>
       </c>
       <c r="E25" s="37">
         <f t="shared" si="1"/>
-        <v>2356852.8496897034</v>
+        <v>12672068.630092809</v>
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>189829072.19139463</v>
+        <v>321719401.5984838</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3992,23 +4008,23 @@
       </c>
       <c r="B26" s="38">
         <f t="shared" si="3"/>
-        <v>43189</v>
+        <v>43799</v>
       </c>
       <c r="C26" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D26" s="37">
         <f t="shared" si="0"/>
-        <v>2702232.8665388287</v>
+        <v>24264020.575602345</v>
       </c>
       <c r="E26" s="37">
         <f t="shared" si="1"/>
-        <v>2324168.290603003</v>
+        <v>11812709.607834218</v>
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>187126839.3248558</v>
+        <v>297455381.02288145</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4017,23 +4033,23 @@
       </c>
       <c r="B27" s="38">
         <f t="shared" si="3"/>
-        <v>43220</v>
+        <v>43890</v>
       </c>
       <c r="C27" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D27" s="37">
         <f t="shared" si="0"/>
-        <v>2735317.5983437789</v>
+        <v>25154933.052605584</v>
       </c>
       <c r="E27" s="37">
         <f t="shared" si="1"/>
-        <v>2291083.5587980528</v>
+        <v>10921797.130830979</v>
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
-        <v>184391521.72651201</v>
+        <v>272300447.97027588</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4042,23 +4058,23 @@
       </c>
       <c r="B28" s="38">
         <f t="shared" si="3"/>
-        <v>43250</v>
+        <v>43981</v>
       </c>
       <c r="C28" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D28" s="37">
         <f t="shared" si="0"/>
-        <v>2768807.4023733176</v>
+        <v>26078557.546119317</v>
       </c>
       <c r="E28" s="37">
         <f t="shared" si="1"/>
-        <v>2257593.7547685141</v>
+        <v>9998172.6373172477</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" ref="F28:F76" si="5">F27-D28</f>
-        <v>181622714.3241387</v>
+        <v>246221890.42415655</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4067,23 +4083,23 @@
       </c>
       <c r="B29" s="38">
         <f t="shared" si="3"/>
-        <v>43281</v>
+        <v>44073</v>
       </c>
       <c r="C29" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D29" s="37">
         <f t="shared" si="0"/>
-        <v>2802707.2381207878</v>
+        <v>27036095.157319926</v>
       </c>
       <c r="E29" s="37">
         <f t="shared" si="1"/>
-        <v>2223693.9190210439</v>
+        <v>9040635.0261166394</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="5"/>
-        <v>178820007.08601791</v>
+        <v>219185795.26683661</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4092,23 +4108,23 @@
       </c>
       <c r="B30" s="38">
         <f t="shared" si="3"/>
-        <v>43311</v>
+        <v>44165</v>
       </c>
       <c r="C30" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D30" s="37">
         <f t="shared" si="0"/>
-        <v>2837022.1258009854</v>
+        <v>28028791.088732161</v>
       </c>
       <c r="E30" s="37">
         <f t="shared" si="1"/>
-        <v>2189379.0313408463</v>
+        <v>8047939.0947044054</v>
       </c>
       <c r="F30" s="37">
         <f t="shared" si="5"/>
-        <v>175982984.96021691</v>
+        <v>191157004.17810446</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4117,23 +4133,23 @@
       </c>
       <c r="B31" s="38">
         <f t="shared" si="3"/>
-        <v>43342</v>
+        <v>44255</v>
       </c>
       <c r="C31" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D31" s="37">
         <f t="shared" si="0"/>
-        <v>2871757.1470936025</v>
+        <v>29057936.263517305</v>
       </c>
       <c r="E31" s="37">
         <f t="shared" si="1"/>
-        <v>2154644.0100482292</v>
+        <v>7018793.9199192589</v>
       </c>
       <c r="F31" s="37">
         <f t="shared" si="5"/>
-        <v>173111227.81312332</v>
+        <v>162099067.91458714</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4142,23 +4158,23 @@
       </c>
       <c r="B32" s="38">
         <f t="shared" si="3"/>
-        <v>43373</v>
+        <v>44346</v>
       </c>
       <c r="C32" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D32" s="37">
         <f t="shared" si="0"/>
-        <v>2906917.4458957687</v>
+        <v>30124869.004217464</v>
       </c>
       <c r="E32" s="37">
         <f t="shared" si="1"/>
-        <v>2119483.711246063</v>
+        <v>5951861.1792190997</v>
       </c>
       <c r="F32" s="37">
         <f t="shared" si="5"/>
-        <v>170204310.36722755</v>
+        <v>131974198.91036968</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4167,23 +4183,23 @@
       </c>
       <c r="B33" s="38">
         <f t="shared" si="3"/>
-        <v>43403</v>
+        <v>44438</v>
       </c>
       <c r="C33" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D33" s="37">
         <f t="shared" si="0"/>
-        <v>2942508.2290838137</v>
+        <v>31230976.773138989</v>
       </c>
       <c r="E33" s="37">
         <f t="shared" si="1"/>
-        <v>2083892.9280580182</v>
+        <v>4845753.4102975754</v>
       </c>
       <c r="F33" s="37">
         <f t="shared" si="5"/>
-        <v>167261802.13814375</v>
+        <v>100743222.13723069</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4192,23 +4208,23 @@
       </c>
       <c r="B34" s="38">
         <f t="shared" si="3"/>
-        <v>43434</v>
+        <v>44530</v>
       </c>
       <c r="C34" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D34" s="37">
         <f t="shared" si="0"/>
-        <v>2978534.7672843463</v>
+        <v>32377697.976638347</v>
       </c>
       <c r="E34" s="37">
         <f t="shared" si="1"/>
-        <v>2047866.3898574854</v>
+        <v>3699032.2067982187</v>
       </c>
       <c r="F34" s="37">
         <f t="shared" si="5"/>
-        <v>164283267.37085941</v>
+        <v>68365524.160592347</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4217,23 +4233,23 @@
       </c>
       <c r="B35" s="38">
         <f t="shared" si="3"/>
-        <v>43464</v>
+        <v>44620</v>
       </c>
       <c r="C35" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D35" s="37">
         <f t="shared" si="0"/>
-        <v>3015002.3956547845</v>
+        <v>33566523.83565671</v>
       </c>
       <c r="E35" s="37">
         <f t="shared" si="1"/>
-        <v>2011398.7614870472</v>
+        <v>2510206.3477798584</v>
       </c>
       <c r="F35" s="37">
         <f t="shared" si="5"/>
-        <v>161268264.97520462</v>
+        <v>34799000.324935637</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4242,23 +4258,23 @@
       </c>
       <c r="B36" s="38">
         <f t="shared" si="3"/>
-        <v>43495</v>
+        <v>44711</v>
       </c>
       <c r="C36" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D36" s="37">
         <f t="shared" si="0"/>
-        <v>3051916.5146734342</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="E36" s="37">
         <f t="shared" si="1"/>
-        <v>1974484.6424683977</v>
+        <v>1277729.8585008015</v>
       </c>
       <c r="F36" s="37">
         <f t="shared" si="5"/>
-        <v>158216348.46053118</v>
+        <v>-1.2665987014770508E-7</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4267,23 +4283,23 @@
       </c>
       <c r="B37" s="38">
         <f t="shared" si="3"/>
-        <v>43524</v>
+        <v>44803</v>
       </c>
       <c r="C37" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D37" s="37">
         <f t="shared" si="0"/>
-        <v>3089282.5909392443</v>
+        <v>36076730.183436573</v>
       </c>
       <c r="E37" s="37">
         <f t="shared" si="1"/>
-        <v>1937118.5662025874</v>
+        <v>-4.6506249159574515E-9</v>
       </c>
       <c r="F37" s="37">
         <f t="shared" si="5"/>
-        <v>155127065.86959192</v>
+        <v>-36076730.183436699</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4292,23 +4308,23 @@
       </c>
       <c r="B38" s="38">
         <f t="shared" si="3"/>
-        <v>43554</v>
+        <v>44895</v>
       </c>
       <c r="C38" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D38" s="37">
         <f t="shared" si="0"/>
-        <v>3127106.1579813547</v>
+        <v>37401374.998575792</v>
       </c>
       <c r="E38" s="37">
         <f t="shared" si="1"/>
-        <v>1899294.9991604767</v>
+        <v>-1324644.8151392243</v>
       </c>
       <c r="F38" s="37">
         <f t="shared" si="5"/>
-        <v>151999959.71161056</v>
+        <v>-73478105.182012498</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4317,23 +4333,23 @@
       </c>
       <c r="B39" s="38">
         <f t="shared" si="3"/>
-        <v>43585</v>
+        <v>44985</v>
       </c>
       <c r="C39" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D39" s="37">
         <f t="shared" si="0"/>
-        <v>3165392.817078555</v>
+        <v>38774657.366989747</v>
       </c>
       <c r="E39" s="37">
         <f t="shared" si="1"/>
-        <v>1861008.3400632767</v>
+        <v>-2697927.1835531811</v>
       </c>
       <c r="F39" s="37">
         <f t="shared" si="5"/>
-        <v>148834566.894532</v>
+        <v>-112252762.54900225</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4342,23 +4358,23 @@
       </c>
       <c r="B40" s="38">
         <f t="shared" si="3"/>
-        <v>43615</v>
+        <v>45076</v>
       </c>
       <c r="C40" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D40" s="37">
         <f t="shared" si="0"/>
-        <v>3204148.2380887726</v>
+        <v>40198363.134636179</v>
       </c>
       <c r="E40" s="37">
         <f t="shared" si="1"/>
-        <v>1822252.9190530591</v>
+        <v>-4121632.9511996116</v>
       </c>
       <c r="F40" s="37">
         <f t="shared" si="5"/>
-        <v>145630418.65644321</v>
+        <v>-152451125.68363842</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4367,23 +4383,23 @@
       </c>
       <c r="B41" s="38">
         <f t="shared" si="3"/>
-        <v>43646</v>
+        <v>45168</v>
       </c>
       <c r="C41" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D41" s="37">
         <f t="shared" si="0"/>
-        <v>3243378.1602887241</v>
+        <v>41674343.719146758</v>
       </c>
       <c r="E41" s="37">
         <f t="shared" si="1"/>
-        <v>1783022.9968531074</v>
+        <v>-5597613.535710196</v>
       </c>
       <c r="F41" s="37">
         <f t="shared" si="5"/>
-        <v>142387040.49615449</v>
+        <v>-194125469.40278518</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4392,23 +4408,23 @@
       </c>
       <c r="B42" s="38">
         <f t="shared" si="3"/>
-        <v>43676</v>
+        <v>45260</v>
       </c>
       <c r="C42" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D42" s="37">
         <f t="shared" si="0"/>
-        <v>3283088.3932238407</v>
+        <v>43204518.517450474</v>
       </c>
       <c r="E42" s="37">
         <f t="shared" si="1"/>
-        <v>1743312.7639179907</v>
+        <v>-7127788.3340139072</v>
       </c>
       <c r="F42" s="37">
         <f t="shared" si="5"/>
-        <v>139103952.10293064</v>
+        <v>-237329987.92023566</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4417,23 +4433,23 @@
       </c>
       <c r="B43" s="38">
         <f t="shared" si="3"/>
-        <v>43707</v>
+        <v>45351</v>
       </c>
       <c r="C43" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D43" s="37">
         <f t="shared" si="0"/>
-        <v>3323284.8175686025</v>
+        <v>44790877.401798666</v>
       </c>
       <c r="E43" s="37">
         <f t="shared" si="1"/>
-        <v>1703116.3395732292</v>
+        <v>-8714147.2183620986</v>
       </c>
       <c r="F43" s="37">
         <f t="shared" si="5"/>
-        <v>135780667.28536204</v>
+        <v>-282120865.32203436</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4442,23 +4458,23 @@
       </c>
       <c r="B44" s="38">
         <f t="shared" si="3"/>
-        <v>43738</v>
+        <v>45442</v>
       </c>
       <c r="C44" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D44" s="37">
         <f t="shared" si="0"/>
-        <v>3363973.3859974034</v>
+        <v>46435483.307437792</v>
       </c>
       <c r="E44" s="37">
         <f t="shared" si="1"/>
-        <v>1662427.7711444285</v>
+        <v>-10358753.124001225</v>
       </c>
       <c r="F44" s="37">
         <f t="shared" si="5"/>
-        <v>132416693.89936464</v>
+        <v>-328556348.62947214</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4467,23 +4483,23 @@
       </c>
       <c r="B45" s="38">
         <f t="shared" si="3"/>
-        <v>43768</v>
+        <v>45534</v>
       </c>
       <c r="C45" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D45" s="37">
         <f t="shared" si="0"/>
-        <v>3405160.1240660837</v>
+        <v>48140474.915294804</v>
       </c>
       <c r="E45" s="37">
         <f t="shared" si="1"/>
-        <v>1621241.0330757482</v>
+        <v>-12063744.73185824</v>
       </c>
       <c r="F45" s="37">
         <f t="shared" si="5"/>
-        <v>129011533.77529855</v>
+        <v>-376696823.54476696</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4492,23 +4508,23 @@
       </c>
       <c r="B46" s="38">
         <f t="shared" si="3"/>
-        <v>43799</v>
+        <v>45626</v>
       </c>
       <c r="C46" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D46" s="37">
         <f t="shared" si="0"/>
-        <v>3446851.1311042504</v>
+        <v>49908069.433163896</v>
       </c>
       <c r="E46" s="37">
         <f t="shared" si="1"/>
-        <v>1579550.026037581</v>
+        <v>-13831339.249727333</v>
       </c>
       <c r="F46" s="37">
         <f t="shared" si="5"/>
-        <v>125564682.6441943</v>
+        <v>-426604892.97793084</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4517,23 +4533,23 @@
       </c>
       <c r="B47" s="38">
         <f t="shared" si="3"/>
-        <v>43829</v>
+        <v>45716</v>
       </c>
       <c r="C47" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D47" s="37">
         <f t="shared" si="0"/>
-        <v>3489052.5811185269</v>
+        <v>51740565.479011238</v>
       </c>
       <c r="E47" s="37">
         <f t="shared" si="1"/>
-        <v>1537348.5760233048</v>
+        <v>-15663835.295574669</v>
       </c>
       <c r="F47" s="37">
         <f t="shared" si="5"/>
-        <v>122075630.06307578</v>
+        <v>-478345458.45694208</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4542,23 +4558,23 @@
       </c>
       <c r="B48" s="38">
         <f t="shared" si="3"/>
-        <v>43860</v>
+        <v>45807</v>
       </c>
       <c r="C48" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D48" s="37">
         <f t="shared" si="0"/>
-        <v>3531770.7237068564</v>
+        <v>53640346.070147246</v>
       </c>
       <c r="E48" s="37">
         <f t="shared" si="1"/>
-        <v>1494630.4334349756</v>
+        <v>-17563615.886710681</v>
       </c>
       <c r="F48" s="37">
         <f t="shared" si="5"/>
-        <v>118543859.33936892</v>
+        <v>-531985804.52708936</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4567,23 +4583,23 @@
       </c>
       <c r="B49" s="38">
         <f t="shared" si="3"/>
-        <v>43890</v>
+        <v>45899</v>
       </c>
       <c r="C49" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D49" s="37">
         <f t="shared" si="0"/>
-        <v>3575011.8849840043</v>
+        <v>55609881.722153649</v>
       </c>
       <c r="E49" s="37">
         <f t="shared" si="1"/>
-        <v>1451389.2721578274</v>
+        <v>-19533151.538717087</v>
       </c>
       <c r="F49" s="37">
         <f t="shared" si="5"/>
-        <v>114968847.45438492</v>
+        <v>-587595686.24924302</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4592,23 +4608,23 @@
       </c>
       <c r="B50" s="38">
         <f t="shared" si="3"/>
-        <v>43920</v>
+        <v>45991</v>
       </c>
       <c r="C50" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D50" s="37">
         <f t="shared" si="0"/>
-        <v>3618782.4685183917</v>
+        <v>57651733.661595106</v>
       </c>
       <c r="E50" s="37">
         <f t="shared" si="1"/>
-        <v>1407618.68862344</v>
+        <v>-21575003.478158545</v>
       </c>
       <c r="F50" s="37">
         <f t="shared" si="5"/>
-        <v>111350064.98586653</v>
+        <v>-645247419.91083813</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4617,23 +4633,23 @@
       </c>
       <c r="B51" s="38">
         <f t="shared" si="3"/>
-        <v>43951</v>
+        <v>46081</v>
       </c>
       <c r="C51" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D51" s="37">
         <f t="shared" si="0"/>
-        <v>3663088.9562803954</v>
+        <v>59768557.156693369</v>
       </c>
       <c r="E51" s="37">
         <f t="shared" si="1"/>
-        <v>1363312.2008614365</v>
+        <v>-23691826.973256808</v>
       </c>
       <c r="F51" s="37">
         <f t="shared" si="5"/>
-        <v>107686976.02958614</v>
+        <v>-705015977.06753147</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4642,23 +4658,23 @@
       </c>
       <c r="B52" s="38">
         <f t="shared" si="3"/>
-        <v>43981</v>
+        <v>46172</v>
       </c>
       <c r="C52" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D52" s="37">
         <f t="shared" si="0"/>
-        <v>3707937.9096022611</v>
+        <v>61963104.970295258</v>
       </c>
       <c r="E52" s="37">
         <f t="shared" si="1"/>
-        <v>1318463.2475395708</v>
+        <v>-25886374.786858693</v>
       </c>
       <c r="F52" s="37">
         <f t="shared" si="5"/>
-        <v>103979038.11998388</v>
+        <v>-766979082.03782678</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4667,23 +4683,23 @@
       </c>
       <c r="B53" s="38">
         <f t="shared" si="3"/>
-        <v>44012</v>
+        <v>46264</v>
       </c>
       <c r="C53" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D53" s="37">
         <f t="shared" si="0"/>
-        <v>3753335.9701497694</v>
+        <v>64238230.939624727</v>
       </c>
       <c r="E53" s="37">
         <f t="shared" si="1"/>
-        <v>1273065.186992062</v>
+        <v>-28161500.756188165</v>
       </c>
       <c r="F53" s="37">
         <f t="shared" si="5"/>
-        <v>100225702.14983411</v>
+        <v>-831217312.97745156</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4692,23 +4708,23 @@
       </c>
       <c r="B54" s="38">
         <f t="shared" si="3"/>
-        <v>44042</v>
+        <v>46356</v>
       </c>
       <c r="C54" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D54" s="37">
         <f t="shared" si="0"/>
-        <v>3799289.8609057991</v>
+        <v>66596893.687474236</v>
       </c>
       <c r="E54" s="37">
         <f t="shared" si="1"/>
-        <v>1227111.2962360326</v>
+        <v>-30520163.504037671</v>
       </c>
       <c r="F54" s="37">
         <f t="shared" si="5"/>
-        <v>96426412.288928315</v>
+        <v>-897814206.66492581</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4717,23 +4733,23 @@
       </c>
       <c r="B55" s="38">
         <f t="shared" si="3"/>
-        <v>44073</v>
+        <v>46446</v>
       </c>
       <c r="C55" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D55" s="37">
         <f t="shared" si="0"/>
-        <v>3845806.3871659273</v>
+        <v>69042160.469661519</v>
       </c>
       <c r="E55" s="37">
         <f t="shared" si="1"/>
-        <v>1180594.7699759046</v>
+        <v>-32965430.28622495</v>
       </c>
       <c r="F55" s="37">
         <f t="shared" si="5"/>
-        <v>92580605.901762381</v>
+        <v>-966856367.13458729</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4742,23 +4758,23 @@
       </c>
       <c r="B56" s="38">
         <f t="shared" si="3"/>
-        <v>44104</v>
+        <v>46537</v>
       </c>
       <c r="C56" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D56" s="37">
         <f t="shared" si="0"/>
-        <v>3892892.4375462271</v>
+        <v>71577211.163755074</v>
       </c>
       <c r="E56" s="37">
         <f t="shared" si="1"/>
-        <v>1133508.7195956048</v>
+        <v>-35500480.980318509</v>
       </c>
       <c r="F56" s="37">
         <f t="shared" si="5"/>
-        <v>88687713.464216158</v>
+        <v>-1038433578.2983423</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4767,23 +4783,23 @@
       </c>
       <c r="B57" s="38">
         <f t="shared" si="3"/>
-        <v>44134</v>
+        <v>46629</v>
       </c>
       <c r="C57" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D57" s="37">
         <f t="shared" si="0"/>
-        <v>3940554.9850033983</v>
+        <v>74205342.40425548</v>
       </c>
       <c r="E57" s="37">
         <f t="shared" si="1"/>
-        <v>1085846.1721384334</v>
+        <v>-38128612.220818907</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="5"/>
-        <v>84747158.479212761</v>
+        <v>-1112638920.7025979</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4792,23 +4808,23 @@
       </c>
       <c r="B58" s="38">
         <f t="shared" si="3"/>
-        <v>44165</v>
+        <v>46721</v>
       </c>
       <c r="C58" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D58" s="37">
         <f t="shared" si="0"/>
-        <v>3988801.0878673918</v>
+        <v>76929971.869609758</v>
       </c>
       <c r="E58" s="37">
         <f t="shared" si="1"/>
-        <v>1037600.0692744399</v>
+        <v>-40853241.686173193</v>
       </c>
       <c r="F58" s="37">
         <f t="shared" si="5"/>
-        <v>80758357.391345367</v>
+        <v>-1189568892.5722077</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4817,23 +4833,23 @@
       </c>
       <c r="B59" s="38">
         <f t="shared" si="3"/>
-        <v>44195</v>
+        <v>46812</v>
       </c>
       <c r="C59" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D59" s="37">
         <f t="shared" si="0"/>
-        <v>4037637.8908866737</v>
+        <v>79754642.726634115</v>
       </c>
       <c r="E59" s="37">
         <f t="shared" si="1"/>
-        <v>988763.26625515812</v>
+        <v>-43677912.543197557</v>
       </c>
       <c r="F59" s="37">
         <f t="shared" si="5"/>
-        <v>76720719.500458688</v>
+        <v>-1269323535.2988417</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4842,23 +4858,23 @@
       </c>
       <c r="B60" s="38">
         <f t="shared" si="3"/>
-        <v>44226</v>
+        <v>46903</v>
       </c>
       <c r="C60" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D60" s="37">
         <f t="shared" si="0"/>
-        <v>4087072.6262862887</v>
+        <v>82683028.238124311</v>
       </c>
       <c r="E60" s="37">
         <f t="shared" si="1"/>
-        <v>939328.5308555431</v>
+        <v>-46606298.054687753</v>
       </c>
       <c r="F60" s="37">
         <f t="shared" si="5"/>
-        <v>72633646.874172404</v>
+        <v>-1352006563.5369661</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4867,23 +4883,23 @@
       </c>
       <c r="B61" s="38">
         <f t="shared" si="3"/>
-        <v>44255</v>
+        <v>46995</v>
       </c>
       <c r="C61" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D61" s="37">
         <f t="shared" si="0"/>
-        <v>4137112.6148388782</v>
+        <v>85718936.539645672</v>
       </c>
       <c r="E61" s="37">
         <f t="shared" si="1"/>
-        <v>889288.54230295343</v>
+        <v>-49642206.356209107</v>
       </c>
       <c r="F61" s="37">
         <f t="shared" si="5"/>
-        <v>68496534.259333521</v>
+        <v>-1437725500.0766118</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4892,23 +4908,23 @@
       </c>
       <c r="B62" s="38">
         <f t="shared" si="3"/>
-        <v>44285</v>
+        <v>47087</v>
       </c>
       <c r="C62" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D62" s="37">
         <f t="shared" si="0"/>
-        <v>4187765.2669488122</v>
+        <v>88866315.591714561</v>
       </c>
       <c r="E62" s="37">
         <f t="shared" si="1"/>
-        <v>838635.89019301964</v>
+        <v>-52789585.408277988</v>
       </c>
       <c r="F62" s="37">
         <f t="shared" si="5"/>
-        <v>64308768.992384709</v>
+        <v>-1526591815.6683264</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4917,23 +4933,23 @@
       </c>
       <c r="B63" s="38">
         <f t="shared" si="3"/>
-        <v>44316</v>
+        <v>47177</v>
       </c>
       <c r="C63" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D63" s="37">
         <f t="shared" si="0"/>
-        <v>4239038.0837495904</v>
+        <v>92129258.313811243</v>
       </c>
       <c r="E63" s="37">
         <f t="shared" si="1"/>
-        <v>787363.07339224161</v>
+        <v>-56052528.130374677</v>
       </c>
       <c r="F63" s="37">
         <f t="shared" si="5"/>
-        <v>60069730.908635117</v>
+        <v>-1618721073.9821377</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4942,23 +4958,23 @@
       </c>
       <c r="B64" s="38">
         <f t="shared" si="3"/>
-        <v>44346</v>
+        <v>47268</v>
       </c>
       <c r="C64" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D64" s="37">
         <f t="shared" si="0"/>
-        <v>4290938.6582146846</v>
+        <v>95512007.906900525</v>
       </c>
       <c r="E64" s="37">
         <f t="shared" si="1"/>
-        <v>735462.49892714689</v>
+        <v>-59435277.723463967</v>
       </c>
       <c r="F64" s="37">
         <f t="shared" si="5"/>
-        <v>55778792.250420436</v>
+        <v>-1714233081.8890381</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4967,23 +4983,23 @@
       </c>
       <c r="B65" s="38">
         <f t="shared" si="3"/>
-        <v>44377</v>
+        <v>47360</v>
       </c>
       <c r="C65" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D65" s="37">
         <f t="shared" si="0"/>
-        <v>4343474.6762819812</v>
+        <v>99018963.371381596</v>
       </c>
       <c r="E65" s="37">
         <f t="shared" si="1"/>
-        <v>682926.48085985077</v>
+        <v>-62942233.187945031</v>
       </c>
       <c r="F65" s="37">
         <f t="shared" si="5"/>
-        <v>51435317.574138455</v>
+        <v>-1813252045.2604196</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4992,23 +5008,23 @@
       </c>
       <c r="B66" s="38">
         <f t="shared" si="3"/>
-        <v>44407</v>
+        <v>47452</v>
       </c>
       <c r="C66" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D66" s="37">
         <f t="shared" si="0"/>
-        <v>4396653.9179919837</v>
+        <v>102654685.22764286</v>
       </c>
       <c r="E66" s="37">
         <f t="shared" si="1"/>
-        <v>629747.23914984812</v>
+        <v>-66577955.044206291</v>
       </c>
       <c r="F66" s="37">
         <f t="shared" si="5"/>
-        <v>47038663.656146474</v>
+        <v>-1915906730.4880624</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5017,23 +5033,23 @@
       </c>
       <c r="B67" s="38">
         <f t="shared" si="3"/>
-        <v>44438</v>
+        <v>47542</v>
       </c>
       <c r="C67" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D67" s="37">
         <f t="shared" si="0"/>
-        <v>4450484.2586399615</v>
+        <v>106423901.44666088</v>
       </c>
       <c r="E67" s="37">
         <f t="shared" si="1"/>
-        <v>575916.89850186987</v>
+        <v>-70347171.263224304</v>
       </c>
       <c r="F67" s="37">
         <f t="shared" si="5"/>
-        <v>42588179.397506513</v>
+        <v>-2022330631.9347234</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5042,23 +5058,23 @@
       </c>
       <c r="B68" s="38">
         <f t="shared" si="3"/>
-        <v>44469</v>
+        <v>47633</v>
       </c>
       <c r="C68" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D68" s="37">
         <f t="shared" si="0"/>
-        <v>4504973.6699421983</v>
+        <v>110331513.59835553</v>
       </c>
       <c r="E68" s="37">
         <f t="shared" si="1"/>
-        <v>521427.48719963362</v>
+        <v>-74254783.414918974</v>
       </c>
       <c r="F68" s="37">
         <f t="shared" si="5"/>
-        <v>38083205.727564313</v>
+        <v>-2132662145.5330789</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5067,23 +5083,23 @@
       </c>
       <c r="B69" s="38">
         <f t="shared" si="3"/>
-        <v>44499</v>
+        <v>47725</v>
       </c>
       <c r="C69" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D69" s="37">
         <f t="shared" si="0"/>
-        <v>4560130.2212165175</v>
+        <v>114382603.22569722</v>
       </c>
       <c r="E69" s="37">
         <f t="shared" si="1"/>
-        <v>466270.93592531438</v>
+        <v>-78305873.042260647</v>
       </c>
       <c r="F69" s="37">
         <f t="shared" si="5"/>
-        <v>33523075.506347794</v>
+        <v>-2247044748.7587762</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5092,23 +5108,23 @@
       </c>
       <c r="B70" s="38">
         <f t="shared" si="3"/>
-        <v>44530</v>
+        <v>47817</v>
       </c>
       <c r="C70" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D70" s="37">
         <f t="shared" si="0"/>
-        <v>4615962.0805772692</v>
+        <v>118582438.45285451</v>
       </c>
       <c r="E70" s="37">
         <f t="shared" si="1"/>
-        <v>410439.07656456286</v>
+        <v>-82505708.269417956</v>
       </c>
       <c r="F70" s="37">
         <f t="shared" si="5"/>
-        <v>28907113.425770525</v>
+        <v>-2365627187.2116308</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5117,23 +5133,23 @@
       </c>
       <c r="B71" s="38">
         <f t="shared" si="3"/>
-        <v>44560</v>
+        <v>47907</v>
       </c>
       <c r="C71" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D71" s="37">
         <f t="shared" si="0"/>
-        <v>4672477.5161449397</v>
+        <v>122936480.83597651</v>
       </c>
       <c r="E71" s="37">
         <f t="shared" si="1"/>
-        <v>353923.64099689177</v>
+        <v>-86859750.652539954</v>
       </c>
       <c r="F71" s="37">
         <f t="shared" si="5"/>
-        <v>24234635.909625586</v>
+        <v>-2488563668.0476074</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5142,23 +5158,23 @@
       </c>
       <c r="B72" s="38">
         <f t="shared" si="3"/>
-        <v>44591</v>
+        <v>47998</v>
       </c>
       <c r="C72" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D72" s="37">
         <f t="shared" si="0"/>
-        <v>4729684.8972705789</v>
+        <v>127450392.46551782</v>
       </c>
       <c r="E72" s="37">
         <f t="shared" si="1"/>
-        <v>296716.25987125275</v>
+        <v>-91373662.282081261</v>
       </c>
       <c r="F72" s="37">
         <f t="shared" si="5"/>
-        <v>19504951.012355007</v>
+        <v>-2616014060.5131254</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5167,23 +5183,23 @@
       </c>
       <c r="B73" s="38">
         <f t="shared" si="3"/>
-        <v>44620</v>
+        <v>48090</v>
       </c>
       <c r="C73" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D73" s="37">
         <f t="shared" si="0"/>
-        <v>4787592.695775209</v>
+        <v>132130043.32934302</v>
       </c>
       <c r="E73" s="37">
         <f t="shared" si="1"/>
-        <v>238808.46136662248</v>
+        <v>-96053313.145906448</v>
       </c>
       <c r="F73" s="37">
         <f t="shared" si="5"/>
-        <v>14717358.316579798</v>
+        <v>-2748144103.8424683</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5192,23 +5208,23 @@
       </c>
       <c r="B74" s="38">
         <f t="shared" si="3"/>
-        <v>44650</v>
+        <v>48182</v>
       </c>
       <c r="C74" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D74" s="37">
         <f t="shared" si="0"/>
-        <v>4846209.4872044185</v>
+        <v>136981518.94618514</v>
       </c>
       <c r="E74" s="37">
         <f t="shared" si="1"/>
-        <v>180191.66993741319</v>
+        <v>-100904788.76274857</v>
       </c>
       <c r="F74" s="37">
         <f t="shared" si="5"/>
-        <v>9871148.8293753788</v>
+        <v>-2885125622.7886534</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5217,23 +5233,23 @@
       </c>
       <c r="B75" s="38">
         <f t="shared" si="3"/>
-        <v>44681</v>
+        <v>48273</v>
       </c>
       <c r="C75" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D75" s="37">
         <f t="shared" si="0"/>
-        <v>4905543.9520983081</v>
+        <v>142011128.27938536</v>
       </c>
       <c r="E75" s="37">
         <f t="shared" si="1"/>
-        <v>120857.20504352351</v>
+        <v>-105934398.09594879</v>
       </c>
       <c r="F75" s="37">
         <f t="shared" si="5"/>
-        <v>4965604.8772770707</v>
+        <v>-3027136751.0680389</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5242,23 +5258,23 @@
       </c>
       <c r="B76" s="38">
         <f t="shared" si="3"/>
-        <v>44711</v>
+        <v>48364</v>
       </c>
       <c r="C76" s="37">
         <f t="shared" si="4"/>
-        <v>5026401.1571418317</v>
+        <v>36076730.183436565</v>
       </c>
       <c r="D76" s="37">
         <f t="shared" si="0"/>
-        <v>4965604.8772769915</v>
+        <v>147225411.94120473</v>
       </c>
       <c r="E76" s="37">
         <f t="shared" si="1"/>
-        <v>60796.279864840209</v>
+        <v>-111148681.75776815</v>
       </c>
       <c r="F76" s="37">
         <f t="shared" si="5"/>
-        <v>7.9162418842315674E-8</v>
+        <v>-3174362163.0092435</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5284,7 +5300,7 @@
       </c>
       <c r="E79" s="40">
         <f ca="1">SUM(E83:INDIRECT(CONCATENATE("E",82+B10)))</f>
-        <v>85211479.636619627</v>
+        <v>191120291.49871498</v>
       </c>
       <c r="F79" s="44"/>
     </row>
@@ -5294,7 +5310,7 @@
       </c>
       <c r="B80" s="95">
         <f>PMT(B9,B10,B11,B12,B79)</f>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="C80" s="47"/>
       <c r="D80" s="46" t="s">
@@ -5302,7 +5318,7 @@
       </c>
       <c r="E80" s="45">
         <f ca="1">F82+E79</f>
-        <v>297936292.63661963</v>
+        <v>695980006.49871492</v>
       </c>
       <c r="F80" s="44"/>
     </row>
@@ -5333,7 +5349,7 @@
       </c>
       <c r="F82" s="39">
         <f>B3</f>
-        <v>212724813</v>
+        <v>504859715</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5342,22 +5358,22 @@
       </c>
       <c r="B83" s="38">
         <f>EDATE($B$7,$B$6*A83)</f>
-        <v>42916</v>
+        <v>42977</v>
       </c>
       <c r="C83" s="37">
         <f>B80</f>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D83" s="37">
         <f t="shared" ref="D83:D142" si="6">C83-E83</f>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="E83" s="37">
         <v>0</v>
       </c>
       <c r="F83" s="37">
         <f t="shared" ref="F83:F94" si="7">F82-D83</f>
-        <v>207759208.12272301</v>
+        <v>470060714.67506421</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5366,23 +5382,23 @@
       </c>
       <c r="B84" s="38">
         <f t="shared" ref="B84:B142" si="8">EDATE($B$7,$B$6*A84)</f>
-        <v>42946</v>
+        <v>43069</v>
       </c>
       <c r="C84" s="37">
         <f t="shared" ref="C84:C142" si="9">$C$83</f>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D84" s="37">
         <f t="shared" si="6"/>
-        <v>2421909.340943269</v>
+        <v>17539578.938104119</v>
       </c>
       <c r="E84" s="37">
         <f t="shared" ref="E84:E142" si="10">F83*$B$9</f>
-        <v>2543695.5363337235</v>
+        <v>17259421.386831645</v>
       </c>
       <c r="F84" s="37">
         <f t="shared" si="7"/>
-        <v>205337298.78177974</v>
+        <v>452521135.73696011</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5391,23 +5407,23 @@
       </c>
       <c r="B85" s="38">
         <f t="shared" si="8"/>
-        <v>42977</v>
+        <v>43159</v>
       </c>
       <c r="C85" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D85" s="37">
         <f t="shared" si="6"/>
-        <v>2451561.9375026631</v>
+        <v>18183587.199993432</v>
       </c>
       <c r="E85" s="37">
         <f t="shared" si="10"/>
-        <v>2514042.9397743293</v>
+        <v>16615413.124942333</v>
       </c>
       <c r="F85" s="37">
         <f t="shared" si="7"/>
-        <v>202885736.84427708</v>
+        <v>434337548.53696668</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5416,23 +5432,23 @@
       </c>
       <c r="B86" s="38">
         <f t="shared" si="8"/>
-        <v>43008</v>
+        <v>43250</v>
       </c>
       <c r="C86" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D86" s="37">
         <f t="shared" si="6"/>
-        <v>2481577.5850102701</v>
+        <v>18851241.790158086</v>
       </c>
       <c r="E86" s="37">
         <f t="shared" si="10"/>
-        <v>2484027.2922667223</v>
+        <v>15947758.534777677</v>
       </c>
       <c r="F86" s="37">
         <f t="shared" si="7"/>
-        <v>200404159.25926682</v>
+        <v>415486306.74680859</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5441,23 +5457,23 @@
       </c>
       <c r="B87" s="38">
         <f t="shared" si="8"/>
-        <v>43038</v>
+        <v>43342</v>
       </c>
       <c r="C87" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D87" s="37">
         <f t="shared" si="6"/>
-        <v>2511960.7284728102</v>
+        <v>19543410.941001289</v>
       </c>
       <c r="E87" s="37">
         <f t="shared" si="10"/>
-        <v>2453644.1488041822</v>
+        <v>15255589.383934474</v>
       </c>
       <c r="F87" s="37">
         <f t="shared" si="7"/>
-        <v>197892198.53079402</v>
+        <v>395942895.80580729</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5466,23 +5482,23 @@
       </c>
       <c r="B88" s="38">
         <f t="shared" si="8"/>
-        <v>43069</v>
+        <v>43434</v>
       </c>
       <c r="C88" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D88" s="37">
         <f t="shared" si="6"/>
-        <v>2542715.8673193515</v>
+        <v>20260994.76418874</v>
       </c>
       <c r="E88" s="37">
         <f t="shared" si="10"/>
-        <v>2422889.0099576409</v>
+        <v>14538005.560747024</v>
       </c>
       <c r="F88" s="37">
         <f t="shared" si="7"/>
-        <v>195349482.66347468</v>
+        <v>375681901.04161853</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5491,23 +5507,23 @@
       </c>
       <c r="B89" s="38">
         <f t="shared" si="8"/>
-        <v>43099</v>
+        <v>43524</v>
       </c>
       <c r="C89" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D89" s="37">
         <f t="shared" si="6"/>
-        <v>2573847.5560676288</v>
+        <v>21004926.421173207</v>
       </c>
       <c r="E89" s="37">
         <f t="shared" si="10"/>
-        <v>2391757.3212093636</v>
+        <v>13794073.903762557</v>
       </c>
       <c r="F89" s="37">
         <f t="shared" si="7"/>
-        <v>192775635.10740706</v>
+        <v>354676974.62044531</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5516,23 +5532,23 @@
       </c>
       <c r="B90" s="38">
         <f t="shared" si="8"/>
-        <v>43130</v>
+        <v>43615</v>
       </c>
       <c r="C90" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D90" s="37">
         <f t="shared" si="6"/>
-        <v>2605360.4049985185</v>
+        <v>21776173.336697787</v>
       </c>
       <c r="E90" s="37">
         <f t="shared" si="10"/>
-        <v>2360244.4722784739</v>
+        <v>13022826.988237979</v>
       </c>
       <c r="F90" s="37">
         <f t="shared" si="7"/>
-        <v>190170274.70240855</v>
+        <v>332900801.28374755</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5541,23 +5557,23 @@
       </c>
       <c r="B91" s="38">
         <f t="shared" si="8"/>
-        <v>43159</v>
+        <v>43707</v>
       </c>
       <c r="C91" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D91" s="37">
         <f t="shared" si="6"/>
-        <v>2637259.0808387762</v>
+        <v>22575738.456855852</v>
       </c>
       <c r="E91" s="37">
         <f t="shared" si="10"/>
-        <v>2328345.7964382162</v>
+        <v>12223261.868079912</v>
       </c>
       <c r="F91" s="37">
         <f t="shared" si="7"/>
-        <v>187533015.62156978</v>
+        <v>310325062.82689172</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5566,23 +5582,23 @@
       </c>
       <c r="B92" s="38">
         <f t="shared" si="8"/>
-        <v>43189</v>
+        <v>43799</v>
       </c>
       <c r="C92" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D92" s="37">
         <f t="shared" si="6"/>
-        <v>2669548.3074521278</v>
+        <v>23404661.553343765</v>
       </c>
       <c r="E92" s="37">
         <f t="shared" si="10"/>
-        <v>2296056.5698248646</v>
+        <v>11394338.771591999</v>
       </c>
       <c r="F92" s="37">
         <f t="shared" si="7"/>
-        <v>184863467.31411764</v>
+        <v>286920401.27354795</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5591,23 +5607,23 @@
       </c>
       <c r="B93" s="38">
         <f t="shared" si="8"/>
-        <v>43220</v>
+        <v>43890</v>
       </c>
       <c r="C93" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D93" s="37">
         <f t="shared" si="6"/>
-        <v>2702232.8665388287</v>
+        <v>24264020.575602356</v>
       </c>
       <c r="E93" s="37">
         <f t="shared" si="10"/>
-        <v>2263372.0107381637</v>
+        <v>10534979.749333408</v>
       </c>
       <c r="F93" s="37">
         <f t="shared" si="7"/>
-        <v>182161234.44757882</v>
+        <v>262656380.69794559</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5616,23 +5632,23 @@
       </c>
       <c r="B94" s="38">
         <f t="shared" si="8"/>
-        <v>43250</v>
+        <v>43981</v>
       </c>
       <c r="C94" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D94" s="37">
         <f t="shared" si="6"/>
-        <v>2735317.5983437784</v>
+        <v>25154933.052605595</v>
       </c>
       <c r="E94" s="37">
         <f t="shared" si="10"/>
-        <v>2230287.278933214</v>
+        <v>9644067.2723301686</v>
       </c>
       <c r="F94" s="37">
         <f t="shared" si="7"/>
-        <v>179425916.84923503</v>
+        <v>237501447.64534</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5641,23 +5657,23 @@
       </c>
       <c r="B95" s="38">
         <f t="shared" si="8"/>
-        <v>43281</v>
+        <v>44073</v>
       </c>
       <c r="C95" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D95" s="37">
         <f t="shared" si="6"/>
-        <v>2768807.4023733176</v>
+        <v>26078557.546119325</v>
       </c>
       <c r="E95" s="37">
         <f t="shared" si="10"/>
-        <v>2196797.4749036748</v>
+        <v>8720442.7788164373</v>
       </c>
       <c r="F95" s="37">
         <f t="shared" ref="F95:F142" si="11">F94-D95</f>
-        <v>176657109.44686171</v>
+        <v>211422890.09922066</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5666,23 +5682,23 @@
       </c>
       <c r="B96" s="38">
         <f t="shared" si="8"/>
-        <v>43311</v>
+        <v>44165</v>
       </c>
       <c r="C96" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D96" s="37">
         <f t="shared" si="6"/>
-        <v>2802707.2381207878</v>
+        <v>27036095.157319937</v>
       </c>
       <c r="E96" s="37">
         <f t="shared" si="10"/>
-        <v>2162897.6391562046</v>
+        <v>7762905.1676158281</v>
       </c>
       <c r="F96" s="37">
         <f t="shared" si="11"/>
-        <v>173854402.20874092</v>
+        <v>184386794.94190073</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5691,23 +5707,23 @@
       </c>
       <c r="B97" s="38">
         <f t="shared" si="8"/>
-        <v>43342</v>
+        <v>44255</v>
       </c>
       <c r="C97" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D97" s="37">
         <f t="shared" si="6"/>
-        <v>2837022.1258009854</v>
+        <v>28028791.088732168</v>
       </c>
       <c r="E97" s="37">
         <f t="shared" si="10"/>
-        <v>2128582.751476007</v>
+        <v>6770209.2362035941</v>
       </c>
       <c r="F97" s="37">
         <f t="shared" si="11"/>
-        <v>171017380.08293992</v>
+        <v>156358003.85316855</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5716,23 +5732,23 @@
       </c>
       <c r="B98" s="38">
         <f t="shared" si="8"/>
-        <v>43373</v>
+        <v>44346</v>
       </c>
       <c r="C98" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D98" s="37">
         <f t="shared" si="6"/>
-        <v>2871757.1470936025</v>
+        <v>29057936.263517316</v>
       </c>
       <c r="E98" s="37">
         <f t="shared" si="10"/>
-        <v>2093847.7301833902</v>
+        <v>5741064.0614184467</v>
       </c>
       <c r="F98" s="37">
         <f t="shared" si="11"/>
-        <v>168145622.93584633</v>
+        <v>127300067.58965123</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5741,23 +5757,23 @@
       </c>
       <c r="B99" s="38">
         <f t="shared" si="8"/>
-        <v>43403</v>
+        <v>44438</v>
       </c>
       <c r="C99" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D99" s="37">
         <f t="shared" si="6"/>
-        <v>2906917.4458957687</v>
+        <v>30124869.004217476</v>
       </c>
       <c r="E99" s="37">
         <f t="shared" si="10"/>
-        <v>2058687.4313812237</v>
+        <v>4674131.3207182875</v>
       </c>
       <c r="F99" s="37">
         <f t="shared" si="11"/>
-        <v>165238705.48995057</v>
+        <v>97175198.585433751</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5766,23 +5782,23 @@
       </c>
       <c r="B100" s="38">
         <f t="shared" si="8"/>
-        <v>43434</v>
+        <v>44530</v>
       </c>
       <c r="C100" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D100" s="37">
         <f t="shared" si="6"/>
-        <v>2942508.2290838137</v>
+        <v>31230976.773139</v>
       </c>
       <c r="E100" s="37">
         <f t="shared" si="10"/>
-        <v>2023096.6481931789</v>
+        <v>3568023.5517967632</v>
       </c>
       <c r="F100" s="37">
         <f t="shared" si="11"/>
-        <v>162296197.26086676</v>
+        <v>65944221.812294751</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5791,23 +5807,23 @@
       </c>
       <c r="B101" s="38">
         <f t="shared" si="8"/>
-        <v>43464</v>
+        <v>44620</v>
       </c>
       <c r="C101" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D101" s="37">
         <f t="shared" si="6"/>
-        <v>2978534.7672843463</v>
+        <v>32377697.976638358</v>
       </c>
       <c r="E101" s="37">
         <f t="shared" si="10"/>
-        <v>1987070.1099926461</v>
+        <v>2421302.348297406</v>
       </c>
       <c r="F101" s="37">
         <f t="shared" si="11"/>
-        <v>159317662.49358243</v>
+        <v>33566523.83565639</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5816,23 +5832,23 @@
       </c>
       <c r="B102" s="38">
         <f t="shared" si="8"/>
-        <v>43495</v>
+        <v>44711</v>
       </c>
       <c r="C102" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D102" s="37">
         <f t="shared" si="6"/>
-        <v>3015002.3956547845</v>
+        <v>33566523.835656717</v>
       </c>
       <c r="E102" s="37">
         <f t="shared" si="10"/>
-        <v>1950602.4816222081</v>
+        <v>1232476.489279045</v>
       </c>
       <c r="F102" s="37">
         <f t="shared" si="11"/>
-        <v>156302660.09792763</v>
+        <v>-3.2782554626464844E-7</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5841,23 +5857,23 @@
       </c>
       <c r="B103" s="38">
         <f t="shared" si="8"/>
-        <v>43524</v>
+        <v>44803</v>
       </c>
       <c r="C103" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D103" s="37">
         <f t="shared" si="6"/>
-        <v>3051916.5146734342</v>
+        <v>34799000.324935779</v>
       </c>
       <c r="E103" s="37">
         <f t="shared" si="10"/>
-        <v>1913688.3626035585</v>
+        <v>-1.2036911547183991E-8</v>
       </c>
       <c r="F103" s="37">
         <f t="shared" si="11"/>
-        <v>153250743.58325419</v>
+        <v>-34799000.324936107</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -5866,23 +5882,23 @@
       </c>
       <c r="B104" s="38">
         <f t="shared" si="8"/>
-        <v>43554</v>
+        <v>44895</v>
       </c>
       <c r="C104" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D104" s="37">
         <f t="shared" si="6"/>
-        <v>3089282.5909392443</v>
+        <v>36076730.18343658</v>
       </c>
       <c r="E104" s="37">
         <f t="shared" si="10"/>
-        <v>1876322.2863377482</v>
+        <v>-1277729.8585008187</v>
       </c>
       <c r="F104" s="37">
         <f t="shared" si="11"/>
-        <v>150161460.99231493</v>
+        <v>-70875730.508372694</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -5891,23 +5907,23 @@
       </c>
       <c r="B105" s="38">
         <f t="shared" si="8"/>
-        <v>43585</v>
+        <v>44985</v>
       </c>
       <c r="C105" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D105" s="37">
         <f t="shared" si="6"/>
-        <v>3127106.1579813547</v>
+        <v>37401374.998575807</v>
       </c>
       <c r="E105" s="37">
         <f t="shared" si="10"/>
-        <v>1838498.7192956374</v>
+        <v>-2602374.6736400388</v>
       </c>
       <c r="F105" s="37">
         <f t="shared" si="11"/>
-        <v>147034354.83433357</v>
+        <v>-108277105.5069485</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5916,23 +5932,23 @@
       </c>
       <c r="B106" s="38">
         <f t="shared" si="8"/>
-        <v>43615</v>
+        <v>45076</v>
       </c>
       <c r="C106" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D106" s="37">
         <f t="shared" si="6"/>
-        <v>3165392.817078555</v>
+        <v>38774657.366989762</v>
       </c>
       <c r="E106" s="37">
         <f t="shared" si="10"/>
-        <v>1800212.0601984377</v>
+        <v>-3975657.0420539961</v>
       </c>
       <c r="F106" s="37">
         <f t="shared" si="11"/>
-        <v>143868962.01725501</v>
+        <v>-147051762.87393826</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5941,23 +5957,23 @@
       </c>
       <c r="B107" s="38">
         <f t="shared" si="8"/>
-        <v>43646</v>
+        <v>45168</v>
       </c>
       <c r="C107" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D107" s="37">
         <f t="shared" si="6"/>
-        <v>3204148.2380887726</v>
+        <v>40198363.134636194</v>
       </c>
       <c r="E107" s="37">
         <f t="shared" si="10"/>
-        <v>1761456.6391882198</v>
+        <v>-5399362.8097004276</v>
       </c>
       <c r="F107" s="37">
         <f t="shared" si="11"/>
-        <v>140664813.77916622</v>
+        <v>-187250126.00857446</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5966,23 +5982,23 @@
       </c>
       <c r="B108" s="38">
         <f t="shared" si="8"/>
-        <v>43676</v>
+        <v>45260</v>
       </c>
       <c r="C108" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D108" s="37">
         <f t="shared" si="6"/>
-        <v>3243378.1602887241</v>
+        <v>41674343.719146773</v>
       </c>
       <c r="E108" s="37">
         <f t="shared" si="10"/>
-        <v>1722226.7169882681</v>
+        <v>-6875343.3942110129</v>
       </c>
       <c r="F108" s="37">
         <f t="shared" si="11"/>
-        <v>137421435.6188775</v>
+        <v>-228924469.72772121</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -5991,23 +6007,23 @@
       </c>
       <c r="B109" s="38">
         <f t="shared" si="8"/>
-        <v>43707</v>
+        <v>45351</v>
       </c>
       <c r="C109" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D109" s="37">
         <f t="shared" si="6"/>
-        <v>3283088.3932238407</v>
+        <v>43204518.517450489</v>
       </c>
       <c r="E109" s="37">
         <f t="shared" si="10"/>
-        <v>1682516.4840531514</v>
+        <v>-8405518.1925147232</v>
       </c>
       <c r="F109" s="37">
         <f t="shared" si="11"/>
-        <v>134138347.22565366</v>
+        <v>-272128988.24517173</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -6016,23 +6032,23 @@
       </c>
       <c r="B110" s="38">
         <f t="shared" si="8"/>
-        <v>43738</v>
+        <v>45442</v>
       </c>
       <c r="C110" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D110" s="37">
         <f t="shared" si="6"/>
-        <v>3323284.817568602</v>
+        <v>44790877.40179868</v>
       </c>
       <c r="E110" s="37">
         <f t="shared" si="10"/>
-        <v>1642320.0597083904</v>
+        <v>-9991877.0768629164</v>
       </c>
       <c r="F110" s="37">
         <f t="shared" si="11"/>
-        <v>130815062.40808506</v>
+        <v>-316919865.64697039</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6041,23 +6057,23 @@
       </c>
       <c r="B111" s="38">
         <f t="shared" si="8"/>
-        <v>43768</v>
+        <v>45534</v>
       </c>
       <c r="C111" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D111" s="37">
         <f t="shared" si="6"/>
-        <v>3363973.3859974029</v>
+        <v>46435483.307437807</v>
       </c>
       <c r="E111" s="37">
         <f t="shared" si="10"/>
-        <v>1601631.4912795895</v>
+        <v>-11636482.982502041</v>
       </c>
       <c r="F111" s="37">
         <f t="shared" si="11"/>
-        <v>127451089.02208766</v>
+        <v>-363355348.95440817</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6066,23 +6082,23 @@
       </c>
       <c r="B112" s="38">
         <f t="shared" si="8"/>
-        <v>43799</v>
+        <v>45626</v>
       </c>
       <c r="C112" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D112" s="37">
         <f t="shared" si="6"/>
-        <v>3405160.1240660832</v>
+        <v>48140474.915294819</v>
       </c>
       <c r="E112" s="37">
         <f t="shared" si="10"/>
-        <v>1560444.7532109092</v>
+        <v>-13341474.590359056</v>
       </c>
       <c r="F112" s="37">
         <f t="shared" si="11"/>
-        <v>124045928.89802158</v>
+        <v>-411495823.86970299</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6091,23 +6107,23 @@
       </c>
       <c r="B113" s="38">
         <f t="shared" si="8"/>
-        <v>43829</v>
+        <v>45716</v>
       </c>
       <c r="C113" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D113" s="37">
         <f t="shared" si="6"/>
-        <v>3446851.1311042504</v>
+        <v>49908069.433163911</v>
       </c>
       <c r="E113" s="37">
         <f t="shared" si="10"/>
-        <v>1518753.746172742</v>
+        <v>-15109069.108228149</v>
       </c>
       <c r="F113" s="37">
         <f t="shared" si="11"/>
-        <v>120599077.76691733</v>
+        <v>-461403893.30286694</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -6116,23 +6132,23 @@
       </c>
       <c r="B114" s="38">
         <f t="shared" si="8"/>
-        <v>43860</v>
+        <v>45807</v>
       </c>
       <c r="C114" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D114" s="37">
         <f t="shared" si="6"/>
-        <v>3489052.5811185269</v>
+        <v>51740565.479011253</v>
       </c>
       <c r="E114" s="37">
         <f t="shared" si="10"/>
-        <v>1476552.2961584658</v>
+        <v>-16941565.154075485</v>
       </c>
       <c r="F114" s="37">
         <f t="shared" si="11"/>
-        <v>117110025.18579881</v>
+        <v>-513144458.78187817</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6141,23 +6157,23 @@
       </c>
       <c r="B115" s="38">
         <f t="shared" si="8"/>
-        <v>43890</v>
+        <v>45899</v>
       </c>
       <c r="C115" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D115" s="37">
         <f t="shared" si="6"/>
-        <v>3531770.7237068559</v>
+        <v>53640346.070147261</v>
       </c>
       <c r="E115" s="37">
         <f t="shared" si="10"/>
-        <v>1433834.1535701365</v>
+        <v>-18841345.745211497</v>
       </c>
       <c r="F115" s="37">
         <f t="shared" si="11"/>
-        <v>113578254.46209195</v>
+        <v>-566784804.85202539</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -6166,23 +6182,23 @@
       </c>
       <c r="B116" s="38">
         <f t="shared" si="8"/>
-        <v>43920</v>
+        <v>45991</v>
       </c>
       <c r="C116" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D116" s="37">
         <f t="shared" si="6"/>
-        <v>3575011.8849840043</v>
+        <v>55609881.722153664</v>
       </c>
       <c r="E116" s="37">
         <f t="shared" si="10"/>
-        <v>1390592.9922929883</v>
+        <v>-20810881.397217903</v>
       </c>
       <c r="F116" s="37">
         <f t="shared" si="11"/>
-        <v>110003242.57710795</v>
+        <v>-622394686.57417905</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -6191,23 +6207,23 @@
       </c>
       <c r="B117" s="38">
         <f t="shared" si="8"/>
-        <v>43951</v>
+        <v>46081</v>
       </c>
       <c r="C117" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D117" s="37">
         <f t="shared" si="6"/>
-        <v>3618782.4685183913</v>
+        <v>57651733.661595121</v>
       </c>
       <c r="E117" s="37">
         <f t="shared" si="10"/>
-        <v>1346822.4087586009</v>
+        <v>-22852733.336659361</v>
       </c>
       <c r="F117" s="37">
         <f t="shared" si="11"/>
-        <v>106384460.10858956</v>
+        <v>-680046420.23577416</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -6216,23 +6232,23 @@
       </c>
       <c r="B118" s="38">
         <f t="shared" si="8"/>
-        <v>43981</v>
+        <v>46172</v>
       </c>
       <c r="C118" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D118" s="37">
         <f t="shared" si="6"/>
-        <v>3663088.9562803949</v>
+        <v>59768557.156693384</v>
       </c>
       <c r="E118" s="37">
         <f t="shared" si="10"/>
-        <v>1302515.9209965975</v>
+        <v>-24969556.831757624</v>
       </c>
       <c r="F118" s="37">
         <f t="shared" si="11"/>
-        <v>102721371.15230916</v>
+        <v>-739814977.3924675</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -6241,23 +6257,23 @@
       </c>
       <c r="B119" s="38">
         <f t="shared" si="8"/>
-        <v>44012</v>
+        <v>46264</v>
       </c>
       <c r="C119" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D119" s="37">
         <f t="shared" si="6"/>
-        <v>3707937.9096022607</v>
+        <v>61963104.970295273</v>
       </c>
       <c r="E119" s="37">
         <f t="shared" si="10"/>
-        <v>1257666.9676747317</v>
+        <v>-27164104.645359509</v>
       </c>
       <c r="F119" s="37">
         <f t="shared" si="11"/>
-        <v>99013433.24270691</v>
+        <v>-801778082.36276281</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -6266,23 +6282,23 @@
       </c>
       <c r="B120" s="38">
         <f t="shared" si="8"/>
-        <v>44042</v>
+        <v>46356</v>
       </c>
       <c r="C120" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D120" s="37">
         <f t="shared" si="6"/>
-        <v>3753335.9701497694</v>
+        <v>64238230.939624742</v>
       </c>
       <c r="E120" s="37">
         <f t="shared" si="10"/>
-        <v>1212268.907127223</v>
+        <v>-29439230.614688981</v>
       </c>
       <c r="F120" s="37">
         <f t="shared" si="11"/>
-        <v>95260097.272557139</v>
+        <v>-866016313.3023876</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -6291,23 +6307,23 @@
       </c>
       <c r="B121" s="38">
         <f t="shared" si="8"/>
-        <v>44073</v>
+        <v>46446</v>
       </c>
       <c r="C121" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D121" s="37">
         <f t="shared" si="6"/>
-        <v>3799289.8609057991</v>
+        <v>66596893.687474251</v>
       </c>
       <c r="E121" s="37">
         <f t="shared" si="10"/>
-        <v>1166315.0163711936</v>
+        <v>-31797893.362538487</v>
       </c>
       <c r="F121" s="37">
         <f t="shared" si="11"/>
-        <v>91460807.411651343</v>
+        <v>-932613206.98986185</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -6316,23 +6332,23 @@
       </c>
       <c r="B122" s="38">
         <f t="shared" si="8"/>
-        <v>44104</v>
+        <v>46537</v>
       </c>
       <c r="C122" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D122" s="37">
         <f t="shared" si="6"/>
-        <v>3845806.3871659269</v>
+        <v>69042160.469661534</v>
       </c>
       <c r="E122" s="37">
         <f t="shared" si="10"/>
-        <v>1119798.4901110656</v>
+        <v>-34243160.144725762</v>
       </c>
       <c r="F122" s="37">
         <f t="shared" si="11"/>
-        <v>87615001.024485409</v>
+        <v>-1001655367.4595234</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6341,23 +6357,23 @@
       </c>
       <c r="B123" s="38">
         <f t="shared" si="8"/>
-        <v>44134</v>
+        <v>46629</v>
       </c>
       <c r="C123" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D123" s="37">
         <f t="shared" si="6"/>
-        <v>3892892.4375462262</v>
+        <v>71577211.163755089</v>
       </c>
       <c r="E123" s="37">
         <f t="shared" si="10"/>
-        <v>1072712.439730766</v>
+        <v>-36778210.838819332</v>
       </c>
       <c r="F123" s="37">
         <f t="shared" si="11"/>
-        <v>83722108.586939186</v>
+        <v>-1073232578.6232785</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6366,23 +6382,23 @@
       </c>
       <c r="B124" s="38">
         <f t="shared" si="8"/>
-        <v>44165</v>
+        <v>46721</v>
       </c>
       <c r="C124" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D124" s="37">
         <f t="shared" si="6"/>
-        <v>3940554.9850033978</v>
+        <v>74205342.404255494</v>
       </c>
       <c r="E124" s="37">
         <f t="shared" si="10"/>
-        <v>1025049.8922735945</v>
+        <v>-39406342.07931973</v>
       </c>
       <c r="F124" s="37">
         <f t="shared" si="11"/>
-        <v>79781553.601935789</v>
+        <v>-1147437921.027534</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6391,23 +6407,23 @@
       </c>
       <c r="B125" s="38">
         <f t="shared" si="8"/>
-        <v>44195</v>
+        <v>46812</v>
       </c>
       <c r="C125" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D125" s="37">
         <f t="shared" si="6"/>
-        <v>3988801.0878673913</v>
+        <v>76929971.869609773</v>
       </c>
       <c r="E125" s="37">
         <f t="shared" si="10"/>
-        <v>976803.7894096009</v>
+        <v>-42130971.544674009</v>
       </c>
       <c r="F125" s="37">
         <f t="shared" si="11"/>
-        <v>75792752.514068395</v>
+        <v>-1224367892.8971438</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6416,23 +6432,23 @@
       </c>
       <c r="B126" s="38">
         <f t="shared" si="8"/>
-        <v>44226</v>
+        <v>46903</v>
       </c>
       <c r="C126" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D126" s="37">
         <f t="shared" si="6"/>
-        <v>4037637.8908866732</v>
+        <v>79754642.726634145</v>
       </c>
       <c r="E126" s="37">
         <f t="shared" si="10"/>
-        <v>927966.98639031907</v>
+        <v>-44955642.401698381</v>
       </c>
       <c r="F126" s="37">
         <f t="shared" si="11"/>
-        <v>71755114.623181716</v>
+        <v>-1304122535.6237779</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6441,23 +6457,23 @@
       </c>
       <c r="B127" s="38">
         <f t="shared" si="8"/>
-        <v>44255</v>
+        <v>46995</v>
       </c>
       <c r="C127" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D127" s="37">
         <f t="shared" si="6"/>
-        <v>4087072.6262862883</v>
+        <v>82683028.238124341</v>
       </c>
       <c r="E127" s="37">
         <f t="shared" si="10"/>
-        <v>878532.25099070417</v>
+        <v>-47884027.913188577</v>
       </c>
       <c r="F127" s="37">
         <f t="shared" si="11"/>
-        <v>67668041.996895432</v>
+        <v>-1386805563.8619022</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -6466,23 +6482,23 @@
       </c>
       <c r="B128" s="38">
         <f t="shared" si="8"/>
-        <v>44285</v>
+        <v>47087</v>
       </c>
       <c r="C128" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D128" s="37">
         <f t="shared" si="6"/>
-        <v>4137112.6148388782</v>
+        <v>85718936.539645702</v>
       </c>
       <c r="E128" s="37">
         <f t="shared" si="10"/>
-        <v>828492.26243811438</v>
+        <v>-50919936.21470993</v>
       </c>
       <c r="F128" s="37">
         <f t="shared" si="11"/>
-        <v>63530929.382056557</v>
+        <v>-1472524500.4015479</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6491,23 +6507,23 @@
       </c>
       <c r="B129" s="38">
         <f t="shared" si="8"/>
-        <v>44316</v>
+        <v>47177</v>
       </c>
       <c r="C129" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D129" s="37">
         <f t="shared" si="6"/>
-        <v>4187765.2669488117</v>
+        <v>88866315.591714576</v>
       </c>
       <c r="E129" s="37">
         <f t="shared" si="10"/>
-        <v>777839.61032818072</v>
+        <v>-54067315.266778812</v>
       </c>
       <c r="F129" s="37">
         <f t="shared" si="11"/>
-        <v>59343164.115107745</v>
+        <v>-1561390815.9932625</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6516,23 +6532,23 @@
       </c>
       <c r="B130" s="38">
         <f t="shared" si="8"/>
-        <v>44346</v>
+        <v>47268</v>
       </c>
       <c r="C130" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D130" s="37">
         <f t="shared" si="6"/>
-        <v>4239038.0837495895</v>
+        <v>92129258.313811272</v>
       </c>
       <c r="E130" s="37">
         <f t="shared" si="10"/>
-        <v>726566.79352740268</v>
+        <v>-57330257.988875501</v>
       </c>
       <c r="F130" s="37">
         <f t="shared" si="11"/>
-        <v>55104126.031358153</v>
+        <v>-1653520074.3070738</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6541,23 +6557,23 @@
       </c>
       <c r="B131" s="38">
         <f t="shared" si="8"/>
-        <v>44377</v>
+        <v>47360</v>
       </c>
       <c r="C131" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D131" s="37">
         <f t="shared" si="6"/>
-        <v>4290938.6582146846</v>
+        <v>95512007.906900555</v>
       </c>
       <c r="E131" s="37">
         <f t="shared" si="10"/>
-        <v>674666.21906230797</v>
+        <v>-60713007.581964783</v>
       </c>
       <c r="F131" s="37">
         <f t="shared" si="11"/>
-        <v>50813187.373143464</v>
+        <v>-1749032082.2139745</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6566,23 +6582,23 @@
       </c>
       <c r="B132" s="38">
         <f t="shared" si="8"/>
-        <v>44407</v>
+        <v>47452</v>
       </c>
       <c r="C132" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D132" s="37">
         <f t="shared" si="6"/>
-        <v>4343474.6762819802</v>
+        <v>99018963.371381611</v>
       </c>
       <c r="E132" s="37">
         <f t="shared" si="10"/>
-        <v>622130.20099501184</v>
+        <v>-64219963.046445854</v>
       </c>
       <c r="F132" s="37">
         <f t="shared" si="11"/>
-        <v>46469712.696861483</v>
+        <v>-1848051045.585356</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6591,23 +6607,23 @@
       </c>
       <c r="B133" s="38">
         <f t="shared" si="8"/>
-        <v>44438</v>
+        <v>47542</v>
       </c>
       <c r="C133" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D133" s="37">
         <f t="shared" si="6"/>
-        <v>4396653.9179919837</v>
+        <v>102654685.22764288</v>
       </c>
       <c r="E133" s="37">
         <f t="shared" si="10"/>
-        <v>568950.95928500907</v>
+        <v>-67855684.902707115</v>
       </c>
       <c r="F133" s="37">
         <f t="shared" si="11"/>
-        <v>42073058.778869502</v>
+        <v>-1950705730.8129988</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6616,23 +6632,23 @@
       </c>
       <c r="B134" s="38">
         <f t="shared" si="8"/>
-        <v>44469</v>
+        <v>47633</v>
       </c>
       <c r="C134" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D134" s="37">
         <f t="shared" si="6"/>
-        <v>4450484.2586399615</v>
+        <v>106423901.44666089</v>
       </c>
       <c r="E134" s="37">
         <f t="shared" si="10"/>
-        <v>515120.61863703094</v>
+        <v>-71624901.121725127</v>
       </c>
       <c r="F134" s="37">
         <f t="shared" si="11"/>
-        <v>37622574.520229541</v>
+        <v>-2057129632.2596598</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6641,23 +6657,23 @@
       </c>
       <c r="B135" s="38">
         <f t="shared" si="8"/>
-        <v>44499</v>
+        <v>47725</v>
       </c>
       <c r="C135" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D135" s="37">
         <f t="shared" si="6"/>
-        <v>4504973.6699421974</v>
+        <v>110331513.59835556</v>
       </c>
       <c r="E135" s="37">
         <f t="shared" si="10"/>
-        <v>460631.20733479463</v>
+        <v>-75532513.273419797</v>
       </c>
       <c r="F135" s="37">
         <f t="shared" si="11"/>
-        <v>33117600.850287344</v>
+        <v>-2167461145.8580155</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6666,23 +6682,23 @@
       </c>
       <c r="B136" s="38">
         <f t="shared" si="8"/>
-        <v>44530</v>
+        <v>47817</v>
       </c>
       <c r="C136" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D136" s="37">
         <f t="shared" si="6"/>
-        <v>4560130.2212165166</v>
+        <v>114382603.22569725</v>
       </c>
       <c r="E136" s="37">
         <f t="shared" si="10"/>
-        <v>405474.65606047545</v>
+        <v>-79583602.900761485</v>
       </c>
       <c r="F136" s="37">
         <f t="shared" si="11"/>
-        <v>28557470.629070826</v>
+        <v>-2281843749.0837126</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6691,23 +6707,23 @@
       </c>
       <c r="B137" s="38">
         <f t="shared" si="8"/>
-        <v>44560</v>
+        <v>47907</v>
       </c>
       <c r="C137" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D137" s="37">
         <f t="shared" si="6"/>
-        <v>4615962.0805772683</v>
+        <v>118582438.45285454</v>
       </c>
       <c r="E137" s="37">
         <f t="shared" si="10"/>
-        <v>349642.79669972393</v>
+        <v>-83783438.12791878</v>
       </c>
       <c r="F137" s="37">
         <f t="shared" si="11"/>
-        <v>23941508.548493557</v>
+        <v>-2400426187.5365672</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6716,23 +6732,23 @@
       </c>
       <c r="B138" s="38">
         <f t="shared" si="8"/>
-        <v>44591</v>
+        <v>47998</v>
       </c>
       <c r="C138" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D138" s="37">
         <f t="shared" si="6"/>
-        <v>4672477.5161449397</v>
+        <v>122936480.83597656</v>
       </c>
       <c r="E138" s="37">
         <f t="shared" si="10"/>
-        <v>293127.36113205279</v>
+        <v>-88137480.511040792</v>
       </c>
       <c r="F138" s="37">
         <f t="shared" si="11"/>
-        <v>19269031.032348618</v>
+        <v>-2523362668.3725438</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6741,23 +6757,23 @@
       </c>
       <c r="B139" s="38">
         <f t="shared" si="8"/>
-        <v>44620</v>
+        <v>48090</v>
       </c>
       <c r="C139" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D139" s="37">
         <f t="shared" si="6"/>
-        <v>4729684.8972705789</v>
+        <v>127450392.46551786</v>
       </c>
       <c r="E139" s="37">
         <f t="shared" si="10"/>
-        <v>235919.98000641383</v>
+        <v>-92651392.1405821</v>
       </c>
       <c r="F139" s="37">
         <f t="shared" si="11"/>
-        <v>14539346.135078039</v>
+        <v>-2650813060.8380618</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6766,23 +6782,23 @@
       </c>
       <c r="B140" s="38">
         <f t="shared" si="8"/>
-        <v>44650</v>
+        <v>48182</v>
       </c>
       <c r="C140" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D140" s="37">
         <f t="shared" si="6"/>
-        <v>4787592.695775209</v>
+        <v>132130043.32934305</v>
       </c>
       <c r="E140" s="37">
         <f t="shared" si="10"/>
-        <v>178012.18150178352</v>
+        <v>-97331043.004407287</v>
       </c>
       <c r="F140" s="37">
         <f t="shared" si="11"/>
-        <v>9751753.43930283</v>
+        <v>-2782943104.1674047</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -6791,23 +6807,23 @@
       </c>
       <c r="B141" s="38">
         <f t="shared" si="8"/>
-        <v>44681</v>
+        <v>48273</v>
       </c>
       <c r="C141" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D141" s="37">
         <f t="shared" si="6"/>
-        <v>4846209.4872044185</v>
+        <v>136981518.94618517</v>
       </c>
       <c r="E141" s="37">
         <f t="shared" si="10"/>
-        <v>119395.39007257423</v>
+        <v>-102182518.62124939</v>
       </c>
       <c r="F141" s="37">
         <f t="shared" si="11"/>
-        <v>4905543.9520984115</v>
+        <v>-2919924623.1135898</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -6816,40 +6832,40 @@
       </c>
       <c r="B142" s="38">
         <f t="shared" si="8"/>
-        <v>44711</v>
+        <v>48364</v>
       </c>
       <c r="C142" s="37">
         <f t="shared" si="9"/>
-        <v>4965604.8772769924</v>
+        <v>34799000.324935764</v>
       </c>
       <c r="D142" s="37">
         <f t="shared" si="6"/>
-        <v>4905543.9520983081</v>
+        <v>142011128.27938539</v>
       </c>
       <c r="E142" s="37">
         <f t="shared" si="10"/>
-        <v>60060.925178684571</v>
+        <v>-107212127.95444962</v>
       </c>
       <c r="F142" s="37">
         <f t="shared" si="11"/>
-        <v>1.0337680578231812E-7</v>
+        <v>-3061935751.3929753</v>
       </c>
     </row>
     <row r="144" spans="1:6" s="43" customFormat="1" ht="57" customHeight="1">
-      <c r="A144" s="117" t="s">
+      <c r="A144" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="B144" s="117"/>
-      <c r="C144" s="117"/>
-      <c r="D144" s="117"/>
-      <c r="E144" s="117"/>
-      <c r="F144" s="117"/>
+      <c r="B144" s="118"/>
+      <c r="C144" s="118"/>
+      <c r="D144" s="118"/>
+      <c r="E144" s="118"/>
+      <c r="F144" s="118"/>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B146" s="42">
+      <c r="B146">
         <v>3</v>
       </c>
     </row>
@@ -6865,7 +6881,7 @@
       </c>
       <c r="E147" s="44">
         <f ca="1">SUM(E151:INDIRECT(CONCATENATE("E",150+B10)))</f>
-        <v>91855849.124388173</v>
+        <v>238390959.68695456</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -6874,14 +6890,14 @@
       </c>
       <c r="B148" s="95">
         <f ca="1">PMT(B9,B10-B146,-INDIRECT(CONCATENATE("F",150+B146)),0,0)</f>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D148" s="79" t="s">
         <v>70</v>
       </c>
       <c r="E148" s="44">
         <f ca="1">F150+E147</f>
-        <v>304580662.12438816</v>
+        <v>743250674.6869545</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -6912,7 +6928,7 @@
       </c>
       <c r="F150" s="39">
         <f>B3</f>
-        <v>212724813</v>
+        <v>504859715</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -6921,11 +6937,11 @@
       </c>
       <c r="B151" s="38">
         <f t="shared" ref="B151:B210" si="12">EDATE($B$7,$B$6*A151)</f>
-        <v>42916</v>
+        <v>42977</v>
       </c>
       <c r="C151" s="78">
         <f>IF($B$146&gt;=A151,IF($B$15&lt;&gt;0,CEILING(E151,$B$15),E151),$B$148)</f>
-        <v>2605000</v>
+        <v>18538000</v>
       </c>
       <c r="D151" s="103">
         <f>IF($B$146&gt;=$A151,0,C151-E151)</f>
@@ -6933,11 +6949,11 @@
       </c>
       <c r="E151" s="78">
         <f>IF($B$146&gt;=A151,IF($B$15&lt;&gt;0,CEILING(F150*$B$9,B$15),F150*$B$9),F150*$B$9)</f>
-        <v>2605000</v>
+        <v>18538000</v>
       </c>
       <c r="F151" s="78">
         <f>F150-D151</f>
-        <v>212724813</v>
+        <v>504859715</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -6946,11 +6962,11 @@
       </c>
       <c r="B152" s="38">
         <f t="shared" si="12"/>
-        <v>42946</v>
+        <v>43069</v>
       </c>
       <c r="C152" s="78">
         <f t="shared" ref="C152:C210" si="13">IF($B$146&gt;=A152,IF($B$15&lt;&gt;0,CEILING(E152,$B$15),E152),$B$148)</f>
-        <v>2605000</v>
+        <v>18538000</v>
       </c>
       <c r="D152" s="103">
         <f t="shared" ref="D152:D210" si="14">IF($B$146&gt;=$A152,0,C152-E152)</f>
@@ -6958,11 +6974,11 @@
       </c>
       <c r="E152" s="78">
         <f t="shared" ref="E152:E210" si="15">IF($B$146&gt;=A152,IF($B$15&lt;&gt;0,CEILING(F151*$B$9,B$15),F151*$B$9),F151*$B$9)</f>
-        <v>2605000</v>
+        <v>18538000</v>
       </c>
       <c r="F152" s="78">
         <f t="shared" ref="F152:F162" si="16">F151-D152</f>
-        <v>212724813</v>
+        <v>504859715</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -6971,11 +6987,11 @@
       </c>
       <c r="B153" s="38">
         <f t="shared" si="12"/>
-        <v>42977</v>
+        <v>43159</v>
       </c>
       <c r="C153" s="78">
         <f t="shared" si="13"/>
-        <v>2605000</v>
+        <v>18538000</v>
       </c>
       <c r="D153" s="103">
         <f t="shared" si="14"/>
@@ -6983,11 +6999,11 @@
       </c>
       <c r="E153" s="78">
         <f t="shared" si="15"/>
-        <v>2605000</v>
+        <v>18538000</v>
       </c>
       <c r="F153" s="78">
         <f>F152-D153</f>
-        <v>212724813</v>
+        <v>504859715</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -6996,23 +7012,23 @@
       </c>
       <c r="B154" s="38">
         <f t="shared" si="12"/>
-        <v>43008</v>
+        <v>43250</v>
       </c>
       <c r="C154" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D154" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2601923.3087907038</v>
+        <v>21912064.912723705</v>
       </c>
       <c r="E154" s="78">
         <f t="shared" si="15"/>
-        <v>2604491.8161985627</v>
+        <v>18537151.24533245</v>
       </c>
       <c r="F154" s="78">
         <f ca="1">F153-D154</f>
-        <v>210122889.69120929</v>
+        <v>482947650.08727628</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -7021,23 +7037,23 @@
       </c>
       <c r="B155" s="38">
         <f t="shared" si="12"/>
-        <v>43038</v>
+        <v>43342</v>
       </c>
       <c r="C155" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D155" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2633779.9026151472</v>
+        <v>22716619.622312091</v>
       </c>
       <c r="E155" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2572635.2223741193</v>
+        <v>17732596.535744064</v>
       </c>
       <c r="F155" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>207489109.78859413</v>
+        <v>460231030.46496421</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -7046,23 +7062,23 @@
       </c>
       <c r="B156" s="38">
         <f t="shared" si="12"/>
-        <v>43069</v>
+        <v>43434</v>
       </c>
       <c r="C156" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D156" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2666026.5319824014</v>
+        <v>23550715.513130963</v>
       </c>
       <c r="E156" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2540388.5930068651</v>
+        <v>16898500.644925192</v>
       </c>
       <c r="F156" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>204823083.25661173</v>
+        <v>436680314.95183325</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -7071,23 +7087,23 @@
       </c>
       <c r="B157" s="38">
         <f t="shared" si="12"/>
-        <v>43099</v>
+        <v>43524</v>
       </c>
       <c r="C157" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D157" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2698667.9722845084</v>
+        <v>24415437.261434264</v>
       </c>
       <c r="E157" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2507747.1527047581</v>
+        <v>16033778.896621892</v>
       </c>
       <c r="F157" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>202124415.28432724</v>
+        <v>412264877.69039899</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -7096,23 +7112,23 @@
       </c>
       <c r="B158" s="38">
         <f t="shared" si="12"/>
-        <v>43130</v>
+        <v>43615</v>
       </c>
       <c r="C158" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D158" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2731709.057380924</v>
+        <v>25311909.37000037</v>
       </c>
       <c r="E158" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2474706.0676083425</v>
+        <v>15137306.788055787</v>
       </c>
       <c r="F158" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>199392706.22694632</v>
+        <v>386952968.32039863</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -7121,23 +7137,23 @@
       </c>
       <c r="B159" s="38">
         <f t="shared" si="12"/>
-        <v>43159</v>
+        <v>43707</v>
       </c>
       <c r="C159" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D159" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2765154.680314362</v>
+        <v>26241297.6304597</v>
       </c>
       <c r="E159" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2441260.4446749045</v>
+        <v>14207918.527596455</v>
       </c>
       <c r="F159" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>196627551.54663196</v>
+        <v>360711670.6899389</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -7146,23 +7162,23 @@
       </c>
       <c r="B160" s="38">
         <f t="shared" si="12"/>
-        <v>43189</v>
+        <v>43799</v>
       </c>
       <c r="C160" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D160" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2799009.7940354017</v>
+        <v>27204810.63931527</v>
       </c>
       <c r="E160" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2407405.3309538648</v>
+        <v>13244405.518740885</v>
       </c>
       <c r="F160" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>193828541.75259656</v>
+        <v>333506860.05062366</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -7171,23 +7187,23 @@
       </c>
       <c r="B161" s="38">
         <f t="shared" si="12"/>
-        <v>43220</v>
+        <v>43890</v>
       </c>
       <c r="C161" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D161" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2833279.4121359703</v>
+        <v>28203701.369627584</v>
       </c>
       <c r="E161" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2373135.7128532962</v>
+        <v>12245514.788428571</v>
       </c>
       <c r="F161" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>190995262.3404606</v>
+        <v>305303158.68099606</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -7196,23 +7212,23 @@
       </c>
       <c r="B162" s="38">
         <f t="shared" si="12"/>
-        <v>43250</v>
+        <v>43981</v>
       </c>
       <c r="C162" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D162" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2867968.6095918021</v>
+        <v>29239268.80040779</v>
       </c>
       <c r="E162" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2338446.5153974644</v>
+        <v>11209947.357648365</v>
       </c>
       <c r="F162" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>188127293.73086879</v>
+        <v>276063889.88058829</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -7221,23 +7237,23 @@
       </c>
       <c r="B163" s="38">
         <f t="shared" si="12"/>
-        <v>43281</v>
+        <v>44073</v>
       </c>
       <c r="C163" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D163" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2903082.5235139937</v>
+        <v>30312859.605837945</v>
       </c>
       <c r="E163" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2303332.6014752728</v>
+        <v>10136356.55221821</v>
       </c>
       <c r="F163" s="78">
         <f t="shared" ref="F163:F210" ca="1" si="17">F162-D163</f>
-        <v>185224211.20735478</v>
+        <v>245751030.27475035</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -7246,23 +7262,23 @@
       </c>
       <c r="B164" s="38">
         <f t="shared" si="12"/>
-        <v>43311</v>
+        <v>44165</v>
       </c>
       <c r="C164" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D164" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2938626.3539097514</v>
+        <v>31425869.906515129</v>
       </c>
       <c r="E164" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2267788.7710795151</v>
+        <v>9023346.2515410278</v>
       </c>
       <c r="F164" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>182285584.85344502</v>
+        <v>214325160.36823523</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -7271,23 +7287,23 @@
       </c>
       <c r="B165" s="38">
         <f t="shared" si="12"/>
-        <v>43342</v>
+        <v>44255</v>
       </c>
       <c r="C165" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D165" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2974605.3644524631</v>
+        <v>32579747.084996704</v>
       </c>
       <c r="E165" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2231809.7605368034</v>
+        <v>7869469.0730594518</v>
       </c>
       <c r="F165" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>179310979.48899257</v>
+        <v>181745413.28323853</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -7296,23 +7312,23 @@
       </c>
       <c r="B166" s="38">
         <f t="shared" si="12"/>
-        <v>43373</v>
+        <v>44346</v>
       </c>
       <c r="C166" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D166" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3011024.8832611917</v>
+        <v>33775991.668007776</v>
       </c>
       <c r="E166" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2195390.2417280748</v>
+        <v>6673224.4900483815</v>
       </c>
       <c r="F166" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>176299954.60573137</v>
+        <v>147969421.61523074</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -7321,23 +7337,23 @@
       </c>
       <c r="B167" s="38">
         <f t="shared" si="12"/>
-        <v>43403</v>
+        <v>44438</v>
       </c>
       <c r="C167" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D167" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3047890.303689715</v>
+        <v>35016159.277758434</v>
       </c>
       <c r="E167" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2158524.8212995515</v>
+        <v>5433056.8802977223</v>
       </c>
       <c r="F167" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>173252064.30204165</v>
+        <v>112953262.3374723</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -7346,23 +7362,23 @@
       </c>
       <c r="B168" s="38">
         <f t="shared" si="12"/>
-        <v>43434</v>
+        <v>44530</v>
       </c>
       <c r="C168" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D168" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3085207.0851252256</v>
+        <v>36301862.654908381</v>
       </c>
       <c r="E168" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2121208.0398640409</v>
+        <v>4147353.5031477758</v>
       </c>
       <c r="F168" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>170166857.21691641</v>
+        <v>76651399.682563931</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -7371,23 +7387,23 @@
       </c>
       <c r="B169" s="38">
         <f t="shared" si="12"/>
-        <v>43464</v>
+        <v>44620</v>
       </c>
       <c r="C169" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D169" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3122980.7537968089</v>
+        <v>37634773.75580959</v>
       </c>
       <c r="E169" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2083434.3711924576</v>
+        <v>2814442.4022465637</v>
       </c>
       <c r="F169" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>167043876.4631196</v>
+        <v>39016625.926754341</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -7396,23 +7412,23 @@
       </c>
       <c r="B170" s="38">
         <f t="shared" si="12"/>
-        <v>43495</v>
+        <v>44711</v>
       </c>
       <c r="C170" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D170" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3161216.9035938215</v>
+        <v>39016625.92675437</v>
       </c>
       <c r="E170" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2045198.2213954453</v>
+        <v>1432590.2313017878</v>
       </c>
       <c r="F170" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>163882659.55952579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -7421,23 +7437,23 @@
       </c>
       <c r="B171" s="38">
         <f t="shared" si="12"/>
-        <v>43524</v>
+        <v>44803</v>
       </c>
       <c r="C171" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D171" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3199921.1968942862</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="E171" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2006493.9280949801</v>
+        <v>0</v>
       </c>
       <c r="F171" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>160682738.3626315</v>
+        <v>-40449216.158056155</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -7446,23 +7462,23 @@
       </c>
       <c r="B172" s="38">
         <f t="shared" si="12"/>
-        <v>43554</v>
+        <v>44895</v>
       </c>
       <c r="C172" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D172" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3239099.3654034371</v>
+        <v>41934407.420894451</v>
       </c>
       <c r="E172" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1967315.7595858297</v>
+        <v>-1485191.2628382959</v>
       </c>
       <c r="F172" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>157443638.99722806</v>
+        <v>-82383623.578950614</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -7471,23 +7487,23 @@
       </c>
       <c r="B173" s="38">
         <f t="shared" si="12"/>
-        <v>43585</v>
+        <v>44985</v>
       </c>
       <c r="C173" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D173" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3278757.211002517</v>
+        <v>43474131.089962624</v>
       </c>
       <c r="E173" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1927657.9139867495</v>
+        <v>-3024914.9319064687</v>
       </c>
       <c r="F173" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>154164881.78622553</v>
+        <v>-125857754.66891325</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -7496,23 +7512,23 @@
       </c>
       <c r="B174" s="38">
         <f t="shared" si="12"/>
-        <v>43615</v>
+        <v>45076</v>
       </c>
       <c r="C174" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D174" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3318900.6066079848</v>
+        <v>45070389.455069155</v>
       </c>
       <c r="E174" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1887514.518381282</v>
+        <v>-4621173.2970129959</v>
       </c>
       <c r="F174" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>150845981.17961755</v>
+        <v>-170928144.1239824</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -7521,23 +7537,23 @@
       </c>
       <c r="B175" s="38">
         <f t="shared" si="12"/>
-        <v>43646</v>
+        <v>45168</v>
       </c>
       <c r="C175" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D175" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3359535.4970412264</v>
+        <v>46725258.324958391</v>
       </c>
       <c r="E175" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1846879.6279480399</v>
+        <v>-6276042.1669022357</v>
       </c>
       <c r="F175" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>147486445.68257633</v>
+        <v>-217653402.44894078</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -7546,23 +7562,23 @@
       </c>
       <c r="B176" s="38">
         <f t="shared" si="12"/>
-        <v>43676</v>
+        <v>45260</v>
       </c>
       <c r="C176" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D176" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3400667.8999089282</v>
+        <v>48440889.72673697</v>
       </c>
       <c r="E176" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1805747.2250803385</v>
+        <v>-7991673.5686808126</v>
       </c>
       <c r="F176" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>144085777.7826674</v>
+        <v>-266094292.17567775</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -7571,23 +7587,23 @@
       </c>
       <c r="B177" s="38">
         <f t="shared" si="12"/>
-        <v>43707</v>
+        <v>45351</v>
       </c>
       <c r="C177" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D177" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3442303.9064942151</v>
+        <v>50219514.704416148</v>
       </c>
       <c r="E177" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1764111.2184950514</v>
+        <v>-9770298.5463599954</v>
       </c>
       <c r="F177" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>140643473.8761732</v>
+        <v>-316313806.88009387</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -7596,23 +7612,23 @@
       </c>
       <c r="B178" s="38">
         <f t="shared" si="12"/>
-        <v>43738</v>
+        <v>45442</v>
       </c>
       <c r="C178" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D178" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3484449.6826587124</v>
+        <v>52063446.220209524</v>
       </c>
       <c r="E178" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1721965.4423305544</v>
+        <v>-11614230.062153365</v>
       </c>
       <c r="F178" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>137159024.1935145</v>
+        <v>-368377253.10030341</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -7621,23 +7637,23 @@
       </c>
       <c r="B179" s="38">
         <f t="shared" si="12"/>
-        <v>43768</v>
+        <v>45534</v>
       </c>
       <c r="C179" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D179" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3527111.4697556421</v>
+        <v>53975082.162358828</v>
       </c>
       <c r="E179" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1679303.6552336242</v>
+        <v>-13525866.004302675</v>
       </c>
       <c r="F179" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>133631912.72375885</v>
+        <v>-422352335.26266223</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -7646,23 +7662,23 @@
       </c>
       <c r="B180" s="38">
         <f t="shared" si="12"/>
-        <v>43799</v>
+        <v>45626</v>
       </c>
       <c r="C180" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D180" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3570295.5855541066</v>
+        <v>55956908.463399485</v>
       </c>
       <c r="E180" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1636119.5394351599</v>
+        <v>-15507692.305343334</v>
       </c>
       <c r="F180" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>130061617.13820474</v>
+        <v>-478309243.7260617</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -7671,23 +7687,23 @@
       </c>
       <c r="B181" s="38">
         <f t="shared" si="12"/>
-        <v>43829</v>
+        <v>45716</v>
       </c>
       <c r="C181" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D181" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3614008.4251746805</v>
+        <v>58011502.332920767</v>
       </c>
       <c r="E181" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1592406.6998145862</v>
+        <v>-17562286.174864613</v>
       </c>
       <c r="F181" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>126447608.71303006</v>
+        <v>-536320746.05898249</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -7696,23 +7712,23 @@
       </c>
       <c r="B182" s="38">
         <f t="shared" si="12"/>
-        <v>43860</v>
+        <v>45807</v>
       </c>
       <c r="C182" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D182" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3658256.4620364644</v>
+        <v>60141535.609024622</v>
       </c>
       <c r="E182" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1548158.6629528021</v>
+        <v>-19692319.450968467</v>
       </c>
       <c r="F182" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>122789352.25099359</v>
+        <v>-596462281.66800714</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -7721,23 +7737,23 @@
       </c>
       <c r="B183" s="38">
         <f t="shared" si="12"/>
-        <v>43890</v>
+        <v>45899</v>
       </c>
       <c r="C183" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D183" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3703046.2488157311</v>
+        <v>62349778.232841492</v>
       </c>
       <c r="E183" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1503368.8761735351</v>
+        <v>-21900562.074785337</v>
       </c>
       <c r="F183" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>119086306.00217786</v>
+        <v>-658812059.90084863</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -7746,23 +7762,23 @@
       </c>
       <c r="B184" s="38">
         <f t="shared" si="12"/>
-        <v>43920</v>
+        <v>45991</v>
       </c>
       <c r="C184" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D184" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3748384.4184163101</v>
+        <v>64639101.850621372</v>
       </c>
       <c r="E184" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1458030.7065729564</v>
+        <v>-24189885.692565218</v>
       </c>
       <c r="F184" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>115337921.58376156</v>
+        <v>-723451161.75146997</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -7771,23 +7787,23 @@
       </c>
       <c r="B185" s="38">
         <f t="shared" si="12"/>
-        <v>43951</v>
+        <v>46081</v>
       </c>
       <c r="C185" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D185" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3794277.6849518484</v>
+        <v>67012483.548084438</v>
       </c>
       <c r="E185" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1412137.4400374184</v>
+        <v>-26563267.390028279</v>
       </c>
       <c r="F185" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>111543643.89880972</v>
+        <v>-790463645.29955435</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -7796,23 +7812,23 @@
       </c>
       <c r="B186" s="38">
         <f t="shared" si="12"/>
-        <v>43981</v>
+        <v>46172</v>
       </c>
       <c r="C186" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D186" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3840732.8447401039</v>
+        <v>69473009.72188738</v>
       </c>
       <c r="E186" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1365682.2802491623</v>
+        <v>-29023793.563831218</v>
       </c>
       <c r="F186" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>107702911.05406961</v>
+        <v>-859936655.0214417</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -7821,23 +7837,23 @@
       </c>
       <c r="B187" s="38">
         <f t="shared" si="12"/>
-        <v>44012</v>
+        <v>46264</v>
       </c>
       <c r="C187" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D187" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3887756.7773094121</v>
+        <v>72023880.093240082</v>
       </c>
       <c r="E187" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1318658.3476798544</v>
+        <v>-31574663.935183935</v>
       </c>
       <c r="F187" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>103815154.27676019</v>
+        <v>-931960535.11468172</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -7846,23 +7862,23 @@
       </c>
       <c r="B188" s="38">
         <f t="shared" si="12"/>
-        <v>44042</v>
+        <v>46356</v>
       </c>
       <c r="C188" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D188" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3935356.4464174667</v>
+        <v>74668411.868892014</v>
       </c>
       <c r="E188" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1271058.6785717995</v>
+        <v>-34219195.710835867</v>
       </c>
       <c r="F188" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>99879797.830342725</v>
+        <v>-1006628946.9835737</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -7871,23 +7887,23 @@
       </c>
       <c r="B189" s="38">
         <f t="shared" si="12"/>
-        <v>44073</v>
+        <v>46446</v>
       </c>
       <c r="C189" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D189" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3983538.9010825865</v>
+        <v>77410044.054899246</v>
       </c>
       <c r="E189" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1222876.2239066798</v>
+        <v>-36960827.896843083</v>
       </c>
       <c r="F189" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>95896258.929260135</v>
+        <v>-1084038991.0384729</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -7896,23 +7912,23 @@
       </c>
       <c r="B190" s="38">
         <f t="shared" si="12"/>
-        <v>44104</v>
+        <v>46537</v>
       </c>
       <c r="C190" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D190" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4032311.2766275974</v>
+        <v>80252341.928781912</v>
       </c>
       <c r="E190" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1174103.8483616689</v>
+        <v>-39803125.770725757</v>
       </c>
       <c r="F190" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>91863947.652632535</v>
+        <v>-1164291332.9672549</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -7921,23 +7937,23 @@
       </c>
       <c r="B191" s="38">
         <f t="shared" si="12"/>
-        <v>44134</v>
+        <v>46629</v>
       </c>
       <c r="C191" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D191" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4081680.7957365029</v>
+        <v>83199001.675888032</v>
       </c>
       <c r="E191" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1124734.3292527639</v>
+        <v>-42749785.517831877</v>
       </c>
       <c r="F191" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>87782266.856896028</v>
+        <v>-1247490334.6431429</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -7946,23 +7962,23 @@
       </c>
       <c r="B192" s="38">
         <f t="shared" si="12"/>
-        <v>44165</v>
+        <v>46721</v>
       </c>
       <c r="C192" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D192" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4131654.7695240863</v>
+        <v>86253855.195992336</v>
       </c>
       <c r="E192" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1074760.3554651805</v>
+        <v>-45804639.037936181</v>
       </c>
       <c r="F192" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>83650612.087371945</v>
+        <v>-1333744189.8391352</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -7971,23 +7987,23 @@
       </c>
       <c r="B193" s="38">
         <f t="shared" si="12"/>
-        <v>44195</v>
+        <v>46812</v>
       </c>
       <c r="C193" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D193" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4182240.5986186131</v>
+        <v>89420875.086381316</v>
       </c>
       <c r="E193" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1024174.5263706534</v>
+        <v>-48971658.928325161</v>
       </c>
       <c r="F193" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>79468371.488753334</v>
+        <v>-1423165064.9255166</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -7996,23 +8012,23 @@
       </c>
       <c r="B194" s="38">
         <f t="shared" si="12"/>
-        <v>44226</v>
+        <v>46903</v>
       </c>
       <c r="C194" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D194" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4233445.7742577875</v>
+        <v>92704179.807904273</v>
       </c>
       <c r="E194" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>972969.35073147889</v>
+        <v>-52254963.649848111</v>
       </c>
       <c r="F194" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>75234925.71449554</v>
+        <v>-1515869244.7334208</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -8021,23 +8037,23 @@
       </c>
       <c r="B195" s="38">
         <f t="shared" si="12"/>
-        <v>44255</v>
+        <v>46995</v>
       </c>
       <c r="C195" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D195" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4285277.8793981262</v>
+        <v>96108039.040708408</v>
       </c>
       <c r="E195" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>921137.24559114059</v>
+        <v>-55658822.882652253</v>
       </c>
       <c r="F195" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>70949647.835097417</v>
+        <v>-1611977283.7741292</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -8046,23 +8062,23 @@
       </c>
       <c r="B196" s="38">
         <f t="shared" si="12"/>
-        <v>44285</v>
+        <v>47087</v>
       </c>
       <c r="C196" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D196" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4337744.5898379143</v>
+        <v>99636879.236622885</v>
       </c>
       <c r="E196" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>868670.53515135206</v>
+        <v>-59187663.07856673</v>
       </c>
       <c r="F196" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>66611903.245259501</v>
+        <v>-1711614163.010752</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -8071,23 +8087,23 @@
       </c>
       <c r="B197" s="38">
         <f t="shared" si="12"/>
-        <v>44316</v>
+        <v>47177</v>
       </c>
       <c r="C197" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D197" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4390853.6753539164</v>
+        <v>103295289.37541203</v>
       </c>
       <c r="E197" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>815561.44963535049</v>
+        <v>-62846073.217355877</v>
       </c>
       <c r="F197" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>62221049.569905587</v>
+        <v>-1814909452.3861639</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -8096,23 +8112,23 @@
       </c>
       <c r="B198" s="38">
         <f t="shared" si="12"/>
-        <v>44346</v>
+        <v>47268</v>
       </c>
       <c r="C198" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D198" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4444613.0008519934</v>
+        <v>107088026.93238348</v>
       </c>
       <c r="E198" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>761802.12413727306</v>
+        <v>-66638810.774327315</v>
       </c>
       <c r="F198" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>57776436.56905359</v>
+        <v>-1921997479.3185475</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -8121,23 +8137,23 @@
       </c>
       <c r="B199" s="38">
         <f t="shared" si="12"/>
-        <v>44377</v>
+        <v>47360</v>
       </c>
       <c r="C199" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D199" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4499030.5275318203</v>
+        <v>111020024.06511137</v>
       </c>
       <c r="E199" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>707384.59745744581</v>
+        <v>-70570807.907055214</v>
       </c>
       <c r="F199" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>53277406.041521773</v>
+        <v>-2033017503.3836589</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -8146,23 +8162,23 @@
       </c>
       <c r="B200" s="38">
         <f t="shared" si="12"/>
-        <v>44407</v>
+        <v>47452</v>
       </c>
       <c r="C200" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D200" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4554114.3140658541</v>
+        <v>115096394.02732041</v>
       </c>
       <c r="E200" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>652300.81092341268</v>
+        <v>-74647177.86926426</v>
       </c>
       <c r="F200" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>48723291.727455921</v>
+        <v>-2148113897.4109793</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -8171,23 +8187,23 @@
       </c>
       <c r="B201" s="38">
         <f t="shared" si="12"/>
-        <v>44438</v>
+        <v>47542</v>
       </c>
       <c r="C201" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D201" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4609872.5177927371</v>
+        <v>119322437.81827097</v>
       </c>
       <c r="E201" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>596542.60719652905</v>
+        <v>-78873221.660214812</v>
       </c>
       <c r="F201" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>44113419.209663182</v>
+        <v>-2267436335.2292504</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -8196,23 +8212,23 @@
       </c>
       <c r="B202" s="38">
         <f t="shared" si="12"/>
-        <v>44469</v>
+        <v>47633</v>
       </c>
       <c r="C202" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D202" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4666313.3959253225</v>
+        <v>123703651.07629269</v>
       </c>
       <c r="E202" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>540101.72906394443</v>
+        <v>-83254434.918236539</v>
       </c>
       <c r="F202" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>39447105.813737862</v>
+        <v>-2391139986.3055429</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -8221,23 +8237,23 @@
       </c>
       <c r="B203" s="38">
         <f t="shared" si="12"/>
-        <v>44499</v>
+        <v>47725</v>
       </c>
       <c r="C203" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D203" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4723445.3067734716</v>
+        <v>128245731.22543089</v>
       </c>
       <c r="E203" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>482969.81821579509</v>
+        <v>-87796515.067374736</v>
       </c>
       <c r="F203" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>34723660.506964393</v>
+        <v>-2519385717.5309739</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -8246,23 +8262,23 @@
       </c>
       <c r="B204" s="38">
         <f t="shared" si="12"/>
-        <v>44530</v>
+        <v>47817</v>
       </c>
       <c r="C204" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D204" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4781276.7109818421</v>
+        <v>132954584.88449948</v>
       </c>
       <c r="E204" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>425138.41400742473</v>
+        <v>-92505368.726443321</v>
       </c>
       <c r="F204" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>29942383.795982551</v>
+        <v>-2652340302.4154735</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -8271,23 +8287,23 @@
       </c>
       <c r="B205" s="38">
         <f t="shared" si="12"/>
-        <v>44560</v>
+        <v>47907</v>
       </c>
       <c r="C205" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D205" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4839816.1727828169</v>
+        <v>137836335.54817516</v>
       </c>
       <c r="E205" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>366598.95220644999</v>
+        <v>-97387119.390118986</v>
       </c>
       <c r="F205" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>25102567.623199735</v>
+        <v>-2790176637.9636488</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -8296,23 +8312,23 @@
       </c>
       <c r="B206" s="38">
         <f t="shared" si="12"/>
-        <v>44591</v>
+        <v>47998</v>
       </c>
       <c r="C206" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D206" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4899072.3612647792</v>
+        <v>142897331.55012178</v>
       </c>
       <c r="E206" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>307342.76372448716</v>
+        <v>-102448115.39206563</v>
       </c>
       <c r="F206" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>20203495.261934955</v>
+        <v>-2933073969.5137706</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -8321,23 +8337,23 @@
       </c>
       <c r="B207" s="38">
         <f t="shared" si="12"/>
-        <v>44620</v>
+        <v>48090</v>
       </c>
       <c r="C207" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D207" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4959054.0516559174</v>
+        <v>148144154.31850016</v>
       </c>
       <c r="E207" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>247361.07333334937</v>
+        <v>-107694938.16044401</v>
       </c>
       <c r="F207" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>15244441.210279036</v>
+        <v>-3081218123.8322706</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -8346,23 +8362,23 @@
       </c>
       <c r="B208" s="38">
         <f t="shared" si="12"/>
-        <v>44650</v>
+        <v>48182</v>
       </c>
       <c r="C208" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D208" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>5019770.1266237404</v>
+        <v>153583626.93459889</v>
       </c>
       <c r="E208" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>186644.99836552617</v>
+        <v>-113134410.77654274</v>
       </c>
       <c r="F208" s="37">
         <f t="shared" ca="1" si="17"/>
-        <v>10224671.083655296</v>
+        <v>-3234801750.7668695</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -8371,23 +8387,23 @@
       </c>
       <c r="B209" s="38">
         <f t="shared" si="12"/>
-        <v>44681</v>
+        <v>48273</v>
       </c>
       <c r="C209" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D209" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>5081229.577590514</v>
+        <v>159222823.00571615</v>
       </c>
       <c r="E209" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>125185.54739875272</v>
+        <v>-118773606.84765999</v>
       </c>
       <c r="F209" s="37">
         <f t="shared" ca="1" si="17"/>
-        <v>5143441.5060647819</v>
+        <v>-3394024573.7725859</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -8396,23 +8412,23 @@
       </c>
       <c r="B210" s="38">
         <f t="shared" si="12"/>
-        <v>44711</v>
+        <v>48364</v>
       </c>
       <c r="C210" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>5206415.1249892665</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="D210" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>5143441.506064794</v>
+        <v>165069075.86383092</v>
       </c>
       <c r="E210" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>62973.618924472787</v>
+        <v>-124619859.70577477</v>
       </c>
       <c r="F210" s="37">
         <f t="shared" ca="1" si="17"/>
-        <v>-1.2107193470001221E-8</v>
+        <v>-3559093649.6364169</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -8435,7 +8451,7 @@
       </c>
       <c r="E213" s="44">
         <f ca="1">SUM(E217:INDIRECT(CONCATENATE("E",216+B10)))</f>
-        <v>95075184.387745291</v>
+        <v>261336905.73617545</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -8444,14 +8460,14 @@
       </c>
       <c r="B214" s="94">
         <f ca="1">PMT(B9,B10-B212,-INDIRECT(CONCATENATE("F",216+B212)),0,0)</f>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D214" s="79" t="s">
         <v>70</v>
       </c>
       <c r="E214" s="44">
         <f ca="1">F216+E213</f>
-        <v>307799997.38774526</v>
+        <v>766196620.73617542</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -8482,7 +8498,7 @@
       </c>
       <c r="F216" s="39">
         <f>$B$3</f>
-        <v>212724813</v>
+        <v>504859715</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -8491,7 +8507,7 @@
       </c>
       <c r="B217" s="38">
         <f t="shared" ref="B217:B276" si="18">EDATE($B$7,$B$6*A217)</f>
-        <v>42916</v>
+        <v>42977</v>
       </c>
       <c r="C217" s="37">
         <f>IF($B$212&gt;=$A217,0,$B$214)</f>
@@ -8499,15 +8515,15 @@
       </c>
       <c r="D217" s="37">
         <f t="shared" ref="D217:D276" si="19">C217-E217</f>
-        <v>-2604491.8161985627</v>
+        <v>-18537151.24533245</v>
       </c>
       <c r="E217" s="37">
         <f t="shared" ref="E217:E276" si="20">F216*$B$9</f>
-        <v>2604491.8161985627</v>
+        <v>18537151.24533245</v>
       </c>
       <c r="F217" s="37">
         <f t="shared" ref="F217:F228" si="21">F216-D217</f>
-        <v>215329304.81619856</v>
+        <v>523396866.24533248</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -8516,7 +8532,7 @@
       </c>
       <c r="B218" s="38">
         <f t="shared" si="18"/>
-        <v>42946</v>
+        <v>43069</v>
       </c>
       <c r="C218" s="37">
         <f t="shared" ref="C218:C276" si="22">IF($B$212&gt;=$A218,0,$B$214)</f>
@@ -8524,15 +8540,15 @@
       </c>
       <c r="D218" s="37">
         <f t="shared" si="19"/>
-        <v>-2636379.8574899435</v>
+        <v>-19217787.79858236</v>
       </c>
       <c r="E218" s="37">
         <f t="shared" si="20"/>
-        <v>2636379.8574899435</v>
+        <v>19217787.79858236</v>
       </c>
       <c r="F218" s="37">
         <f t="shared" si="21"/>
-        <v>217965684.6736885</v>
+        <v>542614654.04391479</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -8541,7 +8557,7 @@
       </c>
       <c r="B219" s="38">
         <f t="shared" si="18"/>
-        <v>42977</v>
+        <v>43159</v>
       </c>
       <c r="C219" s="37">
         <f t="shared" si="22"/>
@@ -8549,15 +8565,15 @@
       </c>
       <c r="D219" s="37">
         <f t="shared" si="19"/>
-        <v>-2668658.3193505416</v>
+        <v>-19923415.576831661</v>
       </c>
       <c r="E219" s="37">
         <f t="shared" si="20"/>
-        <v>2668658.3193505416</v>
+        <v>19923415.576831661</v>
       </c>
       <c r="F219" s="37">
         <f t="shared" si="21"/>
-        <v>220634342.99303904</v>
+        <v>562538069.62074649</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -8566,23 +8582,23 @@
       </c>
       <c r="B220" s="38">
         <f t="shared" si="18"/>
-        <v>43008</v>
+        <v>43250</v>
       </c>
       <c r="C220" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D220" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>2698667.9722845079</v>
+        <v>24415437.261434261</v>
       </c>
       <c r="E220" s="37">
         <f t="shared" si="20"/>
-        <v>2701331.9818864614</v>
+        <v>20654952.193634886</v>
       </c>
       <c r="F220" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>217935675.02075455</v>
+        <v>538122632.35931218</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -8591,23 +8607,23 @@
       </c>
       <c r="B221" s="38">
         <f t="shared" si="18"/>
-        <v>43038</v>
+        <v>43342</v>
       </c>
       <c r="C221" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D221" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>2731709.0573809235</v>
+        <v>25311909.370000366</v>
       </c>
       <c r="E221" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2668290.8967900458</v>
+        <v>19758480.085068781</v>
       </c>
       <c r="F221" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>215203965.96337363</v>
+        <v>512810722.98931181</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -8616,23 +8632,23 @@
       </c>
       <c r="B222" s="38">
         <f t="shared" si="18"/>
-        <v>43069</v>
+        <v>43434</v>
       </c>
       <c r="C222" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D222" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>2765154.6803143616</v>
+        <v>26241297.6304597</v>
       </c>
       <c r="E222" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2634845.2738566077</v>
+        <v>18829091.824609447</v>
       </c>
       <c r="F222" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>212438811.28305927</v>
+        <v>486569425.35885209</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -8641,23 +8657,23 @@
       </c>
       <c r="B223" s="38">
         <f t="shared" si="18"/>
-        <v>43099</v>
+        <v>43524</v>
       </c>
       <c r="C223" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D223" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>2799009.7940354012</v>
+        <v>27204810.63931527</v>
       </c>
       <c r="E223" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2600990.1601355681</v>
+        <v>17865578.815753877</v>
       </c>
       <c r="F223" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>209639801.48902386</v>
+        <v>459364614.71953684</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -8666,23 +8682,23 @@
       </c>
       <c r="B224" s="38">
         <f t="shared" si="18"/>
-        <v>43130</v>
+        <v>43615</v>
       </c>
       <c r="C224" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D224" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>2833279.4121359698</v>
+        <v>28203701.369627584</v>
       </c>
       <c r="E224" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2566720.5420349995</v>
+        <v>16866688.085441563</v>
       </c>
       <c r="F224" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>206806522.07688791</v>
+        <v>431160913.34990925</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -8691,23 +8707,23 @@
       </c>
       <c r="B225" s="38">
         <f t="shared" si="18"/>
-        <v>43159</v>
+        <v>43707</v>
       </c>
       <c r="C225" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D225" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>2867968.6095918017</v>
+        <v>29239268.80040779</v>
       </c>
       <c r="E225" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2532031.3445791677</v>
+        <v>15831120.654661359</v>
       </c>
       <c r="F225" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>203938553.46729609</v>
+        <v>401921644.54950148</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -8716,23 +8732,23 @@
       </c>
       <c r="B226" s="38">
         <f t="shared" si="18"/>
-        <v>43189</v>
+        <v>43799</v>
       </c>
       <c r="C226" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D226" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>2903082.5235139932</v>
+        <v>30312859.605837945</v>
       </c>
       <c r="E226" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2496917.4306569761</v>
+        <v>14757529.849231202</v>
       </c>
       <c r="F226" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>201035470.94378209</v>
+        <v>371608784.94366354</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -8741,23 +8757,23 @@
       </c>
       <c r="B227" s="38">
         <f t="shared" si="18"/>
-        <v>43220</v>
+        <v>43890</v>
       </c>
       <c r="C227" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D227" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>2938626.3539097509</v>
+        <v>31425869.906515129</v>
       </c>
       <c r="E227" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2461373.6002612184</v>
+        <v>13644519.54855402</v>
       </c>
       <c r="F227" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>198096844.58987233</v>
+        <v>340182915.03714842</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -8766,23 +8782,23 @@
       </c>
       <c r="B228" s="38">
         <f t="shared" si="18"/>
-        <v>43250</v>
+        <v>43981</v>
       </c>
       <c r="C228" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D228" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>2974605.3644524626</v>
+        <v>32579747.0849967</v>
       </c>
       <c r="E228" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2425394.5897185067</v>
+        <v>12490642.370072445</v>
       </c>
       <c r="F228" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>195122239.22541988</v>
+        <v>307603167.95215172</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -8791,23 +8807,23 @@
       </c>
       <c r="B229" s="38">
         <f t="shared" si="18"/>
-        <v>43281</v>
+        <v>44073</v>
       </c>
       <c r="C229" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D229" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3011024.8832611912</v>
+        <v>33775991.668007776</v>
       </c>
       <c r="E229" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2388975.0709097781</v>
+        <v>11294397.787061375</v>
       </c>
       <c r="F229" s="37">
         <f t="shared" ref="F229:F276" ca="1" si="23">F228-D229</f>
-        <v>192111214.34215868</v>
+        <v>273827176.28414392</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -8816,23 +8832,23 @@
       </c>
       <c r="B230" s="38">
         <f t="shared" si="18"/>
-        <v>43311</v>
+        <v>44165</v>
       </c>
       <c r="C230" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D230" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3047890.303689715</v>
+        <v>35016159.277758434</v>
       </c>
       <c r="E230" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2352109.6504812543</v>
+        <v>10054230.177310714</v>
       </c>
       <c r="F230" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>189063324.03846896</v>
+        <v>238811017.00638551</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -8841,23 +8857,23 @@
       </c>
       <c r="B231" s="38">
         <f t="shared" si="18"/>
-        <v>43342</v>
+        <v>44255</v>
       </c>
       <c r="C231" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D231" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3085207.0851252251</v>
+        <v>36301862.654908374</v>
       </c>
       <c r="E231" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2314792.8690457442</v>
+        <v>8768526.8001607694</v>
       </c>
       <c r="F231" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>185978116.95334372</v>
+        <v>202509154.35147715</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -8866,23 +8882,23 @@
       </c>
       <c r="B232" s="38">
         <f t="shared" si="18"/>
-        <v>43373</v>
+        <v>44346</v>
       </c>
       <c r="C232" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D232" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3122980.7537968084</v>
+        <v>37634773.75580959</v>
       </c>
       <c r="E232" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2277019.2003741609</v>
+        <v>7435615.6992595578</v>
       </c>
       <c r="F232" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>182855136.1995469</v>
+        <v>164874380.59566754</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -8891,23 +8907,23 @@
       </c>
       <c r="B233" s="38">
         <f t="shared" si="18"/>
-        <v>43403</v>
+        <v>44438</v>
       </c>
       <c r="C233" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D233" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3161216.9035938205</v>
+        <v>39016625.926754363</v>
       </c>
       <c r="E233" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2238783.0505771488</v>
+        <v>6053763.5283147814</v>
       </c>
       <c r="F233" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>179693919.29595309</v>
+        <v>125857754.66891319</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -8916,23 +8932,23 @@
       </c>
       <c r="B234" s="38">
         <f t="shared" si="18"/>
-        <v>43434</v>
+        <v>44530</v>
       </c>
       <c r="C234" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D234" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3199921.1968942862</v>
+        <v>40449216.158056155</v>
       </c>
       <c r="E234" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2200078.7572766831</v>
+        <v>4621173.2970129931</v>
       </c>
       <c r="F234" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>176493998.09905881</v>
+        <v>85408538.510857031</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -8941,23 +8957,23 @@
       </c>
       <c r="B235" s="38">
         <f t="shared" si="18"/>
-        <v>43464</v>
+        <v>44620</v>
       </c>
       <c r="C235" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D235" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3239099.3654034361</v>
+        <v>41934407.420894451</v>
       </c>
       <c r="E235" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2160900.5887675332</v>
+        <v>3135982.0341746975</v>
       </c>
       <c r="F235" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>173254898.73365536</v>
+        <v>43474131.089962579</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -8966,23 +8982,23 @@
       </c>
       <c r="B236" s="38">
         <f t="shared" si="18"/>
-        <v>43495</v>
+        <v>44711</v>
       </c>
       <c r="C236" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D236" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3278757.2110025166</v>
+        <v>43474131.089962624</v>
       </c>
       <c r="E236" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2121242.7431684528</v>
+        <v>1596258.3651065249</v>
       </c>
       <c r="F236" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>169976141.52265283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -8991,23 +9007,23 @@
       </c>
       <c r="B237" s="38">
         <f t="shared" si="18"/>
-        <v>43524</v>
+        <v>44803</v>
       </c>
       <c r="C237" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D237" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3318900.6066079838</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="E237" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2081099.3475629853</v>
+        <v>0</v>
       </c>
       <c r="F237" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>166657240.91604486</v>
+        <v>-45070389.455069147</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -9016,23 +9032,23 @@
       </c>
       <c r="B238" s="38">
         <f t="shared" si="18"/>
-        <v>43554</v>
+        <v>44895</v>
       </c>
       <c r="C238" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D238" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3359535.4970412264</v>
+        <v>46725258.324958384</v>
       </c>
       <c r="E238" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2040464.4571297432</v>
+        <v>-1654868.8698892395</v>
       </c>
       <c r="F238" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>163297705.41900364</v>
+        <v>-91795647.780027539</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -9041,23 +9057,23 @@
       </c>
       <c r="B239" s="38">
         <f t="shared" si="18"/>
-        <v>43585</v>
+        <v>44985</v>
       </c>
       <c r="C239" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D239" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3400667.8999089277</v>
+        <v>48440889.726736963</v>
       </c>
       <c r="E239" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1999332.0542620416</v>
+        <v>-3370500.2716678167</v>
       </c>
       <c r="F239" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>159897037.51909471</v>
+        <v>-140236537.5067645</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -9066,23 +9082,23 @@
       </c>
       <c r="B240" s="38">
         <f t="shared" si="18"/>
-        <v>43615</v>
+        <v>45076</v>
       </c>
       <c r="C240" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D240" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3442303.9064942147</v>
+        <v>50219514.704416148</v>
       </c>
       <c r="E240" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1957696.0476767546</v>
+        <v>-5149125.2493470004</v>
       </c>
       <c r="F240" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>156454733.61260051</v>
+        <v>-190456052.21118066</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -9091,23 +9107,23 @@
       </c>
       <c r="B241" s="38">
         <f t="shared" si="18"/>
-        <v>43646</v>
+        <v>45168</v>
       </c>
       <c r="C241" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D241" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3484449.6826587114</v>
+        <v>52063446.220209517</v>
       </c>
       <c r="E241" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1915550.2715122576</v>
+        <v>-6993056.7651403714</v>
       </c>
       <c r="F241" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>152970283.9299418</v>
+        <v>-242519498.43139017</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -9116,23 +9132,23 @@
       </c>
       <c r="B242" s="38">
         <f t="shared" si="18"/>
-        <v>43676</v>
+        <v>45260</v>
       </c>
       <c r="C242" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D242" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3527111.4697556421</v>
+        <v>53975082.162358828</v>
       </c>
       <c r="E242" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1872888.4844153274</v>
+        <v>-8904692.707289679</v>
       </c>
       <c r="F242" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>149443172.46018615</v>
+        <v>-296494580.59374899</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -9141,23 +9157,23 @@
       </c>
       <c r="B243" s="38">
         <f t="shared" si="18"/>
-        <v>43707</v>
+        <v>45351</v>
       </c>
       <c r="C243" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D243" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3570295.5855541062</v>
+        <v>55956908.463399485</v>
       </c>
       <c r="E243" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1829704.3686168632</v>
+        <v>-10886519.008330338</v>
       </c>
       <c r="F243" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>145872876.87463206</v>
+        <v>-352451489.05714846</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -9166,23 +9182,23 @@
       </c>
       <c r="B244" s="38">
         <f t="shared" si="18"/>
-        <v>43738</v>
+        <v>45442</v>
       </c>
       <c r="C244" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D244" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3614008.4251746796</v>
+        <v>58011502.33292076</v>
       </c>
       <c r="E244" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1785991.5289962897</v>
+        <v>-12941112.877851615</v>
       </c>
       <c r="F244" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>142258868.44945738</v>
+        <v>-410462991.39006925</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -9191,23 +9207,23 @@
       </c>
       <c r="B245" s="38">
         <f t="shared" si="18"/>
-        <v>43768</v>
+        <v>45534</v>
       </c>
       <c r="C245" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D245" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3658256.4620364634</v>
+        <v>60141535.609024614</v>
       </c>
       <c r="E245" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1741743.4921345057</v>
+        <v>-15071146.153955471</v>
       </c>
       <c r="F245" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>138600611.98742092</v>
+        <v>-470604526.99909389</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -9216,23 +9232,23 @@
       </c>
       <c r="B246" s="38">
         <f t="shared" si="18"/>
-        <v>43799</v>
+        <v>45626</v>
       </c>
       <c r="C246" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D246" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3703046.2488157311</v>
+        <v>62349778.232841492</v>
       </c>
       <c r="E246" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1696953.7053552384</v>
+        <v>-17279388.777772341</v>
       </c>
       <c r="F246" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>134897565.73860517</v>
+        <v>-532954305.23193538</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -9241,23 +9257,23 @@
       </c>
       <c r="B247" s="38">
         <f t="shared" si="18"/>
-        <v>43829</v>
+        <v>45716</v>
       </c>
       <c r="C247" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D247" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3748384.4184163096</v>
+        <v>64639101.850621372</v>
       </c>
       <c r="E247" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1651615.5357546597</v>
+        <v>-19568712.395552222</v>
       </c>
       <c r="F247" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>131149181.32018887</v>
+        <v>-597593407.08255672</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -9266,23 +9282,23 @@
       </c>
       <c r="B248" s="38">
         <f t="shared" si="18"/>
-        <v>43860</v>
+        <v>45807</v>
       </c>
       <c r="C248" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D248" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3794277.6849518474</v>
+        <v>67012483.54808443</v>
       </c>
       <c r="E248" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1605722.2692191217</v>
+        <v>-21942094.093015283</v>
       </c>
       <c r="F248" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>127354903.63523702</v>
+        <v>-664605890.6306411</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -9291,23 +9307,23 @@
       </c>
       <c r="B249" s="38">
         <f t="shared" si="18"/>
-        <v>43890</v>
+        <v>45899</v>
       </c>
       <c r="C249" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D249" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3840732.8447401039</v>
+        <v>69473009.721887365</v>
       </c>
       <c r="E249" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1559267.1094308656</v>
+        <v>-24402620.266818222</v>
       </c>
       <c r="F249" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>123514170.79049692</v>
+        <v>-734078900.35252845</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -9316,23 +9332,23 @@
       </c>
       <c r="B250" s="38">
         <f t="shared" si="18"/>
-        <v>43920</v>
+        <v>45991</v>
       </c>
       <c r="C250" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D250" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3887756.7773094117</v>
+        <v>72023880.093240082</v>
       </c>
       <c r="E250" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1512243.1768615576</v>
+        <v>-26953490.638170939</v>
       </c>
       <c r="F250" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>119626414.0131875</v>
+        <v>-806102780.44576859</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -9341,23 +9357,23 @@
       </c>
       <c r="B251" s="38">
         <f t="shared" si="18"/>
-        <v>43951</v>
+        <v>46081</v>
       </c>
       <c r="C251" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D251" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3935356.4464174667</v>
+        <v>74668411.868892029</v>
       </c>
       <c r="E251" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1464643.5077535028</v>
+        <v>-29598022.413822878</v>
       </c>
       <c r="F251" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>115691057.56677003</v>
+        <v>-880771192.31466067</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -9366,23 +9382,23 @@
       </c>
       <c r="B252" s="38">
         <f t="shared" si="18"/>
-        <v>43981</v>
+        <v>46172</v>
       </c>
       <c r="C252" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D252" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3983538.9010825865</v>
+        <v>77410044.054899246</v>
       </c>
       <c r="E252" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1416461.0530883831</v>
+        <v>-32339654.599830095</v>
       </c>
       <c r="F252" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>111707518.66568744</v>
+        <v>-958181236.36955988</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -9391,23 +9407,23 @@
       </c>
       <c r="B253" s="38">
         <f t="shared" si="18"/>
-        <v>44012</v>
+        <v>46264</v>
       </c>
       <c r="C253" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D253" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4032311.2766275974</v>
+        <v>80252341.928781927</v>
       </c>
       <c r="E253" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1367688.6775433721</v>
+        <v>-35181952.473712772</v>
       </c>
       <c r="F253" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>107675207.38905984</v>
+        <v>-1038433578.2983418</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -9416,23 +9432,23 @@
       </c>
       <c r="B254" s="38">
         <f t="shared" si="18"/>
-        <v>44042</v>
+        <v>46356</v>
       </c>
       <c r="C254" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D254" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4081680.7957365019</v>
+        <v>83199001.675888032</v>
       </c>
       <c r="E254" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1318319.1584344672</v>
+        <v>-38128612.220818885</v>
       </c>
       <c r="F254" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>103593526.59332334</v>
+        <v>-1121632579.9742298</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -9441,23 +9457,23 @@
       </c>
       <c r="B255" s="38">
         <f t="shared" si="18"/>
-        <v>44073</v>
+        <v>46446</v>
       </c>
       <c r="C255" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D255" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4131654.7695240853</v>
+        <v>86253855.195992336</v>
       </c>
       <c r="E255" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1268345.1846468837</v>
+        <v>-41183465.740923189</v>
       </c>
       <c r="F255" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>99461871.823799253</v>
+        <v>-1207886435.170222</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -9466,23 +9482,23 @@
       </c>
       <c r="B256" s="38">
         <f t="shared" si="18"/>
-        <v>44104</v>
+        <v>46537</v>
       </c>
       <c r="C256" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D256" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4182240.5986186126</v>
+        <v>89420875.086381316</v>
       </c>
       <c r="E256" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1217759.3555523567</v>
+        <v>-44350485.631312169</v>
       </c>
       <c r="F256" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>95279631.225180641</v>
+        <v>-1297307310.2566032</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -9491,23 +9507,23 @@
       </c>
       <c r="B257" s="38">
         <f t="shared" si="18"/>
-        <v>44134</v>
+        <v>46629</v>
       </c>
       <c r="C257" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D257" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4233445.7742577875</v>
+        <v>92704179.807904258</v>
       </c>
       <c r="E257" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1166554.179913182</v>
+        <v>-47633790.352835111</v>
       </c>
       <c r="F257" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>91046185.450922847</v>
+        <v>-1390011490.0645075</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -9516,23 +9532,23 @@
       </c>
       <c r="B258" s="38">
         <f t="shared" si="18"/>
-        <v>44165</v>
+        <v>46721</v>
       </c>
       <c r="C258" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D258" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4285277.8793981252</v>
+        <v>96108039.040708393</v>
       </c>
       <c r="E258" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1114722.0747728439</v>
+        <v>-51037649.585639253</v>
       </c>
       <c r="F258" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>86760907.571524724</v>
+        <v>-1486119529.1052158</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -9541,23 +9557,23 @@
       </c>
       <c r="B259" s="38">
         <f t="shared" si="18"/>
-        <v>44195</v>
+        <v>46812</v>
       </c>
       <c r="C259" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D259" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4337744.5898379143</v>
+        <v>99636879.23662287</v>
       </c>
       <c r="E259" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1062255.3643330554</v>
+        <v>-54566489.78155373</v>
       </c>
       <c r="F259" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>82423162.981686816</v>
+        <v>-1585756408.3418386</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -9566,23 +9582,23 @@
       </c>
       <c r="B260" s="38">
         <f t="shared" si="18"/>
-        <v>44226</v>
+        <v>46903</v>
       </c>
       <c r="C260" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D260" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4390853.6753539154</v>
+        <v>103295289.37541202</v>
       </c>
       <c r="E260" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1009146.2788170539</v>
+        <v>-58224899.920342878</v>
       </c>
       <c r="F260" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>78032309.306332901</v>
+        <v>-1689051697.7172506</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -9591,23 +9607,23 @@
       </c>
       <c r="B261" s="38">
         <f t="shared" si="18"/>
-        <v>44255</v>
+        <v>46995</v>
       </c>
       <c r="C261" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D261" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4444613.0008519925</v>
+        <v>107088026.93238346</v>
       </c>
       <c r="E261" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>955386.95331897645</v>
+        <v>-62017637.477314316</v>
       </c>
       <c r="F261" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>73587696.305480912</v>
+        <v>-1796139724.6496341</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -9616,23 +9632,23 @@
       </c>
       <c r="B262" s="38">
         <f t="shared" si="18"/>
-        <v>44285</v>
+        <v>47087</v>
       </c>
       <c r="C262" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D262" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4499030.5275318203</v>
+        <v>111020024.06511137</v>
       </c>
       <c r="E262" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>900969.42663914931</v>
+        <v>-65949634.610042222</v>
       </c>
       <c r="F262" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>69088665.777949095</v>
+        <v>-1907159748.7147455</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -9641,23 +9657,23 @@
       </c>
       <c r="B263" s="38">
         <f t="shared" si="18"/>
-        <v>44316</v>
+        <v>47177</v>
       </c>
       <c r="C263" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D263" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4554114.3140658531</v>
+        <v>115096394.02732041</v>
       </c>
       <c r="E263" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>845885.64010511618</v>
+        <v>-70026004.57225126</v>
       </c>
       <c r="F263" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>64534551.463883244</v>
+        <v>-2022256142.7420659</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -9666,23 +9682,23 @@
       </c>
       <c r="B264" s="38">
         <f t="shared" si="18"/>
-        <v>44346</v>
+        <v>47268</v>
       </c>
       <c r="C264" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D264" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4609872.5177927371</v>
+        <v>119322437.81827095</v>
       </c>
       <c r="E264" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>790127.43637823244</v>
+        <v>-74252048.363201812</v>
       </c>
       <c r="F264" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>59924678.946090505</v>
+        <v>-2141578580.5603368</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -9691,23 +9707,23 @@
       </c>
       <c r="B265" s="38">
         <f t="shared" si="18"/>
-        <v>44377</v>
+        <v>47360</v>
       </c>
       <c r="C265" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D265" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4666313.3959253216</v>
+        <v>123703651.07629269</v>
       </c>
       <c r="E265" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>733686.55824564782</v>
+        <v>-78633261.621223539</v>
       </c>
       <c r="F265" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>55258365.550165184</v>
+        <v>-2265282231.6366296</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -9716,23 +9732,23 @@
       </c>
       <c r="B266" s="38">
         <f t="shared" si="18"/>
-        <v>44407</v>
+        <v>47452</v>
       </c>
       <c r="C266" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D266" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4723445.3067734707</v>
+        <v>128245731.22543088</v>
       </c>
       <c r="E266" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>676554.6473974986</v>
+        <v>-83175341.770361736</v>
       </c>
       <c r="F266" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>50534920.243391715</v>
+        <v>-2393527962.8620605</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -9741,23 +9757,23 @@
       </c>
       <c r="B267" s="38">
         <f t="shared" si="18"/>
-        <v>44438</v>
+        <v>47542</v>
       </c>
       <c r="C267" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D267" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4781276.7109818412</v>
+        <v>132954584.88449946</v>
       </c>
       <c r="E267" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>618723.24318912812</v>
+        <v>-87884195.429430306</v>
       </c>
       <c r="F267" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>45753643.532409877</v>
+        <v>-2526482547.7465601</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -9766,23 +9782,23 @@
       </c>
       <c r="B268" s="38">
         <f t="shared" si="18"/>
-        <v>44469</v>
+        <v>47633</v>
       </c>
       <c r="C268" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D268" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4839816.172782816</v>
+        <v>137836335.54817513</v>
       </c>
       <c r="E268" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>560183.78138815344</v>
+        <v>-92765946.093105987</v>
       </c>
       <c r="F268" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>40913827.359627061</v>
+        <v>-2664318883.2947354</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -9791,23 +9807,23 @@
       </c>
       <c r="B269" s="38">
         <f t="shared" si="18"/>
-        <v>44499</v>
+        <v>47725</v>
       </c>
       <c r="C269" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D269" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4899072.3612647783</v>
+        <v>142897331.55012178</v>
       </c>
       <c r="E269" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>500927.59290619066</v>
+        <v>-97826942.09505263</v>
       </c>
       <c r="F269" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>36014754.99836228</v>
+        <v>-2807216214.8448572</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -9816,23 +9832,23 @@
       </c>
       <c r="B270" s="38">
         <f t="shared" si="18"/>
-        <v>44530</v>
+        <v>47817</v>
       </c>
       <c r="C270" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D270" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4959054.0516559165</v>
+        <v>148144154.31850016</v>
       </c>
       <c r="E270" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>440945.90251505282</v>
+        <v>-103073764.86343101</v>
       </c>
       <c r="F270" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>31055700.946706362</v>
+        <v>-2955360369.1633573</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -9841,23 +9857,23 @@
       </c>
       <c r="B271" s="38">
         <f t="shared" si="18"/>
-        <v>44560</v>
+        <v>47907</v>
       </c>
       <c r="C271" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D271" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>5019770.1266237395</v>
+        <v>153583626.93459889</v>
       </c>
       <c r="E271" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>380229.82754722965</v>
+        <v>-108513237.47952974</v>
       </c>
       <c r="F271" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>26035930.820082624</v>
+        <v>-3108943996.0979562</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -9866,23 +9882,23 @@
       </c>
       <c r="B272" s="38">
         <f t="shared" si="18"/>
-        <v>44591</v>
+        <v>47998</v>
       </c>
       <c r="C272" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D272" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>5081229.577590513</v>
+        <v>159222823.00571615</v>
       </c>
       <c r="E272" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>318770.37658045621</v>
+        <v>-114152433.55064699</v>
       </c>
       <c r="F272" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>20954701.24249211</v>
+        <v>-3268166819.1036725</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -9891,23 +9907,23 @@
       </c>
       <c r="B273" s="38">
         <f t="shared" si="18"/>
-        <v>44620</v>
+        <v>48090</v>
       </c>
       <c r="C273" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D273" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>5143441.5060647931</v>
+        <v>165069075.86383092</v>
       </c>
       <c r="E273" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>256558.44810617628</v>
+        <v>-119998686.40876177</v>
       </c>
       <c r="F273" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>15811259.736427316</v>
+        <v>-3433235894.9675035</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -9916,23 +9932,23 @@
       </c>
       <c r="B274" s="38">
         <f t="shared" si="18"/>
-        <v>44650</v>
+        <v>48182</v>
       </c>
       <c r="C274" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D274" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>5206415.1249892656</v>
+        <v>171129988.10202581</v>
       </c>
       <c r="E274" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>193584.82918170336</v>
+        <v>-126059598.64695667</v>
       </c>
       <c r="F274" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>10604844.611438051</v>
+        <v>-3604365883.0695295</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -9941,23 +9957,23 @@
       </c>
       <c r="B275" s="38">
         <f t="shared" si="18"/>
-        <v>44681</v>
+        <v>48273</v>
       </c>
       <c r="C275" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D275" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>5270159.7601050902</v>
+        <v>177413441.46106279</v>
       </c>
       <c r="E275" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>129840.19406587906</v>
+        <v>-132343052.00599365</v>
       </c>
       <c r="F275" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>5334684.8513329607</v>
+        <v>-3781779324.5305924</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -9966,23 +9982,23 @@
       </c>
       <c r="B276" s="38">
         <f t="shared" si="18"/>
-        <v>44711</v>
+        <v>48364</v>
       </c>
       <c r="C276" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>5399999.9541709693</v>
+        <v>45070389.455069147</v>
       </c>
       <c r="D276" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>5334684.851332942</v>
+        <v>183927607.07896847</v>
       </c>
       <c r="E276" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>65315.102838027378</v>
+        <v>-138857217.62389931</v>
       </c>
       <c r="F276" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>1.862645149230957E-8</v>
+        <v>-3965706931.609561</v>
       </c>
     </row>
   </sheetData>
@@ -10001,7 +10017,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F277"/>
   <sheetViews>
-    <sheetView topLeftCell="A262" workbookViewId="0">
+    <sheetView topLeftCell="A247" workbookViewId="0">
       <selection activeCell="B215" sqref="B215"/>
     </sheetView>
   </sheetViews>
@@ -10016,14 +10032,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="64" t="s">
@@ -13307,14 +13323,14 @@
       <c r="F143" s="68"/>
     </row>
     <row r="145" spans="1:6" s="64" customFormat="1" ht="57" customHeight="1">
-      <c r="A145" s="119" t="s">
+      <c r="A145" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="B145" s="119"/>
-      <c r="C145" s="119"/>
-      <c r="D145" s="119"/>
-      <c r="E145" s="119"/>
-      <c r="F145" s="119"/>
+      <c r="B145" s="120"/>
+      <c r="C145" s="120"/>
+      <c r="D145" s="120"/>
+      <c r="E145" s="120"/>
+      <c r="F145" s="120"/>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="63" t="s">

--- a/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
+++ b/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-BNI\Simulasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UF-BNI\Simulasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1633,8 +1633,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D50" workbookViewId="0">
-      <selection activeCell="K84" sqref="K84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="D1" s="3">
         <f ca="1">IF(B16=1,'Regular Fixed'!E79,IF(AND(B16=0,E16=0),'Regular Fixed'!E15,IF(AND(B16=0,E16&gt;0,E15&gt;0),'Regular Fixed'!E147,IF(AND(B16=0,E16&gt;0,E15=0),'Regular Fixed'!E213))))</f>
-        <v>40493501.75900168</v>
+        <v>33631000.861182682</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1672,7 +1672,7 @@
         <v>98</v>
       </c>
       <c r="B2">
-        <v>280000000</v>
+        <v>304000000</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1680,7 +1680,7 @@
         <v>70</v>
       </c>
       <c r="B3">
-        <v>585256001.75999999</v>
+        <v>739286000.86000001</v>
       </c>
       <c r="C3" s="87" t="s">
         <v>96</v>
@@ -1702,7 +1702,7 @@
         <v>29</v>
       </c>
       <c r="B5">
-        <v>802000000</v>
+        <v>1008000000</v>
       </c>
       <c r="C5" s="83" t="s">
         <v>93</v>
@@ -1722,7 +1722,7 @@
         <v>99</v>
       </c>
       <c r="B6">
-        <v>280000000</v>
+        <v>304000000</v>
       </c>
       <c r="C6" s="83" t="s">
         <v>93</v>
@@ -1731,7 +1731,7 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>21342500</v>
+        <v>21764500</v>
       </c>
       <c r="F6" s="83" t="s">
         <v>93</v>
@@ -1740,7 +1740,7 @@
         <v>12</v>
       </c>
       <c r="H6">
-        <v>22945640</v>
+        <v>21864500</v>
       </c>
       <c r="I6" s="83" t="s">
         <v>93</v>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="B7" s="89">
         <f>B5-B6+D24+D25+D26+D27+D28+D29+D30+D31+D38</f>
-        <v>544762500</v>
+        <v>705655000</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>5</v>
@@ -1778,7 +1778,7 @@
         <v>33</v>
       </c>
       <c r="B8">
-        <v>0.10000218</v>
+        <v>0.10008869000000001</v>
       </c>
       <c r="C8" s="83" t="s">
         <v>93</v>
@@ -1813,7 +1813,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>78300000</v>
+        <v>70400000</v>
       </c>
       <c r="F9" s="83" t="s">
         <v>93</v>
@@ -1830,7 +1830,7 @@
         <v>35</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C10" s="83" t="s">
         <v>93</v>
@@ -1839,7 +1839,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>1200000</v>
+        <v>1100000</v>
       </c>
       <c r="F10" s="83" t="s">
         <v>93</v>
@@ -1858,7 +1858,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>1250000</v>
+        <v>1100000</v>
       </c>
       <c r="F11" s="83" t="s">
         <v>93</v>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B12" s="20">
         <f>B8/(12/B10)</f>
-        <v>5.0001089999999998E-2</v>
+        <v>0.10008869000000001</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>10</v>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B13" s="18">
         <f>B9/B10</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>11</v>
@@ -1915,7 +1915,7 @@
         <v>100</v>
       </c>
       <c r="E14">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="F14" s="83" t="s">
         <v>93</v>
@@ -1927,13 +1927,13 @@
       </c>
       <c r="B15" s="3">
         <f>IF(B16=1,B2+SUM(E6:E14)-SUM(D24:D31,D38)+B18,B2+SUM(E6:E14)-SUM(D24:D31,D38))</f>
-        <v>505894000</v>
+        <v>766652500</v>
       </c>
       <c r="D15" s="82" t="s">
         <v>94</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>40165000</v>
       </c>
       <c r="F15" s="83" t="s">
         <v>93</v>
@@ -1964,7 +1964,7 @@
         <v>41</v>
       </c>
       <c r="B17">
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="C17" s="82" t="s">
         <v>92</v>
@@ -1972,8 +1972,8 @@
     </row>
     <row r="18" spans="1:13">
       <c r="B18" s="90">
-        <f>ROUND(B17,0)</f>
-        <v>146314000</v>
+        <f>ROUNDDOWN(B17,0)</f>
+        <v>369643000</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>42</v>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="B19" s="13">
         <f ca="1">(D1/B7)/(B9/12/B10)*100</f>
-        <v>22.299718735596713</v>
+        <v>28.595560885573846</v>
       </c>
       <c r="F19" s="85" t="s">
         <v>43</v>
@@ -2038,7 +2038,7 @@
       <c r="B21" s="22"/>
       <c r="C21" s="23">
         <f>B5</f>
-        <v>802000000</v>
+        <v>1008000000</v>
       </c>
       <c r="D21" s="21"/>
       <c r="F21" s="105">
@@ -2046,14 +2046,14 @@
       </c>
       <c r="G21" s="101">
         <f>IF($B$16=0,IF(F21&lt;=$E$16,$E$15,$B$17),-B7+B17)</f>
-        <v>-398448499.56</v>
+        <v>-336011999.56999999</v>
       </c>
       <c r="I21" s="85">
         <v>1</v>
       </c>
       <c r="J21" s="101">
         <f>IF(B16=0,IF(I21&lt;=$E$16,$E$15,$B$18),B37-C37)</f>
-        <v>-319081640</v>
+        <v>-263262000</v>
       </c>
       <c r="L21" s="13">
         <v>-246450080</v>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="B22" s="23">
         <f>B6</f>
-        <v>280000000</v>
+        <v>304000000</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="21"/>
@@ -2074,14 +2074,14 @@
       </c>
       <c r="G22" s="102">
         <f>IF($B$16=0,IF(F22&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="I22" s="85">
         <v>2</v>
       </c>
       <c r="J22" s="100">
         <f>IF($B$16=0,IF(I22&lt;=$E$16,$E$15,$B$18),$B$18)</f>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L22" s="13">
         <v>6600000</v>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B23" s="98">
         <f>IF(B16=1,B18,0)</f>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="21"/>
@@ -2102,14 +2102,14 @@
       </c>
       <c r="G23" s="102">
         <f>IF($B$16=0,IF(F23&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="I23" s="85">
         <v>3</v>
       </c>
       <c r="J23" s="100">
         <f>IF($B$16=0,IF(I23&lt;=$E$16,$E$15,$B$18),$B$18)</f>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L23" s="13">
         <v>6600000</v>
@@ -2121,11 +2121,11 @@
       </c>
       <c r="B24" s="98">
         <f t="shared" ref="B24:B31" si="0">E6-D24</f>
-        <v>0</v>
+        <v>21764500</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24">
-        <v>21342500</v>
+        <v>0</v>
       </c>
       <c r="E24" s="83" t="s">
         <v>93</v>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="G24" s="102">
         <f>IF($B$16=0,IF(F24&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H24" s="104"/>
       <c r="I24" s="85">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="J24" s="100">
         <f t="shared" ref="J24:J81" si="1">IF($B$16=0,IF(I24&lt;=$E$16,$E$15,$B$18),$B$18)</f>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L24" s="13">
         <v>6600000</v>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="G25" s="102">
         <f t="shared" ref="G25:G81" si="2">IF($B$16=0,IF(F25&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H25" s="104"/>
       <c r="I25" s="85">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="J25" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L25" s="13">
         <v>6600000</v>
@@ -2191,11 +2191,11 @@
       </c>
       <c r="B26" s="23">
         <f t="shared" si="0"/>
-        <v>150000</v>
+        <v>70000</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="E26" s="83" t="s">
         <v>93</v>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="G26" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H26" s="104"/>
       <c r="I26" s="85">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="J26" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L26" s="13">
         <v>6600000</v>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="B27" s="23">
         <f t="shared" si="0"/>
-        <v>77300000</v>
+        <v>69400000</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="G27" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H27" s="104"/>
       <c r="I27" s="85">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="J27" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L27" s="13">
         <v>6600000</v>
@@ -2259,11 +2259,11 @@
       </c>
       <c r="B28" s="23">
         <f t="shared" si="0"/>
-        <v>1050000</v>
+        <v>900000</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="E28" s="83" t="s">
         <v>93</v>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="G28" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H28" s="104"/>
       <c r="I28" s="85">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="J28" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L28" s="13">
         <v>6600000</v>
@@ -2293,11 +2293,11 @@
       </c>
       <c r="B29" s="23">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>800000</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="E29" s="83" t="s">
         <v>93</v>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="G29" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H29" s="104"/>
       <c r="I29" s="85">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="J29" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L29" s="13">
         <v>6600000</v>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="G30" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H30" s="104"/>
       <c r="I30" s="85">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="J30" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L30" s="13">
         <v>6600000</v>
@@ -2359,11 +2359,11 @@
       </c>
       <c r="B31" s="23">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="C31" s="22"/>
       <c r="D31">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="E31" s="83" t="s">
         <v>93</v>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="G31" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H31" s="104"/>
       <c r="I31" s="85">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="J31" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L31" s="13">
         <v>6600000</v>
@@ -2394,7 +2394,7 @@
       <c r="B32" s="22"/>
       <c r="C32" s="24">
         <f>H6</f>
-        <v>22945640</v>
+        <v>21864500</v>
       </c>
       <c r="D32" s="21"/>
       <c r="F32" s="105">
@@ -2402,7 +2402,7 @@
       </c>
       <c r="G32" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H32" s="104"/>
       <c r="I32" s="85">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="J32" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L32" s="13">
         <v>6600000</v>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="G33" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H33" s="104"/>
       <c r="I33" s="85">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="J33" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L33" s="13">
         <v>6600000</v>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="G34" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H34" s="104"/>
       <c r="I34" s="85">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="J34" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L34" s="13">
         <v>6600000</v>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="G35" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H35" s="104"/>
       <c r="I35" s="85">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="J35" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L35" s="13">
         <v>6600000</v>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="G36" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H36" s="104"/>
       <c r="I36" s="85">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="J36" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L36" s="13">
         <v>6600000</v>
@@ -2532,11 +2532,11 @@
       </c>
       <c r="B37" s="16">
         <f>SUM(B21:B35)</f>
-        <v>505864000</v>
+        <v>766602500</v>
       </c>
       <c r="C37" s="16">
         <f>SUM(C21:C35)</f>
-        <v>824945640</v>
+        <v>1029864500</v>
       </c>
       <c r="D37" t="s">
         <v>49</v>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="G37" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H37" s="104"/>
       <c r="I37" s="85">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="J37" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L37" s="13">
         <v>6600000</v>
@@ -2567,7 +2567,7 @@
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
       <c r="D38">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="E38" t="s">
         <v>93</v>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="G38" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H38" s="104"/>
       <c r="I38" s="85">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="J38" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L38" s="13">
         <v>6600000</v>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="G39" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H39" s="104"/>
       <c r="I39" s="85">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="J39" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="K39" s="35"/>
       <c r="L39" s="13">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="G40" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H40" s="104"/>
       <c r="I40" s="85">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="J40" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L40" s="13">
         <v>6600000</v>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="G41" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H41" s="104"/>
       <c r="I41" s="85">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="J41" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L41" s="13">
         <v>6600000</v>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="G42" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H42" s="104"/>
       <c r="I42" s="85">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="J42" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L42" s="13">
         <v>6600000</v>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="G43" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H43" s="104"/>
       <c r="I43" s="85">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="J43" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L43" s="13">
         <v>6600000</v>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="G44" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H44" s="104"/>
       <c r="I44" s="85">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="J44" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L44" s="13">
         <v>6600000</v>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="G45" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H45" s="104"/>
       <c r="I45" s="85">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="J45" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L45" s="13">
         <v>6600000</v>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="G46" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H46" s="104"/>
       <c r="I46" s="85">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="J46" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L46" s="13">
         <v>6600000</v>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="G47" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H47" s="104"/>
       <c r="I47" s="85">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="J47" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L47" s="13">
         <v>6600000</v>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="G48" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H48" s="104"/>
       <c r="I48" s="85">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="J48" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L48" s="13">
         <v>6600000</v>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="G49" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H49" s="104"/>
       <c r="I49" s="85">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="J49" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L49" s="13">
         <v>6600000</v>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="G50" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H50" s="104"/>
       <c r="I50" s="85">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="J50" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L50" s="13">
         <v>6600000</v>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="G51" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H51" s="104"/>
       <c r="I51" s="85">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="J51" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L51" s="13">
         <v>6600000</v>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="G52" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H52" s="104"/>
       <c r="I52" s="85">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="J52" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L52" s="13">
         <v>6600000</v>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="G53" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H53" s="104"/>
       <c r="I53" s="85">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="J53" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L53" s="13">
         <v>6600000</v>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="G54" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H54" s="104"/>
       <c r="I54" s="85">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="J54" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L54" s="13">
         <v>6600000</v>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="G55" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H55" s="104"/>
       <c r="I55" s="85">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="J55" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L55" s="13">
         <v>6600000</v>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="G56" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H56" s="104"/>
       <c r="I56" s="85">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="J56" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L56" s="13">
         <v>6600000</v>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="G57" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H57" s="104"/>
       <c r="I57" s="85">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="J57" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L57" s="13">
         <v>6600000</v>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="G58" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H58" s="104"/>
       <c r="I58" s="85">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="J58" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L58" s="13">
         <v>6600000</v>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="G59" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H59" s="104"/>
       <c r="I59" s="85">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="J59" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L59" s="13">
         <v>6600000</v>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="G60" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H60" s="104"/>
       <c r="I60" s="85">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="J60" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L60" s="13">
         <v>6600000</v>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G61" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H61" s="104"/>
       <c r="I61" s="85">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="J61" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L61" s="13">
         <v>6600000</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="G62" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H62" s="104"/>
       <c r="I62" s="85">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="J62" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L62" s="13">
         <v>6600000</v>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="G63" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H63" s="104"/>
       <c r="I63" s="85">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="J63" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L63" s="13">
         <v>6600000</v>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="G64" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H64" s="104"/>
       <c r="I64" s="85">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="J64" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L64" s="13">
         <v>6600000</v>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="G65" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H65" s="104"/>
       <c r="I65" s="85">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="J65" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L65" s="13">
         <v>6600000</v>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="G66" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H66" s="104"/>
       <c r="I66" s="85">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="J66" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L66" s="13">
         <v>6600000</v>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="G67" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H67" s="104"/>
       <c r="I67" s="85">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="J67" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L67" s="13">
         <v>6600000</v>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="G68" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H68" s="104"/>
       <c r="I68" s="85">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="J68" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L68" s="13">
         <v>6600000</v>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="G69" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H69" s="104"/>
       <c r="I69" s="85">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="J69" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L69" s="13">
         <v>6600000</v>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="G70" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H70" s="104"/>
       <c r="I70" s="85">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="J70" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L70" s="13">
         <v>6600000</v>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="G71" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H71" s="104"/>
       <c r="I71" s="85">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="J71" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L71" s="13">
         <v>6600000</v>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="G72" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H72" s="104"/>
       <c r="I72" s="85">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="J72" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L72" s="13">
         <v>6600000</v>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="G73" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H73" s="104"/>
       <c r="I73" s="85">
@@ -3287,7 +3287,7 @@
       </c>
       <c r="J73" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L73" s="13">
         <v>6600000</v>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="G74" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H74" s="104"/>
       <c r="I74" s="85">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="J74" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L74" s="13">
         <v>6600000</v>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="G75" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H75" s="104"/>
       <c r="I75" s="85">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="J75" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L75" s="13">
         <v>6600000</v>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="G76" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H76" s="104"/>
       <c r="I76" s="85">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="J76" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L76" s="13">
         <v>6600000</v>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="G77" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H77" s="104"/>
       <c r="I77" s="85">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="J77" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L77" s="13">
         <v>6600000</v>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="G78" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H78" s="104"/>
       <c r="I78" s="85">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="J78" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L78" s="13">
         <v>6600000</v>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="G79" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H79" s="104"/>
       <c r="I79" s="85">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="J79" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L79" s="13">
         <v>6600000</v>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="G80" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H80" s="104"/>
       <c r="I80" s="85">
@@ -3427,7 +3427,7 @@
       </c>
       <c r="J80" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L80" s="13">
         <v>6600000</v>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="G81" s="102">
         <f t="shared" si="2"/>
-        <v>146314000.44</v>
+        <v>369643000.43000001</v>
       </c>
       <c r="H81" s="104"/>
       <c r="I81" s="85">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="J81" s="100">
         <f t="shared" si="1"/>
-        <v>146314000</v>
+        <v>369643000</v>
       </c>
       <c r="L81" s="13">
         <v>6600000</v>
@@ -3474,26 +3474,26 @@
       <c r="F83" s="106"/>
       <c r="G83" s="14">
         <f ca="1">_xlfn.NUMBERVALUE(IRR(G20:INDIRECT(CONCATENATE("G",IF(B16=1,B13+20+1,B13+20)))))</f>
-        <v>0.173721722870078</v>
+        <v>0.73437431230487804</v>
       </c>
       <c r="J83" s="56">
         <f ca="1">IRR(J20:INDIRECT(CONCATENATE("J",B13+20)))</f>
-        <v>0.17813059097742445</v>
+        <v>0.4040879428098243</v>
       </c>
       <c r="K83" s="110">
         <f ca="1">J83*(12/B10)*100</f>
-        <v>35.626118195484892</v>
+        <v>40.408794280982427</v>
       </c>
       <c r="L83" s="104"/>
     </row>
     <row r="84" spans="6:13">
       <c r="G84">
         <f ca="1">_xlfn.NUMBERVALUE(G83*12*100)</f>
-        <v>208.46606744409399</v>
+        <v>881.24917476585404</v>
       </c>
       <c r="J84">
         <f ca="1">_xlfn.NUMBERVALUE(K83)</f>
-        <v>35.626118195484899</v>
+        <v>40.408794280982399</v>
       </c>
     </row>
     <row r="85" spans="6:13">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B3" s="88">
         <f>'Gross Yield (CF)'!B7</f>
-        <v>544762500</v>
+        <v>705655000</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>86</v>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="B4" s="55">
         <f>'Gross Yield (CF)'!B8</f>
-        <v>0.10000218</v>
+        <v>0.10008869000000001</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>84</v>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B6" s="43">
         <f>'Gross Yield (CF)'!B10</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>81</v>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B9" s="57">
         <f>B4/(12/B6)</f>
-        <v>5.0001089999999998E-2</v>
+        <v>0.10008869000000001</v>
       </c>
       <c r="C9" s="43" t="s">
         <v>80</v>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="B10" s="52">
         <f>B5/B6</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" s="43" t="s">
         <v>79</v>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="B11" s="52">
         <f>B3*-1</f>
-        <v>-544762500</v>
+        <v>-705655000</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>77</v>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B14" s="95">
         <f>PMT(B9,B10,B11,B12,B13)</f>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="40" t="s">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="E14" s="40">
         <f ca="1">E15+F16</f>
-        <v>614519439.7759937</v>
+        <v>813280168.22271729</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="E15" s="40">
         <f ca="1">SUM(E17:INDIRECT(CONCATENATE("E",16+B10)))</f>
-        <v>69756939.77599369</v>
+        <v>107625168.22271733</v>
       </c>
       <c r="F15" s="39" t="s">
         <v>63</v>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="F16" s="39">
         <f>B3</f>
-        <v>544762500</v>
+        <v>705655000</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3765,23 +3765,23 @@
       </c>
       <c r="B17" s="38">
         <f>EDATE($B$7,$B$6*A17)</f>
-        <v>43069</v>
+        <v>43250</v>
       </c>
       <c r="C17" s="37">
         <f>B14</f>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D17" s="37">
         <f t="shared" ref="D17:D76" si="0">C17-E17</f>
-        <v>126391141.1528734</v>
+        <v>336011999.56940866</v>
       </c>
       <c r="E17" s="37">
         <f t="shared" ref="E17:E76" si="1">F16*$B$9</f>
-        <v>27238718.791125</v>
+        <v>70628084.541950002</v>
       </c>
       <c r="F17" s="37">
         <f t="shared" ref="F17:F27" si="2">F16-D17</f>
-        <v>418371358.8471266</v>
+        <v>369643000.43059134</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3790,23 +3790,23 @@
       </c>
       <c r="B18" s="38">
         <f t="shared" ref="B18:B76" si="3">EDATE($B$7,$B$6*A18)</f>
-        <v>43250</v>
+        <v>43615</v>
       </c>
       <c r="C18" s="37">
         <f t="shared" ref="C18:C76" si="4">$C$17</f>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D18" s="37">
         <f t="shared" si="0"/>
-        <v>132710835.97686093</v>
+        <v>369643000.43059134</v>
       </c>
       <c r="E18" s="37">
         <f t="shared" si="1"/>
-        <v>20919023.967137471</v>
+        <v>36997083.680767328</v>
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>285660522.87026566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3815,23 +3815,23 @@
       </c>
       <c r="B19" s="38">
         <f t="shared" si="3"/>
-        <v>43434</v>
+        <v>43981</v>
       </c>
       <c r="C19" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D19" s="37">
         <f t="shared" si="0"/>
-        <v>139346522.43051517</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="E19" s="37">
         <f t="shared" si="1"/>
-        <v>14283337.513483211</v>
+        <v>0</v>
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>146314000.43975049</v>
+        <v>-406640084.11135864</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3840,23 +3840,23 @@
       </c>
       <c r="B20" s="38">
         <f t="shared" si="3"/>
-        <v>43615</v>
+        <v>44346</v>
       </c>
       <c r="C20" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D20" s="37">
         <f t="shared" si="0"/>
-        <v>146314000.4397504</v>
+        <v>447340157.43155432</v>
       </c>
       <c r="E20" s="37">
         <f t="shared" si="1"/>
-        <v>7315859.5042480035</v>
+        <v>-40700073.320195705</v>
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-853980241.54291296</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3865,23 +3865,23 @@
       </c>
       <c r="B21" s="38">
         <f t="shared" si="3"/>
-        <v>43799</v>
+        <v>44711</v>
       </c>
       <c r="C21" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D21" s="37">
         <f t="shared" si="0"/>
-        <v>153629859.9439984</v>
+        <v>492113847.7732724</v>
       </c>
       <c r="E21" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-85473763.661913738</v>
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>-153629859.9439984</v>
+        <v>-1346094089.3161855</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3890,23 +3890,23 @@
       </c>
       <c r="B22" s="38">
         <f t="shared" si="3"/>
-        <v>43981</v>
+        <v>45076</v>
       </c>
       <c r="C22" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D22" s="37">
         <f t="shared" si="0"/>
-        <v>161311520.39774567</v>
+        <v>541368878.12775862</v>
       </c>
       <c r="E22" s="37">
         <f t="shared" si="1"/>
-        <v>-7681660.4537472585</v>
+        <v>-134728794.01640001</v>
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>-314941380.34174407</v>
+        <v>-1887462967.443944</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3915,23 +3915,23 @@
       </c>
       <c r="B23" s="38">
         <f t="shared" si="3"/>
-        <v>44165</v>
+        <v>45442</v>
       </c>
       <c r="C23" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D23" s="37">
         <f t="shared" si="0"/>
-        <v>169377272.24719018</v>
+        <v>595553779.94633567</v>
       </c>
       <c r="E23" s="37">
         <f t="shared" si="1"/>
-        <v>-15747412.303191775</v>
+        <v>-188913695.83497703</v>
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>-484318652.58893424</v>
+        <v>-2483016747.3902798</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3940,23 +3940,23 @@
       </c>
       <c r="B24" s="38">
         <f t="shared" si="3"/>
-        <v>44346</v>
+        <v>45807</v>
       </c>
       <c r="C24" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D24" s="37">
         <f t="shared" si="0"/>
-        <v>177846320.48077643</v>
+        <v>655161977.60571265</v>
       </c>
       <c r="E24" s="37">
         <f t="shared" si="1"/>
-        <v>-24216460.536778033</v>
+        <v>-248521893.49435404</v>
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>-662164973.06971073</v>
+        <v>-3138178724.9959927</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3965,23 +3965,23 @@
       </c>
       <c r="B25" s="38">
         <f t="shared" si="3"/>
-        <v>44530</v>
+        <v>46172</v>
       </c>
       <c r="C25" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D25" s="37">
         <f t="shared" si="0"/>
-        <v>186738830.35730457</v>
+        <v>720736281.68207788</v>
       </c>
       <c r="E25" s="37">
         <f t="shared" si="1"/>
-        <v>-33108970.41330618</v>
+        <v>-314096197.57071918</v>
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>-848903803.4270153</v>
+        <v>-3858915006.6780705</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3990,23 +3990,23 @@
       </c>
       <c r="B26" s="38">
         <f t="shared" si="3"/>
-        <v>44711</v>
+        <v>46537</v>
       </c>
       <c r="C26" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D26" s="37">
         <f t="shared" si="0"/>
-        <v>196075975.42049488</v>
+        <v>792873831.95110798</v>
       </c>
       <c r="E26" s="37">
         <f t="shared" si="1"/>
-        <v>-42446115.476496495</v>
+        <v>-386233747.83974934</v>
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>-1044979778.8475102</v>
+        <v>-4651788838.629179</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4015,23 +4015,23 @@
       </c>
       <c r="B27" s="38">
         <f t="shared" si="3"/>
-        <v>44895</v>
+        <v>46903</v>
       </c>
       <c r="C27" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D27" s="37">
         <f t="shared" si="0"/>
-        <v>205879987.91433287</v>
+        <v>872231535.1263746</v>
       </c>
       <c r="E27" s="37">
         <f t="shared" si="1"/>
-        <v>-52250127.970334455</v>
+        <v>-465591451.01501596</v>
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
-        <v>-1250859766.7618432</v>
+        <v>-5524020373.7555532</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4040,23 +4040,23 @@
       </c>
       <c r="B28" s="38">
         <f t="shared" si="3"/>
-        <v>45076</v>
+        <v>47268</v>
       </c>
       <c r="C28" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D28" s="37">
         <f t="shared" si="0"/>
-        <v>216174211.71923631</v>
+        <v>959532046.8538624</v>
       </c>
       <c r="E28" s="37">
         <f t="shared" si="1"/>
-        <v>-62544351.775237925</v>
+        <v>-552891962.74250376</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" ref="F28:F76" si="5">F27-D28</f>
-        <v>-1467033978.4810796</v>
+        <v>-6483552420.609416</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4065,23 +4065,23 @@
       </c>
       <c r="B29" s="38">
         <f t="shared" si="3"/>
-        <v>45260</v>
+        <v>47633</v>
       </c>
       <c r="C29" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D29" s="37">
         <f t="shared" si="0"/>
-        <v>226983157.93508893</v>
+        <v>1055570352.4364841</v>
       </c>
       <c r="E29" s="37">
         <f t="shared" si="1"/>
-        <v>-73353297.991090521</v>
+        <v>-648930268.32512546</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="5"/>
-        <v>-1694017136.4161685</v>
+        <v>-7539122773.0459003</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4090,23 +4090,23 @@
       </c>
       <c r="B30" s="38">
         <f t="shared" si="3"/>
-        <v>45442</v>
+        <v>47998</v>
       </c>
       <c r="C30" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D30" s="37">
         <f t="shared" si="0"/>
-        <v>238332563.24348551</v>
+        <v>1161221006.2146902</v>
       </c>
       <c r="E30" s="37">
         <f t="shared" si="1"/>
-        <v>-84702703.299487114</v>
+        <v>-754580922.10333157</v>
       </c>
       <c r="F30" s="37">
         <f t="shared" si="5"/>
-        <v>-1932349699.6596539</v>
+        <v>-8700343779.2605896</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4115,23 +4115,23 @@
       </c>
       <c r="B31" s="38">
         <f t="shared" si="3"/>
-        <v>45626</v>
+        <v>48364</v>
       </c>
       <c r="C31" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D31" s="37">
         <f t="shared" si="0"/>
-        <v>250249451.18815371</v>
+        <v>1277446095.5272002</v>
       </c>
       <c r="E31" s="37">
         <f t="shared" si="1"/>
-        <v>-96619591.244155318</v>
+        <v>-870806011.4158417</v>
       </c>
       <c r="F31" s="37">
         <f t="shared" si="5"/>
-        <v>-2182599150.8478074</v>
+        <v>-9977789874.7877903</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4140,23 +4140,23 @@
       </c>
       <c r="B32" s="38">
         <f t="shared" si="3"/>
-        <v>45807</v>
+        <v>48729</v>
       </c>
       <c r="C32" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D32" s="37">
         <f t="shared" si="0"/>
-        <v>262762196.51946318</v>
+        <v>1405304001.7741327</v>
       </c>
       <c r="E32" s="37">
         <f t="shared" si="1"/>
-        <v>-109132336.57546479</v>
+        <v>-998663917.66277409</v>
       </c>
       <c r="F32" s="37">
         <f t="shared" si="5"/>
-        <v>-2445361347.3672705</v>
+        <v>-11383093876.561924</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4165,23 +4165,23 @@
       </c>
       <c r="B33" s="38">
         <f t="shared" si="3"/>
-        <v>45991</v>
+        <v>49094</v>
       </c>
       <c r="C33" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D33" s="37">
         <f t="shared" si="0"/>
-        <v>275900592.75623053</v>
+        <v>1545959038.3634634</v>
       </c>
       <c r="E33" s="37">
         <f t="shared" si="1"/>
-        <v>-122270732.81223215</v>
+        <v>-1139318954.2521048</v>
       </c>
       <c r="F33" s="37">
         <f t="shared" si="5"/>
-        <v>-2721261940.1235008</v>
+        <v>-12929052914.925388</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4190,23 +4190,23 @@
       </c>
       <c r="B34" s="38">
         <f t="shared" si="3"/>
-        <v>46172</v>
+        <v>49459</v>
       </c>
       <c r="C34" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D34" s="37">
         <f t="shared" si="0"/>
-        <v>289695923.1256882</v>
+        <v>1700692053.3069222</v>
       </c>
       <c r="E34" s="37">
         <f t="shared" si="1"/>
-        <v>-136066063.18168977</v>
+        <v>-1294051969.1955636</v>
       </c>
       <c r="F34" s="37">
         <f t="shared" si="5"/>
-        <v>-3010957863.2491889</v>
+        <v>-14629744968.232311</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4215,23 +4215,23 @@
       </c>
       <c r="B35" s="38">
         <f t="shared" si="3"/>
-        <v>46356</v>
+        <v>49825</v>
       </c>
       <c r="C35" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D35" s="37">
         <f t="shared" si="0"/>
-        <v>304181035.05052876</v>
+        <v>1870912093.0158224</v>
       </c>
       <c r="E35" s="37">
         <f t="shared" si="1"/>
-        <v>-150551175.10653037</v>
+        <v>-1464272008.9044638</v>
       </c>
       <c r="F35" s="37">
         <f t="shared" si="5"/>
-        <v>-3315138898.2997179</v>
+        <v>-16500657061.248135</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4240,23 +4240,23 @@
       </c>
       <c r="B36" s="38">
         <f t="shared" si="3"/>
-        <v>46537</v>
+        <v>50190</v>
       </c>
       <c r="C36" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D36" s="37">
         <f t="shared" si="0"/>
-        <v>319390418.36038339</v>
+        <v>2058169233.5109344</v>
       </c>
       <c r="E36" s="37">
         <f t="shared" si="1"/>
-        <v>-165760558.41638502</v>
+        <v>-1651529149.3995757</v>
       </c>
       <c r="F36" s="37">
         <f t="shared" si="5"/>
-        <v>-3634529316.6601014</v>
+        <v>-18558826294.759068</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4265,23 +4265,23 @@
       </c>
       <c r="B37" s="38">
         <f t="shared" si="3"/>
-        <v>46721</v>
+        <v>50555</v>
       </c>
       <c r="C37" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D37" s="37">
         <f t="shared" si="0"/>
-        <v>335360287.41395861</v>
+        <v>2264168695.8913479</v>
       </c>
       <c r="E37" s="37">
         <f t="shared" si="1"/>
-        <v>-181730427.46996021</v>
+        <v>-1857528611.779989</v>
       </c>
       <c r="F37" s="37">
         <f t="shared" si="5"/>
-        <v>-3969889604.07406</v>
+        <v>-20822994990.650414</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4290,23 +4290,23 @@
       </c>
       <c r="B38" s="38">
         <f t="shared" si="3"/>
-        <v>46903</v>
+        <v>50920</v>
       </c>
       <c r="C38" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D38" s="37">
         <f t="shared" si="0"/>
-        <v>352128667.32736981</v>
+        <v>2490786374.6021209</v>
       </c>
       <c r="E38" s="37">
         <f t="shared" si="1"/>
-        <v>-198498807.38337144</v>
+        <v>-2084146290.4907622</v>
       </c>
       <c r="F38" s="37">
         <f t="shared" si="5"/>
-        <v>-4322018271.4014301</v>
+        <v>-23313781365.252533</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4315,23 +4315,23 @@
       </c>
       <c r="B39" s="38">
         <f t="shared" si="3"/>
-        <v>47087</v>
+        <v>51286</v>
       </c>
       <c r="C39" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D39" s="37">
         <f t="shared" si="0"/>
-        <v>369735484.51398575</v>
+        <v>2740085919.9058962</v>
       </c>
       <c r="E39" s="37">
         <f t="shared" si="1"/>
-        <v>-216105624.56998733</v>
+        <v>-2333445835.7945375</v>
       </c>
       <c r="F39" s="37">
         <f t="shared" si="5"/>
-        <v>-4691753755.9154158</v>
+        <v>-26053867285.158428</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4340,23 +4340,23 @@
       </c>
       <c r="B40" s="38">
         <f t="shared" si="3"/>
-        <v>47268</v>
+        <v>51651</v>
       </c>
       <c r="C40" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D40" s="37">
         <f t="shared" si="0"/>
-        <v>388222661.75136316</v>
+        <v>3014337530.1167226</v>
       </c>
       <c r="E40" s="37">
         <f t="shared" si="1"/>
-        <v>-234592801.80736473</v>
+        <v>-2607697446.0053639</v>
       </c>
       <c r="F40" s="37">
         <f t="shared" si="5"/>
-        <v>-5079976417.6667786</v>
+        <v>-29068204815.27515</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4365,23 +4365,23 @@
       </c>
       <c r="B41" s="38">
         <f t="shared" si="3"/>
-        <v>47452</v>
+        <v>52016</v>
       </c>
       <c r="C41" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D41" s="37">
         <f t="shared" si="0"/>
-        <v>407634218.00163257</v>
+        <v>3316038624.7239408</v>
       </c>
       <c r="E41" s="37">
         <f t="shared" si="1"/>
-        <v>-254004358.05763417</v>
+        <v>-2909398540.6125822</v>
       </c>
       <c r="F41" s="37">
         <f t="shared" si="5"/>
-        <v>-5487610635.6684113</v>
+        <v>-32384243439.999092</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4390,23 +4390,23 @@
       </c>
       <c r="B42" s="38">
         <f t="shared" si="3"/>
-        <v>47633</v>
+        <v>52381</v>
       </c>
       <c r="C42" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D42" s="37">
         <f t="shared" si="0"/>
-        <v>428016373.22301185</v>
+        <v>3647936586.6619616</v>
       </c>
       <c r="E42" s="37">
         <f t="shared" si="1"/>
-        <v>-274386513.27901345</v>
+        <v>-3241296502.5506029</v>
       </c>
       <c r="F42" s="37">
         <f t="shared" si="5"/>
-        <v>-5915627008.8914232</v>
+        <v>-36032180026.661057</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4415,23 +4415,23 @@
       </c>
       <c r="B43" s="38">
         <f t="shared" si="3"/>
-        <v>47817</v>
+        <v>52747</v>
       </c>
       <c r="C43" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D43" s="37">
         <f t="shared" si="0"/>
-        <v>449417658.42200923</v>
+        <v>4013053780.824029</v>
       </c>
       <c r="E43" s="37">
         <f t="shared" si="1"/>
-        <v>-295787798.47801083</v>
+        <v>-3606413696.7126703</v>
       </c>
       <c r="F43" s="37">
         <f t="shared" si="5"/>
-        <v>-6365044667.3134327</v>
+        <v>-40045233807.485085</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4440,23 +4440,23 @@
       </c>
       <c r="B44" s="38">
         <f t="shared" si="3"/>
-        <v>47998</v>
+        <v>53112</v>
       </c>
       <c r="C44" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D44" s="37">
         <f t="shared" si="0"/>
-        <v>471889031.20835739</v>
+        <v>4414715076.6462536</v>
       </c>
       <c r="E44" s="37">
         <f t="shared" si="1"/>
-        <v>-318259171.264359</v>
+        <v>-4008074992.5348945</v>
       </c>
       <c r="F44" s="37">
         <f t="shared" si="5"/>
-        <v>-6836933698.5217905</v>
+        <v>-44459948884.13134</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4465,23 +4465,23 @@
       </c>
       <c r="B45" s="38">
         <f t="shared" si="3"/>
-        <v>48182</v>
+        <v>53477</v>
       </c>
       <c r="C45" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D45" s="37">
         <f t="shared" si="0"/>
-        <v>495483997.1278193</v>
+        <v>4856578125.3910265</v>
       </c>
       <c r="E45" s="37">
         <f t="shared" si="1"/>
-        <v>-341854137.1838209</v>
+        <v>-4449938041.2796679</v>
       </c>
       <c r="F45" s="37">
         <f t="shared" si="5"/>
-        <v>-7332417695.6496096</v>
+        <v>-49316527009.522369</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4490,23 +4490,23 @@
       </c>
       <c r="B46" s="38">
         <f t="shared" si="3"/>
-        <v>48364</v>
+        <v>53842</v>
       </c>
       <c r="C46" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D46" s="37">
         <f t="shared" si="0"/>
-        <v>520258737.0617671</v>
+        <v>5342666667.8440704</v>
       </c>
       <c r="E46" s="37">
         <f t="shared" si="1"/>
-        <v>-366628877.1177687</v>
+        <v>-4936026583.7327118</v>
       </c>
       <c r="F46" s="37">
         <f t="shared" si="5"/>
-        <v>-7852676432.7113762</v>
+        <v>-54659193677.36644</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4515,23 +4515,23 @@
       </c>
       <c r="B47" s="38">
         <f t="shared" si="3"/>
-        <v>48548</v>
+        <v>54208</v>
       </c>
       <c r="C47" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D47" s="37">
         <f t="shared" si="0"/>
-        <v>546272240.99687886</v>
+        <v>5877407175.7352486</v>
       </c>
       <c r="E47" s="37">
         <f t="shared" si="1"/>
-        <v>-392642381.05288047</v>
+        <v>-5470767091.6238899</v>
       </c>
       <c r="F47" s="37">
         <f t="shared" si="5"/>
-        <v>-8398948673.7082548</v>
+        <v>-60536600853.101685</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4540,23 +4540,23 @@
       </c>
       <c r="B48" s="38">
         <f t="shared" si="3"/>
-        <v>48729</v>
+        <v>54573</v>
       </c>
       <c r="C48" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D48" s="37">
         <f t="shared" si="0"/>
-        <v>573586448.48346543</v>
+        <v>6465669160.5511894</v>
       </c>
       <c r="E48" s="37">
         <f t="shared" si="1"/>
-        <v>-419956588.53946704</v>
+        <v>-6059029076.4398308</v>
       </c>
       <c r="F48" s="37">
         <f t="shared" si="5"/>
-        <v>-8972535122.191721</v>
+        <v>-67002270013.652878</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4565,23 +4565,23 @@
       </c>
       <c r="B49" s="38">
         <f t="shared" si="3"/>
-        <v>48913</v>
+        <v>54938</v>
       </c>
       <c r="C49" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D49" s="37">
         <f t="shared" si="0"/>
-        <v>602266396.11686754</v>
+        <v>7112809516.8041582</v>
       </c>
       <c r="E49" s="37">
         <f t="shared" si="1"/>
-        <v>-448636536.17286921</v>
+        <v>-6706169432.6927996</v>
       </c>
       <c r="F49" s="37">
         <f t="shared" si="5"/>
-        <v>-9574801518.308588</v>
+        <v>-74115079530.457031</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4590,23 +4590,23 @@
       </c>
       <c r="B50" s="38">
         <f t="shared" si="3"/>
-        <v>49094</v>
+        <v>55303</v>
       </c>
       <c r="C50" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D50" s="37">
         <f t="shared" si="0"/>
-        <v>632380372.39308274</v>
+        <v>7824721303.5606184</v>
       </c>
       <c r="E50" s="37">
         <f t="shared" si="1"/>
-        <v>-478750512.44908434</v>
+        <v>-7418081219.4492598</v>
       </c>
       <c r="F50" s="37">
         <f t="shared" si="5"/>
-        <v>-10207181890.701672</v>
+        <v>-81939800834.017654</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4615,23 +4615,23 @@
       </c>
       <c r="B51" s="38">
         <f t="shared" si="3"/>
-        <v>49278</v>
+        <v>55669</v>
       </c>
       <c r="C51" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D51" s="37">
         <f t="shared" si="0"/>
-        <v>664000080.30734277</v>
+        <v>8607887408.4490929</v>
       </c>
       <c r="E51" s="37">
         <f t="shared" si="1"/>
-        <v>-510370220.36334443</v>
+        <v>-8201247324.3377352</v>
       </c>
       <c r="F51" s="37">
         <f t="shared" si="5"/>
-        <v>-10871181971.009014</v>
+        <v>-90547688242.466751</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4640,23 +4640,23 @@
       </c>
       <c r="B52" s="38">
         <f t="shared" si="3"/>
-        <v>49459</v>
+        <v>56034</v>
       </c>
       <c r="C52" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D52" s="37">
         <f t="shared" si="0"/>
-        <v>697200808.08279753</v>
+        <v>9469439582.8282585</v>
       </c>
       <c r="E52" s="37">
         <f t="shared" si="1"/>
-        <v>-543570948.13879907</v>
+        <v>-9062799498.7168999</v>
       </c>
       <c r="F52" s="37">
         <f t="shared" si="5"/>
-        <v>-11568382779.091812</v>
+        <v>-100017127825.29501</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4665,23 +4665,23 @@
       </c>
       <c r="B53" s="38">
         <f t="shared" si="3"/>
-        <v>49643</v>
+        <v>56399</v>
       </c>
       <c r="C53" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D53" s="37">
         <f t="shared" si="0"/>
-        <v>732061608.4358182</v>
+        <v>10417223385.707685</v>
       </c>
       <c r="E53" s="37">
         <f t="shared" si="1"/>
-        <v>-578431748.49181974</v>
+        <v>-10010583301.596327</v>
       </c>
       <c r="F53" s="37">
         <f t="shared" si="5"/>
-        <v>-12300444387.52763</v>
+        <v>-110434351211.0027</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4690,23 +4690,23 @@
       </c>
       <c r="B54" s="38">
         <f t="shared" si="3"/>
-        <v>49825</v>
+        <v>56764</v>
       </c>
       <c r="C54" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D54" s="37">
         <f t="shared" si="0"/>
-        <v>768665486.80476236</v>
+        <v>11459869627.820534</v>
       </c>
       <c r="E54" s="37">
         <f t="shared" si="1"/>
-        <v>-615035626.86076391</v>
+        <v>-11053229543.709175</v>
       </c>
       <c r="F54" s="37">
         <f t="shared" si="5"/>
-        <v>-13069109874.332392</v>
+        <v>-121894220838.82324</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4715,23 +4715,23 @@
       </c>
       <c r="B55" s="38">
         <f t="shared" si="3"/>
-        <v>50009</v>
+        <v>57130</v>
       </c>
       <c r="C55" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D55" s="37">
         <f t="shared" si="0"/>
-        <v>807099598.990381</v>
+        <v>12606872966.439878</v>
       </c>
       <c r="E55" s="37">
         <f t="shared" si="1"/>
-        <v>-653469739.04638255</v>
+        <v>-12200232882.32852</v>
       </c>
       <c r="F55" s="37">
         <f t="shared" si="5"/>
-        <v>-13876209473.322773</v>
+        <v>-134501093805.26312</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4740,23 +4740,23 @@
       </c>
       <c r="B56" s="38">
         <f t="shared" si="3"/>
-        <v>50190</v>
+        <v>57495</v>
       </c>
       <c r="C56" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D56" s="37">
         <f t="shared" si="0"/>
-        <v>847455458.67846298</v>
+        <v>13868678366.647261</v>
       </c>
       <c r="E56" s="37">
         <f t="shared" si="1"/>
-        <v>-693825598.73446453</v>
+        <v>-13462038282.535902</v>
       </c>
       <c r="F56" s="37">
         <f t="shared" si="5"/>
-        <v>-14723664932.001236</v>
+        <v>-148369772171.91037</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4765,23 +4765,23 @@
       </c>
       <c r="B57" s="38">
         <f t="shared" si="3"/>
-        <v>50374</v>
+        <v>57860</v>
       </c>
       <c r="C57" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D57" s="37">
         <f t="shared" si="0"/>
-        <v>889829155.33883595</v>
+        <v>15256776216.396324</v>
       </c>
       <c r="E57" s="37">
         <f t="shared" si="1"/>
-        <v>-736199295.39483762</v>
+        <v>-14850136132.284966</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="5"/>
-        <v>-15613494087.340073</v>
+        <v>-163626548388.3067</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4790,23 +4790,23 @@
       </c>
       <c r="B58" s="38">
         <f t="shared" si="3"/>
-        <v>50555</v>
+        <v>58225</v>
       </c>
       <c r="C58" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D58" s="37">
         <f t="shared" si="0"/>
-        <v>934321583.01955724</v>
+        <v>16783806961.518589</v>
       </c>
       <c r="E58" s="37">
         <f t="shared" si="1"/>
-        <v>-780691723.07555878</v>
+        <v>-16377166877.40723</v>
       </c>
       <c r="F58" s="37">
         <f t="shared" si="5"/>
-        <v>-16547815670.359631</v>
+        <v>-180410355349.82529</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4815,23 +4815,23 @@
       </c>
       <c r="B59" s="38">
         <f t="shared" si="3"/>
-        <v>50739</v>
+        <v>58591</v>
       </c>
       <c r="C59" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D59" s="37">
         <f t="shared" si="0"/>
-        <v>981038680.58106065</v>
+        <v>18463676213.509865</v>
       </c>
       <c r="E59" s="37">
         <f t="shared" si="1"/>
-        <v>-827408820.63706219</v>
+        <v>-18057036129.398506</v>
       </c>
       <c r="F59" s="37">
         <f t="shared" si="5"/>
-        <v>-17528854350.940693</v>
+        <v>-198874031563.33514</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4840,23 +4840,23 @@
       </c>
       <c r="B60" s="38">
         <f t="shared" si="3"/>
-        <v>50920</v>
+        <v>58956</v>
       </c>
       <c r="C60" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D60" s="37">
         <f t="shared" si="0"/>
-        <v>1030091683.9422755</v>
+        <v>20311681378.304226</v>
       </c>
       <c r="E60" s="37">
         <f t="shared" si="1"/>
-        <v>-876461823.99827719</v>
+        <v>-19905041294.192867</v>
       </c>
       <c r="F60" s="37">
         <f t="shared" si="5"/>
-        <v>-18558946034.882969</v>
+        <v>-219185712941.63937</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4865,23 +4865,23 @@
       </c>
       <c r="B61" s="38">
         <f t="shared" si="3"/>
-        <v>51104</v>
+        <v>59321</v>
       </c>
       <c r="C61" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D61" s="37">
         <f t="shared" si="0"/>
-        <v>1081597390.9393249</v>
+        <v>22344650959.156094</v>
       </c>
       <c r="E61" s="37">
         <f t="shared" si="1"/>
-        <v>-927967530.9953264</v>
+        <v>-21938010875.044735</v>
       </c>
       <c r="F61" s="37">
         <f t="shared" si="5"/>
-        <v>-19640543425.822292</v>
+        <v>-241530363900.79547</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4890,23 +4890,23 @@
       </c>
       <c r="B62" s="38">
         <f t="shared" si="3"/>
-        <v>51286</v>
+        <v>59686</v>
       </c>
       <c r="C62" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D62" s="37">
         <f t="shared" si="0"/>
-        <v>1135678439.4274471</v>
+        <v>24581097802.165268</v>
       </c>
       <c r="E62" s="37">
         <f t="shared" si="1"/>
-        <v>-982048579.48344874</v>
+        <v>-24174457718.053909</v>
       </c>
       <c r="F62" s="37">
         <f t="shared" si="5"/>
-        <v>-20776221865.249741</v>
+        <v>-266111461702.96075</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4915,23 +4915,23 @@
       </c>
       <c r="B63" s="38">
         <f t="shared" si="3"/>
-        <v>51470</v>
+        <v>60052</v>
       </c>
       <c r="C63" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D63" s="37">
         <f t="shared" si="0"/>
-        <v>1192463599.2883184</v>
+        <v>27041387679.945873</v>
       </c>
       <c r="E63" s="37">
         <f t="shared" si="1"/>
-        <v>-1038833739.3443201</v>
+        <v>-26634747595.834515</v>
       </c>
       <c r="F63" s="37">
         <f t="shared" si="5"/>
-        <v>-21968685464.538059</v>
+        <v>-293152849382.90662</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4940,23 +4940,23 @@
       </c>
       <c r="B64" s="38">
         <f t="shared" si="3"/>
-        <v>51651</v>
+        <v>60417</v>
       </c>
       <c r="C64" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D64" s="37">
         <f t="shared" si="0"/>
-        <v>1252088079.0380576</v>
+        <v>29747924748.613792</v>
       </c>
       <c r="E64" s="37">
         <f t="shared" si="1"/>
-        <v>-1098458219.0940592</v>
+        <v>-29341284664.502434</v>
       </c>
       <c r="F64" s="37">
         <f t="shared" si="5"/>
-        <v>-23220773543.576118</v>
+        <v>-322900774131.52039</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4965,23 +4965,23 @@
       </c>
       <c r="B65" s="38">
         <f t="shared" si="3"/>
-        <v>51835</v>
+        <v>60782</v>
       </c>
       <c r="C65" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D65" s="37">
         <f t="shared" si="0"/>
-        <v>1314693847.7659667</v>
+        <v>32725355566.921124</v>
       </c>
       <c r="E65" s="37">
         <f t="shared" si="1"/>
-        <v>-1161063987.8219683</v>
+        <v>-32318715482.809765</v>
       </c>
       <c r="F65" s="37">
         <f t="shared" si="5"/>
-        <v>-24535467391.342087</v>
+        <v>-355626129698.44153</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4990,23 +4990,23 @@
       </c>
       <c r="B66" s="38">
         <f t="shared" si="3"/>
-        <v>52016</v>
+        <v>61147</v>
       </c>
       <c r="C66" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D66" s="37">
         <f t="shared" si="0"/>
-        <v>1380429973.1705592</v>
+        <v>36000793535.398468</v>
       </c>
       <c r="E66" s="37">
         <f t="shared" si="1"/>
-        <v>-1226800113.2265608</v>
+        <v>-35594153451.287109</v>
       </c>
       <c r="F66" s="37">
         <f t="shared" si="5"/>
-        <v>-25915897364.512646</v>
+        <v>-391626923233.83997</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5015,23 +5015,23 @@
       </c>
       <c r="B67" s="38">
         <f t="shared" si="3"/>
-        <v>52200</v>
+        <v>61513</v>
       </c>
       <c r="C67" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D67" s="37">
         <f t="shared" si="0"/>
-        <v>1449452976.4977579</v>
+        <v>39604065799.316971</v>
       </c>
       <c r="E67" s="37">
         <f t="shared" si="1"/>
-        <v>-1295823116.5537596</v>
+        <v>-39197425715.205612</v>
       </c>
       <c r="F67" s="37">
         <f t="shared" si="5"/>
-        <v>-27365350341.010403</v>
+        <v>-431230989033.15692</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5040,23 +5040,23 @@
       </c>
       <c r="B68" s="38">
         <f t="shared" si="3"/>
-        <v>52381</v>
+        <v>61878</v>
       </c>
       <c r="C68" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D68" s="37">
         <f t="shared" si="0"/>
-        <v>1521927205.2263901</v>
+        <v>43567984863.844406</v>
       </c>
       <c r="E68" s="37">
         <f t="shared" si="1"/>
-        <v>-1368297345.2823918</v>
+        <v>-43161344779.733047</v>
       </c>
       <c r="F68" s="37">
         <f t="shared" si="5"/>
-        <v>-28887277546.236794</v>
+        <v>-474798973897.00134</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5065,23 +5065,23 @@
       </c>
       <c r="B69" s="38">
         <f t="shared" si="3"/>
-        <v>52565</v>
+        <v>62243</v>
       </c>
       <c r="C69" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D69" s="37">
         <f t="shared" si="0"/>
-        <v>1598025224.3883634</v>
+        <v>47928647394.806419</v>
       </c>
       <c r="E69" s="37">
         <f t="shared" si="1"/>
-        <v>-1444395364.444365</v>
+        <v>-47522007310.695061</v>
       </c>
       <c r="F69" s="37">
         <f t="shared" si="5"/>
-        <v>-30485302770.625156</v>
+        <v>-522727621291.80774</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5090,23 +5090,23 @@
       </c>
       <c r="B70" s="38">
         <f t="shared" si="3"/>
-        <v>52747</v>
+        <v>62608</v>
       </c>
       <c r="C70" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D70" s="37">
         <f t="shared" si="0"/>
-        <v>1677928227.455276</v>
+        <v>52725762926.024506</v>
       </c>
       <c r="E70" s="37">
         <f t="shared" si="1"/>
-        <v>-1524298367.5112777</v>
+        <v>-52319122841.913147</v>
       </c>
       <c r="F70" s="37">
         <f t="shared" si="5"/>
-        <v>-32163230998.080433</v>
+        <v>-575453384217.83228</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5115,23 +5115,23 @@
       </c>
       <c r="B71" s="38">
         <f t="shared" si="3"/>
-        <v>52931</v>
+        <v>62974</v>
       </c>
       <c r="C71" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D71" s="37">
         <f t="shared" si="0"/>
-        <v>1761826467.7698078</v>
+        <v>58003015466.540871</v>
       </c>
       <c r="E71" s="37">
         <f t="shared" si="1"/>
-        <v>-1608196607.8258095</v>
+        <v>-57596375382.429512</v>
       </c>
       <c r="F71" s="37">
         <f t="shared" si="5"/>
-        <v>-33925057465.850243</v>
+        <v>-633456399684.37317</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5140,23 +5140,23 @@
       </c>
       <c r="B72" s="38">
         <f t="shared" si="3"/>
-        <v>53112</v>
+        <v>63339</v>
       </c>
       <c r="C72" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D72" s="37">
         <f t="shared" si="0"/>
-        <v>1849919711.5491481</v>
+        <v>63808461300.636688</v>
       </c>
       <c r="E72" s="37">
         <f t="shared" si="1"/>
-        <v>-1696289851.6051497</v>
+        <v>-63401821216.52533</v>
       </c>
       <c r="F72" s="37">
         <f t="shared" si="5"/>
-        <v>-35774977177.399391</v>
+        <v>-697264860985.00989</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5165,23 +5165,23 @@
       </c>
       <c r="B73" s="38">
         <f t="shared" si="3"/>
-        <v>53296</v>
+        <v>63704</v>
       </c>
       <c r="C73" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D73" s="37">
         <f t="shared" si="0"/>
-        <v>1942417713.5390911</v>
+        <v>70194966603.133118</v>
       </c>
       <c r="E73" s="37">
         <f t="shared" si="1"/>
-        <v>-1788787853.5950928</v>
+        <v>-69788326519.021759</v>
       </c>
       <c r="F73" s="37">
         <f t="shared" si="5"/>
-        <v>-37717394890.938484</v>
+        <v>-767459827588.14307</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5190,23 +5190,23 @@
       </c>
       <c r="B74" s="38">
         <f t="shared" si="3"/>
-        <v>53477</v>
+        <v>64069</v>
       </c>
       <c r="C74" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D74" s="37">
         <f t="shared" si="0"/>
-        <v>2039540716.4513535</v>
+        <v>77220688855.03447</v>
       </c>
       <c r="E74" s="37">
         <f t="shared" si="1"/>
-        <v>-1885910856.5073552</v>
+        <v>-76814048770.923111</v>
       </c>
       <c r="F74" s="37">
         <f t="shared" si="5"/>
-        <v>-39756935607.389839</v>
+        <v>-844680516443.17749</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5215,23 +5215,23 @@
       </c>
       <c r="B75" s="38">
         <f t="shared" si="3"/>
-        <v>53661</v>
+        <v>64435</v>
       </c>
       <c r="C75" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D75" s="37">
         <f t="shared" si="0"/>
-        <v>2141519975.3733022</v>
+        <v>84949606443.432465</v>
       </c>
       <c r="E75" s="37">
         <f t="shared" si="1"/>
-        <v>-1987890115.4293039</v>
+        <v>-84542966359.321106</v>
       </c>
       <c r="F75" s="37">
         <f t="shared" si="5"/>
-        <v>-41898455582.763138</v>
+        <v>-929630122886.60999</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5240,23 +5240,23 @@
       </c>
       <c r="B76" s="38">
         <f t="shared" si="3"/>
-        <v>53842</v>
+        <v>64800</v>
       </c>
       <c r="C76" s="37">
         <f t="shared" si="4"/>
-        <v>153629859.9439984</v>
+        <v>406640084.11135864</v>
       </c>
       <c r="D76" s="37">
         <f t="shared" si="0"/>
-        <v>2248598308.3987403</v>
+        <v>93452101268.371185</v>
       </c>
       <c r="E76" s="37">
         <f t="shared" si="1"/>
-        <v>-2094968448.454742</v>
+        <v>-93045461184.259827</v>
       </c>
       <c r="F76" s="37">
         <f t="shared" si="5"/>
-        <v>-44147053891.16188</v>
+        <v>-1023082224154.9812</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="E79" s="40">
         <f ca="1">SUM(E83:INDIRECT(CONCATENATE("E",82+B10)))</f>
-        <v>40493501.75900168</v>
+        <v>33631000.861182682</v>
       </c>
       <c r="F79" s="44"/>
     </row>
@@ -5292,7 +5292,7 @@
       </c>
       <c r="B80" s="95">
         <f>PMT(B9,B10,B11,B12,B79)</f>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="C80" s="47"/>
       <c r="D80" s="46" t="s">
@@ -5300,7 +5300,7 @@
       </c>
       <c r="E80" s="45">
         <f ca="1">F82+E79</f>
-        <v>585256001.75900173</v>
+        <v>739286000.86118269</v>
       </c>
       <c r="F80" s="44"/>
     </row>
@@ -5331,7 +5331,7 @@
       </c>
       <c r="F82" s="39">
         <f>B3</f>
-        <v>544762500</v>
+        <v>705655000</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5340,22 +5340,22 @@
       </c>
       <c r="B83" s="38">
         <f>EDATE($B$7,$B$6*A83)</f>
-        <v>43069</v>
+        <v>43250</v>
       </c>
       <c r="C83" s="37">
         <f>B80</f>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D83" s="37">
         <f t="shared" ref="D83:D142" si="6">C83-E83</f>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="E83" s="37">
         <v>0</v>
       </c>
       <c r="F83" s="37">
         <f t="shared" ref="F83:F94" si="7">F82-D83</f>
-        <v>398448499.56024957</v>
+        <v>336011999.56940871</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5364,23 +5364,23 @@
       </c>
       <c r="B84" s="38">
         <f t="shared" ref="B84:B142" si="8">EDATE($B$7,$B$6*A84)</f>
-        <v>43250</v>
+        <v>43615</v>
       </c>
       <c r="C84" s="37">
         <f t="shared" ref="C84:C142" si="9">$C$83</f>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D84" s="37">
         <f t="shared" si="6"/>
-        <v>126391141.1528734</v>
+        <v>336011999.5694086</v>
       </c>
       <c r="E84" s="37">
         <f t="shared" ref="E84:E142" si="10">F83*$B$9</f>
-        <v>19922859.286876999</v>
+        <v>33631000.861182682</v>
       </c>
       <c r="F84" s="37">
         <f t="shared" si="7"/>
-        <v>272057358.40737617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5389,23 +5389,23 @@
       </c>
       <c r="B85" s="38">
         <f t="shared" si="8"/>
-        <v>43434</v>
+        <v>43981</v>
       </c>
       <c r="C85" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D85" s="37">
         <f t="shared" si="6"/>
-        <v>132710835.97686093</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="E85" s="37">
         <f t="shared" si="10"/>
-        <v>13603164.462889472</v>
+        <v>0</v>
       </c>
       <c r="F85" s="37">
         <f t="shared" si="7"/>
-        <v>139346522.43051523</v>
+        <v>-369643000.43059129</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5414,23 +5414,23 @@
       </c>
       <c r="B86" s="38">
         <f t="shared" si="8"/>
-        <v>43615</v>
+        <v>44346</v>
       </c>
       <c r="C86" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D86" s="37">
         <f t="shared" si="6"/>
-        <v>139346522.4305152</v>
+        <v>406640084.11135858</v>
       </c>
       <c r="E86" s="37">
         <f t="shared" si="10"/>
-        <v>6967478.0092352107</v>
+        <v>-36997083.68076732</v>
       </c>
       <c r="F86" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-776283084.54194987</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5439,23 +5439,23 @@
       </c>
       <c r="B87" s="38">
         <f t="shared" si="8"/>
-        <v>43799</v>
+        <v>44711</v>
       </c>
       <c r="C87" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D87" s="37">
         <f t="shared" si="6"/>
-        <v>146314000.4397504</v>
+        <v>447340157.43155432</v>
       </c>
       <c r="E87" s="37">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-77697157.000963017</v>
       </c>
       <c r="F87" s="37">
         <f t="shared" si="7"/>
-        <v>-146314000.4397504</v>
+        <v>-1223623241.9735041</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5464,23 +5464,23 @@
       </c>
       <c r="B88" s="38">
         <f t="shared" si="8"/>
-        <v>43981</v>
+        <v>45076</v>
       </c>
       <c r="C88" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D88" s="37">
         <f t="shared" si="6"/>
-        <v>153629859.9439984</v>
+        <v>492113847.77327234</v>
       </c>
       <c r="E88" s="37">
         <f t="shared" si="10"/>
-        <v>-7315859.5042479988</v>
+        <v>-122470847.34268105</v>
       </c>
       <c r="F88" s="37">
         <f t="shared" si="7"/>
-        <v>-299943860.38374877</v>
+        <v>-1715737089.7467763</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5489,23 +5489,23 @@
       </c>
       <c r="B89" s="38">
         <f t="shared" si="8"/>
-        <v>44165</v>
+        <v>45442</v>
       </c>
       <c r="C89" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D89" s="37">
         <f t="shared" si="6"/>
-        <v>161311520.39774567</v>
+        <v>541368878.1277585</v>
       </c>
       <c r="E89" s="37">
         <f t="shared" si="10"/>
-        <v>-14997519.957995256</v>
+        <v>-171725877.69716728</v>
       </c>
       <c r="F89" s="37">
         <f t="shared" si="7"/>
-        <v>-461255380.78149444</v>
+        <v>-2257105967.8745346</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5514,23 +5514,23 @@
       </c>
       <c r="B90" s="38">
         <f t="shared" si="8"/>
-        <v>44346</v>
+        <v>45807</v>
       </c>
       <c r="C90" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D90" s="37">
         <f t="shared" si="6"/>
-        <v>169377272.24719018</v>
+        <v>595553779.94633555</v>
       </c>
       <c r="E90" s="37">
         <f t="shared" si="10"/>
-        <v>-23063271.807439774</v>
+        <v>-225910779.51574427</v>
       </c>
       <c r="F90" s="37">
         <f t="shared" si="7"/>
-        <v>-630632653.02868462</v>
+        <v>-2852659747.8208704</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5539,23 +5539,23 @@
       </c>
       <c r="B91" s="38">
         <f t="shared" si="8"/>
-        <v>44530</v>
+        <v>46172</v>
       </c>
       <c r="C91" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D91" s="37">
         <f t="shared" si="6"/>
-        <v>177846320.48077643</v>
+        <v>655161977.60571265</v>
       </c>
       <c r="E91" s="37">
         <f t="shared" si="10"/>
-        <v>-31532320.04102603</v>
+        <v>-285518977.17512131</v>
       </c>
       <c r="F91" s="37">
         <f t="shared" si="7"/>
-        <v>-808478973.50946105</v>
+        <v>-3507821725.4265833</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5564,23 +5564,23 @@
       </c>
       <c r="B92" s="38">
         <f t="shared" si="8"/>
-        <v>44711</v>
+        <v>46537</v>
       </c>
       <c r="C92" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D92" s="37">
         <f t="shared" si="6"/>
-        <v>186738830.35730457</v>
+        <v>720736281.68207765</v>
       </c>
       <c r="E92" s="37">
         <f t="shared" si="10"/>
-        <v>-40424829.917554177</v>
+        <v>-351093281.25148642</v>
       </c>
       <c r="F92" s="37">
         <f t="shared" si="7"/>
-        <v>-995217803.86676562</v>
+        <v>-4228558007.1086607</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5589,23 +5589,23 @@
       </c>
       <c r="B93" s="38">
         <f t="shared" si="8"/>
-        <v>44895</v>
+        <v>46903</v>
       </c>
       <c r="C93" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D93" s="37">
         <f t="shared" si="6"/>
-        <v>196075975.42049491</v>
+        <v>792873831.95110786</v>
       </c>
       <c r="E93" s="37">
         <f t="shared" si="10"/>
-        <v>-49761974.980744496</v>
+        <v>-423230831.52051657</v>
       </c>
       <c r="F93" s="37">
         <f t="shared" si="7"/>
-        <v>-1191293779.2872605</v>
+        <v>-5021431839.0597687</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5614,23 +5614,23 @@
       </c>
       <c r="B94" s="38">
         <f t="shared" si="8"/>
-        <v>45076</v>
+        <v>47268</v>
       </c>
       <c r="C94" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D94" s="37">
         <f t="shared" si="6"/>
-        <v>205879987.91433287</v>
+        <v>872231535.12637448</v>
       </c>
       <c r="E94" s="37">
         <f t="shared" si="10"/>
-        <v>-59565987.474582449</v>
+        <v>-502588534.69578314</v>
       </c>
       <c r="F94" s="37">
         <f t="shared" si="7"/>
-        <v>-1397173767.2015934</v>
+        <v>-5893663374.1861429</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5639,23 +5639,23 @@
       </c>
       <c r="B95" s="38">
         <f t="shared" si="8"/>
-        <v>45260</v>
+        <v>47633</v>
       </c>
       <c r="C95" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D95" s="37">
         <f t="shared" si="6"/>
-        <v>216174211.71923631</v>
+        <v>959532046.85386229</v>
       </c>
       <c r="E95" s="37">
         <f t="shared" si="10"/>
-        <v>-69860211.279485911</v>
+        <v>-589889046.42327094</v>
       </c>
       <c r="F95" s="37">
         <f t="shared" ref="F95:F142" si="11">F94-D95</f>
-        <v>-1613347978.9208298</v>
+        <v>-6853195421.0400047</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5664,23 +5664,23 @@
       </c>
       <c r="B96" s="38">
         <f t="shared" si="8"/>
-        <v>45442</v>
+        <v>47998</v>
       </c>
       <c r="C96" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D96" s="37">
         <f t="shared" si="6"/>
-        <v>226983157.93508893</v>
+        <v>1055570352.4364839</v>
       </c>
       <c r="E96" s="37">
         <f t="shared" si="10"/>
-        <v>-80669157.495338514</v>
+        <v>-685927352.00589252</v>
       </c>
       <c r="F96" s="37">
         <f t="shared" si="11"/>
-        <v>-1840331136.8559186</v>
+        <v>-7908765773.4764881</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5689,23 +5689,23 @@
       </c>
       <c r="B97" s="38">
         <f t="shared" si="8"/>
-        <v>45626</v>
+        <v>48364</v>
       </c>
       <c r="C97" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D97" s="37">
         <f t="shared" si="6"/>
-        <v>238332563.24348551</v>
+        <v>1161221006.2146897</v>
       </c>
       <c r="E97" s="37">
         <f t="shared" si="10"/>
-        <v>-92018562.803735107</v>
+        <v>-791578005.78409851</v>
       </c>
       <c r="F97" s="37">
         <f t="shared" si="11"/>
-        <v>-2078663700.0994041</v>
+        <v>-9069986779.6911774</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5714,23 +5714,23 @@
       </c>
       <c r="B98" s="38">
         <f t="shared" si="8"/>
-        <v>45807</v>
+        <v>48729</v>
       </c>
       <c r="C98" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D98" s="37">
         <f t="shared" si="6"/>
-        <v>250249451.18815371</v>
+        <v>1277446095.5272</v>
       </c>
       <c r="E98" s="37">
         <f t="shared" si="10"/>
-        <v>-103935450.74840331</v>
+        <v>-907803095.09660864</v>
       </c>
       <c r="F98" s="37">
         <f t="shared" si="11"/>
-        <v>-2328913151.2875576</v>
+        <v>-10347432875.218378</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5739,23 +5739,23 @@
       </c>
       <c r="B99" s="38">
         <f t="shared" si="8"/>
-        <v>45991</v>
+        <v>49094</v>
       </c>
       <c r="C99" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D99" s="37">
         <f t="shared" si="6"/>
-        <v>262762196.51946318</v>
+        <v>1405304001.7741323</v>
       </c>
       <c r="E99" s="37">
         <f t="shared" si="10"/>
-        <v>-116448196.07971278</v>
+        <v>-1035661001.343541</v>
       </c>
       <c r="F99" s="37">
         <f t="shared" si="11"/>
-        <v>-2591675347.8070207</v>
+        <v>-11752736876.99251</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5764,23 +5764,23 @@
       </c>
       <c r="B100" s="38">
         <f t="shared" si="8"/>
-        <v>46172</v>
+        <v>49459</v>
       </c>
       <c r="C100" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D100" s="37">
         <f t="shared" si="6"/>
-        <v>275900592.75623053</v>
+        <v>1545959038.3634629</v>
       </c>
       <c r="E100" s="37">
         <f t="shared" si="10"/>
-        <v>-129586592.31648014</v>
+        <v>-1176316037.9328716</v>
       </c>
       <c r="F100" s="37">
         <f t="shared" si="11"/>
-        <v>-2867575940.563251</v>
+        <v>-13298695915.355972</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5789,23 +5789,23 @@
       </c>
       <c r="B101" s="38">
         <f t="shared" si="8"/>
-        <v>46356</v>
+        <v>49825</v>
       </c>
       <c r="C101" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D101" s="37">
         <f t="shared" si="6"/>
-        <v>289695923.1256882</v>
+        <v>1700692053.3069215</v>
       </c>
       <c r="E101" s="37">
         <f t="shared" si="10"/>
-        <v>-143381922.68593776</v>
+        <v>-1331049052.8763301</v>
       </c>
       <c r="F101" s="37">
         <f t="shared" si="11"/>
-        <v>-3157271863.6889391</v>
+        <v>-14999387968.662893</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5814,23 +5814,23 @@
       </c>
       <c r="B102" s="38">
         <f t="shared" si="8"/>
-        <v>46537</v>
+        <v>50190</v>
       </c>
       <c r="C102" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D102" s="37">
         <f t="shared" si="6"/>
-        <v>304181035.05052876</v>
+        <v>1870912093.0158215</v>
       </c>
       <c r="E102" s="37">
         <f t="shared" si="10"/>
-        <v>-157867034.61077836</v>
+        <v>-1501269092.5852301</v>
       </c>
       <c r="F102" s="37">
         <f t="shared" si="11"/>
-        <v>-3461452898.7394676</v>
+        <v>-16870300061.678715</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5839,23 +5839,23 @@
       </c>
       <c r="B103" s="38">
         <f t="shared" si="8"/>
-        <v>46721</v>
+        <v>50555</v>
       </c>
       <c r="C103" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D103" s="37">
         <f t="shared" si="6"/>
-        <v>319390418.36038339</v>
+        <v>2058169233.5109332</v>
       </c>
       <c r="E103" s="37">
         <f t="shared" si="10"/>
-        <v>-173076417.92063299</v>
+        <v>-1688526233.0803418</v>
       </c>
       <c r="F103" s="37">
         <f t="shared" si="11"/>
-        <v>-3780843317.0998511</v>
+        <v>-18928469295.189648</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -5864,23 +5864,23 @@
       </c>
       <c r="B104" s="38">
         <f t="shared" si="8"/>
-        <v>46903</v>
+        <v>50920</v>
       </c>
       <c r="C104" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D104" s="37">
         <f t="shared" si="6"/>
-        <v>335360287.41395855</v>
+        <v>2264168695.8913465</v>
       </c>
       <c r="E104" s="37">
         <f t="shared" si="10"/>
-        <v>-189046286.97420818</v>
+        <v>-1894525695.4607553</v>
       </c>
       <c r="F104" s="37">
         <f t="shared" si="11"/>
-        <v>-4116203604.5138097</v>
+        <v>-21192637991.080994</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -5889,23 +5889,23 @@
       </c>
       <c r="B105" s="38">
         <f t="shared" si="8"/>
-        <v>47087</v>
+        <v>51286</v>
       </c>
       <c r="C105" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D105" s="37">
         <f t="shared" si="6"/>
-        <v>352128667.32736981</v>
+        <v>2490786374.6021199</v>
       </c>
       <c r="E105" s="37">
         <f t="shared" si="10"/>
-        <v>-205814666.88761941</v>
+        <v>-2121143374.1715286</v>
       </c>
       <c r="F105" s="37">
         <f t="shared" si="11"/>
-        <v>-4468332271.8411798</v>
+        <v>-23683424365.683113</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5914,23 +5914,23 @@
       </c>
       <c r="B106" s="38">
         <f t="shared" si="8"/>
-        <v>47268</v>
+        <v>51651</v>
       </c>
       <c r="C106" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D106" s="37">
         <f t="shared" si="6"/>
-        <v>369735484.51398569</v>
+        <v>2740085919.9058952</v>
       </c>
       <c r="E106" s="37">
         <f t="shared" si="10"/>
-        <v>-223421484.07423529</v>
+        <v>-2370442919.4753041</v>
       </c>
       <c r="F106" s="37">
         <f t="shared" si="11"/>
-        <v>-4838067756.3551655</v>
+        <v>-26423510285.589008</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5939,23 +5939,23 @@
       </c>
       <c r="B107" s="38">
         <f t="shared" si="8"/>
-        <v>47452</v>
+        <v>52016</v>
       </c>
       <c r="C107" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D107" s="37">
         <f t="shared" si="6"/>
-        <v>388222661.7513631</v>
+        <v>3014337530.1167212</v>
       </c>
       <c r="E107" s="37">
         <f t="shared" si="10"/>
-        <v>-241908661.3116127</v>
+        <v>-2644694529.68613</v>
       </c>
       <c r="F107" s="37">
         <f t="shared" si="11"/>
-        <v>-5226290418.1065283</v>
+        <v>-29437847815.70573</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5964,23 +5964,23 @@
       </c>
       <c r="B108" s="38">
         <f t="shared" si="8"/>
-        <v>47633</v>
+        <v>52381</v>
       </c>
       <c r="C108" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D108" s="37">
         <f t="shared" si="6"/>
-        <v>407634218.00163257</v>
+        <v>3316038624.7239394</v>
       </c>
       <c r="E108" s="37">
         <f t="shared" si="10"/>
-        <v>-261320217.56188214</v>
+        <v>-2946395624.2933483</v>
       </c>
       <c r="F108" s="37">
         <f t="shared" si="11"/>
-        <v>-5633924636.108161</v>
+        <v>-32753886440.429668</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -5989,23 +5989,23 @@
       </c>
       <c r="B109" s="38">
         <f t="shared" si="8"/>
-        <v>47817</v>
+        <v>52747</v>
       </c>
       <c r="C109" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D109" s="37">
         <f t="shared" si="6"/>
-        <v>428016373.22301185</v>
+        <v>3647936586.6619601</v>
       </c>
       <c r="E109" s="37">
         <f t="shared" si="10"/>
-        <v>-281702372.78326142</v>
+        <v>-3278293586.231369</v>
       </c>
       <c r="F109" s="37">
         <f t="shared" si="11"/>
-        <v>-6061941009.3311729</v>
+        <v>-36401823027.091629</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -6014,23 +6014,23 @@
       </c>
       <c r="B110" s="38">
         <f t="shared" si="8"/>
-        <v>47998</v>
+        <v>53112</v>
       </c>
       <c r="C110" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D110" s="37">
         <f t="shared" si="6"/>
-        <v>449417658.42200923</v>
+        <v>4013053780.8240271</v>
       </c>
       <c r="E110" s="37">
         <f t="shared" si="10"/>
-        <v>-303103657.9822588</v>
+        <v>-3643410780.393436</v>
       </c>
       <c r="F110" s="37">
         <f t="shared" si="11"/>
-        <v>-6511358667.7531824</v>
+        <v>-40414876807.915657</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6039,23 +6039,23 @@
       </c>
       <c r="B111" s="38">
         <f t="shared" si="8"/>
-        <v>48182</v>
+        <v>53477</v>
       </c>
       <c r="C111" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D111" s="37">
         <f t="shared" si="6"/>
-        <v>471889031.20835733</v>
+        <v>4414715076.6462517</v>
       </c>
       <c r="E111" s="37">
         <f t="shared" si="10"/>
-        <v>-325575030.76860696</v>
+        <v>-4045072076.2156601</v>
       </c>
       <c r="F111" s="37">
         <f t="shared" si="11"/>
-        <v>-6983247698.9615402</v>
+        <v>-44829591884.561905</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6064,23 +6064,23 @@
       </c>
       <c r="B112" s="38">
         <f t="shared" si="8"/>
-        <v>48364</v>
+        <v>53842</v>
       </c>
       <c r="C112" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D112" s="37">
         <f t="shared" si="6"/>
-        <v>495483997.1278193</v>
+        <v>4856578125.3910246</v>
       </c>
       <c r="E112" s="37">
         <f t="shared" si="10"/>
-        <v>-349169996.68806887</v>
+        <v>-4486935124.960433</v>
       </c>
       <c r="F112" s="37">
         <f t="shared" si="11"/>
-        <v>-7478731696.0893593</v>
+        <v>-49686170009.952927</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6089,23 +6089,23 @@
       </c>
       <c r="B113" s="38">
         <f t="shared" si="8"/>
-        <v>48548</v>
+        <v>54208</v>
       </c>
       <c r="C113" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D113" s="37">
         <f t="shared" si="6"/>
-        <v>520258737.0617671</v>
+        <v>5342666667.8440676</v>
       </c>
       <c r="E113" s="37">
         <f t="shared" si="10"/>
-        <v>-373944736.62201667</v>
+        <v>-4973023667.413476</v>
       </c>
       <c r="F113" s="37">
         <f t="shared" si="11"/>
-        <v>-7998990433.1511269</v>
+        <v>-55028836677.796997</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -6114,23 +6114,23 @@
       </c>
       <c r="B114" s="38">
         <f t="shared" si="8"/>
-        <v>48729</v>
+        <v>54573</v>
       </c>
       <c r="C114" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D114" s="37">
         <f t="shared" si="6"/>
-        <v>546272240.99687886</v>
+        <v>5877407175.7352457</v>
       </c>
       <c r="E114" s="37">
         <f t="shared" si="10"/>
-        <v>-399958240.55712849</v>
+        <v>-5507764175.3046541</v>
       </c>
       <c r="F114" s="37">
         <f t="shared" si="11"/>
-        <v>-8545262674.1480055</v>
+        <v>-60906243853.532242</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6139,23 +6139,23 @@
       </c>
       <c r="B115" s="38">
         <f t="shared" si="8"/>
-        <v>48913</v>
+        <v>54938</v>
       </c>
       <c r="C115" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D115" s="37">
         <f t="shared" si="6"/>
-        <v>573586448.48346543</v>
+        <v>6465669160.5511856</v>
       </c>
       <c r="E115" s="37">
         <f t="shared" si="10"/>
-        <v>-427272448.04371506</v>
+        <v>-6096026160.120594</v>
       </c>
       <c r="F115" s="37">
         <f t="shared" si="11"/>
-        <v>-9118849122.6314716</v>
+        <v>-67371913014.083427</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -6164,23 +6164,23 @@
       </c>
       <c r="B116" s="38">
         <f t="shared" si="8"/>
-        <v>49094</v>
+        <v>55303</v>
       </c>
       <c r="C116" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D116" s="37">
         <f t="shared" si="6"/>
-        <v>602266396.11686766</v>
+        <v>7112809516.8041544</v>
       </c>
       <c r="E116" s="37">
         <f t="shared" si="10"/>
-        <v>-455952395.67711723</v>
+        <v>-6743166516.3735628</v>
       </c>
       <c r="F116" s="37">
         <f t="shared" si="11"/>
-        <v>-9721115518.7483387</v>
+        <v>-74484722530.887589</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -6189,23 +6189,23 @@
       </c>
       <c r="B117" s="38">
         <f t="shared" si="8"/>
-        <v>49278</v>
+        <v>55669</v>
       </c>
       <c r="C117" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D117" s="37">
         <f t="shared" si="6"/>
-        <v>632380372.39308274</v>
+        <v>7824721303.5606155</v>
       </c>
       <c r="E117" s="37">
         <f t="shared" si="10"/>
-        <v>-486066371.95333236</v>
+        <v>-7455078303.130024</v>
       </c>
       <c r="F117" s="37">
         <f t="shared" si="11"/>
-        <v>-10353495891.141422</v>
+        <v>-82309443834.448212</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -6214,23 +6214,23 @@
       </c>
       <c r="B118" s="38">
         <f t="shared" si="8"/>
-        <v>49459</v>
+        <v>56034</v>
       </c>
       <c r="C118" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D118" s="37">
         <f t="shared" si="6"/>
-        <v>664000080.30734289</v>
+        <v>8607887408.449091</v>
       </c>
       <c r="E118" s="37">
         <f t="shared" si="10"/>
-        <v>-517686079.86759245</v>
+        <v>-8238244408.0184994</v>
       </c>
       <c r="F118" s="37">
         <f t="shared" si="11"/>
-        <v>-11017495971.448765</v>
+        <v>-90917331242.897308</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -6239,23 +6239,23 @@
       </c>
       <c r="B119" s="38">
         <f t="shared" si="8"/>
-        <v>49643</v>
+        <v>56399</v>
       </c>
       <c r="C119" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D119" s="37">
         <f t="shared" si="6"/>
-        <v>697200808.08279753</v>
+        <v>9469439582.8282566</v>
       </c>
       <c r="E119" s="37">
         <f t="shared" si="10"/>
-        <v>-550886807.64304709</v>
+        <v>-9099796582.397665</v>
       </c>
       <c r="F119" s="37">
         <f t="shared" si="11"/>
-        <v>-11714696779.531563</v>
+        <v>-100386770825.72557</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -6264,23 +6264,23 @@
       </c>
       <c r="B120" s="38">
         <f t="shared" si="8"/>
-        <v>49825</v>
+        <v>56764</v>
       </c>
       <c r="C120" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D120" s="37">
         <f t="shared" si="6"/>
-        <v>732061608.4358182</v>
+        <v>10417223385.707684</v>
       </c>
       <c r="E120" s="37">
         <f t="shared" si="10"/>
-        <v>-585747607.99606776</v>
+        <v>-10047580385.277092</v>
       </c>
       <c r="F120" s="37">
         <f t="shared" si="11"/>
-        <v>-12446758387.967381</v>
+        <v>-110803994211.43326</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -6289,23 +6289,23 @@
       </c>
       <c r="B121" s="38">
         <f t="shared" si="8"/>
-        <v>50009</v>
+        <v>57130</v>
       </c>
       <c r="C121" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D121" s="37">
         <f t="shared" si="6"/>
-        <v>768665486.80476236</v>
+        <v>11459869627.82053</v>
       </c>
       <c r="E121" s="37">
         <f t="shared" si="10"/>
-        <v>-622351486.36501193</v>
+        <v>-11090226627.389938</v>
       </c>
       <c r="F121" s="37">
         <f t="shared" si="11"/>
-        <v>-13215423874.772142</v>
+        <v>-122263863839.25378</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -6314,23 +6314,23 @@
       </c>
       <c r="B122" s="38">
         <f t="shared" si="8"/>
-        <v>50190</v>
+        <v>57495</v>
       </c>
       <c r="C122" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D122" s="37">
         <f t="shared" si="6"/>
-        <v>807099598.990381</v>
+        <v>12606872966.439875</v>
       </c>
       <c r="E122" s="37">
         <f t="shared" si="10"/>
-        <v>-660785598.55063057</v>
+        <v>-12237229966.009283</v>
       </c>
       <c r="F122" s="37">
         <f t="shared" si="11"/>
-        <v>-14022523473.762524</v>
+        <v>-134870736805.69366</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6339,23 +6339,23 @@
       </c>
       <c r="B123" s="38">
         <f t="shared" si="8"/>
-        <v>50374</v>
+        <v>57860</v>
       </c>
       <c r="C123" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D123" s="37">
         <f t="shared" si="6"/>
-        <v>847455458.67846298</v>
+        <v>13868678366.647257</v>
       </c>
       <c r="E123" s="37">
         <f t="shared" si="10"/>
-        <v>-701141458.23871255</v>
+        <v>-13499035366.216665</v>
       </c>
       <c r="F123" s="37">
         <f t="shared" si="11"/>
-        <v>-14869978932.440987</v>
+        <v>-148739415172.34091</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6364,23 +6364,23 @@
       </c>
       <c r="B124" s="38">
         <f t="shared" si="8"/>
-        <v>50555</v>
+        <v>58225</v>
       </c>
       <c r="C124" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D124" s="37">
         <f t="shared" si="6"/>
-        <v>889829155.33883607</v>
+        <v>15256776216.396318</v>
       </c>
       <c r="E124" s="37">
         <f t="shared" si="10"/>
-        <v>-743515154.89908564</v>
+        <v>-14887133215.965727</v>
       </c>
       <c r="F124" s="37">
         <f t="shared" si="11"/>
-        <v>-15759808087.779823</v>
+        <v>-163996191388.73724</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6389,23 +6389,23 @@
       </c>
       <c r="B125" s="38">
         <f t="shared" si="8"/>
-        <v>50739</v>
+        <v>58591</v>
       </c>
       <c r="C125" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D125" s="37">
         <f t="shared" si="6"/>
-        <v>934321583.01955724</v>
+        <v>16783806961.518585</v>
       </c>
       <c r="E125" s="37">
         <f t="shared" si="10"/>
-        <v>-788007582.5798068</v>
+        <v>-16414163961.087994</v>
       </c>
       <c r="F125" s="37">
         <f t="shared" si="11"/>
-        <v>-16694129670.799381</v>
+        <v>-180779998350.25583</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6414,23 +6414,23 @@
       </c>
       <c r="B126" s="38">
         <f t="shared" si="8"/>
-        <v>50920</v>
+        <v>58956</v>
       </c>
       <c r="C126" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D126" s="37">
         <f t="shared" si="6"/>
-        <v>981038680.58106065</v>
+        <v>18463676213.509861</v>
       </c>
       <c r="E126" s="37">
         <f t="shared" si="10"/>
-        <v>-834724680.14131021</v>
+        <v>-18094033213.079269</v>
       </c>
       <c r="F126" s="37">
         <f t="shared" si="11"/>
-        <v>-17675168351.380444</v>
+        <v>-199243674563.76569</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6439,23 +6439,23 @@
       </c>
       <c r="B127" s="38">
         <f t="shared" si="8"/>
-        <v>51104</v>
+        <v>59321</v>
       </c>
       <c r="C127" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D127" s="37">
         <f t="shared" si="6"/>
-        <v>1030091683.9422755</v>
+        <v>20311681378.304222</v>
       </c>
       <c r="E127" s="37">
         <f t="shared" si="10"/>
-        <v>-883777683.50252509</v>
+        <v>-19942038377.873631</v>
       </c>
       <c r="F127" s="37">
         <f t="shared" si="11"/>
-        <v>-18705260035.32272</v>
+        <v>-219555355942.06992</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -6464,23 +6464,23 @@
       </c>
       <c r="B128" s="38">
         <f t="shared" si="8"/>
-        <v>51286</v>
+        <v>59686</v>
       </c>
       <c r="C128" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D128" s="37">
         <f t="shared" si="6"/>
-        <v>1081597390.9393249</v>
+        <v>22344650959.156086</v>
       </c>
       <c r="E128" s="37">
         <f t="shared" si="10"/>
-        <v>-935283390.49957442</v>
+        <v>-21975007958.725494</v>
       </c>
       <c r="F128" s="37">
         <f t="shared" si="11"/>
-        <v>-19786857426.262043</v>
+        <v>-241900006901.22601</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6489,23 +6489,23 @@
       </c>
       <c r="B129" s="38">
         <f t="shared" si="8"/>
-        <v>51470</v>
+        <v>60052</v>
       </c>
       <c r="C129" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D129" s="37">
         <f t="shared" si="6"/>
-        <v>1135678439.4274471</v>
+        <v>24581097802.165264</v>
       </c>
       <c r="E129" s="37">
         <f t="shared" si="10"/>
-        <v>-989364438.98769677</v>
+        <v>-24211454801.734673</v>
       </c>
       <c r="F129" s="37">
         <f t="shared" si="11"/>
-        <v>-20922535865.689491</v>
+        <v>-266481104703.39127</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6514,23 +6514,23 @@
       </c>
       <c r="B130" s="38">
         <f t="shared" si="8"/>
-        <v>51651</v>
+        <v>60417</v>
       </c>
       <c r="C130" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D130" s="37">
         <f t="shared" si="6"/>
-        <v>1192463599.2883184</v>
+        <v>27041387679.945866</v>
       </c>
       <c r="E130" s="37">
         <f t="shared" si="10"/>
-        <v>-1046149598.8485681</v>
+        <v>-26671744679.515274</v>
       </c>
       <c r="F130" s="37">
         <f t="shared" si="11"/>
-        <v>-22114999464.97781</v>
+        <v>-293522492383.33716</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6539,23 +6539,23 @@
       </c>
       <c r="B131" s="38">
         <f t="shared" si="8"/>
-        <v>51835</v>
+        <v>60782</v>
       </c>
       <c r="C131" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D131" s="37">
         <f t="shared" si="6"/>
-        <v>1252088079.0380578</v>
+        <v>29747924748.613789</v>
       </c>
       <c r="E131" s="37">
         <f t="shared" si="10"/>
-        <v>-1105774078.5983074</v>
+        <v>-29378281748.183197</v>
       </c>
       <c r="F131" s="37">
         <f t="shared" si="11"/>
-        <v>-23367087544.015869</v>
+        <v>-323270417131.95093</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6564,23 +6564,23 @@
       </c>
       <c r="B132" s="38">
         <f t="shared" si="8"/>
-        <v>52016</v>
+        <v>61147</v>
       </c>
       <c r="C132" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D132" s="37">
         <f t="shared" si="6"/>
-        <v>1314693847.7659669</v>
+        <v>32725355566.92112</v>
       </c>
       <c r="E132" s="37">
         <f t="shared" si="10"/>
-        <v>-1168379847.3262165</v>
+        <v>-32355712566.490528</v>
       </c>
       <c r="F132" s="37">
         <f t="shared" si="11"/>
-        <v>-24681781391.781837</v>
+        <v>-355995772698.87207</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6589,23 +6589,23 @@
       </c>
       <c r="B133" s="38">
         <f t="shared" si="8"/>
-        <v>52200</v>
+        <v>61513</v>
       </c>
       <c r="C133" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D133" s="37">
         <f t="shared" si="6"/>
-        <v>1380429973.1705594</v>
+        <v>36000793535.39846</v>
       </c>
       <c r="E133" s="37">
         <f t="shared" si="10"/>
-        <v>-1234115972.730809</v>
+        <v>-35631150534.967873</v>
       </c>
       <c r="F133" s="37">
         <f t="shared" si="11"/>
-        <v>-26062211364.952396</v>
+        <v>-391996566234.27051</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6614,23 +6614,23 @@
       </c>
       <c r="B134" s="38">
         <f t="shared" si="8"/>
-        <v>52381</v>
+        <v>61878</v>
       </c>
       <c r="C134" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D134" s="37">
         <f t="shared" si="6"/>
-        <v>1449452976.4977579</v>
+        <v>39604065799.316956</v>
       </c>
       <c r="E134" s="37">
         <f t="shared" si="10"/>
-        <v>-1303138976.0580075</v>
+        <v>-39234422798.886368</v>
       </c>
       <c r="F134" s="37">
         <f t="shared" si="11"/>
-        <v>-27511664341.450153</v>
+        <v>-431600632033.58746</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6639,23 +6639,23 @@
       </c>
       <c r="B135" s="38">
         <f t="shared" si="8"/>
-        <v>52565</v>
+        <v>62243</v>
       </c>
       <c r="C135" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D135" s="37">
         <f t="shared" si="6"/>
-        <v>1521927205.2263901</v>
+        <v>43567984863.844398</v>
       </c>
       <c r="E135" s="37">
         <f t="shared" si="10"/>
-        <v>-1375613204.7866397</v>
+        <v>-43198341863.413811</v>
       </c>
       <c r="F135" s="37">
         <f t="shared" si="11"/>
-        <v>-29033591546.676544</v>
+        <v>-475168616897.43188</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6664,23 +6664,23 @@
       </c>
       <c r="B136" s="38">
         <f t="shared" si="8"/>
-        <v>52747</v>
+        <v>62608</v>
       </c>
       <c r="C136" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D136" s="37">
         <f t="shared" si="6"/>
-        <v>1598025224.3883634</v>
+        <v>47928647394.806412</v>
       </c>
       <c r="E136" s="37">
         <f t="shared" si="10"/>
-        <v>-1451711223.9486129</v>
+        <v>-47559004394.375824</v>
       </c>
       <c r="F136" s="37">
         <f t="shared" si="11"/>
-        <v>-30631616771.064907</v>
+        <v>-523097264292.23828</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6689,23 +6689,23 @@
       </c>
       <c r="B137" s="38">
         <f t="shared" si="8"/>
-        <v>52931</v>
+        <v>62974</v>
       </c>
       <c r="C137" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D137" s="37">
         <f t="shared" si="6"/>
-        <v>1677928227.4552763</v>
+        <v>52725762926.024498</v>
       </c>
       <c r="E137" s="37">
         <f t="shared" si="10"/>
-        <v>-1531614227.0155258</v>
+        <v>-52356119925.59391</v>
       </c>
       <c r="F137" s="37">
         <f t="shared" si="11"/>
-        <v>-32309544998.520184</v>
+        <v>-575823027218.26282</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6714,23 +6714,23 @@
       </c>
       <c r="B138" s="38">
         <f t="shared" si="8"/>
-        <v>53112</v>
+        <v>63339</v>
       </c>
       <c r="C138" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D138" s="37">
         <f t="shared" si="6"/>
-        <v>1761826467.7698081</v>
+        <v>58003015466.540863</v>
       </c>
       <c r="E138" s="37">
         <f t="shared" si="10"/>
-        <v>-1615512467.3300576</v>
+        <v>-57633372466.110275</v>
       </c>
       <c r="F138" s="37">
         <f t="shared" si="11"/>
-        <v>-34071371466.289993</v>
+        <v>-633826042684.80371</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6739,23 +6739,23 @@
       </c>
       <c r="B139" s="38">
         <f t="shared" si="8"/>
-        <v>53296</v>
+        <v>63704</v>
       </c>
       <c r="C139" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D139" s="37">
         <f t="shared" si="6"/>
-        <v>1849919711.5491483</v>
+        <v>63808461300.636681</v>
       </c>
       <c r="E139" s="37">
         <f t="shared" si="10"/>
-        <v>-1703605711.1093979</v>
+        <v>-63438818300.206093</v>
       </c>
       <c r="F139" s="37">
         <f t="shared" si="11"/>
-        <v>-35921291177.839142</v>
+        <v>-697634503985.44043</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6764,23 +6764,23 @@
       </c>
       <c r="B140" s="38">
         <f t="shared" si="8"/>
-        <v>53477</v>
+        <v>64069</v>
       </c>
       <c r="C140" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D140" s="37">
         <f t="shared" si="6"/>
-        <v>1942417713.5390913</v>
+        <v>70194966603.133102</v>
       </c>
       <c r="E140" s="37">
         <f t="shared" si="10"/>
-        <v>-1796103713.0993409</v>
+        <v>-69825323602.702515</v>
       </c>
       <c r="F140" s="37">
         <f t="shared" si="11"/>
-        <v>-37863708891.378235</v>
+        <v>-767829470588.57349</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -6789,23 +6789,23 @@
       </c>
       <c r="B141" s="38">
         <f t="shared" si="8"/>
-        <v>53661</v>
+        <v>64435</v>
       </c>
       <c r="C141" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D141" s="37">
         <f t="shared" si="6"/>
-        <v>2039540716.4513538</v>
+        <v>77220688855.034439</v>
       </c>
       <c r="E141" s="37">
         <f t="shared" si="10"/>
-        <v>-1893226716.0116034</v>
+        <v>-76851045854.603851</v>
       </c>
       <c r="F141" s="37">
         <f t="shared" si="11"/>
-        <v>-39903249607.82959</v>
+        <v>-845050159443.60791</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -6814,23 +6814,23 @@
       </c>
       <c r="B142" s="38">
         <f t="shared" si="8"/>
-        <v>53842</v>
+        <v>64800</v>
       </c>
       <c r="C142" s="37">
         <f t="shared" si="9"/>
-        <v>146314000.4397504</v>
+        <v>369643000.43059129</v>
       </c>
       <c r="D142" s="37">
         <f t="shared" si="6"/>
-        <v>2141519975.3733025</v>
+        <v>84949606443.432434</v>
       </c>
       <c r="E142" s="37">
         <f t="shared" si="10"/>
-        <v>-1995205974.933552</v>
+        <v>-84579963443.001846</v>
       </c>
       <c r="F142" s="37">
         <f t="shared" si="11"/>
-        <v>-42044769583.202896</v>
+        <v>-929999765887.04028</v>
       </c>
     </row>
     <row r="144" spans="1:6" s="43" customFormat="1" ht="57" customHeight="1">
@@ -6847,7 +6847,7 @@
       <c r="A146" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B146" s="42">
+      <c r="B146">
         <v>3</v>
       </c>
     </row>
@@ -6863,7 +6863,7 @@
       </c>
       <c r="E147" s="44">
         <f ca="1">SUM(E151:INDIRECT(CONCATENATE("E",150+B10)))</f>
-        <v>108955718.791125</v>
+        <v>141258000</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -6872,14 +6872,14 @@
       </c>
       <c r="B148" s="95">
         <f ca="1">PMT(B9,B10-B146,-INDIRECT(CONCATENATE("F",150+B146)),0,0)</f>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D148" s="79" t="s">
         <v>70</v>
       </c>
       <c r="E148" s="44">
         <f ca="1">F150+E147</f>
-        <v>653718218.79112506</v>
+        <v>846913000</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="F150" s="39">
         <f>B3</f>
-        <v>544762500</v>
+        <v>705655000</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="B151" s="38">
         <f t="shared" ref="B151:B210" si="12">EDATE($B$7,$B$6*A151)</f>
-        <v>43069</v>
+        <v>43250</v>
       </c>
       <c r="C151" s="78">
         <f>IF($B$146&gt;=A151,IF($B$15&lt;&gt;0,CEILING(E151,$B$15),E151),$B$148)</f>
-        <v>27239000</v>
+        <v>70629000</v>
       </c>
       <c r="D151" s="103">
         <f>IF($B$146&gt;=$A151,0,C151-E151)</f>
@@ -6931,11 +6931,11 @@
       </c>
       <c r="E151" s="78">
         <f>IF($B$146&gt;=A151,IF($B$15&lt;&gt;0,CEILING(F150*$B$9,B$15),F150*$B$9),F150*$B$9)</f>
-        <v>27239000</v>
+        <v>70629000</v>
       </c>
       <c r="F151" s="78">
         <f>F150-D151</f>
-        <v>544762500</v>
+        <v>705655000</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -6944,11 +6944,11 @@
       </c>
       <c r="B152" s="38">
         <f t="shared" si="12"/>
-        <v>43250</v>
+        <v>43615</v>
       </c>
       <c r="C152" s="78">
         <f t="shared" ref="C152:C210" si="13">IF($B$146&gt;=A152,IF($B$15&lt;&gt;0,CEILING(E152,$B$15),E152),$B$148)</f>
-        <v>27239000</v>
+        <v>70629000</v>
       </c>
       <c r="D152" s="103">
         <f t="shared" ref="D152:D210" si="14">IF($B$146&gt;=$A152,0,C152-E152)</f>
@@ -6956,11 +6956,11 @@
       </c>
       <c r="E152" s="78">
         <f t="shared" ref="E152:E210" si="15">IF($B$146&gt;=A152,IF($B$15&lt;&gt;0,CEILING(F151*$B$9,B$15),F151*$B$9),F151*$B$9)</f>
-        <v>27239000</v>
+        <v>70629000</v>
       </c>
       <c r="F152" s="78">
         <f t="shared" ref="F152:F162" si="16">F151-D152</f>
-        <v>544762500</v>
+        <v>705655000</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -6969,11 +6969,11 @@
       </c>
       <c r="B153" s="38">
         <f t="shared" si="12"/>
-        <v>43434</v>
+        <v>43981</v>
       </c>
       <c r="C153" s="78">
         <f t="shared" si="13"/>
-        <v>27239000</v>
+        <v>70629000</v>
       </c>
       <c r="D153" s="103">
         <f t="shared" si="14"/>
@@ -6981,11 +6981,11 @@
       </c>
       <c r="E153" s="78">
         <f t="shared" si="15"/>
-        <v>27239000</v>
+        <v>70629000</v>
       </c>
       <c r="F153" s="78">
         <f>F152-D153</f>
-        <v>544762500</v>
+        <v>705655000</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -6994,23 +6994,23 @@
       </c>
       <c r="B154" s="38">
         <f t="shared" si="12"/>
-        <v>43615</v>
+        <v>44346</v>
       </c>
       <c r="C154" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D154" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>544762500</v>
+        <v>-776283084.54195011</v>
       </c>
       <c r="E154" s="78">
         <f t="shared" si="15"/>
-        <v>27238718.791125</v>
+        <v>70628084.541950002</v>
       </c>
       <c r="F154" s="78">
         <f ca="1">F153-D154</f>
-        <v>0</v>
+        <v>1481938084.5419502</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -7019,23 +7019,23 @@
       </c>
       <c r="B155" s="38">
         <f t="shared" si="12"/>
-        <v>43799</v>
+        <v>44711</v>
       </c>
       <c r="C155" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D155" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>572001218.79112494</v>
+        <v>-853980241.5429132</v>
       </c>
       <c r="E155" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>148325241.54291305</v>
       </c>
       <c r="F155" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>-572001218.79112494</v>
+        <v>2335918326.0848637</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -7044,23 +7044,23 @@
       </c>
       <c r="B156" s="38">
         <f t="shared" si="12"/>
-        <v>43981</v>
+        <v>45076</v>
       </c>
       <c r="C156" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D156" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>600601903.21200967</v>
+        <v>-939454005.20482695</v>
       </c>
       <c r="E156" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-28600684.420884728</v>
+        <v>233799005.20482686</v>
       </c>
       <c r="F156" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>-1172603122.0031347</v>
+        <v>3275372331.2896905</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -7069,23 +7069,23 @@
       </c>
       <c r="B157" s="38">
         <f t="shared" si="12"/>
-        <v>44165</v>
+        <v>45442</v>
       </c>
       <c r="C157" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D157" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>630632653.02868462</v>
+        <v>-1033482725.9010313</v>
       </c>
       <c r="E157" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-58631434.237559721</v>
+        <v>327827725.90103114</v>
       </c>
       <c r="F157" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>-1803235775.0318193</v>
+        <v>4308855057.1907215</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -7094,23 +7094,23 @@
       </c>
       <c r="B158" s="38">
         <f t="shared" si="12"/>
-        <v>44346</v>
+        <v>45807</v>
       </c>
       <c r="C158" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D158" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>662164973.06971073</v>
+        <v>-1136922658.0740945</v>
       </c>
       <c r="E158" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-90163754.278585747</v>
+        <v>431267658.07409441</v>
       </c>
       <c r="F158" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>-2465400748.1015301</v>
+        <v>5445777715.2648163</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -7119,23 +7119,23 @@
       </c>
       <c r="B159" s="38">
         <f t="shared" si="12"/>
-        <v>44530</v>
+        <v>46172</v>
       </c>
       <c r="C159" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D159" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>695273943.48301685</v>
+        <v>-1250715757.5520487</v>
       </c>
       <c r="E159" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-123272724.69189192</v>
+        <v>545060757.55204856</v>
       </c>
       <c r="F159" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>-3160674691.584547</v>
+        <v>6696493472.816865</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -7144,23 +7144,23 @@
       </c>
       <c r="B160" s="38">
         <f t="shared" si="12"/>
-        <v>44711</v>
+        <v>46537</v>
       </c>
       <c r="C160" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D160" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>730038398.50576615</v>
+        <v>-1375898259.2877908</v>
       </c>
       <c r="E160" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-158037179.71464118</v>
+        <v>670243259.28779066</v>
       </c>
       <c r="F160" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>-3890713090.090313</v>
+        <v>8072391732.1046562</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -7169,23 +7169,23 @@
       </c>
       <c r="B161" s="38">
         <f t="shared" si="12"/>
-        <v>44895</v>
+        <v>46903</v>
       </c>
       <c r="C161" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D161" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>766541114.17290878</v>
+        <v>-1513610113.6331863</v>
       </c>
       <c r="E161" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-194539895.38178384</v>
+        <v>807955113.6331861</v>
       </c>
       <c r="F161" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>-4657254204.2632217</v>
+        <v>9586001845.7378426</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -7194,23 +7194,23 @@
       </c>
       <c r="B162" s="38">
         <f t="shared" si="12"/>
-        <v>45076</v>
+        <v>47268</v>
       </c>
       <c r="C162" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D162" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>804869005.41136861</v>
+        <v>-1665105367.0774829</v>
       </c>
       <c r="E162" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-232867786.62024373</v>
+        <v>959450367.07748282</v>
       </c>
       <c r="F162" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>-5462123209.6745901</v>
+        <v>11251107212.815325</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -7219,23 +7219,23 @@
       </c>
       <c r="B163" s="38">
         <f t="shared" si="12"/>
-        <v>45260</v>
+        <v>47633</v>
       </c>
       <c r="C163" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D163" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>845113332.98915291</v>
+        <v>-1831763581.9802375</v>
       </c>
       <c r="E163" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-273112114.19802803</v>
+        <v>1126108581.9802372</v>
       </c>
       <c r="F163" s="78">
         <f t="shared" ref="F163:F210" ca="1" si="17">F162-D163</f>
-        <v>-6307236542.663743</v>
+        <v>13082870794.795563</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -7244,23 +7244,23 @@
       </c>
       <c r="B164" s="38">
         <f t="shared" si="12"/>
-        <v>45442</v>
+        <v>47998</v>
       </c>
       <c r="C164" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D164" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>887369920.81214356</v>
+        <v>-2015102399.2903471</v>
       </c>
       <c r="E164" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-315368702.02101862</v>
+        <v>1309447399.2903469</v>
       </c>
       <c r="F164" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-7194606463.4758863</v>
+        <v>15097973194.085911</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -7269,23 +7269,23 @@
       </c>
       <c r="B165" s="38">
         <f t="shared" si="12"/>
-        <v>45626</v>
+        <v>48364</v>
       </c>
       <c r="C165" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D165" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>931739384.08596444</v>
+        <v>-2216791358.651175</v>
       </c>
       <c r="E165" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-359738165.2948395</v>
+        <v>1511136358.6511748</v>
       </c>
       <c r="F165" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-8126345847.5618505</v>
+        <v>17314764552.737087</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -7294,23 +7294,23 @@
       </c>
       <c r="B166" s="38">
         <f t="shared" si="12"/>
-        <v>45807</v>
+        <v>48729</v>
       </c>
       <c r="C166" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D166" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>978327368.88619137</v>
+        <v>-2438667101.7418914</v>
       </c>
       <c r="E166" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-406326150.09506637</v>
+        <v>1733012101.7418911</v>
       </c>
       <c r="F166" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-9104673216.4480419</v>
+        <v>19753431654.478977</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -7319,23 +7319,23 @@
       </c>
       <c r="B167" s="38">
         <f t="shared" si="12"/>
-        <v>45991</v>
+        <v>49094</v>
       </c>
       <c r="C167" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D167" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>1027244803.707333</v>
+        <v>-2682750097.3013339</v>
       </c>
       <c r="E167" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-455243584.91620803</v>
+        <v>1977095097.3013337</v>
       </c>
       <c r="F167" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-10131918020.155375</v>
+        <v>22436181751.780312</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -7344,23 +7344,23 @@
       </c>
       <c r="B168" s="38">
         <f t="shared" si="12"/>
-        <v>46172</v>
+        <v>49459</v>
       </c>
       <c r="C168" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D168" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>1078608163.5895357</v>
+        <v>-2951263040.1375966</v>
       </c>
       <c r="E168" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-506606944.79841065</v>
+        <v>2245608040.1375966</v>
       </c>
       <c r="F168" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-11210526183.744911</v>
+        <v>25387444791.917908</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -7369,23 +7369,23 @@
       </c>
       <c r="B169" s="38">
         <f t="shared" si="12"/>
-        <v>46356</v>
+        <v>49825</v>
       </c>
       <c r="C169" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D169" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>1132539747.4519107</v>
+        <v>-3246651091.6703863</v>
       </c>
       <c r="E169" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-560538528.66078579</v>
+        <v>2540996091.6703863</v>
       </c>
       <c r="F169" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-12343065931.196821</v>
+        <v>28634095883.588295</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -7394,23 +7394,23 @@
       </c>
       <c r="B170" s="38">
         <f t="shared" si="12"/>
-        <v>46537</v>
+        <v>50190</v>
       </c>
       <c r="C170" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D170" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>1189167969.2928309</v>
+        <v>-3571604146.3227453</v>
       </c>
       <c r="E170" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-617166750.501706</v>
+        <v>2865949146.3227453</v>
       </c>
       <c r="F170" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-13532233900.489653</v>
+        <v>32205700029.911041</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -7419,23 +7419,23 @@
       </c>
       <c r="B171" s="38">
         <f t="shared" si="12"/>
-        <v>46721</v>
+        <v>50555</v>
       </c>
       <c r="C171" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D171" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>1248627663.9505591</v>
+        <v>-3929081326.5267572</v>
       </c>
       <c r="E171" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-676626445.15943408</v>
+        <v>3223426326.5267572</v>
       </c>
       <c r="F171" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-14780861564.440212</v>
+        <v>36134781356.437798</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -7444,23 +7444,23 @@
       </c>
       <c r="B172" s="38">
         <f t="shared" si="12"/>
-        <v>46903</v>
+        <v>50920</v>
       </c>
       <c r="C172" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D172" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>1311060408.1522408</v>
+        <v>-4322337929.4022827</v>
       </c>
       <c r="E172" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-739059189.36111581</v>
+        <v>3616682929.4022827</v>
       </c>
       <c r="F172" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-16091921972.592453</v>
+        <v>40457119285.84008</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -7469,23 +7469,23 @@
       </c>
       <c r="B173" s="38">
         <f t="shared" si="12"/>
-        <v>47087</v>
+        <v>51286</v>
       </c>
       <c r="C173" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D173" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>1376614857.6156979</v>
+        <v>-4754955070.4934702</v>
       </c>
       <c r="E173" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-804613638.8245728</v>
+        <v>4049300070.4934697</v>
       </c>
       <c r="F173" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-17468536830.208153</v>
+        <v>45212074356.333549</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -7494,23 +7494,23 @@
       </c>
       <c r="B174" s="38">
         <f t="shared" si="12"/>
-        <v>47268</v>
+        <v>51651</v>
       </c>
       <c r="C174" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D174" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>1445447101.0066776</v>
+        <v>-5230872294.5080185</v>
       </c>
       <c r="E174" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-873445882.21555257</v>
+        <v>4525217294.5080185</v>
       </c>
       <c r="F174" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-18913983931.214828</v>
+        <v>50442946650.841568</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -7519,23 +7519,23 @@
       </c>
       <c r="B175" s="38">
         <f t="shared" si="12"/>
-        <v>47452</v>
+        <v>52016</v>
       </c>
       <c r="C175" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D175" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>1517721031.5943513</v>
+        <v>-5754423450.0226202</v>
       </c>
       <c r="E175" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-945719812.80322647</v>
+        <v>5048768450.0226202</v>
       </c>
       <c r="F175" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-20431704962.809181</v>
+        <v>56197370100.864189</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -7544,23 +7544,23 @@
       </c>
       <c r="B176" s="38">
         <f t="shared" si="12"/>
-        <v>47633</v>
+        <v>52381</v>
       </c>
       <c r="C176" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D176" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>1593608737.4899936</v>
+        <v>-6330376154.8406649</v>
       </c>
       <c r="E176" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-1021607518.6988685</v>
+        <v>5624721154.8406649</v>
       </c>
       <c r="F176" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-22025313700.299175</v>
+        <v>62527746255.704857</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -7569,23 +7569,23 @@
       </c>
       <c r="B177" s="38">
         <f t="shared" si="12"/>
-        <v>47817</v>
+        <v>52747</v>
       </c>
       <c r="C177" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D177" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>1673290911.3980169</v>
+        <v>-6963975211.3859043</v>
       </c>
       <c r="E177" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-1101289692.6068921</v>
+        <v>6258320211.3859043</v>
       </c>
       <c r="F177" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-23698604611.697193</v>
+        <v>69491721467.090759</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -7594,23 +7594,23 @@
       </c>
       <c r="B178" s="38">
         <f t="shared" si="12"/>
-        <v>47998</v>
+        <v>53112</v>
       </c>
       <c r="C178" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D178" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>1756957280.8550115</v>
+        <v>-7660990367.4859924</v>
       </c>
       <c r="E178" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-1184956062.0638864</v>
+        <v>6955335367.4859924</v>
       </c>
       <c r="F178" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-25455561892.552204</v>
+        <v>77152711834.576752</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -7619,23 +7619,23 @@
       </c>
       <c r="B179" s="38">
         <f t="shared" si="12"/>
-        <v>48182</v>
+        <v>53477</v>
       </c>
       <c r="C179" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D179" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>1844807059.9811978</v>
+        <v>-8427768857.4702845</v>
       </c>
       <c r="E179" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-1272805841.190073</v>
+        <v>7722113857.4702845</v>
       </c>
       <c r="F179" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-27300368952.533401</v>
+        <v>85580480692.047043</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -7644,23 +7644,23 @@
       </c>
       <c r="B180" s="38">
         <f t="shared" si="12"/>
-        <v>48364</v>
+        <v>53842</v>
       </c>
       <c r="C180" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D180" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>1937049423.8199534</v>
+        <v>-9271293202.0372829</v>
       </c>
       <c r="E180" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-1365048205.0288284</v>
+        <v>8565638202.0372829</v>
       </c>
       <c r="F180" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-29237418376.353355</v>
+        <v>94851773894.08432</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -7669,23 +7669,23 @@
       </c>
       <c r="B181" s="38">
         <f t="shared" si="12"/>
-        <v>48548</v>
+        <v>54208</v>
       </c>
       <c r="C181" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D181" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2033904006.3948231</v>
+        <v>-10199244793.2351</v>
       </c>
       <c r="E181" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-1461902787.603698</v>
+        <v>9493589793.2350998</v>
       </c>
       <c r="F181" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-31271322382.748177</v>
+        <v>105051018687.31943</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -7694,23 +7694,23 @@
       </c>
       <c r="B182" s="38">
         <f t="shared" si="12"/>
-        <v>48729</v>
+        <v>54573</v>
       </c>
       <c r="C182" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D182" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2135601423.6699309</v>
+        <v>-11220073843.579323</v>
       </c>
       <c r="E182" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-1563600204.8788059</v>
+        <v>10514418843.579323</v>
       </c>
       <c r="F182" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-33406923806.418106</v>
+        <v>116271092530.89874</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -7719,23 +7719,23 @@
       </c>
       <c r="B183" s="38">
         <f t="shared" si="12"/>
-        <v>48913</v>
+        <v>54938</v>
       </c>
       <c r="C183" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D183" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2242383822.6589789</v>
+        <v>-12343076336.28644</v>
       </c>
       <c r="E183" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-1670382603.8678541</v>
+        <v>11637421336.28644</v>
       </c>
       <c r="F183" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-35649307629.077087</v>
+        <v>128614168867.18518</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -7744,23 +7744,23 @@
       </c>
       <c r="B184" s="38">
         <f t="shared" si="12"/>
-        <v>49094</v>
+        <v>55303</v>
       </c>
       <c r="C184" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D184" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2354505457.9902949</v>
+        <v>-13578478677.35535</v>
       </c>
       <c r="E184" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-1782504239.1991701</v>
+        <v>12872823677.35535</v>
       </c>
       <c r="F184" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-38003813087.067383</v>
+        <v>142192647544.54053</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -7769,23 +7769,23 @@
       </c>
       <c r="B185" s="38">
         <f t="shared" si="12"/>
-        <v>49278</v>
+        <v>55669</v>
       </c>
       <c r="C185" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D185" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2472233297.3007588</v>
+        <v>-14937530820.364779</v>
       </c>
       <c r="E185" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-1900232078.509634</v>
+        <v>14231875820.364779</v>
       </c>
       <c r="F185" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-40476046384.368141</v>
+        <v>157130178364.9053</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -7794,23 +7794,23 @@
       </c>
       <c r="B186" s="38">
         <f t="shared" si="12"/>
-        <v>49459</v>
+        <v>56034</v>
       </c>
       <c r="C186" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D186" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2595847656.9000907</v>
+        <v>-16432608712.009716</v>
       </c>
       <c r="E186" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-2023846438.1089659</v>
+        <v>15726953712.009716</v>
       </c>
       <c r="F186" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-43071894041.268234</v>
+        <v>173562787076.91501</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -7819,23 +7819,23 @@
       </c>
       <c r="B187" s="38">
         <f t="shared" si="12"/>
-        <v>49643</v>
+        <v>56399</v>
       </c>
       <c r="C187" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D187" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2725642869.2190413</v>
+        <v>-18077326991.277355</v>
       </c>
       <c r="E187" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-2153641650.4279165</v>
+        <v>17371671991.277355</v>
       </c>
       <c r="F187" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-45797536910.487274</v>
+        <v>191640114068.19235</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -7844,23 +7844,23 @@
       </c>
       <c r="B188" s="38">
         <f t="shared" si="12"/>
-        <v>49825</v>
+        <v>56764</v>
       </c>
       <c r="C188" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D188" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>2861927983.6307211</v>
+        <v>-19886662968.535946</v>
       </c>
       <c r="E188" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-2289926764.8395963</v>
+        <v>19181007968.535946</v>
       </c>
       <c r="F188" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-48659464894.117996</v>
+        <v>211526777036.7283</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -7869,23 +7869,23 @@
       </c>
       <c r="B189" s="38">
         <f t="shared" si="12"/>
-        <v>50009</v>
+        <v>57130</v>
       </c>
       <c r="C189" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D189" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3005027502.3137593</v>
+        <v>-21877093013.528221</v>
       </c>
       <c r="E189" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-2433026283.5226345</v>
+        <v>21171438013.528221</v>
       </c>
       <c r="F189" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-51664492396.431755</v>
+        <v>233403870050.25653</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -7894,23 +7894,23 @@
       </c>
       <c r="B190" s="38">
         <f t="shared" si="12"/>
-        <v>50190</v>
+        <v>57495</v>
       </c>
       <c r="C190" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D190" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3155282152.9094248</v>
+        <v>-24066742594.26041</v>
       </c>
       <c r="E190" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-2583280934.1183</v>
+        <v>23361087594.26041</v>
       </c>
       <c r="F190" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-54819774549.341179</v>
+        <v>257470612644.51694</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -7919,23 +7919,23 @@
       </c>
       <c r="B191" s="38">
         <f t="shared" si="12"/>
-        <v>50374</v>
+        <v>57860</v>
       </c>
       <c r="C191" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D191" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3313049699.8124423</v>
+        <v>-26475551333.087139</v>
       </c>
       <c r="E191" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-2741048481.0213175</v>
+        <v>25769896333.087139</v>
       </c>
       <c r="F191" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-58132824249.153618</v>
+        <v>283946163977.60406</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -7944,23 +7944,23 @@
       </c>
       <c r="B192" s="38">
         <f t="shared" si="12"/>
-        <v>50555</v>
+        <v>58225</v>
       </c>
       <c r="C192" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D192" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3478705796.0272374</v>
+        <v>-29125454583.043583</v>
       </c>
       <c r="E192" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-2906704577.2361126</v>
+        <v>28419799583.043583</v>
       </c>
       <c r="F192" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-61611530045.180855</v>
+        <v>313071618560.64764</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -7969,23 +7969,23 @@
       </c>
       <c r="B193" s="38">
         <f t="shared" si="12"/>
-        <v>50739</v>
+        <v>58591</v>
       </c>
       <c r="C193" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D193" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3652644877.6179166</v>
+        <v>-32040583177.914909</v>
       </c>
       <c r="E193" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-3080643658.8267918</v>
+        <v>31334928177.914909</v>
       </c>
       <c r="F193" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-65264174922.798775</v>
+        <v>345112201738.56256</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -7994,23 +7994,23 @@
       </c>
       <c r="B194" s="38">
         <f t="shared" si="12"/>
-        <v>50920</v>
+        <v>58956</v>
       </c>
       <c r="C194" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D194" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>3835281102.8817291</v>
+        <v>-35247483175.02845</v>
       </c>
       <c r="E194" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-3263279884.0906043</v>
+        <v>34541828175.02845</v>
       </c>
       <c r="F194" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-69099456025.680511</v>
+        <v>380359684913.591</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -8019,23 +8019,23 @@
       </c>
       <c r="B195" s="38">
         <f t="shared" si="12"/>
-        <v>51104</v>
+        <v>59321</v>
       </c>
       <c r="C195" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D195" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4027049338.4822183</v>
+        <v>-38775357591.814087</v>
       </c>
       <c r="E195" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-3455048119.6910934</v>
+        <v>38069702591.814087</v>
       </c>
       <c r="F195" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-73126505364.162735</v>
+        <v>419135042505.40509</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -8044,23 +8044,23 @@
       </c>
       <c r="B196" s="38">
         <f t="shared" si="12"/>
-        <v>51286</v>
+        <v>59686</v>
       </c>
       <c r="C196" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D196" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4228406194.8901086</v>
+        <v>-42656332337.46032</v>
       </c>
       <c r="E196" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-3656404976.0989838</v>
+        <v>41950677337.46032</v>
       </c>
       <c r="F196" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-77354911559.052841</v>
+        <v>461791374842.86542</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -8069,23 +8069,23 @@
       </c>
       <c r="B197" s="38">
         <f t="shared" si="12"/>
-        <v>51470</v>
+        <v>60052</v>
       </c>
       <c r="C197" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D197" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4439831113.5973663</v>
+        <v>-46925748761.321358</v>
       </c>
       <c r="E197" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-3867829894.8062415</v>
+        <v>46220093761.321358</v>
       </c>
       <c r="F197" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-81794742672.650208</v>
+        <v>508717123604.18677</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -8094,23 +8094,23 @@
       </c>
       <c r="B198" s="38">
         <f t="shared" si="12"/>
-        <v>51651</v>
+        <v>60417</v>
       </c>
       <c r="C198" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D198" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4661827508.6931486</v>
+        <v>-51622485482.111137</v>
       </c>
       <c r="E198" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-4089826289.9020233</v>
+        <v>50916830482.111137</v>
       </c>
       <c r="F198" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-86456570181.343353</v>
+        <v>560339609086.29785</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -8119,23 +8119,23 @@
       </c>
       <c r="B199" s="38">
         <f t="shared" si="12"/>
-        <v>51835</v>
+        <v>60782</v>
       </c>
       <c r="C199" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D199" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>4894923965.5197906</v>
+        <v>-56789312428.559654</v>
       </c>
       <c r="E199" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-4322922746.7286654</v>
+        <v>56083657428.559654</v>
       </c>
       <c r="F199" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-91351494146.863144</v>
+        <v>617128921514.85754</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -8144,23 +8144,23 @@
       </c>
       <c r="B200" s="38">
         <f t="shared" si="12"/>
-        <v>52016</v>
+        <v>61147</v>
       </c>
       <c r="C200" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D200" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>5139675499.2629023</v>
+        <v>-62473280315.534912</v>
       </c>
       <c r="E200" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-4567674280.471777</v>
+        <v>61767625315.534912</v>
       </c>
       <c r="F200" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-96491169646.126053</v>
+        <v>679602201830.39246</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -8169,23 +8169,23 @@
       </c>
       <c r="B201" s="38">
         <f t="shared" si="12"/>
-        <v>52200</v>
+        <v>61513</v>
       </c>
       <c r="C201" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D201" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>5396664876.4723425</v>
+        <v>-68726149102.319595</v>
       </c>
       <c r="E201" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-4824663657.6812172</v>
+        <v>68020494102.319588</v>
       </c>
       <c r="F201" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-101887834522.59839</v>
+        <v>748328350932.71204</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -8194,23 +8194,23 @@
       </c>
       <c r="B202" s="38">
         <f t="shared" si="12"/>
-        <v>52381</v>
+        <v>61878</v>
       </c>
       <c r="C202" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D202" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>5666504002.6606741</v>
+        <v>-75604859334.715439</v>
       </c>
       <c r="E202" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-5094502783.8695488</v>
+        <v>74899204334.715439</v>
       </c>
       <c r="F202" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-107554338525.25906</v>
+        <v>823933210267.42749</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -8219,23 +8219,23 @@
       </c>
       <c r="B203" s="38">
         <f t="shared" si="12"/>
-        <v>52565</v>
+        <v>62243</v>
       </c>
       <c r="C203" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D203" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>5949835379.2830706</v>
+        <v>-83172050663.161377</v>
       </c>
       <c r="E203" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-5377834160.4919453</v>
+        <v>82466395663.161377</v>
       </c>
       <c r="F203" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-113504173904.54213</v>
+        <v>907105260930.58887</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -8244,23 +8244,23 @@
       </c>
       <c r="B204" s="38">
         <f t="shared" si="12"/>
-        <v>52747</v>
+        <v>62608</v>
       </c>
       <c r="C204" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D204" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>6247333633.5677872</v>
+        <v>-91496632258.650833</v>
       </c>
       <c r="E204" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-5675332414.7766619</v>
+        <v>90790977258.650833</v>
       </c>
       <c r="F204" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-119751507538.10992</v>
+        <v>998601893189.23975</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -8269,23 +8269,23 @@
       </c>
       <c r="B205" s="38">
         <f t="shared" si="12"/>
-        <v>52931</v>
+        <v>62974</v>
       </c>
       <c r="C205" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D205" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>6559707124.839838</v>
+        <v>-100654410320.83093</v>
       </c>
       <c r="E205" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-5987705906.0487127</v>
+        <v>99948755320.830933</v>
       </c>
       <c r="F205" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-126311214662.94977</v>
+        <v>1099256303510.0707</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -8294,23 +8294,23 @@
       </c>
       <c r="B206" s="38">
         <f t="shared" si="12"/>
-        <v>53112</v>
+        <v>63339</v>
       </c>
       <c r="C206" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D206" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>6887699631.1625957</v>
+        <v>-110728778392.56538</v>
       </c>
       <c r="E206" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-6315698412.3714705</v>
+        <v>110023123392.56538</v>
       </c>
       <c r="F206" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-133198914294.11237</v>
+        <v>1209985081902.636</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -8319,23 +8319,23 @@
       </c>
       <c r="B207" s="38">
         <f t="shared" si="12"/>
-        <v>53296</v>
+        <v>63704</v>
       </c>
       <c r="C207" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D207" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>7232092120.313324</v>
+        <v>-121811476767.17755</v>
       </c>
       <c r="E207" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-6660090901.5221987</v>
+        <v>121105821767.17755</v>
       </c>
       <c r="F207" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-140431006414.42569</v>
+        <v>1331796558669.8135</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -8344,23 +8344,23 @@
       </c>
       <c r="B208" s="38">
         <f t="shared" si="12"/>
-        <v>53477</v>
+        <v>64069</v>
       </c>
       <c r="C208" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D208" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>7593704609.3094015</v>
+        <v>-134003427903.76979</v>
       </c>
       <c r="E208" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-7021703390.5182762</v>
+        <v>133297772903.76979</v>
       </c>
       <c r="F208" s="37">
         <f t="shared" ca="1" si="17"/>
-        <v>-148024711023.73508</v>
+        <v>1465799986573.5833</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -8369,23 +8369,23 @@
       </c>
       <c r="B209" s="38">
         <f t="shared" si="12"/>
-        <v>53661</v>
+        <v>64435</v>
       </c>
       <c r="C209" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D209" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>7973398116.9128942</v>
+        <v>-147415655458.16754</v>
       </c>
       <c r="E209" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-7401396898.121769</v>
+        <v>146710000458.16754</v>
       </c>
       <c r="F209" s="37">
         <f t="shared" ca="1" si="17"/>
-        <v>-155998109140.64798</v>
+        <v>1613215642031.7507</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -8394,23 +8394,23 @@
       </c>
       <c r="B210" s="38">
         <f t="shared" si="12"/>
-        <v>53842</v>
+        <v>64800</v>
       </c>
       <c r="C210" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>572001218.79112494</v>
+        <v>-705655000.00000012</v>
       </c>
       <c r="D210" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>8372076713.7624874</v>
+        <v>-162170295298.46689</v>
       </c>
       <c r="E210" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-7800075494.9713621</v>
+        <v>161464640298.46689</v>
       </c>
       <c r="F210" s="37">
         <f t="shared" ca="1" si="17"/>
-        <v>-164370185854.41046</v>
+        <v>1775385937330.2175</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -8433,7 +8433,7 @@
       </c>
       <c r="E213" s="44">
         <f ca="1">SUM(E217:INDIRECT(CONCATENATE("E",216+B10)))</f>
-        <v>117402473.06971076</v>
+        <v>148325241.54291302</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -8442,14 +8442,14 @@
       </c>
       <c r="B214" s="94">
         <f ca="1">PMT(B9,B10-B212,-INDIRECT(CONCATENATE("F",216+B212)),0,0)</f>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D214" s="79" t="s">
         <v>70</v>
       </c>
       <c r="E214" s="44">
         <f ca="1">F216+E213</f>
-        <v>662164973.06971073</v>
+        <v>853980241.54291296</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="F216" s="39">
         <f>$B$3</f>
-        <v>544762500</v>
+        <v>705655000</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -8489,7 +8489,7 @@
       </c>
       <c r="B217" s="38">
         <f t="shared" ref="B217:B276" si="18">EDATE($B$7,$B$6*A217)</f>
-        <v>43069</v>
+        <v>43250</v>
       </c>
       <c r="C217" s="37">
         <f>IF($B$212&gt;=$A217,0,$B$214)</f>
@@ -8497,15 +8497,15 @@
       </c>
       <c r="D217" s="37">
         <f t="shared" ref="D217:D276" si="19">C217-E217</f>
-        <v>-27238718.791125</v>
+        <v>-70628084.541950002</v>
       </c>
       <c r="E217" s="37">
         <f t="shared" ref="E217:E276" si="20">F216*$B$9</f>
-        <v>27238718.791125</v>
+        <v>70628084.541950002</v>
       </c>
       <c r="F217" s="37">
         <f t="shared" ref="F217:F228" si="21">F216-D217</f>
-        <v>572001218.79112506</v>
+        <v>776283084.54194999</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -8514,7 +8514,7 @@
       </c>
       <c r="B218" s="38">
         <f t="shared" si="18"/>
-        <v>43250</v>
+        <v>43615</v>
       </c>
       <c r="C218" s="37">
         <f t="shared" ref="C218:C276" si="22">IF($B$212&gt;=$A218,0,$B$214)</f>
@@ -8522,15 +8522,15 @@
       </c>
       <c r="D218" s="37">
         <f t="shared" si="19"/>
-        <v>-28600684.420884736</v>
+        <v>-77697157.000963032</v>
       </c>
       <c r="E218" s="37">
         <f t="shared" si="20"/>
-        <v>28600684.420884736</v>
+        <v>77697157.000963032</v>
       </c>
       <c r="F218" s="37">
         <f t="shared" si="21"/>
-        <v>600601903.21200979</v>
+        <v>853980241.54291296</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -8539,7 +8539,7 @@
       </c>
       <c r="B219" s="38">
         <f t="shared" si="18"/>
-        <v>43434</v>
+        <v>43981</v>
       </c>
       <c r="C219" s="37">
         <f t="shared" si="22"/>
@@ -8547,15 +8547,15 @@
       </c>
       <c r="D219" s="37">
         <f t="shared" si="19"/>
-        <v>-30030749.816674989</v>
+        <v>-85473763.661913738</v>
       </c>
       <c r="E219" s="37">
         <f t="shared" si="20"/>
-        <v>30030749.816674989</v>
+        <v>85473763.661913738</v>
       </c>
       <c r="F219" s="37">
         <f t="shared" si="21"/>
-        <v>630632653.02868474</v>
+        <v>939454005.20482671</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -8564,23 +8564,23 @@
       </c>
       <c r="B220" s="38">
         <f t="shared" si="18"/>
-        <v>43615</v>
+        <v>44346</v>
       </c>
       <c r="C220" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D220" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>630632653.02868474</v>
+        <v>-1033482725.901031</v>
       </c>
       <c r="E220" s="37">
         <f t="shared" si="20"/>
-        <v>31532320.041026037</v>
+        <v>94028720.69620429</v>
       </c>
       <c r="F220" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>1972936731.1058578</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -8589,23 +8589,23 @@
       </c>
       <c r="B221" s="38">
         <f t="shared" si="18"/>
-        <v>43799</v>
+        <v>44711</v>
       </c>
       <c r="C221" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D221" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>662164973.06971073</v>
+        <v>-1136922658.0740943</v>
       </c>
       <c r="E221" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>197468652.86926758</v>
       </c>
       <c r="F221" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>-662164973.06971073</v>
+        <v>3109859389.1799521</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -8614,23 +8614,23 @@
       </c>
       <c r="B222" s="38">
         <f t="shared" si="18"/>
-        <v>43981</v>
+        <v>45076</v>
       </c>
       <c r="C222" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D222" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>695273943.48301697</v>
+        <v>-1250715757.5520482</v>
       </c>
       <c r="E222" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-33108970.41330618</v>
+        <v>311261752.34722161</v>
       </c>
       <c r="F222" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>-1357438916.5527277</v>
+        <v>4360575146.7320004</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -8639,23 +8639,23 @@
       </c>
       <c r="B223" s="38">
         <f t="shared" si="18"/>
-        <v>44165</v>
+        <v>45442</v>
       </c>
       <c r="C223" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D223" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>730038398.50576615</v>
+        <v>-1375898259.2877903</v>
       </c>
       <c r="E223" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-67873425.436055422</v>
+        <v>436444254.08296371</v>
       </c>
       <c r="F223" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>-2087477315.0584939</v>
+        <v>5736473406.0197906</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -8664,23 +8664,23 @@
       </c>
       <c r="B224" s="38">
         <f t="shared" si="18"/>
-        <v>44346</v>
+        <v>45807</v>
       </c>
       <c r="C224" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D224" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>766541114.17290878</v>
+        <v>-1513610113.6331859</v>
       </c>
       <c r="E224" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-104376141.1031981</v>
+        <v>574156108.42835903</v>
       </c>
       <c r="F224" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>-2854018429.2314024</v>
+        <v>7250083519.652977</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -8689,23 +8689,23 @@
       </c>
       <c r="B225" s="38">
         <f t="shared" si="18"/>
-        <v>44530</v>
+        <v>46172</v>
       </c>
       <c r="C225" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D225" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>804869005.41136873</v>
+        <v>-1665105367.0774825</v>
       </c>
       <c r="E225" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-142704032.34165797</v>
+        <v>725651361.87265575</v>
       </c>
       <c r="F225" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>-3658887434.6427712</v>
+        <v>8915188886.7304592</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -8714,23 +8714,23 @@
       </c>
       <c r="B226" s="38">
         <f t="shared" si="18"/>
-        <v>44711</v>
+        <v>46537</v>
       </c>
       <c r="C226" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D226" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>845113332.98915303</v>
+        <v>-1831763581.980237</v>
       </c>
       <c r="E226" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-182948359.91944233</v>
+        <v>892309576.77541018</v>
       </c>
       <c r="F226" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>-4504000767.6319246</v>
+        <v>10746952468.710697</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -8739,23 +8739,23 @@
       </c>
       <c r="B227" s="38">
         <f t="shared" si="18"/>
-        <v>44895</v>
+        <v>46903</v>
       </c>
       <c r="C227" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D227" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>887369920.81214368</v>
+        <v>-2015102399.2903466</v>
       </c>
       <c r="E227" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-225204947.74243295</v>
+        <v>1075648394.0855198</v>
       </c>
       <c r="F227" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>-5391370688.444068</v>
+        <v>12762054868.001043</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -8764,23 +8764,23 @@
       </c>
       <c r="B228" s="38">
         <f t="shared" si="18"/>
-        <v>45076</v>
+        <v>47268</v>
       </c>
       <c r="C228" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D228" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>931739384.08596444</v>
+        <v>-2216791358.6511741</v>
       </c>
       <c r="E228" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-269574411.01625377</v>
+        <v>1277337353.4463475</v>
       </c>
       <c r="F228" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>-6323110072.5300322</v>
+        <v>14978846226.652218</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -8789,23 +8789,23 @@
       </c>
       <c r="B229" s="38">
         <f t="shared" si="18"/>
-        <v>45260</v>
+        <v>47633</v>
       </c>
       <c r="C229" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D229" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>978327368.88619137</v>
+        <v>-2438667101.7418904</v>
       </c>
       <c r="E229" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-316162395.81648064</v>
+        <v>1499213096.5370636</v>
       </c>
       <c r="F229" s="37">
         <f t="shared" ref="F229:F276" ca="1" si="23">F228-D229</f>
-        <v>-7301437441.4162235</v>
+        <v>17417513328.394108</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -8814,23 +8814,23 @@
       </c>
       <c r="B230" s="38">
         <f t="shared" si="18"/>
-        <v>45442</v>
+        <v>47998</v>
       </c>
       <c r="C230" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D230" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>1027244803.7073331</v>
+        <v>-2682750097.301333</v>
       </c>
       <c r="E230" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-365079830.6376223</v>
+        <v>1743296092.0965061</v>
       </c>
       <c r="F230" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-8328682245.1235561</v>
+        <v>20100263425.695442</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -8839,23 +8839,23 @@
       </c>
       <c r="B231" s="38">
         <f t="shared" si="18"/>
-        <v>45626</v>
+        <v>48364</v>
       </c>
       <c r="C231" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D231" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>1078608163.5895357</v>
+        <v>-2951263040.1375961</v>
       </c>
       <c r="E231" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-416443190.51982498</v>
+        <v>2011809034.9327693</v>
       </c>
       <c r="F231" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-9407290408.7130928</v>
+        <v>23051526465.833038</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -8864,23 +8864,23 @@
       </c>
       <c r="B232" s="38">
         <f t="shared" si="18"/>
-        <v>45807</v>
+        <v>48729</v>
       </c>
       <c r="C232" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D232" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>1132539747.451911</v>
+        <v>-3246651091.6703854</v>
       </c>
       <c r="E232" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-470374774.38220012</v>
+        <v>2307197086.4655585</v>
       </c>
       <c r="F232" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-10539830156.165005</v>
+        <v>26298177557.503426</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -8889,23 +8889,23 @@
       </c>
       <c r="B233" s="38">
         <f t="shared" si="18"/>
-        <v>45991</v>
+        <v>49094</v>
       </c>
       <c r="C233" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D233" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>1189167969.2928312</v>
+        <v>-3571604146.3227444</v>
       </c>
       <c r="E233" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-527002996.22312045</v>
+        <v>2632150141.1179175</v>
       </c>
       <c r="F233" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-11728998125.457836</v>
+        <v>29869781703.826172</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -8914,23 +8914,23 @@
       </c>
       <c r="B234" s="38">
         <f t="shared" si="18"/>
-        <v>46172</v>
+        <v>49459</v>
       </c>
       <c r="C234" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D234" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>1248627663.9505591</v>
+        <v>-3929081326.5267568</v>
       </c>
       <c r="E234" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-586462690.88084853</v>
+        <v>2989627321.3219299</v>
       </c>
       <c r="F234" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-12977625789.408396</v>
+        <v>33798863030.352928</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -8939,23 +8939,23 @@
       </c>
       <c r="B235" s="38">
         <f t="shared" si="18"/>
-        <v>46356</v>
+        <v>49825</v>
       </c>
       <c r="C235" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D235" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>1311060408.152241</v>
+        <v>-4322337929.4022818</v>
       </c>
       <c r="E235" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-648895435.08253026</v>
+        <v>3382883924.1974549</v>
       </c>
       <c r="F235" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-14288686197.560637</v>
+        <v>38121200959.755211</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -8964,23 +8964,23 @@
       </c>
       <c r="B236" s="38">
         <f t="shared" si="18"/>
-        <v>46537</v>
+        <v>50190</v>
       </c>
       <c r="C236" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D236" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>1376614857.6156979</v>
+        <v>-4754955070.4934683</v>
       </c>
       <c r="E236" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-714449884.54598713</v>
+        <v>3815501065.2886419</v>
       </c>
       <c r="F236" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-15665301055.176334</v>
+        <v>42876156030.24868</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -8989,23 +8989,23 @@
       </c>
       <c r="B237" s="38">
         <f t="shared" si="18"/>
-        <v>46721</v>
+        <v>50555</v>
       </c>
       <c r="C237" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D237" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>1445447101.0066776</v>
+        <v>-5230872294.5080175</v>
       </c>
       <c r="E237" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-783282127.93696678</v>
+        <v>4291418289.3031912</v>
       </c>
       <c r="F237" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-17110748156.183012</v>
+        <v>48107028324.756699</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -9014,23 +9014,23 @@
       </c>
       <c r="B238" s="38">
         <f t="shared" si="18"/>
-        <v>46903</v>
+        <v>50920</v>
       </c>
       <c r="C238" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D238" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>1517721031.5943515</v>
+        <v>-5754423450.0226192</v>
       </c>
       <c r="E238" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-855556058.5246408</v>
+        <v>4814969444.8177929</v>
       </c>
       <c r="F238" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-18628469187.777363</v>
+        <v>53861451774.77932</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -9039,23 +9039,23 @@
       </c>
       <c r="B239" s="38">
         <f t="shared" si="18"/>
-        <v>47087</v>
+        <v>51286</v>
       </c>
       <c r="C239" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D239" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>1593608737.4899936</v>
+        <v>-6330376154.8406639</v>
       </c>
       <c r="E239" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-931443764.42028284</v>
+        <v>5390922149.6358376</v>
       </c>
       <c r="F239" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-20222077925.267357</v>
+        <v>60191827929.61998</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -9064,23 +9064,23 @@
       </c>
       <c r="B240" s="38">
         <f t="shared" si="18"/>
-        <v>47268</v>
+        <v>51651</v>
       </c>
       <c r="C240" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D240" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>1673290911.3980169</v>
+        <v>-6963975211.3859024</v>
       </c>
       <c r="E240" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-1011125938.3283063</v>
+        <v>6024521206.181076</v>
       </c>
       <c r="F240" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-21895368836.665375</v>
+        <v>67155803141.005882</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -9089,23 +9089,23 @@
       </c>
       <c r="B241" s="38">
         <f t="shared" si="18"/>
-        <v>47452</v>
+        <v>52016</v>
       </c>
       <c r="C241" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D241" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>1756957280.8550115</v>
+        <v>-7660990367.4859905</v>
       </c>
       <c r="E241" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-1094792307.7853007</v>
+        <v>6721536362.2811642</v>
       </c>
       <c r="F241" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-23652326117.520386</v>
+        <v>74816793508.491867</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -9114,23 +9114,23 @@
       </c>
       <c r="B242" s="38">
         <f t="shared" si="18"/>
-        <v>47633</v>
+        <v>52381</v>
       </c>
       <c r="C242" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D242" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>1844807059.9811981</v>
+        <v>-8427768857.4702816</v>
       </c>
       <c r="E242" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-1182642086.9114873</v>
+        <v>7488314852.2654552</v>
       </c>
       <c r="F242" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-25497133177.501583</v>
+        <v>83244562365.962143</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -9139,23 +9139,23 @@
       </c>
       <c r="B243" s="38">
         <f t="shared" si="18"/>
-        <v>47817</v>
+        <v>52747</v>
       </c>
       <c r="C243" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D243" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>1937049423.8199532</v>
+        <v>-9271293202.0372791</v>
       </c>
       <c r="E243" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-1274884450.7502425</v>
+        <v>8331839196.8324518</v>
       </c>
       <c r="F243" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-27434182601.321537</v>
+        <v>92515855567.99942</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -9164,23 +9164,23 @@
       </c>
       <c r="B244" s="38">
         <f t="shared" si="18"/>
-        <v>47998</v>
+        <v>53112</v>
       </c>
       <c r="C244" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D244" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>2033904006.3948231</v>
+        <v>-10199244793.235094</v>
       </c>
       <c r="E244" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-1371739033.3251123</v>
+        <v>9259790788.0302677</v>
       </c>
       <c r="F244" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-29468086607.716362</v>
+        <v>102715100361.23451</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -9189,23 +9189,23 @@
       </c>
       <c r="B245" s="38">
         <f t="shared" si="18"/>
-        <v>48182</v>
+        <v>53477</v>
       </c>
       <c r="C245" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D245" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>2135601423.6699312</v>
+        <v>-11220073843.579317</v>
       </c>
       <c r="E245" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-1473436450.6002204</v>
+        <v>10280619838.374491</v>
       </c>
       <c r="F245" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-31603688031.386292</v>
+        <v>113935174204.81383</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -9214,23 +9214,23 @@
       </c>
       <c r="B246" s="38">
         <f t="shared" si="18"/>
-        <v>48364</v>
+        <v>53842</v>
       </c>
       <c r="C246" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D246" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>2242383822.6589794</v>
+        <v>-12343076336.286434</v>
       </c>
       <c r="E246" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-1580218849.5892687</v>
+        <v>11403622331.081608</v>
       </c>
       <c r="F246" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-33846071854.045273</v>
+        <v>126278250541.10027</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -9239,23 +9239,23 @@
       </c>
       <c r="B247" s="38">
         <f t="shared" si="18"/>
-        <v>48548</v>
+        <v>54208</v>
       </c>
       <c r="C247" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D247" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>2354505457.9902954</v>
+        <v>-13578478677.355345</v>
       </c>
       <c r="E247" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-1692340484.9205844</v>
+        <v>12639024672.150518</v>
       </c>
       <c r="F247" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-36200577312.035568</v>
+        <v>139856729218.4556</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -9264,23 +9264,23 @@
       </c>
       <c r="B248" s="38">
         <f t="shared" si="18"/>
-        <v>48729</v>
+        <v>54573</v>
       </c>
       <c r="C248" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D248" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>2472233297.3007593</v>
+        <v>-14937530820.364773</v>
       </c>
       <c r="E248" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-1810068324.2310483</v>
+        <v>13998076815.159946</v>
       </c>
       <c r="F248" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-38672810609.336327</v>
+        <v>154794260038.82037</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -9289,23 +9289,23 @@
       </c>
       <c r="B249" s="38">
         <f t="shared" si="18"/>
-        <v>48913</v>
+        <v>54938</v>
       </c>
       <c r="C249" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D249" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>2595847656.9000912</v>
+        <v>-16432608712.009708</v>
       </c>
       <c r="E249" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-1933682683.8303804</v>
+        <v>15493154706.804882</v>
       </c>
       <c r="F249" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-41268658266.23642</v>
+        <v>171226868750.83008</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -9314,23 +9314,23 @@
       </c>
       <c r="B250" s="38">
         <f t="shared" si="18"/>
-        <v>49094</v>
+        <v>55303</v>
       </c>
       <c r="C250" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D250" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>2725642869.2190418</v>
+        <v>-18077326991.277348</v>
       </c>
       <c r="E250" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-2063477896.1493311</v>
+        <v>17137872986.072521</v>
       </c>
       <c r="F250" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-43994301135.45546</v>
+        <v>189304195742.10742</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -9339,23 +9339,23 @@
       </c>
       <c r="B251" s="38">
         <f t="shared" si="18"/>
-        <v>49278</v>
+        <v>55669</v>
       </c>
       <c r="C251" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D251" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>2861927983.6307211</v>
+        <v>-19886662968.535938</v>
       </c>
       <c r="E251" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-2199763010.5610104</v>
+        <v>18947208963.331112</v>
       </c>
       <c r="F251" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-46856229119.086182</v>
+        <v>209190858710.64337</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -9364,23 +9364,23 @@
       </c>
       <c r="B252" s="38">
         <f t="shared" si="18"/>
-        <v>49459</v>
+        <v>56034</v>
       </c>
       <c r="C252" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D252" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3005027502.3137593</v>
+        <v>-21877093013.528214</v>
       </c>
       <c r="E252" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-2342862529.2440486</v>
+        <v>20937639008.323387</v>
       </c>
       <c r="F252" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-49861256621.39994</v>
+        <v>231067951724.17157</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -9389,23 +9389,23 @@
       </c>
       <c r="B253" s="38">
         <f t="shared" si="18"/>
-        <v>49643</v>
+        <v>56399</v>
       </c>
       <c r="C253" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D253" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3155282152.9094248</v>
+        <v>-24066742594.260403</v>
       </c>
       <c r="E253" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-2493117179.8397141</v>
+        <v>23127288589.055576</v>
       </c>
       <c r="F253" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-53016538774.309364</v>
+        <v>255134694318.43198</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -9414,23 +9414,23 @@
       </c>
       <c r="B254" s="38">
         <f t="shared" si="18"/>
-        <v>49825</v>
+        <v>56764</v>
       </c>
       <c r="C254" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D254" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3313049699.8124428</v>
+        <v>-26475551333.087128</v>
       </c>
       <c r="E254" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-2650884726.742732</v>
+        <v>25536097327.882301</v>
       </c>
       <c r="F254" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-56329588474.121811</v>
+        <v>281610245651.5191</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -9439,23 +9439,23 @@
       </c>
       <c r="B255" s="38">
         <f t="shared" si="18"/>
-        <v>50009</v>
+        <v>57130</v>
       </c>
       <c r="C255" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D255" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3478705796.0272379</v>
+        <v>-29125454583.043571</v>
       </c>
       <c r="E255" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-2816540822.9575272</v>
+        <v>28186000577.838745</v>
       </c>
       <c r="F255" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-59808294270.149048</v>
+        <v>310735700234.56268</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -9464,23 +9464,23 @@
       </c>
       <c r="B256" s="38">
         <f t="shared" si="18"/>
-        <v>50190</v>
+        <v>57495</v>
       </c>
       <c r="C256" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D256" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3652644877.6179175</v>
+        <v>-32040583177.914902</v>
       </c>
       <c r="E256" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-2990479904.5482068</v>
+        <v>31101129172.710075</v>
       </c>
       <c r="F256" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-63460939147.766968</v>
+        <v>342776283412.4776</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -9489,23 +9489,23 @@
       </c>
       <c r="B257" s="38">
         <f t="shared" si="18"/>
-        <v>50374</v>
+        <v>57860</v>
       </c>
       <c r="C257" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D257" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>3835281102.8817301</v>
+        <v>-35247483175.028442</v>
       </c>
       <c r="E257" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-3173116129.8120193</v>
+        <v>34308029169.823616</v>
       </c>
       <c r="F257" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-67296220250.648697</v>
+        <v>378023766587.50604</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -9514,23 +9514,23 @@
       </c>
       <c r="B258" s="38">
         <f t="shared" si="18"/>
-        <v>50555</v>
+        <v>58225</v>
       </c>
       <c r="C258" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D258" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4027049338.4822187</v>
+        <v>-38775357591.814079</v>
       </c>
       <c r="E258" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-3364884365.412508</v>
+        <v>37835903586.609253</v>
       </c>
       <c r="F258" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-71323269589.13092</v>
+        <v>416799124179.32013</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -9539,23 +9539,23 @@
       </c>
       <c r="B259" s="38">
         <f t="shared" si="18"/>
-        <v>50739</v>
+        <v>58591</v>
       </c>
       <c r="C259" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D259" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4228406194.8901086</v>
+        <v>-42656332337.460304</v>
       </c>
       <c r="E259" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-3566241221.8203979</v>
+        <v>41716878332.255478</v>
       </c>
       <c r="F259" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-75551675784.021027</v>
+        <v>459455456516.78046</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -9564,23 +9564,23 @@
       </c>
       <c r="B260" s="38">
         <f t="shared" si="18"/>
-        <v>50920</v>
+        <v>58956</v>
       </c>
       <c r="C260" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D260" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4439831113.5973663</v>
+        <v>-46925748761.32135</v>
       </c>
       <c r="E260" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-3777666140.5276556</v>
+        <v>45986294756.116524</v>
       </c>
       <c r="F260" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-79991506897.618393</v>
+        <v>506381205278.10181</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -9589,23 +9589,23 @@
       </c>
       <c r="B261" s="38">
         <f t="shared" si="18"/>
-        <v>51104</v>
+        <v>59321</v>
       </c>
       <c r="C261" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D261" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4661827508.6931486</v>
+        <v>-51622485482.111122</v>
       </c>
       <c r="E261" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-3999662535.6234379</v>
+        <v>50683031476.906296</v>
       </c>
       <c r="F261" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-84653334406.311539</v>
+        <v>558003690760.21289</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -9614,23 +9614,23 @@
       </c>
       <c r="B262" s="38">
         <f t="shared" si="18"/>
-        <v>51286</v>
+        <v>59686</v>
       </c>
       <c r="C262" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D262" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>4894923965.5197906</v>
+        <v>-56789312428.559647</v>
       </c>
       <c r="E262" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-4232758992.4500794</v>
+        <v>55849858423.35482</v>
       </c>
       <c r="F262" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-89548258371.831329</v>
+        <v>614793003188.77258</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -9639,23 +9639,23 @@
       </c>
       <c r="B263" s="38">
         <f t="shared" si="18"/>
-        <v>51470</v>
+        <v>60052</v>
       </c>
       <c r="C263" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D263" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>5139675499.2629023</v>
+        <v>-62473280315.534904</v>
       </c>
       <c r="E263" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-4477510526.1931915</v>
+        <v>61533826310.330078</v>
       </c>
       <c r="F263" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-94687933871.094238</v>
+        <v>677266283504.3075</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -9664,23 +9664,23 @@
       </c>
       <c r="B264" s="38">
         <f t="shared" si="18"/>
-        <v>51651</v>
+        <v>60417</v>
       </c>
       <c r="C264" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D264" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>5396664876.4723415</v>
+        <v>-68726149102.31958</v>
       </c>
       <c r="E264" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-4734499903.4026308</v>
+        <v>67786695097.114754</v>
       </c>
       <c r="F264" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-100084598747.56657</v>
+        <v>745992432606.62708</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -9689,23 +9689,23 @@
       </c>
       <c r="B265" s="38">
         <f t="shared" si="18"/>
-        <v>51835</v>
+        <v>60782</v>
       </c>
       <c r="C265" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D265" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>5666504002.6606741</v>
+        <v>-75604859334.715424</v>
       </c>
       <c r="E265" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-5004339029.5909634</v>
+        <v>74665405329.51059</v>
       </c>
       <c r="F265" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-105751102750.22725</v>
+        <v>821597291941.34253</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -9714,23 +9714,23 @@
       </c>
       <c r="B266" s="38">
         <f t="shared" si="18"/>
-        <v>52016</v>
+        <v>61147</v>
       </c>
       <c r="C266" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D266" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>5949835379.2830706</v>
+        <v>-83172050663.161377</v>
       </c>
       <c r="E266" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-5287670406.2133598</v>
+        <v>82232596657.956543</v>
       </c>
       <c r="F266" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-111700938129.51031</v>
+        <v>904769342604.50391</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -9739,23 +9739,23 @@
       </c>
       <c r="B267" s="38">
         <f t="shared" si="18"/>
-        <v>52200</v>
+        <v>61513</v>
       </c>
       <c r="C267" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D267" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>6247333633.5677872</v>
+        <v>-91496632258.650818</v>
       </c>
       <c r="E267" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-5585168660.4980764</v>
+        <v>90557178253.445984</v>
       </c>
       <c r="F267" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-117948271763.07809</v>
+        <v>996265974863.15479</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -9764,23 +9764,23 @@
       </c>
       <c r="B268" s="38">
         <f t="shared" si="18"/>
-        <v>52381</v>
+        <v>61878</v>
       </c>
       <c r="C268" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D268" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>6559707124.8398371</v>
+        <v>-100654410320.83093</v>
       </c>
       <c r="E268" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-5897542151.7701263</v>
+        <v>99714956315.626099</v>
       </c>
       <c r="F268" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-124507978887.91794</v>
+        <v>1096920385183.9857</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -9789,23 +9789,23 @@
       </c>
       <c r="B269" s="38">
         <f t="shared" si="18"/>
-        <v>52565</v>
+        <v>62243</v>
       </c>
       <c r="C269" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D269" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>6887699631.1625948</v>
+        <v>-110728778392.56538</v>
       </c>
       <c r="E269" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-6225534658.0928841</v>
+        <v>109789324387.36055</v>
       </c>
       <c r="F269" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-131395678519.08054</v>
+        <v>1207649163576.551</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -9814,23 +9814,23 @@
       </c>
       <c r="B270" s="38">
         <f t="shared" si="18"/>
-        <v>52747</v>
+        <v>62608</v>
       </c>
       <c r="C270" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D270" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>7232092120.313323</v>
+        <v>-121811476767.17755</v>
       </c>
       <c r="E270" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-6569927147.2436123</v>
+        <v>120872022761.97272</v>
       </c>
       <c r="F270" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-138627770639.39386</v>
+        <v>1329460640343.7285</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -9839,23 +9839,23 @@
       </c>
       <c r="B271" s="38">
         <f t="shared" si="18"/>
-        <v>52931</v>
+        <v>62974</v>
       </c>
       <c r="C271" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D271" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>7593704609.3094006</v>
+        <v>-134003427903.76978</v>
       </c>
       <c r="E271" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-6931539636.2396898</v>
+        <v>133063973898.56494</v>
       </c>
       <c r="F271" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-146221475248.70325</v>
+        <v>1463464068247.4983</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -9864,23 +9864,23 @@
       </c>
       <c r="B272" s="38">
         <f t="shared" si="18"/>
-        <v>53112</v>
+        <v>63339</v>
       </c>
       <c r="C272" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D272" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>7973398116.9128942</v>
+        <v>-147415655458.16754</v>
       </c>
       <c r="E272" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-7311233143.8431835</v>
+        <v>146476201452.96271</v>
       </c>
       <c r="F272" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-154194873365.61615</v>
+        <v>1610879723705.6658</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -9889,23 +9889,23 @@
       </c>
       <c r="B273" s="38">
         <f t="shared" si="18"/>
-        <v>53296</v>
+        <v>63704</v>
       </c>
       <c r="C273" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D273" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>8372076713.7624865</v>
+        <v>-162170295298.46689</v>
       </c>
       <c r="E273" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-7709911740.6927757</v>
+        <v>161230841293.26205</v>
       </c>
       <c r="F273" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-162566950079.37863</v>
+        <v>1773050019004.1326</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -9914,23 +9914,23 @@
       </c>
       <c r="B274" s="38">
         <f t="shared" si="18"/>
-        <v>53477</v>
+        <v>64069</v>
       </c>
       <c r="C274" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D274" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>8790689675.0142288</v>
+        <v>-178401707711.80359</v>
       </c>
       <c r="E274" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-8128524701.9445181</v>
+        <v>177462253706.59875</v>
       </c>
       <c r="F274" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-171357639754.39285</v>
+        <v>1951451726715.936</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -9939,23 +9939,23 @@
       </c>
       <c r="B275" s="38">
         <f t="shared" si="18"/>
-        <v>53661</v>
+        <v>64435</v>
       </c>
       <c r="C275" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D275" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>9230233740.616684</v>
+        <v>-196257700930.44089</v>
       </c>
       <c r="E275" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-8568068767.5469742</v>
+        <v>195318246925.23605</v>
       </c>
       <c r="F275" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-180587873495.00952</v>
+        <v>2147709427646.377</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -9964,23 +9964,23 @@
       </c>
       <c r="B276" s="38">
         <f t="shared" si="18"/>
-        <v>53842</v>
+        <v>64800</v>
       </c>
       <c r="C276" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>662164973.06971073</v>
+        <v>-939454005.20482671</v>
       </c>
       <c r="D276" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>9691755488.6022949</v>
+        <v>-215900877118.9805</v>
       </c>
       <c r="E276" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-9029590515.5325851</v>
+        <v>214961423113.77567</v>
       </c>
       <c r="F276" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-190279628983.61182</v>
+        <v>2363610304765.3574</v>
       </c>
     </row>
   </sheetData>

--- a/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
+++ b/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
@@ -1664,7 +1664,7 @@
       </c>
       <c r="D1" s="3">
         <f ca="1">IF(B16=1,'Regular Fixed'!E79,IF(AND(B16=0,E16=0),'Regular Fixed'!E15,IF(AND(B16=0,E16&gt;0,E15&gt;0),'Regular Fixed'!E147,IF(AND(B16=0,E16&gt;0,E15=0),'Regular Fixed'!E213))))</f>
-        <v>33631000.861182682</v>
+        <v>100145997.93488157</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1672,7 +1672,7 @@
         <v>98</v>
       </c>
       <c r="B2">
-        <v>304000000</v>
+        <v>181000000</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1680,7 +1680,7 @@
         <v>70</v>
       </c>
       <c r="B3">
-        <v>739286000.86000001</v>
+        <v>524145997.93000001</v>
       </c>
       <c r="C3" s="87" t="s">
         <v>96</v>
@@ -1702,7 +1702,7 @@
         <v>29</v>
       </c>
       <c r="B5">
-        <v>1008000000</v>
+        <v>605000000</v>
       </c>
       <c r="C5" s="83" t="s">
         <v>93</v>
@@ -1722,7 +1722,7 @@
         <v>99</v>
       </c>
       <c r="B6">
-        <v>304000000</v>
+        <v>181000000</v>
       </c>
       <c r="C6" s="83" t="s">
         <v>93</v>
@@ -1731,7 +1731,7 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>21764500</v>
+        <v>0</v>
       </c>
       <c r="F6" s="83" t="s">
         <v>93</v>
@@ -1740,7 +1740,7 @@
         <v>12</v>
       </c>
       <c r="H6">
-        <v>21864500</v>
+        <v>0</v>
       </c>
       <c r="I6" s="83" t="s">
         <v>93</v>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="B7" s="89">
         <f>B5-B6+D24+D25+D26+D27+D28+D29+D30+D31+D38</f>
-        <v>705655000</v>
+        <v>424000000</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>5</v>
@@ -1778,7 +1778,7 @@
         <v>33</v>
       </c>
       <c r="B8">
-        <v>0.10008869000000001</v>
+        <v>0.20010199000000001</v>
       </c>
       <c r="C8" s="83" t="s">
         <v>93</v>
@@ -1813,7 +1813,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>70400000</v>
+        <v>17500000</v>
       </c>
       <c r="F9" s="83" t="s">
         <v>93</v>
@@ -1830,7 +1830,7 @@
         <v>35</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C10" s="83" t="s">
         <v>93</v>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B12" s="20">
         <f>B8/(12/B10)</f>
-        <v>0.10008869000000001</v>
+        <v>1.6675165833333335E-2</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>10</v>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B13" s="18">
         <f>B9/B10</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>11</v>
@@ -1927,13 +1927,13 @@
       </c>
       <c r="B15" s="3">
         <f>IF(B16=1,B2+SUM(E6:E14)-SUM(D24:D31,D38)+B18,B2+SUM(E6:E14)-SUM(D24:D31,D38))</f>
-        <v>766652500</v>
+        <v>201000000</v>
       </c>
       <c r="D15" s="82" t="s">
         <v>94</v>
       </c>
       <c r="E15">
-        <v>40165000</v>
+        <v>7071000</v>
       </c>
       <c r="F15" s="83" t="s">
         <v>93</v>
@@ -1944,7 +1944,7 @@
         <v>40</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="83" t="s">
         <v>93</v>
@@ -1953,7 +1953,7 @@
         <v>95</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="83" t="s">
         <v>93</v>
@@ -1964,7 +1964,7 @@
         <v>41</v>
       </c>
       <c r="B17">
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="C17" s="82" t="s">
         <v>92</v>
@@ -1973,7 +1973,7 @@
     <row r="18" spans="1:13">
       <c r="B18" s="90">
         <f>ROUNDDOWN(B17,0)</f>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>42</v>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="B19" s="13">
         <f ca="1">(D1/B7)/(B9/12/B10)*100</f>
-        <v>28.595560885573846</v>
+        <v>11.809669567792639</v>
       </c>
       <c r="F19" s="85" t="s">
         <v>43</v>
@@ -2018,14 +2018,14 @@
       </c>
       <c r="G20" s="100">
         <f>IF(B16=0,-B7,0)</f>
-        <v>0</v>
+        <v>-424000000</v>
       </c>
       <c r="I20" s="85">
         <v>0</v>
       </c>
       <c r="J20" s="100">
         <f>IF(B16=0,B37-C37,0)</f>
-        <v>0</v>
+        <v>-404100000</v>
       </c>
       <c r="L20" s="13">
         <v>0</v>
@@ -2038,7 +2038,7 @@
       <c r="B21" s="22"/>
       <c r="C21" s="23">
         <f>B5</f>
-        <v>1008000000</v>
+        <v>605000000</v>
       </c>
       <c r="D21" s="21"/>
       <c r="F21" s="105">
@@ -2046,14 +2046,14 @@
       </c>
       <c r="G21" s="101">
         <f>IF($B$16=0,IF(F21&lt;=$E$16,$E$15,$B$17),-B7+B17)</f>
-        <v>-336011999.56999999</v>
+        <v>7071000</v>
       </c>
       <c r="I21" s="85">
         <v>1</v>
       </c>
       <c r="J21" s="101">
         <f>IF(B16=0,IF(I21&lt;=$E$16,$E$15,$B$18),B37-C37)</f>
-        <v>-263262000</v>
+        <v>7071000</v>
       </c>
       <c r="L21" s="13">
         <v>-246450080</v>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="B22" s="23">
         <f>B6</f>
-        <v>304000000</v>
+        <v>181000000</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="21"/>
@@ -2074,14 +2074,14 @@
       </c>
       <c r="G22" s="102">
         <f>IF($B$16=0,IF(F22&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>369643000.43000001</v>
+        <v>7071000</v>
       </c>
       <c r="I22" s="85">
         <v>2</v>
       </c>
       <c r="J22" s="100">
         <f>IF($B$16=0,IF(I22&lt;=$E$16,$E$15,$B$18),$B$18)</f>
-        <v>369643000</v>
+        <v>7071000</v>
       </c>
       <c r="L22" s="13">
         <v>6600000</v>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B23" s="98">
         <f>IF(B16=1,B18,0)</f>
-        <v>369643000</v>
+        <v>0</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="21"/>
@@ -2102,14 +2102,14 @@
       </c>
       <c r="G23" s="102">
         <f>IF($B$16=0,IF(F23&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="I23" s="85">
         <v>3</v>
       </c>
       <c r="J23" s="100">
         <f>IF($B$16=0,IF(I23&lt;=$E$16,$E$15,$B$18),$B$18)</f>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L23" s="13">
         <v>6600000</v>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B24" s="98">
         <f t="shared" ref="B24:B31" si="0">E6-D24</f>
-        <v>21764500</v>
+        <v>0</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="G24" s="102">
         <f>IF($B$16=0,IF(F24&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H24" s="104"/>
       <c r="I24" s="85">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="J24" s="100">
         <f t="shared" ref="J24:J81" si="1">IF($B$16=0,IF(I24&lt;=$E$16,$E$15,$B$18),$B$18)</f>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L24" s="13">
         <v>6600000</v>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="G25" s="102">
         <f t="shared" ref="G25:G81" si="2">IF($B$16=0,IF(F25&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H25" s="104"/>
       <c r="I25" s="85">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="J25" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L25" s="13">
         <v>6600000</v>
@@ -2191,11 +2191,11 @@
       </c>
       <c r="B26" s="23">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>150000</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="E26" s="83" t="s">
         <v>93</v>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="G26" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H26" s="104"/>
       <c r="I26" s="85">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="J26" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L26" s="13">
         <v>6600000</v>
@@ -2225,11 +2225,11 @@
       </c>
       <c r="B27" s="23">
         <f t="shared" si="0"/>
-        <v>69400000</v>
+        <v>17500000</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="E27" s="83" t="s">
         <v>93</v>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="G27" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H27" s="104"/>
       <c r="I27" s="85">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="J27" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L27" s="13">
         <v>6600000</v>
@@ -2259,11 +2259,11 @@
       </c>
       <c r="B28" s="23">
         <f t="shared" si="0"/>
-        <v>900000</v>
+        <v>1100000</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="E28" s="83" t="s">
         <v>93</v>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="G28" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H28" s="104"/>
       <c r="I28" s="85">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="J28" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L28" s="13">
         <v>6600000</v>
@@ -2293,11 +2293,11 @@
       </c>
       <c r="B29" s="23">
         <f t="shared" si="0"/>
-        <v>800000</v>
+        <v>1100000</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="E29" s="83" t="s">
         <v>93</v>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="G29" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H29" s="104"/>
       <c r="I29" s="85">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="J29" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L29" s="13">
         <v>6600000</v>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="G30" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H30" s="104"/>
       <c r="I30" s="85">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="J30" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L30" s="13">
         <v>6600000</v>
@@ -2359,11 +2359,11 @@
       </c>
       <c r="B31" s="23">
         <f t="shared" si="0"/>
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="C31" s="22"/>
       <c r="D31">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="E31" s="83" t="s">
         <v>93</v>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="G31" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H31" s="104"/>
       <c r="I31" s="85">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="J31" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L31" s="13">
         <v>6600000</v>
@@ -2394,7 +2394,7 @@
       <c r="B32" s="22"/>
       <c r="C32" s="24">
         <f>H6</f>
-        <v>21864500</v>
+        <v>0</v>
       </c>
       <c r="D32" s="21"/>
       <c r="F32" s="105">
@@ -2402,7 +2402,7 @@
       </c>
       <c r="G32" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H32" s="104"/>
       <c r="I32" s="85">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="J32" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L32" s="13">
         <v>6600000</v>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="G33" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H33" s="104"/>
       <c r="I33" s="85">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="J33" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L33" s="13">
         <v>6600000</v>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="G34" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H34" s="104"/>
       <c r="I34" s="85">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="J34" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L34" s="13">
         <v>6600000</v>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="G35" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H35" s="104"/>
       <c r="I35" s="85">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="J35" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L35" s="13">
         <v>6600000</v>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="G36" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H36" s="104"/>
       <c r="I36" s="85">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="J36" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L36" s="13">
         <v>6600000</v>
@@ -2532,11 +2532,11 @@
       </c>
       <c r="B37" s="16">
         <f>SUM(B21:B35)</f>
-        <v>766602500</v>
+        <v>200900000</v>
       </c>
       <c r="C37" s="16">
         <f>SUM(C21:C35)</f>
-        <v>1029864500</v>
+        <v>605000000</v>
       </c>
       <c r="D37" t="s">
         <v>49</v>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="G37" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H37" s="104"/>
       <c r="I37" s="85">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="J37" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L37" s="13">
         <v>6600000</v>
@@ -2567,7 +2567,7 @@
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
       <c r="D38">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="E38" t="s">
         <v>93</v>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="G38" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H38" s="104"/>
       <c r="I38" s="85">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="J38" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L38" s="13">
         <v>6600000</v>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="G39" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H39" s="104"/>
       <c r="I39" s="85">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="J39" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="K39" s="35"/>
       <c r="L39" s="13">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="G40" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H40" s="104"/>
       <c r="I40" s="85">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="J40" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L40" s="13">
         <v>6600000</v>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="G41" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H41" s="104"/>
       <c r="I41" s="85">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="J41" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L41" s="13">
         <v>6600000</v>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="G42" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H42" s="104"/>
       <c r="I42" s="85">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="J42" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L42" s="13">
         <v>6600000</v>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="G43" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H43" s="104"/>
       <c r="I43" s="85">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="J43" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L43" s="13">
         <v>6600000</v>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="G44" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H44" s="104"/>
       <c r="I44" s="85">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="J44" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L44" s="13">
         <v>6600000</v>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="G45" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H45" s="104"/>
       <c r="I45" s="85">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="J45" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L45" s="13">
         <v>6600000</v>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="G46" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H46" s="104"/>
       <c r="I46" s="85">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="J46" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L46" s="13">
         <v>6600000</v>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="G47" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H47" s="104"/>
       <c r="I47" s="85">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="J47" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L47" s="13">
         <v>6600000</v>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="G48" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H48" s="104"/>
       <c r="I48" s="85">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="J48" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L48" s="13">
         <v>6600000</v>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="G49" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H49" s="104"/>
       <c r="I49" s="85">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="J49" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L49" s="13">
         <v>6600000</v>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="G50" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H50" s="104"/>
       <c r="I50" s="85">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="J50" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L50" s="13">
         <v>6600000</v>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="G51" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H51" s="104"/>
       <c r="I51" s="85">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="J51" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L51" s="13">
         <v>6600000</v>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="G52" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H52" s="104"/>
       <c r="I52" s="85">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="J52" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L52" s="13">
         <v>6600000</v>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="G53" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H53" s="104"/>
       <c r="I53" s="85">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="J53" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L53" s="13">
         <v>6600000</v>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="G54" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H54" s="104"/>
       <c r="I54" s="85">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="J54" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L54" s="13">
         <v>6600000</v>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="G55" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H55" s="104"/>
       <c r="I55" s="85">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="J55" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L55" s="13">
         <v>6600000</v>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="G56" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H56" s="104"/>
       <c r="I56" s="85">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="J56" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L56" s="13">
         <v>6600000</v>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="G57" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H57" s="104"/>
       <c r="I57" s="85">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="J57" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L57" s="13">
         <v>6600000</v>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="G58" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H58" s="104"/>
       <c r="I58" s="85">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="J58" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L58" s="13">
         <v>6600000</v>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="G59" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H59" s="104"/>
       <c r="I59" s="85">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="J59" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L59" s="13">
         <v>6600000</v>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="G60" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H60" s="104"/>
       <c r="I60" s="85">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="J60" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L60" s="13">
         <v>6600000</v>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G61" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H61" s="104"/>
       <c r="I61" s="85">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="J61" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L61" s="13">
         <v>6600000</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="G62" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H62" s="104"/>
       <c r="I62" s="85">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="J62" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L62" s="13">
         <v>6600000</v>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="G63" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H63" s="104"/>
       <c r="I63" s="85">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="J63" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L63" s="13">
         <v>6600000</v>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="G64" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H64" s="104"/>
       <c r="I64" s="85">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="J64" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L64" s="13">
         <v>6600000</v>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="G65" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H65" s="104"/>
       <c r="I65" s="85">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="J65" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L65" s="13">
         <v>6600000</v>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="G66" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H66" s="104"/>
       <c r="I66" s="85">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="J66" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L66" s="13">
         <v>6600000</v>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="G67" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H67" s="104"/>
       <c r="I67" s="85">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="J67" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L67" s="13">
         <v>6600000</v>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="G68" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H68" s="104"/>
       <c r="I68" s="85">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="J68" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L68" s="13">
         <v>6600000</v>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="G69" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H69" s="104"/>
       <c r="I69" s="85">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="J69" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L69" s="13">
         <v>6600000</v>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="G70" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H70" s="104"/>
       <c r="I70" s="85">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="J70" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L70" s="13">
         <v>6600000</v>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="G71" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H71" s="104"/>
       <c r="I71" s="85">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="J71" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L71" s="13">
         <v>6600000</v>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="G72" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H72" s="104"/>
       <c r="I72" s="85">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="J72" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L72" s="13">
         <v>6600000</v>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="G73" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H73" s="104"/>
       <c r="I73" s="85">
@@ -3287,7 +3287,7 @@
       </c>
       <c r="J73" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L73" s="13">
         <v>6600000</v>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="G74" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H74" s="104"/>
       <c r="I74" s="85">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="J74" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L74" s="13">
         <v>6600000</v>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="G75" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H75" s="104"/>
       <c r="I75" s="85">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="J75" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L75" s="13">
         <v>6600000</v>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="G76" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H76" s="104"/>
       <c r="I76" s="85">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="J76" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L76" s="13">
         <v>6600000</v>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="G77" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H77" s="104"/>
       <c r="I77" s="85">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="J77" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L77" s="13">
         <v>6600000</v>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="G78" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H78" s="104"/>
       <c r="I78" s="85">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="J78" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L78" s="13">
         <v>6600000</v>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="G79" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H79" s="104"/>
       <c r="I79" s="85">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="J79" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L79" s="13">
         <v>6600000</v>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="G80" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H80" s="104"/>
       <c r="I80" s="85">
@@ -3427,7 +3427,7 @@
       </c>
       <c r="J80" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L80" s="13">
         <v>6600000</v>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="G81" s="102">
         <f t="shared" si="2"/>
-        <v>369643000.43000001</v>
+        <v>23181999.91</v>
       </c>
       <c r="H81" s="104"/>
       <c r="I81" s="85">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="J81" s="100">
         <f t="shared" si="1"/>
-        <v>369643000</v>
+        <v>23181999</v>
       </c>
       <c r="L81" s="13">
         <v>6600000</v>
@@ -3474,26 +3474,26 @@
       <c r="F83" s="106"/>
       <c r="G83" s="14">
         <f ca="1">_xlfn.NUMBERVALUE(IRR(G20:INDIRECT(CONCATENATE("G",IF(B16=1,B13+20+1,B13+20)))))</f>
-        <v>0.73437431230487804</v>
+        <v>1.66754396676809E-2</v>
       </c>
       <c r="J83" s="56">
         <f ca="1">IRR(J20:INDIRECT(CONCATENATE("J",B13+20)))</f>
-        <v>0.4040879428098243</v>
+        <v>2.0629553562513836E-2</v>
       </c>
       <c r="K83" s="110">
         <f ca="1">J83*(12/B10)*100</f>
-        <v>40.408794280982427</v>
+        <v>24.755464275016603</v>
       </c>
       <c r="L83" s="104"/>
     </row>
     <row r="84" spans="6:13">
       <c r="G84">
         <f ca="1">_xlfn.NUMBERVALUE(G83*12*100)</f>
-        <v>881.24917476585404</v>
+        <v>20.010527601217099</v>
       </c>
       <c r="J84">
         <f ca="1">_xlfn.NUMBERVALUE(K83)</f>
-        <v>40.408794280982399</v>
+        <v>24.7554642750166</v>
       </c>
     </row>
     <row r="85" spans="6:13">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B3" s="88">
         <f>'Gross Yield (CF)'!B7</f>
-        <v>705655000</v>
+        <v>424000000</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>86</v>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="B4" s="55">
         <f>'Gross Yield (CF)'!B8</f>
-        <v>0.10008869000000001</v>
+        <v>0.20010199000000001</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>84</v>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B6" s="43">
         <f>'Gross Yield (CF)'!B10</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>81</v>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B9" s="57">
         <f>B4/(12/B6)</f>
-        <v>0.10008869000000001</v>
+        <v>1.6675165833333335E-2</v>
       </c>
       <c r="C9" s="43" t="s">
         <v>80</v>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="B10" s="52">
         <f>B5/B6</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C10" s="43" t="s">
         <v>79</v>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="B11" s="52">
         <f>B3*-1</f>
-        <v>-705655000</v>
+        <v>-424000000</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>77</v>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B14" s="95">
         <f>PMT(B9,B10,B11,B12,B13)</f>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="40" t="s">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="E14" s="40">
         <f ca="1">E15+F16</f>
-        <v>813280168.22271729</v>
+        <v>517966389.9710393</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="E15" s="40">
         <f ca="1">SUM(E17:INDIRECT(CONCATENATE("E",16+B10)))</f>
-        <v>107625168.22271733</v>
+        <v>93966389.971039265</v>
       </c>
       <c r="F15" s="39" t="s">
         <v>63</v>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="F16" s="39">
         <f>B3</f>
-        <v>705655000</v>
+        <v>424000000</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3765,23 +3765,23 @@
       </c>
       <c r="B17" s="38">
         <f>EDATE($B$7,$B$6*A17)</f>
-        <v>43250</v>
+        <v>42916</v>
       </c>
       <c r="C17" s="37">
         <f>B14</f>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D17" s="37">
         <f t="shared" ref="D17:D76" si="0">C17-E17</f>
-        <v>336011999.56940866</v>
+        <v>14511662.602126637</v>
       </c>
       <c r="E17" s="37">
         <f t="shared" ref="E17:E76" si="1">F16*$B$9</f>
-        <v>70628084.541950002</v>
+        <v>7070270.3133333344</v>
       </c>
       <c r="F17" s="37">
         <f t="shared" ref="F17:F27" si="2">F16-D17</f>
-        <v>369643000.43059134</v>
+        <v>409488337.39787334</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3790,23 +3790,23 @@
       </c>
       <c r="B18" s="38">
         <f t="shared" ref="B18:B76" si="3">EDATE($B$7,$B$6*A18)</f>
-        <v>43615</v>
+        <v>42946</v>
       </c>
       <c r="C18" s="37">
         <f t="shared" ref="C18:C76" si="4">$C$17</f>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D18" s="37">
         <f t="shared" si="0"/>
-        <v>369643000.43059134</v>
+        <v>14753646.982534481</v>
       </c>
       <c r="E18" s="37">
         <f t="shared" si="1"/>
-        <v>36997083.680767328</v>
+        <v>6828285.9329254907</v>
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>394734690.41533887</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3815,23 +3815,23 @@
       </c>
       <c r="B19" s="38">
         <f t="shared" si="3"/>
-        <v>43981</v>
+        <v>42977</v>
       </c>
       <c r="C19" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D19" s="37">
         <f t="shared" si="0"/>
-        <v>406640084.11135864</v>
+        <v>14999666.492614701</v>
       </c>
       <c r="E19" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6582266.4228452705</v>
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>-406640084.11135864</v>
+        <v>379735023.92272419</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3840,23 +3840,23 @@
       </c>
       <c r="B20" s="38">
         <f t="shared" si="3"/>
-        <v>44346</v>
+        <v>43008</v>
       </c>
       <c r="C20" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D20" s="37">
         <f t="shared" si="0"/>
-        <v>447340157.43155432</v>
+        <v>15249788.418823745</v>
       </c>
       <c r="E20" s="37">
         <f t="shared" si="1"/>
-        <v>-40700073.320195705</v>
+        <v>6332144.4966362268</v>
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>-853980241.54291296</v>
+        <v>364485235.50390047</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3865,23 +3865,23 @@
       </c>
       <c r="B21" s="38">
         <f t="shared" si="3"/>
-        <v>44711</v>
+        <v>43038</v>
       </c>
       <c r="C21" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D21" s="37">
         <f t="shared" si="0"/>
-        <v>492113847.7732724</v>
+        <v>15504081.169630878</v>
       </c>
       <c r="E21" s="37">
         <f t="shared" si="1"/>
-        <v>-85473763.661913738</v>
+        <v>6077851.7458290951</v>
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>-1346094089.3161855</v>
+        <v>348981154.33426958</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3890,23 +3890,23 @@
       </c>
       <c r="B22" s="38">
         <f t="shared" si="3"/>
-        <v>45076</v>
+        <v>43069</v>
       </c>
       <c r="C22" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D22" s="37">
         <f t="shared" si="0"/>
-        <v>541368878.12775862</v>
+        <v>15762614.294227932</v>
       </c>
       <c r="E22" s="37">
         <f t="shared" si="1"/>
-        <v>-134728794.01640001</v>
+        <v>5819318.6212320393</v>
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>-1887462967.443944</v>
+        <v>333218540.04004163</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3915,23 +3915,23 @@
       </c>
       <c r="B23" s="38">
         <f t="shared" si="3"/>
-        <v>45442</v>
+        <v>43099</v>
       </c>
       <c r="C23" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D23" s="37">
         <f t="shared" si="0"/>
-        <v>595553779.94633567</v>
+        <v>16025458.501551054</v>
       </c>
       <c r="E23" s="37">
         <f t="shared" si="1"/>
-        <v>-188913695.83497703</v>
+        <v>5556474.4139089184</v>
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>-2483016747.3902798</v>
+        <v>317193081.53849059</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3940,23 +3940,23 @@
       </c>
       <c r="B24" s="38">
         <f t="shared" si="3"/>
-        <v>45807</v>
+        <v>43130</v>
       </c>
       <c r="C24" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D24" s="37">
         <f t="shared" si="0"/>
-        <v>655161977.60571265</v>
+        <v>16292685.679619618</v>
       </c>
       <c r="E24" s="37">
         <f t="shared" si="1"/>
-        <v>-248521893.49435404</v>
+        <v>5289247.2358403532</v>
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>-3138178724.9959927</v>
+        <v>300900395.85887098</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3965,23 +3965,23 @@
       </c>
       <c r="B25" s="38">
         <f t="shared" si="3"/>
-        <v>46172</v>
+        <v>43159</v>
       </c>
       <c r="C25" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D25" s="37">
         <f t="shared" si="0"/>
-        <v>720736281.68207788</v>
+        <v>16564368.915197652</v>
       </c>
       <c r="E25" s="37">
         <f t="shared" si="1"/>
-        <v>-314096197.57071918</v>
+        <v>5017564.000262321</v>
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>-3858915006.6780705</v>
+        <v>284336026.94367331</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3990,23 +3990,23 @@
       </c>
       <c r="B26" s="38">
         <f t="shared" si="3"/>
-        <v>46537</v>
+        <v>43189</v>
       </c>
       <c r="C26" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D26" s="37">
         <f t="shared" si="0"/>
-        <v>792873831.95110798</v>
+        <v>16840582.513783082</v>
       </c>
       <c r="E26" s="37">
         <f t="shared" si="1"/>
-        <v>-386233747.83974934</v>
+        <v>4741350.4016768876</v>
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>-4651788838.629179</v>
+        <v>267495444.42989022</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4015,23 +4015,23 @@
       </c>
       <c r="B27" s="38">
         <f t="shared" si="3"/>
-        <v>46903</v>
+        <v>43220</v>
       </c>
       <c r="C27" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D27" s="37">
         <f t="shared" si="0"/>
-        <v>872231535.1263746</v>
+        <v>17121402.019930352</v>
       </c>
       <c r="E27" s="37">
         <f t="shared" si="1"/>
-        <v>-465591451.01501596</v>
+        <v>4460530.8955296213</v>
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
-        <v>-5524020373.7555532</v>
+        <v>250374042.40995985</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4040,23 +4040,23 @@
       </c>
       <c r="B28" s="38">
         <f t="shared" si="3"/>
-        <v>47268</v>
+        <v>43250</v>
       </c>
       <c r="C28" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D28" s="37">
         <f t="shared" si="0"/>
-        <v>959532046.8538624</v>
+        <v>17406904.237911858</v>
       </c>
       <c r="E28" s="37">
         <f t="shared" si="1"/>
-        <v>-552891962.74250376</v>
+        <v>4175028.6775481137</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" ref="F28:F76" si="5">F27-D28</f>
-        <v>-6483552420.609416</v>
+        <v>232967138.172048</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4065,23 +4065,23 @@
       </c>
       <c r="B29" s="38">
         <f t="shared" si="3"/>
-        <v>47633</v>
+        <v>43281</v>
       </c>
       <c r="C29" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D29" s="37">
         <f t="shared" si="0"/>
-        <v>1055570352.4364841</v>
+        <v>17697167.252723992</v>
       </c>
       <c r="E29" s="37">
         <f t="shared" si="1"/>
-        <v>-648930268.32512546</v>
+        <v>3884765.6627359809</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="5"/>
-        <v>-7539122773.0459003</v>
+        <v>215269970.91932401</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4090,23 +4090,23 @@
       </c>
       <c r="B30" s="38">
         <f t="shared" si="3"/>
-        <v>47998</v>
+        <v>43311</v>
       </c>
       <c r="C30" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D30" s="37">
         <f t="shared" si="0"/>
-        <v>1161221006.2146902</v>
+        <v>17992270.4514434</v>
       </c>
       <c r="E30" s="37">
         <f t="shared" si="1"/>
-        <v>-754580922.10333157</v>
+        <v>3589662.4640165726</v>
       </c>
       <c r="F30" s="37">
         <f t="shared" si="5"/>
-        <v>-8700343779.2605896</v>
+        <v>197277700.46788061</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4115,23 +4115,23 @@
       </c>
       <c r="B31" s="38">
         <f t="shared" si="3"/>
-        <v>48364</v>
+        <v>43342</v>
       </c>
       <c r="C31" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D31" s="37">
         <f t="shared" si="0"/>
-        <v>1277446095.5272002</v>
+        <v>18292294.544939402</v>
       </c>
       <c r="E31" s="37">
         <f t="shared" si="1"/>
-        <v>-870806011.4158417</v>
+        <v>3289638.3705205703</v>
       </c>
       <c r="F31" s="37">
         <f t="shared" si="5"/>
-        <v>-9977789874.7877903</v>
+        <v>178985405.92294121</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4140,23 +4140,23 @@
       </c>
       <c r="B32" s="38">
         <f t="shared" si="3"/>
-        <v>48729</v>
+        <v>43373</v>
       </c>
       <c r="C32" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D32" s="37">
         <f t="shared" si="0"/>
-        <v>1405304001.7741327</v>
+        <v>18597321.589948446</v>
       </c>
       <c r="E32" s="37">
         <f t="shared" si="1"/>
-        <v>-998663917.66277409</v>
+        <v>2984611.3255115272</v>
       </c>
       <c r="F32" s="37">
         <f t="shared" si="5"/>
-        <v>-11383093876.561924</v>
+        <v>160388084.33299276</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4165,23 +4165,23 @@
       </c>
       <c r="B33" s="38">
         <f t="shared" si="3"/>
-        <v>49094</v>
+        <v>43403</v>
       </c>
       <c r="C33" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D33" s="37">
         <f t="shared" si="0"/>
-        <v>1545959038.3634634</v>
+        <v>18907435.011516664</v>
       </c>
       <c r="E33" s="37">
         <f t="shared" si="1"/>
-        <v>-1139318954.2521048</v>
+        <v>2674497.9039433063</v>
       </c>
       <c r="F33" s="37">
         <f t="shared" si="5"/>
-        <v>-12929052914.925388</v>
+        <v>141480649.3214761</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4190,23 +4190,23 @@
       </c>
       <c r="B34" s="38">
         <f t="shared" si="3"/>
-        <v>49459</v>
+        <v>43434</v>
       </c>
       <c r="C34" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D34" s="37">
         <f t="shared" si="0"/>
-        <v>1700692053.3069222</v>
+        <v>19222719.62581668</v>
       </c>
       <c r="E34" s="37">
         <f t="shared" si="1"/>
-        <v>-1294051969.1955636</v>
+        <v>2359213.2896432932</v>
       </c>
       <c r="F34" s="37">
         <f t="shared" si="5"/>
-        <v>-14629744968.232311</v>
+        <v>122257929.69565943</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4215,23 +4215,23 @@
       </c>
       <c r="B35" s="38">
         <f t="shared" si="3"/>
-        <v>49825</v>
+        <v>43464</v>
       </c>
       <c r="C35" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D35" s="37">
         <f t="shared" si="0"/>
-        <v>1870912093.0158224</v>
+        <v>19543261.663344841</v>
       </c>
       <c r="E35" s="37">
         <f t="shared" si="1"/>
-        <v>-1464272008.9044638</v>
+        <v>2038671.252115129</v>
       </c>
       <c r="F35" s="37">
         <f t="shared" si="5"/>
-        <v>-16500657061.248135</v>
+        <v>102714668.03231458</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4240,23 +4240,23 @@
       </c>
       <c r="B36" s="38">
         <f t="shared" si="3"/>
-        <v>50190</v>
+        <v>43495</v>
       </c>
       <c r="C36" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D36" s="37">
         <f t="shared" si="0"/>
-        <v>2058169233.5109344</v>
+        <v>19869148.792505343</v>
       </c>
       <c r="E36" s="37">
         <f t="shared" si="1"/>
-        <v>-1651529149.3995757</v>
+        <v>1712784.122954628</v>
       </c>
       <c r="F36" s="37">
         <f t="shared" si="5"/>
-        <v>-18558826294.759068</v>
+        <v>82845519.239809245</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4265,23 +4265,23 @@
       </c>
       <c r="B37" s="38">
         <f t="shared" si="3"/>
-        <v>50555</v>
+        <v>43524</v>
       </c>
       <c r="C37" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D37" s="37">
         <f t="shared" si="0"/>
-        <v>2264168695.8913479</v>
+        <v>20200470.143587545</v>
       </c>
       <c r="E37" s="37">
         <f t="shared" si="1"/>
-        <v>-1857528611.779989</v>
+        <v>1381462.7718724266</v>
       </c>
       <c r="F37" s="37">
         <f t="shared" si="5"/>
-        <v>-20822994990.650414</v>
+        <v>62645049.0962217</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4290,23 +4290,23 @@
       </c>
       <c r="B38" s="38">
         <f t="shared" si="3"/>
-        <v>50920</v>
+        <v>43554</v>
       </c>
       <c r="C38" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D38" s="37">
         <f t="shared" si="0"/>
-        <v>2490786374.6021209</v>
+        <v>20537316.333143167</v>
       </c>
       <c r="E38" s="37">
         <f t="shared" si="1"/>
-        <v>-2084146290.4907622</v>
+        <v>1044616.5823168054</v>
       </c>
       <c r="F38" s="37">
         <f t="shared" si="5"/>
-        <v>-23313781365.252533</v>
+        <v>42107732.763078533</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4315,23 +4315,23 @@
       </c>
       <c r="B39" s="38">
         <f t="shared" si="3"/>
-        <v>51286</v>
+        <v>43585</v>
       </c>
       <c r="C39" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D39" s="37">
         <f t="shared" si="0"/>
-        <v>2740085919.9058962</v>
+        <v>20879779.488769956</v>
       </c>
       <c r="E39" s="37">
         <f t="shared" si="1"/>
-        <v>-2333445835.7945375</v>
+        <v>702153.4266900178</v>
       </c>
       <c r="F39" s="37">
         <f t="shared" si="5"/>
-        <v>-26053867285.158428</v>
+        <v>21227953.274308577</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4340,23 +4340,23 @@
       </c>
       <c r="B40" s="38">
         <f t="shared" si="3"/>
-        <v>51651</v>
+        <v>43615</v>
       </c>
       <c r="C40" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D40" s="37">
         <f t="shared" si="0"/>
-        <v>3014337530.1167226</v>
+        <v>21227953.274308626</v>
       </c>
       <c r="E40" s="37">
         <f t="shared" si="1"/>
-        <v>-2607697446.0053639</v>
+        <v>353979.64115134691</v>
       </c>
       <c r="F40" s="37">
         <f t="shared" si="5"/>
-        <v>-29068204815.27515</v>
+        <v>-4.8428773880004883E-8</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4365,23 +4365,23 @@
       </c>
       <c r="B41" s="38">
         <f t="shared" si="3"/>
-        <v>52016</v>
+        <v>43646</v>
       </c>
       <c r="C41" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D41" s="37">
         <f t="shared" si="0"/>
-        <v>3316038624.7239408</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="E41" s="37">
         <f t="shared" si="1"/>
-        <v>-2909398540.6125822</v>
+        <v>-8.0755783555408324E-10</v>
       </c>
       <c r="F41" s="37">
         <f t="shared" si="5"/>
-        <v>-32384243439.999092</v>
+        <v>-21581932.91546002</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4390,23 +4390,23 @@
       </c>
       <c r="B42" s="38">
         <f t="shared" si="3"/>
-        <v>52381</v>
+        <v>43676</v>
       </c>
       <c r="C42" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D42" s="37">
         <f t="shared" si="0"/>
-        <v>3647936586.6619616</v>
+        <v>21941815.225829143</v>
       </c>
       <c r="E42" s="37">
         <f t="shared" si="1"/>
-        <v>-3241296502.5506029</v>
+        <v>-359882.31036917103</v>
       </c>
       <c r="F42" s="37">
         <f t="shared" si="5"/>
-        <v>-36032180026.661057</v>
+        <v>-43523748.14128916</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4415,23 +4415,23 @@
       </c>
       <c r="B43" s="38">
         <f t="shared" si="3"/>
-        <v>52747</v>
+        <v>43707</v>
       </c>
       <c r="C43" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D43" s="37">
         <f t="shared" si="0"/>
-        <v>4013053780.824029</v>
+        <v>22307698.633404203</v>
       </c>
       <c r="E43" s="37">
         <f t="shared" si="1"/>
-        <v>-3606413696.7126703</v>
+        <v>-725765.7179442303</v>
       </c>
       <c r="F43" s="37">
         <f t="shared" si="5"/>
-        <v>-40045233807.485085</v>
+        <v>-65831446.774693362</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4440,23 +4440,23 @@
       </c>
       <c r="B44" s="38">
         <f t="shared" si="3"/>
-        <v>53112</v>
+        <v>43738</v>
       </c>
       <c r="C44" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D44" s="37">
         <f t="shared" si="0"/>
-        <v>4414715076.6462536</v>
+        <v>22679683.20747624</v>
       </c>
       <c r="E44" s="37">
         <f t="shared" si="1"/>
-        <v>-4008074992.5348945</v>
+        <v>-1097750.2920162687</v>
       </c>
       <c r="F44" s="37">
         <f t="shared" si="5"/>
-        <v>-44459948884.13134</v>
+        <v>-88511129.982169598</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4465,23 +4465,23 @@
       </c>
       <c r="B45" s="38">
         <f t="shared" si="3"/>
-        <v>53477</v>
+        <v>43768</v>
       </c>
       <c r="C45" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D45" s="37">
         <f t="shared" si="0"/>
-        <v>4856578125.3910265</v>
+        <v>23057870.686008371</v>
       </c>
       <c r="E45" s="37">
         <f t="shared" si="1"/>
-        <v>-4449938041.2796679</v>
+        <v>-1475937.7705484002</v>
       </c>
       <c r="F45" s="37">
         <f t="shared" si="5"/>
-        <v>-49316527009.522369</v>
+        <v>-111569000.66817796</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4490,23 +4490,23 @@
       </c>
       <c r="B46" s="38">
         <f t="shared" si="3"/>
-        <v>53842</v>
+        <v>43799</v>
       </c>
       <c r="C46" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D46" s="37">
         <f t="shared" si="0"/>
-        <v>5342666667.8440704</v>
+        <v>23442364.503461119</v>
       </c>
       <c r="E46" s="37">
         <f t="shared" si="1"/>
-        <v>-4936026583.7327118</v>
+        <v>-1860431.5880011453</v>
       </c>
       <c r="F46" s="37">
         <f t="shared" si="5"/>
-        <v>-54659193677.36644</v>
+        <v>-135011365.17163908</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4515,23 +4515,23 @@
       </c>
       <c r="B47" s="38">
         <f t="shared" si="3"/>
-        <v>54208</v>
+        <v>43829</v>
       </c>
       <c r="C47" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D47" s="37">
         <f t="shared" si="0"/>
-        <v>5877407175.7352486</v>
+        <v>23833269.81908178</v>
       </c>
       <c r="E47" s="37">
         <f t="shared" si="1"/>
-        <v>-5470767091.6238899</v>
+        <v>-2251336.9036218063</v>
       </c>
       <c r="F47" s="37">
         <f t="shared" si="5"/>
-        <v>-60536600853.101685</v>
+        <v>-158844634.99072087</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4540,23 +4540,23 @@
       </c>
       <c r="B48" s="38">
         <f t="shared" si="3"/>
-        <v>54573</v>
+        <v>43860</v>
       </c>
       <c r="C48" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D48" s="37">
         <f t="shared" si="0"/>
-        <v>6465669160.5511894</v>
+        <v>24230693.545665547</v>
       </c>
       <c r="E48" s="37">
         <f t="shared" si="1"/>
-        <v>-6059029076.4398308</v>
+        <v>-2648760.6302055735</v>
       </c>
       <c r="F48" s="37">
         <f t="shared" si="5"/>
-        <v>-67002270013.652878</v>
+        <v>-183075328.53638643</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4565,23 +4565,23 @@
       </c>
       <c r="B49" s="38">
         <f t="shared" si="3"/>
-        <v>54938</v>
+        <v>43890</v>
       </c>
       <c r="C49" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D49" s="37">
         <f t="shared" si="0"/>
-        <v>7112809516.8041582</v>
+        <v>24634744.378796197</v>
       </c>
       <c r="E49" s="37">
         <f t="shared" si="1"/>
-        <v>-6706169432.6927996</v>
+        <v>-3052811.4633362265</v>
       </c>
       <c r="F49" s="37">
         <f t="shared" si="5"/>
-        <v>-74115079530.457031</v>
+        <v>-207710072.91518262</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4590,23 +4590,23 @@
       </c>
       <c r="B50" s="38">
         <f t="shared" si="3"/>
-        <v>55303</v>
+        <v>43920</v>
       </c>
       <c r="C50" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D50" s="37">
         <f t="shared" si="0"/>
-        <v>7824721303.5606184</v>
+        <v>25045532.8265744</v>
       </c>
       <c r="E50" s="37">
         <f t="shared" si="1"/>
-        <v>-7418081219.4492598</v>
+        <v>-3463599.9111144291</v>
       </c>
       <c r="F50" s="37">
         <f t="shared" si="5"/>
-        <v>-81939800834.017654</v>
+        <v>-232755605.74175704</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4615,23 +4615,23 @@
       </c>
       <c r="B51" s="38">
         <f t="shared" si="3"/>
-        <v>55669</v>
+        <v>43951</v>
       </c>
       <c r="C51" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D51" s="37">
         <f t="shared" si="0"/>
-        <v>8607887408.4490929</v>
+        <v>25463171.239841722</v>
       </c>
       <c r="E51" s="37">
         <f t="shared" si="1"/>
-        <v>-8201247324.3377352</v>
+        <v>-3881238.324381751</v>
       </c>
       <c r="F51" s="37">
         <f t="shared" si="5"/>
-        <v>-90547688242.466751</v>
+        <v>-258218776.98159876</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4640,23 +4640,23 @@
       </c>
       <c r="B52" s="38">
         <f t="shared" si="3"/>
-        <v>56034</v>
+        <v>43981</v>
       </c>
       <c r="C52" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D52" s="37">
         <f t="shared" si="0"/>
-        <v>9469439582.8282585</v>
+        <v>25887773.842908647</v>
       </c>
       <c r="E52" s="37">
         <f t="shared" si="1"/>
-        <v>-9062799498.7168999</v>
+        <v>-4305840.927448676</v>
       </c>
       <c r="F52" s="37">
         <f t="shared" si="5"/>
-        <v>-100017127825.29501</v>
+        <v>-284106550.82450742</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4665,23 +4665,23 @@
       </c>
       <c r="B53" s="38">
         <f t="shared" si="3"/>
-        <v>56399</v>
+        <v>44012</v>
       </c>
       <c r="C53" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D53" s="37">
         <f t="shared" si="0"/>
-        <v>10417223385.707685</v>
+        <v>26319456.764794979</v>
       </c>
       <c r="E53" s="37">
         <f t="shared" si="1"/>
-        <v>-10010583301.596327</v>
+        <v>-4737523.8493350064</v>
       </c>
       <c r="F53" s="37">
         <f t="shared" si="5"/>
-        <v>-110434351211.0027</v>
+        <v>-310426007.58930242</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4690,23 +4690,23 @@
       </c>
       <c r="B54" s="38">
         <f t="shared" si="3"/>
-        <v>56764</v>
+        <v>44042</v>
       </c>
       <c r="C54" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D54" s="37">
         <f t="shared" si="0"/>
-        <v>11459869627.820534</v>
+        <v>26758338.070991181</v>
       </c>
       <c r="E54" s="37">
         <f t="shared" si="1"/>
-        <v>-11053229543.709175</v>
+        <v>-5176405.1555312099</v>
       </c>
       <c r="F54" s="37">
         <f t="shared" si="5"/>
-        <v>-121894220838.82324</v>
+        <v>-337184345.66029358</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4715,23 +4715,23 @@
       </c>
       <c r="B55" s="38">
         <f t="shared" si="3"/>
-        <v>57130</v>
+        <v>44073</v>
       </c>
       <c r="C55" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D55" s="37">
         <f t="shared" si="0"/>
-        <v>12606872966.439878</v>
+        <v>27204537.795749359</v>
       </c>
       <c r="E55" s="37">
         <f t="shared" si="1"/>
-        <v>-12200232882.32852</v>
+        <v>-5622604.8802893851</v>
       </c>
       <c r="F55" s="37">
         <f t="shared" si="5"/>
-        <v>-134501093805.26312</v>
+        <v>-364388883.45604295</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4740,23 +4740,23 @@
       </c>
       <c r="B56" s="38">
         <f t="shared" si="3"/>
-        <v>57495</v>
+        <v>44104</v>
       </c>
       <c r="C56" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D56" s="37">
         <f t="shared" si="0"/>
-        <v>13868678366.647261</v>
+        <v>27658177.974912662</v>
       </c>
       <c r="E56" s="37">
         <f t="shared" si="1"/>
-        <v>-13462038282.535902</v>
+        <v>-6076245.0594526902</v>
       </c>
       <c r="F56" s="37">
         <f t="shared" si="5"/>
-        <v>-148369772171.91037</v>
+        <v>-392047061.43095559</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4765,23 +4765,23 @@
       </c>
       <c r="B57" s="38">
         <f t="shared" si="3"/>
-        <v>57860</v>
+        <v>44134</v>
       </c>
       <c r="C57" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D57" s="37">
         <f t="shared" si="0"/>
-        <v>15256776216.396324</v>
+        <v>28119382.67929218</v>
       </c>
       <c r="E57" s="37">
         <f t="shared" si="1"/>
-        <v>-14850136132.284966</v>
+        <v>-6537449.7638322059</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="5"/>
-        <v>-163626548388.3067</v>
+        <v>-420166444.11024779</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4790,23 +4790,23 @@
       </c>
       <c r="B58" s="38">
         <f t="shared" si="3"/>
-        <v>58225</v>
+        <v>44165</v>
       </c>
       <c r="C58" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D58" s="37">
         <f t="shared" si="0"/>
-        <v>16783806961.518589</v>
+        <v>28588278.048600338</v>
       </c>
       <c r="E58" s="37">
         <f t="shared" si="1"/>
-        <v>-16377166877.40723</v>
+        <v>-7006345.1331403647</v>
       </c>
       <c r="F58" s="37">
         <f t="shared" si="5"/>
-        <v>-180410355349.82529</v>
+        <v>-448754722.15884811</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4815,23 +4815,23 @@
       </c>
       <c r="B59" s="38">
         <f t="shared" si="3"/>
-        <v>58591</v>
+        <v>44195</v>
       </c>
       <c r="C59" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D59" s="37">
         <f t="shared" si="0"/>
-        <v>18463676213.509865</v>
+        <v>29064992.32595019</v>
       </c>
       <c r="E59" s="37">
         <f t="shared" si="1"/>
-        <v>-18057036129.398506</v>
+        <v>-7483059.4104902176</v>
       </c>
       <c r="F59" s="37">
         <f t="shared" si="5"/>
-        <v>-198874031563.33514</v>
+        <v>-477819714.48479831</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4840,23 +4840,23 @@
       </c>
       <c r="B60" s="38">
         <f t="shared" si="3"/>
-        <v>58956</v>
+        <v>44226</v>
       </c>
       <c r="C60" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D60" s="37">
         <f t="shared" si="0"/>
-        <v>20311681378.304226</v>
+        <v>29549655.892929971</v>
       </c>
       <c r="E60" s="37">
         <f t="shared" si="1"/>
-        <v>-19905041294.192867</v>
+        <v>-7967722.9774699984</v>
       </c>
       <c r="F60" s="37">
         <f t="shared" si="5"/>
-        <v>-219185712941.63937</v>
+        <v>-507369370.37772828</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4865,23 +4865,23 @@
       </c>
       <c r="B61" s="38">
         <f t="shared" si="3"/>
-        <v>59321</v>
+        <v>44255</v>
       </c>
       <c r="C61" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D61" s="37">
         <f t="shared" si="0"/>
-        <v>22344650959.156094</v>
+        <v>30042401.305262513</v>
       </c>
       <c r="E61" s="37">
         <f t="shared" si="1"/>
-        <v>-21938010875.044735</v>
+        <v>-8460468.3898025416</v>
       </c>
       <c r="F61" s="37">
         <f t="shared" si="5"/>
-        <v>-241530363900.79547</v>
+        <v>-537411771.68299079</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4890,23 +4890,23 @@
       </c>
       <c r="B62" s="38">
         <f t="shared" si="3"/>
-        <v>59686</v>
+        <v>44285</v>
       </c>
       <c r="C62" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D62" s="37">
         <f t="shared" si="0"/>
-        <v>24581097802.165268</v>
+        <v>30543363.329059318</v>
       </c>
       <c r="E62" s="37">
         <f t="shared" si="1"/>
-        <v>-24174457718.053909</v>
+        <v>-8961430.413599344</v>
       </c>
       <c r="F62" s="37">
         <f t="shared" si="5"/>
-        <v>-266111461702.96075</v>
+        <v>-567955135.01205015</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4915,23 +4915,23 @@
       </c>
       <c r="B63" s="38">
         <f t="shared" si="3"/>
-        <v>60052</v>
+        <v>44316</v>
       </c>
       <c r="C63" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D63" s="37">
         <f t="shared" si="0"/>
-        <v>27041387679.945873</v>
+        <v>31052678.977679133</v>
       </c>
       <c r="E63" s="37">
         <f t="shared" si="1"/>
-        <v>-26634747595.834515</v>
+        <v>-9470746.0622191597</v>
       </c>
       <c r="F63" s="37">
         <f t="shared" si="5"/>
-        <v>-293152849382.90662</v>
+        <v>-599007813.98972929</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4940,23 +4940,23 @@
       </c>
       <c r="B64" s="38">
         <f t="shared" si="3"/>
-        <v>60417</v>
+        <v>44346</v>
       </c>
       <c r="C64" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D64" s="37">
         <f t="shared" si="0"/>
-        <v>29747924748.613792</v>
+        <v>31570487.549201198</v>
       </c>
       <c r="E64" s="37">
         <f t="shared" si="1"/>
-        <v>-29341284664.502434</v>
+        <v>-9988554.6337412242</v>
       </c>
       <c r="F64" s="37">
         <f t="shared" si="5"/>
-        <v>-322900774131.52039</v>
+        <v>-630578301.53893054</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4965,23 +4965,23 @@
       </c>
       <c r="B65" s="38">
         <f t="shared" si="3"/>
-        <v>60782</v>
+        <v>44377</v>
       </c>
       <c r="C65" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D65" s="37">
         <f t="shared" si="0"/>
-        <v>32725355566.921124</v>
+        <v>32096930.664523311</v>
       </c>
       <c r="E65" s="37">
         <f t="shared" si="1"/>
-        <v>-32318715482.809765</v>
+        <v>-10514997.749063339</v>
       </c>
       <c r="F65" s="37">
         <f t="shared" si="5"/>
-        <v>-355626129698.44153</v>
+        <v>-662675232.2034539</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4990,23 +4990,23 @@
       </c>
       <c r="B66" s="38">
         <f t="shared" si="3"/>
-        <v>61147</v>
+        <v>44407</v>
       </c>
       <c r="C66" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D66" s="37">
         <f t="shared" si="0"/>
-        <v>36000793535.398468</v>
+        <v>32632152.306095243</v>
       </c>
       <c r="E66" s="37">
         <f t="shared" si="1"/>
-        <v>-35594153451.287109</v>
+        <v>-11050219.390635269</v>
       </c>
       <c r="F66" s="37">
         <f t="shared" si="5"/>
-        <v>-391626923233.83997</v>
+        <v>-695307384.50954914</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5015,23 +5015,23 @@
       </c>
       <c r="B67" s="38">
         <f t="shared" si="3"/>
-        <v>61513</v>
+        <v>44438</v>
       </c>
       <c r="C67" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D67" s="37">
         <f t="shared" si="0"/>
-        <v>39604065799.316971</v>
+        <v>33176298.857297972</v>
       </c>
       <c r="E67" s="37">
         <f t="shared" si="1"/>
-        <v>-39197425715.205612</v>
+        <v>-11594365.941837998</v>
       </c>
       <c r="F67" s="37">
         <f t="shared" si="5"/>
-        <v>-431230989033.15692</v>
+        <v>-728483683.36684716</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5040,23 +5040,23 @@
       </c>
       <c r="B68" s="38">
         <f t="shared" si="3"/>
-        <v>61878</v>
+        <v>44469</v>
       </c>
       <c r="C68" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D68" s="37">
         <f t="shared" si="0"/>
-        <v>43567984863.844406</v>
+        <v>33729519.142479643</v>
       </c>
       <c r="E68" s="37">
         <f t="shared" si="1"/>
-        <v>-43161344779.733047</v>
+        <v>-12147586.227019669</v>
       </c>
       <c r="F68" s="37">
         <f t="shared" si="5"/>
-        <v>-474798973897.00134</v>
+        <v>-762213202.50932682</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5065,23 +5065,23 @@
       </c>
       <c r="B69" s="38">
         <f t="shared" si="3"/>
-        <v>62243</v>
+        <v>44499</v>
       </c>
       <c r="C69" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D69" s="37">
         <f t="shared" si="0"/>
-        <v>47928647394.806419</v>
+        <v>34291964.467659079</v>
       </c>
       <c r="E69" s="37">
         <f t="shared" si="1"/>
-        <v>-47522007310.695061</v>
+        <v>-12710031.552199109</v>
       </c>
       <c r="F69" s="37">
         <f t="shared" si="5"/>
-        <v>-522727621291.80774</v>
+        <v>-796505166.97698593</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5090,23 +5090,23 @@
       </c>
       <c r="B70" s="38">
         <f t="shared" si="3"/>
-        <v>62608</v>
+        <v>44530</v>
       </c>
       <c r="C70" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D70" s="37">
         <f t="shared" si="0"/>
-        <v>52725762926.024506</v>
+        <v>34863788.661908075</v>
       </c>
       <c r="E70" s="37">
         <f t="shared" si="1"/>
-        <v>-52319122841.913147</v>
+        <v>-13281855.7464481</v>
       </c>
       <c r="F70" s="37">
         <f t="shared" si="5"/>
-        <v>-575453384217.83228</v>
+        <v>-831368955.63889396</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5115,23 +5115,23 @@
       </c>
       <c r="B71" s="38">
         <f t="shared" si="3"/>
-        <v>62974</v>
+        <v>44560</v>
       </c>
       <c r="C71" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D71" s="37">
         <f t="shared" si="0"/>
-        <v>58003015466.540871</v>
+        <v>35445148.119423673</v>
       </c>
       <c r="E71" s="37">
         <f t="shared" si="1"/>
-        <v>-57596375382.429512</v>
+        <v>-13863215.203963703</v>
       </c>
       <c r="F71" s="37">
         <f t="shared" si="5"/>
-        <v>-633456399684.37317</v>
+        <v>-866814103.75831759</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5140,23 +5140,23 @@
       </c>
       <c r="B72" s="38">
         <f t="shared" si="3"/>
-        <v>63339</v>
+        <v>44591</v>
       </c>
       <c r="C72" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D72" s="37">
         <f t="shared" si="0"/>
-        <v>63808461300.636688</v>
+        <v>36036201.842302129</v>
       </c>
       <c r="E72" s="37">
         <f t="shared" si="1"/>
-        <v>-63401821216.52533</v>
+        <v>-14454268.926842153</v>
       </c>
       <c r="F72" s="37">
         <f t="shared" si="5"/>
-        <v>-697264860985.00989</v>
+        <v>-902850305.60061967</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5165,23 +5165,23 @@
       </c>
       <c r="B73" s="38">
         <f t="shared" si="3"/>
-        <v>63704</v>
+        <v>44620</v>
       </c>
       <c r="C73" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D73" s="37">
         <f t="shared" si="0"/>
-        <v>70194966603.133118</v>
+        <v>36637111.484025985</v>
       </c>
       <c r="E73" s="37">
         <f t="shared" si="1"/>
-        <v>-69788326519.021759</v>
+        <v>-15055178.568566013</v>
       </c>
       <c r="F73" s="37">
         <f t="shared" si="5"/>
-        <v>-767459827588.14307</v>
+        <v>-939487417.08464563</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5190,23 +5190,23 @@
       </c>
       <c r="B74" s="38">
         <f t="shared" si="3"/>
-        <v>64069</v>
+        <v>44650</v>
       </c>
       <c r="C74" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D74" s="37">
         <f t="shared" si="0"/>
-        <v>77220688855.03447</v>
+        <v>37248041.393676437</v>
       </c>
       <c r="E74" s="37">
         <f t="shared" si="1"/>
-        <v>-76814048770.923111</v>
+        <v>-15666108.478216467</v>
       </c>
       <c r="F74" s="37">
         <f t="shared" si="5"/>
-        <v>-844680516443.17749</v>
+        <v>-976735458.47832203</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5215,23 +5215,23 @@
       </c>
       <c r="B75" s="38">
         <f t="shared" si="3"/>
-        <v>64435</v>
+        <v>44681</v>
       </c>
       <c r="C75" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D75" s="37">
         <f t="shared" si="0"/>
-        <v>84949606443.432465</v>
+        <v>37869158.66088286</v>
       </c>
       <c r="E75" s="37">
         <f t="shared" si="1"/>
-        <v>-84542966359.321106</v>
+        <v>-16287225.745422887</v>
       </c>
       <c r="F75" s="37">
         <f t="shared" si="5"/>
-        <v>-929630122886.60999</v>
+        <v>-1014604617.1392049</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5240,23 +5240,23 @@
       </c>
       <c r="B76" s="38">
         <f t="shared" si="3"/>
-        <v>64800</v>
+        <v>44711</v>
       </c>
       <c r="C76" s="37">
         <f t="shared" si="4"/>
-        <v>406640084.11135864</v>
+        <v>21581932.915459972</v>
       </c>
       <c r="D76" s="37">
         <f t="shared" si="0"/>
-        <v>93452101268.371185</v>
+        <v>38500633.161521889</v>
       </c>
       <c r="E76" s="37">
         <f t="shared" si="1"/>
-        <v>-93045461184.259827</v>
+        <v>-16918700.246061917</v>
       </c>
       <c r="F76" s="37">
         <f t="shared" si="5"/>
-        <v>-1023082224154.9812</v>
+        <v>-1053105250.3007268</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="E79" s="40">
         <f ca="1">SUM(E83:INDIRECT(CONCATENATE("E",82+B10)))</f>
-        <v>33631000.861182682</v>
+        <v>85470878.58340694</v>
       </c>
       <c r="F79" s="44"/>
     </row>
@@ -5292,7 +5292,7 @@
       </c>
       <c r="B80" s="95">
         <f>PMT(B9,B10,B11,B12,B79)</f>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="C80" s="47"/>
       <c r="D80" s="46" t="s">
@@ -5300,7 +5300,7 @@
       </c>
       <c r="E80" s="45">
         <f ca="1">F82+E79</f>
-        <v>739286000.86118269</v>
+        <v>509470878.58340693</v>
       </c>
       <c r="F80" s="44"/>
     </row>
@@ -5331,7 +5331,7 @@
       </c>
       <c r="F82" s="39">
         <f>B3</f>
-        <v>705655000</v>
+        <v>424000000</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5340,22 +5340,22 @@
       </c>
       <c r="B83" s="38">
         <f>EDATE($B$7,$B$6*A83)</f>
-        <v>43250</v>
+        <v>42916</v>
       </c>
       <c r="C83" s="37">
         <f>B80</f>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D83" s="37">
         <f t="shared" ref="D83:D142" si="6">C83-E83</f>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="E83" s="37">
         <v>0</v>
       </c>
       <c r="F83" s="37">
         <f t="shared" ref="F83:F94" si="7">F82-D83</f>
-        <v>336011999.56940871</v>
+        <v>402772046.72569138</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5364,23 +5364,23 @@
       </c>
       <c r="B84" s="38">
         <f t="shared" ref="B84:B142" si="8">EDATE($B$7,$B$6*A84)</f>
-        <v>43615</v>
+        <v>42946</v>
       </c>
       <c r="C84" s="37">
         <f t="shared" ref="C84:C142" si="9">$C$83</f>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D84" s="37">
         <f t="shared" si="6"/>
-        <v>336011999.5694086</v>
+        <v>14511662.602126636</v>
       </c>
       <c r="E84" s="37">
         <f t="shared" ref="E84:E142" si="10">F83*$B$9</f>
-        <v>33631000.861182682</v>
+        <v>6716290.6721819863</v>
       </c>
       <c r="F84" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>388260384.12356472</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5389,23 +5389,23 @@
       </c>
       <c r="B85" s="38">
         <f t="shared" si="8"/>
-        <v>43981</v>
+        <v>42977</v>
       </c>
       <c r="C85" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D85" s="37">
         <f t="shared" si="6"/>
-        <v>369643000.43059129</v>
+        <v>14753646.982534479</v>
       </c>
       <c r="E85" s="37">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>6474306.2917741425</v>
       </c>
       <c r="F85" s="37">
         <f t="shared" si="7"/>
-        <v>-369643000.43059129</v>
+        <v>373506737.14103025</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5414,23 +5414,23 @@
       </c>
       <c r="B86" s="38">
         <f t="shared" si="8"/>
-        <v>44346</v>
+        <v>43008</v>
       </c>
       <c r="C86" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D86" s="37">
         <f t="shared" si="6"/>
-        <v>406640084.11135858</v>
+        <v>14999666.4926147</v>
       </c>
       <c r="E86" s="37">
         <f t="shared" si="10"/>
-        <v>-36997083.68076732</v>
+        <v>6228286.7816939224</v>
       </c>
       <c r="F86" s="37">
         <f t="shared" si="7"/>
-        <v>-776283084.54194987</v>
+        <v>358507070.64841557</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5439,23 +5439,23 @@
       </c>
       <c r="B87" s="38">
         <f t="shared" si="8"/>
-        <v>44711</v>
+        <v>43038</v>
       </c>
       <c r="C87" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D87" s="37">
         <f t="shared" si="6"/>
-        <v>447340157.43155432</v>
+        <v>15249788.418823741</v>
       </c>
       <c r="E87" s="37">
         <f t="shared" si="10"/>
-        <v>-77697157.000963017</v>
+        <v>5978164.8554848796</v>
       </c>
       <c r="F87" s="37">
         <f t="shared" si="7"/>
-        <v>-1223623241.9735041</v>
+        <v>343257282.22959185</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5464,23 +5464,23 @@
       </c>
       <c r="B88" s="38">
         <f t="shared" si="8"/>
-        <v>45076</v>
+        <v>43069</v>
       </c>
       <c r="C88" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D88" s="37">
         <f t="shared" si="6"/>
-        <v>492113847.77327234</v>
+        <v>15504081.169630874</v>
       </c>
       <c r="E88" s="37">
         <f t="shared" si="10"/>
-        <v>-122470847.34268105</v>
+        <v>5723872.1046777479</v>
       </c>
       <c r="F88" s="37">
         <f t="shared" si="7"/>
-        <v>-1715737089.7467763</v>
+        <v>327753201.05996096</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5489,23 +5489,23 @@
       </c>
       <c r="B89" s="38">
         <f t="shared" si="8"/>
-        <v>45442</v>
+        <v>43099</v>
       </c>
       <c r="C89" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D89" s="37">
         <f t="shared" si="6"/>
-        <v>541368878.1277585</v>
+        <v>15762614.29422793</v>
       </c>
       <c r="E89" s="37">
         <f t="shared" si="10"/>
-        <v>-171725877.69716728</v>
+        <v>5465338.9800806921</v>
       </c>
       <c r="F89" s="37">
         <f t="shared" si="7"/>
-        <v>-2257105967.8745346</v>
+        <v>311990586.765733</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5514,23 +5514,23 @@
       </c>
       <c r="B90" s="38">
         <f t="shared" si="8"/>
-        <v>45807</v>
+        <v>43130</v>
       </c>
       <c r="C90" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D90" s="37">
         <f t="shared" si="6"/>
-        <v>595553779.94633555</v>
+        <v>16025458.501551051</v>
       </c>
       <c r="E90" s="37">
         <f t="shared" si="10"/>
-        <v>-225910779.51574427</v>
+        <v>5202494.7727575703</v>
       </c>
       <c r="F90" s="37">
         <f t="shared" si="7"/>
-        <v>-2852659747.8208704</v>
+        <v>295965128.26418197</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5539,23 +5539,23 @@
       </c>
       <c r="B91" s="38">
         <f t="shared" si="8"/>
-        <v>46172</v>
+        <v>43159</v>
       </c>
       <c r="C91" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D91" s="37">
         <f t="shared" si="6"/>
-        <v>655161977.60571265</v>
+        <v>16292685.679619618</v>
       </c>
       <c r="E91" s="37">
         <f t="shared" si="10"/>
-        <v>-285518977.17512131</v>
+        <v>4935267.5946890051</v>
       </c>
       <c r="F91" s="37">
         <f t="shared" si="7"/>
-        <v>-3507821725.4265833</v>
+        <v>279672442.58456236</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5564,23 +5564,23 @@
       </c>
       <c r="B92" s="38">
         <f t="shared" si="8"/>
-        <v>46537</v>
+        <v>43189</v>
       </c>
       <c r="C92" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D92" s="37">
         <f t="shared" si="6"/>
-        <v>720736281.68207765</v>
+        <v>16564368.915197648</v>
       </c>
       <c r="E92" s="37">
         <f t="shared" si="10"/>
-        <v>-351093281.25148642</v>
+        <v>4663584.3591109728</v>
       </c>
       <c r="F92" s="37">
         <f t="shared" si="7"/>
-        <v>-4228558007.1086607</v>
+        <v>263108073.66936472</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5589,23 +5589,23 @@
       </c>
       <c r="B93" s="38">
         <f t="shared" si="8"/>
-        <v>46903</v>
+        <v>43220</v>
       </c>
       <c r="C93" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D93" s="37">
         <f t="shared" si="6"/>
-        <v>792873831.95110786</v>
+        <v>16840582.513783082</v>
       </c>
       <c r="E93" s="37">
         <f t="shared" si="10"/>
-        <v>-423230831.52051657</v>
+        <v>4387370.7605255404</v>
       </c>
       <c r="F93" s="37">
         <f t="shared" si="7"/>
-        <v>-5021431839.0597687</v>
+        <v>246267491.15558165</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5614,23 +5614,23 @@
       </c>
       <c r="B94" s="38">
         <f t="shared" si="8"/>
-        <v>47268</v>
+        <v>43250</v>
       </c>
       <c r="C94" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D94" s="37">
         <f t="shared" si="6"/>
-        <v>872231535.12637448</v>
+        <v>17121402.019930348</v>
       </c>
       <c r="E94" s="37">
         <f t="shared" si="10"/>
-        <v>-502588534.69578314</v>
+        <v>4106551.2543782745</v>
       </c>
       <c r="F94" s="37">
         <f t="shared" si="7"/>
-        <v>-5893663374.1861429</v>
+        <v>229146089.13565129</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5639,23 +5639,23 @@
       </c>
       <c r="B95" s="38">
         <f t="shared" si="8"/>
-        <v>47633</v>
+        <v>43281</v>
       </c>
       <c r="C95" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D95" s="37">
         <f t="shared" si="6"/>
-        <v>959532046.85386229</v>
+        <v>17406904.237911854</v>
       </c>
       <c r="E95" s="37">
         <f t="shared" si="10"/>
-        <v>-589889046.42327094</v>
+        <v>3821049.0363967675</v>
       </c>
       <c r="F95" s="37">
         <f t="shared" ref="F95:F142" si="11">F94-D95</f>
-        <v>-6853195421.0400047</v>
+        <v>211739184.89773944</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5664,23 +5664,23 @@
       </c>
       <c r="B96" s="38">
         <f t="shared" si="8"/>
-        <v>47998</v>
+        <v>43311</v>
       </c>
       <c r="C96" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D96" s="37">
         <f t="shared" si="6"/>
-        <v>1055570352.4364839</v>
+        <v>17697167.252723988</v>
       </c>
       <c r="E96" s="37">
         <f t="shared" si="10"/>
-        <v>-685927352.00589252</v>
+        <v>3530786.0215846342</v>
       </c>
       <c r="F96" s="37">
         <f t="shared" si="11"/>
-        <v>-7908765773.4764881</v>
+        <v>194042017.64501545</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5689,23 +5689,23 @@
       </c>
       <c r="B97" s="38">
         <f t="shared" si="8"/>
-        <v>48364</v>
+        <v>43342</v>
       </c>
       <c r="C97" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D97" s="37">
         <f t="shared" si="6"/>
-        <v>1161221006.2146897</v>
+        <v>17992270.451443397</v>
       </c>
       <c r="E97" s="37">
         <f t="shared" si="10"/>
-        <v>-791578005.78409851</v>
+        <v>3235682.8228652258</v>
       </c>
       <c r="F97" s="37">
         <f t="shared" si="11"/>
-        <v>-9069986779.6911774</v>
+        <v>176049747.19357204</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5714,23 +5714,23 @@
       </c>
       <c r="B98" s="38">
         <f t="shared" si="8"/>
-        <v>48729</v>
+        <v>43373</v>
       </c>
       <c r="C98" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D98" s="37">
         <f t="shared" si="6"/>
-        <v>1277446095.5272</v>
+        <v>18292294.544939399</v>
       </c>
       <c r="E98" s="37">
         <f t="shared" si="10"/>
-        <v>-907803095.09660864</v>
+        <v>2935658.7293692236</v>
       </c>
       <c r="F98" s="37">
         <f t="shared" si="11"/>
-        <v>-10347432875.218378</v>
+        <v>157757452.64863265</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5739,23 +5739,23 @@
       </c>
       <c r="B99" s="38">
         <f t="shared" si="8"/>
-        <v>49094</v>
+        <v>43403</v>
       </c>
       <c r="C99" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D99" s="37">
         <f t="shared" si="6"/>
-        <v>1405304001.7741323</v>
+        <v>18597321.589948442</v>
       </c>
       <c r="E99" s="37">
         <f t="shared" si="10"/>
-        <v>-1035661001.343541</v>
+        <v>2630631.6843601805</v>
       </c>
       <c r="F99" s="37">
         <f t="shared" si="11"/>
-        <v>-11752736876.99251</v>
+        <v>139160131.0586842</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5764,23 +5764,23 @@
       </c>
       <c r="B100" s="38">
         <f t="shared" si="8"/>
-        <v>49459</v>
+        <v>43434</v>
       </c>
       <c r="C100" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D100" s="37">
         <f t="shared" si="6"/>
-        <v>1545959038.3634629</v>
+        <v>18907435.01151666</v>
       </c>
       <c r="E100" s="37">
         <f t="shared" si="10"/>
-        <v>-1176316037.9328716</v>
+        <v>2320518.26279196</v>
       </c>
       <c r="F100" s="37">
         <f t="shared" si="11"/>
-        <v>-13298695915.355972</v>
+        <v>120252696.04716754</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5789,23 +5789,23 @@
       </c>
       <c r="B101" s="38">
         <f t="shared" si="8"/>
-        <v>49825</v>
+        <v>43464</v>
       </c>
       <c r="C101" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D101" s="37">
         <f t="shared" si="6"/>
-        <v>1700692053.3069215</v>
+        <v>19222719.625816677</v>
       </c>
       <c r="E101" s="37">
         <f t="shared" si="10"/>
-        <v>-1331049052.8763301</v>
+        <v>2005233.6484919467</v>
       </c>
       <c r="F101" s="37">
         <f t="shared" si="11"/>
-        <v>-14999387968.662893</v>
+        <v>101029976.42135087</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5814,23 +5814,23 @@
       </c>
       <c r="B102" s="38">
         <f t="shared" si="8"/>
-        <v>50190</v>
+        <v>43495</v>
       </c>
       <c r="C102" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D102" s="37">
         <f t="shared" si="6"/>
-        <v>1870912093.0158215</v>
+        <v>19543261.663344838</v>
       </c>
       <c r="E102" s="37">
         <f t="shared" si="10"/>
-        <v>-1501269092.5852301</v>
+        <v>1684691.6109637825</v>
       </c>
       <c r="F102" s="37">
         <f t="shared" si="11"/>
-        <v>-16870300061.678715</v>
+        <v>81486714.758006036</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5839,23 +5839,23 @@
       </c>
       <c r="B103" s="38">
         <f t="shared" si="8"/>
-        <v>50555</v>
+        <v>43524</v>
       </c>
       <c r="C103" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D103" s="37">
         <f t="shared" si="6"/>
-        <v>2058169233.5109332</v>
+        <v>19869148.792505339</v>
       </c>
       <c r="E103" s="37">
         <f t="shared" si="10"/>
-        <v>-1688526233.0803418</v>
+        <v>1358804.4818032815</v>
       </c>
       <c r="F103" s="37">
         <f t="shared" si="11"/>
-        <v>-18928469295.189648</v>
+        <v>61617565.965500697</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -5864,23 +5864,23 @@
       </c>
       <c r="B104" s="38">
         <f t="shared" si="8"/>
-        <v>50920</v>
+        <v>43554</v>
       </c>
       <c r="C104" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D104" s="37">
         <f t="shared" si="6"/>
-        <v>2264168695.8913465</v>
+        <v>20200470.143587541</v>
       </c>
       <c r="E104" s="37">
         <f t="shared" si="10"/>
-        <v>-1894525695.4607553</v>
+        <v>1027483.1307210802</v>
       </c>
       <c r="F104" s="37">
         <f t="shared" si="11"/>
-        <v>-21192637991.080994</v>
+        <v>41417095.821913153</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -5889,23 +5889,23 @@
       </c>
       <c r="B105" s="38">
         <f t="shared" si="8"/>
-        <v>51286</v>
+        <v>43585</v>
       </c>
       <c r="C105" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D105" s="37">
         <f t="shared" si="6"/>
-        <v>2490786374.6021199</v>
+        <v>20537316.333143163</v>
       </c>
       <c r="E105" s="37">
         <f t="shared" si="10"/>
-        <v>-2121143374.1715286</v>
+        <v>690636.94116545899</v>
       </c>
       <c r="F105" s="37">
         <f t="shared" si="11"/>
-        <v>-23683424365.683113</v>
+        <v>20879779.488769989</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5914,23 +5914,23 @@
       </c>
       <c r="B106" s="38">
         <f t="shared" si="8"/>
-        <v>51651</v>
+        <v>43615</v>
       </c>
       <c r="C106" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D106" s="37">
         <f t="shared" si="6"/>
-        <v>2740085919.9058952</v>
+        <v>20879779.488769952</v>
       </c>
       <c r="E106" s="37">
         <f t="shared" si="10"/>
-        <v>-2370442919.4753041</v>
+        <v>348173.78553867148</v>
       </c>
       <c r="F106" s="37">
         <f t="shared" si="11"/>
-        <v>-26423510285.589008</v>
+        <v>3.7252902984619141E-8</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5939,23 +5939,23 @@
       </c>
       <c r="B107" s="38">
         <f t="shared" si="8"/>
-        <v>52016</v>
+        <v>43646</v>
       </c>
       <c r="C107" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D107" s="37">
         <f t="shared" si="6"/>
-        <v>3014337530.1167212</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="E107" s="37">
         <f t="shared" si="10"/>
-        <v>-2644694529.68613</v>
+        <v>6.2119833504160254E-10</v>
       </c>
       <c r="F107" s="37">
         <f t="shared" si="11"/>
-        <v>-29437847815.70573</v>
+        <v>-21227953.274308585</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5964,23 +5964,23 @@
       </c>
       <c r="B108" s="38">
         <f t="shared" si="8"/>
-        <v>52381</v>
+        <v>43676</v>
       </c>
       <c r="C108" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D108" s="37">
         <f t="shared" si="6"/>
-        <v>3316038624.7239394</v>
+        <v>21581932.915459968</v>
       </c>
       <c r="E108" s="37">
         <f t="shared" si="10"/>
-        <v>-2946395624.2933483</v>
+        <v>-353979.64115134702</v>
       </c>
       <c r="F108" s="37">
         <f t="shared" si="11"/>
-        <v>-32753886440.429668</v>
+        <v>-42809886.189768553</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -5989,23 +5989,23 @@
       </c>
       <c r="B109" s="38">
         <f t="shared" si="8"/>
-        <v>52747</v>
+        <v>43707</v>
       </c>
       <c r="C109" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D109" s="37">
         <f t="shared" si="6"/>
-        <v>3647936586.6619601</v>
+        <v>21941815.225829139</v>
       </c>
       <c r="E109" s="37">
         <f t="shared" si="10"/>
-        <v>-3278293586.231369</v>
+        <v>-713861.95152051712</v>
       </c>
       <c r="F109" s="37">
         <f t="shared" si="11"/>
-        <v>-36401823027.091629</v>
+        <v>-64751701.415597692</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -6014,23 +6014,23 @@
       </c>
       <c r="B110" s="38">
         <f t="shared" si="8"/>
-        <v>53112</v>
+        <v>43738</v>
       </c>
       <c r="C110" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D110" s="37">
         <f t="shared" si="6"/>
-        <v>4013053780.8240271</v>
+        <v>22307698.633404199</v>
       </c>
       <c r="E110" s="37">
         <f t="shared" si="10"/>
-        <v>-3643410780.393436</v>
+        <v>-1079745.3590955765</v>
       </c>
       <c r="F110" s="37">
         <f t="shared" si="11"/>
-        <v>-40414876807.915657</v>
+        <v>-87059400.049001887</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6039,23 +6039,23 @@
       </c>
       <c r="B111" s="38">
         <f t="shared" si="8"/>
-        <v>53477</v>
+        <v>43768</v>
       </c>
       <c r="C111" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D111" s="37">
         <f t="shared" si="6"/>
-        <v>4414715076.6462517</v>
+        <v>22679683.207476236</v>
       </c>
       <c r="E111" s="37">
         <f t="shared" si="10"/>
-        <v>-4045072076.2156601</v>
+        <v>-1451729.9331676147</v>
       </c>
       <c r="F111" s="37">
         <f t="shared" si="11"/>
-        <v>-44829591884.561905</v>
+        <v>-109739083.25647813</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6064,23 +6064,23 @@
       </c>
       <c r="B112" s="38">
         <f t="shared" si="8"/>
-        <v>53842</v>
+        <v>43799</v>
       </c>
       <c r="C112" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D112" s="37">
         <f t="shared" si="6"/>
-        <v>4856578125.3910246</v>
+        <v>23057870.686008368</v>
       </c>
       <c r="E112" s="37">
         <f t="shared" si="10"/>
-        <v>-4486935124.960433</v>
+        <v>-1829917.4116997465</v>
       </c>
       <c r="F112" s="37">
         <f t="shared" si="11"/>
-        <v>-49686170009.952927</v>
+        <v>-132796953.94248649</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6089,23 +6089,23 @@
       </c>
       <c r="B113" s="38">
         <f t="shared" si="8"/>
-        <v>54208</v>
+        <v>43829</v>
       </c>
       <c r="C113" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D113" s="37">
         <f t="shared" si="6"/>
-        <v>5342666667.8440676</v>
+        <v>23442364.503461115</v>
       </c>
       <c r="E113" s="37">
         <f t="shared" si="10"/>
-        <v>-4973023667.413476</v>
+        <v>-2214411.2291524913</v>
       </c>
       <c r="F113" s="37">
         <f t="shared" si="11"/>
-        <v>-55028836677.796997</v>
+        <v>-156239318.44594762</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -6114,23 +6114,23 @@
       </c>
       <c r="B114" s="38">
         <f t="shared" si="8"/>
-        <v>54573</v>
+        <v>43860</v>
       </c>
       <c r="C114" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D114" s="37">
         <f t="shared" si="6"/>
-        <v>5877407175.7352457</v>
+        <v>23833269.819081776</v>
       </c>
       <c r="E114" s="37">
         <f t="shared" si="10"/>
-        <v>-5507764175.3046541</v>
+        <v>-2605316.5447731526</v>
       </c>
       <c r="F114" s="37">
         <f t="shared" si="11"/>
-        <v>-60906243853.532242</v>
+        <v>-180072588.2650294</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6139,23 +6139,23 @@
       </c>
       <c r="B115" s="38">
         <f t="shared" si="8"/>
-        <v>54938</v>
+        <v>43890</v>
       </c>
       <c r="C115" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D115" s="37">
         <f t="shared" si="6"/>
-        <v>6465669160.5511856</v>
+        <v>24230693.54566554</v>
       </c>
       <c r="E115" s="37">
         <f t="shared" si="10"/>
-        <v>-6096026160.120594</v>
+        <v>-3002740.2713569193</v>
       </c>
       <c r="F115" s="37">
         <f t="shared" si="11"/>
-        <v>-67371913014.083427</v>
+        <v>-204303281.81069493</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -6164,23 +6164,23 @@
       </c>
       <c r="B116" s="38">
         <f t="shared" si="8"/>
-        <v>55303</v>
+        <v>43920</v>
       </c>
       <c r="C116" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D116" s="37">
         <f t="shared" si="6"/>
-        <v>7112809516.8041544</v>
+        <v>24634744.378796194</v>
       </c>
       <c r="E116" s="37">
         <f t="shared" si="10"/>
-        <v>-6743166516.3735628</v>
+        <v>-3406791.1044875719</v>
       </c>
       <c r="F116" s="37">
         <f t="shared" si="11"/>
-        <v>-74484722530.887589</v>
+        <v>-228938026.18949112</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -6189,23 +6189,23 @@
       </c>
       <c r="B117" s="38">
         <f t="shared" si="8"/>
-        <v>55669</v>
+        <v>43951</v>
       </c>
       <c r="C117" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D117" s="37">
         <f t="shared" si="6"/>
-        <v>7824721303.5606155</v>
+        <v>25045532.826574396</v>
       </c>
       <c r="E117" s="37">
         <f t="shared" si="10"/>
-        <v>-7455078303.130024</v>
+        <v>-3817579.5522657745</v>
       </c>
       <c r="F117" s="37">
         <f t="shared" si="11"/>
-        <v>-82309443834.448212</v>
+        <v>-253983559.01606551</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -6214,23 +6214,23 @@
       </c>
       <c r="B118" s="38">
         <f t="shared" si="8"/>
-        <v>56034</v>
+        <v>43981</v>
       </c>
       <c r="C118" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D118" s="37">
         <f t="shared" si="6"/>
-        <v>8607887408.449091</v>
+        <v>25463171.239841718</v>
       </c>
       <c r="E118" s="37">
         <f t="shared" si="10"/>
-        <v>-8238244408.0184994</v>
+        <v>-4235217.9655330963</v>
       </c>
       <c r="F118" s="37">
         <f t="shared" si="11"/>
-        <v>-90917331242.897308</v>
+        <v>-279446730.25590724</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -6239,23 +6239,23 @@
       </c>
       <c r="B119" s="38">
         <f t="shared" si="8"/>
-        <v>56399</v>
+        <v>44012</v>
       </c>
       <c r="C119" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D119" s="37">
         <f t="shared" si="6"/>
-        <v>9469439582.8282566</v>
+        <v>25887773.842908643</v>
       </c>
       <c r="E119" s="37">
         <f t="shared" si="10"/>
-        <v>-9099796582.397665</v>
+        <v>-4659820.5686000213</v>
       </c>
       <c r="F119" s="37">
         <f t="shared" si="11"/>
-        <v>-100386770825.72557</v>
+        <v>-305334504.09881586</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -6264,23 +6264,23 @@
       </c>
       <c r="B120" s="38">
         <f t="shared" si="8"/>
-        <v>56764</v>
+        <v>44042</v>
       </c>
       <c r="C120" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D120" s="37">
         <f t="shared" si="6"/>
-        <v>10417223385.707684</v>
+        <v>26319456.764794976</v>
       </c>
       <c r="E120" s="37">
         <f t="shared" si="10"/>
-        <v>-10047580385.277092</v>
+        <v>-5091503.4904863518</v>
       </c>
       <c r="F120" s="37">
         <f t="shared" si="11"/>
-        <v>-110803994211.43326</v>
+        <v>-331653960.86361086</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -6289,23 +6289,23 @@
       </c>
       <c r="B121" s="38">
         <f t="shared" si="8"/>
-        <v>57130</v>
+        <v>44073</v>
       </c>
       <c r="C121" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D121" s="37">
         <f t="shared" si="6"/>
-        <v>11459869627.82053</v>
+        <v>26758338.070991177</v>
       </c>
       <c r="E121" s="37">
         <f t="shared" si="10"/>
-        <v>-11090226627.389938</v>
+        <v>-5530384.7966825552</v>
       </c>
       <c r="F121" s="37">
         <f t="shared" si="11"/>
-        <v>-122263863839.25378</v>
+        <v>-358412298.93460202</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -6314,23 +6314,23 @@
       </c>
       <c r="B122" s="38">
         <f t="shared" si="8"/>
-        <v>57495</v>
+        <v>44104</v>
       </c>
       <c r="C122" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D122" s="37">
         <f t="shared" si="6"/>
-        <v>12606872966.439875</v>
+        <v>27204537.795749351</v>
       </c>
       <c r="E122" s="37">
         <f t="shared" si="10"/>
-        <v>-12237229966.009283</v>
+        <v>-5976584.5214407295</v>
       </c>
       <c r="F122" s="37">
         <f t="shared" si="11"/>
-        <v>-134870736805.69366</v>
+        <v>-385616836.73035139</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6339,23 +6339,23 @@
       </c>
       <c r="B123" s="38">
         <f t="shared" si="8"/>
-        <v>57860</v>
+        <v>44134</v>
       </c>
       <c r="C123" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D123" s="37">
         <f t="shared" si="6"/>
-        <v>13868678366.647257</v>
+        <v>27658177.974912658</v>
       </c>
       <c r="E123" s="37">
         <f t="shared" si="10"/>
-        <v>-13499035366.216665</v>
+        <v>-6430224.7006040346</v>
       </c>
       <c r="F123" s="37">
         <f t="shared" si="11"/>
-        <v>-148739415172.34091</v>
+        <v>-413275014.70526403</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6364,23 +6364,23 @@
       </c>
       <c r="B124" s="38">
         <f t="shared" si="8"/>
-        <v>58225</v>
+        <v>44165</v>
       </c>
       <c r="C124" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D124" s="37">
         <f t="shared" si="6"/>
-        <v>15256776216.396318</v>
+        <v>28119382.679292172</v>
       </c>
       <c r="E124" s="37">
         <f t="shared" si="10"/>
-        <v>-14887133215.965727</v>
+        <v>-6891429.4049835503</v>
       </c>
       <c r="F124" s="37">
         <f t="shared" si="11"/>
-        <v>-163996191388.73724</v>
+        <v>-441394397.38455617</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6389,23 +6389,23 @@
       </c>
       <c r="B125" s="38">
         <f t="shared" si="8"/>
-        <v>58591</v>
+        <v>44195</v>
       </c>
       <c r="C125" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D125" s="37">
         <f t="shared" si="6"/>
-        <v>16783806961.518585</v>
+        <v>28588278.048600331</v>
       </c>
       <c r="E125" s="37">
         <f t="shared" si="10"/>
-        <v>-16414163961.087994</v>
+        <v>-7360324.7742917081</v>
       </c>
       <c r="F125" s="37">
         <f t="shared" si="11"/>
-        <v>-180779998350.25583</v>
+        <v>-469982675.43315649</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6414,23 +6414,23 @@
       </c>
       <c r="B126" s="38">
         <f t="shared" si="8"/>
-        <v>58956</v>
+        <v>44226</v>
       </c>
       <c r="C126" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D126" s="37">
         <f t="shared" si="6"/>
-        <v>18463676213.509861</v>
+        <v>29064992.325950183</v>
       </c>
       <c r="E126" s="37">
         <f t="shared" si="10"/>
-        <v>-18094033213.079269</v>
+        <v>-7837039.0516415611</v>
       </c>
       <c r="F126" s="37">
         <f t="shared" si="11"/>
-        <v>-199243674563.76569</v>
+        <v>-499047667.7591067</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6439,23 +6439,23 @@
       </c>
       <c r="B127" s="38">
         <f t="shared" si="8"/>
-        <v>59321</v>
+        <v>44255</v>
       </c>
       <c r="C127" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D127" s="37">
         <f t="shared" si="6"/>
-        <v>20311681378.304222</v>
+        <v>29549655.892929964</v>
       </c>
       <c r="E127" s="37">
         <f t="shared" si="10"/>
-        <v>-19942038377.873631</v>
+        <v>-8321702.6186213419</v>
       </c>
       <c r="F127" s="37">
         <f t="shared" si="11"/>
-        <v>-219555355942.06992</v>
+        <v>-528597323.65203667</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -6464,23 +6464,23 @@
       </c>
       <c r="B128" s="38">
         <f t="shared" si="8"/>
-        <v>59686</v>
+        <v>44285</v>
       </c>
       <c r="C128" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D128" s="37">
         <f t="shared" si="6"/>
-        <v>22344650959.156086</v>
+        <v>30042401.305262506</v>
       </c>
       <c r="E128" s="37">
         <f t="shared" si="10"/>
-        <v>-21975007958.725494</v>
+        <v>-8814448.0309538841</v>
       </c>
       <c r="F128" s="37">
         <f t="shared" si="11"/>
-        <v>-241900006901.22601</v>
+        <v>-558639724.95729923</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6489,23 +6489,23 @@
       </c>
       <c r="B129" s="38">
         <f t="shared" si="8"/>
-        <v>60052</v>
+        <v>44316</v>
       </c>
       <c r="C129" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D129" s="37">
         <f t="shared" si="6"/>
-        <v>24581097802.165264</v>
+        <v>30543363.32905931</v>
       </c>
       <c r="E129" s="37">
         <f t="shared" si="10"/>
-        <v>-24211454801.734673</v>
+        <v>-9315410.0547506884</v>
       </c>
       <c r="F129" s="37">
         <f t="shared" si="11"/>
-        <v>-266481104703.39127</v>
+        <v>-589183088.28635859</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6514,23 +6514,23 @@
       </c>
       <c r="B130" s="38">
         <f t="shared" si="8"/>
-        <v>60417</v>
+        <v>44346</v>
       </c>
       <c r="C130" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D130" s="37">
         <f t="shared" si="6"/>
-        <v>27041387679.945866</v>
+        <v>31052678.977679126</v>
       </c>
       <c r="E130" s="37">
         <f t="shared" si="10"/>
-        <v>-26671744679.515274</v>
+        <v>-9824725.7033705041</v>
       </c>
       <c r="F130" s="37">
         <f t="shared" si="11"/>
-        <v>-293522492383.33716</v>
+        <v>-620235767.26403773</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6539,23 +6539,23 @@
       </c>
       <c r="B131" s="38">
         <f t="shared" si="8"/>
-        <v>60782</v>
+        <v>44377</v>
       </c>
       <c r="C131" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D131" s="37">
         <f t="shared" si="6"/>
-        <v>29747924748.613789</v>
+        <v>31570487.54920119</v>
       </c>
       <c r="E131" s="37">
         <f t="shared" si="10"/>
-        <v>-29378281748.183197</v>
+        <v>-10342534.274892569</v>
       </c>
       <c r="F131" s="37">
         <f t="shared" si="11"/>
-        <v>-323270417131.95093</v>
+        <v>-651806254.81323886</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6564,23 +6564,23 @@
       </c>
       <c r="B132" s="38">
         <f t="shared" si="8"/>
-        <v>61147</v>
+        <v>44407</v>
       </c>
       <c r="C132" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D132" s="37">
         <f t="shared" si="6"/>
-        <v>32725355566.92112</v>
+        <v>32096930.664523304</v>
       </c>
       <c r="E132" s="37">
         <f t="shared" si="10"/>
-        <v>-32355712566.490528</v>
+        <v>-10868977.390214682</v>
       </c>
       <c r="F132" s="37">
         <f t="shared" si="11"/>
-        <v>-355995772698.87207</v>
+        <v>-683903185.47776222</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6589,23 +6589,23 @@
       </c>
       <c r="B133" s="38">
         <f t="shared" si="8"/>
-        <v>61513</v>
+        <v>44438</v>
       </c>
       <c r="C133" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D133" s="37">
         <f t="shared" si="6"/>
-        <v>36000793535.39846</v>
+        <v>32632152.306095235</v>
       </c>
       <c r="E133" s="37">
         <f t="shared" si="10"/>
-        <v>-35631150534.967873</v>
+        <v>-11404199.031786611</v>
       </c>
       <c r="F133" s="37">
         <f t="shared" si="11"/>
-        <v>-391996566234.27051</v>
+        <v>-716535337.78385746</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6614,23 +6614,23 @@
       </c>
       <c r="B134" s="38">
         <f t="shared" si="8"/>
-        <v>61878</v>
+        <v>44469</v>
       </c>
       <c r="C134" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D134" s="37">
         <f t="shared" si="6"/>
-        <v>39604065799.316956</v>
+        <v>33176298.857297964</v>
       </c>
       <c r="E134" s="37">
         <f t="shared" si="10"/>
-        <v>-39234422798.886368</v>
+        <v>-11948345.582989341</v>
       </c>
       <c r="F134" s="37">
         <f t="shared" si="11"/>
-        <v>-431600632033.58746</v>
+        <v>-749711636.64115548</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6639,23 +6639,23 @@
       </c>
       <c r="B135" s="38">
         <f t="shared" si="8"/>
-        <v>62243</v>
+        <v>44499</v>
       </c>
       <c r="C135" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D135" s="37">
         <f t="shared" si="6"/>
-        <v>43567984863.844398</v>
+        <v>33729519.142479636</v>
       </c>
       <c r="E135" s="37">
         <f t="shared" si="10"/>
-        <v>-43198341863.413811</v>
+        <v>-12501565.868171012</v>
       </c>
       <c r="F135" s="37">
         <f t="shared" si="11"/>
-        <v>-475168616897.43188</v>
+        <v>-783441155.78363514</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6664,23 +6664,23 @@
       </c>
       <c r="B136" s="38">
         <f t="shared" si="8"/>
-        <v>62608</v>
+        <v>44530</v>
       </c>
       <c r="C136" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D136" s="37">
         <f t="shared" si="6"/>
-        <v>47928647394.806412</v>
+        <v>34291964.467659071</v>
       </c>
       <c r="E136" s="37">
         <f t="shared" si="10"/>
-        <v>-47559004394.375824</v>
+        <v>-13064011.193350451</v>
       </c>
       <c r="F136" s="37">
         <f t="shared" si="11"/>
-        <v>-523097264292.23828</v>
+        <v>-817733120.25129426</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6689,23 +6689,23 @@
       </c>
       <c r="B137" s="38">
         <f t="shared" si="8"/>
-        <v>62974</v>
+        <v>44560</v>
       </c>
       <c r="C137" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D137" s="37">
         <f t="shared" si="6"/>
-        <v>52725762926.024498</v>
+        <v>34863788.66190806</v>
       </c>
       <c r="E137" s="37">
         <f t="shared" si="10"/>
-        <v>-52356119925.59391</v>
+        <v>-13635835.387599442</v>
       </c>
       <c r="F137" s="37">
         <f t="shared" si="11"/>
-        <v>-575823027218.26282</v>
+        <v>-852596908.91320229</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6714,23 +6714,23 @@
       </c>
       <c r="B138" s="38">
         <f t="shared" si="8"/>
-        <v>63339</v>
+        <v>44591</v>
       </c>
       <c r="C138" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D138" s="37">
         <f t="shared" si="6"/>
-        <v>58003015466.540863</v>
+        <v>35445148.119423665</v>
       </c>
       <c r="E138" s="37">
         <f t="shared" si="10"/>
-        <v>-57633372466.110275</v>
+        <v>-14217194.845115045</v>
       </c>
       <c r="F138" s="37">
         <f t="shared" si="11"/>
-        <v>-633826042684.80371</v>
+        <v>-888042057.03262591</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6739,23 +6739,23 @@
       </c>
       <c r="B139" s="38">
         <f t="shared" si="8"/>
-        <v>63704</v>
+        <v>44620</v>
       </c>
       <c r="C139" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D139" s="37">
         <f t="shared" si="6"/>
-        <v>63808461300.636681</v>
+        <v>36036201.842302121</v>
       </c>
       <c r="E139" s="37">
         <f t="shared" si="10"/>
-        <v>-63438818300.206093</v>
+        <v>-14808248.567993497</v>
       </c>
       <c r="F139" s="37">
         <f t="shared" si="11"/>
-        <v>-697634503985.44043</v>
+        <v>-924078258.874928</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6764,23 +6764,23 @@
       </c>
       <c r="B140" s="38">
         <f t="shared" si="8"/>
-        <v>64069</v>
+        <v>44650</v>
       </c>
       <c r="C140" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D140" s="37">
         <f t="shared" si="6"/>
-        <v>70194966603.133102</v>
+        <v>36637111.484025978</v>
       </c>
       <c r="E140" s="37">
         <f t="shared" si="10"/>
-        <v>-69825323602.702515</v>
+        <v>-15409158.209717356</v>
       </c>
       <c r="F140" s="37">
         <f t="shared" si="11"/>
-        <v>-767829470588.57349</v>
+        <v>-960715370.35895395</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -6789,23 +6789,23 @@
       </c>
       <c r="B141" s="38">
         <f t="shared" si="8"/>
-        <v>64435</v>
+        <v>44681</v>
       </c>
       <c r="C141" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D141" s="37">
         <f t="shared" si="6"/>
-        <v>77220688855.034439</v>
+        <v>37248041.39367643</v>
       </c>
       <c r="E141" s="37">
         <f t="shared" si="10"/>
-        <v>-76851045854.603851</v>
+        <v>-16020088.11936781</v>
       </c>
       <c r="F141" s="37">
         <f t="shared" si="11"/>
-        <v>-845050159443.60791</v>
+        <v>-997963411.75263035</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -6814,23 +6814,23 @@
       </c>
       <c r="B142" s="38">
         <f t="shared" si="8"/>
-        <v>64800</v>
+        <v>44711</v>
       </c>
       <c r="C142" s="37">
         <f t="shared" si="9"/>
-        <v>369643000.43059129</v>
+        <v>21227953.274308622</v>
       </c>
       <c r="D142" s="37">
         <f t="shared" si="6"/>
-        <v>84949606443.432434</v>
+        <v>37869158.660882853</v>
       </c>
       <c r="E142" s="37">
         <f t="shared" si="10"/>
-        <v>-84579963443.001846</v>
+        <v>-16641205.386574229</v>
       </c>
       <c r="F142" s="37">
         <f t="shared" si="11"/>
-        <v>-929999765887.04028</v>
+        <v>-1035832570.4135132</v>
       </c>
     </row>
     <row r="144" spans="1:6" s="43" customFormat="1" ht="57" customHeight="1">
@@ -6848,7 +6848,7 @@
         <v>67</v>
       </c>
       <c r="B146">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -6863,7 +6863,7 @@
       </c>
       <c r="E147" s="44">
         <f ca="1">SUM(E151:INDIRECT(CONCATENATE("E",150+B10)))</f>
-        <v>141258000</v>
+        <v>100145997.93488157</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -6872,14 +6872,14 @@
       </c>
       <c r="B148" s="95">
         <f ca="1">PMT(B9,B10-B146,-INDIRECT(CONCATENATE("F",150+B146)),0,0)</f>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D148" s="79" t="s">
         <v>70</v>
       </c>
       <c r="E148" s="44">
         <f ca="1">F150+E147</f>
-        <v>846913000</v>
+        <v>524145997.93488157</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="F150" s="39">
         <f>B3</f>
-        <v>705655000</v>
+        <v>424000000</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="B151" s="38">
         <f t="shared" ref="B151:B210" si="12">EDATE($B$7,$B$6*A151)</f>
-        <v>43250</v>
+        <v>42916</v>
       </c>
       <c r="C151" s="78">
         <f>IF($B$146&gt;=A151,IF($B$15&lt;&gt;0,CEILING(E151,$B$15),E151),$B$148)</f>
-        <v>70629000</v>
+        <v>7071000</v>
       </c>
       <c r="D151" s="103">
         <f>IF($B$146&gt;=$A151,0,C151-E151)</f>
@@ -6931,11 +6931,11 @@
       </c>
       <c r="E151" s="78">
         <f>IF($B$146&gt;=A151,IF($B$15&lt;&gt;0,CEILING(F150*$B$9,B$15),F150*$B$9),F150*$B$9)</f>
-        <v>70629000</v>
+        <v>7071000</v>
       </c>
       <c r="F151" s="78">
         <f>F150-D151</f>
-        <v>705655000</v>
+        <v>424000000</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -6944,11 +6944,11 @@
       </c>
       <c r="B152" s="38">
         <f t="shared" si="12"/>
-        <v>43615</v>
+        <v>42946</v>
       </c>
       <c r="C152" s="78">
         <f t="shared" ref="C152:C210" si="13">IF($B$146&gt;=A152,IF($B$15&lt;&gt;0,CEILING(E152,$B$15),E152),$B$148)</f>
-        <v>70629000</v>
+        <v>7071000</v>
       </c>
       <c r="D152" s="103">
         <f t="shared" ref="D152:D210" si="14">IF($B$146&gt;=$A152,0,C152-E152)</f>
@@ -6956,11 +6956,11 @@
       </c>
       <c r="E152" s="78">
         <f t="shared" ref="E152:E210" si="15">IF($B$146&gt;=A152,IF($B$15&lt;&gt;0,CEILING(F151*$B$9,B$15),F151*$B$9),F151*$B$9)</f>
-        <v>70629000</v>
+        <v>7071000</v>
       </c>
       <c r="F152" s="78">
         <f t="shared" ref="F152:F162" si="16">F151-D152</f>
-        <v>705655000</v>
+        <v>424000000</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -6969,23 +6969,23 @@
       </c>
       <c r="B153" s="38">
         <f t="shared" si="12"/>
-        <v>43981</v>
+        <v>42977</v>
       </c>
       <c r="C153" s="78">
-        <f t="shared" si="13"/>
-        <v>70629000</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>23181999.906130984</v>
       </c>
       <c r="D153" s="103">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>16111729.59279765</v>
       </c>
       <c r="E153" s="78">
         <f t="shared" si="15"/>
-        <v>70629000</v>
+        <v>7070270.3133333344</v>
       </c>
       <c r="F153" s="78">
-        <f>F152-D153</f>
-        <v>705655000</v>
+        <f ca="1">F152-D153</f>
+        <v>407888270.40720236</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -6994,23 +6994,23 @@
       </c>
       <c r="B154" s="38">
         <f t="shared" si="12"/>
-        <v>44346</v>
+        <v>43008</v>
       </c>
       <c r="C154" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D154" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-776283084.54195011</v>
+        <v>16380395.355619375</v>
       </c>
       <c r="E154" s="78">
-        <f t="shared" si="15"/>
-        <v>70628084.541950002</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>6801604.5505116098</v>
       </c>
       <c r="F154" s="78">
         <f ca="1">F153-D154</f>
-        <v>1481938084.5419502</v>
+        <v>391507875.05158299</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -7019,23 +7019,23 @@
       </c>
       <c r="B155" s="38">
         <f t="shared" si="12"/>
-        <v>44711</v>
+        <v>43038</v>
       </c>
       <c r="C155" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D155" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-853980241.5429132</v>
+        <v>16653541.164589891</v>
       </c>
       <c r="E155" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>148325241.54291305</v>
+        <v>6528458.7415410932</v>
       </c>
       <c r="F155" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>2335918326.0848637</v>
+        <v>374854333.88699311</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -7044,23 +7044,23 @@
       </c>
       <c r="B156" s="38">
         <f t="shared" si="12"/>
-        <v>45076</v>
+        <v>43069</v>
       </c>
       <c r="C156" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D156" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-939454005.20482695</v>
+        <v>16931241.725221671</v>
       </c>
       <c r="E156" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>233799005.20482686</v>
+        <v>6250758.1809093133</v>
       </c>
       <c r="F156" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>3275372331.2896905</v>
+        <v>357923092.16177142</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -7069,23 +7069,23 @@
       </c>
       <c r="B157" s="38">
         <f t="shared" si="12"/>
-        <v>45442</v>
+        <v>43099</v>
       </c>
       <c r="C157" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D157" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-1033482725.9010313</v>
+        <v>17213572.988753997</v>
       </c>
       <c r="E157" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>327827725.90103114</v>
+        <v>5968426.9173769895</v>
       </c>
       <c r="F157" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>4308855057.1907215</v>
+        <v>340709519.17301744</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -7094,23 +7094,23 @@
       </c>
       <c r="B158" s="38">
         <f t="shared" si="12"/>
-        <v>45807</v>
+        <v>43130</v>
       </c>
       <c r="C158" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D158" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-1136922658.0740945</v>
+        <v>17500612.172925655</v>
       </c>
       <c r="E158" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>431267658.07409441</v>
+        <v>5681387.7332053296</v>
       </c>
       <c r="F158" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>5445777715.2648163</v>
+        <v>323208907.00009179</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -7119,23 +7119,23 @@
       </c>
       <c r="B159" s="38">
         <f t="shared" si="12"/>
-        <v>46172</v>
+        <v>43159</v>
       </c>
       <c r="C159" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D159" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-1250715757.5520487</v>
+        <v>17792437.783094041</v>
       </c>
       <c r="E159" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>545060757.55204856</v>
+        <v>5389562.1230369424</v>
       </c>
       <c r="F159" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>6696493472.816865</v>
+        <v>305416469.21699774</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -7144,23 +7144,23 @@
       </c>
       <c r="B160" s="38">
         <f t="shared" si="12"/>
-        <v>46537</v>
+        <v>43189</v>
       </c>
       <c r="C160" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D160" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-1375898259.2877908</v>
+        <v>18089129.633706402</v>
       </c>
       <c r="E160" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>670243259.28779066</v>
+        <v>5092870.2724245833</v>
       </c>
       <c r="F160" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>8072391732.1046562</v>
+        <v>287327339.58329135</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -7169,23 +7169,23 @@
       </c>
       <c r="B161" s="38">
         <f t="shared" si="12"/>
-        <v>46903</v>
+        <v>43220</v>
       </c>
       <c r="C161" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D161" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-1513610113.6331863</v>
+        <v>18390768.87012912</v>
       </c>
       <c r="E161" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>807955113.6331861</v>
+        <v>4791231.0360018648</v>
       </c>
       <c r="F161" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>9586001845.7378426</v>
+        <v>268936570.71316224</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -7194,23 +7194,23 @@
       </c>
       <c r="B162" s="38">
         <f t="shared" si="12"/>
-        <v>47268</v>
+        <v>43250</v>
       </c>
       <c r="C162" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D162" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-1665105367.0774829</v>
+        <v>18697437.990841027</v>
       </c>
       <c r="E162" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>959450367.07748282</v>
+        <v>4484561.9152899571</v>
       </c>
       <c r="F162" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>11251107212.815325</v>
+        <v>250239132.72232121</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -7219,23 +7219,23 @@
       </c>
       <c r="B163" s="38">
         <f t="shared" si="12"/>
-        <v>47633</v>
+        <v>43281</v>
       </c>
       <c r="C163" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D163" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-1831763581.9802375</v>
+        <v>19009220.869996767</v>
       </c>
       <c r="E163" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1126108581.9802372</v>
+        <v>4172779.0361342165</v>
       </c>
       <c r="F163" s="78">
         <f t="shared" ref="F163:F210" ca="1" si="17">F162-D163</f>
-        <v>13082870794.795563</v>
+        <v>231229911.85232446</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -7244,23 +7244,23 @@
       </c>
       <c r="B164" s="38">
         <f t="shared" si="12"/>
-        <v>47998</v>
+        <v>43311</v>
       </c>
       <c r="C164" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D164" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-2015102399.2903471</v>
+        <v>19326202.780366424</v>
       </c>
       <c r="E164" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1309447399.2903469</v>
+        <v>3855797.1257645595</v>
       </c>
       <c r="F164" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>15097973194.085911</v>
+        <v>211903709.07195804</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -7269,23 +7269,23 @@
       </c>
       <c r="B165" s="38">
         <f t="shared" si="12"/>
-        <v>48364</v>
+        <v>43342</v>
       </c>
       <c r="C165" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D165" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-2216791358.651175</v>
+        <v>19648470.416657664</v>
       </c>
       <c r="E165" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1511136358.6511748</v>
+        <v>3533529.4894733219</v>
       </c>
       <c r="F165" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>17314764552.737087</v>
+        <v>192255238.65530038</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -7294,23 +7294,23 @@
       </c>
       <c r="B166" s="38">
         <f t="shared" si="12"/>
-        <v>48729</v>
+        <v>43373</v>
       </c>
       <c r="C166" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D166" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-2438667101.7418914</v>
+        <v>19976111.919226773</v>
       </c>
       <c r="E166" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1733012101.7418911</v>
+        <v>3205887.9869042113</v>
       </c>
       <c r="F166" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>19753431654.478977</v>
+        <v>172279126.73607361</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -7319,23 +7319,23 @@
       </c>
       <c r="B167" s="38">
         <f t="shared" si="12"/>
-        <v>49094</v>
+        <v>43403</v>
       </c>
       <c r="C167" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D167" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-2682750097.3013339</v>
+        <v>20309216.898185104</v>
       </c>
       <c r="E167" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1977095097.3013337</v>
+        <v>2872783.0079458784</v>
       </c>
       <c r="F167" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>22436181751.780312</v>
+        <v>151969909.83788851</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -7344,23 +7344,23 @@
       </c>
       <c r="B168" s="38">
         <f t="shared" si="12"/>
-        <v>49459</v>
+        <v>43434</v>
       </c>
       <c r="C168" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D168" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-2951263040.1375966</v>
+        <v>20647876.457907479</v>
       </c>
       <c r="E168" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2245608040.1375966</v>
+        <v>2534123.4482235061</v>
       </c>
       <c r="F168" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>25387444791.917908</v>
+        <v>131322033.37998103</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -7369,23 +7369,23 @@
       </c>
       <c r="B169" s="38">
         <f t="shared" si="12"/>
-        <v>49825</v>
+        <v>43464</v>
       </c>
       <c r="C169" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D169" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-3246651091.6703863</v>
+        <v>20992183.221949264</v>
       </c>
       <c r="E169" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2540996091.6703863</v>
+        <v>2189816.6841817196</v>
       </c>
       <c r="F169" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>28634095883.588295</v>
+        <v>110329850.15803176</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -7394,23 +7394,23 @@
       </c>
       <c r="B170" s="38">
         <f t="shared" si="12"/>
-        <v>50190</v>
+        <v>43495</v>
       </c>
       <c r="C170" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D170" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-3571604146.3227453</v>
+        <v>21342231.358378988</v>
       </c>
       <c r="E170" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2865949146.3227453</v>
+        <v>1839768.5477519976</v>
       </c>
       <c r="F170" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>32205700029.911041</v>
+        <v>88987618.79965277</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -7419,23 +7419,23 @@
       </c>
       <c r="B171" s="38">
         <f t="shared" si="12"/>
-        <v>50555</v>
+        <v>43524</v>
       </c>
       <c r="C171" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D171" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-3929081326.5267572</v>
+        <v>21698116.605533324</v>
       </c>
       <c r="E171" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>3223426326.5267572</v>
+        <v>1483883.3005976609</v>
       </c>
       <c r="F171" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>36134781356.437798</v>
+        <v>67289502.194119453</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -7444,23 +7444,23 @@
       </c>
       <c r="B172" s="38">
         <f t="shared" si="12"/>
-        <v>50920</v>
+        <v>43554</v>
       </c>
       <c r="C172" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D172" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-4322337929.4022827</v>
+        <v>22059936.298201595</v>
       </c>
       <c r="E172" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>3616682929.4022827</v>
+        <v>1122063.6079293892</v>
       </c>
       <c r="F172" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>40457119285.84008</v>
+        <v>45229565.895917863</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -7469,23 +7469,23 @@
       </c>
       <c r="B173" s="38">
         <f t="shared" si="12"/>
-        <v>51286</v>
+        <v>43585</v>
       </c>
       <c r="C173" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D173" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-4754955070.4934702</v>
+        <v>22427789.394246876</v>
       </c>
       <c r="E173" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>4049300070.4934697</v>
+        <v>754210.51188410819</v>
       </c>
       <c r="F173" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>45212074356.333549</v>
+        <v>22801776.501670986</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -7494,23 +7494,23 @@
       </c>
       <c r="B174" s="38">
         <f t="shared" si="12"/>
-        <v>51651</v>
+        <v>43615</v>
       </c>
       <c r="C174" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D174" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-5230872294.5080185</v>
+        <v>22801776.501671016</v>
       </c>
       <c r="E174" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>4525217294.5080185</v>
+        <v>380223.40445996693</v>
       </c>
       <c r="F174" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>50442946650.841568</v>
+        <v>-2.9802322387695313E-8</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -7519,23 +7519,23 @@
       </c>
       <c r="B175" s="38">
         <f t="shared" si="12"/>
-        <v>52016</v>
+        <v>43646</v>
       </c>
       <c r="C175" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D175" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-5754423450.0226202</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="E175" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>5048768450.0226202</v>
+        <v>-4.9695866803328201E-10</v>
       </c>
       <c r="F175" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>56197370100.864189</v>
+        <v>-23181999.906131014</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -7544,23 +7544,23 @@
       </c>
       <c r="B176" s="38">
         <f t="shared" si="12"/>
-        <v>52381</v>
+        <v>43676</v>
       </c>
       <c r="C176" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D176" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-6330376154.8406649</v>
+        <v>23568563.598914038</v>
       </c>
       <c r="E176" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>5624721154.8406649</v>
+        <v>-386563.69278305245</v>
       </c>
       <c r="F176" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>62527746255.704857</v>
+        <v>-46750563.505045056</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -7569,23 +7569,23 @@
       </c>
       <c r="B177" s="38">
         <f t="shared" si="12"/>
-        <v>52747</v>
+        <v>43707</v>
       </c>
       <c r="C177" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D177" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-6963975211.3859043</v>
+        <v>23961573.305379391</v>
       </c>
       <c r="E177" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>6258320211.3859043</v>
+        <v>-779573.39924840769</v>
       </c>
       <c r="F177" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>69491721467.090759</v>
+        <v>-70712136.810424447</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -7594,23 +7594,23 @@
       </c>
       <c r="B178" s="38">
         <f t="shared" si="12"/>
-        <v>53112</v>
+        <v>43738</v>
       </c>
       <c r="C178" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D178" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-7660990367.4859924</v>
+        <v>24361136.513874166</v>
       </c>
       <c r="E178" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>6955335367.4859924</v>
+        <v>-1179136.6077431822</v>
       </c>
       <c r="F178" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>77152711834.576752</v>
+        <v>-95073273.32429862</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -7619,23 +7619,23 @@
       </c>
       <c r="B179" s="38">
         <f t="shared" si="12"/>
-        <v>53477</v>
+        <v>43768</v>
       </c>
       <c r="C179" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D179" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-8427768857.4702845</v>
+        <v>24767362.505131491</v>
       </c>
       <c r="E179" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>7722113857.4702845</v>
+        <v>-1585362.5990005059</v>
       </c>
       <c r="F179" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>85580480692.047043</v>
+        <v>-119840635.8294301</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -7644,23 +7644,23 @@
       </c>
       <c r="B180" s="38">
         <f t="shared" si="12"/>
-        <v>53842</v>
+        <v>43799</v>
       </c>
       <c r="C180" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D180" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-9271293202.0372829</v>
+        <v>25180362.382158838</v>
       </c>
       <c r="E180" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>8565638202.0372829</v>
+        <v>-1998362.4760278556</v>
       </c>
       <c r="F180" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>94851773894.08432</v>
+        <v>-145020998.21158895</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -7669,23 +7669,23 @@
       </c>
       <c r="B181" s="38">
         <f t="shared" si="12"/>
-        <v>54208</v>
+        <v>43829</v>
       </c>
       <c r="C181" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D181" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-10199244793.2351</v>
+        <v>25600249.100624766</v>
       </c>
       <c r="E181" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>9493589793.2350998</v>
+        <v>-2418249.1944937827</v>
       </c>
       <c r="F181" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>105051018687.31943</v>
+        <v>-170621247.31221372</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -7694,23 +7694,23 @@
       </c>
       <c r="B182" s="38">
         <f t="shared" si="12"/>
-        <v>54573</v>
+        <v>43860</v>
       </c>
       <c r="C182" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D182" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-11220073843.579323</v>
+        <v>26027137.499752328</v>
       </c>
       <c r="E182" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>10514418843.579323</v>
+        <v>-2845137.5936213434</v>
       </c>
       <c r="F182" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>116271092530.89874</v>
+        <v>-196648384.81196606</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -7719,23 +7719,23 @@
       </c>
       <c r="B183" s="38">
         <f t="shared" si="12"/>
-        <v>54938</v>
+        <v>43890</v>
       </c>
       <c r="C183" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D183" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-12343076336.28644</v>
+        <v>26461144.333727665</v>
       </c>
       <c r="E183" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>11637421336.28644</v>
+        <v>-3279144.4275966822</v>
       </c>
       <c r="F183" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>128614168867.18518</v>
+        <v>-223109529.14569372</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -7744,23 +7744,23 @@
       </c>
       <c r="B184" s="38">
         <f t="shared" si="12"/>
-        <v>55303</v>
+        <v>43920</v>
       </c>
       <c r="C184" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D184" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-13578478677.35535</v>
+        <v>26902388.303632345</v>
       </c>
       <c r="E184" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>12872823677.35535</v>
+        <v>-3720388.3975013597</v>
       </c>
       <c r="F184" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>142192647544.54053</v>
+        <v>-250011917.44932607</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -7769,23 +7769,23 @@
       </c>
       <c r="B185" s="38">
         <f t="shared" si="12"/>
-        <v>55669</v>
+        <v>43951</v>
       </c>
       <c r="C185" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D185" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-14937530820.364779</v>
+        <v>27350990.089908142</v>
       </c>
       <c r="E185" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>14231875820.364779</v>
+        <v>-4168990.1837771563</v>
       </c>
       <c r="F185" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>157130178364.9053</v>
+        <v>-277362907.53923422</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -7794,23 +7794,23 @@
       </c>
       <c r="B186" s="38">
         <f t="shared" si="12"/>
-        <v>56034</v>
+        <v>43981</v>
       </c>
       <c r="C186" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D186" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-16432608712.009716</v>
+        <v>27807072.385363214</v>
       </c>
       <c r="E186" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>15726953712.009716</v>
+        <v>-4625072.4792322312</v>
       </c>
       <c r="F186" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>173562787076.91501</v>
+        <v>-305169979.92459744</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -7819,23 +7819,23 @@
       </c>
       <c r="B187" s="38">
         <f t="shared" si="12"/>
-        <v>56399</v>
+        <v>44012</v>
       </c>
       <c r="C187" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D187" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-18077326991.277355</v>
+        <v>28270759.928728651</v>
       </c>
       <c r="E187" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>17371671991.277355</v>
+        <v>-5088760.0225976668</v>
       </c>
       <c r="F187" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>191640114068.19235</v>
+        <v>-333440739.85332608</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -7844,23 +7844,23 @@
       </c>
       <c r="B188" s="38">
         <f t="shared" si="12"/>
-        <v>56764</v>
+        <v>44042</v>
       </c>
       <c r="C188" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D188" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-19886662968.535946</v>
+        <v>28742179.538774557</v>
       </c>
       <c r="E188" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>19181007968.535946</v>
+        <v>-5560179.6326435721</v>
       </c>
       <c r="F188" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>211526777036.7283</v>
+        <v>-362182919.39210063</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -7869,23 +7869,23 @@
       </c>
       <c r="B189" s="38">
         <f t="shared" si="12"/>
-        <v>57130</v>
+        <v>44073</v>
       </c>
       <c r="C189" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D189" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-21877093013.528221</v>
+        <v>29221460.148995064</v>
       </c>
       <c r="E189" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>21171438013.528221</v>
+        <v>-6039460.2428640779</v>
       </c>
       <c r="F189" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>233403870050.25653</v>
+        <v>-391404379.54109567</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -7894,23 +7894,23 @@
       </c>
       <c r="B190" s="38">
         <f t="shared" si="12"/>
-        <v>57495</v>
+        <v>44104</v>
       </c>
       <c r="C190" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D190" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-24066742594.26041</v>
+        <v>29708732.842871696</v>
       </c>
       <c r="E190" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>23361087594.26041</v>
+        <v>-6526732.9367407113</v>
       </c>
       <c r="F190" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>257470612644.51694</v>
+        <v>-421113112.3839674</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -7919,23 +7919,23 @@
       </c>
       <c r="B191" s="38">
         <f t="shared" si="12"/>
-        <v>57860</v>
+        <v>44134</v>
       </c>
       <c r="C191" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D191" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-26475551333.087139</v>
+        <v>30204130.88972478</v>
       </c>
       <c r="E191" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>25769896333.087139</v>
+        <v>-7022130.9835937945</v>
       </c>
       <c r="F191" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>283946163977.60406</v>
+        <v>-451317243.27369219</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -7944,23 +7944,23 @@
       </c>
       <c r="B192" s="38">
         <f t="shared" si="12"/>
-        <v>58225</v>
+        <v>44165</v>
       </c>
       <c r="C192" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D192" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-29125454583.043583</v>
+        <v>30707789.781162646</v>
       </c>
       <c r="E192" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>28419799583.043583</v>
+        <v>-7525789.8750316612</v>
       </c>
       <c r="F192" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>313071618560.64764</v>
+        <v>-482025033.05485481</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -7969,23 +7969,23 @@
       </c>
       <c r="B193" s="38">
         <f t="shared" si="12"/>
-        <v>58591</v>
+        <v>44195</v>
       </c>
       <c r="C193" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D193" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-32040583177.914909</v>
+        <v>31219847.268138669</v>
       </c>
       <c r="E193" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>31334928177.914909</v>
+        <v>-8037847.3620076869</v>
       </c>
       <c r="F193" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>345112201738.56256</v>
+        <v>-513244880.32299346</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -7994,23 +7994,23 @@
       </c>
       <c r="B194" s="38">
         <f t="shared" si="12"/>
-        <v>58956</v>
+        <v>44226</v>
       </c>
       <c r="C194" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D194" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-35247483175.02845</v>
+        <v>31740443.398626223</v>
       </c>
       <c r="E194" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>34541828175.02845</v>
+        <v>-8558443.4924952369</v>
       </c>
       <c r="F194" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>380359684913.591</v>
+        <v>-544985323.72161973</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -8019,23 +8019,23 @@
       </c>
       <c r="B195" s="38">
         <f t="shared" si="12"/>
-        <v>59321</v>
+        <v>44255</v>
       </c>
       <c r="C195" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D195" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-38775357591.814087</v>
+        <v>32269720.555921845</v>
       </c>
       <c r="E195" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>38069702591.814087</v>
+        <v>-9087720.6497908607</v>
       </c>
       <c r="F195" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>419135042505.40509</v>
+        <v>-577255044.27754152</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -8044,23 +8044,23 @@
       </c>
       <c r="B196" s="38">
         <f t="shared" si="12"/>
-        <v>59686</v>
+        <v>44285</v>
       </c>
       <c r="C196" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D196" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-42656332337.46032</v>
+        <v>32807823.497587167</v>
       </c>
       <c r="E196" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>41950677337.46032</v>
+        <v>-9625823.5914561823</v>
       </c>
       <c r="F196" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>461791374842.86542</v>
+        <v>-610062867.77512872</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -8069,23 +8069,23 @@
       </c>
       <c r="B197" s="38">
         <f t="shared" si="12"/>
-        <v>60052</v>
+        <v>44316</v>
       </c>
       <c r="C197" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D197" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-46925748761.321358</v>
+        <v>33354899.395040162</v>
       </c>
       <c r="E197" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>46220093761.321358</v>
+        <v>-10172899.488909179</v>
       </c>
       <c r="F197" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>508717123604.18677</v>
+        <v>-643417767.17016888</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -8094,23 +8094,23 @@
       </c>
       <c r="B198" s="38">
         <f t="shared" si="12"/>
-        <v>60417</v>
+        <v>44346</v>
       </c>
       <c r="C198" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D198" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-51622485482.111137</v>
+        <v>33911097.873806611</v>
       </c>
       <c r="E198" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>50916830482.111137</v>
+        <v>-10729097.967675623</v>
       </c>
       <c r="F198" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>560339609086.29785</v>
+        <v>-677328865.04397547</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -8119,23 +8119,23 @@
       </c>
       <c r="B199" s="38">
         <f t="shared" si="12"/>
-        <v>60782</v>
+        <v>44377</v>
       </c>
       <c r="C199" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D199" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-56789312428.559654</v>
+        <v>34476571.054442734</v>
       </c>
       <c r="E199" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>56083657428.559654</v>
+        <v>-11294571.148311745</v>
       </c>
       <c r="F199" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>617128921514.85754</v>
+        <v>-711805436.09841824</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -8144,23 +8144,23 @@
       </c>
       <c r="B200" s="38">
         <f t="shared" si="12"/>
-        <v>61147</v>
+        <v>44407</v>
       </c>
       <c r="C200" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D200" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-62473280315.534912</v>
+        <v>35051473.594140261</v>
       </c>
       <c r="E200" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>61767625315.534912</v>
+        <v>-11869473.688009279</v>
       </c>
       <c r="F200" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>679602201830.39246</v>
+        <v>-746856909.69255853</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -8169,23 +8169,23 @@
       </c>
       <c r="B201" s="38">
         <f t="shared" si="12"/>
-        <v>61513</v>
+        <v>44438</v>
       </c>
       <c r="C201" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D201" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-68726149102.319595</v>
+        <v>35635962.72902526</v>
       </c>
       <c r="E201" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>68020494102.319588</v>
+        <v>-12453962.822894271</v>
       </c>
       <c r="F201" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>748328350932.71204</v>
+        <v>-782492872.42158377</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -8194,23 +8194,23 @@
       </c>
       <c r="B202" s="38">
         <f t="shared" si="12"/>
-        <v>61878</v>
+        <v>44469</v>
       </c>
       <c r="C202" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D202" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-75604859334.715439</v>
+        <v>36230198.317162238</v>
       </c>
       <c r="E202" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>74899204334.715439</v>
+        <v>-13048198.411031254</v>
       </c>
       <c r="F202" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>823933210267.42749</v>
+        <v>-818723070.73874605</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -8219,23 +8219,23 @@
       </c>
       <c r="B203" s="38">
         <f t="shared" si="12"/>
-        <v>62243</v>
+        <v>44499</v>
       </c>
       <c r="C203" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D203" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-83172050663.161377</v>
+        <v>36834342.882275477</v>
       </c>
       <c r="E203" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>82466395663.161377</v>
+        <v>-13652342.976144489</v>
       </c>
       <c r="F203" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>907105260930.58887</v>
+        <v>-855557413.62102151</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -8244,23 +8244,23 @@
       </c>
       <c r="B204" s="38">
         <f t="shared" si="12"/>
-        <v>62608</v>
+        <v>44530</v>
       </c>
       <c r="C204" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D204" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-91496632258.650833</v>
+        <v>37448561.658199281</v>
       </c>
       <c r="E204" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>90790977258.650833</v>
+        <v>-14266561.752068294</v>
       </c>
       <c r="F204" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>998601893189.23975</v>
+        <v>-893005975.27922082</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -8269,23 +8269,23 @@
       </c>
       <c r="B205" s="38">
         <f t="shared" si="12"/>
-        <v>62974</v>
+        <v>44560</v>
       </c>
       <c r="C205" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D205" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-100654410320.83093</v>
+        <v>38073022.634069562</v>
       </c>
       <c r="E205" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>99948755320.830933</v>
+        <v>-14891022.727938576</v>
       </c>
       <c r="F205" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>1099256303510.0707</v>
+        <v>-931078997.91329038</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -8294,23 +8294,23 @@
       </c>
       <c r="B206" s="38">
         <f t="shared" si="12"/>
-        <v>63339</v>
+        <v>44591</v>
       </c>
       <c r="C206" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D206" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-110728778392.56538</v>
+        <v>38707896.600268923</v>
       </c>
       <c r="E206" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>110023123392.56538</v>
+        <v>-15525896.69413794</v>
       </c>
       <c r="F206" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>1209985081902.636</v>
+        <v>-969786894.51355934</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -8319,23 +8319,23 @@
       </c>
       <c r="B207" s="38">
         <f t="shared" si="12"/>
-        <v>63704</v>
+        <v>44620</v>
       </c>
       <c r="C207" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D207" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-121811476767.17755</v>
+        <v>39353357.195137933</v>
       </c>
       <c r="E207" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>121105821767.17755</v>
+        <v>-16171357.289006945</v>
       </c>
       <c r="F207" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>1331796558669.8135</v>
+        <v>-1009140251.7086973</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -8344,23 +8344,23 @@
       </c>
       <c r="B208" s="38">
         <f t="shared" si="12"/>
-        <v>64069</v>
+        <v>44650</v>
       </c>
       <c r="C208" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D208" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-134003427903.76979</v>
+        <v>40009580.952465251</v>
       </c>
       <c r="E208" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>133297772903.76979</v>
+        <v>-16827581.04633427</v>
       </c>
       <c r="F208" s="37">
         <f t="shared" ca="1" si="17"/>
-        <v>1465799986573.5833</v>
+        <v>-1049149832.6611626</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -8369,23 +8369,23 @@
       </c>
       <c r="B209" s="38">
         <f t="shared" si="12"/>
-        <v>64435</v>
+        <v>44681</v>
       </c>
       <c r="C209" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D209" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-147415655458.16754</v>
+        <v>40676747.349769786</v>
       </c>
       <c r="E209" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>146710000458.16754</v>
+        <v>-17494747.443638805</v>
       </c>
       <c r="F209" s="37">
         <f t="shared" ca="1" si="17"/>
-        <v>1613215642031.7507</v>
+        <v>-1089826580.0109324</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -8394,23 +8394,23 @@
       </c>
       <c r="B210" s="38">
         <f t="shared" si="12"/>
-        <v>64800</v>
+        <v>44711</v>
       </c>
       <c r="C210" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>-705655000.00000012</v>
+        <v>23181999.906130984</v>
       </c>
       <c r="D210" s="103">
         <f t="shared" ca="1" si="14"/>
-        <v>-162170295298.46689</v>
+        <v>41355038.857387803</v>
       </c>
       <c r="E210" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>161464640298.46689</v>
+        <v>-18173038.951256819</v>
       </c>
       <c r="F210" s="37">
         <f t="shared" ca="1" si="17"/>
-        <v>1775385937330.2175</v>
+        <v>-1131181618.8683202</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -8433,7 +8433,7 @@
       </c>
       <c r="E213" s="44">
         <f ca="1">SUM(E217:INDIRECT(CONCATENATE("E",216+B10)))</f>
-        <v>148325241.54291302</v>
+        <v>107791608.77312981</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -8442,14 +8442,14 @@
       </c>
       <c r="B214" s="94">
         <f ca="1">PMT(B9,B10-B212,-INDIRECT(CONCATENATE("F",216+B212)),0,0)</f>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D214" s="79" t="s">
         <v>70</v>
       </c>
       <c r="E214" s="44">
         <f ca="1">F216+E213</f>
-        <v>853980241.54291296</v>
+        <v>531791608.77312982</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="F216" s="39">
         <f>$B$3</f>
-        <v>705655000</v>
+        <v>424000000</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -8489,7 +8489,7 @@
       </c>
       <c r="B217" s="38">
         <f t="shared" ref="B217:B276" si="18">EDATE($B$7,$B$6*A217)</f>
-        <v>43250</v>
+        <v>42916</v>
       </c>
       <c r="C217" s="37">
         <f>IF($B$212&gt;=$A217,0,$B$214)</f>
@@ -8497,15 +8497,15 @@
       </c>
       <c r="D217" s="37">
         <f t="shared" ref="D217:D276" si="19">C217-E217</f>
-        <v>-70628084.541950002</v>
+        <v>-7070270.3133333344</v>
       </c>
       <c r="E217" s="37">
         <f t="shared" ref="E217:E276" si="20">F216*$B$9</f>
-        <v>70628084.541950002</v>
+        <v>7070270.3133333344</v>
       </c>
       <c r="F217" s="37">
         <f t="shared" ref="F217:F228" si="21">F216-D217</f>
-        <v>776283084.54194999</v>
+        <v>431070270.31333333</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -8514,7 +8514,7 @@
       </c>
       <c r="B218" s="38">
         <f t="shared" si="18"/>
-        <v>43615</v>
+        <v>42946</v>
       </c>
       <c r="C218" s="37">
         <f t="shared" ref="C218:C276" si="22">IF($B$212&gt;=$A218,0,$B$214)</f>
@@ -8522,15 +8522,15 @@
       </c>
       <c r="D218" s="37">
         <f t="shared" si="19"/>
-        <v>-77697157.000963032</v>
+        <v>-7188168.2432946609</v>
       </c>
       <c r="E218" s="37">
         <f t="shared" si="20"/>
-        <v>77697157.000963032</v>
+        <v>7188168.2432946609</v>
       </c>
       <c r="F218" s="37">
         <f t="shared" si="21"/>
-        <v>853980241.54291296</v>
+        <v>438258438.55662799</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -8539,7 +8539,7 @@
       </c>
       <c r="B219" s="38">
         <f t="shared" si="18"/>
-        <v>43981</v>
+        <v>42977</v>
       </c>
       <c r="C219" s="37">
         <f t="shared" si="22"/>
@@ -8547,15 +8547,15 @@
       </c>
       <c r="D219" s="37">
         <f t="shared" si="19"/>
-        <v>-85473763.661913738</v>
+        <v>-7308032.1407894995</v>
       </c>
       <c r="E219" s="37">
         <f t="shared" si="20"/>
-        <v>85473763.661913738</v>
+        <v>7308032.1407894995</v>
       </c>
       <c r="F219" s="37">
         <f t="shared" si="21"/>
-        <v>939454005.20482671</v>
+        <v>445566470.6974175</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -8564,23 +8564,23 @@
       </c>
       <c r="B220" s="38">
         <f t="shared" si="18"/>
-        <v>44346</v>
+        <v>43008</v>
       </c>
       <c r="C220" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D220" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-1033482725.901031</v>
+        <v>17893515.152925119</v>
       </c>
       <c r="E220" s="37">
         <f t="shared" si="20"/>
-        <v>94028720.69620429</v>
+        <v>7429894.7886524945</v>
       </c>
       <c r="F220" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>1972936731.1058578</v>
+        <v>427672955.54449236</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -8589,23 +8589,23 @@
       </c>
       <c r="B221" s="38">
         <f t="shared" si="18"/>
-        <v>44711</v>
+        <v>43038</v>
       </c>
       <c r="C221" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D221" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-1136922658.0740943</v>
+        <v>18191892.485441409</v>
       </c>
       <c r="E221" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>197468652.86926758</v>
+        <v>7131517.4561362052</v>
       </c>
       <c r="F221" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>3109859389.1799521</v>
+        <v>409481063.05905098</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -8614,23 +8614,23 @@
       </c>
       <c r="B222" s="38">
         <f t="shared" si="18"/>
-        <v>45076</v>
+        <v>43069</v>
       </c>
       <c r="C222" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D222" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-1250715757.5520482</v>
+        <v>18495245.309458315</v>
       </c>
       <c r="E222" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>311261752.34722161</v>
+        <v>6828164.6321192998</v>
       </c>
       <c r="F222" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>4360575146.7320004</v>
+        <v>390985817.74959266</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -8639,23 +8639,23 @@
       </c>
       <c r="B223" s="38">
         <f t="shared" si="18"/>
-        <v>45442</v>
+        <v>43099</v>
       </c>
       <c r="C223" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D223" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-1375898259.2877903</v>
+        <v>18803656.592121713</v>
       </c>
       <c r="E223" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>436444254.08296371</v>
+        <v>6519753.3494559014</v>
       </c>
       <c r="F223" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>5736473406.0197906</v>
+        <v>372182161.15747094</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -8664,23 +8664,23 @@
       </c>
       <c r="B224" s="38">
         <f t="shared" si="18"/>
-        <v>45807</v>
+        <v>43130</v>
       </c>
       <c r="C224" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D224" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-1513610113.6331859</v>
+        <v>19117210.684068393</v>
       </c>
       <c r="E224" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>574156108.42835903</v>
+        <v>6206199.2575092204</v>
       </c>
       <c r="F224" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>7250083519.652977</v>
+        <v>353064950.47340256</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -8689,23 +8689,23 @@
       </c>
       <c r="B225" s="38">
         <f t="shared" si="18"/>
-        <v>46172</v>
+        <v>43159</v>
       </c>
       <c r="C225" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D225" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-1665105367.0774825</v>
+        <v>19435993.342496004</v>
       </c>
       <c r="E225" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>725651361.87265575</v>
+        <v>5887416.5990816085</v>
       </c>
       <c r="F225" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>8915188886.7304592</v>
+        <v>333628957.13090658</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -8714,23 +8714,23 @@
       </c>
       <c r="B226" s="38">
         <f t="shared" si="18"/>
-        <v>46537</v>
+        <v>43189</v>
       </c>
       <c r="C226" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D226" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-1831763581.980237</v>
+        <v>19760091.754617687</v>
       </c>
       <c r="E226" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>892309576.77541018</v>
+        <v>5563318.1869599251</v>
       </c>
       <c r="F226" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>10746952468.710697</v>
+        <v>313868865.37628889</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -8739,23 +8739,23 @@
       </c>
       <c r="B227" s="38">
         <f t="shared" si="18"/>
-        <v>46903</v>
+        <v>43220</v>
       </c>
       <c r="C227" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D227" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-2015102399.2903466</v>
+        <v>20089594.561507821</v>
       </c>
       <c r="E227" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1075648394.0855198</v>
+        <v>5233815.3800697923</v>
       </c>
       <c r="F227" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>12762054868.001043</v>
+        <v>293779270.81478107</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -8764,23 +8764,23 @@
       </c>
       <c r="B228" s="38">
         <f t="shared" si="18"/>
-        <v>47268</v>
+        <v>43250</v>
       </c>
       <c r="C228" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D228" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-2216791358.6511741</v>
+        <v>20424591.882345393</v>
       </c>
       <c r="E228" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1277337353.4463475</v>
+        <v>4898818.0592322182</v>
       </c>
       <c r="F228" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>14978846226.652218</v>
+        <v>273354678.93243569</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -8789,23 +8789,23 @@
       </c>
       <c r="B229" s="38">
         <f t="shared" si="18"/>
-        <v>47633</v>
+        <v>43281</v>
       </c>
       <c r="C229" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D229" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-2438667101.7418904</v>
+        <v>20765175.339061659</v>
       </c>
       <c r="E229" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1499213096.5370636</v>
+        <v>4558234.6025159555</v>
       </c>
       <c r="F229" s="37">
         <f t="shared" ref="F229:F276" ca="1" si="23">F228-D229</f>
-        <v>17417513328.394108</v>
+        <v>252589503.59337404</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -8814,23 +8814,23 @@
       </c>
       <c r="B230" s="38">
         <f t="shared" si="18"/>
-        <v>47998</v>
+        <v>43311</v>
       </c>
       <c r="C230" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D230" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-2682750097.301333</v>
+        <v>21111438.081398755</v>
       </c>
       <c r="E230" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1743296092.0965061</v>
+        <v>4211971.860178859</v>
       </c>
       <c r="F230" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>20100263425.695442</v>
+        <v>231478065.51197529</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -8839,23 +8839,23 @@
       </c>
       <c r="B231" s="38">
         <f t="shared" si="18"/>
-        <v>48364</v>
+        <v>43342</v>
       </c>
       <c r="C231" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D231" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-2951263040.1375961</v>
+        <v>21463474.81238623</v>
       </c>
       <c r="E231" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2011809034.9327693</v>
+        <v>3859935.1291913856</v>
       </c>
       <c r="F231" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>23051526465.833038</v>
+        <v>210014590.69958907</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -8864,23 +8864,23 @@
       </c>
       <c r="B232" s="38">
         <f t="shared" si="18"/>
-        <v>48729</v>
+        <v>43373</v>
       </c>
       <c r="C232" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D232" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-3246651091.6703854</v>
+        <v>21821381.814242341</v>
       </c>
       <c r="E232" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2307197086.4655585</v>
+        <v>3502028.1273352727</v>
       </c>
       <c r="F232" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>26298177557.503426</v>
+        <v>188193208.88534674</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -8889,23 +8889,23 @@
       </c>
       <c r="B233" s="38">
         <f t="shared" si="18"/>
-        <v>49094</v>
+        <v>43403</v>
       </c>
       <c r="C233" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D233" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-3571604146.3227444</v>
+        <v>22185256.974707317</v>
       </c>
       <c r="E233" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2632150141.1179175</v>
+        <v>3138152.9668702972</v>
       </c>
       <c r="F233" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>29869781703.826172</v>
+        <v>166007951.91063944</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -8914,23 +8914,23 @@
       </c>
       <c r="B234" s="38">
         <f t="shared" si="18"/>
-        <v>49459</v>
+        <v>43434</v>
       </c>
       <c r="C234" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D234" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-3929081326.5267568</v>
+        <v>22555199.813815676</v>
       </c>
       <c r="E234" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2989627321.3219299</v>
+        <v>2768210.1277619381</v>
       </c>
       <c r="F234" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>33798863030.352928</v>
+        <v>143452752.09682375</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -8939,23 +8939,23 @@
       </c>
       <c r="B235" s="38">
         <f t="shared" si="18"/>
-        <v>49825</v>
+        <v>43464</v>
       </c>
       <c r="C235" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D235" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-4322337929.4022818</v>
+        <v>22931311.511115022</v>
       </c>
       <c r="E235" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>3382883924.1974549</v>
+        <v>2392098.4304625923</v>
       </c>
       <c r="F235" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>38121200959.755211</v>
+        <v>120521440.58570874</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -8964,23 +8964,23 @@
       </c>
       <c r="B236" s="38">
         <f t="shared" si="18"/>
-        <v>50190</v>
+        <v>43495</v>
       </c>
       <c r="C236" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D236" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-4754955070.4934683</v>
+        <v>23313694.933338691</v>
       </c>
       <c r="E236" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>3815501065.2886419</v>
+        <v>2009715.008238924</v>
       </c>
       <c r="F236" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>42876156030.24868</v>
+        <v>97207745.652370051</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -8989,23 +8989,23 @@
       </c>
       <c r="B237" s="38">
         <f t="shared" si="18"/>
-        <v>50555</v>
+        <v>43524</v>
       </c>
       <c r="C237" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D237" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-5230872294.5080175</v>
+        <v>23702454.662539855</v>
       </c>
       <c r="E237" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>4291418289.3031912</v>
+        <v>1620955.279037758</v>
       </c>
       <c r="F237" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>48107028324.756699</v>
+        <v>73505290.989830196</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -9014,23 +9014,23 @@
       </c>
       <c r="B238" s="38">
         <f t="shared" si="18"/>
-        <v>50920</v>
+        <v>43554</v>
       </c>
       <c r="C238" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D238" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-5754423450.0226192</v>
+        <v>24097697.024694771</v>
       </c>
       <c r="E238" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>4814969444.8177929</v>
+        <v>1225712.9168828411</v>
       </c>
       <c r="F238" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>53861451774.77932</v>
+        <v>49407593.965135425</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -9039,23 +9039,23 @@
       </c>
       <c r="B239" s="38">
         <f t="shared" si="18"/>
-        <v>51286</v>
+        <v>43585</v>
       </c>
       <c r="C239" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D239" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-6330376154.8406639</v>
+        <v>24499530.118782982</v>
       </c>
       <c r="E239" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>5390922149.6358376</v>
+        <v>823879.82279463252</v>
       </c>
       <c r="F239" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>60191827929.61998</v>
+        <v>24908063.846352443</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -9064,23 +9064,23 @@
       </c>
       <c r="B240" s="38">
         <f t="shared" si="18"/>
-        <v>51651</v>
+        <v>43615</v>
       </c>
       <c r="C240" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D240" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-6963975211.3859024</v>
+        <v>24908063.846352432</v>
       </c>
       <c r="E240" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>6024521206.181076</v>
+        <v>415346.09522518155</v>
       </c>
       <c r="F240" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>67155803141.005882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -9089,23 +9089,23 @@
       </c>
       <c r="B241" s="38">
         <f t="shared" si="18"/>
-        <v>52016</v>
+        <v>43646</v>
       </c>
       <c r="C241" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D241" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-7660990367.4859905</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="E241" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>6721536362.2811642</v>
+        <v>0</v>
       </c>
       <c r="F241" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>74816793508.491867</v>
+        <v>-25323409.941577613</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -9114,23 +9114,23 @@
       </c>
       <c r="B242" s="38">
         <f t="shared" si="18"/>
-        <v>52381</v>
+        <v>43676</v>
       </c>
       <c r="C242" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D242" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-8427768857.4702816</v>
+        <v>25745682.001818903</v>
       </c>
       <c r="E242" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>7488314852.2654552</v>
+        <v>-422272.06024128874</v>
       </c>
       <c r="F242" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>83244562365.962143</v>
+        <v>-51069091.943396516</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -9139,23 +9139,23 @@
       </c>
       <c r="B243" s="38">
         <f t="shared" si="18"/>
-        <v>52747</v>
+        <v>43707</v>
       </c>
       <c r="C243" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D243" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-9271293202.0372791</v>
+        <v>26174995.518691499</v>
       </c>
       <c r="E243" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>8331839196.8324518</v>
+        <v>-851585.57711388427</v>
       </c>
       <c r="F243" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>92515855567.99942</v>
+        <v>-77244087.462088019</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -9164,23 +9164,23 @@
       </c>
       <c r="B244" s="38">
         <f t="shared" si="18"/>
-        <v>53112</v>
+        <v>43738</v>
       </c>
       <c r="C244" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D244" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-10199244793.235094</v>
+        <v>26611467.909652434</v>
       </c>
       <c r="E244" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>9259790788.0302677</v>
+        <v>-1288057.9680748219</v>
       </c>
       <c r="F244" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>102715100361.23451</v>
+        <v>-103855555.37174046</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -9189,23 +9189,23 @@
       </c>
       <c r="B245" s="38">
         <f t="shared" si="18"/>
-        <v>53477</v>
+        <v>43768</v>
       </c>
       <c r="C245" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D245" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-11220073843.579317</v>
+        <v>27055218.550114319</v>
       </c>
       <c r="E245" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>10280619838.374491</v>
+        <v>-1731808.6085367049</v>
       </c>
       <c r="F245" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>113935174204.81383</v>
+        <v>-130910773.92185478</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -9214,23 +9214,23 @@
       </c>
       <c r="B246" s="38">
         <f t="shared" si="18"/>
-        <v>53842</v>
+        <v>43799</v>
       </c>
       <c r="C246" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D246" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-12343076336.286434</v>
+        <v>27506368.80609455</v>
       </c>
       <c r="E246" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>11403622331.081608</v>
+        <v>-2182958.8645169372</v>
       </c>
       <c r="F246" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>126278250541.10027</v>
+        <v>-158417142.72794932</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -9239,23 +9239,23 @@
       </c>
       <c r="B247" s="38">
         <f t="shared" si="18"/>
-        <v>54208</v>
+        <v>43829</v>
       </c>
       <c r="C247" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D247" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-13578478677.355345</v>
+        <v>27965042.067409005</v>
       </c>
       <c r="E247" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>12639024672.150518</v>
+        <v>-2641632.1258313907</v>
       </c>
       <c r="F247" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>139856729218.4556</v>
+        <v>-186382184.79535833</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -9264,23 +9264,23 @@
       </c>
       <c r="B248" s="38">
         <f t="shared" si="18"/>
-        <v>54573</v>
+        <v>43860</v>
       </c>
       <c r="C248" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D248" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-14937530820.364773</v>
+        <v>28431363.781419192</v>
       </c>
       <c r="E248" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>13998076815.159946</v>
+        <v>-3107953.8398415791</v>
       </c>
       <c r="F248" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>154794260038.82037</v>
+        <v>-214813548.57677752</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -9289,23 +9289,23 @@
       </c>
       <c r="B249" s="38">
         <f t="shared" si="18"/>
-        <v>54938</v>
+        <v>43890</v>
       </c>
       <c r="C249" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D249" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-16432608712.009708</v>
+        <v>28905461.487342186</v>
       </c>
       <c r="E249" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>15493154706.804882</v>
+        <v>-3582051.5457645711</v>
       </c>
       <c r="F249" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>171226868750.83008</v>
+        <v>-243719010.0641197</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -9314,23 +9314,23 @@
       </c>
       <c r="B250" s="38">
         <f t="shared" si="18"/>
-        <v>55303</v>
+        <v>43920</v>
       </c>
       <c r="C250" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D250" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-18077326991.277348</v>
+        <v>29387464.851132646</v>
       </c>
       <c r="E250" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>17137872986.072521</v>
+        <v>-4064054.9095550319</v>
       </c>
       <c r="F250" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>189304195742.10742</v>
+        <v>-273106474.91525233</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -9339,23 +9339,23 @@
       </c>
       <c r="B251" s="38">
         <f t="shared" si="18"/>
-        <v>55669</v>
+        <v>43951</v>
       </c>
       <c r="C251" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D251" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-19886662968.535938</v>
+        <v>29877505.700946536</v>
       </c>
       <c r="E251" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>18947208963.331112</v>
+        <v>-4554095.7593689235</v>
       </c>
       <c r="F251" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>209190858710.64337</v>
+        <v>-302983980.61619884</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -9364,23 +9364,23 @@
       </c>
       <c r="B252" s="38">
         <f t="shared" si="18"/>
-        <v>56034</v>
+        <v>43981</v>
       </c>
       <c r="C252" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D252" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-21877093013.528214</v>
+        <v>30375718.063196182</v>
       </c>
       <c r="E252" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>20937639008.323387</v>
+        <v>-5052308.121618568</v>
       </c>
       <c r="F252" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>231067951724.17157</v>
+        <v>-333359698.67939502</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -9389,23 +9389,23 @@
       </c>
       <c r="B253" s="38">
         <f t="shared" si="18"/>
-        <v>56399</v>
+        <v>44012</v>
       </c>
       <c r="C253" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D253" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-24066742594.260403</v>
+        <v>30882238.199206557</v>
       </c>
       <c r="E253" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>23127288589.055576</v>
+        <v>-5558828.2576289438</v>
       </c>
       <c r="F253" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>255134694318.43198</v>
+        <v>-364241936.87860155</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -9414,23 +9414,23 @@
       </c>
       <c r="B254" s="38">
         <f t="shared" si="18"/>
-        <v>56764</v>
+        <v>44042</v>
       </c>
       <c r="C254" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D254" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-26475551333.087128</v>
+        <v>31397204.642482828</v>
       </c>
       <c r="E254" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>25536097327.882301</v>
+        <v>-6073794.7009052141</v>
       </c>
       <c r="F254" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>281610245651.5191</v>
+        <v>-395639141.52108437</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -9439,23 +9439,23 @@
       </c>
       <c r="B255" s="38">
         <f t="shared" si="18"/>
-        <v>57130</v>
+        <v>44073</v>
       </c>
       <c r="C255" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D255" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-29125454583.043571</v>
+        <v>31920758.236599334</v>
       </c>
       <c r="E255" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>28186000577.838745</v>
+        <v>-6597348.2950217184</v>
       </c>
       <c r="F255" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>310735700234.56268</v>
+        <v>-427559899.75768369</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -9464,23 +9464,23 @@
       </c>
       <c r="B256" s="38">
         <f t="shared" si="18"/>
-        <v>57495</v>
+        <v>44104</v>
       </c>
       <c r="C256" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D256" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-32040583177.914902</v>
+        <v>32453042.173720367</v>
       </c>
       <c r="E256" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>31101129172.710075</v>
+        <v>-7129632.232142753</v>
       </c>
       <c r="F256" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>342776283412.4776</v>
+        <v>-460012941.93140405</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -9489,23 +9489,23 @@
       </c>
       <c r="B257" s="38">
         <f t="shared" si="18"/>
-        <v>57860</v>
+        <v>44134</v>
       </c>
       <c r="C257" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D257" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-35247483175.028442</v>
+        <v>32994202.033763312</v>
       </c>
       <c r="E257" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>34308029169.823616</v>
+        <v>-7670792.0921857003</v>
       </c>
       <c r="F257" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>378023766587.50604</v>
+        <v>-493007143.96516734</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -9514,23 +9514,23 @@
       </c>
       <c r="B258" s="38">
         <f t="shared" si="18"/>
-        <v>58225</v>
+        <v>44165</v>
       </c>
       <c r="C258" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D258" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-38775357591.814079</v>
+        <v>33544385.82421482</v>
       </c>
       <c r="E258" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>37835903586.609253</v>
+        <v>-8220975.8826372074</v>
       </c>
       <c r="F258" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>416799124179.32013</v>
+        <v>-526551529.78938216</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -9539,23 +9539,23 @@
       </c>
       <c r="B259" s="38">
         <f t="shared" si="18"/>
-        <v>58591</v>
+        <v>44195</v>
       </c>
       <c r="C259" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D259" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-42656332337.460304</v>
+        <v>34103744.020610921</v>
       </c>
       <c r="E259" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>41716878332.255478</v>
+        <v>-8780334.0790333059</v>
       </c>
       <c r="F259" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>459455456516.78046</v>
+        <v>-560655273.80999303</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -9564,23 +9564,23 @@
       </c>
       <c r="B260" s="38">
         <f t="shared" si="18"/>
-        <v>58956</v>
+        <v>44226</v>
       </c>
       <c r="C260" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D260" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-46925748761.32135</v>
+        <v>34672429.607692152</v>
       </c>
       <c r="E260" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>45986294756.116524</v>
+        <v>-9349019.6661145408</v>
       </c>
       <c r="F260" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>506381205278.10181</v>
+        <v>-595327703.41768515</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -9589,23 +9589,23 @@
       </c>
       <c r="B261" s="38">
         <f t="shared" si="18"/>
-        <v>59321</v>
+        <v>44255</v>
       </c>
       <c r="C261" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D261" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-51622485482.111122</v>
+        <v>35250598.121244997</v>
       </c>
       <c r="E261" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>50683031476.906296</v>
+        <v>-9927188.1796673853</v>
       </c>
       <c r="F261" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>558003690760.21289</v>
+        <v>-630578301.53893018</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -9614,23 +9614,23 @@
       </c>
       <c r="B262" s="38">
         <f t="shared" si="18"/>
-        <v>59686</v>
+        <v>44285</v>
       </c>
       <c r="C262" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D262" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-56789312428.559647</v>
+        <v>35838407.690640949</v>
       </c>
       <c r="E262" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>55849858423.35482</v>
+        <v>-10514997.749063333</v>
       </c>
       <c r="F262" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>614793003188.77258</v>
+        <v>-666416709.2295711</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -9639,23 +9639,23 @@
       </c>
       <c r="B263" s="38">
         <f t="shared" si="18"/>
-        <v>60052</v>
+        <v>44316</v>
       </c>
       <c r="C263" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D263" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-62473280315.534904</v>
+        <v>36436019.082084991</v>
       </c>
       <c r="E263" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>61533826310.330078</v>
+        <v>-11112609.14050738</v>
       </c>
       <c r="F263" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>677266283504.3075</v>
+        <v>-702852728.31165612</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -9664,23 +9664,23 @@
       </c>
       <c r="B264" s="38">
         <f t="shared" si="18"/>
-        <v>60417</v>
+        <v>44346</v>
       </c>
       <c r="C264" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D264" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-68726149102.31958</v>
+        <v>37043595.742585257</v>
       </c>
       <c r="E264" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>67786695097.114754</v>
+        <v>-11720185.801007645</v>
       </c>
       <c r="F264" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>745992432606.62708</v>
+        <v>-739896324.05424142</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -9689,23 +9689,23 @@
       </c>
       <c r="B265" s="38">
         <f t="shared" si="18"/>
-        <v>60782</v>
+        <v>44377</v>
       </c>
       <c r="C265" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D265" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-75604859334.715424</v>
+        <v>37661303.844655827</v>
       </c>
       <c r="E265" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>74665405329.51059</v>
+        <v>-12337893.903078215</v>
       </c>
       <c r="F265" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>821597291941.34253</v>
+        <v>-777557627.89889729</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -9714,23 +9714,23 @@
       </c>
       <c r="B266" s="38">
         <f t="shared" si="18"/>
-        <v>61147</v>
+        <v>44407</v>
       </c>
       <c r="C266" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D266" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-83172050663.161377</v>
+        <v>38289312.331765018</v>
       </c>
       <c r="E266" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>82232596657.956543</v>
+        <v>-12965902.390187407</v>
       </c>
       <c r="F266" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>904769342604.50391</v>
+        <v>-815846940.23066235</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -9739,23 +9739,23 @@
       </c>
       <c r="B267" s="38">
         <f t="shared" si="18"/>
-        <v>61513</v>
+        <v>44438</v>
       </c>
       <c r="C267" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D267" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-91496632258.650818</v>
+        <v>38927792.964541495</v>
       </c>
       <c r="E267" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>90557178253.445984</v>
+        <v>-13604383.022963885</v>
       </c>
       <c r="F267" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>996265974863.15479</v>
+        <v>-854774733.19520378</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -9764,23 +9764,23 @@
       </c>
       <c r="B268" s="38">
         <f t="shared" si="18"/>
-        <v>61878</v>
+        <v>44469</v>
       </c>
       <c r="C268" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D268" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-100654410320.83093</v>
+        <v>39576920.367750891</v>
       </c>
       <c r="E268" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>99714956315.626099</v>
+        <v>-14253510.426173279</v>
       </c>
       <c r="F268" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>1096920385183.9857</v>
+        <v>-894351653.56295466</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -9789,23 +9789,23 @@
       </c>
       <c r="B269" s="38">
         <f t="shared" si="18"/>
-        <v>62243</v>
+        <v>44499</v>
       </c>
       <c r="C269" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D269" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-110728778392.56538</v>
+        <v>40236872.078055769</v>
       </c>
       <c r="E269" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>109789324387.36055</v>
+        <v>-14913462.136478154</v>
       </c>
       <c r="F269" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>1207649163576.551</v>
+        <v>-934588525.6410104</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -9814,23 +9814,23 @@
       </c>
       <c r="B270" s="38">
         <f t="shared" si="18"/>
-        <v>62608</v>
+        <v>44530</v>
       </c>
       <c r="C270" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D270" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-121811476767.17755</v>
+        <v>40907828.592571966</v>
       </c>
       <c r="E270" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>120872022761.97272</v>
+        <v>-15584418.650994353</v>
       </c>
       <c r="F270" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>1329460640343.7285</v>
+        <v>-975496354.23358238</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -9839,23 +9839,23 @@
       </c>
       <c r="B271" s="38">
         <f t="shared" si="18"/>
-        <v>62974</v>
+        <v>44560</v>
       </c>
       <c r="C271" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D271" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-134003427903.76978</v>
+        <v>41589973.418234676</v>
       </c>
       <c r="E271" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>133063973898.56494</v>
+        <v>-16266563.476657065</v>
       </c>
       <c r="F271" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>1463464068247.4983</v>
+        <v>-1017086327.6518171</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -9864,23 +9864,23 @@
       </c>
       <c r="B272" s="38">
         <f t="shared" si="18"/>
-        <v>63339</v>
+        <v>44591</v>
       </c>
       <c r="C272" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D272" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-147415655458.16754</v>
+        <v>42283493.121987671</v>
       </c>
       <c r="E272" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>146476201452.96271</v>
+        <v>-16960083.180410054</v>
       </c>
       <c r="F272" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>1610879723705.6658</v>
+        <v>-1059369820.7738048</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -9889,23 +9889,23 @@
       </c>
       <c r="B273" s="38">
         <f t="shared" si="18"/>
-        <v>63704</v>
+        <v>44620</v>
       </c>
       <c r="C273" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D273" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-162170295298.46689</v>
+        <v>42988577.381809421</v>
       </c>
       <c r="E273" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>161230841293.26205</v>
+        <v>-17665167.440231808</v>
       </c>
       <c r="F273" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>1773050019004.1326</v>
+        <v>-1102358398.1556141</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -9914,23 +9914,23 @@
       </c>
       <c r="B274" s="38">
         <f t="shared" si="18"/>
-        <v>64069</v>
+        <v>44650</v>
       </c>
       <c r="C274" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D274" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-178401707711.80359</v>
+        <v>43705419.038590178</v>
       </c>
       <c r="E274" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>177462253706.59875</v>
+        <v>-18382009.097012561</v>
       </c>
       <c r="F274" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>1951451726715.936</v>
+        <v>-1146063817.1942043</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -9939,23 +9939,23 @@
       </c>
       <c r="B275" s="38">
         <f t="shared" si="18"/>
-        <v>64435</v>
+        <v>44681</v>
       </c>
       <c r="C275" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D275" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-196257700930.44089</v>
+        <v>44434214.148873992</v>
       </c>
       <c r="E275" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>195318246925.23605</v>
+        <v>-19110804.207296379</v>
       </c>
       <c r="F275" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>2147709427646.377</v>
+        <v>-1190498031.3430784</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -9964,23 +9964,23 @@
       </c>
       <c r="B276" s="38">
         <f t="shared" si="18"/>
-        <v>64800</v>
+        <v>44711</v>
       </c>
       <c r="C276" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>-939454005.20482671</v>
+        <v>25323409.941577613</v>
       </c>
       <c r="D276" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>-215900877118.9805</v>
+        <v>45175162.038480312</v>
       </c>
       <c r="E276" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>214961423113.77567</v>
+        <v>-19851752.096902698</v>
       </c>
       <c r="F276" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>2363610304765.3574</v>
+        <v>-1235673193.3815587</v>
       </c>
     </row>
   </sheetData>

--- a/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
+++ b/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UF-BNI\Simulasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-BNI\Simulasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="103">
   <si>
     <t>*tempat nampung hasil REF_YIELD_ITEM di DB</t>
   </si>
@@ -389,6 +389,9 @@
   <si>
     <t>CF dan FL - R3</t>
   </si>
+  <si>
+    <t xml:space="preserve">PO Rounding </t>
+  </si>
 </sst>
 </file>
 
@@ -402,12 +405,19 @@
     <numFmt numFmtId="166" formatCode="0.0000%"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -757,20 +767,20 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -787,24 +797,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -815,48 +825,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="43" fontId="14" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="43" fontId="15" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="43" fontId="14" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="43" fontId="15" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
@@ -871,47 +881,46 @@
     <xf numFmtId="43" fontId="0" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="8" fontId="14" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="8" fontId="15" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="40" fontId="14" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="40" fontId="14" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="14" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="40" fontId="15" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="40" fontId="15" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="15" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -920,30 +929,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="16" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="16" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1634,7 +1644,7 @@
   <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1656,7 +1666,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="111" t="s">
         <v>101</v>
       </c>
       <c r="C1" t="s">
@@ -1664,25 +1674,25 @@
       </c>
       <c r="D1" s="3">
         <f ca="1">IF(B16=1,'Regular Fixed'!E79,IF(AND(B16=0,E16=0),'Regular Fixed'!E15,IF(AND(B16=0,E16&gt;0,E15&gt;0),'Regular Fixed'!E147,IF(AND(B16=0,E16&gt;0,E15=0),'Regular Fixed'!E213))))</f>
-        <v>100145997.93488157</v>
+        <v>104209979.80464816</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="90" t="s">
         <v>98</v>
       </c>
       <c r="B2">
-        <v>181000000</v>
+        <v>302020000</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="90" t="s">
         <v>70</v>
       </c>
       <c r="B3">
-        <v>524145997.93000001</v>
-      </c>
-      <c r="C3" s="87" t="s">
+        <v>562823998.79999995</v>
+      </c>
+      <c r="C3" s="86" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1702,9 +1712,9 @@
         <v>29</v>
       </c>
       <c r="B5">
-        <v>605000000</v>
-      </c>
-      <c r="C5" s="83" t="s">
+        <v>755100000</v>
+      </c>
+      <c r="C5" s="82" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="113" t="s">
@@ -1718,31 +1728,31 @@
       <c r="H5" s="115"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="91" t="s">
         <v>99</v>
       </c>
       <c r="B6">
-        <v>181000000</v>
-      </c>
-      <c r="C6" s="83" t="s">
+        <v>302020000</v>
+      </c>
+      <c r="C6" s="82" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="83" t="s">
+        <v>25471000</v>
+      </c>
+      <c r="F6" s="82" t="s">
         <v>93</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="83" t="s">
+        <v>23911000</v>
+      </c>
+      <c r="I6" s="82" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1750,26 +1760,26 @@
       <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="89">
+      <c r="B7" s="88">
         <f>B5-B6+D24+D25+D26+D27+D28+D29+D30+D31+D38</f>
-        <v>424000000</v>
+        <v>458614019</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="83" t="s">
+        <v>9935047</v>
+      </c>
+      <c r="F7" s="82" t="s">
         <v>93</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="83" t="s">
+        <v>10872275</v>
+      </c>
+      <c r="I7" s="82" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1778,9 +1788,9 @@
         <v>33</v>
       </c>
       <c r="B8">
-        <v>0.20010199000000001</v>
-      </c>
-      <c r="C8" s="83" t="s">
+        <v>0.14675371000000001</v>
+      </c>
+      <c r="C8" s="82" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1789,7 +1799,7 @@
       <c r="E8">
         <v>150000</v>
       </c>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="82" t="s">
         <v>93</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -1804,18 +1814,18 @@
         <v>34</v>
       </c>
       <c r="B9">
-        <v>24</v>
-      </c>
-      <c r="C9" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="82" t="s">
         <v>93</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E9">
-        <v>17500000</v>
-      </c>
-      <c r="F9" s="83" t="s">
+        <v>6200000</v>
+      </c>
+      <c r="F9" s="82" t="s">
         <v>93</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -1832,16 +1842,16 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="82" t="s">
         <v>93</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E10">
-        <v>1100000</v>
-      </c>
-      <c r="F10" s="83" t="s">
+        <v>1200000</v>
+      </c>
+      <c r="F10" s="82" t="s">
         <v>93</v>
       </c>
       <c r="G10" s="6"/>
@@ -1858,9 +1868,9 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>1100000</v>
-      </c>
-      <c r="F11" s="83" t="s">
+        <v>1250000</v>
+      </c>
+      <c r="F11" s="82" t="s">
         <v>93</v>
       </c>
       <c r="G11" s="6"/>
@@ -1872,12 +1882,12 @@
       </c>
       <c r="B12" s="20">
         <f>B8/(12/B10)</f>
-        <v>1.6675165833333335E-2</v>
+        <v>1.2229475833333335E-2</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="108">
+      <c r="E12" s="107">
         <v>0</v>
       </c>
       <c r="F12" s="7"/>
@@ -1890,7 +1900,7 @@
       </c>
       <c r="B13" s="18">
         <f>B9/B10</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>11</v>
@@ -1898,7 +1908,7 @@
       <c r="E13">
         <v>50000</v>
       </c>
-      <c r="F13" s="83" t="s">
+      <c r="F13" s="82" t="s">
         <v>93</v>
       </c>
       <c r="G13" s="11"/>
@@ -1908,16 +1918,16 @@
       <c r="A14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="97">
+      <c r="B14" s="96">
         <v>0</v>
       </c>
-      <c r="D14" s="96" t="s">
+      <c r="D14" s="95" t="s">
         <v>100</v>
       </c>
       <c r="E14">
-        <v>100000</v>
-      </c>
-      <c r="F14" s="83" t="s">
+        <v>50000</v>
+      </c>
+      <c r="F14" s="82" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1927,35 +1937,35 @@
       </c>
       <c r="B15" s="3">
         <f>IF(B16=1,B2+SUM(E6:E14)-SUM(D24:D31,D38)+B18,B2+SUM(E6:E14)-SUM(D24:D31,D38))</f>
-        <v>201000000</v>
-      </c>
-      <c r="D15" s="82" t="s">
+        <v>356426028</v>
+      </c>
+      <c r="D15" s="81" t="s">
         <v>94</v>
       </c>
       <c r="E15">
-        <v>7071000</v>
-      </c>
-      <c r="F15" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="82" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="83" t="s">
         <v>40</v>
       </c>
       <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16">
         <v>0</v>
       </c>
-      <c r="C16" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" s="83" t="s">
+      <c r="F16" s="82" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1964,16 +1974,16 @@
         <v>41</v>
       </c>
       <c r="B17">
-        <v>23181999.91</v>
-      </c>
-      <c r="C17" s="82" t="s">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="C17" s="81" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="B18" s="90">
-        <f>ROUNDDOWN(B17,0)</f>
-        <v>23181999</v>
+      <c r="B18" s="89">
+        <f>CEILING(B17,1000)</f>
+        <v>15634000</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>42</v>
@@ -1985,15 +1995,15 @@
       </c>
       <c r="B19" s="13">
         <f ca="1">(D1/B7)/(B9/12/B10)*100</f>
-        <v>11.809669567792639</v>
-      </c>
-      <c r="F19" s="85" t="s">
+        <v>7.5742691011987402</v>
+      </c>
+      <c r="F19" s="84" t="s">
         <v>43</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="85" t="s">
+      <c r="I19" s="84" t="s">
         <v>43</v>
       </c>
       <c r="J19" s="21" t="s">
@@ -2013,19 +2023,19 @@
       <c r="D20" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="105">
+      <c r="F20" s="104">
         <v>0</v>
       </c>
-      <c r="G20" s="100">
+      <c r="G20" s="99">
         <f>IF(B16=0,-B7,0)</f>
-        <v>-424000000</v>
-      </c>
-      <c r="I20" s="85">
         <v>0</v>
       </c>
-      <c r="J20" s="100">
+      <c r="I20" s="84">
+        <v>0</v>
+      </c>
+      <c r="J20" s="99">
         <f>IF(B16=0,B37-C37,0)</f>
-        <v>-404100000</v>
+        <v>0</v>
       </c>
       <c r="L20" s="13">
         <v>0</v>
@@ -2038,22 +2048,22 @@
       <c r="B21" s="22"/>
       <c r="C21" s="23">
         <f>B5</f>
-        <v>605000000</v>
+        <v>755100000</v>
       </c>
       <c r="D21" s="21"/>
-      <c r="F21" s="105">
+      <c r="F21" s="104">
         <v>1</v>
       </c>
-      <c r="G21" s="101">
+      <c r="G21" s="100">
         <f>IF($B$16=0,IF(F21&lt;=$E$16,$E$15,$B$17),-B7+B17)</f>
-        <v>7071000</v>
-      </c>
-      <c r="I21" s="85">
+        <v>-442980019.02999997</v>
+      </c>
+      <c r="I21" s="84">
         <v>1</v>
       </c>
-      <c r="J21" s="101">
+      <c r="J21" s="100">
         <f>IF(B16=0,IF(I21&lt;=$E$16,$E$15,$B$18),B37-C37)</f>
-        <v>7071000</v>
+        <v>-433487247</v>
       </c>
       <c r="L21" s="13">
         <v>-246450080</v>
@@ -2065,23 +2075,23 @@
       </c>
       <c r="B22" s="23">
         <f>B6</f>
-        <v>181000000</v>
+        <v>302020000</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="21"/>
-      <c r="F22" s="105">
+      <c r="F22" s="104">
         <v>2</v>
       </c>
-      <c r="G22" s="102">
+      <c r="G22" s="101">
         <f>IF($B$16=0,IF(F22&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>7071000</v>
-      </c>
-      <c r="I22" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="I22" s="84">
         <v>2</v>
       </c>
-      <c r="J22" s="100">
+      <c r="J22" s="99">
         <f>IF($B$16=0,IF(I22&lt;=$E$16,$E$15,$B$18),$B$18)</f>
-        <v>7071000</v>
+        <v>15634000</v>
       </c>
       <c r="L22" s="13">
         <v>6600000</v>
@@ -2091,25 +2101,25 @@
       <c r="A23" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="98">
+      <c r="B23" s="97">
         <f>IF(B16=1,B18,0)</f>
-        <v>0</v>
+        <v>15634000</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="21"/>
-      <c r="F23" s="105">
+      <c r="F23" s="104">
         <v>3</v>
       </c>
-      <c r="G23" s="102">
+      <c r="G23" s="101">
         <f>IF($B$16=0,IF(F23&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>23181999.91</v>
-      </c>
-      <c r="I23" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="I23" s="84">
         <v>3</v>
       </c>
-      <c r="J23" s="100">
+      <c r="J23" s="99">
         <f>IF($B$16=0,IF(I23&lt;=$E$16,$E$15,$B$18),$B$18)</f>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L23" s="13">
         <v>6600000</v>
@@ -2119,36 +2129,36 @@
       <c r="A24" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="98">
+      <c r="B24" s="97">
         <f t="shared" ref="B24:B31" si="0">E6-D24</f>
-        <v>0</v>
+        <v>25471000</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" s="83" t="s">
+      <c r="E24" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="105">
+      <c r="F24" s="104">
         <v>4</v>
       </c>
-      <c r="G24" s="102">
+      <c r="G24" s="101">
         <f>IF($B$16=0,IF(F24&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>23181999.91</v>
-      </c>
-      <c r="H24" s="104"/>
-      <c r="I24" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H24" s="103"/>
+      <c r="I24" s="84">
         <v>4</v>
       </c>
-      <c r="J24" s="100">
+      <c r="J24" s="99">
         <f t="shared" ref="J24:J81" si="1">IF($B$16=0,IF(I24&lt;=$E$16,$E$15,$B$18),$B$18)</f>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L24" s="13">
         <v>6600000</v>
       </c>
-      <c r="M24" s="107"/>
+      <c r="M24" s="106"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="21" t="s">
@@ -2156,29 +2166,29 @@
       </c>
       <c r="B25" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5961028</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" s="83" t="s">
+        <v>3974019</v>
+      </c>
+      <c r="E25" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="105">
+      <c r="F25" s="104">
         <v>5</v>
       </c>
-      <c r="G25" s="102">
+      <c r="G25" s="101">
         <f t="shared" ref="G25:G81" si="2">IF($B$16=0,IF(F25&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>23181999.91</v>
-      </c>
-      <c r="H25" s="104"/>
-      <c r="I25" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H25" s="103"/>
+      <c r="I25" s="84">
         <v>5</v>
       </c>
-      <c r="J25" s="100">
+      <c r="J25" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L25" s="13">
         <v>6600000</v>
@@ -2191,29 +2201,29 @@
       </c>
       <c r="B26" s="23">
         <f t="shared" si="0"/>
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" s="83" t="s">
+        <v>100000</v>
+      </c>
+      <c r="E26" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="105">
+      <c r="F26" s="104">
         <v>6</v>
       </c>
-      <c r="G26" s="102">
+      <c r="G26" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H26" s="104"/>
-      <c r="I26" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H26" s="103"/>
+      <c r="I26" s="84">
         <v>6</v>
       </c>
-      <c r="J26" s="100">
+      <c r="J26" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L26" s="13">
         <v>6600000</v>
@@ -2225,29 +2235,29 @@
       </c>
       <c r="B27" s="23">
         <f t="shared" si="0"/>
-        <v>17500000</v>
+        <v>5200000</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" s="83" t="s">
+        <v>1000000</v>
+      </c>
+      <c r="E27" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="105">
+      <c r="F27" s="104">
         <v>7</v>
       </c>
-      <c r="G27" s="102">
+      <c r="G27" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H27" s="104"/>
-      <c r="I27" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H27" s="103"/>
+      <c r="I27" s="84">
         <v>7</v>
       </c>
-      <c r="J27" s="100">
+      <c r="J27" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L27" s="13">
         <v>6600000</v>
@@ -2259,29 +2269,29 @@
       </c>
       <c r="B28" s="23">
         <f t="shared" si="0"/>
-        <v>1100000</v>
+        <v>1050000</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" s="83" t="s">
+        <v>150000</v>
+      </c>
+      <c r="E28" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="105">
+      <c r="F28" s="104">
         <v>8</v>
       </c>
-      <c r="G28" s="102">
+      <c r="G28" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H28" s="104"/>
-      <c r="I28" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H28" s="103"/>
+      <c r="I28" s="84">
         <v>8</v>
       </c>
-      <c r="J28" s="100">
+      <c r="J28" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L28" s="13">
         <v>6600000</v>
@@ -2293,29 +2303,29 @@
       </c>
       <c r="B29" s="23">
         <f t="shared" si="0"/>
-        <v>1100000</v>
+        <v>1000000</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" s="83" t="s">
+        <v>250000</v>
+      </c>
+      <c r="E29" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="105">
+      <c r="F29" s="104">
         <v>9</v>
       </c>
-      <c r="G29" s="102">
+      <c r="G29" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H29" s="104"/>
-      <c r="I29" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H29" s="103"/>
+      <c r="I29" s="84">
         <v>9</v>
       </c>
-      <c r="J29" s="100">
+      <c r="J29" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L29" s="13">
         <v>6600000</v>
@@ -2325,29 +2335,29 @@
       <c r="A30" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="98">
+      <c r="B30" s="97">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C30" s="22"/>
-      <c r="D30" s="109">
+      <c r="D30" s="108">
         <v>0</v>
       </c>
-      <c r="E30" s="83"/>
-      <c r="F30" s="105">
+      <c r="E30" s="82"/>
+      <c r="F30" s="104">
         <v>10</v>
       </c>
-      <c r="G30" s="102">
+      <c r="G30" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H30" s="104"/>
-      <c r="I30" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H30" s="103"/>
+      <c r="I30" s="84">
         <v>10</v>
       </c>
-      <c r="J30" s="100">
+      <c r="J30" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L30" s="13">
         <v>6600000</v>
@@ -2359,29 +2369,29 @@
       </c>
       <c r="B31" s="23">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="C31" s="22"/>
       <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" s="83" t="s">
+        <v>40000</v>
+      </c>
+      <c r="E31" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="105">
+      <c r="F31" s="104">
         <v>11</v>
       </c>
-      <c r="G31" s="102">
+      <c r="G31" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H31" s="104"/>
-      <c r="I31" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H31" s="103"/>
+      <c r="I31" s="84">
         <v>11</v>
       </c>
-      <c r="J31" s="100">
+      <c r="J31" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L31" s="13">
         <v>6600000</v>
@@ -2394,23 +2404,23 @@
       <c r="B32" s="22"/>
       <c r="C32" s="24">
         <f>H6</f>
-        <v>0</v>
+        <v>23911000</v>
       </c>
       <c r="D32" s="21"/>
-      <c r="F32" s="105">
+      <c r="F32" s="104">
         <v>12</v>
       </c>
-      <c r="G32" s="102">
+      <c r="G32" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H32" s="104"/>
-      <c r="I32" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H32" s="103"/>
+      <c r="I32" s="84">
         <v>12</v>
       </c>
-      <c r="J32" s="100">
+      <c r="J32" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L32" s="13">
         <v>6600000</v>
@@ -2423,23 +2433,23 @@
       <c r="B33" s="22"/>
       <c r="C33" s="24">
         <f>H7</f>
-        <v>0</v>
+        <v>10872275</v>
       </c>
       <c r="D33" s="21"/>
-      <c r="F33" s="105">
+      <c r="F33" s="104">
         <v>13</v>
       </c>
-      <c r="G33" s="102">
+      <c r="G33" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H33" s="104"/>
-      <c r="I33" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H33" s="103"/>
+      <c r="I33" s="84">
         <v>13</v>
       </c>
-      <c r="J33" s="100">
+      <c r="J33" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L33" s="13">
         <v>6600000</v>
@@ -2450,25 +2460,25 @@
         <v>15</v>
       </c>
       <c r="B34" s="23"/>
-      <c r="C34" s="99">
+      <c r="C34" s="98">
         <f>H8</f>
         <v>0</v>
       </c>
       <c r="D34" s="21"/>
-      <c r="F34" s="105">
+      <c r="F34" s="104">
         <v>14</v>
       </c>
-      <c r="G34" s="102">
+      <c r="G34" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H34" s="104"/>
-      <c r="I34" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H34" s="103"/>
+      <c r="I34" s="84">
         <v>14</v>
       </c>
-      <c r="J34" s="100">
+      <c r="J34" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L34" s="13">
         <v>6600000</v>
@@ -2479,25 +2489,25 @@
         <v>16</v>
       </c>
       <c r="B35" s="23"/>
-      <c r="C35" s="99">
+      <c r="C35" s="98">
         <f>H9</f>
         <v>0</v>
       </c>
       <c r="D35" s="21"/>
-      <c r="F35" s="105">
+      <c r="F35" s="104">
         <v>15</v>
       </c>
-      <c r="G35" s="102">
+      <c r="G35" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H35" s="104"/>
-      <c r="I35" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H35" s="103"/>
+      <c r="I35" s="84">
         <v>15</v>
       </c>
-      <c r="J35" s="100">
+      <c r="J35" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L35" s="13">
         <v>6600000</v>
@@ -2507,20 +2517,20 @@
       <c r="A36" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F36" s="105">
+      <c r="F36" s="104">
         <v>16</v>
       </c>
-      <c r="G36" s="102">
+      <c r="G36" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H36" s="104"/>
-      <c r="I36" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H36" s="103"/>
+      <c r="I36" s="84">
         <v>16</v>
       </c>
-      <c r="J36" s="100">
+      <c r="J36" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L36" s="13">
         <v>6600000</v>
@@ -2532,29 +2542,29 @@
       </c>
       <c r="B37" s="16">
         <f>SUM(B21:B35)</f>
-        <v>200900000</v>
+        <v>356396028</v>
       </c>
       <c r="C37" s="16">
         <f>SUM(C21:C35)</f>
-        <v>605000000</v>
+        <v>789883275</v>
       </c>
       <c r="D37" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="105">
+      <c r="F37" s="104">
         <v>17</v>
       </c>
-      <c r="G37" s="102">
+      <c r="G37" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H37" s="104"/>
-      <c r="I37" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H37" s="103"/>
+      <c r="I37" s="84">
         <v>17</v>
       </c>
-      <c r="J37" s="100">
+      <c r="J37" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L37" s="13">
         <v>6600000</v>
@@ -2567,45 +2577,45 @@
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
       <c r="D38">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E38" t="s">
         <v>93</v>
       </c>
-      <c r="F38" s="105">
+      <c r="F38" s="104">
         <v>18</v>
       </c>
-      <c r="G38" s="102">
+      <c r="G38" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H38" s="104"/>
-      <c r="I38" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H38" s="103"/>
+      <c r="I38" s="84">
         <v>18</v>
       </c>
-      <c r="J38" s="100">
+      <c r="J38" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L38" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="F39" s="105">
+      <c r="F39" s="104">
         <v>19</v>
       </c>
-      <c r="G39" s="102">
+      <c r="G39" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H39" s="104"/>
-      <c r="I39" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H39" s="103"/>
+      <c r="I39" s="84">
         <v>19</v>
       </c>
-      <c r="J39" s="100">
+      <c r="J39" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="K39" s="35"/>
       <c r="L39" s="13">
@@ -2614,845 +2624,845 @@
     </row>
     <row r="40" spans="1:12">
       <c r="D40" s="13"/>
-      <c r="F40" s="105">
+      <c r="F40" s="104">
         <v>20</v>
       </c>
-      <c r="G40" s="102">
+      <c r="G40" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H40" s="104"/>
-      <c r="I40" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H40" s="103"/>
+      <c r="I40" s="84">
         <v>20</v>
       </c>
-      <c r="J40" s="100">
+      <c r="J40" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L40" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="F41" s="105">
+      <c r="F41" s="104">
         <v>21</v>
       </c>
-      <c r="G41" s="102">
+      <c r="G41" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H41" s="104"/>
-      <c r="I41" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H41" s="103"/>
+      <c r="I41" s="84">
         <v>21</v>
       </c>
-      <c r="J41" s="100">
+      <c r="J41" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L41" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="F42" s="105">
+      <c r="F42" s="104">
         <v>22</v>
       </c>
-      <c r="G42" s="102">
+      <c r="G42" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H42" s="104"/>
-      <c r="I42" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H42" s="103"/>
+      <c r="I42" s="84">
         <v>22</v>
       </c>
-      <c r="J42" s="100">
+      <c r="J42" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L42" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="F43" s="105">
+      <c r="F43" s="104">
         <v>23</v>
       </c>
-      <c r="G43" s="102">
+      <c r="G43" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H43" s="104"/>
-      <c r="I43" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H43" s="103"/>
+      <c r="I43" s="84">
         <v>23</v>
       </c>
-      <c r="J43" s="100">
+      <c r="J43" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L43" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="F44" s="105">
+      <c r="F44" s="104">
         <v>24</v>
       </c>
-      <c r="G44" s="102">
+      <c r="G44" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H44" s="104"/>
-      <c r="I44" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H44" s="103"/>
+      <c r="I44" s="84">
         <v>24</v>
       </c>
-      <c r="J44" s="100">
+      <c r="J44" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L44" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="F45" s="105">
+      <c r="F45" s="104">
         <v>25</v>
       </c>
-      <c r="G45" s="102">
+      <c r="G45" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H45" s="104"/>
-      <c r="I45" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H45" s="103"/>
+      <c r="I45" s="84">
         <v>25</v>
       </c>
-      <c r="J45" s="100">
+      <c r="J45" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L45" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="F46" s="105">
+      <c r="F46" s="104">
         <v>26</v>
       </c>
-      <c r="G46" s="102">
+      <c r="G46" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H46" s="104"/>
-      <c r="I46" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H46" s="103"/>
+      <c r="I46" s="84">
         <v>26</v>
       </c>
-      <c r="J46" s="100">
+      <c r="J46" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L46" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="F47" s="105">
+      <c r="F47" s="104">
         <v>27</v>
       </c>
-      <c r="G47" s="102">
+      <c r="G47" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H47" s="104"/>
-      <c r="I47" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H47" s="103"/>
+      <c r="I47" s="84">
         <v>27</v>
       </c>
-      <c r="J47" s="100">
+      <c r="J47" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L47" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="F48" s="105">
+      <c r="F48" s="104">
         <v>28</v>
       </c>
-      <c r="G48" s="102">
+      <c r="G48" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H48" s="104"/>
-      <c r="I48" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H48" s="103"/>
+      <c r="I48" s="84">
         <v>28</v>
       </c>
-      <c r="J48" s="100">
+      <c r="J48" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L48" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="49" spans="6:12">
-      <c r="F49" s="105">
+      <c r="F49" s="104">
         <v>29</v>
       </c>
-      <c r="G49" s="102">
+      <c r="G49" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H49" s="104"/>
-      <c r="I49" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H49" s="103"/>
+      <c r="I49" s="84">
         <v>29</v>
       </c>
-      <c r="J49" s="100">
+      <c r="J49" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L49" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="50" spans="6:12">
-      <c r="F50" s="105">
+      <c r="F50" s="104">
         <v>30</v>
       </c>
-      <c r="G50" s="102">
+      <c r="G50" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H50" s="104"/>
-      <c r="I50" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H50" s="103"/>
+      <c r="I50" s="84">
         <v>30</v>
       </c>
-      <c r="J50" s="100">
+      <c r="J50" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L50" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="51" spans="6:12">
-      <c r="F51" s="105">
+      <c r="F51" s="104">
         <v>31</v>
       </c>
-      <c r="G51" s="102">
+      <c r="G51" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H51" s="104"/>
-      <c r="I51" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H51" s="103"/>
+      <c r="I51" s="84">
         <v>31</v>
       </c>
-      <c r="J51" s="100">
+      <c r="J51" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L51" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="52" spans="6:12">
-      <c r="F52" s="105">
+      <c r="F52" s="104">
         <v>32</v>
       </c>
-      <c r="G52" s="102">
+      <c r="G52" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H52" s="104"/>
-      <c r="I52" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H52" s="103"/>
+      <c r="I52" s="84">
         <v>32</v>
       </c>
-      <c r="J52" s="100">
+      <c r="J52" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L52" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="53" spans="6:12">
-      <c r="F53" s="105">
+      <c r="F53" s="104">
         <v>33</v>
       </c>
-      <c r="G53" s="102">
+      <c r="G53" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H53" s="104"/>
-      <c r="I53" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H53" s="103"/>
+      <c r="I53" s="84">
         <v>33</v>
       </c>
-      <c r="J53" s="100">
+      <c r="J53" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L53" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="54" spans="6:12">
-      <c r="F54" s="105">
+      <c r="F54" s="104">
         <v>34</v>
       </c>
-      <c r="G54" s="102">
+      <c r="G54" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H54" s="104"/>
-      <c r="I54" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H54" s="103"/>
+      <c r="I54" s="84">
         <v>34</v>
       </c>
-      <c r="J54" s="100">
+      <c r="J54" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L54" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="55" spans="6:12">
-      <c r="F55" s="105">
+      <c r="F55" s="104">
         <v>35</v>
       </c>
-      <c r="G55" s="102">
+      <c r="G55" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H55" s="104"/>
-      <c r="I55" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H55" s="103"/>
+      <c r="I55" s="84">
         <v>35</v>
       </c>
-      <c r="J55" s="100">
+      <c r="J55" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L55" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="56" spans="6:12">
-      <c r="F56" s="105">
+      <c r="F56" s="104">
         <v>36</v>
       </c>
-      <c r="G56" s="102">
+      <c r="G56" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H56" s="104"/>
-      <c r="I56" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H56" s="103"/>
+      <c r="I56" s="84">
         <v>36</v>
       </c>
-      <c r="J56" s="100">
+      <c r="J56" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L56" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="57" spans="6:12">
-      <c r="F57" s="105">
+      <c r="F57" s="104">
         <v>37</v>
       </c>
-      <c r="G57" s="102">
+      <c r="G57" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H57" s="104"/>
-      <c r="I57" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H57" s="103"/>
+      <c r="I57" s="84">
         <v>37</v>
       </c>
-      <c r="J57" s="100">
+      <c r="J57" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L57" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="58" spans="6:12">
-      <c r="F58" s="105">
+      <c r="F58" s="104">
         <v>38</v>
       </c>
-      <c r="G58" s="102">
+      <c r="G58" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H58" s="104"/>
-      <c r="I58" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H58" s="103"/>
+      <c r="I58" s="84">
         <v>38</v>
       </c>
-      <c r="J58" s="100">
+      <c r="J58" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L58" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="59" spans="6:12">
-      <c r="F59" s="105">
+      <c r="F59" s="104">
         <v>39</v>
       </c>
-      <c r="G59" s="102">
+      <c r="G59" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H59" s="104"/>
-      <c r="I59" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H59" s="103"/>
+      <c r="I59" s="84">
         <v>39</v>
       </c>
-      <c r="J59" s="100">
+      <c r="J59" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L59" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="60" spans="6:12">
-      <c r="F60" s="105">
+      <c r="F60" s="104">
         <v>40</v>
       </c>
-      <c r="G60" s="102">
+      <c r="G60" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H60" s="104"/>
-      <c r="I60" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H60" s="103"/>
+      <c r="I60" s="84">
         <v>40</v>
       </c>
-      <c r="J60" s="100">
+      <c r="J60" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L60" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="61" spans="6:12">
-      <c r="F61" s="105">
+      <c r="F61" s="104">
         <v>41</v>
       </c>
-      <c r="G61" s="102">
+      <c r="G61" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H61" s="104"/>
-      <c r="I61" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H61" s="103"/>
+      <c r="I61" s="84">
         <v>41</v>
       </c>
-      <c r="J61" s="100">
+      <c r="J61" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L61" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="62" spans="6:12">
-      <c r="F62" s="105">
+      <c r="F62" s="104">
         <v>42</v>
       </c>
-      <c r="G62" s="102">
+      <c r="G62" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H62" s="104"/>
-      <c r="I62" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H62" s="103"/>
+      <c r="I62" s="84">
         <v>42</v>
       </c>
-      <c r="J62" s="100">
+      <c r="J62" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L62" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="63" spans="6:12">
-      <c r="F63" s="105">
+      <c r="F63" s="104">
         <v>43</v>
       </c>
-      <c r="G63" s="102">
+      <c r="G63" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H63" s="104"/>
-      <c r="I63" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H63" s="103"/>
+      <c r="I63" s="84">
         <v>43</v>
       </c>
-      <c r="J63" s="100">
+      <c r="J63" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L63" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="64" spans="6:12">
-      <c r="F64" s="105">
+      <c r="F64" s="104">
         <v>44</v>
       </c>
-      <c r="G64" s="102">
+      <c r="G64" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H64" s="104"/>
-      <c r="I64" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H64" s="103"/>
+      <c r="I64" s="84">
         <v>44</v>
       </c>
-      <c r="J64" s="100">
+      <c r="J64" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L64" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="65" spans="6:12">
-      <c r="F65" s="105">
+      <c r="F65" s="104">
         <v>45</v>
       </c>
-      <c r="G65" s="102">
+      <c r="G65" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H65" s="104"/>
-      <c r="I65" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H65" s="103"/>
+      <c r="I65" s="84">
         <v>45</v>
       </c>
-      <c r="J65" s="100">
+      <c r="J65" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L65" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="66" spans="6:12">
-      <c r="F66" s="105">
+      <c r="F66" s="104">
         <v>46</v>
       </c>
-      <c r="G66" s="102">
+      <c r="G66" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H66" s="104"/>
-      <c r="I66" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H66" s="103"/>
+      <c r="I66" s="84">
         <v>46</v>
       </c>
-      <c r="J66" s="100">
+      <c r="J66" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L66" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="67" spans="6:12">
-      <c r="F67" s="105">
+      <c r="F67" s="104">
         <v>47</v>
       </c>
-      <c r="G67" s="102">
+      <c r="G67" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H67" s="104"/>
-      <c r="I67" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H67" s="103"/>
+      <c r="I67" s="84">
         <v>47</v>
       </c>
-      <c r="J67" s="100">
+      <c r="J67" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L67" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="68" spans="6:12">
-      <c r="F68" s="105">
+      <c r="F68" s="104">
         <v>48</v>
       </c>
-      <c r="G68" s="102">
+      <c r="G68" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H68" s="104"/>
-      <c r="I68" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H68" s="103"/>
+      <c r="I68" s="84">
         <v>48</v>
       </c>
-      <c r="J68" s="100">
+      <c r="J68" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L68" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="69" spans="6:12">
-      <c r="F69" s="105">
+      <c r="F69" s="104">
         <v>49</v>
       </c>
-      <c r="G69" s="102">
+      <c r="G69" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H69" s="104"/>
-      <c r="I69" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H69" s="103"/>
+      <c r="I69" s="84">
         <v>49</v>
       </c>
-      <c r="J69" s="100">
+      <c r="J69" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L69" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="70" spans="6:12">
-      <c r="F70" s="105">
+      <c r="F70" s="104">
         <v>50</v>
       </c>
-      <c r="G70" s="102">
+      <c r="G70" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H70" s="104"/>
-      <c r="I70" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H70" s="103"/>
+      <c r="I70" s="84">
         <v>50</v>
       </c>
-      <c r="J70" s="100">
+      <c r="J70" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L70" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="71" spans="6:12">
-      <c r="F71" s="105">
+      <c r="F71" s="104">
         <v>51</v>
       </c>
-      <c r="G71" s="102">
+      <c r="G71" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H71" s="104"/>
-      <c r="I71" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H71" s="103"/>
+      <c r="I71" s="84">
         <v>51</v>
       </c>
-      <c r="J71" s="100">
+      <c r="J71" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L71" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="72" spans="6:12">
-      <c r="F72" s="105">
+      <c r="F72" s="104">
         <v>52</v>
       </c>
-      <c r="G72" s="102">
+      <c r="G72" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H72" s="104"/>
-      <c r="I72" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H72" s="103"/>
+      <c r="I72" s="84">
         <v>52</v>
       </c>
-      <c r="J72" s="100">
+      <c r="J72" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L72" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="73" spans="6:12">
-      <c r="F73" s="105">
+      <c r="F73" s="104">
         <v>53</v>
       </c>
-      <c r="G73" s="102">
+      <c r="G73" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H73" s="104"/>
-      <c r="I73" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H73" s="103"/>
+      <c r="I73" s="84">
         <v>53</v>
       </c>
-      <c r="J73" s="100">
+      <c r="J73" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L73" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="74" spans="6:12">
-      <c r="F74" s="105">
+      <c r="F74" s="104">
         <v>54</v>
       </c>
-      <c r="G74" s="102">
+      <c r="G74" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H74" s="104"/>
-      <c r="I74" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H74" s="103"/>
+      <c r="I74" s="84">
         <v>54</v>
       </c>
-      <c r="J74" s="100">
+      <c r="J74" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L74" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="75" spans="6:12">
-      <c r="F75" s="105">
+      <c r="F75" s="104">
         <v>55</v>
       </c>
-      <c r="G75" s="102">
+      <c r="G75" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H75" s="104"/>
-      <c r="I75" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H75" s="103"/>
+      <c r="I75" s="84">
         <v>55</v>
       </c>
-      <c r="J75" s="100">
+      <c r="J75" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L75" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="76" spans="6:12">
-      <c r="F76" s="105">
+      <c r="F76" s="104">
         <v>56</v>
       </c>
-      <c r="G76" s="102">
+      <c r="G76" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H76" s="104"/>
-      <c r="I76" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H76" s="103"/>
+      <c r="I76" s="84">
         <v>56</v>
       </c>
-      <c r="J76" s="100">
+      <c r="J76" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L76" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="77" spans="6:12">
-      <c r="F77" s="105">
+      <c r="F77" s="104">
         <v>57</v>
       </c>
-      <c r="G77" s="102">
+      <c r="G77" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H77" s="104"/>
-      <c r="I77" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H77" s="103"/>
+      <c r="I77" s="84">
         <v>57</v>
       </c>
-      <c r="J77" s="100">
+      <c r="J77" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L77" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="78" spans="6:12">
-      <c r="F78" s="105">
+      <c r="F78" s="104">
         <v>58</v>
       </c>
-      <c r="G78" s="102">
+      <c r="G78" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H78" s="104"/>
-      <c r="I78" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H78" s="103"/>
+      <c r="I78" s="84">
         <v>58</v>
       </c>
-      <c r="J78" s="100">
+      <c r="J78" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L78" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="79" spans="6:12">
-      <c r="F79" s="105">
+      <c r="F79" s="104">
         <v>59</v>
       </c>
-      <c r="G79" s="102">
+      <c r="G79" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H79" s="104"/>
-      <c r="I79" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H79" s="103"/>
+      <c r="I79" s="84">
         <v>59</v>
       </c>
-      <c r="J79" s="100">
+      <c r="J79" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L79" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="80" spans="6:12">
-      <c r="F80" s="105">
+      <c r="F80" s="104">
         <v>60</v>
       </c>
-      <c r="G80" s="102">
+      <c r="G80" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H80" s="104"/>
-      <c r="I80" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H80" s="103"/>
+      <c r="I80" s="84">
         <v>60</v>
       </c>
-      <c r="J80" s="100">
+      <c r="J80" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L80" s="13">
         <v>6600000</v>
       </c>
     </row>
     <row r="81" spans="6:13">
-      <c r="F81" s="105">
+      <c r="F81" s="104">
         <v>61</v>
       </c>
-      <c r="G81" s="102">
+      <c r="G81" s="101">
         <f t="shared" si="2"/>
-        <v>23181999.91</v>
-      </c>
-      <c r="H81" s="104"/>
-      <c r="I81" s="85">
+        <v>15633999.970000001</v>
+      </c>
+      <c r="H81" s="103"/>
+      <c r="I81" s="84">
         <v>61</v>
       </c>
-      <c r="J81" s="100">
+      <c r="J81" s="99">
         <f t="shared" si="1"/>
-        <v>23181999</v>
+        <v>15634000</v>
       </c>
       <c r="L81" s="13">
         <v>6600000</v>
       </c>
-      <c r="M81" s="107">
+      <c r="M81" s="106">
         <f>IRR(L20:L80)</f>
         <v>1.6701891950690717E-2</v>
       </c>
@@ -3465,35 +3475,35 @@
       <c r="J82" t="s">
         <v>57</v>
       </c>
-      <c r="M82" s="111">
+      <c r="M82" s="110">
         <f>M81*12*100</f>
         <v>20.04227034082886</v>
       </c>
     </row>
     <row r="83" spans="6:13">
-      <c r="F83" s="106"/>
+      <c r="F83" s="105"/>
       <c r="G83" s="14">
         <f ca="1">_xlfn.NUMBERVALUE(IRR(G20:INDIRECT(CONCATENATE("G",IF(B16=1,B13+20+1,B13+20)))))</f>
-        <v>1.66754396676809E-2</v>
+        <v>1.35622241310924E-2</v>
       </c>
       <c r="J83" s="56">
         <f ca="1">IRR(J20:INDIRECT(CONCATENATE("J",B13+20)))</f>
-        <v>2.0629553562513836E-2</v>
-      </c>
-      <c r="K83" s="110">
+        <v>1.3543463116469479E-2</v>
+      </c>
+      <c r="K83" s="109">
         <f ca="1">J83*(12/B10)*100</f>
-        <v>24.755464275016603</v>
-      </c>
-      <c r="L83" s="104"/>
+        <v>16.252155739763374</v>
+      </c>
+      <c r="L83" s="103"/>
     </row>
     <row r="84" spans="6:13">
       <c r="G84">
         <f ca="1">_xlfn.NUMBERVALUE(G83*12*100)</f>
-        <v>20.010527601217099</v>
+        <v>16.274668957310901</v>
       </c>
       <c r="J84">
         <f ca="1">_xlfn.NUMBERVALUE(K83)</f>
-        <v>24.7554642750166</v>
+        <v>16.252155739763399</v>
       </c>
     </row>
     <row r="85" spans="6:13">
@@ -3518,8 +3528,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F276"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="E214" sqref="E214"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3547,9 +3557,9 @@
       <c r="A3" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="88">
+      <c r="B3" s="87">
         <f>'Gross Yield (CF)'!B7</f>
-        <v>424000000</v>
+        <v>458614019</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>86</v>
@@ -3565,7 +3575,7 @@
       </c>
       <c r="B4" s="55">
         <f>'Gross Yield (CF)'!B8</f>
-        <v>0.20010199000000001</v>
+        <v>0.14675371000000001</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>84</v>
@@ -3582,7 +3592,7 @@
       </c>
       <c r="B5" s="43">
         <f>'Gross Yield (CF)'!B9</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>82</v>
@@ -3620,8 +3630,12 @@
       <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="81"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="43">
+        <v>1000</v>
+      </c>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
@@ -3633,7 +3647,7 @@
       </c>
       <c r="B9" s="57">
         <f>B4/(12/B6)</f>
-        <v>1.6675165833333335E-2</v>
+        <v>1.2229475833333335E-2</v>
       </c>
       <c r="C9" s="43" t="s">
         <v>80</v>
@@ -3647,7 +3661,7 @@
       </c>
       <c r="B10" s="52">
         <f>B5/B6</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C10" s="43" t="s">
         <v>79</v>
@@ -3662,7 +3676,7 @@
       </c>
       <c r="B11" s="52">
         <f>B3*-1</f>
-        <v>-424000000</v>
+        <v>-458614019</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>77</v>
@@ -3703,9 +3717,9 @@
       <c r="A14" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="95">
+      <c r="B14" s="94">
         <f>PMT(B9,B10,B11,B12,B13)</f>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="40" t="s">
@@ -3713,18 +3727,18 @@
       </c>
       <c r="E14" s="40">
         <f ca="1">E15+F16</f>
-        <v>517966389.9710393</v>
+        <v>569707041.29644966</v>
       </c>
       <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="85" t="s">
         <v>91</v>
       </c>
       <c r="B15">
         <v>1000</v>
       </c>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="85" t="s">
         <v>97</v>
       </c>
       <c r="D15" s="40" t="s">
@@ -3732,7 +3746,7 @@
       </c>
       <c r="E15" s="40">
         <f ca="1">SUM(E17:INDIRECT(CONCATENATE("E",16+B10)))</f>
-        <v>93966389.971039265</v>
+        <v>111093022.29644966</v>
       </c>
       <c r="F15" s="39" t="s">
         <v>63</v>
@@ -3756,7 +3770,7 @@
       </c>
       <c r="F16" s="39">
         <f>B3</f>
-        <v>424000000</v>
+        <v>458614019</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3769,19 +3783,19 @@
       </c>
       <c r="C17" s="37">
         <f>B14</f>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D17" s="37">
         <f t="shared" ref="D17:D76" si="0">C17-E17</f>
-        <v>14511662.602126637</v>
+        <v>10216586.529379666</v>
       </c>
       <c r="E17" s="37">
         <f t="shared" ref="E17:E76" si="1">F16*$B$9</f>
-        <v>7070270.3133333344</v>
+        <v>5608609.0621883748</v>
       </c>
       <c r="F17" s="37">
-        <f t="shared" ref="F17:F27" si="2">F16-D17</f>
-        <v>409488337.39787334</v>
+        <f>F16-D17</f>
+        <v>448397432.47062033</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3789,24 +3803,24 @@
         <v>2</v>
       </c>
       <c r="B18" s="38">
-        <f t="shared" ref="B18:B76" si="3">EDATE($B$7,$B$6*A18)</f>
+        <f t="shared" ref="B18:B76" si="2">EDATE($B$7,$B$6*A18)</f>
         <v>42946</v>
       </c>
       <c r="C18" s="37">
-        <f t="shared" ref="C18:C76" si="4">$C$17</f>
-        <v>21581932.915459972</v>
+        <f t="shared" ref="C18:C76" si="3">$C$17</f>
+        <v>15825195.59156804</v>
       </c>
       <c r="D18" s="37">
         <f t="shared" si="0"/>
-        <v>14753646.982534481</v>
+        <v>10341530.027439874</v>
       </c>
       <c r="E18" s="37">
         <f t="shared" si="1"/>
-        <v>6828285.9329254907</v>
+        <v>5483665.564128167</v>
       </c>
       <c r="F18" s="37">
-        <f t="shared" si="2"/>
-        <v>394734690.41533887</v>
+        <f t="shared" ref="F18:F27" si="4">F17-D18</f>
+        <v>438055902.44318044</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3814,24 +3828,24 @@
         <v>3</v>
       </c>
       <c r="B19" s="38">
+        <f t="shared" si="2"/>
+        <v>42977</v>
+      </c>
+      <c r="C19" s="37">
         <f t="shared" si="3"/>
-        <v>42977</v>
-      </c>
-      <c r="C19" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D19" s="37">
         <f t="shared" si="0"/>
-        <v>14999666.492614701</v>
+        <v>10468001.51899014</v>
       </c>
       <c r="E19" s="37">
         <f t="shared" si="1"/>
-        <v>6582266.4228452705</v>
+        <v>5357194.0725779003</v>
       </c>
       <c r="F19" s="37">
-        <f t="shared" si="2"/>
-        <v>379735023.92272419</v>
+        <f t="shared" si="4"/>
+        <v>427587900.92419028</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3839,24 +3853,24 @@
         <v>4</v>
       </c>
       <c r="B20" s="38">
+        <f t="shared" si="2"/>
+        <v>43008</v>
+      </c>
+      <c r="C20" s="37">
         <f t="shared" si="3"/>
-        <v>43008</v>
-      </c>
-      <c r="C20" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D20" s="37">
         <f t="shared" si="0"/>
-        <v>15249788.418823745</v>
+        <v>10596019.690589927</v>
       </c>
       <c r="E20" s="37">
         <f t="shared" si="1"/>
-        <v>6332144.4966362268</v>
+        <v>5229175.9009781135</v>
       </c>
       <c r="F20" s="37">
-        <f t="shared" si="2"/>
-        <v>364485235.50390047</v>
+        <f t="shared" si="4"/>
+        <v>416991881.23360038</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3864,24 +3878,24 @@
         <v>5</v>
       </c>
       <c r="B21" s="38">
+        <f t="shared" si="2"/>
+        <v>43038</v>
+      </c>
+      <c r="C21" s="37">
         <f t="shared" si="3"/>
-        <v>43038</v>
-      </c>
-      <c r="C21" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D21" s="37">
         <f t="shared" si="0"/>
-        <v>15504081.169630878</v>
+        <v>10725603.45732552</v>
       </c>
       <c r="E21" s="37">
         <f t="shared" si="1"/>
-        <v>6077851.7458290951</v>
+        <v>5099592.1342425197</v>
       </c>
       <c r="F21" s="37">
-        <f t="shared" si="2"/>
-        <v>348981154.33426958</v>
+        <f t="shared" si="4"/>
+        <v>406266277.77627486</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3889,24 +3903,24 @@
         <v>6</v>
       </c>
       <c r="B22" s="38">
+        <f t="shared" si="2"/>
+        <v>43069</v>
+      </c>
+      <c r="C22" s="37">
         <f t="shared" si="3"/>
-        <v>43069</v>
-      </c>
-      <c r="C22" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D22" s="37">
         <f t="shared" si="0"/>
-        <v>15762614.294227932</v>
+        <v>10856771.965604799</v>
       </c>
       <c r="E22" s="37">
         <f t="shared" si="1"/>
-        <v>5819318.6212320393</v>
+        <v>4968423.6259632409</v>
       </c>
       <c r="F22" s="37">
-        <f t="shared" si="2"/>
-        <v>333218540.04004163</v>
+        <f t="shared" si="4"/>
+        <v>395409505.81067008</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3914,24 +3928,24 @@
         <v>7</v>
       </c>
       <c r="B23" s="38">
+        <f t="shared" si="2"/>
+        <v>43099</v>
+      </c>
+      <c r="C23" s="37">
         <f t="shared" si="3"/>
-        <v>43099</v>
-      </c>
-      <c r="C23" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D23" s="37">
         <f t="shared" si="0"/>
-        <v>16025458.501551054</v>
+        <v>10989544.595986173</v>
       </c>
       <c r="E23" s="37">
         <f t="shared" si="1"/>
-        <v>5556474.4139089184</v>
+        <v>4835650.9955818662</v>
       </c>
       <c r="F23" s="37">
-        <f t="shared" si="2"/>
-        <v>317193081.53849059</v>
+        <f t="shared" si="4"/>
+        <v>384419961.21468389</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3939,24 +3953,24 @@
         <v>8</v>
       </c>
       <c r="B24" s="38">
+        <f t="shared" si="2"/>
+        <v>43130</v>
+      </c>
+      <c r="C24" s="37">
         <f t="shared" si="3"/>
-        <v>43130</v>
-      </c>
-      <c r="C24" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D24" s="37">
         <f t="shared" si="0"/>
-        <v>16292685.679619618</v>
+        <v>11123940.966042126</v>
       </c>
       <c r="E24" s="37">
         <f t="shared" si="1"/>
-        <v>5289247.2358403532</v>
+        <v>4701254.6255259141</v>
       </c>
       <c r="F24" s="37">
-        <f t="shared" si="2"/>
-        <v>300900395.85887098</v>
+        <f t="shared" si="4"/>
+        <v>373296020.24864179</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3964,24 +3978,24 @@
         <v>9</v>
       </c>
       <c r="B25" s="38">
+        <f t="shared" si="2"/>
+        <v>43159</v>
+      </c>
+      <c r="C25" s="37">
         <f t="shared" si="3"/>
-        <v>43159</v>
-      </c>
-      <c r="C25" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D25" s="37">
         <f t="shared" si="0"/>
-        <v>16564368.915197652</v>
+        <v>11259980.933257764</v>
       </c>
       <c r="E25" s="37">
         <f t="shared" si="1"/>
-        <v>5017564.000262321</v>
+        <v>4565214.6583102755</v>
       </c>
       <c r="F25" s="37">
-        <f t="shared" si="2"/>
-        <v>284336026.94367331</v>
+        <f t="shared" si="4"/>
+        <v>362036039.31538403</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3989,24 +4003,24 @@
         <v>10</v>
       </c>
       <c r="B26" s="38">
+        <f t="shared" si="2"/>
+        <v>43189</v>
+      </c>
+      <c r="C26" s="37">
         <f t="shared" si="3"/>
-        <v>43189</v>
-      </c>
-      <c r="C26" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D26" s="37">
         <f t="shared" si="0"/>
-        <v>16840582.513783082</v>
+        <v>11397684.597964834</v>
       </c>
       <c r="E26" s="37">
         <f t="shared" si="1"/>
-        <v>4741350.4016768876</v>
+        <v>4427510.9936032062</v>
       </c>
       <c r="F26" s="37">
-        <f t="shared" si="2"/>
-        <v>267495444.42989022</v>
+        <f t="shared" si="4"/>
+        <v>350638354.71741921</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4014,24 +4028,24 @@
         <v>11</v>
       </c>
       <c r="B27" s="38">
+        <f t="shared" si="2"/>
+        <v>43220</v>
+      </c>
+      <c r="C27" s="37">
         <f t="shared" si="3"/>
-        <v>43220</v>
-      </c>
-      <c r="C27" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D27" s="37">
         <f t="shared" si="0"/>
-        <v>17121402.019930352</v>
+        <v>11537072.3063116</v>
       </c>
       <c r="E27" s="37">
         <f t="shared" si="1"/>
-        <v>4460530.8955296213</v>
+        <v>4288123.2852564398</v>
       </c>
       <c r="F27" s="37">
-        <f t="shared" si="2"/>
-        <v>250374042.40995985</v>
+        <f t="shared" si="4"/>
+        <v>339101282.4111076</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4039,24 +4053,24 @@
         <v>12</v>
       </c>
       <c r="B28" s="38">
+        <f t="shared" si="2"/>
+        <v>43250</v>
+      </c>
+      <c r="C28" s="37">
         <f t="shared" si="3"/>
-        <v>43250</v>
-      </c>
-      <c r="C28" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D28" s="37">
         <f t="shared" si="0"/>
-        <v>17406904.237911858</v>
+        <v>11678164.653269056</v>
       </c>
       <c r="E28" s="37">
         <f t="shared" si="1"/>
-        <v>4175028.6775481137</v>
+        <v>4147030.9382989826</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" ref="F28:F76" si="5">F27-D28</f>
-        <v>232967138.172048</v>
+        <v>327423117.75783855</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4064,24 +4078,24 @@
         <v>13</v>
       </c>
       <c r="B29" s="38">
+        <f t="shared" si="2"/>
+        <v>43281</v>
+      </c>
+      <c r="C29" s="37">
         <f t="shared" si="3"/>
-        <v>43281</v>
-      </c>
-      <c r="C29" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D29" s="37">
         <f t="shared" si="0"/>
-        <v>17697167.252723992</v>
+        <v>11820982.485673899</v>
       </c>
       <c r="E29" s="37">
         <f t="shared" si="1"/>
-        <v>3884765.6627359809</v>
+        <v>4004213.1058941414</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="5"/>
-        <v>215269970.91932401</v>
+        <v>315602135.27216464</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4089,24 +4103,24 @@
         <v>14</v>
       </c>
       <c r="B30" s="38">
+        <f t="shared" si="2"/>
+        <v>43311</v>
+      </c>
+      <c r="C30" s="37">
         <f t="shared" si="3"/>
-        <v>43311</v>
-      </c>
-      <c r="C30" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D30" s="37">
         <f t="shared" si="0"/>
-        <v>17992270.4514434</v>
+        <v>11965546.905308705</v>
       </c>
       <c r="E30" s="37">
         <f t="shared" si="1"/>
-        <v>3589662.4640165726</v>
+        <v>3859648.6862593354</v>
       </c>
       <c r="F30" s="37">
         <f t="shared" si="5"/>
-        <v>197277700.46788061</v>
+        <v>303636588.36685592</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4114,24 +4128,24 @@
         <v>15</v>
       </c>
       <c r="B31" s="38">
+        <f t="shared" si="2"/>
+        <v>43342</v>
+      </c>
+      <c r="C31" s="37">
         <f t="shared" si="3"/>
-        <v>43342</v>
-      </c>
-      <c r="C31" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D31" s="37">
         <f t="shared" si="0"/>
-        <v>18292294.544939402</v>
+        <v>12111879.272019794</v>
       </c>
       <c r="E31" s="37">
         <f t="shared" si="1"/>
-        <v>3289638.3705205703</v>
+        <v>3713316.319548246</v>
       </c>
       <c r="F31" s="37">
         <f t="shared" si="5"/>
-        <v>178985405.92294121</v>
+        <v>291524709.09483612</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4139,24 +4153,24 @@
         <v>16</v>
       </c>
       <c r="B32" s="38">
+        <f t="shared" si="2"/>
+        <v>43373</v>
+      </c>
+      <c r="C32" s="37">
         <f t="shared" si="3"/>
-        <v>43373</v>
-      </c>
-      <c r="C32" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D32" s="37">
         <f t="shared" si="0"/>
-        <v>18597321.589948446</v>
+        <v>12260001.206873212</v>
       </c>
       <c r="E32" s="37">
         <f t="shared" si="1"/>
-        <v>2984611.3255115272</v>
+        <v>3565194.3846948287</v>
       </c>
       <c r="F32" s="37">
         <f t="shared" si="5"/>
-        <v>160388084.33299276</v>
+        <v>279264707.88796288</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4164,24 +4178,24 @@
         <v>17</v>
       </c>
       <c r="B33" s="38">
+        <f t="shared" si="2"/>
+        <v>43403</v>
+      </c>
+      <c r="C33" s="37">
         <f t="shared" si="3"/>
-        <v>43403</v>
-      </c>
-      <c r="C33" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D33" s="37">
         <f t="shared" si="0"/>
-        <v>18907435.011516664</v>
+        <v>12409934.595349304</v>
       </c>
       <c r="E33" s="37">
         <f t="shared" si="1"/>
-        <v>2674497.9039433063</v>
+        <v>3415260.9962187349</v>
       </c>
       <c r="F33" s="37">
         <f t="shared" si="5"/>
-        <v>141480649.3214761</v>
+        <v>266854773.29261357</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4189,24 +4203,24 @@
         <v>18</v>
       </c>
       <c r="B34" s="38">
+        <f t="shared" si="2"/>
+        <v>43434</v>
+      </c>
+      <c r="C34" s="37">
         <f t="shared" si="3"/>
-        <v>43434</v>
-      </c>
-      <c r="C34" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D34" s="37">
         <f t="shared" si="0"/>
-        <v>19222719.62581668</v>
+        <v>12561701.590576377</v>
       </c>
       <c r="E34" s="37">
         <f t="shared" si="1"/>
-        <v>2359213.2896432932</v>
+        <v>3263494.0009916634</v>
       </c>
       <c r="F34" s="37">
         <f t="shared" si="5"/>
-        <v>122257929.69565943</v>
+        <v>254293071.70203719</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4214,24 +4228,24 @@
         <v>19</v>
       </c>
       <c r="B35" s="38">
+        <f t="shared" si="2"/>
+        <v>43464</v>
+      </c>
+      <c r="C35" s="37">
         <f t="shared" si="3"/>
-        <v>43464</v>
-      </c>
-      <c r="C35" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D35" s="37">
         <f t="shared" si="0"/>
-        <v>19543261.663344841</v>
+        <v>12715324.616603876</v>
       </c>
       <c r="E35" s="37">
         <f t="shared" si="1"/>
-        <v>2038671.252115129</v>
+        <v>3109870.9749641647</v>
       </c>
       <c r="F35" s="37">
         <f t="shared" si="5"/>
-        <v>102714668.03231458</v>
+        <v>241577747.0854333</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4239,24 +4253,24 @@
         <v>20</v>
       </c>
       <c r="B36" s="38">
+        <f t="shared" si="2"/>
+        <v>43495</v>
+      </c>
+      <c r="C36" s="37">
         <f t="shared" si="3"/>
-        <v>43495</v>
-      </c>
-      <c r="C36" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D36" s="37">
         <f t="shared" si="0"/>
-        <v>19869148.792505343</v>
+        <v>12870826.37171562</v>
       </c>
       <c r="E36" s="37">
         <f t="shared" si="1"/>
-        <v>1712784.122954628</v>
+        <v>2954369.2198524191</v>
       </c>
       <c r="F36" s="37">
         <f t="shared" si="5"/>
-        <v>82845519.239809245</v>
+        <v>228706920.7137177</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4264,24 +4278,24 @@
         <v>21</v>
       </c>
       <c r="B37" s="38">
+        <f t="shared" si="2"/>
+        <v>43524</v>
+      </c>
+      <c r="C37" s="37">
         <f t="shared" si="3"/>
-        <v>43524</v>
-      </c>
-      <c r="C37" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D37" s="37">
         <f t="shared" si="0"/>
-        <v>20200470.143587545</v>
+        <v>13028229.831783546</v>
       </c>
       <c r="E37" s="37">
         <f t="shared" si="1"/>
-        <v>1381462.7718724266</v>
+        <v>2796965.7597844936</v>
       </c>
       <c r="F37" s="37">
         <f t="shared" si="5"/>
-        <v>62645049.0962217</v>
+        <v>215678690.88193417</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4289,24 +4303,24 @@
         <v>22</v>
       </c>
       <c r="B38" s="38">
+        <f t="shared" si="2"/>
+        <v>43554</v>
+      </c>
+      <c r="C38" s="37">
         <f t="shared" si="3"/>
-        <v>43554</v>
-      </c>
-      <c r="C38" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D38" s="37">
         <f t="shared" si="0"/>
-        <v>20537316.333143167</v>
+        <v>13187558.253662456</v>
       </c>
       <c r="E38" s="37">
         <f t="shared" si="1"/>
-        <v>1044616.5823168054</v>
+        <v>2637637.3379055844</v>
       </c>
       <c r="F38" s="37">
         <f t="shared" si="5"/>
-        <v>42107732.763078533</v>
+        <v>202491132.6282717</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4314,24 +4328,24 @@
         <v>23</v>
       </c>
       <c r="B39" s="38">
+        <f t="shared" si="2"/>
+        <v>43585</v>
+      </c>
+      <c r="C39" s="37">
         <f t="shared" si="3"/>
-        <v>43585</v>
-      </c>
-      <c r="C39" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D39" s="37">
         <f t="shared" si="0"/>
-        <v>20879779.488769956</v>
+        <v>13348835.178626295</v>
       </c>
       <c r="E39" s="37">
         <f t="shared" si="1"/>
-        <v>702153.4266900178</v>
+        <v>2476360.4129417436</v>
       </c>
       <c r="F39" s="37">
         <f t="shared" si="5"/>
-        <v>21227953.274308577</v>
+        <v>189142297.4496454</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4339,24 +4353,24 @@
         <v>24</v>
       </c>
       <c r="B40" s="38">
+        <f t="shared" si="2"/>
+        <v>43615</v>
+      </c>
+      <c r="C40" s="37">
         <f t="shared" si="3"/>
-        <v>43615</v>
-      </c>
-      <c r="C40" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D40" s="37">
         <f t="shared" si="0"/>
-        <v>21227953.274308626</v>
+        <v>13512084.435846455</v>
       </c>
       <c r="E40" s="37">
         <f t="shared" si="1"/>
-        <v>353979.64115134691</v>
+        <v>2313111.1557215839</v>
       </c>
       <c r="F40" s="37">
         <f t="shared" si="5"/>
-        <v>-4.8428773880004883E-8</v>
+        <v>175630213.01379895</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4364,24 +4378,24 @@
         <v>25</v>
       </c>
       <c r="B41" s="38">
+        <f t="shared" si="2"/>
+        <v>43646</v>
+      </c>
+      <c r="C41" s="37">
         <f t="shared" si="3"/>
-        <v>43646</v>
-      </c>
-      <c r="C41" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D41" s="37">
         <f t="shared" si="0"/>
-        <v>21581932.915459972</v>
+        <v>13677330.145912599</v>
       </c>
       <c r="E41" s="37">
         <f t="shared" si="1"/>
-        <v>-8.0755783555408324E-10</v>
+        <v>2147865.44565544</v>
       </c>
       <c r="F41" s="37">
         <f t="shared" si="5"/>
-        <v>-21581932.91546002</v>
+        <v>161952882.86788636</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4389,24 +4403,24 @@
         <v>26</v>
       </c>
       <c r="B42" s="38">
+        <f t="shared" si="2"/>
+        <v>43676</v>
+      </c>
+      <c r="C42" s="37">
         <f t="shared" si="3"/>
-        <v>43676</v>
-      </c>
-      <c r="C42" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D42" s="37">
         <f t="shared" si="0"/>
-        <v>21941815.225829143</v>
+        <v>13844596.724396558</v>
       </c>
       <c r="E42" s="37">
         <f t="shared" si="1"/>
-        <v>-359882.31036917103</v>
+        <v>1980598.8671714806</v>
       </c>
       <c r="F42" s="37">
         <f t="shared" si="5"/>
-        <v>-43523748.14128916</v>
+        <v>148108286.14348981</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4414,24 +4428,24 @@
         <v>27</v>
       </c>
       <c r="B43" s="38">
+        <f t="shared" si="2"/>
+        <v>43707</v>
+      </c>
+      <c r="C43" s="37">
         <f t="shared" si="3"/>
-        <v>43707</v>
-      </c>
-      <c r="C43" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D43" s="37">
         <f t="shared" si="0"/>
-        <v>22307698.633404203</v>
+        <v>14013908.885459812</v>
       </c>
       <c r="E43" s="37">
         <f t="shared" si="1"/>
-        <v>-725765.7179442303</v>
+        <v>1811286.7061082269</v>
       </c>
       <c r="F43" s="37">
         <f t="shared" si="5"/>
-        <v>-65831446.774693362</v>
+        <v>134094377.25803</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4439,24 +4453,24 @@
         <v>28</v>
       </c>
       <c r="B44" s="38">
+        <f t="shared" si="2"/>
+        <v>43738</v>
+      </c>
+      <c r="C44" s="37">
         <f t="shared" si="3"/>
-        <v>43738</v>
-      </c>
-      <c r="C44" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D44" s="37">
         <f t="shared" si="0"/>
-        <v>22679683.20747624</v>
+        <v>14185291.645505078</v>
       </c>
       <c r="E44" s="37">
         <f t="shared" si="1"/>
-        <v>-1097750.2920162687</v>
+        <v>1639903.9460629609</v>
       </c>
       <c r="F44" s="37">
         <f t="shared" si="5"/>
-        <v>-88511129.982169598</v>
+        <v>119909085.61252493</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4464,24 +4478,24 @@
         <v>29</v>
       </c>
       <c r="B45" s="38">
+        <f t="shared" si="2"/>
+        <v>43768</v>
+      </c>
+      <c r="C45" s="37">
         <f t="shared" si="3"/>
-        <v>43768</v>
-      </c>
-      <c r="C45" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D45" s="37">
         <f t="shared" si="0"/>
-        <v>23057870.686008371</v>
+        <v>14358770.326872569</v>
       </c>
       <c r="E45" s="37">
         <f t="shared" si="1"/>
-        <v>-1475937.7705484002</v>
+        <v>1466425.2646954714</v>
       </c>
       <c r="F45" s="37">
         <f t="shared" si="5"/>
-        <v>-111569000.66817796</v>
+        <v>105550315.28565235</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4489,24 +4503,24 @@
         <v>30</v>
       </c>
       <c r="B46" s="38">
+        <f t="shared" si="2"/>
+        <v>43799</v>
+      </c>
+      <c r="C46" s="37">
         <f t="shared" si="3"/>
-        <v>43799</v>
-      </c>
-      <c r="C46" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D46" s="37">
         <f t="shared" si="0"/>
-        <v>23442364.503461119</v>
+        <v>14534370.56158144</v>
       </c>
       <c r="E46" s="37">
         <f t="shared" si="1"/>
-        <v>-1860431.5880011453</v>
+        <v>1290825.0299865995</v>
       </c>
       <c r="F46" s="37">
         <f t="shared" si="5"/>
-        <v>-135011365.17163908</v>
+        <v>91015944.724070907</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4514,24 +4528,24 @@
         <v>31</v>
       </c>
       <c r="B47" s="38">
+        <f t="shared" si="2"/>
+        <v>43829</v>
+      </c>
+      <c r="C47" s="37">
         <f t="shared" si="3"/>
-        <v>43829</v>
-      </c>
-      <c r="C47" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D47" s="37">
         <f t="shared" si="0"/>
-        <v>23833269.81908178</v>
+        <v>14712118.295117011</v>
       </c>
       <c r="E47" s="37">
         <f t="shared" si="1"/>
-        <v>-2251336.9036218063</v>
+        <v>1113077.2964510277</v>
       </c>
       <c r="F47" s="37">
         <f t="shared" si="5"/>
-        <v>-158844634.99072087</v>
+        <v>76303826.428953901</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4539,24 +4553,24 @@
         <v>32</v>
       </c>
       <c r="B48" s="38">
+        <f t="shared" si="2"/>
+        <v>43860</v>
+      </c>
+      <c r="C48" s="37">
         <f t="shared" si="3"/>
-        <v>43860</v>
-      </c>
-      <c r="C48" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D48" s="37">
         <f t="shared" si="0"/>
-        <v>24230693.545665547</v>
+        <v>14892039.790264286</v>
       </c>
       <c r="E48" s="37">
         <f t="shared" si="1"/>
-        <v>-2648760.6302055735</v>
+        <v>933155.80130375316</v>
       </c>
       <c r="F48" s="37">
         <f t="shared" si="5"/>
-        <v>-183075328.53638643</v>
+        <v>61411786.638689615</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4564,24 +4578,24 @@
         <v>33</v>
       </c>
       <c r="B49" s="38">
+        <f t="shared" si="2"/>
+        <v>43890</v>
+      </c>
+      <c r="C49" s="37">
         <f t="shared" si="3"/>
-        <v>43890</v>
-      </c>
-      <c r="C49" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D49" s="37">
         <f t="shared" si="0"/>
-        <v>24634744.378796197</v>
+        <v>15074161.630988361</v>
       </c>
       <c r="E49" s="37">
         <f t="shared" si="1"/>
-        <v>-3052811.4633362265</v>
+        <v>751033.9605796776</v>
       </c>
       <c r="F49" s="37">
         <f t="shared" si="5"/>
-        <v>-207710072.91518262</v>
+        <v>46337625.007701255</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4589,24 +4603,24 @@
         <v>34</v>
       </c>
       <c r="B50" s="38">
+        <f t="shared" si="2"/>
+        <v>43920</v>
+      </c>
+      <c r="C50" s="37">
         <f t="shared" si="3"/>
-        <v>43920</v>
-      </c>
-      <c r="C50" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D50" s="37">
         <f t="shared" si="0"/>
-        <v>25045532.8265744</v>
+        <v>15258510.726362295</v>
       </c>
       <c r="E50" s="37">
         <f t="shared" si="1"/>
-        <v>-3463599.9111144291</v>
+        <v>566684.86520574486</v>
       </c>
       <c r="F50" s="37">
         <f t="shared" si="5"/>
-        <v>-232755605.74175704</v>
+        <v>31079114.28133896</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4614,24 +4628,24 @@
         <v>35</v>
       </c>
       <c r="B51" s="38">
+        <f t="shared" si="2"/>
+        <v>43951</v>
+      </c>
+      <c r="C51" s="37">
         <f t="shared" si="3"/>
-        <v>43951</v>
-      </c>
-      <c r="C51" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D51" s="37">
         <f t="shared" si="0"/>
-        <v>25463171.239841722</v>
+        <v>15445114.314542999</v>
       </c>
       <c r="E51" s="37">
         <f t="shared" si="1"/>
-        <v>-3881238.324381751</v>
+        <v>380081.27702503972</v>
       </c>
       <c r="F51" s="37">
         <f t="shared" si="5"/>
-        <v>-258218776.98159876</v>
+        <v>15633999.96679596</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4639,24 +4653,24 @@
         <v>36</v>
       </c>
       <c r="B52" s="38">
+        <f t="shared" si="2"/>
+        <v>43981</v>
+      </c>
+      <c r="C52" s="37">
         <f t="shared" si="3"/>
-        <v>43981</v>
-      </c>
-      <c r="C52" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D52" s="37">
         <f t="shared" si="0"/>
-        <v>25887773.842908647</v>
+        <v>15633999.966795774</v>
       </c>
       <c r="E52" s="37">
         <f t="shared" si="1"/>
-        <v>-4305840.927448676</v>
+        <v>191195.62477226535</v>
       </c>
       <c r="F52" s="37">
         <f t="shared" si="5"/>
-        <v>-284106550.82450742</v>
+        <v>1.862645149230957E-7</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4664,24 +4678,24 @@
         <v>37</v>
       </c>
       <c r="B53" s="38">
+        <f t="shared" si="2"/>
+        <v>44012</v>
+      </c>
+      <c r="C53" s="37">
         <f t="shared" si="3"/>
-        <v>44012</v>
-      </c>
-      <c r="C53" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D53" s="37">
         <f t="shared" si="0"/>
-        <v>26319456.764794979</v>
+        <v>15825195.591568038</v>
       </c>
       <c r="E53" s="37">
         <f t="shared" si="1"/>
-        <v>-4737523.8493350064</v>
+        <v>2.2779173838595551E-9</v>
       </c>
       <c r="F53" s="37">
         <f t="shared" si="5"/>
-        <v>-310426007.58930242</v>
+        <v>-15825195.591567852</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4689,24 +4703,24 @@
         <v>38</v>
       </c>
       <c r="B54" s="38">
+        <f t="shared" si="2"/>
+        <v>44042</v>
+      </c>
+      <c r="C54" s="37">
         <f t="shared" si="3"/>
-        <v>44042</v>
-      </c>
-      <c r="C54" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D54" s="37">
         <f t="shared" si="0"/>
-        <v>26758338.070991181</v>
+        <v>16018729.438612891</v>
       </c>
       <c r="E54" s="37">
         <f t="shared" si="1"/>
-        <v>-5176405.1555312099</v>
+        <v>-193533.84704485227</v>
       </c>
       <c r="F54" s="37">
         <f t="shared" si="5"/>
-        <v>-337184345.66029358</v>
+        <v>-31843925.030180745</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4714,24 +4728,24 @@
         <v>39</v>
       </c>
       <c r="B55" s="38">
+        <f t="shared" si="2"/>
+        <v>44073</v>
+      </c>
+      <c r="C55" s="37">
         <f t="shared" si="3"/>
-        <v>44073</v>
-      </c>
-      <c r="C55" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D55" s="37">
         <f t="shared" si="0"/>
-        <v>27204537.795749359</v>
+        <v>16214630.103163114</v>
       </c>
       <c r="E55" s="37">
         <f t="shared" si="1"/>
-        <v>-5622604.8802893851</v>
+        <v>-389434.51159507391</v>
       </c>
       <c r="F55" s="37">
         <f t="shared" si="5"/>
-        <v>-364388883.45604295</v>
+        <v>-48058555.133343861</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4739,24 +4753,24 @@
         <v>40</v>
       </c>
       <c r="B56" s="38">
+        <f t="shared" si="2"/>
+        <v>44104</v>
+      </c>
+      <c r="C56" s="37">
         <f t="shared" si="3"/>
-        <v>44104</v>
-      </c>
-      <c r="C56" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D56" s="37">
         <f t="shared" si="0"/>
-        <v>27658177.974912662</v>
+        <v>16412926.530156186</v>
       </c>
       <c r="E56" s="37">
         <f t="shared" si="1"/>
-        <v>-6076245.0594526902</v>
+        <v>-587730.93858814647</v>
       </c>
       <c r="F56" s="37">
         <f t="shared" si="5"/>
-        <v>-392047061.43095559</v>
+        <v>-64471481.663500048</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4764,24 +4778,24 @@
         <v>41</v>
       </c>
       <c r="B57" s="38">
+        <f t="shared" si="2"/>
+        <v>44134</v>
+      </c>
+      <c r="C57" s="37">
         <f t="shared" si="3"/>
-        <v>44134</v>
-      </c>
-      <c r="C57" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D57" s="37">
         <f t="shared" si="0"/>
-        <v>28119382.67929218</v>
+        <v>16613648.018511007</v>
       </c>
       <c r="E57" s="37">
         <f t="shared" si="1"/>
-        <v>-6537449.7638322059</v>
+        <v>-788452.42694296711</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="5"/>
-        <v>-420166444.11024779</v>
+        <v>-81085129.682011053</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4789,24 +4803,24 @@
         <v>42</v>
       </c>
       <c r="B58" s="38">
+        <f t="shared" si="2"/>
+        <v>44165</v>
+      </c>
+      <c r="C58" s="37">
         <f t="shared" si="3"/>
-        <v>44165</v>
-      </c>
-      <c r="C58" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D58" s="37">
         <f t="shared" si="0"/>
-        <v>28588278.048600338</v>
+        <v>16816824.225456893</v>
       </c>
       <c r="E58" s="37">
         <f t="shared" si="1"/>
-        <v>-7006345.1331403647</v>
+        <v>-991628.6338888536</v>
       </c>
       <c r="F58" s="37">
         <f t="shared" si="5"/>
-        <v>-448754722.15884811</v>
+        <v>-97901953.907467946</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4814,24 +4828,24 @@
         <v>43</v>
       </c>
       <c r="B59" s="38">
+        <f t="shared" si="2"/>
+        <v>44195</v>
+      </c>
+      <c r="C59" s="37">
         <f t="shared" si="3"/>
-        <v>44195</v>
-      </c>
-      <c r="C59" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D59" s="37">
         <f t="shared" si="0"/>
-        <v>29064992.32595019</v>
+        <v>17022485.170915533</v>
       </c>
       <c r="E59" s="37">
         <f t="shared" si="1"/>
-        <v>-7483059.4104902176</v>
+        <v>-1197289.5793474934</v>
       </c>
       <c r="F59" s="37">
         <f t="shared" si="5"/>
-        <v>-477819714.48479831</v>
+        <v>-114924439.07838348</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4839,24 +4853,24 @@
         <v>44</v>
       </c>
       <c r="B60" s="38">
+        <f t="shared" si="2"/>
+        <v>44226</v>
+      </c>
+      <c r="C60" s="37">
         <f t="shared" si="3"/>
-        <v>44226</v>
-      </c>
-      <c r="C60" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D60" s="37">
         <f t="shared" si="0"/>
-        <v>29549655.892929971</v>
+        <v>17230661.24193652</v>
       </c>
       <c r="E60" s="37">
         <f t="shared" si="1"/>
-        <v>-7967722.9774699984</v>
+        <v>-1405465.6503684798</v>
       </c>
       <c r="F60" s="37">
         <f t="shared" si="5"/>
-        <v>-507369370.37772828</v>
+        <v>-132155100.32032</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4864,24 +4878,24 @@
         <v>45</v>
       </c>
       <c r="B61" s="38">
+        <f t="shared" si="2"/>
+        <v>44255</v>
+      </c>
+      <c r="C61" s="37">
         <f t="shared" si="3"/>
-        <v>44255</v>
-      </c>
-      <c r="C61" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D61" s="37">
         <f t="shared" si="0"/>
-        <v>30042401.305262513</v>
+        <v>17441383.197187137</v>
       </c>
       <c r="E61" s="37">
         <f t="shared" si="1"/>
-        <v>-8460468.3898025416</v>
+        <v>-1616187.6056190957</v>
       </c>
       <c r="F61" s="37">
         <f t="shared" si="5"/>
-        <v>-537411771.68299079</v>
+        <v>-149596483.51750714</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4889,24 +4903,24 @@
         <v>46</v>
       </c>
       <c r="B62" s="38">
+        <f t="shared" si="2"/>
+        <v>44285</v>
+      </c>
+      <c r="C62" s="37">
         <f t="shared" si="3"/>
-        <v>44285</v>
-      </c>
-      <c r="C62" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D62" s="37">
         <f t="shared" si="0"/>
-        <v>30543363.329059318</v>
+        <v>17654682.171497043</v>
       </c>
       <c r="E62" s="37">
         <f t="shared" si="1"/>
-        <v>-8961430.413599344</v>
+        <v>-1829486.5799290021</v>
       </c>
       <c r="F62" s="37">
         <f t="shared" si="5"/>
-        <v>-567955135.01205015</v>
+        <v>-167251165.68900418</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4914,24 +4928,24 @@
         <v>47</v>
       </c>
       <c r="B63" s="38">
+        <f t="shared" si="2"/>
+        <v>44316</v>
+      </c>
+      <c r="C63" s="37">
         <f t="shared" si="3"/>
-        <v>44316</v>
-      </c>
-      <c r="C63" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D63" s="37">
         <f t="shared" si="0"/>
-        <v>31052678.977679133</v>
+        <v>17870589.680458546</v>
       </c>
       <c r="E63" s="37">
         <f t="shared" si="1"/>
-        <v>-9470746.0622191597</v>
+        <v>-2045394.088890506</v>
       </c>
       <c r="F63" s="37">
         <f t="shared" si="5"/>
-        <v>-599007813.98972929</v>
+        <v>-185121755.36946273</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4939,24 +4953,24 @@
         <v>48</v>
       </c>
       <c r="B64" s="38">
+        <f t="shared" si="2"/>
+        <v>44346</v>
+      </c>
+      <c r="C64" s="37">
         <f t="shared" si="3"/>
-        <v>44346</v>
-      </c>
-      <c r="C64" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D64" s="37">
         <f t="shared" si="0"/>
-        <v>31570487.549201198</v>
+        <v>18089137.62508313</v>
       </c>
       <c r="E64" s="37">
         <f t="shared" si="1"/>
-        <v>-9988554.6337412242</v>
+        <v>-2263942.0335150901</v>
       </c>
       <c r="F64" s="37">
         <f t="shared" si="5"/>
-        <v>-630578301.53893054</v>
+        <v>-203210892.99454585</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4964,24 +4978,24 @@
         <v>49</v>
       </c>
       <c r="B65" s="38">
+        <f t="shared" si="2"/>
+        <v>44377</v>
+      </c>
+      <c r="C65" s="37">
         <f t="shared" si="3"/>
-        <v>44377</v>
-      </c>
-      <c r="C65" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D65" s="37">
         <f t="shared" si="0"/>
-        <v>32096930.664523311</v>
+        <v>18310358.296514925</v>
       </c>
       <c r="E65" s="37">
         <f t="shared" si="1"/>
-        <v>-10514997.749063339</v>
+        <v>-2485162.7049468849</v>
       </c>
       <c r="F65" s="37">
         <f t="shared" si="5"/>
-        <v>-662675232.2034539</v>
+        <v>-221521251.29106078</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4989,24 +5003,24 @@
         <v>50</v>
       </c>
       <c r="B66" s="38">
+        <f t="shared" si="2"/>
+        <v>44407</v>
+      </c>
+      <c r="C66" s="37">
         <f t="shared" si="3"/>
-        <v>44407</v>
-      </c>
-      <c r="C66" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D66" s="37">
         <f t="shared" si="0"/>
-        <v>32632152.306095243</v>
+        <v>18534284.380801827</v>
       </c>
       <c r="E66" s="37">
         <f t="shared" si="1"/>
-        <v>-11050219.390635269</v>
+        <v>-2709088.7892337884</v>
       </c>
       <c r="F66" s="37">
         <f t="shared" si="5"/>
-        <v>-695307384.50954914</v>
+        <v>-240055535.6718626</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5014,24 +5028,24 @@
         <v>51</v>
       </c>
       <c r="B67" s="38">
+        <f t="shared" si="2"/>
+        <v>44438</v>
+      </c>
+      <c r="C67" s="37">
         <f t="shared" si="3"/>
-        <v>44438</v>
-      </c>
-      <c r="C67" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D67" s="37">
         <f t="shared" si="0"/>
-        <v>33176298.857297972</v>
+        <v>18760948.963724971</v>
       </c>
       <c r="E67" s="37">
         <f t="shared" si="1"/>
-        <v>-11594365.941837998</v>
+        <v>-2935753.372156932</v>
       </c>
       <c r="F67" s="37">
         <f t="shared" si="5"/>
-        <v>-728483683.36684716</v>
+        <v>-258816484.63558757</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5039,24 +5053,24 @@
         <v>52</v>
       </c>
       <c r="B68" s="38">
+        <f t="shared" si="2"/>
+        <v>44469</v>
+      </c>
+      <c r="C68" s="37">
         <f t="shared" si="3"/>
-        <v>44469</v>
-      </c>
-      <c r="C68" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D68" s="37">
         <f t="shared" si="0"/>
-        <v>33729519.142479643</v>
+        <v>18990385.535687245</v>
       </c>
       <c r="E68" s="37">
         <f t="shared" si="1"/>
-        <v>-12147586.227019669</v>
+        <v>-3165189.9441192066</v>
       </c>
       <c r="F68" s="37">
         <f t="shared" si="5"/>
-        <v>-762213202.50932682</v>
+        <v>-277806870.17127484</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5064,24 +5078,24 @@
         <v>53</v>
       </c>
       <c r="B69" s="38">
+        <f t="shared" si="2"/>
+        <v>44499</v>
+      </c>
+      <c r="C69" s="37">
         <f t="shared" si="3"/>
-        <v>44499</v>
-      </c>
-      <c r="C69" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D69" s="37">
         <f t="shared" si="0"/>
-        <v>34291964.467659079</v>
+        <v>19222627.996661618</v>
       </c>
       <c r="E69" s="37">
         <f t="shared" si="1"/>
-        <v>-12710031.552199109</v>
+        <v>-3397432.4050935768</v>
       </c>
       <c r="F69" s="37">
         <f t="shared" si="5"/>
-        <v>-796505166.97698593</v>
+        <v>-297029498.16793644</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5089,24 +5103,24 @@
         <v>54</v>
       </c>
       <c r="B70" s="38">
+        <f t="shared" si="2"/>
+        <v>44530</v>
+      </c>
+      <c r="C70" s="37">
         <f t="shared" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="C70" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D70" s="37">
         <f t="shared" si="0"/>
-        <v>34863788.661908075</v>
+        <v>19457710.661199946</v>
       </c>
       <c r="E70" s="37">
         <f t="shared" si="1"/>
-        <v>-13281855.7464481</v>
+        <v>-3632515.0696319067</v>
       </c>
       <c r="F70" s="37">
         <f t="shared" si="5"/>
-        <v>-831368955.63889396</v>
+        <v>-316487208.82913637</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5114,24 +5128,24 @@
         <v>55</v>
       </c>
       <c r="B71" s="38">
+        <f t="shared" si="2"/>
+        <v>44560</v>
+      </c>
+      <c r="C71" s="37">
         <f t="shared" si="3"/>
-        <v>44560</v>
-      </c>
-      <c r="C71" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D71" s="37">
         <f t="shared" si="0"/>
-        <v>35445148.119423673</v>
+        <v>19695668.263503082</v>
       </c>
       <c r="E71" s="37">
         <f t="shared" si="1"/>
-        <v>-13863215.203963703</v>
+        <v>-3870472.6719350438</v>
       </c>
       <c r="F71" s="37">
         <f t="shared" si="5"/>
-        <v>-866814103.75831759</v>
+        <v>-336182877.09263945</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5139,24 +5153,24 @@
         <v>56</v>
       </c>
       <c r="B72" s="38">
+        <f t="shared" si="2"/>
+        <v>44591</v>
+      </c>
+      <c r="C72" s="37">
         <f t="shared" si="3"/>
-        <v>44591</v>
-      </c>
-      <c r="C72" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D72" s="37">
         <f t="shared" si="0"/>
-        <v>36036201.842302129</v>
+        <v>19936535.962552946</v>
       </c>
       <c r="E72" s="37">
         <f t="shared" si="1"/>
-        <v>-14454268.926842153</v>
+        <v>-4111340.3709849049</v>
       </c>
       <c r="F72" s="37">
         <f t="shared" si="5"/>
-        <v>-902850305.60061967</v>
+        <v>-356119413.05519241</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5164,24 +5178,24 @@
         <v>57</v>
       </c>
       <c r="B73" s="38">
+        <f t="shared" si="2"/>
+        <v>44620</v>
+      </c>
+      <c r="C73" s="37">
         <f t="shared" si="3"/>
-        <v>44620</v>
-      </c>
-      <c r="C73" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D73" s="37">
         <f t="shared" si="0"/>
-        <v>36637111.484025985</v>
+        <v>20180349.347307369</v>
       </c>
       <c r="E73" s="37">
         <f t="shared" si="1"/>
-        <v>-15055178.568566013</v>
+        <v>-4355153.7557393275</v>
       </c>
       <c r="F73" s="37">
         <f t="shared" si="5"/>
-        <v>-939487417.08464563</v>
+        <v>-376299762.40249979</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5189,24 +5203,24 @@
         <v>58</v>
       </c>
       <c r="B74" s="38">
+        <f t="shared" si="2"/>
+        <v>44650</v>
+      </c>
+      <c r="C74" s="37">
         <f t="shared" si="3"/>
-        <v>44650</v>
-      </c>
-      <c r="C74" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D74" s="37">
         <f t="shared" si="0"/>
-        <v>37248041.393676437</v>
+        <v>20427144.441958487</v>
       </c>
       <c r="E74" s="37">
         <f t="shared" si="1"/>
-        <v>-15666108.478216467</v>
+        <v>-4601948.8503904473</v>
       </c>
       <c r="F74" s="37">
         <f t="shared" si="5"/>
-        <v>-976735458.47832203</v>
+        <v>-396726906.84445828</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5214,24 +5228,24 @@
         <v>59</v>
       </c>
       <c r="B75" s="38">
+        <f t="shared" si="2"/>
+        <v>44681</v>
+      </c>
+      <c r="C75" s="37">
         <f t="shared" si="3"/>
-        <v>44681</v>
-      </c>
-      <c r="C75" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D75" s="37">
         <f t="shared" si="0"/>
-        <v>37869158.66088286</v>
+        <v>20676957.711255427</v>
       </c>
       <c r="E75" s="37">
         <f t="shared" si="1"/>
-        <v>-16287225.745422887</v>
+        <v>-4851762.1196873877</v>
       </c>
       <c r="F75" s="37">
         <f t="shared" si="5"/>
-        <v>-1014604617.1392049</v>
+        <v>-417403864.55571371</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5239,24 +5253,24 @@
         <v>60</v>
       </c>
       <c r="B76" s="38">
+        <f t="shared" si="2"/>
+        <v>44711</v>
+      </c>
+      <c r="C76" s="37">
         <f t="shared" si="3"/>
-        <v>44711</v>
-      </c>
-      <c r="C76" s="37">
-        <f t="shared" si="4"/>
-        <v>21581932.915459972</v>
+        <v>15825195.59156804</v>
       </c>
       <c r="D76" s="37">
         <f t="shared" si="0"/>
-        <v>38500633.161521889</v>
+        <v>20929826.065892082</v>
       </c>
       <c r="E76" s="37">
         <f t="shared" si="1"/>
-        <v>-16918700.246061917</v>
+        <v>-5104630.474324041</v>
       </c>
       <c r="F76" s="37">
         <f t="shared" si="5"/>
-        <v>-1053105250.3007268</v>
+        <v>-438333690.62160581</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5282,7 +5296,7 @@
       </c>
       <c r="E79" s="40">
         <f ca="1">SUM(E83:INDIRECT(CONCATENATE("E",82+B10)))</f>
-        <v>85470878.58340694</v>
+        <v>104209979.80464816</v>
       </c>
       <c r="F79" s="44"/>
     </row>
@@ -5290,9 +5304,9 @@
       <c r="A80" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B80" s="95">
+      <c r="B80" s="94">
         <f>PMT(B9,B10,B11,B12,B79)</f>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="C80" s="47"/>
       <c r="D80" s="46" t="s">
@@ -5300,7 +5314,7 @@
       </c>
       <c r="E80" s="45">
         <f ca="1">F82+E79</f>
-        <v>509470878.58340693</v>
+        <v>562823998.80464816</v>
       </c>
       <c r="F80" s="44"/>
     </row>
@@ -5331,7 +5345,7 @@
       </c>
       <c r="F82" s="39">
         <f>B3</f>
-        <v>424000000</v>
+        <v>458614019</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5344,18 +5358,18 @@
       </c>
       <c r="C83" s="37">
         <f>B80</f>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D83" s="37">
         <f t="shared" ref="D83:D142" si="6">C83-E83</f>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="E83" s="37">
         <v>0</v>
       </c>
       <c r="F83" s="37">
         <f t="shared" ref="F83:F94" si="7">F82-D83</f>
-        <v>402772046.72569138</v>
+        <v>442980019.0332042</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5368,19 +5382,19 @@
       </c>
       <c r="C84" s="37">
         <f t="shared" ref="C84:C142" si="9">$C$83</f>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D84" s="37">
         <f t="shared" si="6"/>
-        <v>14511662.602126636</v>
+        <v>10216586.529379666</v>
       </c>
       <c r="E84" s="37">
         <f t="shared" ref="E84:E142" si="10">F83*$B$9</f>
-        <v>6716290.6721819863</v>
+        <v>5417413.4374161111</v>
       </c>
       <c r="F84" s="37">
         <f t="shared" si="7"/>
-        <v>388260384.12356472</v>
+        <v>432763432.50382453</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5393,19 +5407,19 @@
       </c>
       <c r="C85" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D85" s="37">
         <f t="shared" si="6"/>
-        <v>14753646.982534479</v>
+        <v>10341530.027439872</v>
       </c>
       <c r="E85" s="37">
         <f t="shared" si="10"/>
-        <v>6474306.2917741425</v>
+        <v>5292469.9393559042</v>
       </c>
       <c r="F85" s="37">
         <f t="shared" si="7"/>
-        <v>373506737.14103025</v>
+        <v>422421902.47638464</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5418,19 +5432,19 @@
       </c>
       <c r="C86" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D86" s="37">
         <f t="shared" si="6"/>
-        <v>14999666.4926147</v>
+        <v>10468001.51899014</v>
       </c>
       <c r="E86" s="37">
         <f t="shared" si="10"/>
-        <v>6228286.7816939224</v>
+        <v>5165998.4478056366</v>
       </c>
       <c r="F86" s="37">
         <f t="shared" si="7"/>
-        <v>358507070.64841557</v>
+        <v>411953900.95739448</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5443,19 +5457,19 @@
       </c>
       <c r="C87" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D87" s="37">
         <f t="shared" si="6"/>
-        <v>15249788.418823741</v>
+        <v>10596019.690589927</v>
       </c>
       <c r="E87" s="37">
         <f t="shared" si="10"/>
-        <v>5978164.8554848796</v>
+        <v>5037980.2762058498</v>
       </c>
       <c r="F87" s="37">
         <f t="shared" si="7"/>
-        <v>343257282.22959185</v>
+        <v>401357881.26680458</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5468,19 +5482,19 @@
       </c>
       <c r="C88" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D88" s="37">
         <f t="shared" si="6"/>
-        <v>15504081.169630874</v>
+        <v>10725603.45732552</v>
       </c>
       <c r="E88" s="37">
         <f t="shared" si="10"/>
-        <v>5723872.1046777479</v>
+        <v>4908396.509470256</v>
       </c>
       <c r="F88" s="37">
         <f t="shared" si="7"/>
-        <v>327753201.05996096</v>
+        <v>390632277.80947906</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5493,19 +5507,19 @@
       </c>
       <c r="C89" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D89" s="37">
         <f t="shared" si="6"/>
-        <v>15762614.29422793</v>
+        <v>10856771.965604799</v>
       </c>
       <c r="E89" s="37">
         <f t="shared" si="10"/>
-        <v>5465338.9800806921</v>
+        <v>4777228.0011909772</v>
       </c>
       <c r="F89" s="37">
         <f t="shared" si="7"/>
-        <v>311990586.765733</v>
+        <v>379775505.84387428</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5518,19 +5532,19 @@
       </c>
       <c r="C90" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D90" s="37">
         <f t="shared" si="6"/>
-        <v>16025458.501551051</v>
+        <v>10989544.595986173</v>
       </c>
       <c r="E90" s="37">
         <f t="shared" si="10"/>
-        <v>5202494.7727575703</v>
+        <v>4644455.3708096035</v>
       </c>
       <c r="F90" s="37">
         <f t="shared" si="7"/>
-        <v>295965128.26418197</v>
+        <v>368785961.24788809</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5543,19 +5557,19 @@
       </c>
       <c r="C91" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D91" s="37">
         <f t="shared" si="6"/>
-        <v>16292685.679619618</v>
+        <v>11123940.966042124</v>
       </c>
       <c r="E91" s="37">
         <f t="shared" si="10"/>
-        <v>4935267.5946890051</v>
+        <v>4510059.0007536514</v>
       </c>
       <c r="F91" s="37">
         <f t="shared" si="7"/>
-        <v>279672442.58456236</v>
+        <v>357662020.28184599</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5568,19 +5582,19 @@
       </c>
       <c r="C92" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D92" s="37">
         <f t="shared" si="6"/>
-        <v>16564368.915197648</v>
+        <v>11259980.933257762</v>
       </c>
       <c r="E92" s="37">
         <f t="shared" si="10"/>
-        <v>4663584.3591109728</v>
+        <v>4374019.0335380128</v>
       </c>
       <c r="F92" s="37">
         <f t="shared" si="7"/>
-        <v>263108073.66936472</v>
+        <v>346402039.34858823</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5593,19 +5607,19 @@
       </c>
       <c r="C93" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D93" s="37">
         <f t="shared" si="6"/>
-        <v>16840582.513783082</v>
+        <v>11397684.597964834</v>
       </c>
       <c r="E93" s="37">
         <f t="shared" si="10"/>
-        <v>4387370.7605255404</v>
+        <v>4236315.3688309425</v>
       </c>
       <c r="F93" s="37">
         <f t="shared" si="7"/>
-        <v>246267491.15558165</v>
+        <v>335004354.7506234</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5618,19 +5632,19 @@
       </c>
       <c r="C94" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D94" s="37">
         <f t="shared" si="6"/>
-        <v>17121402.019930348</v>
+        <v>11537072.3063116</v>
       </c>
       <c r="E94" s="37">
         <f t="shared" si="10"/>
-        <v>4106551.2543782745</v>
+        <v>4096927.6604841761</v>
       </c>
       <c r="F94" s="37">
         <f t="shared" si="7"/>
-        <v>229146089.13565129</v>
+        <v>323467282.4443118</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5643,19 +5657,19 @@
       </c>
       <c r="C95" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D95" s="37">
         <f t="shared" si="6"/>
-        <v>17406904.237911854</v>
+        <v>11678164.653269056</v>
       </c>
       <c r="E95" s="37">
         <f t="shared" si="10"/>
-        <v>3821049.0363967675</v>
+        <v>3955835.3135267193</v>
       </c>
       <c r="F95" s="37">
         <f t="shared" ref="F95:F142" si="11">F94-D95</f>
-        <v>211739184.89773944</v>
+        <v>311789117.79104275</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5668,19 +5682,19 @@
       </c>
       <c r="C96" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D96" s="37">
         <f t="shared" si="6"/>
-        <v>17697167.252723988</v>
+        <v>11820982.485673899</v>
       </c>
       <c r="E96" s="37">
         <f t="shared" si="10"/>
-        <v>3530786.0215846342</v>
+        <v>3813017.4811218777</v>
       </c>
       <c r="F96" s="37">
         <f t="shared" si="11"/>
-        <v>194042017.64501545</v>
+        <v>299968135.30536884</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5693,19 +5707,19 @@
       </c>
       <c r="C97" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D97" s="37">
         <f t="shared" si="6"/>
-        <v>17992270.451443397</v>
+        <v>11965546.905308705</v>
       </c>
       <c r="E97" s="37">
         <f t="shared" si="10"/>
-        <v>3235682.8228652258</v>
+        <v>3668453.0614870721</v>
       </c>
       <c r="F97" s="37">
         <f t="shared" si="11"/>
-        <v>176049747.19357204</v>
+        <v>288002588.40006012</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5718,19 +5732,19 @@
       </c>
       <c r="C98" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D98" s="37">
         <f t="shared" si="6"/>
-        <v>18292294.544939399</v>
+        <v>12111879.272019792</v>
       </c>
       <c r="E98" s="37">
         <f t="shared" si="10"/>
-        <v>2935658.7293692236</v>
+        <v>3522120.6947759828</v>
       </c>
       <c r="F98" s="37">
         <f t="shared" si="11"/>
-        <v>157757452.64863265</v>
+        <v>275890709.12804031</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5743,19 +5757,19 @@
       </c>
       <c r="C99" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D99" s="37">
         <f t="shared" si="6"/>
-        <v>18597321.589948442</v>
+        <v>12260001.20687321</v>
       </c>
       <c r="E99" s="37">
         <f t="shared" si="10"/>
-        <v>2630631.6843601805</v>
+        <v>3373998.7599225654</v>
       </c>
       <c r="F99" s="37">
         <f t="shared" si="11"/>
-        <v>139160131.0586842</v>
+        <v>263630707.92116711</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5768,19 +5782,19 @@
       </c>
       <c r="C100" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D100" s="37">
         <f t="shared" si="6"/>
-        <v>18907435.01151666</v>
+        <v>12409934.595349304</v>
       </c>
       <c r="E100" s="37">
         <f t="shared" si="10"/>
-        <v>2320518.26279196</v>
+        <v>3224065.3714464721</v>
       </c>
       <c r="F100" s="37">
         <f t="shared" si="11"/>
-        <v>120252696.04716754</v>
+        <v>251220773.32581779</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5793,19 +5807,19 @@
       </c>
       <c r="C101" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D101" s="37">
         <f t="shared" si="6"/>
-        <v>19222719.625816677</v>
+        <v>12561701.590576377</v>
       </c>
       <c r="E101" s="37">
         <f t="shared" si="10"/>
-        <v>2005233.6484919467</v>
+        <v>3072298.3762194002</v>
       </c>
       <c r="F101" s="37">
         <f t="shared" si="11"/>
-        <v>101029976.42135087</v>
+        <v>238659071.73524141</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5818,19 +5832,19 @@
       </c>
       <c r="C102" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D102" s="37">
         <f t="shared" si="6"/>
-        <v>19543261.663344838</v>
+        <v>12715324.616603874</v>
       </c>
       <c r="E102" s="37">
         <f t="shared" si="10"/>
-        <v>1684691.6109637825</v>
+        <v>2918675.3501919014</v>
       </c>
       <c r="F102" s="37">
         <f t="shared" si="11"/>
-        <v>81486714.758006036</v>
+        <v>225943747.11863753</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5843,19 +5857,19 @@
       </c>
       <c r="C103" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D103" s="37">
         <f t="shared" si="6"/>
-        <v>19869148.792505339</v>
+        <v>12870826.37171562</v>
       </c>
       <c r="E103" s="37">
         <f t="shared" si="10"/>
-        <v>1358804.4818032815</v>
+        <v>2763173.5950801559</v>
       </c>
       <c r="F103" s="37">
         <f t="shared" si="11"/>
-        <v>61617565.965500697</v>
+        <v>213072920.7469219</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -5868,19 +5882,19 @@
       </c>
       <c r="C104" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D104" s="37">
         <f t="shared" si="6"/>
-        <v>20200470.143587541</v>
+        <v>13028229.831783546</v>
       </c>
       <c r="E104" s="37">
         <f t="shared" si="10"/>
-        <v>1027483.1307210802</v>
+        <v>2605770.1350122304</v>
       </c>
       <c r="F104" s="37">
         <f t="shared" si="11"/>
-        <v>41417095.821913153</v>
+        <v>200044690.91513836</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -5893,19 +5907,19 @@
       </c>
       <c r="C105" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D105" s="37">
         <f t="shared" si="6"/>
-        <v>20537316.333143163</v>
+        <v>13187558.253662456</v>
       </c>
       <c r="E105" s="37">
         <f t="shared" si="10"/>
-        <v>690636.94116545899</v>
+        <v>2446441.7131333211</v>
       </c>
       <c r="F105" s="37">
         <f t="shared" si="11"/>
-        <v>20879779.488769989</v>
+        <v>186857132.6614759</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5918,19 +5932,19 @@
       </c>
       <c r="C106" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D106" s="37">
         <f t="shared" si="6"/>
-        <v>20879779.488769952</v>
+        <v>13348835.178626295</v>
       </c>
       <c r="E106" s="37">
         <f t="shared" si="10"/>
-        <v>348173.78553867148</v>
+        <v>2285164.7881694804</v>
       </c>
       <c r="F106" s="37">
         <f t="shared" si="11"/>
-        <v>3.7252902984619141E-8</v>
+        <v>173508297.4828496</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5943,19 +5957,19 @@
       </c>
       <c r="C107" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D107" s="37">
         <f t="shared" si="6"/>
-        <v>21227953.274308622</v>
+        <v>13512084.435846455</v>
       </c>
       <c r="E107" s="37">
         <f t="shared" si="10"/>
-        <v>6.2119833504160254E-10</v>
+        <v>2121915.5309493202</v>
       </c>
       <c r="F107" s="37">
         <f t="shared" si="11"/>
-        <v>-21227953.274308585</v>
+        <v>159996213.04700315</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5968,19 +5982,19 @@
       </c>
       <c r="C108" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D108" s="37">
         <f t="shared" si="6"/>
-        <v>21581932.915459968</v>
+        <v>13677330.145912599</v>
       </c>
       <c r="E108" s="37">
         <f t="shared" si="10"/>
-        <v>-353979.64115134702</v>
+        <v>1956669.8208831765</v>
       </c>
       <c r="F108" s="37">
         <f t="shared" si="11"/>
-        <v>-42809886.189768553</v>
+        <v>146318882.90109056</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -5993,19 +6007,19 @@
       </c>
       <c r="C109" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D109" s="37">
         <f t="shared" si="6"/>
-        <v>21941815.225829139</v>
+        <v>13844596.724396558</v>
       </c>
       <c r="E109" s="37">
         <f t="shared" si="10"/>
-        <v>-713861.95152051712</v>
+        <v>1789403.2423992171</v>
       </c>
       <c r="F109" s="37">
         <f t="shared" si="11"/>
-        <v>-64751701.415597692</v>
+        <v>132474286.17669401</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -6018,19 +6032,19 @@
       </c>
       <c r="C110" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D110" s="37">
         <f t="shared" si="6"/>
-        <v>22307698.633404199</v>
+        <v>14013908.885459812</v>
       </c>
       <c r="E110" s="37">
         <f t="shared" si="10"/>
-        <v>-1079745.3590955765</v>
+        <v>1620091.0813359637</v>
       </c>
       <c r="F110" s="37">
         <f t="shared" si="11"/>
-        <v>-87059400.049001887</v>
+        <v>118460377.2912342</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6043,19 +6057,19 @@
       </c>
       <c r="C111" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D111" s="37">
         <f t="shared" si="6"/>
-        <v>22679683.207476236</v>
+        <v>14185291.645505078</v>
       </c>
       <c r="E111" s="37">
         <f t="shared" si="10"/>
-        <v>-1451729.9331676147</v>
+        <v>1448708.3212906974</v>
       </c>
       <c r="F111" s="37">
         <f t="shared" si="11"/>
-        <v>-109739083.25647813</v>
+        <v>104275085.64572912</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6068,19 +6082,19 @@
       </c>
       <c r="C112" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D112" s="37">
         <f t="shared" si="6"/>
-        <v>23057870.686008368</v>
+        <v>14358770.326872569</v>
       </c>
       <c r="E112" s="37">
         <f t="shared" si="10"/>
-        <v>-1829917.4116997465</v>
+        <v>1275229.6399232079</v>
       </c>
       <c r="F112" s="37">
         <f t="shared" si="11"/>
-        <v>-132796953.94248649</v>
+        <v>89916315.318856552</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6093,19 +6107,19 @@
       </c>
       <c r="C113" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D113" s="37">
         <f t="shared" si="6"/>
-        <v>23442364.503461115</v>
+        <v>14534370.56158144</v>
       </c>
       <c r="E113" s="37">
         <f t="shared" si="10"/>
-        <v>-2214411.2291524913</v>
+        <v>1099629.4052143362</v>
       </c>
       <c r="F113" s="37">
         <f t="shared" si="11"/>
-        <v>-156239318.44594762</v>
+        <v>75381944.757275105</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -6118,19 +6132,19 @@
       </c>
       <c r="C114" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D114" s="37">
         <f t="shared" si="6"/>
-        <v>23833269.819081776</v>
+        <v>14712118.295117011</v>
       </c>
       <c r="E114" s="37">
         <f t="shared" si="10"/>
-        <v>-2605316.5447731526</v>
+        <v>921881.6716787644</v>
       </c>
       <c r="F114" s="37">
         <f t="shared" si="11"/>
-        <v>-180072588.2650294</v>
+        <v>60669826.462158091</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6143,19 +6157,19 @@
       </c>
       <c r="C115" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D115" s="37">
         <f t="shared" si="6"/>
-        <v>24230693.54566554</v>
+        <v>14892039.790264286</v>
       </c>
       <c r="E115" s="37">
         <f t="shared" si="10"/>
-        <v>-3002740.2713569193</v>
+        <v>741960.17653148959</v>
       </c>
       <c r="F115" s="37">
         <f t="shared" si="11"/>
-        <v>-204303281.81069493</v>
+        <v>45777786.671893805</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -6168,19 +6182,19 @@
       </c>
       <c r="C116" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D116" s="37">
         <f t="shared" si="6"/>
-        <v>24634744.378796194</v>
+        <v>15074161.630988361</v>
       </c>
       <c r="E116" s="37">
         <f t="shared" si="10"/>
-        <v>-3406791.1044875719</v>
+        <v>559838.33580741414</v>
       </c>
       <c r="F116" s="37">
         <f t="shared" si="11"/>
-        <v>-228938026.18949112</v>
+        <v>30703625.040905446</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -6193,19 +6207,19 @@
       </c>
       <c r="C117" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D117" s="37">
         <f t="shared" si="6"/>
-        <v>25045532.826574396</v>
+        <v>15258510.726362295</v>
       </c>
       <c r="E117" s="37">
         <f t="shared" si="10"/>
-        <v>-3817579.5522657745</v>
+        <v>375489.24043348135</v>
       </c>
       <c r="F117" s="37">
         <f t="shared" si="11"/>
-        <v>-253983559.01606551</v>
+        <v>15445114.31454315</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -6218,19 +6232,19 @@
       </c>
       <c r="C118" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D118" s="37">
         <f t="shared" si="6"/>
-        <v>25463171.239841718</v>
+        <v>15445114.314542999</v>
       </c>
       <c r="E118" s="37">
         <f t="shared" si="10"/>
-        <v>-4235217.9655330963</v>
+        <v>188885.6522527762</v>
       </c>
       <c r="F118" s="37">
         <f t="shared" si="11"/>
-        <v>-279446730.25590724</v>
+        <v>1.5087425708770752E-7</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -6243,19 +6257,19 @@
       </c>
       <c r="C119" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D119" s="37">
         <f t="shared" si="6"/>
-        <v>25887773.842908643</v>
+        <v>15633999.966795774</v>
       </c>
       <c r="E119" s="37">
         <f t="shared" si="10"/>
-        <v>-4659820.5686000213</v>
+        <v>1.8451130809262398E-9</v>
       </c>
       <c r="F119" s="37">
         <f t="shared" si="11"/>
-        <v>-305334504.09881586</v>
+        <v>-15633999.966795623</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -6268,19 +6282,19 @@
       </c>
       <c r="C120" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D120" s="37">
         <f t="shared" si="6"/>
-        <v>26319456.764794976</v>
+        <v>15825195.591568038</v>
       </c>
       <c r="E120" s="37">
         <f t="shared" si="10"/>
-        <v>-5091503.4904863518</v>
+        <v>-191195.62477226125</v>
       </c>
       <c r="F120" s="37">
         <f t="shared" si="11"/>
-        <v>-331653960.86361086</v>
+        <v>-31459195.558363661</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -6293,19 +6307,19 @@
       </c>
       <c r="C121" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D121" s="37">
         <f t="shared" si="6"/>
-        <v>26758338.070991177</v>
+        <v>16018729.438612891</v>
       </c>
       <c r="E121" s="37">
         <f t="shared" si="10"/>
-        <v>-5530384.7966825552</v>
+        <v>-384729.47181711579</v>
       </c>
       <c r="F121" s="37">
         <f t="shared" si="11"/>
-        <v>-358412298.93460202</v>
+        <v>-47477924.996976554</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -6318,19 +6332,19 @@
       </c>
       <c r="C122" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D122" s="37">
         <f t="shared" si="6"/>
-        <v>27204537.795749351</v>
+        <v>16214630.103163114</v>
       </c>
       <c r="E122" s="37">
         <f t="shared" si="10"/>
-        <v>-5976584.5214407295</v>
+        <v>-580630.13636733743</v>
       </c>
       <c r="F122" s="37">
         <f t="shared" si="11"/>
-        <v>-385616836.73035139</v>
+        <v>-63692555.10013967</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6343,19 +6357,19 @@
       </c>
       <c r="C123" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D123" s="37">
         <f t="shared" si="6"/>
-        <v>27658177.974912658</v>
+        <v>16412926.530156186</v>
       </c>
       <c r="E123" s="37">
         <f t="shared" si="10"/>
-        <v>-6430224.7006040346</v>
+        <v>-778926.56336040993</v>
       </c>
       <c r="F123" s="37">
         <f t="shared" si="11"/>
-        <v>-413275014.70526403</v>
+        <v>-80105481.630295858</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6368,19 +6382,19 @@
       </c>
       <c r="C124" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D124" s="37">
         <f t="shared" si="6"/>
-        <v>28119382.679292172</v>
+        <v>16613648.018511007</v>
       </c>
       <c r="E124" s="37">
         <f t="shared" si="10"/>
-        <v>-6891429.4049835503</v>
+        <v>-979648.05171523057</v>
       </c>
       <c r="F124" s="37">
         <f t="shared" si="11"/>
-        <v>-441394397.38455617</v>
+        <v>-96719129.64880687</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6393,19 +6407,19 @@
       </c>
       <c r="C125" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D125" s="37">
         <f t="shared" si="6"/>
-        <v>28588278.048600331</v>
+        <v>16816824.225456893</v>
       </c>
       <c r="E125" s="37">
         <f t="shared" si="10"/>
-        <v>-7360324.7742917081</v>
+        <v>-1182824.2586611172</v>
       </c>
       <c r="F125" s="37">
         <f t="shared" si="11"/>
-        <v>-469982675.43315649</v>
+        <v>-113535953.87426376</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6418,19 +6432,19 @@
       </c>
       <c r="C126" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D126" s="37">
         <f t="shared" si="6"/>
-        <v>29064992.325950183</v>
+        <v>17022485.170915533</v>
       </c>
       <c r="E126" s="37">
         <f t="shared" si="10"/>
-        <v>-7837039.0516415611</v>
+        <v>-1388485.2041197568</v>
       </c>
       <c r="F126" s="37">
         <f t="shared" si="11"/>
-        <v>-499047667.7591067</v>
+        <v>-130558439.04517929</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6443,19 +6457,19 @@
       </c>
       <c r="C127" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D127" s="37">
         <f t="shared" si="6"/>
-        <v>29549655.892929964</v>
+        <v>17230661.24193652</v>
       </c>
       <c r="E127" s="37">
         <f t="shared" si="10"/>
-        <v>-8321702.6186213419</v>
+        <v>-1596661.2751407435</v>
       </c>
       <c r="F127" s="37">
         <f t="shared" si="11"/>
-        <v>-528597323.65203667</v>
+        <v>-147789100.28711581</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -6468,19 +6482,19 @@
       </c>
       <c r="C128" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D128" s="37">
         <f t="shared" si="6"/>
-        <v>30042401.305262506</v>
+        <v>17441383.197187137</v>
       </c>
       <c r="E128" s="37">
         <f t="shared" si="10"/>
-        <v>-8814448.0309538841</v>
+        <v>-1807383.2303913594</v>
       </c>
       <c r="F128" s="37">
         <f t="shared" si="11"/>
-        <v>-558639724.95729923</v>
+        <v>-165230483.48430294</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6493,19 +6507,19 @@
       </c>
       <c r="C129" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D129" s="37">
         <f t="shared" si="6"/>
-        <v>30543363.32905931</v>
+        <v>17654682.171497043</v>
       </c>
       <c r="E129" s="37">
         <f t="shared" si="10"/>
-        <v>-9315410.0547506884</v>
+        <v>-2020682.2047012656</v>
       </c>
       <c r="F129" s="37">
         <f t="shared" si="11"/>
-        <v>-589183088.28635859</v>
+        <v>-182885165.65579998</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6518,19 +6532,19 @@
       </c>
       <c r="C130" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D130" s="37">
         <f t="shared" si="6"/>
-        <v>31052678.977679126</v>
+        <v>17870589.680458546</v>
       </c>
       <c r="E130" s="37">
         <f t="shared" si="10"/>
-        <v>-9824725.7033705041</v>
+        <v>-2236589.7136627696</v>
       </c>
       <c r="F130" s="37">
         <f t="shared" si="11"/>
-        <v>-620235767.26403773</v>
+        <v>-200755755.33625853</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6543,19 +6557,19 @@
       </c>
       <c r="C131" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D131" s="37">
         <f t="shared" si="6"/>
-        <v>31570487.54920119</v>
+        <v>18089137.62508313</v>
       </c>
       <c r="E131" s="37">
         <f t="shared" si="10"/>
-        <v>-10342534.274892569</v>
+        <v>-2455137.6582873533</v>
       </c>
       <c r="F131" s="37">
         <f t="shared" si="11"/>
-        <v>-651806254.81323886</v>
+        <v>-218844892.96134165</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6568,19 +6582,19 @@
       </c>
       <c r="C132" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D132" s="37">
         <f t="shared" si="6"/>
-        <v>32096930.664523304</v>
+        <v>18310358.296514925</v>
       </c>
       <c r="E132" s="37">
         <f t="shared" si="10"/>
-        <v>-10868977.390214682</v>
+        <v>-2676358.3297191481</v>
       </c>
       <c r="F132" s="37">
         <f t="shared" si="11"/>
-        <v>-683903185.47776222</v>
+        <v>-237155251.25785658</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6593,19 +6607,19 @@
       </c>
       <c r="C133" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D133" s="37">
         <f t="shared" si="6"/>
-        <v>32632152.306095235</v>
+        <v>18534284.380801827</v>
       </c>
       <c r="E133" s="37">
         <f t="shared" si="10"/>
-        <v>-11404199.031786611</v>
+        <v>-2900284.4140060521</v>
       </c>
       <c r="F133" s="37">
         <f t="shared" si="11"/>
-        <v>-716535337.78385746</v>
+        <v>-255689535.6386584</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6618,19 +6632,19 @@
       </c>
       <c r="C134" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D134" s="37">
         <f t="shared" si="6"/>
-        <v>33176298.857297964</v>
+        <v>18760948.963724971</v>
       </c>
       <c r="E134" s="37">
         <f t="shared" si="10"/>
-        <v>-11948345.582989341</v>
+        <v>-3126948.9969291952</v>
       </c>
       <c r="F134" s="37">
         <f t="shared" si="11"/>
-        <v>-749711636.64115548</v>
+        <v>-274450484.60238338</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6643,19 +6657,19 @@
       </c>
       <c r="C135" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D135" s="37">
         <f t="shared" si="6"/>
-        <v>33729519.142479636</v>
+        <v>18990385.535687245</v>
       </c>
       <c r="E135" s="37">
         <f t="shared" si="10"/>
-        <v>-12501565.868171012</v>
+        <v>-3356385.5688914699</v>
       </c>
       <c r="F135" s="37">
         <f t="shared" si="11"/>
-        <v>-783441155.78363514</v>
+        <v>-293440870.13807064</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6668,19 +6682,19 @@
       </c>
       <c r="C136" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D136" s="37">
         <f t="shared" si="6"/>
-        <v>34291964.467659071</v>
+        <v>19222627.996661618</v>
       </c>
       <c r="E136" s="37">
         <f t="shared" si="10"/>
-        <v>-13064011.193350451</v>
+        <v>-3588628.0298658404</v>
       </c>
       <c r="F136" s="37">
         <f t="shared" si="11"/>
-        <v>-817733120.25129426</v>
+        <v>-312663498.13473225</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6693,19 +6707,19 @@
       </c>
       <c r="C137" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D137" s="37">
         <f t="shared" si="6"/>
-        <v>34863788.66190806</v>
+        <v>19457710.661199946</v>
       </c>
       <c r="E137" s="37">
         <f t="shared" si="10"/>
-        <v>-13635835.387599442</v>
+        <v>-3823710.6944041704</v>
       </c>
       <c r="F137" s="37">
         <f t="shared" si="11"/>
-        <v>-852596908.91320229</v>
+        <v>-332121208.79593217</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6718,19 +6732,19 @@
       </c>
       <c r="C138" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D138" s="37">
         <f t="shared" si="6"/>
-        <v>35445148.119423665</v>
+        <v>19695668.263503082</v>
       </c>
       <c r="E138" s="37">
         <f t="shared" si="10"/>
-        <v>-14217194.845115045</v>
+        <v>-4061668.296707307</v>
       </c>
       <c r="F138" s="37">
         <f t="shared" si="11"/>
-        <v>-888042057.03262591</v>
+        <v>-351816877.05943525</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6743,19 +6757,19 @@
       </c>
       <c r="C139" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D139" s="37">
         <f t="shared" si="6"/>
-        <v>36036201.842302121</v>
+        <v>19936535.962552942</v>
       </c>
       <c r="E139" s="37">
         <f t="shared" si="10"/>
-        <v>-14808248.567993497</v>
+        <v>-4302535.9957571682</v>
       </c>
       <c r="F139" s="37">
         <f t="shared" si="11"/>
-        <v>-924078258.874928</v>
+        <v>-371753413.02198821</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6768,19 +6782,19 @@
       </c>
       <c r="C140" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D140" s="37">
         <f t="shared" si="6"/>
-        <v>36637111.484025978</v>
+        <v>20180349.347307365</v>
       </c>
       <c r="E140" s="37">
         <f t="shared" si="10"/>
-        <v>-15409158.209717356</v>
+        <v>-4546349.3805115903</v>
       </c>
       <c r="F140" s="37">
         <f t="shared" si="11"/>
-        <v>-960715370.35895395</v>
+        <v>-391933762.3692956</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -6793,19 +6807,19 @@
       </c>
       <c r="C141" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D141" s="37">
         <f t="shared" si="6"/>
-        <v>37248041.39367643</v>
+        <v>20427144.441958487</v>
       </c>
       <c r="E141" s="37">
         <f t="shared" si="10"/>
-        <v>-16020088.11936781</v>
+        <v>-4793144.4751627101</v>
       </c>
       <c r="F141" s="37">
         <f t="shared" si="11"/>
-        <v>-997963411.75263035</v>
+        <v>-412360906.81125408</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -6818,19 +6832,19 @@
       </c>
       <c r="C142" s="37">
         <f t="shared" si="9"/>
-        <v>21227953.274308622</v>
+        <v>15633999.966795776</v>
       </c>
       <c r="D142" s="37">
         <f t="shared" si="6"/>
-        <v>37869158.660882853</v>
+        <v>20676957.711255427</v>
       </c>
       <c r="E142" s="37">
         <f t="shared" si="10"/>
-        <v>-16641205.386574229</v>
+        <v>-5042957.7444596514</v>
       </c>
       <c r="F142" s="37">
         <f t="shared" si="11"/>
-        <v>-1035832570.4135132</v>
+        <v>-433037864.52250952</v>
       </c>
     </row>
     <row r="144" spans="1:6" s="43" customFormat="1" ht="57" customHeight="1">
@@ -6863,23 +6877,23 @@
       </c>
       <c r="E147" s="44">
         <f ca="1">SUM(E151:INDIRECT(CONCATENATE("E",150+B10)))</f>
-        <v>100145997.93488157</v>
+        <v>115911817.69819492</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B148" s="95">
+      <c r="B148" s="94">
         <f ca="1">PMT(B9,B10-B146,-INDIRECT(CONCATENATE("F",150+B146)),0,0)</f>
-        <v>23181999.906130984</v>
+        <v>16567877.54994691</v>
       </c>
       <c r="D148" s="79" t="s">
         <v>70</v>
       </c>
       <c r="E148" s="44">
         <f ca="1">F150+E147</f>
-        <v>524145997.93488157</v>
+        <v>574525836.69819498</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -6910,7 +6924,7 @@
       </c>
       <c r="F150" s="39">
         <f>B3</f>
-        <v>424000000</v>
+        <v>458614019</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -6923,19 +6937,19 @@
       </c>
       <c r="C151" s="78">
         <f>IF($B$146&gt;=A151,IF($B$15&lt;&gt;0,CEILING(E151,$B$15),E151),$B$148)</f>
-        <v>7071000</v>
-      </c>
-      <c r="D151" s="103">
+        <v>5609000</v>
+      </c>
+      <c r="D151" s="102">
         <f>IF($B$146&gt;=$A151,0,C151-E151)</f>
         <v>0</v>
       </c>
       <c r="E151" s="78">
         <f>IF($B$146&gt;=A151,IF($B$15&lt;&gt;0,CEILING(F150*$B$9,B$15),F150*$B$9),F150*$B$9)</f>
-        <v>7071000</v>
+        <v>5609000</v>
       </c>
       <c r="F151" s="78">
         <f>F150-D151</f>
-        <v>424000000</v>
+        <v>458614019</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -6948,19 +6962,19 @@
       </c>
       <c r="C152" s="78">
         <f t="shared" ref="C152:C210" si="13">IF($B$146&gt;=A152,IF($B$15&lt;&gt;0,CEILING(E152,$B$15),E152),$B$148)</f>
-        <v>7071000</v>
-      </c>
-      <c r="D152" s="103">
+        <v>5609000</v>
+      </c>
+      <c r="D152" s="102">
         <f t="shared" ref="D152:D210" si="14">IF($B$146&gt;=$A152,0,C152-E152)</f>
         <v>0</v>
       </c>
       <c r="E152" s="78">
         <f t="shared" ref="E152:E210" si="15">IF($B$146&gt;=A152,IF($B$15&lt;&gt;0,CEILING(F151*$B$9,B$15),F151*$B$9),F151*$B$9)</f>
-        <v>7071000</v>
+        <v>5609000</v>
       </c>
       <c r="F152" s="78">
         <f t="shared" ref="F152:F162" si="16">F151-D152</f>
-        <v>424000000</v>
+        <v>458614019</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -6973,19 +6987,19 @@
       </c>
       <c r="C153" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D153" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D153" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>16111729.59279765</v>
+        <v>10959268.487758536</v>
       </c>
       <c r="E153" s="78">
         <f t="shared" si="15"/>
-        <v>7070270.3133333344</v>
+        <v>5608609.0621883748</v>
       </c>
       <c r="F153" s="78">
         <f ca="1">F152-D153</f>
-        <v>407888270.40720236</v>
+        <v>447654750.51224148</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -6998,19 +7012,19 @@
       </c>
       <c r="C154" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D154" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D154" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>16380395.355619375</v>
+        <v>11093294.596880589</v>
       </c>
       <c r="E154" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>6801604.5505116098</v>
+        <v>5474582.9530663202</v>
       </c>
       <c r="F154" s="78">
         <f ca="1">F153-D154</f>
-        <v>391507875.05158299</v>
+        <v>436561455.91536087</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -7023,19 +7037,19 @@
       </c>
       <c r="C155" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D155" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D155" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>16653541.164589891</v>
+        <v>11228959.775065187</v>
       </c>
       <c r="E155" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>6528458.7415410932</v>
+        <v>5338917.7748817215</v>
       </c>
       <c r="F155" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>374854333.88699311</v>
+        <v>425332496.14029568</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -7048,19 +7062,19 @@
       </c>
       <c r="C156" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D156" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D156" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>16931241.725221671</v>
+        <v>11366284.06726782</v>
       </c>
       <c r="E156" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>6250758.1809093133</v>
+        <v>5201593.4826790895</v>
       </c>
       <c r="F156" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>357923092.16177142</v>
+        <v>413966212.07302785</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -7073,19 +7087,19 @@
       </c>
       <c r="C157" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D157" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D157" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>17213572.988753997</v>
+        <v>11505287.763583273</v>
       </c>
       <c r="E157" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>5968426.9173769895</v>
+        <v>5062589.7863636361</v>
       </c>
       <c r="F157" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>340709519.17301744</v>
+        <v>402460924.30944455</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -7098,19 +7112,19 @@
       </c>
       <c r="C158" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D158" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D158" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>17500612.172925655</v>
+        <v>11645991.402243562</v>
       </c>
       <c r="E158" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>5681387.7332053296</v>
+        <v>4921886.1477033487</v>
       </c>
       <c r="F158" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>323208907.00009179</v>
+        <v>390814932.90720099</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -7123,19 +7137,19 @@
       </c>
       <c r="C159" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D159" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D159" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>17792437.783094041</v>
+        <v>11788415.772652507</v>
       </c>
       <c r="E159" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>5389562.1230369424</v>
+        <v>4779461.7772944029</v>
       </c>
       <c r="F159" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>305416469.21699774</v>
+        <v>379026517.13454849</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -7148,19 +7162,19 @@
       </c>
       <c r="C160" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D160" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D160" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>18089129.633706402</v>
+        <v>11932581.918457445</v>
       </c>
       <c r="E160" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>5092870.2724245833</v>
+        <v>4635295.6314894641</v>
       </c>
       <c r="F160" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>287327339.58329135</v>
+        <v>367093935.21609104</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -7173,19 +7187,19 @@
       </c>
       <c r="C161" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D161" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D161" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>18390768.87012912</v>
+        <v>12078511.14065849</v>
       </c>
       <c r="E161" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>4791231.0360018648</v>
+        <v>4489366.4092884185</v>
       </c>
       <c r="F161" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>268936570.71316224</v>
+        <v>355015424.07543254</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -7198,19 +7212,19 @@
       </c>
       <c r="C162" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D162" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D162" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>18697437.990841027</v>
+        <v>12226225.000755822</v>
       </c>
       <c r="E162" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>4484561.9152899571</v>
+        <v>4341652.5491910875</v>
       </c>
       <c r="F162" s="78">
         <f t="shared" ca="1" si="16"/>
-        <v>250239132.72232121</v>
+        <v>342789199.07467669</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -7223,19 +7237,19 @@
       </c>
       <c r="C163" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D163" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D163" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>19009220.869996767</v>
+        <v>12375745.323935462</v>
       </c>
       <c r="E163" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>4172779.0361342165</v>
+        <v>4192132.2260114481</v>
       </c>
       <c r="F163" s="78">
         <f t="shared" ref="F163:F210" ca="1" si="17">F162-D163</f>
-        <v>231229911.85232446</v>
+        <v>330413453.75074124</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -7248,19 +7262,19 @@
       </c>
       <c r="C164" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D164" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D164" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>19326202.780366424</v>
+        <v>12527094.202294018</v>
       </c>
       <c r="E164" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>3855797.1257645595</v>
+        <v>4040783.3476528917</v>
       </c>
       <c r="F164" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>211903709.07195804</v>
+        <v>317886359.54844725</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -7273,19 +7287,19 @@
       </c>
       <c r="C165" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D165" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D165" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>19648470.416657664</v>
+        <v>12680293.998102862</v>
       </c>
       <c r="E165" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>3533529.4894733219</v>
+        <v>3887583.5518440469</v>
       </c>
       <c r="F165" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>192255238.65530038</v>
+        <v>305206065.55034441</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -7298,19 +7312,19 @@
       </c>
       <c r="C166" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D166" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D166" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>19976111.919226773</v>
+        <v>12835367.347112224</v>
       </c>
       <c r="E166" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>3205887.9869042113</v>
+        <v>3732510.2028346867</v>
       </c>
       <c r="F166" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>172279126.73607361</v>
+        <v>292370698.20323217</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -7323,19 +7337,19 @@
       </c>
       <c r="C167" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D167" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D167" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>20309216.898185104</v>
+        <v>12992337.161895689</v>
       </c>
       <c r="E167" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2872783.0079458784</v>
+        <v>3575540.3880512216</v>
       </c>
       <c r="F167" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>151969909.83788851</v>
+        <v>279378361.04133648</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -7348,19 +7362,19 @@
       </c>
       <c r="C168" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D168" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D168" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>20647876.457907479</v>
+        <v>13151226.635235609</v>
       </c>
       <c r="E168" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2534123.4482235061</v>
+        <v>3416650.9147112998</v>
       </c>
       <c r="F168" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>131322033.37998103</v>
+        <v>266227134.40610087</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -7373,19 +7387,19 @@
       </c>
       <c r="C169" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D169" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D169" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>20992183.221949264</v>
+        <v>13312059.243549913</v>
       </c>
       <c r="E169" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>2189816.6841817196</v>
+        <v>3255818.3063969961</v>
       </c>
       <c r="F169" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>110329850.15803176</v>
+        <v>252915075.16255096</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -7398,19 +7412,19 @@
       </c>
       <c r="C170" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D170" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D170" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>21342231.358378988</v>
+        <v>13474858.750360809</v>
       </c>
       <c r="E170" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1839768.5477519976</v>
+        <v>3093018.799586101</v>
       </c>
       <c r="F170" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>88987618.79965277</v>
+        <v>239440216.41219014</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -7423,19 +7437,19 @@
       </c>
       <c r="C171" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D171" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D171" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>21698116.605533324</v>
+        <v>13639649.209805926</v>
       </c>
       <c r="E171" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1483883.3005976609</v>
+        <v>2928228.340140983</v>
       </c>
       <c r="F171" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>67289502.194119453</v>
+        <v>225800567.2023842</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -7448,19 +7462,19 @@
       </c>
       <c r="C172" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D172" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D172" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>22059936.298201595</v>
+        <v>13806454.970192391</v>
       </c>
       <c r="E172" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>1122063.6079293892</v>
+        <v>2761422.5797545174</v>
       </c>
       <c r="F172" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>45229565.895917863</v>
+        <v>211994112.2321918</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -7473,19 +7487,19 @@
       </c>
       <c r="C173" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D173" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D173" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>22427789.394246876</v>
+        <v>13975300.677594366</v>
       </c>
       <c r="E173" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>754210.51188410819</v>
+        <v>2592576.8723525442</v>
       </c>
       <c r="F173" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>22801776.501670986</v>
+        <v>198018811.55459744</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -7498,19 +7512,19 @@
       </c>
       <c r="C174" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D174" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D174" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>22801776.501671016</v>
+        <v>14146211.279494572</v>
       </c>
       <c r="E174" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>380223.40445996693</v>
+        <v>2421666.2704523369</v>
       </c>
       <c r="F174" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-2.9802322387695313E-8</v>
+        <v>183872600.27510285</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -7523,19 +7537,19 @@
       </c>
       <c r="C175" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D175" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D175" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>23181999.906130984</v>
+        <v>14319212.028470378</v>
       </c>
       <c r="E175" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-4.9695866803328201E-10</v>
+        <v>2248665.5214765305</v>
       </c>
       <c r="F175" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-23181999.906131014</v>
+        <v>169553388.24663249</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -7548,19 +7562,19 @@
       </c>
       <c r="C176" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D176" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D176" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>23568563.598914038</v>
+        <v>14494328.485924933</v>
       </c>
       <c r="E176" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-386563.69278305245</v>
+        <v>2073549.0640219762</v>
       </c>
       <c r="F176" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-46750563.505045056</v>
+        <v>155059059.76070756</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -7573,19 +7587,19 @@
       </c>
       <c r="C177" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D177" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D177" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>23961573.305379391</v>
+        <v>14671586.525863947</v>
       </c>
       <c r="E177" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-779573.39924840769</v>
+        <v>1896291.0240829624</v>
       </c>
       <c r="F177" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-70712136.810424447</v>
+        <v>140387473.23484361</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -7598,19 +7612,19 @@
       </c>
       <c r="C178" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D178" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D178" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>24361136.513874166</v>
+        <v>14851012.33871866</v>
       </c>
       <c r="E178" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-1179136.6077431822</v>
+        <v>1716865.2112282503</v>
       </c>
       <c r="F178" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-95073273.32429862</v>
+        <v>125536460.89612496</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -7623,19 +7637,19 @@
       </c>
       <c r="C179" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D179" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D179" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>24767362.505131491</v>
+        <v>15032632.435215555</v>
       </c>
       <c r="E179" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-1585362.5990005059</v>
+        <v>1535245.1147313553</v>
       </c>
       <c r="F179" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-119840635.8294301</v>
+        <v>110503828.4609094</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -7648,19 +7662,19 @@
       </c>
       <c r="C180" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D180" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D180" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>25180362.382158838</v>
+        <v>15216473.650293406</v>
       </c>
       <c r="E180" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-1998362.4760278556</v>
+        <v>1351403.8996535039</v>
       </c>
       <c r="F180" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-145020998.21158895</v>
+        <v>95287354.810615987</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -7673,19 +7687,19 @@
       </c>
       <c r="C181" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D181" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D181" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>25600249.100624766</v>
+        <v>15402563.147068223</v>
       </c>
       <c r="E181" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-2418249.1944937827</v>
+        <v>1165314.402878687</v>
       </c>
       <c r="F181" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-170621247.31221372</v>
+        <v>79884791.663547769</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -7698,19 +7712,19 @@
       </c>
       <c r="C182" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D182" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D182" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>26027137.499752328</v>
+        <v>15590928.420846684</v>
       </c>
       <c r="E182" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-2845137.5936213434</v>
+        <v>976949.12910022563</v>
       </c>
       <c r="F182" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-196648384.81196606</v>
+        <v>64293863.242701083</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -7723,19 +7737,19 @@
       </c>
       <c r="C183" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D183" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D183" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>26461144.333727665</v>
+        <v>15781597.303188659</v>
       </c>
       <c r="E183" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-3279144.4275966822</v>
+        <v>786280.24675825133</v>
       </c>
       <c r="F183" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-223109529.14569372</v>
+        <v>48512265.939512424</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -7748,19 +7762,19 @@
       </c>
       <c r="C184" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D184" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D184" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>26902388.303632345</v>
+        <v>15974597.966019403</v>
       </c>
       <c r="E184" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-3720388.3975013597</v>
+        <v>593279.58392750705</v>
       </c>
       <c r="F184" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-250011917.44932607</v>
+        <v>32537667.973493021</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -7773,19 +7787,19 @@
       </c>
       <c r="C185" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D185" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D185" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>27350990.089908142</v>
+        <v>16169958.925792053</v>
       </c>
       <c r="E185" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-4168990.1837771563</v>
+        <v>397918.62415485689</v>
       </c>
       <c r="F185" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-277362907.53923422</v>
+        <v>16367709.047700968</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -7798,19 +7812,19 @@
       </c>
       <c r="C186" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D186" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D186" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>27807072.385363214</v>
+        <v>16367709.04770102</v>
       </c>
       <c r="E186" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-4625072.4792322312</v>
+        <v>200168.50224589035</v>
       </c>
       <c r="F186" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-305169979.92459744</v>
+        <v>-5.2154064178466797E-8</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -7823,19 +7837,19 @@
       </c>
       <c r="C187" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D187" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D187" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>28270759.928728651</v>
+        <v>16567877.54994691</v>
       </c>
       <c r="E187" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-5088760.0225976668</v>
+        <v>-6.3781686748067544E-10</v>
       </c>
       <c r="F187" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-333440739.85332608</v>
+        <v>-16567877.549946962</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -7848,19 +7862,19 @@
       </c>
       <c r="C188" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D188" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D188" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>28742179.538774557</v>
+        <v>16770494.008053612</v>
       </c>
       <c r="E188" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-5560179.6326435721</v>
+        <v>-202616.45810670228</v>
       </c>
       <c r="F188" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-362182919.39210063</v>
+        <v>-33338371.558000572</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -7873,19 +7887,19 @@
       </c>
       <c r="C189" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D189" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D189" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>29221460.148995064</v>
+        <v>16975588.359238166</v>
       </c>
       <c r="E189" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-6039460.2428640779</v>
+        <v>-407710.80929125537</v>
       </c>
       <c r="F189" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-391404379.54109567</v>
+        <v>-50313959.917238742</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -7898,19 +7912,19 @@
       </c>
       <c r="C190" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D190" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D190" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>29708732.842871696</v>
+        <v>17183190.906834085</v>
       </c>
       <c r="E190" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-6526732.9367407113</v>
+        <v>-615313.35688717326</v>
       </c>
       <c r="F190" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-421113112.3839674</v>
+        <v>-67497150.824072823</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -7923,19 +7937,19 @@
       </c>
       <c r="C191" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D191" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D191" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>30204130.88972478</v>
+        <v>17393332.324768763</v>
       </c>
       <c r="E191" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-7022130.9835937945</v>
+        <v>-825454.77482185373</v>
       </c>
       <c r="F191" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-451317243.27369219</v>
+        <v>-84890483.14884159</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -7948,19 +7962,19 @@
       </c>
       <c r="C192" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D192" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D192" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>30707789.781162646</v>
+        <v>17606043.662095658</v>
       </c>
       <c r="E192" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-7525789.8750316612</v>
+        <v>-1038166.1121487489</v>
       </c>
       <c r="F192" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-482025033.05485481</v>
+        <v>-102496526.81093726</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -7973,19 +7987,19 @@
       </c>
       <c r="C193" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D193" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D193" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>31219847.268138669</v>
+        <v>17821356.347581871</v>
       </c>
       <c r="E193" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-8037847.3620076869</v>
+        <v>-1253478.7976349595</v>
       </c>
       <c r="F193" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-513244880.32299346</v>
+        <v>-120317883.15851912</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -7998,19 +8012,19 @@
       </c>
       <c r="C194" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D194" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D194" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>31740443.398626223</v>
+        <v>18039302.194351844</v>
       </c>
       <c r="E194" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-8558443.4924952369</v>
+        <v>-1471424.6444049333</v>
       </c>
       <c r="F194" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-544985323.72161973</v>
+        <v>-138357185.35287097</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -8023,19 +8037,19 @@
       </c>
       <c r="C195" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D195" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D195" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>32269720.555921845</v>
+        <v>18259913.404587865</v>
       </c>
       <c r="E195" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-9087720.6497908607</v>
+        <v>-1692035.8546409563</v>
       </c>
       <c r="F195" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-577255044.27754152</v>
+        <v>-156617098.75745884</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -8048,19 +8062,19 @@
       </c>
       <c r="C196" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D196" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D196" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>32807823.497587167</v>
+        <v>18483222.574288033</v>
       </c>
       <c r="E196" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-9625823.5914561823</v>
+        <v>-1915345.0243411232</v>
       </c>
       <c r="F196" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-610062867.77512872</v>
+        <v>-175100321.33174688</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -8073,19 +8087,19 @@
       </c>
       <c r="C197" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D197" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D197" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>33354899.395040162</v>
+        <v>18709262.69808241</v>
       </c>
       <c r="E197" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-10172899.488909179</v>
+        <v>-2141385.1481355</v>
       </c>
       <c r="F197" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-643417767.17016888</v>
+        <v>-193809584.02982929</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -8098,19 +8112,19 @@
       </c>
       <c r="C198" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D198" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D198" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>33911097.873806611</v>
+        <v>18938067.174108092</v>
       </c>
       <c r="E198" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-10729097.967675623</v>
+        <v>-2370189.6241611834</v>
       </c>
       <c r="F198" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-677328865.04397547</v>
+        <v>-212747651.20393738</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -8123,19 +8137,19 @@
       </c>
       <c r="C199" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D199" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D199" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>34476571.054442734</v>
+        <v>19169669.80894389</v>
       </c>
       <c r="E199" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-11294571.148311745</v>
+        <v>-2601792.2589969817</v>
       </c>
       <c r="F199" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-711805436.09841824</v>
+        <v>-231917321.01288128</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -8148,19 +8162,19 @@
       </c>
       <c r="C200" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D200" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D200" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>35051473.594140261</v>
+        <v>19404104.822605349</v>
       </c>
       <c r="E200" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-11869473.688009279</v>
+        <v>-2836227.2726584408</v>
       </c>
       <c r="F200" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-746856909.69255853</v>
+        <v>-251321425.83548662</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -8173,19 +8187,19 @@
       </c>
       <c r="C201" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D201" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D201" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>35635962.72902526</v>
+        <v>19641406.853600871</v>
       </c>
       <c r="E201" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-12453962.822894271</v>
+        <v>-3073529.3036539597</v>
       </c>
       <c r="F201" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-782492872.42158377</v>
+        <v>-270962832.68908751</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -8198,19 +8212,19 @@
       </c>
       <c r="C202" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D202" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D202" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>36230198.317162238</v>
+        <v>19881610.964049648</v>
       </c>
       <c r="E202" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-13048198.411031254</v>
+        <v>-3313733.4141027392</v>
       </c>
       <c r="F202" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-818723070.73874605</v>
+        <v>-290844443.65313715</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -8223,19 +8237,19 @@
       </c>
       <c r="C203" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D203" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D203" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>36834342.882275477</v>
+        <v>20124752.644862231</v>
       </c>
       <c r="E203" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-13652342.976144489</v>
+        <v>-3556875.0949153197</v>
       </c>
       <c r="F203" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-855557413.62102151</v>
+        <v>-310969196.29799938</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -8248,19 +8262,19 @@
       </c>
       <c r="C204" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D204" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D204" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>37448561.658199281</v>
+        <v>20370867.820984382</v>
       </c>
       <c r="E204" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-14266561.752068294</v>
+        <v>-3802990.2710374733</v>
       </c>
       <c r="F204" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-893005975.27922082</v>
+        <v>-331340064.11898375</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -8273,19 +8287,19 @@
       </c>
       <c r="C205" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D205" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D205" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>38073022.634069562</v>
+        <v>20619992.85670514</v>
       </c>
       <c r="E205" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-14891022.727938576</v>
+        <v>-4052115.3067582292</v>
       </c>
       <c r="F205" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-931078997.91329038</v>
+        <v>-351960056.97568887</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -8298,19 +8312,19 @@
       </c>
       <c r="C206" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D206" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D206" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>38707896.600268923</v>
+        <v>20872164.561029721</v>
       </c>
       <c r="E206" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-15525896.69413794</v>
+        <v>-4304287.0110828103</v>
       </c>
       <c r="F206" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-969786894.51355934</v>
+        <v>-372832221.53671861</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -8323,19 +8337,19 @@
       </c>
       <c r="C207" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D207" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D207" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>39353357.195137933</v>
+        <v>21127420.193118192</v>
       </c>
       <c r="E207" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-16171357.289006945</v>
+        <v>-4559542.6431712806</v>
       </c>
       <c r="F207" s="78">
         <f t="shared" ca="1" si="17"/>
-        <v>-1009140251.7086973</v>
+        <v>-393959641.72983682</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -8348,19 +8362,19 @@
       </c>
       <c r="C208" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D208" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D208" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>40009580.952465251</v>
+        <v>21385797.467790607</v>
       </c>
       <c r="E208" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-16827581.04633427</v>
+        <v>-4817919.9178436985</v>
       </c>
       <c r="F208" s="37">
         <f t="shared" ca="1" si="17"/>
-        <v>-1049149832.6611626</v>
+        <v>-415345439.19762743</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -8373,19 +8387,19 @@
       </c>
       <c r="C209" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D209" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D209" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>40676747.349769786</v>
+        <v>21647334.561099514</v>
       </c>
       <c r="E209" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-17494747.443638805</v>
+        <v>-5079457.0111526046</v>
       </c>
       <c r="F209" s="37">
         <f t="shared" ca="1" si="17"/>
-        <v>-1089826580.0109324</v>
+        <v>-436992773.75872695</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -8398,19 +8412,19 @@
       </c>
       <c r="C210" s="78">
         <f t="shared" ca="1" si="13"/>
-        <v>23181999.906130984</v>
-      </c>
-      <c r="D210" s="103">
+        <v>16567877.54994691</v>
+      </c>
+      <c r="D210" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>41355038.857387803</v>
+        <v>21912070.115970563</v>
       </c>
       <c r="E210" s="78">
         <f t="shared" ca="1" si="15"/>
-        <v>-18173038.951256819</v>
+        <v>-5344192.5660236524</v>
       </c>
       <c r="F210" s="37">
         <f t="shared" ca="1" si="17"/>
-        <v>-1131181618.8683202</v>
+        <v>-458904843.87469751</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -8433,23 +8447,23 @@
       </c>
       <c r="E213" s="44">
         <f ca="1">SUM(E217:INDIRECT(CONCATENATE("E",216+B10)))</f>
-        <v>107791608.77312981</v>
+        <v>122313411.4725465</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B214" s="94">
+      <c r="B214" s="93">
         <f ca="1">PMT(B9,B10-B212,-INDIRECT(CONCATENATE("F",216+B212)),0,0)</f>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D214" s="79" t="s">
         <v>70</v>
       </c>
       <c r="E214" s="44">
         <f ca="1">F216+E213</f>
-        <v>531791608.77312982</v>
+        <v>580927430.47254646</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -8480,7 +8494,7 @@
       </c>
       <c r="F216" s="39">
         <f>$B$3</f>
-        <v>424000000</v>
+        <v>458614019</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -8497,15 +8511,15 @@
       </c>
       <c r="D217" s="37">
         <f t="shared" ref="D217:D276" si="19">C217-E217</f>
-        <v>-7070270.3133333344</v>
+        <v>-5608609.0621883748</v>
       </c>
       <c r="E217" s="37">
         <f t="shared" ref="E217:E276" si="20">F216*$B$9</f>
-        <v>7070270.3133333344</v>
+        <v>5608609.0621883748</v>
       </c>
       <c r="F217" s="37">
         <f t="shared" ref="F217:F228" si="21">F216-D217</f>
-        <v>431070270.31333333</v>
+        <v>464222628.06218839</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -8522,15 +8536,15 @@
       </c>
       <c r="D218" s="37">
         <f t="shared" si="19"/>
-        <v>-7188168.2432946609</v>
+        <v>-5677199.4111730224</v>
       </c>
       <c r="E218" s="37">
         <f t="shared" si="20"/>
-        <v>7188168.2432946609</v>
+        <v>5677199.4111730224</v>
       </c>
       <c r="F218" s="37">
         <f t="shared" si="21"/>
-        <v>438258438.55662799</v>
+        <v>469899827.47336143</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -8547,15 +8561,15 @@
       </c>
       <c r="D219" s="37">
         <f t="shared" si="19"/>
-        <v>-7308032.1407894995</v>
+        <v>-5746628.5841729771</v>
       </c>
       <c r="E219" s="37">
         <f t="shared" si="20"/>
-        <v>7308032.1407894995</v>
+        <v>5746628.5841729771</v>
       </c>
       <c r="F219" s="37">
         <f t="shared" si="21"/>
-        <v>445566470.6974175</v>
+        <v>475646456.0575344</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -8568,19 +8582,19 @@
       </c>
       <c r="C220" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D220" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>17893515.152925119</v>
+        <v>11786954.689904844</v>
       </c>
       <c r="E220" s="37">
         <f t="shared" si="20"/>
-        <v>7429894.7886524945</v>
+        <v>5816906.8395662624</v>
       </c>
       <c r="F220" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>427672955.54449236</v>
+        <v>463859501.36762953</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -8593,19 +8607,19 @@
       </c>
       <c r="C221" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D221" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>18191892.485441409</v>
+        <v>11931102.967433631</v>
       </c>
       <c r="E221" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>7131517.4561362052</v>
+        <v>5672758.5620374763</v>
       </c>
       <c r="F221" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>409481063.05905098</v>
+        <v>451928398.4001959</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -8618,19 +8632,19 @@
       </c>
       <c r="C222" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D222" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>18495245.309458315</v>
+        <v>12077014.102838872</v>
       </c>
       <c r="E222" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>6828164.6321192998</v>
+        <v>5526847.4266322348</v>
       </c>
       <c r="F222" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>390985817.74959266</v>
+        <v>439851384.29735702</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -8643,19 +8657,19 @@
       </c>
       <c r="C223" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D223" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>18803656.592121713</v>
+        <v>12224709.654948365</v>
       </c>
       <c r="E223" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>6519753.3494559014</v>
+        <v>5379151.874522741</v>
       </c>
       <c r="F223" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>372182161.15747094</v>
+        <v>427626674.64240867</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -8668,19 +8682,19 @@
       </c>
       <c r="C224" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D224" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>19117210.684068393</v>
+        <v>12374211.446243074</v>
       </c>
       <c r="E224" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>6206199.2575092204</v>
+        <v>5229650.083228034</v>
       </c>
       <c r="F224" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>353064950.47340256</v>
+        <v>415252463.19616562</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -8693,19 +8707,19 @@
       </c>
       <c r="C225" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D225" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>19435993.342496004</v>
+        <v>12525541.566081461</v>
       </c>
       <c r="E225" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>5887416.5990816085</v>
+        <v>5078319.9633896472</v>
       </c>
       <c r="F225" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>333628957.13090658</v>
+        <v>402726921.63008416</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -8718,19 +8732,19 @@
       </c>
       <c r="C226" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D226" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>19760091.754617687</v>
+        <v>12678722.373963265</v>
       </c>
       <c r="E226" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>5563318.1869599251</v>
+        <v>4925139.1555078421</v>
       </c>
       <c r="F226" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>313868865.37628889</v>
+        <v>390048199.25612092</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -8743,19 +8757,19 @@
       </c>
       <c r="C227" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D227" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>20089594.561507821</v>
+        <v>12833776.502833191</v>
       </c>
       <c r="E227" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>5233815.3800697923</v>
+        <v>4770085.0266379155</v>
       </c>
       <c r="F227" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>293779270.81478107</v>
+        <v>377214422.75328773</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -8768,19 +8782,19 @@
       </c>
       <c r="C228" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D228" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>20424591.882345393</v>
+        <v>12990726.86242499</v>
       </c>
       <c r="E228" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>4898818.0592322182</v>
+        <v>4613134.6670461167</v>
       </c>
       <c r="F228" s="37">
         <f t="shared" ca="1" si="21"/>
-        <v>273354678.93243569</v>
+        <v>364223695.89086276</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -8793,19 +8807,19 @@
       </c>
       <c r="C229" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D229" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>20765175.339061659</v>
+        <v>13149596.642646451</v>
       </c>
       <c r="E229" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>4558234.6025159555</v>
+        <v>4454264.8868246563</v>
       </c>
       <c r="F229" s="37">
         <f t="shared" ref="F229:F276" ca="1" si="23">F228-D229</f>
-        <v>252589503.59337404</v>
+        <v>351074099.24821633</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -8818,19 +8832,19 @@
       </c>
       <c r="C230" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D230" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>21111438.081398755</v>
+        <v>13310409.317005776</v>
       </c>
       <c r="E230" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>4211971.860178859</v>
+        <v>4293452.21246533</v>
       </c>
       <c r="F230" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>231478065.51197529</v>
+        <v>337763689.93121058</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -8843,19 +8857,19 @@
       </c>
       <c r="C231" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D231" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>21463474.81238623</v>
+        <v>13473188.646079874</v>
       </c>
       <c r="E231" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>3859935.1291913856</v>
+        <v>4130672.8833912336</v>
       </c>
       <c r="F231" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>210014590.69958907</v>
+        <v>324290501.28513068</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -8868,19 +8882,19 @@
       </c>
       <c r="C232" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D232" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>21821381.814242341</v>
+        <v>13637958.681025049</v>
       </c>
       <c r="E232" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>3502028.1273352727</v>
+        <v>3965902.8484460586</v>
       </c>
       <c r="F232" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>188193208.88534674</v>
+        <v>310652542.60410565</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -8893,19 +8907,19 @@
       </c>
       <c r="C233" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D233" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>22185256.974707317</v>
+        <v>13804743.767130643</v>
       </c>
       <c r="E233" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>3138152.9668702972</v>
+        <v>3799117.7623404642</v>
       </c>
       <c r="F233" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>166007951.91063944</v>
+        <v>296847798.83697498</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -8918,19 +8932,19 @@
       </c>
       <c r="C234" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D234" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>22555199.813815676</v>
+        <v>13973568.547416126</v>
       </c>
       <c r="E234" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2768210.1277619381</v>
+        <v>3630292.9820549805</v>
       </c>
       <c r="F234" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>143452752.09682375</v>
+        <v>282874230.28955883</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -8943,19 +8957,19 @@
       </c>
       <c r="C235" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D235" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>22931311.511115022</v>
+        <v>14144457.966272179</v>
       </c>
       <c r="E235" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2392098.4304625923</v>
+        <v>3459403.5631989283</v>
       </c>
       <c r="F235" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>120521440.58570874</v>
+        <v>268729772.32328665</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -8968,19 +8982,19 @@
       </c>
       <c r="C236" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D236" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>23313694.933338691</v>
+        <v>14317437.273146303</v>
       </c>
       <c r="E236" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>2009715.008238924</v>
+        <v>3286424.2563248035</v>
       </c>
       <c r="F236" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>97207745.652370051</v>
+        <v>254412335.05014035</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -8993,19 +9007,19 @@
       </c>
       <c r="C237" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D237" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>23702454.662539855</v>
+        <v>14492532.026273511</v>
       </c>
       <c r="E237" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1620955.279037758</v>
+        <v>3111329.5031975945</v>
       </c>
       <c r="F237" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>73505290.989830196</v>
+        <v>239919803.02386683</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -9018,19 +9032,19 @@
       </c>
       <c r="C238" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D238" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>24097697.024694771</v>
+        <v>14669768.096452633</v>
       </c>
       <c r="E238" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>1225712.9168828411</v>
+        <v>2934093.4330184734</v>
       </c>
       <c r="F238" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>49407593.965135425</v>
+        <v>225250034.92741421</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -9043,19 +9057,19 @@
       </c>
       <c r="C239" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D239" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>24499530.118782982</v>
+        <v>14849171.670868805</v>
       </c>
       <c r="E239" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>823879.82279463252</v>
+        <v>2754689.8586023017</v>
       </c>
       <c r="F239" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>24908063.846352443</v>
+        <v>210400863.25654539</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -9068,19 +9082,19 @@
       </c>
       <c r="C240" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D240" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>24908063.846352432</v>
+        <v>15030769.256962713</v>
       </c>
       <c r="E240" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>415346.09522518155</v>
+        <v>2573092.2725083935</v>
       </c>
       <c r="F240" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>0</v>
+        <v>195370093.99958268</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -9093,19 +9107,19 @@
       </c>
       <c r="C241" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D241" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>25323409.941577613</v>
+        <v>15214587.686347149</v>
       </c>
       <c r="E241" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>2389273.8431239584</v>
       </c>
       <c r="F241" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-25323409.941577613</v>
+        <v>180155506.31323552</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -9118,19 +9132,19 @@
       </c>
       <c r="C242" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D242" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>25745682.001818903</v>
+        <v>15400654.118771462</v>
       </c>
       <c r="E242" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-422272.06024128874</v>
+        <v>2203207.4106996446</v>
       </c>
       <c r="F242" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-51069091.943396516</v>
+        <v>164754852.19446406</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -9143,19 +9157,19 @@
       </c>
       <c r="C243" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D243" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>26174995.518691499</v>
+        <v>15588996.046134504</v>
       </c>
       <c r="E243" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-851585.57711388427</v>
+        <v>2014865.4833366037</v>
       </c>
       <c r="F243" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-77244087.462088019</v>
+        <v>149165856.14832956</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -9168,19 +9182,19 @@
       </c>
       <c r="C244" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D244" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>26611467.909652434</v>
+        <v>15779641.296546634</v>
       </c>
       <c r="E244" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-1288057.9680748219</v>
+        <v>1824220.232924473</v>
       </c>
       <c r="F244" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-103855555.37174046</v>
+        <v>133386214.85178292</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -9193,19 +9207,19 @@
       </c>
       <c r="C245" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D245" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>27055218.550114319</v>
+        <v>15972618.03844142</v>
       </c>
       <c r="E245" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-1731808.6085367049</v>
+        <v>1631243.4910296872</v>
       </c>
       <c r="F245" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-130910773.92185478</v>
+        <v>117413596.8133415</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -9218,19 +9232,19 @@
       </c>
       <c r="C246" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D246" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>27506368.80609455</v>
+        <v>16167954.784737604</v>
       </c>
       <c r="E246" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-2182958.8645169372</v>
+        <v>1435906.7447335038</v>
       </c>
       <c r="F246" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-158417142.72794932</v>
+        <v>101245642.0286039</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -9243,19 +9257,19 @@
       </c>
       <c r="C247" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D247" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>27965042.067409005</v>
+        <v>16365680.397051977</v>
       </c>
       <c r="E247" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-2641632.1258313907</v>
+        <v>1238181.1324191291</v>
       </c>
       <c r="F247" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-186382184.79535833</v>
+        <v>84879961.631551921</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -9268,19 +9282,19 @@
       </c>
       <c r="C248" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D248" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>28431363.781419192</v>
+        <v>16565824.089963783</v>
       </c>
       <c r="E248" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-3107953.8398415791</v>
+        <v>1038037.4395073249</v>
       </c>
       <c r="F248" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-214813548.57677752</v>
+        <v>68314137.541588143</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -9293,19 +9307,19 @@
       </c>
       <c r="C249" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D249" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>28905461.487342186</v>
+        <v>16768415.435331246</v>
       </c>
       <c r="E249" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-3582051.5457645711</v>
+        <v>835446.09413986164</v>
       </c>
       <c r="F249" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-243719010.0641197</v>
+        <v>51545722.106256895</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -9318,19 +9332,19 @@
       </c>
       <c r="C250" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D250" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>29387464.851132646</v>
+        <v>16973484.366660923</v>
       </c>
       <c r="E250" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-4064054.9095550319</v>
+        <v>630377.16281018453</v>
       </c>
       <c r="F250" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-273106474.91525233</v>
+        <v>34572237.739595972</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -9343,19 +9357,19 @@
       </c>
       <c r="C251" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D251" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>29877505.700946536</v>
+        <v>17181061.183530465</v>
       </c>
       <c r="E251" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-4554095.7593689235</v>
+        <v>422800.34594064363</v>
       </c>
       <c r="F251" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-302983980.61619884</v>
+        <v>17391176.556065507</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -9368,19 +9382,19 @@
       </c>
       <c r="C252" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D252" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>30375718.063196182</v>
+        <v>17391176.55606547</v>
       </c>
       <c r="E252" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-5052308.121618568</v>
+        <v>212684.97340563638</v>
       </c>
       <c r="F252" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-333359698.67939502</v>
+        <v>3.7252902984619141E-8</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -9393,19 +9407,19 @@
       </c>
       <c r="C253" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D253" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>30882238.199206557</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="E253" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-5558828.2576289438</v>
+        <v>4.5558347677191105E-10</v>
       </c>
       <c r="F253" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-364241936.87860155</v>
+        <v>-17603861.52947107</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -9418,19 +9432,19 @@
       </c>
       <c r="C254" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D254" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>31397204.642482828</v>
+        <v>17819147.528619118</v>
       </c>
       <c r="E254" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-6073794.7009052141</v>
+        <v>-215285.99914801284</v>
       </c>
       <c r="F254" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-395639141.52108437</v>
+        <v>-35423009.058090188</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -9443,19 +9457,19 @@
       </c>
       <c r="C255" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D255" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>31920758.236599334</v>
+        <v>18037066.36269097</v>
       </c>
       <c r="E255" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-6597348.2950217184</v>
+        <v>-433204.83321986179</v>
       </c>
       <c r="F255" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-427559899.75768369</v>
+        <v>-53460075.420781158</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -9468,19 +9482,19 @@
       </c>
       <c r="C256" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D256" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>32453042.173720367</v>
+        <v>18257650.229877729</v>
       </c>
       <c r="E256" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-7129632.232142753</v>
+        <v>-653788.70040662063</v>
       </c>
       <c r="F256" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-460012941.93140405</v>
+        <v>-71717725.650658891</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -9493,19 +9507,19 @@
       </c>
       <c r="C257" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D257" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>32994202.033763312</v>
+        <v>18480931.72213747</v>
       </c>
       <c r="E257" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-7670792.0921857003</v>
+        <v>-877070.19266636309</v>
       </c>
       <c r="F257" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-493007143.96516734</v>
+        <v>-90198657.372796357</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -9518,19 +9532,19 @@
       </c>
       <c r="C258" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D258" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>33544385.82421482</v>
+        <v>18706943.830010835</v>
       </c>
       <c r="E258" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-8220975.8826372074</v>
+        <v>-1103082.3005397266</v>
       </c>
       <c r="F258" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-526551529.78938216</v>
+        <v>-108905601.20280719</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -9543,19 +9557,19 @@
       </c>
       <c r="C259" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D259" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>34103744.020610921</v>
+        <v>18935719.947495475</v>
       </c>
       <c r="E259" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-8780334.0790333059</v>
+        <v>-1331858.4180243684</v>
       </c>
       <c r="F259" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-560655273.80999303</v>
+        <v>-127841321.15030266</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -9568,19 +9582,19 @@
       </c>
       <c r="C260" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D260" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>34672429.607692152</v>
+        <v>19167293.876980141</v>
       </c>
       <c r="E260" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-9349019.6661145408</v>
+        <v>-1563432.3475090321</v>
       </c>
       <c r="F260" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-595327703.41768515</v>
+        <v>-147008615.0272828</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -9593,19 +9607,19 @@
       </c>
       <c r="C261" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D261" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>35250598.121244997</v>
+        <v>19401699.834239066</v>
       </c>
       <c r="E261" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-9927188.1796673853</v>
+        <v>-1797838.3047679588</v>
       </c>
       <c r="F261" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-630578301.53893018</v>
+        <v>-166410314.86152187</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -9618,19 +9632,19 @@
       </c>
       <c r="C262" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D262" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>35838407.690640949</v>
+        <v>19638972.453487478</v>
       </c>
       <c r="E262" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-10514997.749063333</v>
+        <v>-2035110.9240163728</v>
       </c>
       <c r="F262" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-666416709.2295711</v>
+        <v>-186049287.31500936</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -9643,19 +9657,19 @@
       </c>
       <c r="C263" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D263" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>36436019.082084991</v>
+        <v>19879146.792498905</v>
       </c>
       <c r="E263" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-11112609.14050738</v>
+        <v>-2275285.263027797</v>
       </c>
       <c r="F263" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-702852728.31165612</v>
+        <v>-205928434.10750827</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -9668,19 +9682,19 @@
       </c>
       <c r="C264" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D264" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>37043595.742585257</v>
+        <v>20122258.337785054</v>
       </c>
       <c r="E264" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-11720185.801007645</v>
+        <v>-2518396.8083139486</v>
       </c>
       <c r="F264" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-739896324.05424142</v>
+        <v>-226050692.44529334</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -9693,19 +9707,19 @@
       </c>
       <c r="C265" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D265" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>37661303.844655827</v>
+        <v>20368343.009839088</v>
       </c>
       <c r="E265" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-12337893.903078215</v>
+        <v>-2764481.4803679809</v>
       </c>
       <c r="F265" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-777557627.89889729</v>
+        <v>-246419035.45513242</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -9718,19 +9732,19 @@
       </c>
       <c r="C266" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D266" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>38289312.331765018</v>
+        <v>20617437.168442957</v>
       </c>
       <c r="E266" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-12965902.390187407</v>
+        <v>-3013575.6389718521</v>
       </c>
       <c r="F266" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-815846940.23066235</v>
+        <v>-267036472.62357539</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -9743,19 +9757,19 @@
       </c>
       <c r="C267" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D267" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>38927792.964541495</v>
+        <v>20869577.618039701</v>
       </c>
       <c r="E267" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-13604383.022963885</v>
+        <v>-3265716.0885685938</v>
       </c>
       <c r="F267" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-854774733.19520378</v>
+        <v>-287906050.24161512</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -9768,19 +9782,19 @@
       </c>
       <c r="C268" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D268" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>39576920.367750891</v>
+        <v>21124801.613171391</v>
       </c>
       <c r="E268" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-14253510.426173279</v>
+        <v>-3520940.0837002848</v>
       </c>
       <c r="F268" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-894351653.56295466</v>
+        <v>-309030851.85478652</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -9793,19 +9807,19 @@
       </c>
       <c r="C269" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D269" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>40236872.078055769</v>
+        <v>21383146.863983631</v>
       </c>
       <c r="E269" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-14913462.136478154</v>
+        <v>-3779285.3345125257</v>
       </c>
       <c r="F269" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-934588525.6410104</v>
+        <v>-330413998.71877015</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -9818,19 +9832,19 @@
       </c>
       <c r="C270" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D270" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>40907828.592571966</v>
+        <v>21644651.541797336</v>
       </c>
       <c r="E270" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-15584418.650994353</v>
+        <v>-4040790.0123262308</v>
       </c>
       <c r="F270" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-975496354.23358238</v>
+        <v>-352058650.26056749</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -9843,19 +9857,19 @@
       </c>
       <c r="C271" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D271" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>41589973.418234676</v>
+        <v>21909354.28474867</v>
       </c>
       <c r="E271" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-16266563.476657065</v>
+        <v>-4305492.7552775629</v>
       </c>
       <c r="F271" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-1017086327.6518171</v>
+        <v>-373968004.54531616</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -9868,19 +9882,19 @@
       </c>
       <c r="C272" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D272" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>42283493.121987671</v>
+        <v>22177294.203497943</v>
       </c>
       <c r="E272" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-16960083.180410054</v>
+        <v>-4573432.6740268348</v>
       </c>
       <c r="F272" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-1059369820.7738048</v>
+        <v>-396145298.74881411</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -9893,19 +9907,19 @@
       </c>
       <c r="C273" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D273" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>42988577.381809421</v>
+        <v>22448510.887008343</v>
       </c>
       <c r="E273" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-17665167.440231808</v>
+        <v>-4844649.3575372361</v>
       </c>
       <c r="F273" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-1102358398.1556141</v>
+        <v>-418593809.63582247</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -9918,19 +9932,19 @@
       </c>
       <c r="C274" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D274" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>43705419.038590178</v>
+        <v>22723044.408395331</v>
       </c>
       <c r="E274" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-18382009.097012561</v>
+        <v>-5119182.8789242255</v>
       </c>
       <c r="F274" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-1146063817.1942043</v>
+        <v>-441316854.04421782</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -9943,19 +9957,19 @@
       </c>
       <c r="C275" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D275" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>44434214.148873992</v>
+        <v>23000935.330847561</v>
       </c>
       <c r="E275" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-19110804.207296379</v>
+        <v>-5397073.8013764564</v>
       </c>
       <c r="F275" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-1190498031.3430784</v>
+        <v>-464317789.37506539</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -9968,19 +9982,19 @@
       </c>
       <c r="C276" s="37">
         <f t="shared" ca="1" si="22"/>
-        <v>25323409.941577613</v>
+        <v>17603861.529471107</v>
       </c>
       <c r="D276" s="37">
         <f t="shared" ca="1" si="19"/>
-        <v>45175162.038480312</v>
+        <v>23282224.713620227</v>
       </c>
       <c r="E276" s="37">
         <f t="shared" ca="1" si="20"/>
-        <v>-19851752.096902698</v>
+        <v>-5678363.18414912</v>
       </c>
       <c r="F276" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-1235673193.3815587</v>
+        <v>-487600014.08868563</v>
       </c>
     </row>
   </sheetData>
@@ -13334,7 +13348,7 @@
       <c r="A149" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="B149" s="93">
+      <c r="B149" s="92">
         <f>PMT(B9,B10-B147,-F154,0,0)</f>
         <v>79058.874952805782</v>
       </c>

--- a/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
+++ b/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
@@ -1795,7 +1795,7 @@
         <v>15</v>
       </c>
       <c r="H8">
-        <v>2732895.12</v>
+        <v>1912328.48</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>93</v>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="J20" s="99">
         <f>IF(B16=0,B37-C37,0)</f>
-        <v>-428824972.49999994</v>
+        <v>-428004405.85999995</v>
       </c>
       <c r="L20" s="13"/>
     </row>
@@ -2429,7 +2429,7 @@
       <c r="B34" s="22"/>
       <c r="C34" s="98">
         <f>H8</f>
-        <v>2732895.12</v>
+        <v>1912328.48</v>
       </c>
       <c r="D34" s="20"/>
       <c r="F34" s="104">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="C37" s="16">
         <f>SUM(C21:C35)</f>
-        <v>647606013.06999993</v>
+        <v>646785446.42999995</v>
       </c>
       <c r="D37" t="s">
         <v>49</v>
@@ -3359,11 +3359,11 @@
       </c>
       <c r="J83" s="55">
         <f ca="1">IRR(J20:INDIRECT(CONCATENATE("J",B13+20)))</f>
-        <v>8.7665107037759205E-2</v>
+        <v>8.8022371393002397E-2</v>
       </c>
       <c r="K83" s="109">
         <f ca="1">J83*(12/B10)*100</f>
-        <v>17.533021407551843</v>
+        <v>17.604474278600478</v>
       </c>
       <c r="L83" s="103"/>
     </row>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="J84">
         <f ca="1">_xlfn.NUMBERVALUE(K83)</f>
-        <v>17.5330214075518</v>
+        <v>17.604474278600499</v>
       </c>
     </row>
     <row r="85" spans="6:13">

--- a/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
+++ b/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-Sprint17\Simulasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UF-NEW\Simulasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D1" s="3">
         <f ca="1">IF(B16=1,'Regular Fixed'!E79,IF(AND(B16=0,E16=0),'Regular Fixed'!E15,IF(AND(B16=0,E16&gt;0,E15&gt;0),'Regular Fixed'!E147,IF(AND(B16=0,E16&gt;0,E15=0),'Regular Fixed'!E213))))</f>
-        <v>246315122.70204467</v>
+        <v>298192995.99152446</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1671,7 +1671,7 @@
         <v>98</v>
       </c>
       <c r="B2">
-        <v>180000000</v>
+        <v>350320000</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1679,7 +1679,7 @@
         <v>70</v>
       </c>
       <c r="B3">
-        <v>704999997.23000002</v>
+        <v>965693995.99000001</v>
       </c>
       <c r="C3" s="86" t="s">
         <v>96</v>
@@ -1701,7 +1701,7 @@
         <v>29</v>
       </c>
       <c r="B5">
-        <v>600000000</v>
+        <v>1002000000</v>
       </c>
       <c r="C5" s="82" t="s">
         <v>93</v>
@@ -1721,7 +1721,7 @@
         <v>99</v>
       </c>
       <c r="B6">
-        <v>180000000</v>
+        <v>350620000</v>
       </c>
       <c r="C6" s="82" t="s">
         <v>93</v>
@@ -1730,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>33543000</v>
+        <v>20961500</v>
       </c>
       <c r="F6" s="82" t="s">
         <v>93</v>
@@ -1739,7 +1739,7 @@
         <v>12</v>
       </c>
       <c r="H6">
-        <v>33197192.280000001</v>
+        <v>20815976.75</v>
       </c>
       <c r="I6" s="82" t="s">
         <v>93</v>
@@ -1751,13 +1751,13 @@
       </c>
       <c r="B7" s="88">
         <f>B5-B6+D24+D25+D26+D27+D28+D29+D30+D31+D38</f>
-        <v>458684874.52999997</v>
+        <v>667501000</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E7">
-        <v>9752915.0999999996</v>
+        <v>0</v>
       </c>
       <c r="F7" s="82" t="s">
         <v>93</v>
@@ -1766,7 +1766,7 @@
         <v>14</v>
       </c>
       <c r="H7">
-        <v>10669905.67</v>
+        <v>0</v>
       </c>
       <c r="I7" s="82" t="s">
         <v>93</v>
@@ -1777,7 +1777,7 @@
         <v>33</v>
       </c>
       <c r="B8">
-        <v>0.15041669999999999</v>
+        <v>0.14686057</v>
       </c>
       <c r="C8" s="82" t="s">
         <v>93</v>
@@ -1795,7 +1795,7 @@
         <v>15</v>
       </c>
       <c r="H8">
-        <v>1912328.48</v>
+        <v>128705</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>93</v>
@@ -1806,7 +1806,7 @@
         <v>34</v>
       </c>
       <c r="B9">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C9" s="82" t="s">
         <v>93</v>
@@ -1815,7 +1815,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>31500000</v>
+        <v>2250000</v>
       </c>
       <c r="F9" s="82" t="s">
         <v>93</v>
@@ -1835,7 +1835,7 @@
         <v>35</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10" s="82" t="s">
         <v>93</v>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B12" s="19">
         <f>B8/(12/B10)</f>
-        <v>7.5208349999999993E-2</v>
+        <v>1.2238380833333333E-2</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>10</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="B13" s="18">
         <f>B9/B10</f>
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>11</v>
@@ -1920,7 +1920,7 @@
         <v>100</v>
       </c>
       <c r="E14">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="F14" s="82" t="s">
         <v>93</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="B15" s="3">
         <f>IF(B16=1,B2+SUM(E6:E14)-SUM(D24:D31,D38)+B18,B2+SUM(E6:E14)-SUM(D24:D31,D38))</f>
-        <v>218831040.56999999</v>
+        <v>360110500</v>
       </c>
       <c r="D15" s="81" t="s">
         <v>94</v>
@@ -1969,7 +1969,7 @@
         <v>41</v>
       </c>
       <c r="B17">
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="C17" s="81" t="s">
         <v>92</v>
@@ -1978,7 +1978,7 @@
     <row r="18" spans="1:13">
       <c r="B18" s="89">
         <f>ROUND(B17,0)</f>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>42</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="B19" s="13">
         <f ca="1">(D1/B7)/(B9/12)*100</f>
-        <v>13.425073311739135</v>
+        <v>8.9346082175614558</v>
       </c>
       <c r="F19" s="84" t="s">
         <v>43</v>
@@ -2023,14 +2023,14 @@
       </c>
       <c r="G20" s="99">
         <f>IF(B16=0,-B7,0)</f>
-        <v>-458684874.52999997</v>
+        <v>-667501000</v>
       </c>
       <c r="I20" s="84">
         <v>0</v>
       </c>
       <c r="J20" s="99">
         <f>IF(B16=0,B37-C37,0)</f>
-        <v>-428004405.85999995</v>
+        <v>-663570201.75</v>
       </c>
       <c r="L20" s="13"/>
     </row>
@@ -2041,7 +2041,7 @@
       <c r="B21" s="21"/>
       <c r="C21" s="22">
         <f>B5</f>
-        <v>600000000</v>
+        <v>1002000000</v>
       </c>
       <c r="D21" s="20"/>
       <c r="F21" s="104">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="B22" s="22">
         <f>B6</f>
-        <v>180000000</v>
+        <v>350620000</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="20"/>
@@ -2118,11 +2118,11 @@
       </c>
       <c r="B24" s="97">
         <f t="shared" ref="B24:B31" si="0">E6-D24</f>
-        <v>8294000</v>
+        <v>6400500</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24">
-        <v>25249000</v>
+        <v>14561000</v>
       </c>
       <c r="E24" s="82" t="s">
         <v>93</v>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="G24" s="101">
         <f>IF($B$16=0,IF(F24&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H24" s="103"/>
       <c r="I24" s="84">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="J24" s="99">
         <f t="shared" ref="J24:J81" si="1">IF($B$16=0,IF(I24&lt;=$E$16,$E$15,$B$18),$B$18)</f>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="106"/>
@@ -2151,11 +2151,11 @@
       </c>
       <c r="B25" s="22">
         <f t="shared" si="0"/>
-        <v>6827040.5700000003</v>
+        <v>0</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25">
-        <v>2925874.53</v>
+        <v>0</v>
       </c>
       <c r="E25" s="82" t="s">
         <v>93</v>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="G25" s="101">
         <f t="shared" ref="G25:G81" si="2">IF($B$16=0,IF(F25&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H25" s="103"/>
       <c r="I25" s="84">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="J25" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L25" s="13"/>
       <c r="M25" s="55"/>
@@ -2184,11 +2184,11 @@
       </c>
       <c r="B26" s="22">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="E26" s="82" t="s">
         <v>93</v>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="G26" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H26" s="103"/>
       <c r="I26" s="84">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="J26" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L26" s="13"/>
     </row>
@@ -2216,11 +2216,11 @@
       </c>
       <c r="B27" s="22">
         <f t="shared" si="0"/>
-        <v>21500000</v>
+        <v>1250000</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="E27" s="82" t="s">
         <v>93</v>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="G27" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H27" s="103"/>
       <c r="I27" s="84">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="J27" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L27" s="13"/>
     </row>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="G28" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H28" s="103"/>
       <c r="I28" s="84">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="J28" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L28" s="13"/>
     </row>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="G29" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H29" s="103"/>
       <c r="I29" s="84">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="J29" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L29" s="13"/>
     </row>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="G30" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H30" s="103"/>
       <c r="I30" s="84">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="J30" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L30" s="13"/>
     </row>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="G31" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H31" s="103"/>
       <c r="I31" s="84">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="J31" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L31" s="13"/>
     </row>
@@ -2375,7 +2375,7 @@
       <c r="B32" s="21"/>
       <c r="C32" s="23">
         <f>H6</f>
-        <v>33197192.280000001</v>
+        <v>20815976.75</v>
       </c>
       <c r="D32" s="20"/>
       <c r="F32" s="104">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="G32" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H32" s="103"/>
       <c r="I32" s="84">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="J32" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L32" s="13"/>
     </row>
@@ -2402,7 +2402,7 @@
       <c r="B33" s="21"/>
       <c r="C33" s="23">
         <f>H7</f>
-        <v>10669905.67</v>
+        <v>0</v>
       </c>
       <c r="D33" s="20"/>
       <c r="F33" s="104">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="G33" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H33" s="103"/>
       <c r="I33" s="84">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="J33" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L33" s="13"/>
     </row>
@@ -2429,7 +2429,7 @@
       <c r="B34" s="22"/>
       <c r="C34" s="98">
         <f>H8</f>
-        <v>1912328.48</v>
+        <v>128705</v>
       </c>
       <c r="D34" s="20"/>
       <c r="F34" s="104">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="G34" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H34" s="103"/>
       <c r="I34" s="84">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="J34" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L34" s="13"/>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="G35" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H35" s="103"/>
       <c r="I35" s="84">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="J35" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L35" s="13"/>
     </row>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="G36" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H36" s="103"/>
       <c r="I36" s="84">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="J36" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L36" s="13"/>
     </row>
@@ -2503,11 +2503,11 @@
       </c>
       <c r="B37" s="16">
         <f>SUM(B21:B35)+B39</f>
-        <v>218781040.56999999</v>
+        <v>360380500</v>
       </c>
       <c r="C37" s="16">
         <f>SUM(C21:C35)</f>
-        <v>646785446.42999995</v>
+        <v>1023950701.75</v>
       </c>
       <c r="D37" t="s">
         <v>49</v>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="G37" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H37" s="103"/>
       <c r="I37" s="84">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="J37" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L37" s="13"/>
     </row>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="G38" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H38" s="103"/>
       <c r="I38" s="84">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="J38" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L38" s="13"/>
     </row>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="G39" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H39" s="103"/>
       <c r="I39" s="84">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="J39" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="K39" s="34"/>
       <c r="L39" s="13"/>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="G40" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H40" s="103"/>
       <c r="I40" s="84">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="J40" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L40" s="13"/>
     </row>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="G41" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H41" s="103"/>
       <c r="I41" s="84">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="J41" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L41" s="13"/>
     </row>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="G42" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H42" s="103"/>
       <c r="I42" s="84">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="J42" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L42" s="13"/>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="G43" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H43" s="103"/>
       <c r="I43" s="84">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="J43" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L43" s="13"/>
     </row>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="G44" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H44" s="103"/>
       <c r="I44" s="84">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="J44" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L44" s="13"/>
     </row>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="G45" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H45" s="103"/>
       <c r="I45" s="84">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="J45" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L45" s="13"/>
     </row>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="G46" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H46" s="103"/>
       <c r="I46" s="84">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="J46" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L46" s="13"/>
     </row>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="G47" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H47" s="103"/>
       <c r="I47" s="84">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="J47" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L47" s="13"/>
     </row>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="G48" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H48" s="103"/>
       <c r="I48" s="84">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="J48" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L48" s="13"/>
     </row>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="G49" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H49" s="103"/>
       <c r="I49" s="84">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="J49" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L49" s="13"/>
     </row>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="G50" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H50" s="103"/>
       <c r="I50" s="84">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="J50" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L50" s="13"/>
     </row>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="G51" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H51" s="103"/>
       <c r="I51" s="84">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="J51" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L51" s="13"/>
     </row>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="G52" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H52" s="103"/>
       <c r="I52" s="84">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="J52" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L52" s="13"/>
     </row>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="G53" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H53" s="103"/>
       <c r="I53" s="84">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="J53" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L53" s="13"/>
     </row>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="G54" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H54" s="103"/>
       <c r="I54" s="84">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="J54" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L54" s="13"/>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="G55" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H55" s="103"/>
       <c r="I55" s="84">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="J55" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L55" s="13"/>
     </row>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="G56" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H56" s="103"/>
       <c r="I56" s="84">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="J56" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L56" s="13"/>
     </row>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="G57" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H57" s="103"/>
       <c r="I57" s="84">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="J57" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L57" s="13"/>
     </row>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="G58" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H58" s="103"/>
       <c r="I58" s="84">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="J58" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L58" s="13"/>
     </row>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="G59" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H59" s="103"/>
       <c r="I59" s="84">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="J59" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L59" s="13"/>
     </row>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="G60" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H60" s="103"/>
       <c r="I60" s="84">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="J60" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L60" s="13"/>
     </row>
@@ -2968,7 +2968,7 @@
       </c>
       <c r="G61" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H61" s="103"/>
       <c r="I61" s="84">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="J61" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L61" s="13"/>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="G62" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H62" s="103"/>
       <c r="I62" s="84">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="J62" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L62" s="13"/>
     </row>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="G63" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H63" s="103"/>
       <c r="I63" s="84">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="J63" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L63" s="13"/>
     </row>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="G64" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H64" s="103"/>
       <c r="I64" s="84">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="J64" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L64" s="13"/>
     </row>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="G65" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H65" s="103"/>
       <c r="I65" s="84">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="J65" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L65" s="13"/>
     </row>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="G66" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H66" s="103"/>
       <c r="I66" s="84">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="J66" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L66" s="13"/>
     </row>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="G67" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H67" s="103"/>
       <c r="I67" s="84">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="J67" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L67" s="13"/>
     </row>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="G68" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H68" s="103"/>
       <c r="I68" s="84">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="J68" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L68" s="13"/>
     </row>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="G69" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H69" s="103"/>
       <c r="I69" s="84">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="J69" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L69" s="13"/>
     </row>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G70" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H70" s="103"/>
       <c r="I70" s="84">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="J70" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L70" s="13"/>
     </row>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="G71" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H71" s="103"/>
       <c r="I71" s="84">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="J71" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L71" s="13"/>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="G72" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H72" s="103"/>
       <c r="I72" s="84">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="J72" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L72" s="13"/>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="G73" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H73" s="103"/>
       <c r="I73" s="84">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="J73" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L73" s="13"/>
     </row>
@@ -3202,7 +3202,7 @@
       </c>
       <c r="G74" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H74" s="103"/>
       <c r="I74" s="84">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="J74" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L74" s="13"/>
     </row>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="G75" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H75" s="103"/>
       <c r="I75" s="84">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="J75" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L75" s="13"/>
     </row>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="G76" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H76" s="103"/>
       <c r="I76" s="84">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="J76" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L76" s="13"/>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="G77" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H77" s="103"/>
       <c r="I77" s="84">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="J77" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L77" s="13"/>
     </row>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="G78" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H78" s="103"/>
       <c r="I78" s="84">
@@ -3282,7 +3282,7 @@
       </c>
       <c r="J78" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L78" s="13"/>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="G79" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H79" s="103"/>
       <c r="I79" s="84">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="J79" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L79" s="13"/>
     </row>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="G80" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H80" s="103"/>
       <c r="I80" s="84">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="J80" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L80" s="13"/>
     </row>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="G81" s="101">
         <f t="shared" si="2"/>
-        <v>140999999.44999999</v>
+        <v>16941999.93</v>
       </c>
       <c r="H81" s="103"/>
       <c r="I81" s="84">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="J81" s="99">
         <f t="shared" si="1"/>
-        <v>140999999</v>
+        <v>16942000</v>
       </c>
       <c r="L81" s="13"/>
       <c r="M81" s="106"/>
@@ -3355,26 +3355,26 @@
       <c r="F83" s="105"/>
       <c r="G83" s="14">
         <f ca="1">_xlfn.NUMBERVALUE(IRR(G20:INDIRECT(CONCATENATE("G",IF(B16=1,B13+20+1,B13+20)))))</f>
-        <v>7.5208350004676697E-2</v>
+        <v>1.22383808340074E-2</v>
       </c>
       <c r="J83" s="55">
         <f ca="1">IRR(J20:INDIRECT(CONCATENATE("J",B13+20)))</f>
-        <v>8.8022371393002397E-2</v>
+        <v>1.2446666006769691E-2</v>
       </c>
       <c r="K83" s="109">
         <f ca="1">J83*(12/B10)*100</f>
-        <v>17.604474278600478</v>
+        <v>14.935999208123629</v>
       </c>
       <c r="L83" s="103"/>
     </row>
     <row r="84" spans="6:13">
       <c r="G84">
         <f ca="1">_xlfn.NUMBERVALUE(G83*12*100)</f>
-        <v>90.250020005612001</v>
+        <v>14.6860570008089</v>
       </c>
       <c r="J84">
         <f ca="1">_xlfn.NUMBERVALUE(K83)</f>
-        <v>17.604474278600499</v>
+        <v>14.935999208123601</v>
       </c>
     </row>
     <row r="85" spans="6:13">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="B3" s="87">
         <f>'Gross Yield (CF)'!B7</f>
-        <v>458684874.52999997</v>
+        <v>667501000</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>86</v>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B4" s="54">
         <f>'Gross Yield (CF)'!B8</f>
-        <v>0.15041669999999999</v>
+        <v>0.14686057</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>84</v>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="B5" s="42">
         <f>'Gross Yield (CF)'!B9</f>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>82</v>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="B6" s="42">
         <f>'Gross Yield (CF)'!B10</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>81</v>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="B9" s="56">
         <f>B4/(12/B6)</f>
-        <v>7.5208349999999993E-2</v>
+        <v>1.2238380833333333E-2</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>80</v>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="B10" s="51">
         <f>B5/B6</f>
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>79</v>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="B11" s="51">
         <f>B3*-1</f>
-        <v>-458684874.52999997</v>
+        <v>-667501000</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>77</v>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="B14" s="94">
         <f>PMT(B9,B10,B11,B12,B13)</f>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="39" t="s">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="E14" s="39">
         <f ca="1">E15+F16</f>
-        <v>626979866.20087516</v>
+        <v>946200913.85241377</v>
       </c>
       <c r="F14" s="42"/>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="E15" s="39">
         <f ca="1">SUM(E17:INDIRECT(CONCATENATE("E",16+B10)))</f>
-        <v>168294991.67087519</v>
+        <v>278699913.85241377</v>
       </c>
       <c r="F15" s="38" t="s">
         <v>63</v>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="F16" s="38">
         <f>B3</f>
-        <v>458684874.52999997</v>
+        <v>667501000</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3642,23 +3642,23 @@
       </c>
       <c r="B17" s="37">
         <f>EDATE($B$7,$B$6*A17)</f>
-        <v>43069</v>
+        <v>42916</v>
       </c>
       <c r="C17" s="36">
         <f>B14</f>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D17" s="36">
         <f t="shared" ref="D17:D76" si="0">C17-E17</f>
-        <v>43875550.691751078</v>
+        <v>7600883.7862427235</v>
       </c>
       <c r="E17" s="36">
         <f t="shared" ref="E17:E76" si="1">F16*$B$9</f>
-        <v>34496932.583358318</v>
+        <v>8169131.4446308333</v>
       </c>
       <c r="F17" s="36">
         <f t="shared" ref="F17:F27" si="2">F16-D17</f>
-        <v>414809323.83824891</v>
+        <v>659900116.21375728</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3667,23 +3667,23 @@
       </c>
       <c r="B18" s="37">
         <f t="shared" ref="B18:B76" si="3">EDATE($B$7,$B$6*A18)</f>
-        <v>43250</v>
+        <v>42946</v>
       </c>
       <c r="C18" s="36">
         <f t="shared" ref="C18:C76" si="4">$C$17</f>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D18" s="36">
         <f t="shared" si="0"/>
-        <v>47175358.464619026</v>
+        <v>7693906.2966886703</v>
       </c>
       <c r="E18" s="36">
         <f t="shared" si="1"/>
-        <v>31197124.810490366</v>
+        <v>8076108.9341848865</v>
       </c>
       <c r="F18" s="36">
         <f t="shared" si="2"/>
-        <v>367633965.37362987</v>
+        <v>652206209.9170686</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3692,23 +3692,23 @@
       </c>
       <c r="B19" s="37">
         <f t="shared" si="3"/>
-        <v>43434</v>
+        <v>42977</v>
       </c>
       <c r="C19" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D19" s="36">
         <f t="shared" si="0"/>
-        <v>50723339.335401565</v>
+        <v>7788067.2520435285</v>
       </c>
       <c r="E19" s="36">
         <f t="shared" si="1"/>
-        <v>27649143.939707834</v>
+        <v>7981947.9788300283</v>
       </c>
       <c r="F19" s="36">
         <f t="shared" si="2"/>
-        <v>316910626.03822827</v>
+        <v>644418142.66502512</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3717,23 +3717,23 @@
       </c>
       <c r="B20" s="37">
         <f t="shared" si="3"/>
-        <v>43615</v>
+        <v>43008</v>
       </c>
       <c r="C20" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D20" s="36">
         <f t="shared" si="0"/>
-        <v>54538157.993307211</v>
+        <v>7883380.5850296477</v>
       </c>
       <c r="E20" s="36">
         <f t="shared" si="1"/>
-        <v>23834325.281802185</v>
+        <v>7886634.6458439091</v>
       </c>
       <c r="F20" s="36">
         <f t="shared" si="2"/>
-        <v>262372468.04492107</v>
+        <v>636534762.07999551</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3742,23 +3742,23 @@
       </c>
       <c r="B21" s="37">
         <f t="shared" si="3"/>
-        <v>43799</v>
+        <v>43038</v>
       </c>
       <c r="C21" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D21" s="36">
         <f t="shared" si="0"/>
-        <v>58639882.868023157</v>
+        <v>7979860.3988833465</v>
       </c>
       <c r="E21" s="36">
         <f t="shared" si="1"/>
-        <v>19732600.407086238</v>
+        <v>7790154.8319902103</v>
       </c>
       <c r="F21" s="36">
         <f t="shared" si="2"/>
-        <v>203732585.17689791</v>
+        <v>628554901.68111217</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3767,23 +3767,23 @@
       </c>
       <c r="B22" s="37">
         <f t="shared" si="3"/>
-        <v>43981</v>
+        <v>43069</v>
       </c>
       <c r="C22" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D22" s="36">
         <f t="shared" si="0"/>
-        <v>63050091.702720448</v>
+        <v>8077520.9694417156</v>
       </c>
       <c r="E22" s="36">
         <f t="shared" si="1"/>
-        <v>15322391.572388949</v>
+        <v>7692494.2614318412</v>
       </c>
       <c r="F22" s="36">
         <f t="shared" si="2"/>
-        <v>140682493.47417748</v>
+        <v>620477380.7116704</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3792,23 +3792,23 @@
       </c>
       <c r="B23" s="37">
         <f t="shared" si="3"/>
-        <v>44165</v>
+        <v>43099</v>
       </c>
       <c r="C23" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D23" s="36">
         <f t="shared" si="0"/>
-        <v>67791985.067030743</v>
+        <v>8176376.7472549807</v>
       </c>
       <c r="E23" s="36">
         <f t="shared" si="1"/>
-        <v>10580498.208078654</v>
+        <v>7593638.4836185761</v>
       </c>
       <c r="F23" s="36">
         <f t="shared" si="2"/>
-        <v>72890508.407146737</v>
+        <v>612301003.96441543</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3817,23 +3817,23 @@
       </c>
       <c r="B24" s="37">
         <f t="shared" si="3"/>
-        <v>44346</v>
+        <v>43130</v>
       </c>
       <c r="C24" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D24" s="36">
         <f t="shared" si="0"/>
-        <v>72890508.407146767</v>
+        <v>8276442.3597246977</v>
       </c>
       <c r="E24" s="36">
         <f t="shared" si="1"/>
-        <v>5481974.8679626342</v>
+        <v>7493572.8711488592</v>
       </c>
       <c r="F24" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>604024561.60469079</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3842,23 +3842,23 @@
       </c>
       <c r="B25" s="37">
         <f t="shared" si="3"/>
-        <v>44530</v>
+        <v>43159</v>
       </c>
       <c r="C25" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D25" s="36">
         <f t="shared" si="0"/>
-        <v>78372483.275109395</v>
+        <v>8377732.6132681398</v>
       </c>
       <c r="E25" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7392282.617605417</v>
       </c>
       <c r="F25" s="36">
         <f t="shared" si="2"/>
-        <v>-78372483.275109395</v>
+        <v>595646828.99142265</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3867,23 +3867,23 @@
       </c>
       <c r="B26" s="37">
         <f t="shared" si="3"/>
-        <v>44711</v>
+        <v>43189</v>
       </c>
       <c r="C26" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D26" s="36">
         <f t="shared" si="0"/>
-        <v>84266748.427632973</v>
+        <v>8480262.4955091514</v>
       </c>
       <c r="E26" s="36">
         <f t="shared" si="1"/>
-        <v>-5894265.1525235735</v>
+        <v>7289752.7353644045</v>
       </c>
       <c r="F26" s="36">
         <f t="shared" si="2"/>
-        <v>-162639231.70274237</v>
+        <v>587166566.49591351</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3892,23 +3892,23 @@
       </c>
       <c r="B27" s="37">
         <f t="shared" si="3"/>
-        <v>44895</v>
+        <v>43220</v>
       </c>
       <c r="C27" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D27" s="36">
         <f t="shared" si="0"/>
-        <v>90604311.536740333</v>
+        <v>8584047.177495826</v>
       </c>
       <c r="E27" s="36">
         <f t="shared" si="1"/>
-        <v>-12231828.261630943</v>
+        <v>7185968.0533777298</v>
       </c>
       <c r="F27" s="36">
         <f t="shared" si="2"/>
-        <v>-253243543.2394827</v>
+        <v>578582519.31841767</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3917,23 +3917,23 @@
       </c>
       <c r="B28" s="37">
         <f t="shared" si="3"/>
-        <v>45076</v>
+        <v>43250</v>
       </c>
       <c r="C28" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D28" s="36">
         <f t="shared" si="0"/>
-        <v>97418512.310304537</v>
+        <v>8689102.0159453209</v>
       </c>
       <c r="E28" s="36">
         <f t="shared" si="1"/>
-        <v>-19046029.035195146</v>
+        <v>7080913.2149282359</v>
       </c>
       <c r="F28" s="36">
         <f t="shared" ref="F28:F76" si="5">F27-D28</f>
-        <v>-350662055.54978722</v>
+        <v>569893417.30247235</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3942,23 +3942,23 @@
       </c>
       <c r="B29" s="37">
         <f t="shared" si="3"/>
-        <v>45260</v>
+        <v>43281</v>
       </c>
       <c r="C29" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D29" s="36">
         <f t="shared" si="0"/>
-        <v>104745197.88061723</v>
+        <v>8795442.5555161443</v>
       </c>
       <c r="E29" s="36">
         <f t="shared" si="1"/>
-        <v>-26372714.605507836</v>
+        <v>6974572.6753574125</v>
       </c>
       <c r="F29" s="36">
         <f t="shared" si="5"/>
-        <v>-455407253.43040442</v>
+        <v>561097974.74695623</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3967,23 +3967,23 @@
       </c>
       <c r="B30" s="37">
         <f t="shared" si="3"/>
-        <v>45442</v>
+        <v>43311</v>
       </c>
       <c r="C30" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D30" s="36">
         <f t="shared" si="0"/>
-        <v>112622911.38364196</v>
+        <v>8903084.5311082564</v>
       </c>
       <c r="E30" s="36">
         <f t="shared" si="1"/>
-        <v>-34250428.108532555</v>
+        <v>6866930.6997652994</v>
       </c>
       <c r="F30" s="36">
         <f t="shared" si="5"/>
-        <v>-568030164.81404638</v>
+        <v>552194890.21584797</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3992,23 +3992,23 @@
       </c>
       <c r="B31" s="37">
         <f t="shared" si="3"/>
-        <v>45626</v>
+        <v>43342</v>
       </c>
       <c r="C31" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D31" s="36">
         <f t="shared" si="0"/>
-        <v>121093094.72100188</v>
+        <v>9012043.8701913189</v>
       </c>
       <c r="E31" s="36">
         <f t="shared" si="1"/>
-        <v>-42720611.445892483</v>
+        <v>6757971.3606822379</v>
       </c>
       <c r="F31" s="36">
         <f t="shared" si="5"/>
-        <v>-689123259.53504825</v>
+        <v>543182846.34565663</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4017,23 +4017,23 @@
       </c>
       <c r="B32" s="37">
         <f t="shared" si="3"/>
-        <v>45807</v>
+        <v>43373</v>
       </c>
       <c r="C32" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D32" s="36">
         <f t="shared" si="0"/>
-        <v>130200306.57136214</v>
+        <v>9122336.6951614283</v>
       </c>
       <c r="E32" s="36">
         <f t="shared" si="1"/>
-        <v>-51827823.296252742</v>
+        <v>6647678.5357121294</v>
       </c>
       <c r="F32" s="36">
         <f t="shared" si="5"/>
-        <v>-819323566.10641038</v>
+        <v>534060509.65049523</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4042,23 +4042,23 @@
       </c>
       <c r="B33" s="37">
         <f t="shared" si="3"/>
-        <v>45991</v>
+        <v>43403</v>
       </c>
       <c r="C33" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D33" s="36">
         <f t="shared" si="0"/>
-        <v>139992456.79808843</v>
+        <v>9233979.3257267047</v>
       </c>
       <c r="E33" s="36">
         <f t="shared" si="1"/>
-        <v>-61619973.522979043</v>
+        <v>6536035.9051468521</v>
       </c>
       <c r="F33" s="36">
         <f t="shared" si="5"/>
-        <v>-959316022.90449882</v>
+        <v>524826530.32476854</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4067,23 +4067,23 @@
       </c>
       <c r="B34" s="37">
         <f t="shared" si="3"/>
-        <v>46172</v>
+        <v>43434</v>
       </c>
       <c r="C34" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D34" s="36">
         <f t="shared" si="0"/>
-        <v>150521058.48631895</v>
+        <v>9346988.2813220732</v>
       </c>
       <c r="E34" s="36">
         <f t="shared" si="1"/>
-        <v>-72148575.21120955</v>
+        <v>6423026.9495514827</v>
       </c>
       <c r="F34" s="36">
         <f t="shared" si="5"/>
-        <v>-1109837081.3908176</v>
+        <v>515479542.04344648</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4092,23 +4092,23 @@
       </c>
       <c r="B35" s="37">
         <f t="shared" si="3"/>
-        <v>46356</v>
+        <v>43464</v>
       </c>
       <c r="C35" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D35" s="36">
         <f t="shared" si="0"/>
-        <v>161841498.93532848</v>
+        <v>9461380.2835535966</v>
       </c>
       <c r="E35" s="36">
         <f t="shared" si="1"/>
-        <v>-83469015.660219088</v>
+        <v>6308634.9473199593</v>
       </c>
       <c r="F35" s="36">
         <f t="shared" si="5"/>
-        <v>-1271678580.3261461</v>
+        <v>506018161.75989288</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4117,23 +4117,23 @@
       </c>
       <c r="B36" s="37">
         <f t="shared" si="3"/>
-        <v>46537</v>
+        <v>43495</v>
       </c>
       <c r="C36" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D36" s="36">
         <f t="shared" si="0"/>
-        <v>174013331.03178132</v>
+        <v>9577172.258672718</v>
       </c>
       <c r="E36" s="36">
         <f t="shared" si="1"/>
-        <v>-95640847.756671906</v>
+        <v>6192842.9722008388</v>
       </c>
       <c r="F36" s="36">
         <f t="shared" si="5"/>
-        <v>-1445691911.3579273</v>
+        <v>496440989.50122017</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4142,23 +4142,23 @@
       </c>
       <c r="B37" s="37">
         <f t="shared" si="3"/>
-        <v>46721</v>
+        <v>43524</v>
       </c>
       <c r="C37" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D37" s="36">
         <f t="shared" si="0"/>
-        <v>187100586.53668535</v>
+        <v>9694381.3400807902</v>
       </c>
       <c r="E37" s="36">
         <f t="shared" si="1"/>
-        <v>-108728103.26157597</v>
+        <v>6075633.8907927675</v>
       </c>
       <c r="F37" s="36">
         <f t="shared" si="5"/>
-        <v>-1632792497.8946128</v>
+        <v>486746608.16113937</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4167,23 +4167,23 @@
       </c>
       <c r="B38" s="37">
         <f t="shared" si="3"/>
-        <v>46903</v>
+        <v>43554</v>
       </c>
       <c r="C38" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D38" s="36">
         <f t="shared" si="0"/>
-        <v>201172112.9341417</v>
+        <v>9813024.8708642591</v>
       </c>
       <c r="E38" s="36">
         <f t="shared" si="1"/>
-        <v>-122799629.65903229</v>
+        <v>5956990.3600092977</v>
       </c>
       <c r="F38" s="36">
         <f t="shared" si="5"/>
-        <v>-1833964610.8287544</v>
+        <v>476933583.2902751</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4192,23 +4192,23 @@
       </c>
       <c r="B39" s="37">
         <f t="shared" si="3"/>
-        <v>47087</v>
+        <v>43585</v>
       </c>
       <c r="C39" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D39" s="36">
         <f t="shared" si="0"/>
-        <v>216301935.61393213</v>
+        <v>9933120.4063608684</v>
       </c>
       <c r="E39" s="36">
         <f t="shared" si="1"/>
-        <v>-137929452.33882275</v>
+        <v>5836894.8245126894</v>
       </c>
       <c r="F39" s="36">
         <f t="shared" si="5"/>
-        <v>-2050266546.4426866</v>
+        <v>467000462.88391423</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4217,23 +4217,23 @@
       </c>
       <c r="B40" s="37">
         <f t="shared" si="3"/>
-        <v>47268</v>
+        <v>43615</v>
       </c>
       <c r="C40" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D40" s="36">
         <f t="shared" si="0"/>
-        <v>232569647.29326218</v>
+        <v>10054685.716757266</v>
       </c>
       <c r="E40" s="36">
         <f t="shared" si="1"/>
-        <v>-154197164.0181528</v>
+        <v>5715329.514116291</v>
       </c>
       <c r="F40" s="36">
         <f t="shared" si="5"/>
-        <v>-2282836193.7359486</v>
+        <v>456945777.16715699</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4242,23 +4242,23 @@
       </c>
       <c r="B41" s="37">
         <f t="shared" si="3"/>
-        <v>47452</v>
+        <v>43646</v>
       </c>
       <c r="C41" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D41" s="36">
         <f t="shared" si="0"/>
-        <v>250060826.72627038</v>
+        <v>10177738.789718419</v>
       </c>
       <c r="E41" s="36">
         <f t="shared" si="1"/>
-        <v>-171688343.451161</v>
+        <v>5592276.4411551384</v>
       </c>
       <c r="F41" s="36">
         <f t="shared" si="5"/>
-        <v>-2532897020.4622188</v>
+        <v>446768038.37743855</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4267,23 +4267,23 @@
       </c>
       <c r="B42" s="37">
         <f t="shared" si="3"/>
-        <v>47633</v>
+        <v>43676</v>
       </c>
       <c r="C42" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D42" s="36">
         <f t="shared" si="0"/>
-        <v>268867488.90398908</v>
+        <v>10302297.833049182</v>
       </c>
       <c r="E42" s="36">
         <f t="shared" si="1"/>
-        <v>-190495005.6288797</v>
+        <v>5467717.397824375</v>
       </c>
       <c r="F42" s="36">
         <f t="shared" si="5"/>
-        <v>-2801764509.3662081</v>
+        <v>436465740.54438937</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4292,23 +4292,23 @@
       </c>
       <c r="B43" s="37">
         <f t="shared" si="3"/>
-        <v>47817</v>
+        <v>43707</v>
       </c>
       <c r="C43" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D43" s="36">
         <f t="shared" si="0"/>
-        <v>289088569.11310142</v>
+        <v>10428381.277388463</v>
       </c>
       <c r="E43" s="36">
         <f t="shared" si="1"/>
-        <v>-210716085.83799204</v>
+        <v>5341633.953485094</v>
       </c>
       <c r="F43" s="36">
         <f t="shared" si="5"/>
-        <v>-3090853078.4793096</v>
+        <v>426037359.26700091</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4317,23 +4317,23 @@
       </c>
       <c r="B44" s="37">
         <f t="shared" si="3"/>
-        <v>47998</v>
+        <v>43738</v>
       </c>
       <c r="C44" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D44" s="36">
         <f t="shared" si="0"/>
-        <v>310830443.39995873</v>
+        <v>10556007.778936345</v>
       </c>
       <c r="E44" s="36">
         <f t="shared" si="1"/>
-        <v>-232457960.12484935</v>
+        <v>5214007.4519372117</v>
       </c>
       <c r="F44" s="36">
         <f t="shared" si="5"/>
-        <v>-3401683521.8792682</v>
+        <v>415481351.48806459</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4342,23 +4342,23 @@
       </c>
       <c r="B45" s="37">
         <f t="shared" si="3"/>
-        <v>48182</v>
+        <v>43768</v>
       </c>
       <c r="C45" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D45" s="36">
         <f t="shared" si="0"/>
-        <v>334207488.17783803</v>
+        <v>10685196.222214598</v>
       </c>
       <c r="E45" s="36">
         <f t="shared" si="1"/>
-        <v>-255835004.90272865</v>
+        <v>5084819.0086589595</v>
       </c>
       <c r="F45" s="36">
         <f t="shared" si="5"/>
-        <v>-3735891010.057106</v>
+        <v>404796155.26585001</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4367,23 +4367,23 @@
       </c>
       <c r="B46" s="37">
         <f t="shared" si="3"/>
-        <v>48364</v>
+        <v>43799</v>
       </c>
       <c r="C46" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D46" s="36">
         <f t="shared" si="0"/>
-        <v>359342681.92133772</v>
+        <v>10815965.722860955</v>
       </c>
       <c r="E46" s="36">
         <f t="shared" si="1"/>
-        <v>-280970198.64622831</v>
+        <v>4954049.508012603</v>
       </c>
       <c r="F46" s="36">
         <f t="shared" si="5"/>
-        <v>-4095233691.9784436</v>
+        <v>393980189.54298908</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4392,23 +4392,23 @@
       </c>
       <c r="B47" s="37">
         <f t="shared" si="3"/>
-        <v>48548</v>
+        <v>43829</v>
       </c>
       <c r="C47" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D47" s="36">
         <f t="shared" si="0"/>
-        <v>386368252.11321634</v>
+        <v>10948335.630457606</v>
       </c>
       <c r="E47" s="36">
         <f t="shared" si="1"/>
-        <v>-307995768.83810693</v>
+        <v>4821679.6004159516</v>
       </c>
       <c r="F47" s="36">
         <f t="shared" si="5"/>
-        <v>-4481601944.0916595</v>
+        <v>383031853.9125315</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4417,23 +4417,23 @@
       </c>
       <c r="B48" s="37">
         <f t="shared" si="3"/>
-        <v>48729</v>
+        <v>43860</v>
       </c>
       <c r="C48" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D48" s="36">
         <f t="shared" si="0"/>
-        <v>415426370.84703535</v>
+        <v>11082325.531394299</v>
       </c>
       <c r="E48" s="36">
         <f t="shared" si="1"/>
-        <v>-337053887.57192594</v>
+        <v>4687689.6994792586</v>
       </c>
       <c r="F48" s="36">
         <f t="shared" si="5"/>
-        <v>-4897028314.938695</v>
+        <v>371949528.38113719</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4442,23 +4442,23 @@
       </c>
       <c r="B49" s="37">
         <f t="shared" si="3"/>
-        <v>48913</v>
+        <v>43890</v>
       </c>
       <c r="C49" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D49" s="36">
         <f t="shared" si="0"/>
-        <v>446669902.74492896</v>
+        <v>11217955.251766475</v>
       </c>
       <c r="E49" s="36">
         <f t="shared" si="1"/>
-        <v>-368297419.46981955</v>
+        <v>4552059.9791070819</v>
       </c>
       <c r="F49" s="36">
         <f t="shared" si="5"/>
-        <v>-5343698217.6836243</v>
+        <v>360731573.12937069</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4467,23 +4467,23 @@
       </c>
       <c r="B50" s="37">
         <f t="shared" si="3"/>
-        <v>49094</v>
+        <v>43920</v>
       </c>
       <c r="C50" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D50" s="36">
         <f t="shared" si="0"/>
-        <v>480263209.12503558</v>
+        <v>11355244.860308886</v>
       </c>
       <c r="E50" s="36">
         <f t="shared" si="1"/>
-        <v>-401890725.84992617</v>
+        <v>4414770.3705646722</v>
       </c>
       <c r="F50" s="36">
         <f t="shared" si="5"/>
-        <v>-5823961426.8086596</v>
+        <v>349376328.2690618</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4492,23 +4492,23 @@
       </c>
       <c r="B51" s="37">
         <f t="shared" si="3"/>
-        <v>49278</v>
+        <v>43951</v>
       </c>
       <c r="C51" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D51" s="36">
         <f t="shared" si="0"/>
-        <v>516383012.64903444</v>
+        <v>11494214.671365097</v>
       </c>
       <c r="E51" s="36">
         <f t="shared" si="1"/>
-        <v>-438010529.37392503</v>
+        <v>4275800.5595084606</v>
       </c>
       <c r="F51" s="36">
         <f t="shared" si="5"/>
-        <v>-6340344439.4576941</v>
+        <v>337882113.59769672</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4517,23 +4517,23 @@
       </c>
       <c r="B52" s="37">
         <f t="shared" si="3"/>
-        <v>49459</v>
+        <v>43981</v>
       </c>
       <c r="C52" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D52" s="36">
         <f t="shared" si="0"/>
-        <v>555219326.99839735</v>
+        <v>11634885.247893348</v>
       </c>
       <c r="E52" s="36">
         <f t="shared" si="1"/>
-        <v>-476846843.723288</v>
+        <v>4135129.9829802075</v>
       </c>
       <c r="F52" s="36">
         <f t="shared" si="5"/>
-        <v>-6895563766.4560909</v>
+        <v>326247228.34980339</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4542,23 +4542,23 @@
       </c>
       <c r="B53" s="37">
         <f t="shared" si="3"/>
-        <v>49643</v>
+        <v>44012</v>
       </c>
       <c r="C53" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D53" s="36">
         <f t="shared" si="0"/>
-        <v>596976456.47005725</v>
+        <v>11777277.4045092</v>
       </c>
       <c r="E53" s="36">
         <f t="shared" si="1"/>
-        <v>-518603973.1949479</v>
+        <v>3992737.826364357</v>
       </c>
       <c r="F53" s="36">
         <f t="shared" si="5"/>
-        <v>-7492540222.9261484</v>
+        <v>314469950.9452942</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4567,23 +4567,23 @@
       </c>
       <c r="B54" s="37">
         <f t="shared" si="3"/>
-        <v>49825</v>
+        <v>44042</v>
       </c>
       <c r="C54" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D54" s="36">
         <f t="shared" si="0"/>
-        <v>641874070.75001717</v>
+        <v>11921412.210565396</v>
       </c>
       <c r="E54" s="36">
         <f t="shared" si="1"/>
-        <v>-563501587.47490776</v>
+        <v>3848603.0203081621</v>
       </c>
       <c r="F54" s="36">
         <f t="shared" si="5"/>
-        <v>-8134414293.6761656</v>
+        <v>302548538.73472881</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4592,23 +4592,23 @@
       </c>
       <c r="B55" s="37">
         <f t="shared" si="3"/>
-        <v>50009</v>
+        <v>44073</v>
       </c>
       <c r="C55" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D55" s="36">
         <f t="shared" si="0"/>
-        <v>690148360.51890922</v>
+        <v>12067310.993269444</v>
       </c>
       <c r="E55" s="36">
         <f t="shared" si="1"/>
-        <v>-611775877.24379981</v>
+        <v>3702704.2376041124</v>
       </c>
       <c r="F55" s="36">
         <f t="shared" si="5"/>
-        <v>-8824562654.1950741</v>
+        <v>290481227.74145937</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4617,23 +4617,23 @@
       </c>
       <c r="B56" s="37">
         <f t="shared" si="3"/>
-        <v>50190</v>
+        <v>44104</v>
       </c>
       <c r="C56" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D56" s="36">
         <f t="shared" si="0"/>
-        <v>742053279.96874142</v>
+        <v>12214995.340839345</v>
       </c>
       <c r="E56" s="36">
         <f t="shared" si="1"/>
-        <v>-663680796.69363201</v>
+        <v>3555019.8900342113</v>
       </c>
       <c r="F56" s="36">
         <f t="shared" si="5"/>
-        <v>-9566615934.1638145</v>
+        <v>278266232.40062004</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4642,23 +4642,23 @@
       </c>
       <c r="B57" s="37">
         <f t="shared" si="3"/>
-        <v>50374</v>
+        <v>44134</v>
       </c>
       <c r="C57" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D57" s="36">
         <f t="shared" si="0"/>
-        <v>797861882.76727843</v>
+        <v>12364487.10569793</v>
       </c>
       <c r="E57" s="36">
         <f t="shared" si="1"/>
-        <v>-719489399.49216902</v>
+        <v>3405528.1251756274</v>
       </c>
       <c r="F57" s="36">
         <f t="shared" si="5"/>
-        <v>-10364477816.931093</v>
+        <v>265901745.29492211</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4667,23 +4667,23 @@
       </c>
       <c r="B58" s="37">
         <f t="shared" si="3"/>
-        <v>50555</v>
+        <v>44165</v>
       </c>
       <c r="C58" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D58" s="36">
         <f t="shared" si="0"/>
-        <v>857867758.49809897</v>
+        <v>12515808.4077063</v>
       </c>
       <c r="E58" s="36">
         <f t="shared" si="1"/>
-        <v>-779495275.22298956</v>
+        <v>3254206.8231672565</v>
       </c>
       <c r="F58" s="36">
         <f t="shared" si="5"/>
-        <v>-11222345575.429192</v>
+        <v>253385936.88721582</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4692,23 +4692,23 @@
       </c>
       <c r="B59" s="37">
         <f t="shared" si="3"/>
-        <v>50739</v>
+        <v>44195</v>
       </c>
       <c r="C59" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D59" s="36">
         <f t="shared" si="0"/>
-        <v>922386577.13293934</v>
+        <v>12668981.637436844</v>
       </c>
       <c r="E59" s="36">
         <f t="shared" si="1"/>
-        <v>-844014093.85782993</v>
+        <v>3101033.5934367119</v>
       </c>
       <c r="F59" s="36">
         <f t="shared" si="5"/>
-        <v>-12144732152.56213</v>
+        <v>240716955.24977899</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4717,23 +4717,23 @@
       </c>
       <c r="B60" s="37">
         <f t="shared" si="3"/>
-        <v>50920</v>
+        <v>44226</v>
       </c>
       <c r="C60" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D60" s="36">
         <f t="shared" si="0"/>
-        <v>991757749.66125536</v>
+        <v>12824029.459486304</v>
       </c>
       <c r="E60" s="36">
         <f t="shared" si="1"/>
-        <v>-913385266.38614595</v>
+        <v>2945985.771387253</v>
       </c>
       <c r="F60" s="36">
         <f t="shared" si="5"/>
-        <v>-13136489902.223385</v>
+        <v>227892925.79029268</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4742,23 +4742,23 @@
       </c>
       <c r="B61" s="37">
         <f t="shared" si="3"/>
-        <v>51104</v>
+        <v>44255</v>
       </c>
       <c r="C61" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D61" s="36">
         <f t="shared" si="0"/>
-        <v>1066346213.6129915</v>
+        <v>12980974.815829383</v>
       </c>
       <c r="E61" s="36">
         <f t="shared" si="1"/>
-        <v>-987973730.33788204</v>
+        <v>2789040.4150441736</v>
       </c>
       <c r="F61" s="36">
         <f t="shared" si="5"/>
-        <v>-14202836115.836376</v>
+        <v>214911950.97446328</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4767,23 +4767,23 @@
       </c>
       <c r="B62" s="37">
         <f t="shared" si="3"/>
-        <v>51286</v>
+        <v>44285</v>
       </c>
       <c r="C62" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D62" s="36">
         <f t="shared" si="0"/>
-        <v>1146544352.8675721</v>
+        <v>13139840.929213412</v>
       </c>
       <c r="E62" s="36">
         <f t="shared" si="1"/>
-        <v>-1068171869.5924627</v>
+        <v>2630174.3016601442</v>
       </c>
       <c r="F62" s="36">
         <f t="shared" si="5"/>
-        <v>-15349380468.703949</v>
+        <v>201772110.04524988</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4792,23 +4792,23 @@
       </c>
       <c r="B63" s="37">
         <f t="shared" si="3"/>
-        <v>51470</v>
+        <v>44316</v>
       </c>
       <c r="C63" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D63" s="36">
         <f t="shared" si="0"/>
-        <v>1232774061.8485599</v>
+        <v>13300651.306594547</v>
       </c>
       <c r="E63" s="36">
         <f t="shared" si="1"/>
-        <v>-1154401578.5734506</v>
+        <v>2469363.9242790104</v>
       </c>
       <c r="F63" s="36">
         <f t="shared" si="5"/>
-        <v>-16582154530.552509</v>
+        <v>188471458.73865533</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4817,23 +4817,23 @@
       </c>
       <c r="B64" s="37">
         <f t="shared" si="3"/>
-        <v>51651</v>
+        <v>44346</v>
       </c>
       <c r="C64" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D64" s="36">
         <f t="shared" si="0"/>
-        <v>1325488964.9629879</v>
+        <v>13463429.742616024</v>
       </c>
       <c r="E64" s="36">
         <f t="shared" si="1"/>
-        <v>-1247116481.6878786</v>
+        <v>2306585.4882575334</v>
       </c>
       <c r="F64" s="36">
         <f t="shared" si="5"/>
-        <v>-17907643495.515495</v>
+        <v>175008028.9960393</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4842,23 +4842,23 @@
       </c>
       <c r="B65" s="37">
         <f t="shared" si="3"/>
-        <v>51835</v>
+        <v>44377</v>
       </c>
       <c r="C65" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D65" s="36">
         <f t="shared" si="0"/>
-        <v>1425176802.961062</v>
+        <v>13628200.323128985</v>
       </c>
       <c r="E65" s="36">
         <f t="shared" si="1"/>
-        <v>-1346804319.6859527</v>
+        <v>2141814.9077445716</v>
       </c>
       <c r="F65" s="36">
         <f t="shared" si="5"/>
-        <v>-19332820298.476559</v>
+        <v>161379828.6729103</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4867,23 +4867,23 @@
       </c>
       <c r="B66" s="37">
         <f t="shared" si="3"/>
-        <v>52016</v>
+        <v>44407</v>
       </c>
       <c r="C66" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D66" s="36">
         <f t="shared" si="0"/>
-        <v>1532361998.7700386</v>
+        <v>13794987.428756393</v>
       </c>
       <c r="E66" s="36">
         <f t="shared" si="1"/>
-        <v>-1453989515.4949293</v>
+        <v>1975027.8021171624</v>
       </c>
       <c r="F66" s="36">
         <f t="shared" si="5"/>
-        <v>-20865182297.246597</v>
+        <v>147584841.24415392</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4892,23 +4892,23 @@
       </c>
       <c r="B67" s="37">
         <f t="shared" si="3"/>
-        <v>52200</v>
+        <v>44438</v>
       </c>
       <c r="C67" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D67" s="36">
         <f t="shared" si="0"/>
-        <v>1647608416.3002353</v>
+        <v>13963815.738500562</v>
       </c>
       <c r="E67" s="36">
         <f t="shared" si="1"/>
-        <v>-1569235933.025126</v>
+        <v>1806199.4923729962</v>
       </c>
       <c r="F67" s="36">
         <f t="shared" si="5"/>
-        <v>-22512790713.546833</v>
+        <v>133621025.50565335</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4917,23 +4917,23 @@
       </c>
       <c r="B68" s="37">
         <f t="shared" si="3"/>
-        <v>52381</v>
+        <v>44469</v>
       </c>
       <c r="C68" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D68" s="36">
         <f t="shared" si="0"/>
-        <v>1771522326.736289</v>
+        <v>14134710.233394824</v>
       </c>
       <c r="E68" s="36">
         <f t="shared" si="1"/>
-        <v>-1693149843.4611797</v>
+        <v>1635304.9974787324</v>
       </c>
       <c r="F68" s="36">
         <f t="shared" si="5"/>
-        <v>-24284313040.283123</v>
+        <v>119486315.27225852</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4942,23 +4942,23 @@
       </c>
       <c r="B69" s="37">
         <f t="shared" si="3"/>
-        <v>52565</v>
+        <v>44499</v>
       </c>
       <c r="C69" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D69" s="36">
         <f t="shared" si="0"/>
-        <v>1904755597.9182863</v>
+        <v>14307696.200199924</v>
       </c>
       <c r="E69" s="36">
         <f t="shared" si="1"/>
-        <v>-1826383114.643177</v>
+        <v>1462319.0306736326</v>
       </c>
       <c r="F69" s="36">
         <f t="shared" si="5"/>
-        <v>-26189068638.201408</v>
+        <v>105178619.07205859</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4967,23 +4967,23 @@
       </c>
       <c r="B70" s="37">
         <f t="shared" si="3"/>
-        <v>52747</v>
+        <v>44530</v>
       </c>
       <c r="C70" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D70" s="36">
         <f t="shared" si="0"/>
-        <v>2048009123.5909841</v>
+        <v>14482799.235145608</v>
       </c>
       <c r="E70" s="36">
         <f t="shared" si="1"/>
-        <v>-1969636640.3158748</v>
+        <v>1287215.9957279495</v>
       </c>
       <c r="F70" s="36">
         <f t="shared" si="5"/>
-        <v>-28237077761.792393</v>
+        <v>90695819.836912975</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4992,23 +4992,23 @@
       </c>
       <c r="B71" s="37">
         <f t="shared" si="3"/>
-        <v>52931</v>
+        <v>44560</v>
       </c>
       <c r="C71" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D71" s="36">
         <f t="shared" si="0"/>
-        <v>2202036510.5612082</v>
+        <v>14660045.247718029</v>
       </c>
       <c r="E71" s="36">
         <f t="shared" si="1"/>
-        <v>-2123664027.2860987</v>
+        <v>1109969.9831555288</v>
       </c>
       <c r="F71" s="36">
         <f t="shared" si="5"/>
-        <v>-30439114272.3536</v>
+        <v>76035774.589194953</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5017,23 +5017,23 @@
       </c>
       <c r="B72" s="37">
         <f t="shared" si="3"/>
-        <v>53112</v>
+        <v>44591</v>
       </c>
       <c r="C72" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D72" s="36">
         <f t="shared" si="0"/>
-        <v>2367648043.160274</v>
+        <v>14839460.4644935</v>
       </c>
       <c r="E72" s="36">
         <f t="shared" si="1"/>
-        <v>-2289275559.8851647</v>
+        <v>930554.7663800572</v>
       </c>
       <c r="F72" s="36">
         <f t="shared" si="5"/>
-        <v>-32806762315.513874</v>
+        <v>61196314.124701455</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5042,23 +5042,23 @@
       </c>
       <c r="B73" s="37">
         <f t="shared" si="3"/>
-        <v>53296</v>
+        <v>44620</v>
       </c>
       <c r="C73" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D73" s="36">
         <f t="shared" si="0"/>
-        <v>2545714945.8670869</v>
+        <v>15021071.433019165</v>
       </c>
       <c r="E73" s="36">
         <f t="shared" si="1"/>
-        <v>-2467342462.5919776</v>
+        <v>748943.79785439221</v>
       </c>
       <c r="F73" s="36">
         <f t="shared" si="5"/>
-        <v>-35352477261.380959</v>
+        <v>46175242.691682294</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5067,23 +5067,23 @@
       </c>
       <c r="B74" s="37">
         <f t="shared" si="3"/>
-        <v>53477</v>
+        <v>44650</v>
       </c>
       <c r="C74" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D74" s="36">
         <f t="shared" si="0"/>
-        <v>2737173966.5160894</v>
+        <v>15204905.025741156</v>
       </c>
       <c r="E74" s="36">
         <f t="shared" si="1"/>
-        <v>-2658801483.2409801</v>
+        <v>565110.20513239969</v>
       </c>
       <c r="F74" s="36">
         <f t="shared" si="5"/>
-        <v>-38089651227.897049</v>
+        <v>30970337.665941138</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5092,23 +5092,23 @@
       </c>
       <c r="B75" s="37">
         <f t="shared" si="3"/>
-        <v>53661</v>
+        <v>44681</v>
       </c>
       <c r="C75" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D75" s="36">
         <f t="shared" si="0"/>
-        <v>2943032304.2007198</v>
+        <v>15390988.443980841</v>
       </c>
       <c r="E75" s="36">
         <f t="shared" si="1"/>
-        <v>-2864659820.9256105</v>
+        <v>379026.78689271543</v>
       </c>
       <c r="F75" s="36">
         <f t="shared" si="5"/>
-        <v>-41032683532.097771</v>
+        <v>15579349.221960297</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5117,23 +5117,23 @@
       </c>
       <c r="B76" s="37">
         <f t="shared" si="3"/>
-        <v>53842</v>
+        <v>44711</v>
       </c>
       <c r="C76" s="36">
         <f t="shared" si="4"/>
-        <v>78372483.275109395</v>
+        <v>15770015.230873557</v>
       </c>
       <c r="D76" s="36">
         <f t="shared" si="0"/>
-        <v>3164372907.7963543</v>
+        <v>15579349.221959712</v>
       </c>
       <c r="E76" s="36">
         <f t="shared" si="1"/>
-        <v>-3086000424.521245</v>
+        <v>190666.00891384546</v>
       </c>
       <c r="F76" s="36">
         <f t="shared" si="5"/>
-        <v>-44197056439.894127</v>
+        <v>5.8487057685852051E-7</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5159,7 +5159,7 @@
       </c>
       <c r="E79" s="39">
         <f ca="1">SUM(E83:INDIRECT(CONCATENATE("E",82+B10)))</f>
-        <v>124439192.72717412</v>
+        <v>267259953.31758338</v>
       </c>
       <c r="F79" s="43"/>
     </row>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B80" s="94">
         <f>PMT(B9,B10,B11,B12,B79)</f>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="C80" s="46"/>
       <c r="D80" s="45" t="s">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="E80" s="44">
         <f ca="1">F82+E79</f>
-        <v>583124067.25717413</v>
+        <v>934760953.31758332</v>
       </c>
       <c r="F80" s="43"/>
     </row>
@@ -5208,7 +5208,7 @@
       </c>
       <c r="F82" s="38">
         <f>B3</f>
-        <v>458684874.52999997</v>
+        <v>667501000</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5217,22 +5217,22 @@
       </c>
       <c r="B83" s="37">
         <f>EDATE($B$7,$B$6*A83)</f>
-        <v>43069</v>
+        <v>42916</v>
       </c>
       <c r="C83" s="36">
         <f>B80</f>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D83" s="36">
         <f t="shared" ref="D83:D142" si="6">C83-E83</f>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="E83" s="36">
         <v>0</v>
       </c>
       <c r="F83" s="36">
         <f t="shared" ref="F83:F94" si="7">F82-D83</f>
-        <v>385794366.12285322</v>
+        <v>651921650.77804029</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5241,23 +5241,23 @@
       </c>
       <c r="B84" s="37">
         <f t="shared" ref="B84:B142" si="8">EDATE($B$7,$B$6*A84)</f>
-        <v>43250</v>
+        <v>42946</v>
       </c>
       <c r="C84" s="36">
         <f t="shared" ref="C84:C142" si="9">$C$83</f>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D84" s="36">
         <f t="shared" si="6"/>
-        <v>43875550.691751063</v>
+        <v>7600883.7862427244</v>
       </c>
       <c r="E84" s="36">
         <f t="shared" ref="E84:E142" si="10">F83*$B$9</f>
-        <v>29014957.715395685</v>
+        <v>7978465.435716995</v>
       </c>
       <c r="F84" s="36">
         <f t="shared" si="7"/>
-        <v>341918815.43110216</v>
+        <v>644320766.99179757</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5266,23 +5266,23 @@
       </c>
       <c r="B85" s="37">
         <f t="shared" si="8"/>
-        <v>43434</v>
+        <v>42977</v>
       </c>
       <c r="C85" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D85" s="36">
         <f t="shared" si="6"/>
-        <v>47175358.464619026</v>
+        <v>7693906.2966886712</v>
       </c>
       <c r="E85" s="36">
         <f t="shared" si="10"/>
-        <v>25715149.94252773</v>
+        <v>7885442.9252710482</v>
       </c>
       <c r="F85" s="36">
         <f t="shared" si="7"/>
-        <v>294743456.96648312</v>
+        <v>636626860.69510889</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5291,23 +5291,23 @@
       </c>
       <c r="B86" s="37">
         <f t="shared" si="8"/>
-        <v>43615</v>
+        <v>43008</v>
       </c>
       <c r="C86" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D86" s="36">
         <f t="shared" si="6"/>
-        <v>50723339.33540155</v>
+        <v>7788067.2520435294</v>
       </c>
       <c r="E86" s="36">
         <f t="shared" si="10"/>
-        <v>22167169.071745198</v>
+        <v>7791281.96991619</v>
       </c>
       <c r="F86" s="36">
         <f t="shared" si="7"/>
-        <v>244020117.63108158</v>
+        <v>628838793.4430654</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5316,23 +5316,23 @@
       </c>
       <c r="B87" s="37">
         <f t="shared" si="8"/>
-        <v>43799</v>
+        <v>43038</v>
       </c>
       <c r="C87" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D87" s="36">
         <f t="shared" si="6"/>
-        <v>54538157.993307203</v>
+        <v>7883380.5850296486</v>
       </c>
       <c r="E87" s="36">
         <f t="shared" si="10"/>
-        <v>18352350.413839553</v>
+        <v>7695968.6369300708</v>
       </c>
       <c r="F87" s="36">
         <f t="shared" si="7"/>
-        <v>189481959.63777438</v>
+        <v>620955412.8580358</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5341,23 +5341,23 @@
       </c>
       <c r="B88" s="37">
         <f t="shared" si="8"/>
-        <v>43981</v>
+        <v>43069</v>
       </c>
       <c r="C88" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D88" s="36">
         <f t="shared" si="6"/>
-        <v>58639882.868023142</v>
+        <v>7979860.3988833474</v>
       </c>
       <c r="E88" s="36">
         <f t="shared" si="10"/>
-        <v>14250625.539123608</v>
+        <v>7599488.823076372</v>
       </c>
       <c r="F88" s="36">
         <f t="shared" si="7"/>
-        <v>130842076.76975124</v>
+        <v>612975552.45915246</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5366,23 +5366,23 @@
       </c>
       <c r="B89" s="37">
         <f t="shared" si="8"/>
-        <v>44165</v>
+        <v>43099</v>
       </c>
       <c r="C89" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D89" s="36">
         <f t="shared" si="6"/>
-        <v>63050091.702720433</v>
+        <v>8077520.9694417166</v>
       </c>
       <c r="E89" s="36">
         <f t="shared" si="10"/>
-        <v>9840416.7044263203</v>
+        <v>7501828.2525180029</v>
       </c>
       <c r="F89" s="36">
         <f t="shared" si="7"/>
-        <v>67791985.067030802</v>
+        <v>604898031.48971069</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5391,23 +5391,23 @@
       </c>
       <c r="B90" s="37">
         <f t="shared" si="8"/>
-        <v>44346</v>
+        <v>43130</v>
       </c>
       <c r="C90" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D90" s="36">
         <f t="shared" si="6"/>
-        <v>67791985.067030728</v>
+        <v>8176376.7472549817</v>
       </c>
       <c r="E90" s="36">
         <f t="shared" si="10"/>
-        <v>5098523.3401160259</v>
+        <v>7402972.4747047378</v>
       </c>
       <c r="F90" s="36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>596721654.74245572</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5416,23 +5416,23 @@
       </c>
       <c r="B91" s="37">
         <f t="shared" si="8"/>
-        <v>44530</v>
+        <v>43159</v>
       </c>
       <c r="C91" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D91" s="36">
         <f t="shared" si="6"/>
-        <v>72890508.407146752</v>
+        <v>8276442.3597246986</v>
       </c>
       <c r="E91" s="36">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>7302906.8622350208</v>
       </c>
       <c r="F91" s="36">
         <f t="shared" si="7"/>
-        <v>-72890508.407146752</v>
+        <v>588445212.38273108</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5441,23 +5441,23 @@
       </c>
       <c r="B92" s="37">
         <f t="shared" si="8"/>
-        <v>44711</v>
+        <v>43189</v>
       </c>
       <c r="C92" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D92" s="36">
         <f t="shared" si="6"/>
-        <v>78372483.27510938</v>
+        <v>8377732.6132681407</v>
       </c>
       <c r="E92" s="36">
         <f t="shared" si="10"/>
-        <v>-5481974.8679626351</v>
+        <v>7201616.6086915787</v>
       </c>
       <c r="F92" s="36">
         <f t="shared" si="7"/>
-        <v>-151262991.68225613</v>
+        <v>580067479.76946294</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5466,23 +5466,23 @@
       </c>
       <c r="B93" s="37">
         <f t="shared" si="8"/>
-        <v>44895</v>
+        <v>43220</v>
       </c>
       <c r="C93" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D93" s="36">
         <f t="shared" si="6"/>
-        <v>84266748.427632958</v>
+        <v>8480262.4955091532</v>
       </c>
       <c r="E93" s="36">
         <f t="shared" si="10"/>
-        <v>-11376240.020486208</v>
+        <v>7099086.7264505662</v>
       </c>
       <c r="F93" s="36">
         <f t="shared" si="7"/>
-        <v>-235529740.10988909</v>
+        <v>571587217.2739538</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5491,23 +5491,23 @@
       </c>
       <c r="B94" s="37">
         <f t="shared" si="8"/>
-        <v>45076</v>
+        <v>43250</v>
       </c>
       <c r="C94" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D94" s="36">
         <f t="shared" si="6"/>
-        <v>90604311.536740333</v>
+        <v>8584047.1774958279</v>
       </c>
       <c r="E94" s="36">
         <f t="shared" si="10"/>
-        <v>-17713803.129593577</v>
+        <v>6995302.0444638915</v>
       </c>
       <c r="F94" s="36">
         <f t="shared" si="7"/>
-        <v>-326134051.64662945</v>
+        <v>563003170.09645796</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5516,23 +5516,23 @@
       </c>
       <c r="B95" s="37">
         <f t="shared" si="8"/>
-        <v>45260</v>
+        <v>43281</v>
       </c>
       <c r="C95" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D95" s="36">
         <f t="shared" si="6"/>
-        <v>97418512.310304537</v>
+        <v>8689102.0159453228</v>
       </c>
       <c r="E95" s="36">
         <f t="shared" si="10"/>
-        <v>-24528003.903157782</v>
+        <v>6890247.2060143976</v>
       </c>
       <c r="F95" s="36">
         <f t="shared" ref="F95:F142" si="11">F94-D95</f>
-        <v>-423552563.95693398</v>
+        <v>554314068.08051264</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5541,23 +5541,23 @@
       </c>
       <c r="B96" s="37">
         <f t="shared" si="8"/>
-        <v>45442</v>
+        <v>43311</v>
       </c>
       <c r="C96" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D96" s="36">
         <f t="shared" si="6"/>
-        <v>104745197.88061723</v>
+        <v>8795442.5555161461</v>
       </c>
       <c r="E96" s="36">
         <f t="shared" si="10"/>
-        <v>-31854689.473470472</v>
+        <v>6783906.6664435742</v>
       </c>
       <c r="F96" s="36">
         <f t="shared" si="11"/>
-        <v>-528297761.83755124</v>
+        <v>545518625.52499652</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5566,23 +5566,23 @@
       </c>
       <c r="B97" s="37">
         <f t="shared" si="8"/>
-        <v>45626</v>
+        <v>43342</v>
       </c>
       <c r="C97" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D97" s="36">
         <f t="shared" si="6"/>
-        <v>112622911.38364194</v>
+        <v>8903084.5311082583</v>
       </c>
       <c r="E97" s="36">
         <f t="shared" si="10"/>
-        <v>-39732402.976495191</v>
+        <v>6676264.6908514611</v>
       </c>
       <c r="F97" s="36">
         <f t="shared" si="11"/>
-        <v>-640920673.22119319</v>
+        <v>536615540.99388826</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5591,23 +5591,23 @@
       </c>
       <c r="B98" s="37">
         <f t="shared" si="8"/>
-        <v>45807</v>
+        <v>43373</v>
       </c>
       <c r="C98" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D98" s="36">
         <f t="shared" si="6"/>
-        <v>121093094.72100186</v>
+        <v>9012043.8701913208</v>
       </c>
       <c r="E98" s="36">
         <f t="shared" si="10"/>
-        <v>-48202586.313855119</v>
+        <v>6567305.3517683996</v>
       </c>
       <c r="F98" s="36">
         <f t="shared" si="11"/>
-        <v>-762013767.94219506</v>
+        <v>527603497.12369692</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5616,23 +5616,23 @@
       </c>
       <c r="B99" s="37">
         <f t="shared" si="8"/>
-        <v>45991</v>
+        <v>43403</v>
       </c>
       <c r="C99" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D99" s="36">
         <f t="shared" si="6"/>
-        <v>130200306.57136214</v>
+        <v>9122336.6951614283</v>
       </c>
       <c r="E99" s="36">
         <f t="shared" si="10"/>
-        <v>-57309798.164215378</v>
+        <v>6457012.5267982911</v>
       </c>
       <c r="F99" s="36">
         <f t="shared" si="11"/>
-        <v>-892214074.5135572</v>
+        <v>518481160.42853552</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5641,23 +5641,23 @@
       </c>
       <c r="B100" s="37">
         <f t="shared" si="8"/>
-        <v>46172</v>
+        <v>43434</v>
       </c>
       <c r="C100" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D100" s="36">
         <f t="shared" si="6"/>
-        <v>139992456.79808843</v>
+        <v>9233979.3257267065</v>
       </c>
       <c r="E100" s="36">
         <f t="shared" si="10"/>
-        <v>-67101948.390941687</v>
+        <v>6345369.8962330138</v>
       </c>
       <c r="F100" s="36">
         <f t="shared" si="11"/>
-        <v>-1032206531.3116456</v>
+        <v>509247181.10280883</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5666,23 +5666,23 @@
       </c>
       <c r="B101" s="37">
         <f t="shared" si="8"/>
-        <v>46356</v>
+        <v>43464</v>
       </c>
       <c r="C101" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D101" s="36">
         <f t="shared" si="6"/>
-        <v>150521058.48631895</v>
+        <v>9346988.2813220751</v>
       </c>
       <c r="E101" s="36">
         <f t="shared" si="10"/>
-        <v>-77630550.079172194</v>
+        <v>6232360.9406376444</v>
       </c>
       <c r="F101" s="36">
         <f t="shared" si="11"/>
-        <v>-1182727589.7979646</v>
+        <v>499900192.82148677</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5691,23 +5691,23 @@
       </c>
       <c r="B102" s="37">
         <f t="shared" si="8"/>
-        <v>46537</v>
+        <v>43495</v>
       </c>
       <c r="C102" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D102" s="36">
         <f t="shared" si="6"/>
-        <v>161841498.93532848</v>
+        <v>9461380.2835535984</v>
       </c>
       <c r="E102" s="36">
         <f t="shared" si="10"/>
-        <v>-88950990.528181747</v>
+        <v>6117968.938406121</v>
       </c>
       <c r="F102" s="36">
         <f t="shared" si="11"/>
-        <v>-1344569088.7332931</v>
+        <v>490438812.53793317</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5716,23 +5716,23 @@
       </c>
       <c r="B103" s="37">
         <f t="shared" si="8"/>
-        <v>46721</v>
+        <v>43524</v>
       </c>
       <c r="C103" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D103" s="36">
         <f t="shared" si="6"/>
-        <v>174013331.03178132</v>
+        <v>9577172.258672718</v>
       </c>
       <c r="E103" s="36">
         <f t="shared" si="10"/>
-        <v>-101122822.62463455</v>
+        <v>6002176.9632870005</v>
       </c>
       <c r="F103" s="36">
         <f t="shared" si="11"/>
-        <v>-1518582419.7650743</v>
+        <v>480861640.27926046</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -5741,23 +5741,23 @@
       </c>
       <c r="B104" s="37">
         <f t="shared" si="8"/>
-        <v>46903</v>
+        <v>43554</v>
       </c>
       <c r="C104" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D104" s="36">
         <f t="shared" si="6"/>
-        <v>187100586.53668535</v>
+        <v>9694381.3400807902</v>
       </c>
       <c r="E104" s="36">
         <f t="shared" si="10"/>
-        <v>-114210078.12953861</v>
+        <v>5884967.8818789292</v>
       </c>
       <c r="F104" s="36">
         <f t="shared" si="11"/>
-        <v>-1705683006.3017597</v>
+        <v>471167258.93917966</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -5766,23 +5766,23 @@
       </c>
       <c r="B105" s="37">
         <f t="shared" si="8"/>
-        <v>47087</v>
+        <v>43585</v>
       </c>
       <c r="C105" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D105" s="36">
         <f t="shared" si="6"/>
-        <v>201172112.9341417</v>
+        <v>9813024.8708642609</v>
       </c>
       <c r="E105" s="36">
         <f t="shared" si="10"/>
-        <v>-128281604.52699494</v>
+        <v>5766324.3510954594</v>
       </c>
       <c r="F105" s="36">
         <f t="shared" si="11"/>
-        <v>-1906855119.2359014</v>
+        <v>461354234.06831539</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5791,23 +5791,23 @@
       </c>
       <c r="B106" s="37">
         <f t="shared" si="8"/>
-        <v>47268</v>
+        <v>43615</v>
       </c>
       <c r="C106" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D106" s="36">
         <f t="shared" si="6"/>
-        <v>216301935.61393213</v>
+        <v>9933120.4063608684</v>
       </c>
       <c r="E106" s="36">
         <f t="shared" si="10"/>
-        <v>-143411427.20678538</v>
+        <v>5646228.8155988511</v>
       </c>
       <c r="F106" s="36">
         <f t="shared" si="11"/>
-        <v>-2123157054.8498335</v>
+        <v>451421113.66195452</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5816,23 +5816,23 @@
       </c>
       <c r="B107" s="37">
         <f t="shared" si="8"/>
-        <v>47452</v>
+        <v>43646</v>
       </c>
       <c r="C107" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D107" s="36">
         <f t="shared" si="6"/>
-        <v>232569647.29326221</v>
+        <v>10054685.716757268</v>
       </c>
       <c r="E107" s="36">
         <f t="shared" si="10"/>
-        <v>-159679138.88611546</v>
+        <v>5524663.5052024527</v>
       </c>
       <c r="F107" s="36">
         <f t="shared" si="11"/>
-        <v>-2355726702.1430955</v>
+        <v>441366427.94519722</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5841,23 +5841,23 @@
       </c>
       <c r="B108" s="37">
         <f t="shared" si="8"/>
-        <v>47633</v>
+        <v>43676</v>
       </c>
       <c r="C108" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D108" s="36">
         <f t="shared" si="6"/>
-        <v>250060826.72627041</v>
+        <v>10177738.789718419</v>
       </c>
       <c r="E108" s="36">
         <f t="shared" si="10"/>
-        <v>-177170318.31912366</v>
+        <v>5401610.4322412992</v>
       </c>
       <c r="F108" s="36">
         <f t="shared" si="11"/>
-        <v>-2605787528.8693657</v>
+        <v>431188689.15547884</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -5866,23 +5866,23 @@
       </c>
       <c r="B109" s="37">
         <f t="shared" si="8"/>
-        <v>47817</v>
+        <v>43707</v>
       </c>
       <c r="C109" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D109" s="36">
         <f t="shared" si="6"/>
-        <v>268867488.90398908</v>
+        <v>10302297.833049182</v>
       </c>
       <c r="E109" s="36">
         <f t="shared" si="10"/>
-        <v>-195976980.49684235</v>
+        <v>5277051.3889105367</v>
       </c>
       <c r="F109" s="36">
         <f t="shared" si="11"/>
-        <v>-2874655017.7733545</v>
+        <v>420886391.32242966</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -5891,23 +5891,23 @@
       </c>
       <c r="B110" s="37">
         <f t="shared" si="8"/>
-        <v>47998</v>
+        <v>43738</v>
       </c>
       <c r="C110" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D110" s="36">
         <f t="shared" si="6"/>
-        <v>289088569.11310136</v>
+        <v>10428381.277388465</v>
       </c>
       <c r="E110" s="36">
         <f t="shared" si="10"/>
-        <v>-216198060.70595464</v>
+        <v>5150967.9445712557</v>
       </c>
       <c r="F110" s="36">
         <f t="shared" si="11"/>
-        <v>-3163743586.886456</v>
+        <v>410458010.0450412</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -5916,23 +5916,23 @@
       </c>
       <c r="B111" s="37">
         <f t="shared" si="8"/>
-        <v>48182</v>
+        <v>43768</v>
       </c>
       <c r="C111" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D111" s="36">
         <f t="shared" si="6"/>
-        <v>310830443.39995873</v>
+        <v>10556007.778936345</v>
       </c>
       <c r="E111" s="36">
         <f t="shared" si="10"/>
-        <v>-237939934.99281198</v>
+        <v>5023341.4430233734</v>
       </c>
       <c r="F111" s="36">
         <f t="shared" si="11"/>
-        <v>-3474574030.2864146</v>
+        <v>399902002.26610488</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -5941,23 +5941,23 @@
       </c>
       <c r="B112" s="37">
         <f t="shared" si="8"/>
-        <v>48364</v>
+        <v>43799</v>
       </c>
       <c r="C112" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D112" s="36">
         <f t="shared" si="6"/>
-        <v>334207488.17783797</v>
+        <v>10685196.222214598</v>
       </c>
       <c r="E112" s="36">
         <f t="shared" si="10"/>
-        <v>-261316979.77069125</v>
+        <v>4894152.9997451212</v>
       </c>
       <c r="F112" s="36">
         <f t="shared" si="11"/>
-        <v>-3808781518.4642525</v>
+        <v>389216806.0438903</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -5966,23 +5966,23 @@
       </c>
       <c r="B113" s="37">
         <f t="shared" si="8"/>
-        <v>48548</v>
+        <v>43829</v>
       </c>
       <c r="C113" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D113" s="36">
         <f t="shared" si="6"/>
-        <v>359342681.92133766</v>
+        <v>10815965.722860955</v>
       </c>
       <c r="E113" s="36">
         <f t="shared" si="10"/>
-        <v>-286452173.51419091</v>
+        <v>4763383.4990987647</v>
       </c>
       <c r="F113" s="36">
         <f t="shared" si="11"/>
-        <v>-4168124200.3855901</v>
+        <v>378400840.32102937</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -5991,23 +5991,23 @@
       </c>
       <c r="B114" s="37">
         <f t="shared" si="8"/>
-        <v>48729</v>
+        <v>43860</v>
       </c>
       <c r="C114" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D114" s="36">
         <f t="shared" si="6"/>
-        <v>386368252.11321634</v>
+        <v>10948335.630457606</v>
       </c>
       <c r="E114" s="36">
         <f t="shared" si="10"/>
-        <v>-313477743.70606959</v>
+        <v>4631013.5915021133</v>
       </c>
       <c r="F114" s="36">
         <f t="shared" si="11"/>
-        <v>-4554492452.498806</v>
+        <v>367452504.69057178</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6016,23 +6016,23 @@
       </c>
       <c r="B115" s="37">
         <f t="shared" si="8"/>
-        <v>48913</v>
+        <v>43890</v>
       </c>
       <c r="C115" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D115" s="36">
         <f t="shared" si="6"/>
-        <v>415426370.84703529</v>
+        <v>11082325.531394299</v>
       </c>
       <c r="E115" s="36">
         <f t="shared" si="10"/>
-        <v>-342535862.43988854</v>
+        <v>4497023.6905654203</v>
       </c>
       <c r="F115" s="36">
         <f t="shared" si="11"/>
-        <v>-4969918823.3458414</v>
+        <v>356370179.15917748</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -6041,23 +6041,23 @@
       </c>
       <c r="B116" s="37">
         <f t="shared" si="8"/>
-        <v>49094</v>
+        <v>43920</v>
       </c>
       <c r="C116" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D116" s="36">
         <f t="shared" si="6"/>
-        <v>446669902.74492896</v>
+        <v>11217955.251766477</v>
       </c>
       <c r="E116" s="36">
         <f t="shared" si="10"/>
-        <v>-373779394.3377822</v>
+        <v>4361393.9701932436</v>
       </c>
       <c r="F116" s="36">
         <f t="shared" si="11"/>
-        <v>-5416588726.0907707</v>
+        <v>345152223.90741098</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -6066,23 +6066,23 @@
       </c>
       <c r="B117" s="37">
         <f t="shared" si="8"/>
-        <v>49278</v>
+        <v>43951</v>
       </c>
       <c r="C117" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D117" s="36">
         <f t="shared" si="6"/>
-        <v>480263209.12503552</v>
+        <v>11355244.860308886</v>
       </c>
       <c r="E117" s="36">
         <f t="shared" si="10"/>
-        <v>-407372700.71788877</v>
+        <v>4224104.3616508339</v>
       </c>
       <c r="F117" s="36">
         <f t="shared" si="11"/>
-        <v>-5896851935.215806</v>
+        <v>333796979.04710209</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -6091,23 +6091,23 @@
       </c>
       <c r="B118" s="37">
         <f t="shared" si="8"/>
-        <v>49459</v>
+        <v>43981</v>
       </c>
       <c r="C118" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D118" s="36">
         <f t="shared" si="6"/>
-        <v>516383012.64903438</v>
+        <v>11494214.671365097</v>
       </c>
       <c r="E118" s="36">
         <f t="shared" si="10"/>
-        <v>-443492504.24188763</v>
+        <v>4085134.5505946223</v>
       </c>
       <c r="F118" s="36">
         <f t="shared" si="11"/>
-        <v>-6413234947.8648405</v>
+        <v>322302764.37573701</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -6116,23 +6116,23 @@
       </c>
       <c r="B119" s="37">
         <f t="shared" si="8"/>
-        <v>49643</v>
+        <v>44012</v>
       </c>
       <c r="C119" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D119" s="36">
         <f t="shared" si="6"/>
-        <v>555219326.99839735</v>
+        <v>11634885.24789335</v>
       </c>
       <c r="E119" s="36">
         <f t="shared" si="10"/>
-        <v>-482328818.59125066</v>
+        <v>3944463.9740663692</v>
       </c>
       <c r="F119" s="36">
         <f t="shared" si="11"/>
-        <v>-6968454274.8632374</v>
+        <v>310667879.12784368</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -6141,23 +6141,23 @@
       </c>
       <c r="B120" s="37">
         <f t="shared" si="8"/>
-        <v>49825</v>
+        <v>44042</v>
       </c>
       <c r="C120" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D120" s="36">
         <f t="shared" si="6"/>
-        <v>596976456.47005725</v>
+        <v>11777277.404509202</v>
       </c>
       <c r="E120" s="36">
         <f t="shared" si="10"/>
-        <v>-524085948.0629105</v>
+        <v>3802071.8174505187</v>
       </c>
       <c r="F120" s="36">
         <f t="shared" si="11"/>
-        <v>-7565430731.3332949</v>
+        <v>298890601.72333449</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -6166,23 +6166,23 @@
       </c>
       <c r="B121" s="37">
         <f t="shared" si="8"/>
-        <v>50009</v>
+        <v>44073</v>
       </c>
       <c r="C121" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D121" s="36">
         <f t="shared" si="6"/>
-        <v>641874070.75001717</v>
+        <v>11921412.210565396</v>
       </c>
       <c r="E121" s="36">
         <f t="shared" si="10"/>
-        <v>-568983562.34287035</v>
+        <v>3657937.0113943238</v>
       </c>
       <c r="F121" s="36">
         <f t="shared" si="11"/>
-        <v>-8207304802.083312</v>
+        <v>286969189.5127691</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -6191,23 +6191,23 @@
       </c>
       <c r="B122" s="37">
         <f t="shared" si="8"/>
-        <v>50190</v>
+        <v>44104</v>
       </c>
       <c r="C122" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D122" s="36">
         <f t="shared" si="6"/>
-        <v>690148360.51890922</v>
+        <v>12067310.993269445</v>
       </c>
       <c r="E122" s="36">
         <f t="shared" si="10"/>
-        <v>-617257852.1117624</v>
+        <v>3512038.2286902745</v>
       </c>
       <c r="F122" s="36">
         <f t="shared" si="11"/>
-        <v>-8897453162.6022205</v>
+        <v>274901878.51949966</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6216,23 +6216,23 @@
       </c>
       <c r="B123" s="37">
         <f t="shared" si="8"/>
-        <v>50374</v>
+        <v>44134</v>
       </c>
       <c r="C123" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D123" s="36">
         <f t="shared" si="6"/>
-        <v>742053279.96874142</v>
+        <v>12214995.340839347</v>
       </c>
       <c r="E123" s="36">
         <f t="shared" si="10"/>
-        <v>-669162771.56159461</v>
+        <v>3364353.881120373</v>
       </c>
       <c r="F123" s="36">
         <f t="shared" si="11"/>
-        <v>-9639506442.570961</v>
+        <v>262686883.1786603</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6241,23 +6241,23 @@
       </c>
       <c r="B124" s="37">
         <f t="shared" si="8"/>
-        <v>50555</v>
+        <v>44165</v>
       </c>
       <c r="C124" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D124" s="36">
         <f t="shared" si="6"/>
-        <v>797861882.76727843</v>
+        <v>12364487.10569793</v>
       </c>
       <c r="E124" s="36">
         <f t="shared" si="10"/>
-        <v>-724971374.36013162</v>
+        <v>3214862.1162617886</v>
       </c>
       <c r="F124" s="36">
         <f t="shared" si="11"/>
-        <v>-10437368325.33824</v>
+        <v>250322396.07296237</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6266,23 +6266,23 @@
       </c>
       <c r="B125" s="37">
         <f t="shared" si="8"/>
-        <v>50739</v>
+        <v>44195</v>
       </c>
       <c r="C125" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D125" s="36">
         <f t="shared" si="6"/>
-        <v>857867758.49809885</v>
+        <v>12515808.407706302</v>
       </c>
       <c r="E125" s="36">
         <f t="shared" si="10"/>
-        <v>-784977250.09095216</v>
+        <v>3063540.8142534178</v>
       </c>
       <c r="F125" s="36">
         <f t="shared" si="11"/>
-        <v>-11295236083.836338</v>
+        <v>237806587.66525608</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6291,23 +6291,23 @@
       </c>
       <c r="B126" s="37">
         <f t="shared" si="8"/>
-        <v>50920</v>
+        <v>44226</v>
       </c>
       <c r="C126" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D126" s="36">
         <f t="shared" si="6"/>
-        <v>922386577.13293934</v>
+        <v>12668981.637436846</v>
       </c>
       <c r="E126" s="36">
         <f t="shared" si="10"/>
-        <v>-849496068.72579253</v>
+        <v>2910367.5845228732</v>
       </c>
       <c r="F126" s="36">
         <f t="shared" si="11"/>
-        <v>-12217622660.969276</v>
+        <v>225137606.02781925</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6316,23 +6316,23 @@
       </c>
       <c r="B127" s="37">
         <f t="shared" si="8"/>
-        <v>51104</v>
+        <v>44255</v>
       </c>
       <c r="C127" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D127" s="36">
         <f t="shared" si="6"/>
-        <v>991757749.66125536</v>
+        <v>12824029.459486306</v>
       </c>
       <c r="E127" s="36">
         <f t="shared" si="10"/>
-        <v>-918867241.25410855</v>
+        <v>2755319.7624734142</v>
       </c>
       <c r="F127" s="36">
         <f t="shared" si="11"/>
-        <v>-13209380410.630531</v>
+        <v>212313576.56833294</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -6341,23 +6341,23 @@
       </c>
       <c r="B128" s="37">
         <f t="shared" si="8"/>
-        <v>51286</v>
+        <v>44285</v>
       </c>
       <c r="C128" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D128" s="36">
         <f t="shared" si="6"/>
-        <v>1066346213.6129913</v>
+        <v>12980974.815829385</v>
       </c>
       <c r="E128" s="36">
         <f t="shared" si="10"/>
-        <v>-993455705.20584464</v>
+        <v>2598374.4061303348</v>
       </c>
       <c r="F128" s="36">
         <f t="shared" si="11"/>
-        <v>-14275726624.243523</v>
+        <v>199332601.75250354</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6366,23 +6366,23 @@
       </c>
       <c r="B129" s="37">
         <f t="shared" si="8"/>
-        <v>51470</v>
+        <v>44316</v>
       </c>
       <c r="C129" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D129" s="36">
         <f t="shared" si="6"/>
-        <v>1146544352.8675721</v>
+        <v>13139840.929213414</v>
       </c>
       <c r="E129" s="36">
         <f t="shared" si="10"/>
-        <v>-1073653844.4604253</v>
+        <v>2439508.2927463059</v>
       </c>
       <c r="F129" s="36">
         <f t="shared" si="11"/>
-        <v>-15422270977.111095</v>
+        <v>186192760.82329014</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6391,23 +6391,23 @@
       </c>
       <c r="B130" s="37">
         <f t="shared" si="8"/>
-        <v>51651</v>
+        <v>44346</v>
       </c>
       <c r="C130" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D130" s="36">
         <f t="shared" si="6"/>
-        <v>1232774061.8485599</v>
+        <v>13300651.306594547</v>
       </c>
       <c r="E130" s="36">
         <f t="shared" si="10"/>
-        <v>-1159883553.4414132</v>
+        <v>2278697.9153651716</v>
       </c>
       <c r="F130" s="36">
         <f t="shared" si="11"/>
-        <v>-16655045038.959656</v>
+        <v>172892109.51669559</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6416,23 +6416,23 @@
       </c>
       <c r="B131" s="37">
         <f t="shared" si="8"/>
-        <v>51835</v>
+        <v>44377</v>
       </c>
       <c r="C131" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D131" s="36">
         <f t="shared" si="6"/>
-        <v>1325488964.9629879</v>
+        <v>13463429.742616024</v>
       </c>
       <c r="E131" s="36">
         <f t="shared" si="10"/>
-        <v>-1252598456.5558412</v>
+        <v>2115919.4793436946</v>
       </c>
       <c r="F131" s="36">
         <f t="shared" si="11"/>
-        <v>-17980534003.922646</v>
+        <v>159428679.77407956</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6441,23 +6441,23 @@
       </c>
       <c r="B132" s="37">
         <f t="shared" si="8"/>
-        <v>52016</v>
+        <v>44407</v>
       </c>
       <c r="C132" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D132" s="36">
         <f t="shared" si="6"/>
-        <v>1425176802.9610622</v>
+        <v>13628200.323128987</v>
       </c>
       <c r="E132" s="36">
         <f t="shared" si="10"/>
-        <v>-1352286294.5539155</v>
+        <v>1951148.8988307328</v>
       </c>
       <c r="F132" s="36">
         <f t="shared" si="11"/>
-        <v>-19405710806.883709</v>
+        <v>145800479.45095056</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6466,23 +6466,23 @@
       </c>
       <c r="B133" s="37">
         <f t="shared" si="8"/>
-        <v>52200</v>
+        <v>44438</v>
       </c>
       <c r="C133" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D133" s="36">
         <f t="shared" si="6"/>
-        <v>1532361998.7700388</v>
+        <v>13794987.428756395</v>
       </c>
       <c r="E133" s="36">
         <f t="shared" si="10"/>
-        <v>-1459471490.3628922</v>
+        <v>1784361.7932033238</v>
       </c>
       <c r="F133" s="36">
         <f t="shared" si="11"/>
-        <v>-20938072805.653748</v>
+        <v>132005492.02219416</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6491,23 +6491,23 @@
       </c>
       <c r="B134" s="37">
         <f t="shared" si="8"/>
-        <v>52381</v>
+        <v>44469</v>
       </c>
       <c r="C134" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D134" s="36">
         <f t="shared" si="6"/>
-        <v>1647608416.3002355</v>
+        <v>13963815.738500562</v>
       </c>
       <c r="E134" s="36">
         <f t="shared" si="10"/>
-        <v>-1574717907.8930888</v>
+        <v>1615533.4834591572</v>
       </c>
       <c r="F134" s="36">
         <f t="shared" si="11"/>
-        <v>-22585681221.953983</v>
+        <v>118041676.2836936</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6516,23 +6516,23 @@
       </c>
       <c r="B135" s="37">
         <f t="shared" si="8"/>
-        <v>52565</v>
+        <v>44499</v>
       </c>
       <c r="C135" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D135" s="36">
         <f t="shared" si="6"/>
-        <v>1771522326.7362895</v>
+        <v>14134710.233394826</v>
       </c>
       <c r="E135" s="36">
         <f t="shared" si="10"/>
-        <v>-1698631818.3291428</v>
+        <v>1444638.9885648936</v>
       </c>
       <c r="F135" s="36">
         <f t="shared" si="11"/>
-        <v>-24357203548.690273</v>
+        <v>103906966.05029877</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6541,23 +6541,23 @@
       </c>
       <c r="B136" s="37">
         <f t="shared" si="8"/>
-        <v>52747</v>
+        <v>44530</v>
       </c>
       <c r="C136" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D136" s="36">
         <f t="shared" si="6"/>
-        <v>1904755597.9182866</v>
+        <v>14307696.200199926</v>
       </c>
       <c r="E136" s="36">
         <f t="shared" si="10"/>
-        <v>-1831865089.5111399</v>
+        <v>1271653.0217597936</v>
       </c>
       <c r="F136" s="36">
         <f t="shared" si="11"/>
-        <v>-26261959146.608559</v>
+        <v>89599269.850098833</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6566,23 +6566,23 @@
       </c>
       <c r="B137" s="37">
         <f t="shared" si="8"/>
-        <v>52931</v>
+        <v>44560</v>
       </c>
       <c r="C137" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D137" s="36">
         <f t="shared" si="6"/>
-        <v>2048009123.5909843</v>
+        <v>14482799.235145608</v>
       </c>
       <c r="E137" s="36">
         <f t="shared" si="10"/>
-        <v>-1975118615.1838377</v>
+        <v>1096549.9868141108</v>
       </c>
       <c r="F137" s="36">
         <f t="shared" si="11"/>
-        <v>-28309968270.199543</v>
+        <v>75116470.61495322</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6591,23 +6591,23 @@
       </c>
       <c r="B138" s="37">
         <f t="shared" si="8"/>
-        <v>53112</v>
+        <v>44591</v>
       </c>
       <c r="C138" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D138" s="36">
         <f t="shared" si="6"/>
-        <v>2202036510.5612082</v>
+        <v>14660045.247718029</v>
       </c>
       <c r="E138" s="36">
         <f t="shared" si="10"/>
-        <v>-2129146002.1540616</v>
+        <v>919303.97424169001</v>
       </c>
       <c r="F138" s="36">
         <f t="shared" si="11"/>
-        <v>-30512004780.76075</v>
+        <v>60456425.367235191</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6616,23 +6616,23 @@
       </c>
       <c r="B139" s="37">
         <f t="shared" si="8"/>
-        <v>53296</v>
+        <v>44620</v>
       </c>
       <c r="C139" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D139" s="36">
         <f t="shared" si="6"/>
-        <v>2367648043.1602745</v>
+        <v>14839460.464493502</v>
       </c>
       <c r="E139" s="36">
         <f t="shared" si="10"/>
-        <v>-2294757534.7531276</v>
+        <v>739888.75746621832</v>
       </c>
       <c r="F139" s="36">
         <f t="shared" si="11"/>
-        <v>-32879652823.921024</v>
+        <v>45616964.902741686</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6641,23 +6641,23 @@
       </c>
       <c r="B140" s="37">
         <f t="shared" si="8"/>
-        <v>53477</v>
+        <v>44650</v>
       </c>
       <c r="C140" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D140" s="36">
         <f t="shared" si="6"/>
-        <v>2545714945.8670874</v>
+        <v>15021071.433019167</v>
       </c>
       <c r="E140" s="36">
         <f t="shared" si="10"/>
-        <v>-2472824437.4599404</v>
+        <v>558277.7889405532</v>
       </c>
       <c r="F140" s="36">
         <f t="shared" si="11"/>
-        <v>-35425367769.788109</v>
+        <v>30595893.469722517</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -6666,23 +6666,23 @@
       </c>
       <c r="B141" s="37">
         <f t="shared" si="8"/>
-        <v>53661</v>
+        <v>44681</v>
       </c>
       <c r="C141" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D141" s="36">
         <f t="shared" si="6"/>
-        <v>2737173966.5160904</v>
+        <v>15204905.025741158</v>
       </c>
       <c r="E141" s="36">
         <f t="shared" si="10"/>
-        <v>-2664283458.1089435</v>
+        <v>374444.19621856051</v>
       </c>
       <c r="F141" s="36">
         <f t="shared" si="11"/>
-        <v>-38162541736.304199</v>
+        <v>15390988.443981359</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -6691,23 +6691,23 @@
       </c>
       <c r="B142" s="37">
         <f t="shared" si="8"/>
-        <v>53842</v>
+        <v>44711</v>
       </c>
       <c r="C142" s="36">
         <f t="shared" si="9"/>
-        <v>72890508.407146752</v>
+        <v>15579349.221959719</v>
       </c>
       <c r="D142" s="36">
         <f t="shared" si="6"/>
-        <v>2943032304.2007208</v>
+        <v>15390988.443980843</v>
       </c>
       <c r="E142" s="36">
         <f t="shared" si="10"/>
-        <v>-2870141795.7935739</v>
+        <v>188360.77797887629</v>
       </c>
       <c r="F142" s="36">
         <f t="shared" si="11"/>
-        <v>-41105574040.504921</v>
+        <v>5.159527063369751E-7</v>
       </c>
     </row>
     <row r="144" spans="1:6" s="42" customFormat="1" ht="57" customHeight="1">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="E147" s="43">
         <f ca="1">SUM(E151:INDIRECT(CONCATENATE("E",150+B10)))</f>
-        <v>211973485.98178834</v>
+        <v>288097859.33309495</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -6749,14 +6749,14 @@
       </c>
       <c r="B148" s="94">
         <f ca="1">PMT(B9,B10-B146,-INDIRECT(CONCATENATE("F",150+B146)),0,0)</f>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D148" s="78" t="s">
         <v>70</v>
       </c>
       <c r="E148" s="43">
         <f ca="1">F150+E147</f>
-        <v>670658360.51178837</v>
+        <v>955598859.33309495</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -6787,7 +6787,7 @@
       </c>
       <c r="F150" s="38">
         <f>B3</f>
-        <v>458684874.52999997</v>
+        <v>667501000</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -6796,11 +6796,11 @@
       </c>
       <c r="B151" s="37">
         <f t="shared" ref="B151:B210" si="12">EDATE($B$7,$B$6*A151)</f>
-        <v>43069</v>
+        <v>42916</v>
       </c>
       <c r="C151" s="77">
         <f>IF($B$146&gt;=A151,IF($B$15&lt;&gt;0,CEILING(E151,$B$15),E151),$B$148)</f>
-        <v>34497000</v>
+        <v>8170000</v>
       </c>
       <c r="D151" s="102">
         <f>IF($B$146&gt;=$A151,0,C151-E151)</f>
@@ -6808,11 +6808,11 @@
       </c>
       <c r="E151" s="77">
         <f>IF($B$146&gt;=A151,IF($B$15&lt;&gt;0,CEILING(F150*$B$9,B$15),F150*$B$9),F150*$B$9)</f>
-        <v>34497000</v>
+        <v>8170000</v>
       </c>
       <c r="F151" s="77">
         <f>F150-D151</f>
-        <v>458684874.52999997</v>
+        <v>667501000</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -6821,11 +6821,11 @@
       </c>
       <c r="B152" s="37">
         <f t="shared" si="12"/>
-        <v>43250</v>
+        <v>42946</v>
       </c>
       <c r="C152" s="77">
         <f t="shared" ref="C152:C210" si="13">IF($B$146&gt;=A152,IF($B$15&lt;&gt;0,CEILING(E152,$B$15),E152),$B$148)</f>
-        <v>34497000</v>
+        <v>8170000</v>
       </c>
       <c r="D152" s="102">
         <f t="shared" ref="D152:D210" si="14">IF($B$146&gt;=$A152,0,C152-E152)</f>
@@ -6833,11 +6833,11 @@
       </c>
       <c r="E152" s="77">
         <f t="shared" ref="E152:E210" si="15">IF($B$146&gt;=A152,IF($B$15&lt;&gt;0,CEILING(F151*$B$9,B$15),F151*$B$9),F151*$B$9)</f>
-        <v>34497000</v>
+        <v>8170000</v>
       </c>
       <c r="F152" s="77">
         <f t="shared" ref="F152:F162" si="16">F151-D152</f>
-        <v>458684874.52999997</v>
+        <v>667501000</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -6846,11 +6846,11 @@
       </c>
       <c r="B153" s="37">
         <f t="shared" si="12"/>
-        <v>43434</v>
+        <v>42977</v>
       </c>
       <c r="C153" s="77">
         <f t="shared" si="13"/>
-        <v>34497000</v>
+        <v>8170000</v>
       </c>
       <c r="D153" s="102">
         <f t="shared" si="14"/>
@@ -6858,11 +6858,11 @@
       </c>
       <c r="E153" s="77">
         <f t="shared" si="15"/>
-        <v>34497000</v>
+        <v>8170000</v>
       </c>
       <c r="F153" s="77">
         <f>F152-D153</f>
-        <v>458684874.52999997</v>
+        <v>667501000</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -6871,23 +6871,23 @@
       </c>
       <c r="B154" s="37">
         <f t="shared" si="12"/>
-        <v>43615</v>
+        <v>43008</v>
       </c>
       <c r="C154" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D154" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>78936539.518999338</v>
+        <v>8165760.824370835</v>
       </c>
       <c r="E154" s="77">
         <f t="shared" si="15"/>
-        <v>34496932.583358318</v>
+        <v>8169131.4446308333</v>
       </c>
       <c r="F154" s="77">
         <f ca="1">F153-D154</f>
-        <v>379748335.01100063</v>
+        <v>659335239.17562914</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -6896,23 +6896,23 @@
       </c>
       <c r="B155" s="37">
         <f t="shared" si="12"/>
-        <v>43799</v>
+        <v>43038</v>
       </c>
       <c r="C155" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D155" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>84873226.410933077</v>
+        <v>8265696.5151333995</v>
       </c>
       <c r="E155" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>28560245.691424586</v>
+        <v>8069195.7538682688</v>
       </c>
       <c r="F155" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>294875108.60006756</v>
+        <v>651069542.66049576</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -6921,23 +6921,23 @@
       </c>
       <c r="B156" s="37">
         <f t="shared" si="12"/>
-        <v>43981</v>
+        <v>43069</v>
       </c>
       <c r="C156" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D156" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>91256401.728475764</v>
+        <v>8366855.2569383578</v>
       </c>
       <c r="E156" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>22177070.373881888</v>
+        <v>7968037.0120633105</v>
       </c>
       <c r="F156" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>203618706.87159181</v>
+        <v>642702687.40355742</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -6946,23 +6946,23 @@
       </c>
       <c r="B157" s="37">
         <f t="shared" si="12"/>
-        <v>44165</v>
+        <v>43099</v>
       </c>
       <c r="C157" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D157" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>98119645.129411578</v>
+        <v>8469252.0179501474</v>
       </c>
       <c r="E157" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>15313826.972946079</v>
+        <v>7865640.2510515219</v>
       </c>
       <c r="F157" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>105499061.74218023</v>
+        <v>634233435.38560724</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -6971,23 +6971,23 @@
       </c>
       <c r="B158" s="37">
         <f t="shared" si="12"/>
-        <v>44346</v>
+        <v>43130</v>
       </c>
       <c r="C158" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D158" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>105499061.74218015</v>
+        <v>8572901.949519299</v>
       </c>
       <c r="E158" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>7934410.3601774992</v>
+        <v>7761990.3194823703</v>
       </c>
       <c r="F158" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>625660533.43608797</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -6996,23 +6996,23 @@
       </c>
       <c r="B159" s="37">
         <f t="shared" si="12"/>
-        <v>44530</v>
+        <v>43159</v>
       </c>
       <c r="C159" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D159" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>113433472.10235766</v>
+        <v>8677820.3884243406</v>
       </c>
       <c r="E159" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>7657071.8805773277</v>
       </c>
       <c r="F159" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>-113433472.10235766</v>
+        <v>616982713.04766357</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -7021,23 +7021,23 @@
       </c>
       <c r="B160" s="37">
         <f t="shared" si="12"/>
-        <v>44711</v>
+        <v>43189</v>
       </c>
       <c r="C160" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D160" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>121964616.37394701</v>
+        <v>8784022.859141143</v>
       </c>
       <c r="E160" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-8531144.27158935</v>
+        <v>7550869.4098605253</v>
       </c>
       <c r="F160" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>-235398088.47630465</v>
+        <v>608198690.18852246</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -7046,23 +7046,23 @@
       </c>
       <c r="B161" s="37">
         <f t="shared" si="12"/>
-        <v>44895</v>
+        <v>43220</v>
       </c>
       <c r="C161" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D161" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>131137373.92981455</v>
+        <v>8891525.0761400163</v>
       </c>
       <c r="E161" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-17703901.827456884</v>
+        <v>7443367.1928616511</v>
       </c>
       <c r="F161" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>-366535462.40611923</v>
+        <v>599307165.11238241</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -7071,23 +7071,23 @@
       </c>
       <c r="B162" s="37">
         <f t="shared" si="12"/>
-        <v>45076</v>
+        <v>43250</v>
       </c>
       <c r="C162" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D162" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>140999999.4464089</v>
+        <v>9000342.9462109525</v>
       </c>
       <c r="E162" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-27566527.344051253</v>
+        <v>7334549.3227907158</v>
       </c>
       <c r="F162" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>-507535461.8525281</v>
+        <v>590306822.16617143</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -7096,23 +7096,23 @@
       </c>
       <c r="B163" s="37">
         <f t="shared" si="12"/>
-        <v>45260</v>
+        <v>43281</v>
       </c>
       <c r="C163" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D163" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>151604376.75477424</v>
+        <v>9110492.570817288</v>
       </c>
       <c r="E163" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-38170904.652416579</v>
+        <v>7224399.6981843803</v>
       </c>
       <c r="F163" s="77">
         <f t="shared" ref="F163:F210" ca="1" si="17">F162-D163</f>
-        <v>-659139838.60730231</v>
+        <v>581196329.5953542</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -7121,23 +7121,23 @@
       </c>
       <c r="B164" s="37">
         <f t="shared" si="12"/>
-        <v>45442</v>
+        <v>43311</v>
       </c>
       <c r="C164" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D164" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>163006291.78327915</v>
+        <v>9221990.248478204</v>
       </c>
       <c r="E164" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-49572819.680921502</v>
+        <v>7112902.0205234652</v>
       </c>
       <c r="F164" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-822146130.39058149</v>
+        <v>571974339.34687603</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -7146,23 +7146,23 @@
       </c>
       <c r="B165" s="37">
         <f t="shared" si="12"/>
-        <v>45626</v>
+        <v>43342</v>
       </c>
       <c r="C165" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D165" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>175265726.02791813</v>
+        <v>9334852.4771803655</v>
       </c>
       <c r="E165" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-61832253.925560482</v>
+        <v>7000039.7918213028</v>
       </c>
       <c r="F165" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-997411856.41849959</v>
+        <v>562639486.86969566</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -7171,23 +7171,23 @@
       </c>
       <c r="B166" s="37">
         <f t="shared" si="12"/>
-        <v>45807</v>
+        <v>43373</v>
       </c>
       <c r="C166" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D166" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>188447172.0940299</v>
+        <v>9449095.9568190835</v>
       </c>
       <c r="E166" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-75013699.991672263</v>
+        <v>6885796.3121825848</v>
       </c>
       <c r="F166" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-1185859028.5125294</v>
+        <v>553190390.91287661</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -7196,23 +7196,23 @@
       </c>
       <c r="B167" s="37">
         <f t="shared" si="12"/>
-        <v>45991</v>
+        <v>43403</v>
       </c>
       <c r="C167" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D167" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>202619972.96938795</v>
+        <v>9564737.5916693453</v>
       </c>
       <c r="E167" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-89186500.867030278</v>
+        <v>6770154.677332323</v>
       </c>
       <c r="F167" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-1388479001.4819174</v>
+        <v>543625653.32120728</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -7221,23 +7221,23 @@
       </c>
       <c r="B168" s="37">
         <f t="shared" si="12"/>
-        <v>46172</v>
+        <v>43434</v>
       </c>
       <c r="C168" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D168" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>217858686.8134602</v>
+        <v>9681794.4928870946</v>
       </c>
       <c r="E168" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-104425214.71110255</v>
+        <v>6653097.7761145746</v>
       </c>
       <c r="F168" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-1606337688.2953775</v>
+        <v>533943858.82832021</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -7246,23 +7246,23 @@
       </c>
       <c r="B169" s="37">
         <f t="shared" si="12"/>
-        <v>46356</v>
+        <v>43464</v>
       </c>
       <c r="C169" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D169" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>234243479.1818673</v>
+        <v>9800283.9810411148</v>
       </c>
       <c r="E169" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-120810007.07950965</v>
+        <v>6534608.2879605526</v>
       </c>
       <c r="F169" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-1840581167.4772449</v>
+        <v>524143574.84727907</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -7271,23 +7271,23 @@
       </c>
       <c r="B170" s="37">
         <f t="shared" si="12"/>
-        <v>46537</v>
+        <v>43495</v>
       </c>
       <c r="C170" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D170" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>251860544.74939489</v>
+        <v>9920223.5886759125</v>
       </c>
       <c r="E170" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-138427072.64703724</v>
+        <v>6414668.6803257558</v>
       </c>
       <c r="F170" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-2092441712.2266397</v>
+        <v>514223351.25860316</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -7296,23 +7296,23 @@
       </c>
       <c r="B171" s="37">
         <f t="shared" si="12"/>
-        <v>46721</v>
+        <v>43524</v>
       </c>
       <c r="C171" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D171" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>270802560.75009805</v>
+        <v>10041631.062905945</v>
       </c>
       <c r="E171" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-157369088.64774039</v>
+        <v>6293261.2060957225</v>
       </c>
       <c r="F171" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-2363244272.976738</v>
+        <v>504181720.19569719</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -7321,23 +7321,23 @@
       </c>
       <c r="B172" s="37">
         <f t="shared" si="12"/>
-        <v>46903</v>
+        <v>43554</v>
       </c>
       <c r="C172" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D172" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>291169174.51988769</v>
+        <v>10164524.36804162</v>
       </c>
       <c r="E172" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-177735702.41753003</v>
+        <v>6170367.9009600496</v>
       </c>
       <c r="F172" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-2654413447.4966259</v>
+        <v>494017195.82765555</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -7346,23 +7346,23 @@
       </c>
       <c r="B173" s="37">
         <f t="shared" si="12"/>
-        <v>47087</v>
+        <v>43585</v>
       </c>
       <c r="C173" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D173" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>313067527.7063905</v>
+        <v>10288921.688247409</v>
       </c>
       <c r="E173" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-199634055.60403284</v>
+        <v>6045970.5807542596</v>
       </c>
       <c r="F173" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-2967480975.2030163</v>
+        <v>483728274.13940817</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -7371,23 +7371,23 @@
       </c>
       <c r="B174" s="37">
         <f t="shared" si="12"/>
-        <v>47268</v>
+        <v>43615</v>
       </c>
       <c r="C174" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D174" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>336612819.90376741</v>
+        <v>10414841.430232523</v>
       </c>
       <c r="E174" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-223179347.80140975</v>
+        <v>5920050.8387691453</v>
       </c>
       <c r="F174" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-3304093795.1067839</v>
+        <v>473313432.70917565</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -7396,23 +7396,23 @@
       </c>
       <c r="B175" s="37">
         <f t="shared" si="12"/>
-        <v>47452</v>
+        <v>43646</v>
       </c>
       <c r="C175" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D175" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>361928914.6775769</v>
+        <v>10542302.225974487</v>
       </c>
       <c r="E175" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-248495442.57521927</v>
+        <v>5792590.0430271812</v>
       </c>
       <c r="F175" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-3666022709.7843609</v>
+        <v>462771130.48320115</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -7421,23 +7421,23 @@
       </c>
       <c r="B176" s="37">
         <f t="shared" si="12"/>
-        <v>47633</v>
+        <v>43676</v>
       </c>
       <c r="C176" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D176" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>389148991.16776824</v>
+        <v>10671322.935476061</v>
       </c>
       <c r="E176" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-275715519.06541061</v>
+        <v>5663569.3335256074</v>
       </c>
       <c r="F176" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-4055171700.9521294</v>
+        <v>452099807.54772508</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -7446,23 +7446,23 @@
       </c>
       <c r="B177" s="37">
         <f t="shared" si="12"/>
-        <v>47817</v>
+        <v>43707</v>
       </c>
       <c r="C177" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D177" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>418416244.69766068</v>
+        <v>10801922.649555901</v>
       </c>
       <c r="E177" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-304982772.59530306</v>
+        <v>5532969.6194457673</v>
       </c>
       <c r="F177" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-4473587945.6497898</v>
+        <v>441297884.89816916</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -7471,23 +7471,23 @@
       </c>
       <c r="B178" s="37">
         <f t="shared" si="12"/>
-        <v>47998</v>
+        <v>43738</v>
       </c>
       <c r="C178" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D178" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>449884640.07456803</v>
+        <v>10934120.692673376</v>
       </c>
       <c r="E178" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-336451167.97221035</v>
+        <v>5400771.5763282925</v>
       </c>
       <c r="F178" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-4923472585.7243576</v>
+        <v>430363764.20549577</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -7496,23 +7496,23 @@
       </c>
       <c r="B179" s="37">
         <f t="shared" si="12"/>
-        <v>48182</v>
+        <v>43768</v>
       </c>
       <c r="C179" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D179" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>483719721.54492009</v>
+        <v>11067936.625787944</v>
       </c>
       <c r="E179" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-370286249.44256246</v>
+        <v>5266955.6432137256</v>
       </c>
       <c r="F179" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-5407192307.2692776</v>
+        <v>419295827.57970786</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -7521,23 +7521,23 @@
       </c>
       <c r="B180" s="37">
         <f t="shared" si="12"/>
-        <v>48364</v>
+        <v>43799</v>
       </c>
       <c r="C180" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D180" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>520099483.66477299</v>
+        <v>11203390.249253534</v>
       </c>
       <c r="E180" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-406666011.56241536</v>
+        <v>5131502.0197481345</v>
       </c>
       <c r="F180" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-5927291790.9340506</v>
+        <v>408092437.33045435</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -7546,23 +7546,23 @@
       </c>
       <c r="B181" s="37">
         <f t="shared" si="12"/>
-        <v>48548</v>
+        <v>43829</v>
       </c>
       <c r="C181" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D181" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>559215307.66705251</v>
+        <v>11340501.605748352</v>
       </c>
       <c r="E181" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-445781835.56469488</v>
+        <v>4994390.6632533167</v>
       </c>
       <c r="F181" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-6486507098.6011028</v>
+        <v>396751935.72470599</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -7571,23 +7571,23 @@
       </c>
       <c r="B182" s="37">
         <f t="shared" si="12"/>
-        <v>48729</v>
+        <v>43860</v>
       </c>
       <c r="C182" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D182" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>601272968.25143385</v>
+        <v>11479290.983240528</v>
       </c>
       <c r="E182" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-487839496.14907622</v>
+        <v>4855601.2857611403</v>
       </c>
       <c r="F182" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-7087780066.8525372</v>
+        <v>385272644.74146545</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -7596,23 +7596,23 @@
       </c>
       <c r="B183" s="37">
         <f t="shared" si="12"/>
-        <v>48913</v>
+        <v>43890</v>
       </c>
       <c r="C183" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D183" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>646493716.09322667</v>
+        <v>11619778.917990075</v>
       </c>
       <c r="E183" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-533060243.99086899</v>
+        <v>4715113.3510115929</v>
       </c>
       <c r="F183" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-7734273782.9457636</v>
+        <v>373652865.82347536</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -7621,23 +7621,23 @@
       </c>
       <c r="B184" s="37">
         <f t="shared" si="12"/>
-        <v>49094</v>
+        <v>43920</v>
       </c>
       <c r="C184" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D184" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>695115441.76596653</v>
+        <v>11761986.197587576</v>
       </c>
       <c r="E184" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-581681969.66360891</v>
+        <v>4572906.0714140926</v>
       </c>
       <c r="F184" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-8429389224.71173</v>
+        <v>361890879.62588781</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -7646,23 +7646,23 @@
       </c>
       <c r="B185" s="37">
         <f t="shared" si="12"/>
-        <v>49278</v>
+        <v>43951</v>
       </c>
       <c r="C185" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D185" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>747393927.20070601</v>
+        <v>11905933.864030063</v>
       </c>
       <c r="E185" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-633960455.09834838</v>
+        <v>4428958.4049716061</v>
       </c>
       <c r="F185" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-9176783151.9124355</v>
+        <v>349984945.76185775</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -7671,23 +7671,23 @@
       </c>
       <c r="B186" s="37">
         <f t="shared" si="12"/>
-        <v>49459</v>
+        <v>43981</v>
       </c>
       <c r="C186" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D186" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>803604191.26549113</v>
+        <v>12051643.216834541</v>
       </c>
       <c r="E186" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-690170719.1631335</v>
+        <v>4283249.052167126</v>
       </c>
       <c r="F186" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-9980387343.177927</v>
+        <v>337933302.5450232</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -7696,23 +7696,23 @@
       </c>
       <c r="B187" s="37">
         <f t="shared" si="12"/>
-        <v>49643</v>
+        <v>44012</v>
       </c>
       <c r="C187" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D187" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>864041936.54365325</v>
+        <v>12199135.816189623</v>
       </c>
       <c r="E187" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-750608464.44129562</v>
+        <v>4135756.4528120463</v>
       </c>
       <c r="F187" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-10844429279.721581</v>
+        <v>325734166.72883356</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -7721,23 +7721,23 @@
       </c>
       <c r="B188" s="37">
         <f t="shared" si="12"/>
-        <v>49825</v>
+        <v>44042</v>
       </c>
       <c r="C188" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D188" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>929025104.92190611</v>
+        <v>12348433.486145707</v>
       </c>
       <c r="E188" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-815591632.81954849</v>
+        <v>3986458.782855961</v>
       </c>
       <c r="F188" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-11773454384.643486</v>
+        <v>313385733.24268782</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -7746,23 +7746,23 @@
       </c>
       <c r="B189" s="37">
         <f t="shared" si="12"/>
-        <v>50009</v>
+        <v>44073</v>
       </c>
       <c r="C189" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D189" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>998895550.17165947</v>
+        <v>12499558.317844246</v>
       </c>
       <c r="E189" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-885462078.06930184</v>
+        <v>3835333.9511574232</v>
       </c>
       <c r="F189" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-12772349934.815145</v>
+        <v>300886174.92484355</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -7771,23 +7771,23 @@
       </c>
       <c r="B190" s="37">
         <f t="shared" si="12"/>
-        <v>50190</v>
+        <v>44104</v>
       </c>
       <c r="C190" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D190" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>1074020836.3224123</v>
+        <v>12652532.672786482</v>
       </c>
       <c r="E190" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-960587364.22005451</v>
+        <v>3682359.5962151857</v>
       </c>
       <c r="F190" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-13846370771.137558</v>
+        <v>288233642.25205708</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -7796,23 +7796,23 @@
       </c>
       <c r="B191" s="37">
         <f t="shared" si="12"/>
-        <v>50374</v>
+        <v>44134</v>
       </c>
       <c r="C191" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D191" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>1154796171.2878408</v>
+        <v>12807379.186142236</v>
       </c>
       <c r="E191" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-1041362699.1854832</v>
+        <v>3527513.0828594319</v>
       </c>
       <c r="F191" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-15001166942.4254</v>
+        <v>275426263.06591487</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -7821,23 +7821,23 @@
       </c>
       <c r="B192" s="37">
         <f t="shared" si="12"/>
-        <v>50555</v>
+        <v>44165</v>
       </c>
       <c r="C192" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D192" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>1241646485.9167168</v>
+        <v>12964120.770099152</v>
       </c>
       <c r="E192" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-1128213013.8143592</v>
+        <v>3370771.4989025169</v>
       </c>
       <c r="F192" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-16242813428.342117</v>
+        <v>262462142.29581571</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -7846,23 +7846,23 @@
       </c>
       <c r="B193" s="37">
         <f t="shared" si="12"/>
-        <v>50739</v>
+        <v>44195</v>
       </c>
       <c r="C193" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D193" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>1335028669.4058113</v>
+        <v>13122780.617252951</v>
       </c>
       <c r="E193" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-1221595197.3034537</v>
+        <v>3212111.6517487168</v>
       </c>
       <c r="F193" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-17577842097.747929</v>
+        <v>249339361.67856276</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -7871,23 +7871,23 @@
       </c>
       <c r="B194" s="37">
         <f t="shared" si="12"/>
-        <v>50920</v>
+        <v>44226</v>
       </c>
       <c r="C194" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D194" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>1435433972.834518</v>
+        <v>13283382.204039179</v>
       </c>
       <c r="E194" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-1322000500.7321603</v>
+        <v>3051510.06496249</v>
       </c>
       <c r="F194" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-19013276070.582447</v>
+        <v>236055979.47452357</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -7896,23 +7896,23 @@
       </c>
       <c r="B195" s="37">
         <f t="shared" si="12"/>
-        <v>51104</v>
+        <v>44255</v>
       </c>
       <c r="C195" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D195" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>1543390593.4653468</v>
+        <v>13445949.294206932</v>
       </c>
       <c r="E195" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-1429957121.3629892</v>
+        <v>2888942.9747947361</v>
       </c>
       <c r="F195" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-20556666664.047794</v>
+        <v>222610030.18031663</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -7921,23 +7921,23 @@
       </c>
       <c r="B196" s="37">
         <f t="shared" si="12"/>
-        <v>51286</v>
+        <v>44285</v>
       </c>
       <c r="C196" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D196" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>1659466453.4053965</v>
+        <v>13610505.942335127</v>
       </c>
       <c r="E196" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-1546032981.3030388</v>
+        <v>2724386.3266665419</v>
       </c>
       <c r="F196" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-22216133117.45319</v>
+        <v>208999524.2379815</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -7946,23 +7946,23 @@
       </c>
       <c r="B197" s="37">
         <f t="shared" si="12"/>
-        <v>51470</v>
+        <v>44316</v>
       </c>
       <c r="C197" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D197" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>1784272187.2463682</v>
+        <v>13777076.49739177</v>
       </c>
       <c r="E197" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-1670838715.1440105</v>
+        <v>2557815.7716098982</v>
       </c>
       <c r="F197" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-24000405304.699558</v>
+        <v>195222447.74058974</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -7971,23 +7971,23 @@
       </c>
       <c r="B198" s="37">
         <f t="shared" si="12"/>
-        <v>51651</v>
+        <v>44346</v>
       </c>
       <c r="C198" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D198" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>1918464354.4000585</v>
+        <v>13945685.606336817</v>
       </c>
       <c r="E198" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-1805030882.2977009</v>
+        <v>2389206.6626648516</v>
       </c>
       <c r="F198" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-25918869659.099617</v>
+        <v>181276762.13425291</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -7996,23 +7996,23 @@
       </c>
       <c r="B199" s="37">
         <f t="shared" si="12"/>
-        <v>51835</v>
+        <v>44377</v>
       </c>
       <c r="C199" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D199" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>2062748893.0283022</v>
+        <v>14116358.217769101</v>
       </c>
       <c r="E199" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-1949315420.9259446</v>
+        <v>2218534.0512325666</v>
       </c>
       <c r="F199" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-27981618552.127918</v>
+        <v>167160403.91648382</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -8021,23 +8021,23 @@
       </c>
       <c r="B200" s="37">
         <f t="shared" si="12"/>
-        <v>52016</v>
+        <v>44407</v>
       </c>
       <c r="C200" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D200" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>2217884833.737287</v>
+        <v>14289119.585617915</v>
       </c>
       <c r="E200" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-2104451361.6349294</v>
+        <v>2045772.6833837538</v>
       </c>
       <c r="F200" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-30199503385.865204</v>
+        <v>152871284.33086592</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -8046,23 +8046,23 @@
       </c>
       <c r="B201" s="37">
         <f t="shared" si="12"/>
-        <v>52200</v>
+        <v>44438</v>
       </c>
       <c r="C201" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D201" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>2384688292.5726929</v>
+        <v>14463995.27287975</v>
       </c>
       <c r="E201" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-2271254820.470335</v>
+        <v>1870896.9961219197</v>
       </c>
       <c r="F201" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-32584191678.437897</v>
+        <v>138407289.05798617</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -8071,23 +8071,23 @@
       </c>
       <c r="B202" s="37">
         <f t="shared" si="12"/>
-        <v>52381</v>
+        <v>44469</v>
       </c>
       <c r="C202" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D202" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>2564036764.3214025</v>
+        <v>14641011.155400785</v>
       </c>
       <c r="E202" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-2450603292.2190447</v>
+        <v>1693881.1136008843</v>
       </c>
       <c r="F202" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-35148228442.7593</v>
+        <v>123766277.90258539</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -8096,23 +8096,23 @@
       </c>
       <c r="B203" s="37">
         <f t="shared" si="12"/>
-        <v>52565</v>
+        <v>44499</v>
       </c>
       <c r="C203" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D203" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>2756873738.7053542</v>
+        <v>14820193.42570566</v>
       </c>
       <c r="E203" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-2643440266.6029963</v>
+        <v>1514698.8432960077</v>
       </c>
       <c r="F203" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-37905102181.464653</v>
+        <v>108946084.47687973</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -8121,23 +8121,23 @@
       </c>
       <c r="B204" s="37">
         <f t="shared" si="12"/>
-        <v>52747</v>
+        <v>44530</v>
       </c>
       <c r="C204" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D204" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>2964213663.7517147</v>
+        <v>15001568.596873108</v>
       </c>
       <c r="E204" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-2850780191.6493568</v>
+        <v>1333323.6721285591</v>
       </c>
       <c r="F204" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-40869315845.21637</v>
+        <v>93944515.880006626</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -8146,23 +8146,23 @@
       </c>
       <c r="B205" s="37">
         <f t="shared" si="12"/>
-        <v>52931</v>
+        <v>44560</v>
       </c>
       <c r="C205" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D205" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>3187147282.4499359</v>
+        <v>15185163.506459016</v>
       </c>
       <c r="E205" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-3073713810.347578</v>
+        <v>1149728.762542652</v>
       </c>
       <c r="F205" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-44056463127.666306</v>
+        <v>78759352.373547614</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -8171,23 +8171,23 @@
       </c>
       <c r="B206" s="37">
         <f t="shared" si="12"/>
-        <v>53112</v>
+        <v>44591</v>
       </c>
       <c r="C206" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D206" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>3426847370.76998</v>
+        <v>15371005.320467496</v>
       </c>
       <c r="E206" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-3313413898.6676221</v>
+        <v>963886.94853417121</v>
       </c>
       <c r="F206" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-47483310498.436287</v>
+        <v>63388347.053080119</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -8196,23 +8196,23 @@
       </c>
       <c r="B207" s="37">
         <f t="shared" si="12"/>
-        <v>53296</v>
+        <v>44620</v>
       </c>
       <c r="C207" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D207" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>3684574907.2274284</v>
+        <v>15559121.537370572</v>
       </c>
       <c r="E207" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-3571141435.1250706</v>
+        <v>775770.73163109715</v>
       </c>
       <c r="F207" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>-51167885405.663712</v>
+        <v>47829225.515709549</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -8221,23 +8221,23 @@
       </c>
       <c r="B208" s="37">
         <f t="shared" si="12"/>
-        <v>53477</v>
+        <v>44650</v>
       </c>
       <c r="C208" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D208" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>3961685706.451406</v>
+        <v>15749539.992177032</v>
       </c>
       <c r="E208" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-3848252234.3490481</v>
+        <v>585352.27682463732</v>
       </c>
       <c r="F208" s="36">
         <f t="shared" ca="1" si="17"/>
-        <v>-55129571112.11512</v>
+        <v>32079685.523532517</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -8246,23 +8246,23 @@
       </c>
       <c r="B209" s="37">
         <f t="shared" si="12"/>
-        <v>53661</v>
+        <v>44681</v>
       </c>
       <c r="C209" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D209" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>4259637551.6522007</v>
+        <v>15942288.860551108</v>
       </c>
       <c r="E209" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-4146204079.5498428</v>
+        <v>392603.40845056117</v>
       </c>
       <c r="F209" s="36">
         <f t="shared" ca="1" si="17"/>
-        <v>-59389208663.767319</v>
+        <v>16137396.66298141</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -8271,23 +8271,23 @@
       </c>
       <c r="B210" s="37">
         <f t="shared" si="12"/>
-        <v>53842</v>
+        <v>44711</v>
       </c>
       <c r="C210" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>113433472.10235766</v>
+        <v>16334892.269001668</v>
       </c>
       <c r="D210" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>4579997863.5100021</v>
+        <v>16137396.66298154</v>
       </c>
       <c r="E210" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>-4466564391.4076443</v>
+        <v>197495.60602012897</v>
       </c>
       <c r="F210" s="36">
         <f t="shared" ca="1" si="17"/>
-        <v>-63969206527.277321</v>
+        <v>-1.3038516044616699E-7</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -8310,7 +8310,7 @@
       </c>
       <c r="E213" s="43">
         <f ca="1">SUM(E217:INDIRECT(CONCATENATE("E",216+B10)))</f>
-        <v>246315122.70204467</v>
+        <v>298192995.99152446</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -8319,14 +8319,14 @@
       </c>
       <c r="B214" s="93">
         <f ca="1">PMT(B9,B10-B212,-INDIRECT(CONCATENATE("F",216+B212)),0,0)</f>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D214" s="78" t="s">
         <v>70</v>
       </c>
       <c r="E214" s="43">
         <f ca="1">F216+E213</f>
-        <v>704999997.2320447</v>
+        <v>965693995.99152446</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -8357,7 +8357,7 @@
       </c>
       <c r="F216" s="38">
         <f>$B$3</f>
-        <v>458684874.52999997</v>
+        <v>667501000</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -8366,7 +8366,7 @@
       </c>
       <c r="B217" s="37">
         <f t="shared" ref="B217:B276" si="18">EDATE($B$7,$B$6*A217)</f>
-        <v>43069</v>
+        <v>42916</v>
       </c>
       <c r="C217" s="36">
         <f>IF($B$212&gt;=$A217,0,$B$214)</f>
@@ -8374,15 +8374,15 @@
       </c>
       <c r="D217" s="36">
         <f t="shared" ref="D217:D276" si="19">C217-E217</f>
-        <v>-34496932.583358318</v>
+        <v>-8169131.4446308333</v>
       </c>
       <c r="E217" s="36">
         <f t="shared" ref="E217:E276" si="20">F216*$B$9</f>
-        <v>34496932.583358318</v>
+        <v>8169131.4446308333</v>
       </c>
       <c r="F217" s="36">
         <f t="shared" ref="F217:F228" si="21">F216-D217</f>
-        <v>493181807.11335826</v>
+        <v>675670131.44463086</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="B218" s="37">
         <f t="shared" si="18"/>
-        <v>43250</v>
+        <v>42946</v>
       </c>
       <c r="C218" s="36">
         <f t="shared" ref="C218:C276" si="22">IF($B$212&gt;=$A218,0,$B$214)</f>
@@ -8399,15 +8399,15 @@
       </c>
       <c r="D218" s="36">
         <f t="shared" si="19"/>
-        <v>-37091389.963013932</v>
+        <v>-8269108.3863277845</v>
       </c>
       <c r="E218" s="36">
         <f t="shared" si="20"/>
-        <v>37091389.963013932</v>
+        <v>8269108.3863277845</v>
       </c>
       <c r="F218" s="36">
         <f t="shared" si="21"/>
-        <v>530273197.07637221</v>
+        <v>683939239.8309586</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -8416,7 +8416,7 @@
       </c>
       <c r="B219" s="37">
         <f t="shared" si="18"/>
-        <v>43434</v>
+        <v>42977</v>
       </c>
       <c r="C219" s="36">
         <f t="shared" si="22"/>
@@ -8424,15 +8424,15 @@
       </c>
       <c r="D219" s="36">
         <f t="shared" si="19"/>
-        <v>-39880972.201338775</v>
+        <v>-8370308.8839117736</v>
       </c>
       <c r="E219" s="36">
         <f t="shared" si="20"/>
-        <v>39880972.201338775</v>
+        <v>8370308.8839117736</v>
       </c>
       <c r="F219" s="36">
         <f t="shared" si="21"/>
-        <v>570154169.27771103</v>
+        <v>692309548.71487033</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -8441,23 +8441,23 @@
       </c>
       <c r="B220" s="37">
         <f t="shared" si="18"/>
-        <v>43615</v>
+        <v>43008</v>
       </c>
       <c r="C220" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D220" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>98119645.129411593</v>
+        <v>8469252.0179501437</v>
       </c>
       <c r="E220" s="36">
         <f t="shared" si="20"/>
-        <v>42880354.316997334</v>
+        <v>8472747.9117257185</v>
       </c>
       <c r="F220" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>472034524.14829946</v>
+        <v>683840296.69692016</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -8466,23 +8466,23 @@
       </c>
       <c r="B221" s="37">
         <f t="shared" si="18"/>
-        <v>43799</v>
+        <v>43038</v>
       </c>
       <c r="C221" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D221" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>105499061.74218017</v>
+        <v>8572901.9495192952</v>
       </c>
       <c r="E221" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>35500937.704228751</v>
+        <v>8369097.9801565669</v>
       </c>
       <c r="F221" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>366535462.40611929</v>
+        <v>675267394.74740088</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -8491,23 +8491,23 @@
       </c>
       <c r="B222" s="37">
         <f t="shared" si="18"/>
-        <v>43981</v>
+        <v>43069</v>
       </c>
       <c r="C222" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D222" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>113433472.10235767</v>
+        <v>8677820.3884243369</v>
       </c>
       <c r="E222" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>27566527.344051261</v>
+        <v>8264179.5412515244</v>
       </c>
       <c r="F222" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>253101990.3037616</v>
+        <v>666589574.3589766</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -8516,23 +8516,23 @@
       </c>
       <c r="B223" s="37">
         <f t="shared" si="18"/>
-        <v>44165</v>
+        <v>43099</v>
       </c>
       <c r="C223" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D223" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>121964616.37394702</v>
+        <v>8784022.8591411375</v>
       </c>
       <c r="E223" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>19035383.072461907</v>
+        <v>8157977.0705347238</v>
       </c>
       <c r="F223" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>131137373.92981458</v>
+        <v>657805551.49983549</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -8541,23 +8541,23 @@
       </c>
       <c r="B224" s="37">
         <f t="shared" si="18"/>
-        <v>44346</v>
+        <v>43130</v>
       </c>
       <c r="C224" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D224" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>131137373.92981456</v>
+        <v>8891525.0761400126</v>
       </c>
       <c r="E224" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>9862625.516594369</v>
+        <v>8050474.8535358496</v>
       </c>
       <c r="F224" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>648914026.42369545</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -8566,23 +8566,23 @@
       </c>
       <c r="B225" s="37">
         <f t="shared" si="18"/>
-        <v>44530</v>
+        <v>43159</v>
       </c>
       <c r="C225" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D225" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>140999999.44640893</v>
+        <v>9000342.9462109469</v>
       </c>
       <c r="E225" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>7941656.9834649144</v>
       </c>
       <c r="F225" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>-140999999.44640893</v>
+        <v>639913683.47748446</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -8591,23 +8591,23 @@
       </c>
       <c r="B226" s="37">
         <f t="shared" si="18"/>
-        <v>44711</v>
+        <v>43189</v>
       </c>
       <c r="C226" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D226" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>151604376.75477424</v>
+        <v>9110492.5708172843</v>
       </c>
       <c r="E226" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-10604377.308365328</v>
+        <v>7831507.3588585788</v>
       </c>
       <c r="F226" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>-292604376.2011832</v>
+        <v>630803190.90666723</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -8616,23 +8616,23 @@
       </c>
       <c r="B227" s="37">
         <f t="shared" si="18"/>
-        <v>44895</v>
+        <v>43220</v>
       </c>
       <c r="C227" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D227" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>163006291.78327918</v>
+        <v>9221990.2484781984</v>
       </c>
       <c r="E227" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-22006292.336870253</v>
+        <v>7720009.6811976638</v>
       </c>
       <c r="F227" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>-455610667.98446238</v>
+        <v>621581200.65818906</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -8641,23 +8641,23 @@
       </c>
       <c r="B228" s="37">
         <f t="shared" si="18"/>
-        <v>45076</v>
+        <v>43250</v>
       </c>
       <c r="C228" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D228" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>175265726.02791816</v>
+        <v>9334852.4771803617</v>
       </c>
       <c r="E228" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-34265726.58150924</v>
+        <v>7607147.4524955014</v>
       </c>
       <c r="F228" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>-630876394.0123806</v>
+        <v>612246348.1810087</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -8666,23 +8666,23 @@
       </c>
       <c r="B229" s="37">
         <f t="shared" si="18"/>
-        <v>45260</v>
+        <v>43281</v>
       </c>
       <c r="C229" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D229" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>188447172.09402996</v>
+        <v>9449095.9568190798</v>
       </c>
       <c r="E229" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-47447172.647621021</v>
+        <v>7492903.9728567833</v>
       </c>
       <c r="F229" s="36">
         <f t="shared" ref="F229:F276" ca="1" si="23">F228-D229</f>
-        <v>-819323566.1064105</v>
+        <v>602797252.22418964</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -8691,23 +8691,23 @@
       </c>
       <c r="B230" s="37">
         <f t="shared" si="18"/>
-        <v>45442</v>
+        <v>43311</v>
       </c>
       <c r="C230" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D230" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>202619972.96938798</v>
+        <v>9564737.5916693397</v>
       </c>
       <c r="E230" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-61619973.522979051</v>
+        <v>7377262.3380065216</v>
       </c>
       <c r="F230" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-1021943539.0757985</v>
+        <v>593232514.63252032</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -8716,23 +8716,23 @@
       </c>
       <c r="B231" s="37">
         <f t="shared" si="18"/>
-        <v>45626</v>
+        <v>43342</v>
       </c>
       <c r="C231" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D231" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>217858686.81346023</v>
+        <v>9681794.4928870909</v>
       </c>
       <c r="E231" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-76858687.367051318</v>
+        <v>7260205.4367887722</v>
       </c>
       <c r="F231" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-1239802225.8892589</v>
+        <v>583550720.13963318</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -8741,23 +8741,23 @@
       </c>
       <c r="B232" s="37">
         <f t="shared" si="18"/>
-        <v>45807</v>
+        <v>43373</v>
       </c>
       <c r="C232" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D232" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>234243479.18186736</v>
+        <v>9800283.9810411111</v>
       </c>
       <c r="E232" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-93243479.735458434</v>
+        <v>7141715.9486347502</v>
       </c>
       <c r="F232" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-1474045705.0711262</v>
+        <v>573750436.1585921</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -8766,23 +8766,23 @@
       </c>
       <c r="B233" s="37">
         <f t="shared" si="18"/>
-        <v>45991</v>
+        <v>43403</v>
       </c>
       <c r="C233" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D233" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>251860544.74939495</v>
+        <v>9920223.5886759087</v>
       </c>
       <c r="E233" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-110860545.30298603</v>
+        <v>7021776.3409999534</v>
       </c>
       <c r="F233" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-1725906249.8205211</v>
+        <v>563830212.56991625</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -8791,23 +8791,23 @@
       </c>
       <c r="B234" s="37">
         <f t="shared" si="18"/>
-        <v>46172</v>
+        <v>43434</v>
       </c>
       <c r="C234" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D234" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>270802560.75009811</v>
+        <v>10041631.062905941</v>
       </c>
       <c r="E234" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-129802561.30368918</v>
+        <v>6900368.866769922</v>
       </c>
       <c r="F234" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-1996708810.5706191</v>
+        <v>553788581.50701034</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -8816,23 +8816,23 @@
       </c>
       <c r="B235" s="37">
         <f t="shared" si="18"/>
-        <v>46356</v>
+        <v>43464</v>
       </c>
       <c r="C235" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D235" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>291169174.51988775</v>
+        <v>10164524.368041612</v>
       </c>
       <c r="E235" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-150169175.07347882</v>
+        <v>6777475.56163425</v>
       </c>
       <c r="F235" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-2287877985.090507</v>
+        <v>543624057.13896871</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -8841,23 +8841,23 @@
       </c>
       <c r="B236" s="37">
         <f t="shared" si="18"/>
-        <v>46537</v>
+        <v>43495</v>
       </c>
       <c r="C236" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D236" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>313067527.70639056</v>
+        <v>10288921.688247403</v>
       </c>
       <c r="E236" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-172067528.25998163</v>
+        <v>6653078.2414284591</v>
       </c>
       <c r="F236" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-2600945512.7968974</v>
+        <v>533335135.45072132</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -8866,23 +8866,23 @@
       </c>
       <c r="B237" s="37">
         <f t="shared" si="18"/>
-        <v>46721</v>
+        <v>43524</v>
       </c>
       <c r="C237" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D237" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>336612819.90376747</v>
+        <v>10414841.430232517</v>
       </c>
       <c r="E237" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-195612820.45735851</v>
+        <v>6527158.4994433448</v>
       </c>
       <c r="F237" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-2937558332.700665</v>
+        <v>522920294.0204888</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -8891,23 +8891,23 @@
       </c>
       <c r="B238" s="37">
         <f t="shared" si="18"/>
-        <v>46903</v>
+        <v>43554</v>
       </c>
       <c r="C238" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D238" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>361928914.67757696</v>
+        <v>10542302.225974482</v>
       </c>
       <c r="E238" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-220928915.23116803</v>
+        <v>6399697.7037013816</v>
       </c>
       <c r="F238" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-3299487247.378242</v>
+        <v>512377991.7945143</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -8916,23 +8916,23 @@
       </c>
       <c r="B239" s="37">
         <f t="shared" si="18"/>
-        <v>47087</v>
+        <v>43585</v>
       </c>
       <c r="C239" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D239" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>389148991.1677683</v>
+        <v>10671322.935476054</v>
       </c>
       <c r="E239" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-248148991.72135937</v>
+        <v>6270676.9941998078</v>
       </c>
       <c r="F239" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-3688636238.5460105</v>
+        <v>501706668.85903823</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -8941,23 +8941,23 @@
       </c>
       <c r="B240" s="37">
         <f t="shared" si="18"/>
-        <v>47268</v>
+        <v>43615</v>
       </c>
       <c r="C240" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D240" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>418416244.69766074</v>
+        <v>10801922.649555895</v>
       </c>
       <c r="E240" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-277416245.25125182</v>
+        <v>6140077.2801199667</v>
       </c>
       <c r="F240" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-4107052483.2436714</v>
+        <v>490904746.20948231</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -8966,23 +8966,23 @@
       </c>
       <c r="B241" s="37">
         <f t="shared" si="18"/>
-        <v>47452</v>
+        <v>43646</v>
       </c>
       <c r="C241" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D241" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>449884640.07456809</v>
+        <v>10934120.69267337</v>
       </c>
       <c r="E241" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-308884640.62815917</v>
+        <v>6007879.2370024929</v>
       </c>
       <c r="F241" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-4556937123.3182392</v>
+        <v>479970625.51680893</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -8991,23 +8991,23 @@
       </c>
       <c r="B242" s="37">
         <f t="shared" si="18"/>
-        <v>47633</v>
+        <v>43676</v>
       </c>
       <c r="C242" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D242" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>483719721.54492021</v>
+        <v>11067936.625787936</v>
       </c>
       <c r="E242" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-342719722.09851128</v>
+        <v>5874063.3038879251</v>
       </c>
       <c r="F242" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-5040656844.8631592</v>
+        <v>468902688.89102101</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -9016,23 +9016,23 @@
       </c>
       <c r="B243" s="37">
         <f t="shared" si="18"/>
-        <v>47817</v>
+        <v>43707</v>
       </c>
       <c r="C243" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D243" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>520099483.66477305</v>
+        <v>11203390.249253528</v>
       </c>
       <c r="E243" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-379099484.21836412</v>
+        <v>5738609.680422334</v>
       </c>
       <c r="F243" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-5560756328.5279322</v>
+        <v>457699298.6417675</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -9041,23 +9041,23 @@
       </c>
       <c r="B244" s="37">
         <f t="shared" si="18"/>
-        <v>47998</v>
+        <v>43738</v>
       </c>
       <c r="C244" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D244" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>559215307.66705263</v>
+        <v>11340501.605748344</v>
       </c>
       <c r="E244" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-418215308.2206437</v>
+        <v>5601498.323927517</v>
       </c>
       <c r="F244" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-6119971636.1949844</v>
+        <v>446358797.03601915</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -9066,23 +9066,23 @@
       </c>
       <c r="B245" s="37">
         <f t="shared" si="18"/>
-        <v>48182</v>
+        <v>43768</v>
       </c>
       <c r="C245" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D245" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>601272968.25143397</v>
+        <v>11479290.983240522</v>
       </c>
       <c r="E245" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-460272968.80502504</v>
+        <v>5462708.9464353397</v>
       </c>
       <c r="F245" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-6721244604.4464188</v>
+        <v>434879506.0527786</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -9091,23 +9091,23 @@
       </c>
       <c r="B246" s="37">
         <f t="shared" si="18"/>
-        <v>48364</v>
+        <v>43799</v>
       </c>
       <c r="C246" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D246" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>646493716.09322667</v>
+        <v>11619778.91799007</v>
       </c>
       <c r="E246" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-505493716.64681774</v>
+        <v>5322221.0116857924</v>
       </c>
       <c r="F246" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-7367738320.5396452</v>
+        <v>423259727.13478851</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -9116,23 +9116,23 @@
       </c>
       <c r="B247" s="37">
         <f t="shared" si="18"/>
-        <v>48548</v>
+        <v>43829</v>
       </c>
       <c r="C247" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D247" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>695115441.76596665</v>
+        <v>11761986.19758757</v>
       </c>
       <c r="E247" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-554115442.31955779</v>
+        <v>5180013.732088292</v>
       </c>
       <c r="F247" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-8062853762.3056116</v>
+        <v>411497740.93720096</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -9141,23 +9141,23 @@
       </c>
       <c r="B248" s="37">
         <f t="shared" si="18"/>
-        <v>48729</v>
+        <v>43860</v>
       </c>
       <c r="C248" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D248" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>747393927.20070601</v>
+        <v>11905933.864030056</v>
       </c>
       <c r="E248" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-606393927.75429714</v>
+        <v>5036066.0656458056</v>
       </c>
       <c r="F248" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-8810247689.5063171</v>
+        <v>399591807.0731709</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -9166,23 +9166,23 @@
       </c>
       <c r="B249" s="37">
         <f t="shared" si="18"/>
-        <v>48913</v>
+        <v>43890</v>
       </c>
       <c r="C249" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D249" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>803604191.26549125</v>
+        <v>12051643.216834538</v>
       </c>
       <c r="E249" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-662604191.81908238</v>
+        <v>4890356.7128413254</v>
       </c>
       <c r="F249" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-9613851880.7718086</v>
+        <v>387540163.85633636</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -9191,23 +9191,23 @@
       </c>
       <c r="B250" s="37">
         <f t="shared" si="18"/>
-        <v>49094</v>
+        <v>43920</v>
       </c>
       <c r="C250" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D250" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>864041936.54365325</v>
+        <v>12199135.816189617</v>
       </c>
       <c r="E250" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-723041937.09724438</v>
+        <v>4742864.1134862462</v>
       </c>
       <c r="F250" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-10477893817.315462</v>
+        <v>375341028.04014671</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -9216,23 +9216,23 @@
       </c>
       <c r="B251" s="37">
         <f t="shared" si="18"/>
-        <v>49278</v>
+        <v>43951</v>
       </c>
       <c r="C251" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D251" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>929025104.92190623</v>
+        <v>12348433.486145701</v>
       </c>
       <c r="E251" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-788025105.47549725</v>
+        <v>4593566.4435301609</v>
       </c>
       <c r="F251" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-11406918922.237368</v>
+        <v>362992594.55400103</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -9241,23 +9241,23 @@
       </c>
       <c r="B252" s="37">
         <f t="shared" si="18"/>
-        <v>49459</v>
+        <v>43981</v>
       </c>
       <c r="C252" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D252" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>998895550.17165947</v>
+        <v>12499558.317844238</v>
       </c>
       <c r="E252" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-857895550.7252506</v>
+        <v>4442441.6118316241</v>
       </c>
       <c r="F252" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-12405814472.409027</v>
+        <v>350493036.23615682</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -9266,23 +9266,23 @@
       </c>
       <c r="B253" s="37">
         <f t="shared" si="18"/>
-        <v>49643</v>
+        <v>44012</v>
       </c>
       <c r="C253" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D253" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>1074020836.3224123</v>
+        <v>12652532.672786474</v>
       </c>
       <c r="E253" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-933020836.87600338</v>
+        <v>4289467.256889387</v>
       </c>
       <c r="F253" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-13479835308.73144</v>
+        <v>337840503.56337035</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -9291,23 +9291,23 @@
       </c>
       <c r="B254" s="37">
         <f t="shared" si="18"/>
-        <v>49825</v>
+        <v>44042</v>
       </c>
       <c r="C254" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D254" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>1154796171.2878411</v>
+        <v>12807379.186142229</v>
       </c>
       <c r="E254" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-1013796171.8414321</v>
+        <v>4134620.7435336332</v>
       </c>
       <c r="F254" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-14634631480.019281</v>
+        <v>325033124.37722814</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -9316,23 +9316,23 @@
       </c>
       <c r="B255" s="37">
         <f t="shared" si="18"/>
-        <v>50009</v>
+        <v>44073</v>
       </c>
       <c r="C255" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D255" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>1241646485.9167171</v>
+        <v>12964120.770099144</v>
       </c>
       <c r="E255" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-1100646486.4703081</v>
+        <v>3977879.1595767182</v>
       </c>
       <c r="F255" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-15876277965.935999</v>
+        <v>312069003.60712898</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -9341,23 +9341,23 @@
       </c>
       <c r="B256" s="37">
         <f t="shared" si="18"/>
-        <v>50190</v>
+        <v>44104</v>
       </c>
       <c r="C256" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D256" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>1335028669.4058115</v>
+        <v>13122780.617252944</v>
       </c>
       <c r="E256" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-1194028669.9594026</v>
+        <v>3819219.3124229182</v>
       </c>
       <c r="F256" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-17211306635.341812</v>
+        <v>298946222.98987603</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -9366,23 +9366,23 @@
       </c>
       <c r="B257" s="37">
         <f t="shared" si="18"/>
-        <v>50374</v>
+        <v>44134</v>
       </c>
       <c r="C257" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D257" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>1435433972.8345182</v>
+        <v>13283382.204039171</v>
       </c>
       <c r="E257" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-1294433973.3881092</v>
+        <v>3658617.7256366913</v>
       </c>
       <c r="F257" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-18646740608.176331</v>
+        <v>285662840.78583688</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -9391,23 +9391,23 @@
       </c>
       <c r="B258" s="37">
         <f t="shared" si="18"/>
-        <v>50555</v>
+        <v>44165</v>
       </c>
       <c r="C258" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D258" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>1543390593.4653473</v>
+        <v>13445949.294206925</v>
       </c>
       <c r="E258" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-1402390594.0189383</v>
+        <v>3496050.6354689375</v>
       </c>
       <c r="F258" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-20190131201.641678</v>
+        <v>272216891.49162996</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -9416,23 +9416,23 @@
       </c>
       <c r="B259" s="37">
         <f t="shared" si="18"/>
-        <v>50739</v>
+        <v>44195</v>
       </c>
       <c r="C259" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D259" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>1659466453.4053967</v>
+        <v>13610505.942335118</v>
       </c>
       <c r="E259" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-1518466453.9589877</v>
+        <v>3331493.9873407437</v>
       </c>
       <c r="F259" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-21849597655.047073</v>
+        <v>258606385.54929483</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -9441,23 +9441,23 @@
       </c>
       <c r="B260" s="37">
         <f t="shared" si="18"/>
-        <v>50920</v>
+        <v>44226</v>
       </c>
       <c r="C260" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D260" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>1784272187.2463684</v>
+        <v>13777076.497391762</v>
       </c>
       <c r="E260" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-1643272187.7999594</v>
+        <v>3164923.4322841</v>
       </c>
       <c r="F260" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-23633869842.293442</v>
+        <v>244829309.05190307</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -9466,23 +9466,23 @@
       </c>
       <c r="B261" s="37">
         <f t="shared" si="18"/>
-        <v>51104</v>
+        <v>44255</v>
       </c>
       <c r="C261" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D261" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>1918464354.4000587</v>
+        <v>13945685.60633681</v>
       </c>
       <c r="E261" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-1777464354.9536498</v>
+        <v>2996314.3233390534</v>
       </c>
       <c r="F261" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-25552334196.693501</v>
+        <v>230883623.44556627</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -9491,23 +9491,23 @@
       </c>
       <c r="B262" s="37">
         <f t="shared" si="18"/>
-        <v>51286</v>
+        <v>44285</v>
       </c>
       <c r="C262" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D262" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>2062748893.0283024</v>
+        <v>14116358.217769094</v>
       </c>
       <c r="E262" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-1921748893.5818934</v>
+        <v>2825641.7119067688</v>
       </c>
       <c r="F262" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-27615083089.721802</v>
+        <v>216767265.22779718</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -9516,23 +9516,23 @@
       </c>
       <c r="B263" s="37">
         <f t="shared" si="18"/>
-        <v>51470</v>
+        <v>44316</v>
       </c>
       <c r="C263" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D263" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>2217884833.7372875</v>
+        <v>14289119.585617905</v>
       </c>
       <c r="E263" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-2076884834.2908785</v>
+        <v>2652880.3440579562</v>
       </c>
       <c r="F263" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-29832967923.459091</v>
+        <v>202478145.64217928</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -9541,23 +9541,23 @@
       </c>
       <c r="B264" s="37">
         <f t="shared" si="18"/>
-        <v>51651</v>
+        <v>44346</v>
       </c>
       <c r="C264" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D264" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>2384688292.5726929</v>
+        <v>14463995.27287974</v>
       </c>
       <c r="E264" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-2243688293.1262841</v>
+        <v>2478004.656796122</v>
       </c>
       <c r="F264" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-32217656216.031784</v>
+        <v>188014150.36929953</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -9566,23 +9566,23 @@
       </c>
       <c r="B265" s="37">
         <f t="shared" si="18"/>
-        <v>51835</v>
+        <v>44377</v>
       </c>
       <c r="C265" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D265" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>2564036764.3214025</v>
+        <v>14641011.155400775</v>
       </c>
       <c r="E265" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-2423036764.8749938</v>
+        <v>2300988.7742750864</v>
       </c>
       <c r="F265" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-34781692980.353188</v>
+        <v>173373139.21389875</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -9591,23 +9591,23 @@
       </c>
       <c r="B266" s="37">
         <f t="shared" si="18"/>
-        <v>52016</v>
+        <v>44407</v>
       </c>
       <c r="C266" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D266" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>2756873738.7053542</v>
+        <v>14820193.425705653</v>
       </c>
       <c r="E266" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-2615873739.2589455</v>
+        <v>2121806.50397021</v>
       </c>
       <c r="F266" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-37538566719.05854</v>
+        <v>158552945.78819311</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -9616,23 +9616,23 @@
       </c>
       <c r="B267" s="37">
         <f t="shared" si="18"/>
-        <v>52200</v>
+        <v>44438</v>
       </c>
       <c r="C267" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D267" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>2964213663.7517147</v>
+        <v>15001568.596873101</v>
       </c>
       <c r="E267" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-2823213664.305306</v>
+        <v>1940431.3328027616</v>
       </c>
       <c r="F267" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-40502780382.810257</v>
+        <v>143551377.19132</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -9641,23 +9641,23 @@
       </c>
       <c r="B268" s="37">
         <f t="shared" si="18"/>
-        <v>52381</v>
+        <v>44469</v>
       </c>
       <c r="C268" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D268" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>3187147282.4499364</v>
+        <v>15185163.506459007</v>
       </c>
       <c r="E268" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-3046147283.0035276</v>
+        <v>1756836.4232168545</v>
       </c>
       <c r="F268" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-43689927665.260193</v>
+        <v>128366213.68486099</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -9666,23 +9666,23 @@
       </c>
       <c r="B269" s="37">
         <f t="shared" si="18"/>
-        <v>52565</v>
+        <v>44499</v>
       </c>
       <c r="C269" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D269" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>3426847370.76998</v>
+        <v>15371005.320467489</v>
       </c>
       <c r="E269" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-3285847371.3235712</v>
+        <v>1570994.6092083738</v>
       </c>
       <c r="F269" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-47116775036.030174</v>
+        <v>112995208.3643935</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -9691,23 +9691,23 @@
       </c>
       <c r="B270" s="37">
         <f t="shared" si="18"/>
-        <v>52747</v>
+        <v>44530</v>
       </c>
       <c r="C270" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D270" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>3684574907.2274284</v>
+        <v>15559121.537370563</v>
       </c>
       <c r="E270" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-3543574907.7810197</v>
+        <v>1382878.3923052996</v>
       </c>
       <c r="F270" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-50801349943.257599</v>
+        <v>97436086.82702294</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -9716,23 +9716,23 @@
       </c>
       <c r="B271" s="37">
         <f t="shared" si="18"/>
-        <v>52931</v>
+        <v>44560</v>
       </c>
       <c r="C271" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D271" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>3961685706.451406</v>
+        <v>15749539.992177023</v>
       </c>
       <c r="E271" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-3820685707.0049973</v>
+        <v>1192459.93749884</v>
       </c>
       <c r="F271" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-54763035649.709007</v>
+        <v>81686546.834845915</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -9741,23 +9741,23 @@
       </c>
       <c r="B272" s="37">
         <f t="shared" si="18"/>
-        <v>53112</v>
+        <v>44591</v>
       </c>
       <c r="C272" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D272" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>4259637551.6522007</v>
+        <v>15942288.860551098</v>
       </c>
       <c r="E272" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-4118637552.205792</v>
+        <v>999711.06912476383</v>
       </c>
       <c r="F272" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-59022673201.361206</v>
+        <v>65744257.974294819</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -9766,23 +9766,23 @@
       </c>
       <c r="B273" s="37">
         <f t="shared" si="18"/>
-        <v>53296</v>
+        <v>44620</v>
       </c>
       <c r="C273" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D273" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>4579997863.5100031</v>
+        <v>16137396.662981531</v>
       </c>
       <c r="E273" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-4438997864.0635939</v>
+        <v>804603.26669433189</v>
       </c>
       <c r="F273" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-63602671064.871208</v>
+        <v>49606861.311313286</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -9791,23 +9791,23 @@
       </c>
       <c r="B274" s="37">
         <f t="shared" si="18"/>
-        <v>53477</v>
+        <v>44650</v>
       </c>
       <c r="C274" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D274" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>4924451945.8281155</v>
+        <v>16334892.269001661</v>
       </c>
       <c r="E274" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-4783451946.3817062</v>
+        <v>607107.66067420132</v>
       </c>
       <c r="F274" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-68527123010.699326</v>
+        <v>33271969.042311624</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -9816,23 +9816,23 @@
       </c>
       <c r="B275" s="37">
         <f t="shared" si="18"/>
-        <v>53661</v>
+        <v>44681</v>
       </c>
       <c r="C275" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D275" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>5294811851.3281374</v>
+        <v>16534804.901461175</v>
       </c>
       <c r="E275" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-5153811851.8817282</v>
+        <v>407195.02821468661</v>
       </c>
       <c r="F275" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-73821934862.027466</v>
+        <v>16737164.140850449</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -9841,23 +9841,23 @@
       </c>
       <c r="B276" s="37">
         <f t="shared" si="18"/>
-        <v>53842</v>
+        <v>44711</v>
       </c>
       <c r="C276" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>140999999.44640893</v>
+        <v>16941999.929675862</v>
       </c>
       <c r="D276" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>5693025914.2269716</v>
+        <v>16737164.140850125</v>
       </c>
       <c r="E276" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>-5552025914.7805624</v>
+        <v>204835.7888257381</v>
       </c>
       <c r="F276" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>-79514960776.25444</v>
+        <v>3.2410025596618652E-7</v>
       </c>
     </row>
   </sheetData>

--- a/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
+++ b/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D1" s="3">
         <f ca="1">IF(B16=1,'Regular Fixed'!E79,IF(AND(B16=0,E16=0),'Regular Fixed'!E15,IF(AND(B16=0,E16&gt;0,E15&gt;0),'Regular Fixed'!E147,IF(AND(B16=0,E16&gt;0,E15=0),'Regular Fixed'!E213))))</f>
-        <v>298192995.99152446</v>
+        <v>298195600.1767593</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1679,7 +1679,7 @@
         <v>70</v>
       </c>
       <c r="B3">
-        <v>965693995.99000001</v>
+        <v>965696600.17999995</v>
       </c>
       <c r="C3" s="86" t="s">
         <v>96</v>
@@ -1777,7 +1777,7 @@
         <v>33</v>
       </c>
       <c r="B8">
-        <v>0.14686057</v>
+        <v>0.14686171000000001</v>
       </c>
       <c r="C8" s="82" t="s">
         <v>93</v>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B12" s="19">
         <f>B8/(12/B10)</f>
-        <v>1.2238380833333333E-2</v>
+        <v>1.2238475833333333E-2</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>10</v>
@@ -1969,7 +1969,7 @@
         <v>41</v>
       </c>
       <c r="B17">
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="C17" s="81" t="s">
         <v>92</v>
@@ -1978,7 +1978,7 @@
     <row r="18" spans="1:13">
       <c r="B18" s="89">
         <f>ROUND(B17,0)</f>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>42</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="B19" s="13">
         <f ca="1">(D1/B7)/(B9/12)*100</f>
-        <v>8.9346082175614558</v>
+        <v>8.9346862454665779</v>
       </c>
       <c r="F19" s="84" t="s">
         <v>43</v>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="G24" s="101">
         <f>IF($B$16=0,IF(F24&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H24" s="103"/>
       <c r="I24" s="84">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="J24" s="99">
         <f t="shared" ref="J24:J81" si="1">IF($B$16=0,IF(I24&lt;=$E$16,$E$15,$B$18),$B$18)</f>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="106"/>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="G25" s="101">
         <f t="shared" ref="G25:G81" si="2">IF($B$16=0,IF(F25&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H25" s="103"/>
       <c r="I25" s="84">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="J25" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L25" s="13"/>
       <c r="M25" s="55"/>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="G26" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H26" s="103"/>
       <c r="I26" s="84">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="J26" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L26" s="13"/>
     </row>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="G27" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H27" s="103"/>
       <c r="I27" s="84">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="J27" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L27" s="13"/>
     </row>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="G28" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H28" s="103"/>
       <c r="I28" s="84">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="J28" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L28" s="13"/>
     </row>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="G29" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H29" s="103"/>
       <c r="I29" s="84">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="J29" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L29" s="13"/>
     </row>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="G30" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H30" s="103"/>
       <c r="I30" s="84">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="J30" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L30" s="13"/>
     </row>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="G31" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H31" s="103"/>
       <c r="I31" s="84">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="J31" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L31" s="13"/>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="G32" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H32" s="103"/>
       <c r="I32" s="84">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="J32" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L32" s="13"/>
     </row>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="G33" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H33" s="103"/>
       <c r="I33" s="84">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="J33" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L33" s="13"/>
     </row>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="G34" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H34" s="103"/>
       <c r="I34" s="84">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="J34" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L34" s="13"/>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="G35" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H35" s="103"/>
       <c r="I35" s="84">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="J35" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L35" s="13"/>
     </row>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="G36" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H36" s="103"/>
       <c r="I36" s="84">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="J36" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L36" s="13"/>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="G37" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H37" s="103"/>
       <c r="I37" s="84">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="J37" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L37" s="13"/>
     </row>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="G38" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H38" s="103"/>
       <c r="I38" s="84">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="J38" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L38" s="13"/>
     </row>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="G39" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H39" s="103"/>
       <c r="I39" s="84">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="J39" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="K39" s="34"/>
       <c r="L39" s="13"/>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="G40" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H40" s="103"/>
       <c r="I40" s="84">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="J40" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L40" s="13"/>
     </row>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="G41" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H41" s="103"/>
       <c r="I41" s="84">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="J41" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L41" s="13"/>
     </row>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="G42" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H42" s="103"/>
       <c r="I42" s="84">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="J42" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L42" s="13"/>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="G43" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H43" s="103"/>
       <c r="I43" s="84">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="J43" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L43" s="13"/>
     </row>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="G44" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H44" s="103"/>
       <c r="I44" s="84">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="J44" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L44" s="13"/>
     </row>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="G45" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H45" s="103"/>
       <c r="I45" s="84">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="J45" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L45" s="13"/>
     </row>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="G46" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H46" s="103"/>
       <c r="I46" s="84">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="J46" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L46" s="13"/>
     </row>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="G47" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H47" s="103"/>
       <c r="I47" s="84">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="J47" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L47" s="13"/>
     </row>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="G48" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H48" s="103"/>
       <c r="I48" s="84">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="J48" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L48" s="13"/>
     </row>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="G49" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H49" s="103"/>
       <c r="I49" s="84">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="J49" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L49" s="13"/>
     </row>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="G50" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H50" s="103"/>
       <c r="I50" s="84">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="J50" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L50" s="13"/>
     </row>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="G51" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H51" s="103"/>
       <c r="I51" s="84">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="J51" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L51" s="13"/>
     </row>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="G52" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H52" s="103"/>
       <c r="I52" s="84">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="J52" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L52" s="13"/>
     </row>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="G53" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H53" s="103"/>
       <c r="I53" s="84">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="J53" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L53" s="13"/>
     </row>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="G54" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H54" s="103"/>
       <c r="I54" s="84">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="J54" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L54" s="13"/>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="G55" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H55" s="103"/>
       <c r="I55" s="84">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="J55" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L55" s="13"/>
     </row>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="G56" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H56" s="103"/>
       <c r="I56" s="84">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="J56" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L56" s="13"/>
     </row>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="G57" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H57" s="103"/>
       <c r="I57" s="84">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="J57" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L57" s="13"/>
     </row>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="G58" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H58" s="103"/>
       <c r="I58" s="84">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="J58" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L58" s="13"/>
     </row>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="G59" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H59" s="103"/>
       <c r="I59" s="84">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="J59" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L59" s="13"/>
     </row>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="G60" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H60" s="103"/>
       <c r="I60" s="84">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="J60" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L60" s="13"/>
     </row>
@@ -2968,7 +2968,7 @@
       </c>
       <c r="G61" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H61" s="103"/>
       <c r="I61" s="84">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="J61" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L61" s="13"/>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="G62" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H62" s="103"/>
       <c r="I62" s="84">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="J62" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L62" s="13"/>
     </row>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="G63" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H63" s="103"/>
       <c r="I63" s="84">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="J63" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L63" s="13"/>
     </row>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="G64" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H64" s="103"/>
       <c r="I64" s="84">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="J64" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L64" s="13"/>
     </row>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="G65" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H65" s="103"/>
       <c r="I65" s="84">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="J65" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L65" s="13"/>
     </row>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="G66" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H66" s="103"/>
       <c r="I66" s="84">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="J66" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L66" s="13"/>
     </row>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="G67" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H67" s="103"/>
       <c r="I67" s="84">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="J67" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L67" s="13"/>
     </row>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="G68" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H68" s="103"/>
       <c r="I68" s="84">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="J68" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L68" s="13"/>
     </row>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="G69" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H69" s="103"/>
       <c r="I69" s="84">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="J69" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L69" s="13"/>
     </row>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G70" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H70" s="103"/>
       <c r="I70" s="84">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="J70" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L70" s="13"/>
     </row>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="G71" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H71" s="103"/>
       <c r="I71" s="84">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="J71" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L71" s="13"/>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="G72" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H72" s="103"/>
       <c r="I72" s="84">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="J72" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L72" s="13"/>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="G73" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H73" s="103"/>
       <c r="I73" s="84">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="J73" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L73" s="13"/>
     </row>
@@ -3202,7 +3202,7 @@
       </c>
       <c r="G74" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H74" s="103"/>
       <c r="I74" s="84">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="J74" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L74" s="13"/>
     </row>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="G75" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H75" s="103"/>
       <c r="I75" s="84">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="J75" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L75" s="13"/>
     </row>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="G76" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H76" s="103"/>
       <c r="I76" s="84">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="J76" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L76" s="13"/>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="G77" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H77" s="103"/>
       <c r="I77" s="84">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="J77" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L77" s="13"/>
     </row>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="G78" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H78" s="103"/>
       <c r="I78" s="84">
@@ -3282,7 +3282,7 @@
       </c>
       <c r="J78" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L78" s="13"/>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="G79" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H79" s="103"/>
       <c r="I79" s="84">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="J79" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L79" s="13"/>
     </row>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="G80" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H80" s="103"/>
       <c r="I80" s="84">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="J80" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L80" s="13"/>
     </row>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="G81" s="101">
         <f t="shared" si="2"/>
-        <v>16941999.93</v>
+        <v>16942045.620000001</v>
       </c>
       <c r="H81" s="103"/>
       <c r="I81" s="84">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="J81" s="99">
         <f t="shared" si="1"/>
-        <v>16942000</v>
+        <v>16942046</v>
       </c>
       <c r="L81" s="13"/>
       <c r="M81" s="106"/>
@@ -3355,26 +3355,26 @@
       <c r="F83" s="105"/>
       <c r="G83" s="14">
         <f ca="1">_xlfn.NUMBERVALUE(IRR(G20:INDIRECT(CONCATENATE("G",IF(B16=1,B13+20+1,B13+20)))))</f>
-        <v>1.22383808340074E-2</v>
+        <v>1.22384758392884E-2</v>
       </c>
       <c r="J83" s="55">
         <f ca="1">IRR(J20:INDIRECT(CONCATENATE("J",B13+20)))</f>
-        <v>1.2446666006769691E-2</v>
+        <v>1.2446761857640487E-2</v>
       </c>
       <c r="K83" s="109">
         <f ca="1">J83*(12/B10)*100</f>
-        <v>14.935999208123629</v>
+        <v>14.936114229168584</v>
       </c>
       <c r="L83" s="103"/>
     </row>
     <row r="84" spans="6:13">
       <c r="G84">
         <f ca="1">_xlfn.NUMBERVALUE(G83*12*100)</f>
-        <v>14.6860570008089</v>
+        <v>14.6861710071461</v>
       </c>
       <c r="J84">
         <f ca="1">_xlfn.NUMBERVALUE(K83)</f>
-        <v>14.935999208123601</v>
+        <v>14.9361142291686</v>
       </c>
     </row>
     <row r="85" spans="6:13">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B4" s="54">
         <f>'Gross Yield (CF)'!B8</f>
-        <v>0.14686057</v>
+        <v>0.14686171000000001</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>84</v>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="B9" s="56">
         <f>B4/(12/B6)</f>
-        <v>1.2238380833333333E-2</v>
+        <v>1.2238475833333333E-2</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>80</v>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="B14" s="94">
         <f>PMT(B9,B10,B11,B12,B13)</f>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="39" t="s">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="E14" s="39">
         <f ca="1">E15+F16</f>
-        <v>946200913.85241377</v>
+        <v>946203301.19503188</v>
       </c>
       <c r="F14" s="42"/>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="E15" s="39">
         <f ca="1">SUM(E17:INDIRECT(CONCATENATE("E",16+B10)))</f>
-        <v>278699913.85241377</v>
+        <v>278702301.19503188</v>
       </c>
       <c r="F15" s="38" t="s">
         <v>63</v>
@@ -3646,19 +3646,19 @@
       </c>
       <c r="C17" s="36">
         <f>B14</f>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D17" s="36">
         <f t="shared" ref="D17:D76" si="0">C17-E17</f>
-        <v>7600883.7862427235</v>
+        <v>7600860.1626913603</v>
       </c>
       <c r="E17" s="36">
         <f t="shared" ref="E17:E76" si="1">F16*$B$9</f>
-        <v>8169131.4446308333</v>
+        <v>8169194.8572258335</v>
       </c>
       <c r="F17" s="36">
         <f t="shared" ref="F17:F27" si="2">F16-D17</f>
-        <v>659900116.21375728</v>
+        <v>659900139.83730865</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3671,19 +3671,19 @@
       </c>
       <c r="C18" s="36">
         <f t="shared" ref="C18:C76" si="4">$C$17</f>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D18" s="36">
         <f t="shared" si="0"/>
-        <v>7693906.2966886703</v>
+        <v>7693883.1061050044</v>
       </c>
       <c r="E18" s="36">
         <f t="shared" si="1"/>
-        <v>8076108.9341848865</v>
+        <v>8076171.9138121894</v>
       </c>
       <c r="F18" s="36">
         <f t="shared" si="2"/>
-        <v>652206209.9170686</v>
+        <v>652206256.73120368</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3696,19 +3696,19 @@
       </c>
       <c r="C19" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D19" s="36">
         <f t="shared" si="0"/>
-        <v>7788067.2520435285</v>
+        <v>7788044.5085635623</v>
       </c>
       <c r="E19" s="36">
         <f t="shared" si="1"/>
-        <v>7981947.9788300283</v>
+        <v>7982010.5113536315</v>
       </c>
       <c r="F19" s="36">
         <f t="shared" si="2"/>
-        <v>644418142.66502512</v>
+        <v>644418212.22264016</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3721,19 +3721,19 @@
       </c>
       <c r="C20" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D20" s="36">
         <f t="shared" si="0"/>
-        <v>7883380.5850296477</v>
+        <v>7883358.3030705405</v>
       </c>
       <c r="E20" s="36">
         <f t="shared" si="1"/>
-        <v>7886634.6458439091</v>
+        <v>7886696.7168466533</v>
       </c>
       <c r="F20" s="36">
         <f t="shared" si="2"/>
-        <v>636534762.07999551</v>
+        <v>636534853.91956961</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3746,19 +3746,19 @@
       </c>
       <c r="C21" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D21" s="36">
         <f t="shared" si="0"/>
-        <v>7979860.3988833465</v>
+        <v>7979838.5931481775</v>
       </c>
       <c r="E21" s="36">
         <f t="shared" si="1"/>
-        <v>7790154.8319902103</v>
+        <v>7790216.4267690163</v>
       </c>
       <c r="F21" s="36">
         <f t="shared" si="2"/>
-        <v>628554901.68111217</v>
+        <v>628555015.32642138</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3771,19 +3771,19 @@
       </c>
       <c r="C22" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D22" s="36">
         <f t="shared" si="0"/>
-        <v>8077520.9694417156</v>
+        <v>8077499.6549243229</v>
       </c>
       <c r="E22" s="36">
         <f t="shared" si="1"/>
-        <v>7692494.2614318412</v>
+        <v>7692555.3649928709</v>
       </c>
       <c r="F22" s="36">
         <f t="shared" si="2"/>
-        <v>620477380.7116704</v>
+        <v>620477515.67149711</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3796,19 +3796,19 @@
       </c>
       <c r="C23" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D23" s="36">
         <f t="shared" si="0"/>
-        <v>8176376.7472549807</v>
+        <v>8176355.939244872</v>
       </c>
       <c r="E23" s="36">
         <f t="shared" si="1"/>
-        <v>7593638.4836185761</v>
+        <v>7593699.0806723218</v>
       </c>
       <c r="F23" s="36">
         <f t="shared" si="2"/>
-        <v>612301003.96441543</v>
+        <v>612301159.73225224</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3821,19 +3821,19 @@
       </c>
       <c r="C24" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D24" s="36">
         <f t="shared" si="0"/>
-        <v>8276442.3597246977</v>
+        <v>8276422.0738120517</v>
       </c>
       <c r="E24" s="36">
         <f t="shared" si="1"/>
-        <v>7493572.8711488592</v>
+        <v>7493632.9461051421</v>
       </c>
       <c r="F24" s="36">
         <f t="shared" si="2"/>
-        <v>604024561.60469079</v>
+        <v>604024737.65844023</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3846,19 +3846,19 @@
       </c>
       <c r="C25" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D25" s="36">
         <f t="shared" si="0"/>
-        <v>8377732.6132681398</v>
+        <v>8377712.8653488662</v>
       </c>
       <c r="E25" s="36">
         <f t="shared" si="1"/>
-        <v>7392282.617605417</v>
+        <v>7392342.1545683276</v>
       </c>
       <c r="F25" s="36">
         <f t="shared" si="2"/>
-        <v>595646828.99142265</v>
+        <v>595647024.79309142</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3871,19 +3871,19 @@
       </c>
       <c r="C26" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D26" s="36">
         <f t="shared" si="0"/>
-        <v>8480262.4955091514</v>
+        <v>8480243.3017900437</v>
       </c>
       <c r="E26" s="36">
         <f t="shared" si="1"/>
-        <v>7289752.7353644045</v>
+        <v>7289811.7181271501</v>
       </c>
       <c r="F26" s="36">
         <f t="shared" si="2"/>
-        <v>587166566.49591351</v>
+        <v>587166781.49130142</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3896,19 +3896,19 @@
       </c>
       <c r="C27" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D27" s="36">
         <f t="shared" si="0"/>
-        <v>8584047.177495826</v>
+        <v>8584028.5544997863</v>
       </c>
       <c r="E27" s="36">
         <f t="shared" si="1"/>
-        <v>7185968.0533777298</v>
+        <v>7186026.4654174065</v>
       </c>
       <c r="F27" s="36">
         <f t="shared" si="2"/>
-        <v>578582519.31841767</v>
+        <v>578582752.93680167</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3921,19 +3921,19 @@
       </c>
       <c r="C28" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D28" s="36">
         <f t="shared" si="0"/>
-        <v>8689102.0159453209</v>
+        <v>8689083.9805166759</v>
       </c>
       <c r="E28" s="36">
         <f t="shared" si="1"/>
-        <v>7080913.2149282359</v>
+        <v>7080971.0394005179</v>
       </c>
       <c r="F28" s="36">
         <f t="shared" ref="F28:F76" si="5">F27-D28</f>
-        <v>569893417.30247235</v>
+        <v>569893668.956285</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3946,19 +3946,19 @@
       </c>
       <c r="C29" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D29" s="36">
         <f t="shared" si="0"/>
-        <v>8795442.5555161443</v>
+        <v>8795425.1248260327</v>
       </c>
       <c r="E29" s="36">
         <f t="shared" si="1"/>
-        <v>6974572.6753574125</v>
+        <v>6974629.8950911611</v>
       </c>
       <c r="F29" s="36">
         <f t="shared" si="5"/>
-        <v>561097974.74695623</v>
+        <v>561098243.83145893</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3971,19 +3971,19 @@
       </c>
       <c r="C30" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D30" s="36">
         <f t="shared" si="0"/>
-        <v>8903084.5311082564</v>
+        <v>8903067.7226601094</v>
       </c>
       <c r="E30" s="36">
         <f t="shared" si="1"/>
-        <v>6866930.6997652994</v>
+        <v>6866987.2972570844</v>
       </c>
       <c r="F30" s="36">
         <f t="shared" si="5"/>
-        <v>552194890.21584797</v>
+        <v>552195176.10879886</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3996,19 +3996,19 @@
       </c>
       <c r="C31" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D31" s="36">
         <f t="shared" si="0"/>
-        <v>9012043.8701913189</v>
+        <v>9012027.701826416</v>
       </c>
       <c r="E31" s="36">
         <f t="shared" si="1"/>
-        <v>6757971.3606822379</v>
+        <v>6758027.3180907788</v>
       </c>
       <c r="F31" s="36">
         <f t="shared" si="5"/>
-        <v>543182846.34565663</v>
+        <v>543183148.40697241</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4021,19 +4021,19 @@
       </c>
       <c r="C32" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D32" s="36">
         <f t="shared" si="0"/>
-        <v>9122336.6951614283</v>
+        <v>9122321.1850645486</v>
       </c>
       <c r="E32" s="36">
         <f t="shared" si="1"/>
-        <v>6647678.5357121294</v>
+        <v>6647733.8348526452</v>
       </c>
       <c r="F32" s="36">
         <f t="shared" si="5"/>
-        <v>534060509.65049523</v>
+        <v>534060827.22190785</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4046,19 +4046,19 @@
       </c>
       <c r="C33" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D33" s="36">
         <f t="shared" si="0"/>
-        <v>9233979.3257267047</v>
+        <v>9233964.492431866</v>
       </c>
       <c r="E33" s="36">
         <f t="shared" si="1"/>
-        <v>6536035.9051468521</v>
+        <v>6536090.5274853278</v>
       </c>
       <c r="F33" s="36">
         <f t="shared" si="5"/>
-        <v>524826530.32476854</v>
+        <v>524826862.72947598</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4071,19 +4071,19 @@
       </c>
       <c r="C34" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D34" s="36">
         <f t="shared" si="0"/>
-        <v>9346988.2813220732</v>
+        <v>9346974.1437183507</v>
       </c>
       <c r="E34" s="36">
         <f t="shared" si="1"/>
-        <v>6423026.9495514827</v>
+        <v>6423080.8761988422</v>
       </c>
       <c r="F34" s="36">
         <f t="shared" si="5"/>
-        <v>515479542.04344648</v>
+        <v>515479888.58575761</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4096,19 +4096,19 @@
       </c>
       <c r="C35" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D35" s="36">
         <f t="shared" si="0"/>
-        <v>9461380.2835535966</v>
+        <v>9461366.8608910404</v>
       </c>
       <c r="E35" s="36">
         <f t="shared" si="1"/>
-        <v>6308634.9473199593</v>
+        <v>6308688.1590261534</v>
       </c>
       <c r="F35" s="36">
         <f t="shared" si="5"/>
-        <v>506018161.75989288</v>
+        <v>506018521.72486657</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4121,19 +4121,19 @@
       </c>
       <c r="C36" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D36" s="36">
         <f t="shared" si="0"/>
-        <v>9577172.258672718</v>
+        <v>9577159.5705683567</v>
       </c>
       <c r="E36" s="36">
         <f t="shared" si="1"/>
-        <v>6192842.9722008388</v>
+        <v>6192895.4493488381</v>
       </c>
       <c r="F36" s="36">
         <f t="shared" si="5"/>
-        <v>496440989.50122017</v>
+        <v>496441362.15429819</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C37" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D37" s="36">
         <f t="shared" si="0"/>
-        <v>9694381.3400807902</v>
+        <v>9694369.4065247346</v>
       </c>
       <c r="E37" s="36">
         <f t="shared" si="1"/>
-        <v>6075633.8907927675</v>
+        <v>6075685.6133924592</v>
       </c>
       <c r="F37" s="36">
         <f t="shared" si="5"/>
-        <v>486746608.16113937</v>
+        <v>486746992.74777347</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4171,19 +4171,19 @@
       </c>
       <c r="C38" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D38" s="36">
         <f t="shared" si="0"/>
-        <v>9813024.8708642591</v>
+        <v>9813013.7122258916</v>
       </c>
       <c r="E38" s="36">
         <f t="shared" si="1"/>
-        <v>5956990.3600092977</v>
+        <v>5957041.3076913012</v>
       </c>
       <c r="F38" s="36">
         <f t="shared" si="5"/>
-        <v>476933583.2902751</v>
+        <v>476933979.03554755</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4196,19 +4196,19 @@
       </c>
       <c r="C39" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D39" s="36">
         <f t="shared" si="0"/>
-        <v>9933120.4063608684</v>
+        <v>9933110.0433951393</v>
       </c>
       <c r="E39" s="36">
         <f t="shared" si="1"/>
-        <v>5836894.8245126894</v>
+        <v>5836944.9765220555</v>
       </c>
       <c r="F39" s="36">
         <f t="shared" si="5"/>
-        <v>467000462.88391423</v>
+        <v>467000868.99215239</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4221,19 +4221,19 @@
       </c>
       <c r="C40" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D40" s="36">
         <f t="shared" si="0"/>
-        <v>10054685.716757266</v>
+        <v>10054676.17061107</v>
       </c>
       <c r="E40" s="36">
         <f t="shared" si="1"/>
-        <v>5715329.514116291</v>
+        <v>5715378.8493061233</v>
       </c>
       <c r="F40" s="36">
         <f t="shared" si="5"/>
-        <v>456945777.16715699</v>
+        <v>456946192.82154131</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4246,19 +4246,19 @@
       </c>
       <c r="C41" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D41" s="36">
         <f t="shared" si="0"/>
-        <v>10177738.789718419</v>
+        <v>10177730.081937086</v>
       </c>
       <c r="E41" s="36">
         <f t="shared" si="1"/>
-        <v>5592276.4411551384</v>
+        <v>5592324.937980107</v>
       </c>
       <c r="F41" s="36">
         <f t="shared" si="5"/>
-        <v>446768038.37743855</v>
+        <v>446768462.73960423</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4271,19 +4271,19 @@
       </c>
       <c r="C42" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D42" s="36">
         <f t="shared" si="0"/>
-        <v>10302297.833049182</v>
+        <v>10302289.985583063</v>
       </c>
       <c r="E42" s="36">
         <f t="shared" si="1"/>
-        <v>5467717.397824375</v>
+        <v>5467765.0343341306</v>
       </c>
       <c r="F42" s="36">
         <f t="shared" si="5"/>
-        <v>436465740.54438937</v>
+        <v>436466172.75402117</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4296,19 +4296,19 @@
       </c>
       <c r="C43" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D43" s="36">
         <f t="shared" si="0"/>
-        <v>10428381.277388463</v>
+        <v>10428374.312599614</v>
       </c>
       <c r="E43" s="36">
         <f t="shared" si="1"/>
-        <v>5341633.953485094</v>
+        <v>5341680.7073175795</v>
       </c>
       <c r="F43" s="36">
         <f t="shared" si="5"/>
-        <v>426037359.26700091</v>
+        <v>426037798.44142157</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4321,19 +4321,19 @@
       </c>
       <c r="C44" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D44" s="36">
         <f t="shared" si="0"/>
-        <v>10556007.778936345</v>
+        <v>10556001.719605319</v>
       </c>
       <c r="E44" s="36">
         <f t="shared" si="1"/>
-        <v>5214007.4519372117</v>
+        <v>5214053.3003118755</v>
       </c>
       <c r="F44" s="36">
         <f t="shared" si="5"/>
-        <v>415481351.48806459</v>
+        <v>415481796.72181624</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4346,19 +4346,19 @@
       </c>
       <c r="C45" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D45" s="36">
         <f t="shared" si="0"/>
-        <v>10685196.222214598</v>
+        <v>10685191.091547333</v>
       </c>
       <c r="E45" s="36">
         <f t="shared" si="1"/>
-        <v>5084819.0086589595</v>
+        <v>5084863.9283698602</v>
       </c>
       <c r="F45" s="36">
         <f t="shared" si="5"/>
-        <v>404796155.26585001</v>
+        <v>404796605.63026893</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4371,19 +4371,19 @@
       </c>
       <c r="C46" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D46" s="36">
         <f t="shared" si="0"/>
-        <v>10815965.722860955</v>
+        <v>10815961.544495784</v>
       </c>
       <c r="E46" s="36">
         <f t="shared" si="1"/>
-        <v>4954049.508012603</v>
+        <v>4954093.4754214101</v>
       </c>
       <c r="F46" s="36">
         <f t="shared" si="5"/>
-        <v>393980189.54298908</v>
+        <v>393980644.08577317</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4396,19 +4396,19 @@
       </c>
       <c r="C47" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D47" s="36">
         <f t="shared" si="0"/>
-        <v>10948335.630457606</v>
+        <v>10948332.428472359</v>
       </c>
       <c r="E47" s="36">
         <f t="shared" si="1"/>
-        <v>4821679.6004159516</v>
+        <v>4821722.591444836</v>
       </c>
       <c r="F47" s="36">
         <f t="shared" si="5"/>
-        <v>383031853.9125315</v>
+        <v>383032311.65730083</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4421,19 +4421,19 @@
       </c>
       <c r="C48" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D48" s="36">
         <f t="shared" si="0"/>
-        <v>11082325.531394299</v>
+        <v>11082323.330313515</v>
       </c>
       <c r="E48" s="36">
         <f t="shared" si="1"/>
-        <v>4687689.6994792586</v>
+        <v>4687731.689603678</v>
       </c>
       <c r="F48" s="36">
         <f t="shared" si="5"/>
-        <v>371949528.38113719</v>
+        <v>371949988.32698733</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4446,19 +4446,19 @@
       </c>
       <c r="C49" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D49" s="36">
         <f t="shared" si="0"/>
-        <v>11217955.251766475</v>
+        <v>11217954.076568745</v>
       </c>
       <c r="E49" s="36">
         <f t="shared" si="1"/>
-        <v>4552059.9791070819</v>
+        <v>4552100.9433484497</v>
       </c>
       <c r="F49" s="36">
         <f t="shared" si="5"/>
-        <v>360731573.12937069</v>
+        <v>360732034.2504186</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4471,19 +4471,19 @@
       </c>
       <c r="C50" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D50" s="36">
         <f t="shared" si="0"/>
-        <v>11355244.860308886</v>
+        <v>11355244.736434273</v>
       </c>
       <c r="E50" s="36">
         <f t="shared" si="1"/>
-        <v>4414770.3705646722</v>
+        <v>4414810.2834829204</v>
       </c>
       <c r="F50" s="36">
         <f t="shared" si="5"/>
-        <v>349376328.2690618</v>
+        <v>349376789.51398432</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4496,19 +4496,19 @@
       </c>
       <c r="C51" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D51" s="36">
         <f t="shared" si="0"/>
-        <v>11494214.671365097</v>
+        <v>11494215.62472271</v>
       </c>
       <c r="E51" s="36">
         <f t="shared" si="1"/>
-        <v>4275800.5595084606</v>
+        <v>4275839.3951944839</v>
       </c>
       <c r="F51" s="36">
         <f t="shared" si="5"/>
-        <v>337882113.59769672</v>
+        <v>337882573.8892616</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4521,19 +4521,19 @@
       </c>
       <c r="C52" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D52" s="36">
         <f t="shared" si="0"/>
-        <v>11634885.247893348</v>
+        <v>11634887.304869002</v>
       </c>
       <c r="E52" s="36">
         <f t="shared" si="1"/>
-        <v>4135129.9829802075</v>
+        <v>4135167.7150481925</v>
       </c>
       <c r="F52" s="36">
         <f t="shared" si="5"/>
-        <v>326247228.34980339</v>
+        <v>326247686.58439261</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4546,19 +4546,19 @@
       </c>
       <c r="C53" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D53" s="36">
         <f t="shared" si="0"/>
-        <v>11777277.4045092</v>
+        <v>11777280.591973197</v>
       </c>
       <c r="E53" s="36">
         <f t="shared" si="1"/>
-        <v>3992737.826364357</v>
+        <v>3992774.4279439966</v>
       </c>
       <c r="F53" s="36">
         <f t="shared" si="5"/>
-        <v>314469950.9452942</v>
+        <v>314470405.99241942</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4571,19 +4571,19 @@
       </c>
       <c r="C54" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D54" s="36">
         <f t="shared" si="0"/>
-        <v>11921412.210565396</v>
+        <v>11921416.555880446</v>
       </c>
       <c r="E54" s="36">
         <f t="shared" si="1"/>
-        <v>3848603.0203081621</v>
+        <v>3848638.4640367469</v>
       </c>
       <c r="F54" s="36">
         <f t="shared" si="5"/>
-        <v>302548538.73472881</v>
+        <v>302548989.43653899</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4596,19 +4596,19 @@
       </c>
       <c r="C55" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D55" s="36">
         <f t="shared" si="0"/>
-        <v>12067310.993269444</v>
+        <v>12067316.52429869</v>
       </c>
       <c r="E55" s="36">
         <f t="shared" si="1"/>
-        <v>3702704.2376041124</v>
+        <v>3702738.4956185045</v>
       </c>
       <c r="F55" s="36">
         <f t="shared" si="5"/>
-        <v>290481227.74145937</v>
+        <v>290481672.91224033</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4621,19 +4621,19 @@
       </c>
       <c r="C56" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D56" s="36">
         <f t="shared" si="0"/>
-        <v>12214995.340839345</v>
+        <v>12215002.085954502</v>
       </c>
       <c r="E56" s="36">
         <f t="shared" si="1"/>
-        <v>3555019.8900342113</v>
+        <v>3555052.9339626911</v>
       </c>
       <c r="F56" s="36">
         <f t="shared" si="5"/>
-        <v>278266232.40062004</v>
+        <v>278266670.82628584</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4646,19 +4646,19 @@
       </c>
       <c r="C57" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D57" s="36">
         <f t="shared" si="0"/>
-        <v>12364487.10569793</v>
+        <v>12364495.093787573</v>
       </c>
       <c r="E57" s="36">
         <f t="shared" si="1"/>
-        <v>3405528.1251756274</v>
+        <v>3405559.926129621</v>
       </c>
       <c r="F57" s="36">
         <f t="shared" si="5"/>
-        <v>265901745.29492211</v>
+        <v>265902175.73249826</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4671,19 +4671,19 @@
       </c>
       <c r="C58" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D58" s="36">
         <f t="shared" si="0"/>
-        <v>12515808.4077063</v>
+        <v>12515817.668184262</v>
       </c>
       <c r="E58" s="36">
         <f t="shared" si="1"/>
-        <v>3254206.8231672565</v>
+        <v>3254237.351732933</v>
       </c>
       <c r="F58" s="36">
         <f t="shared" si="5"/>
-        <v>253385936.88721582</v>
+        <v>253386358.06431401</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4696,19 +4696,19 @@
       </c>
       <c r="C59" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D59" s="36">
         <f t="shared" si="0"/>
-        <v>12668981.637436844</v>
+        <v>12668992.200250741</v>
       </c>
       <c r="E59" s="36">
         <f t="shared" si="1"/>
-        <v>3101033.5934367119</v>
+        <v>3101062.8196664536</v>
       </c>
       <c r="F59" s="36">
         <f t="shared" si="5"/>
-        <v>240716955.24977899</v>
+        <v>240717365.86406326</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4721,19 +4721,19 @@
       </c>
       <c r="C60" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D60" s="36">
         <f t="shared" si="0"/>
-        <v>12824029.459486304</v>
+        <v>12824041.355126198</v>
       </c>
       <c r="E60" s="36">
         <f t="shared" si="1"/>
-        <v>2945985.771387253</v>
+        <v>2946013.6647909964</v>
       </c>
       <c r="F60" s="36">
         <f t="shared" si="5"/>
-        <v>227892925.79029268</v>
+        <v>227893324.50893706</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4746,19 +4746,19 @@
       </c>
       <c r="C61" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D61" s="36">
         <f t="shared" si="0"/>
-        <v>12980974.815829383</v>
+        <v>12980988.075336576</v>
       </c>
       <c r="E61" s="36">
         <f t="shared" si="1"/>
-        <v>2789040.4150441736</v>
+        <v>2789066.9445806174</v>
       </c>
       <c r="F61" s="36">
         <f t="shared" si="5"/>
-        <v>214911950.97446328</v>
+        <v>214912336.43360049</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4771,19 +4771,19 @@
       </c>
       <c r="C62" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D62" s="36">
         <f t="shared" si="0"/>
-        <v>13139840.929213412</v>
+        <v>13139855.58418937</v>
       </c>
       <c r="E62" s="36">
         <f t="shared" si="1"/>
-        <v>2630174.3016601442</v>
+        <v>2630199.4357278226</v>
       </c>
       <c r="F62" s="36">
         <f t="shared" si="5"/>
-        <v>201772110.04524988</v>
+        <v>201772480.84941113</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4796,19 +4796,19 @@
       </c>
       <c r="C63" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D63" s="36">
         <f t="shared" si="0"/>
-        <v>13300651.306594547</v>
+        <v>13300667.389209963</v>
       </c>
       <c r="E63" s="36">
         <f t="shared" si="1"/>
-        <v>2469363.9242790104</v>
+        <v>2469387.6307072309</v>
       </c>
       <c r="F63" s="36">
         <f t="shared" si="5"/>
-        <v>188471458.73865533</v>
+        <v>188471813.46020117</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4821,19 +4821,19 @@
       </c>
       <c r="C64" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D64" s="36">
         <f t="shared" si="0"/>
-        <v>13463429.742616024</v>
+        <v>13463447.285620013</v>
       </c>
       <c r="E64" s="36">
         <f t="shared" si="1"/>
-        <v>2306585.4882575334</v>
+        <v>2306607.7342971801</v>
       </c>
       <c r="F64" s="36">
         <f t="shared" si="5"/>
-        <v>175008028.9960393</v>
+        <v>175008366.17458117</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C65" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D65" s="36">
         <f t="shared" si="0"/>
-        <v>13628200.323128985</v>
+        <v>13628219.359858431</v>
       </c>
       <c r="E65" s="36">
         <f t="shared" si="1"/>
-        <v>2141814.9077445716</v>
+        <v>2141835.6600587624</v>
       </c>
       <c r="F65" s="36">
         <f t="shared" si="5"/>
-        <v>161379828.6729103</v>
+        <v>161380146.81472275</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4871,19 +4871,19 @@
       </c>
       <c r="C66" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D66" s="36">
         <f t="shared" si="0"/>
-        <v>13794987.428756393</v>
+        <v>13795007.993145425</v>
       </c>
       <c r="E66" s="36">
         <f t="shared" si="1"/>
-        <v>1975027.8021171624</v>
+        <v>1975047.0267717696</v>
       </c>
       <c r="F66" s="36">
         <f t="shared" si="5"/>
-        <v>147584841.24415392</v>
+        <v>147585138.82157731</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4896,19 +4896,19 @@
       </c>
       <c r="C67" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D67" s="36">
         <f t="shared" si="0"/>
-        <v>13963815.738500562</v>
+        <v>13963837.865090175</v>
       </c>
       <c r="E67" s="36">
         <f t="shared" si="1"/>
-        <v>1806199.4923729962</v>
+        <v>1806217.154827019</v>
       </c>
       <c r="F67" s="36">
         <f t="shared" si="5"/>
-        <v>133621025.50565335</v>
+        <v>133621300.95648713</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4921,19 +4921,19 @@
       </c>
       <c r="C68" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D68" s="36">
         <f t="shared" si="0"/>
-        <v>14134710.233394824</v>
+        <v>14134733.957342666</v>
       </c>
       <c r="E68" s="36">
         <f t="shared" si="1"/>
-        <v>1635304.9974787324</v>
+        <v>1635321.0625745279</v>
       </c>
       <c r="F68" s="36">
         <f t="shared" si="5"/>
-        <v>119486315.27225852</v>
+        <v>119486566.99914446</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4946,19 +4946,19 @@
       </c>
       <c r="C69" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D69" s="36">
         <f t="shared" si="0"/>
-        <v>14307696.200199924</v>
+        <v>14307721.5572902</v>
       </c>
       <c r="E69" s="36">
         <f t="shared" si="1"/>
-        <v>1462319.0306736326</v>
+        <v>1462333.4626269937</v>
       </c>
       <c r="F69" s="36">
         <f t="shared" si="5"/>
-        <v>105178619.07205859</v>
+        <v>105178845.44185427</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4971,19 +4971,19 @@
       </c>
       <c r="C70" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D70" s="36">
         <f t="shared" si="0"/>
-        <v>14482799.235145608</v>
+        <v>14482826.261799159</v>
       </c>
       <c r="E70" s="36">
         <f t="shared" si="1"/>
-        <v>1287215.9957279495</v>
+        <v>1287228.7581180353</v>
       </c>
       <c r="F70" s="36">
         <f t="shared" si="5"/>
-        <v>90695819.836912975</v>
+        <v>90696019.180055112</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4996,19 +4996,19 @@
       </c>
       <c r="C71" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D71" s="36">
         <f t="shared" si="0"/>
-        <v>14660045.247718029</v>
+        <v>14660073.981002552</v>
       </c>
       <c r="E71" s="36">
         <f t="shared" si="1"/>
-        <v>1109969.9831555288</v>
+        <v>1109981.0389146409</v>
       </c>
       <c r="F71" s="36">
         <f t="shared" si="5"/>
-        <v>76035774.589194953</v>
+        <v>76035945.199052557</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5021,19 +5021,19 @@
       </c>
       <c r="C72" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D72" s="36">
         <f t="shared" si="0"/>
-        <v>14839460.4644935</v>
+        <v>14839490.942133931</v>
       </c>
       <c r="E72" s="36">
         <f t="shared" si="1"/>
-        <v>930554.7663800572</v>
+        <v>930564.07778326236</v>
       </c>
       <c r="F72" s="36">
         <f t="shared" si="5"/>
-        <v>61196314.124701455</v>
+        <v>61196454.256918624</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5046,19 +5046,19 @@
       </c>
       <c r="C73" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D73" s="36">
         <f t="shared" si="0"/>
-        <v>15021071.433019165</v>
+        <v>15021103.693408206</v>
       </c>
       <c r="E73" s="36">
         <f t="shared" si="1"/>
-        <v>748943.79785439221</v>
+        <v>748951.32650898735</v>
       </c>
       <c r="F73" s="36">
         <f t="shared" si="5"/>
-        <v>46175242.691682294</v>
+        <v>46175350.563510418</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5071,19 +5071,19 @@
       </c>
       <c r="C74" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D74" s="36">
         <f t="shared" si="0"/>
-        <v>15204905.025741156</v>
+        <v>15204939.107949976</v>
       </c>
       <c r="E74" s="36">
         <f t="shared" si="1"/>
-        <v>565110.20513239969</v>
+        <v>565115.91196721699</v>
       </c>
       <c r="F74" s="36">
         <f t="shared" si="5"/>
-        <v>30970337.665941138</v>
+        <v>30970411.455560442</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5096,19 +5096,19 @@
       </c>
       <c r="C75" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D75" s="36">
         <f t="shared" si="0"/>
-        <v>15390988.443980841</v>
+        <v>15391024.387769928</v>
       </c>
       <c r="E75" s="36">
         <f t="shared" si="1"/>
-        <v>379026.78689271543</v>
+        <v>379030.6321472663</v>
       </c>
       <c r="F75" s="36">
         <f t="shared" si="5"/>
-        <v>15579349.221960297</v>
+        <v>15579387.067790514</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5121,19 +5121,19 @@
       </c>
       <c r="C76" s="36">
         <f t="shared" si="4"/>
-        <v>15770015.230873557</v>
+        <v>15770055.019917194</v>
       </c>
       <c r="D76" s="36">
         <f t="shared" si="0"/>
-        <v>15579349.221959712</v>
+        <v>15579387.067789894</v>
       </c>
       <c r="E76" s="36">
         <f t="shared" si="1"/>
-        <v>190666.00891384546</v>
+        <v>190667.95212730006</v>
       </c>
       <c r="F76" s="36">
         <f t="shared" si="5"/>
-        <v>5.8487057685852051E-7</v>
+        <v>6.2026083469390869E-7</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5159,7 +5159,7 @@
       </c>
       <c r="E79" s="39">
         <f ca="1">SUM(E83:INDIRECT(CONCATENATE("E",82+B10)))</f>
-        <v>267259953.31758338</v>
+        <v>267262224.06739432</v>
       </c>
       <c r="F79" s="43"/>
     </row>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B80" s="94">
         <f>PMT(B9,B10,B11,B12,B79)</f>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="C80" s="46"/>
       <c r="D80" s="45" t="s">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="E80" s="44">
         <f ca="1">F82+E79</f>
-        <v>934760953.31758332</v>
+        <v>934763224.06739426</v>
       </c>
       <c r="F80" s="43"/>
     </row>
@@ -5221,18 +5221,18 @@
       </c>
       <c r="C83" s="36">
         <f>B80</f>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D83" s="36">
         <f t="shared" ref="D83:D142" si="6">C83-E83</f>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="E83" s="36">
         <v>0</v>
       </c>
       <c r="F83" s="36">
         <f t="shared" ref="F83:F94" si="7">F82-D83</f>
-        <v>651921650.77804029</v>
+        <v>651921612.93221009</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5245,19 +5245,19 @@
       </c>
       <c r="C84" s="36">
         <f t="shared" ref="C84:C142" si="9">$C$83</f>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D84" s="36">
         <f t="shared" si="6"/>
-        <v>7600883.7862427244</v>
+        <v>7600860.1626913585</v>
       </c>
       <c r="E84" s="36">
         <f t="shared" ref="E84:E142" si="10">F83*$B$9</f>
-        <v>7978465.435716995</v>
+        <v>7978526.9050985407</v>
       </c>
       <c r="F84" s="36">
         <f t="shared" si="7"/>
-        <v>644320766.99179757</v>
+        <v>644320752.76951873</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5270,19 +5270,19 @@
       </c>
       <c r="C85" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D85" s="36">
         <f t="shared" si="6"/>
-        <v>7693906.2966886712</v>
+        <v>7693883.1061050026</v>
       </c>
       <c r="E85" s="36">
         <f t="shared" si="10"/>
-        <v>7885442.9252710482</v>
+        <v>7885503.9616848966</v>
       </c>
       <c r="F85" s="36">
         <f t="shared" si="7"/>
-        <v>636626860.69510889</v>
+        <v>636626869.66341376</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5295,19 +5295,19 @@
       </c>
       <c r="C86" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D86" s="36">
         <f t="shared" si="6"/>
-        <v>7788067.2520435294</v>
+        <v>7788044.5085635604</v>
       </c>
       <c r="E86" s="36">
         <f t="shared" si="10"/>
-        <v>7791281.96991619</v>
+        <v>7791342.5592263388</v>
       </c>
       <c r="F86" s="36">
         <f t="shared" si="7"/>
-        <v>628838793.4430654</v>
+        <v>628838825.15485024</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5320,19 +5320,19 @@
       </c>
       <c r="C87" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D87" s="36">
         <f t="shared" si="6"/>
-        <v>7883380.5850296486</v>
+        <v>7883358.3030705387</v>
       </c>
       <c r="E87" s="36">
         <f t="shared" si="10"/>
-        <v>7695968.6369300708</v>
+        <v>7696028.7647193605</v>
       </c>
       <c r="F87" s="36">
         <f t="shared" si="7"/>
-        <v>620955412.8580358</v>
+        <v>620955466.8517797</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5345,19 +5345,19 @@
       </c>
       <c r="C88" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D88" s="36">
         <f t="shared" si="6"/>
-        <v>7979860.3988833474</v>
+        <v>7979838.5931481756</v>
       </c>
       <c r="E88" s="36">
         <f t="shared" si="10"/>
-        <v>7599488.823076372</v>
+        <v>7599548.4746417236</v>
       </c>
       <c r="F88" s="36">
         <f t="shared" si="7"/>
-        <v>612975552.45915246</v>
+        <v>612975628.25863147</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5370,19 +5370,19 @@
       </c>
       <c r="C89" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D89" s="36">
         <f t="shared" si="6"/>
-        <v>8077520.9694417166</v>
+        <v>8077499.654924321</v>
       </c>
       <c r="E89" s="36">
         <f t="shared" si="10"/>
-        <v>7501828.2525180029</v>
+        <v>7501887.4128655782</v>
       </c>
       <c r="F89" s="36">
         <f t="shared" si="7"/>
-        <v>604898031.48971069</v>
+        <v>604898128.60370719</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5395,19 +5395,19 @@
       </c>
       <c r="C90" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D90" s="36">
         <f t="shared" si="6"/>
-        <v>8176376.7472549817</v>
+        <v>8176355.9392448701</v>
       </c>
       <c r="E90" s="36">
         <f t="shared" si="10"/>
-        <v>7402972.4747047378</v>
+        <v>7403031.1285450291</v>
       </c>
       <c r="F90" s="36">
         <f t="shared" si="7"/>
-        <v>596721654.74245572</v>
+        <v>596721772.66446233</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5420,19 +5420,19 @@
       </c>
       <c r="C91" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D91" s="36">
         <f t="shared" si="6"/>
-        <v>8276442.3597246986</v>
+        <v>8276422.0738120498</v>
       </c>
       <c r="E91" s="36">
         <f t="shared" si="10"/>
-        <v>7302906.8622350208</v>
+        <v>7302964.9939778494</v>
       </c>
       <c r="F91" s="36">
         <f t="shared" si="7"/>
-        <v>588445212.38273108</v>
+        <v>588445350.59065032</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5445,19 +5445,19 @@
       </c>
       <c r="C92" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D92" s="36">
         <f t="shared" si="6"/>
-        <v>8377732.6132681407</v>
+        <v>8377712.8653488643</v>
       </c>
       <c r="E92" s="36">
         <f t="shared" si="10"/>
-        <v>7201616.6086915787</v>
+        <v>7201674.2024410348</v>
       </c>
       <c r="F92" s="36">
         <f t="shared" si="7"/>
-        <v>580067479.76946294</v>
+        <v>580067637.7253015</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5470,19 +5470,19 @@
       </c>
       <c r="C93" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D93" s="36">
         <f t="shared" si="6"/>
-        <v>8480262.4955091532</v>
+        <v>8480243.3017900418</v>
       </c>
       <c r="E93" s="36">
         <f t="shared" si="10"/>
-        <v>7099086.7264505662</v>
+        <v>7099143.7659998573</v>
       </c>
       <c r="F93" s="36">
         <f t="shared" si="7"/>
-        <v>571587217.2739538</v>
+        <v>571587394.42351151</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5495,19 +5495,19 @@
       </c>
       <c r="C94" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D94" s="36">
         <f t="shared" si="6"/>
-        <v>8584047.1774958279</v>
+        <v>8584028.5544997863</v>
       </c>
       <c r="E94" s="36">
         <f t="shared" si="10"/>
-        <v>6995302.0444638915</v>
+        <v>6995358.5132901138</v>
       </c>
       <c r="F94" s="36">
         <f t="shared" si="7"/>
-        <v>563003170.09645796</v>
+        <v>563003365.86901176</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5520,19 +5520,19 @@
       </c>
       <c r="C95" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D95" s="36">
         <f t="shared" si="6"/>
-        <v>8689102.0159453228</v>
+        <v>8689083.980516674</v>
       </c>
       <c r="E95" s="36">
         <f t="shared" si="10"/>
-        <v>6890247.2060143976</v>
+        <v>6890303.0872732252</v>
       </c>
       <c r="F95" s="36">
         <f t="shared" ref="F95:F142" si="11">F94-D95</f>
-        <v>554314068.08051264</v>
+        <v>554314281.88849509</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5545,19 +5545,19 @@
       </c>
       <c r="C96" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D96" s="36">
         <f t="shared" si="6"/>
-        <v>8795442.5555161461</v>
+        <v>8795425.1248260308</v>
       </c>
       <c r="E96" s="36">
         <f t="shared" si="10"/>
-        <v>6783906.6664435742</v>
+        <v>6783961.9429638684</v>
       </c>
       <c r="F96" s="36">
         <f t="shared" si="11"/>
-        <v>545518625.52499652</v>
+        <v>545518856.76366901</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5570,19 +5570,19 @@
       </c>
       <c r="C97" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D97" s="36">
         <f t="shared" si="6"/>
-        <v>8903084.5311082583</v>
+        <v>8903067.7226601075</v>
       </c>
       <c r="E97" s="36">
         <f t="shared" si="10"/>
-        <v>6676264.6908514611</v>
+        <v>6676319.3451297916</v>
       </c>
       <c r="F97" s="36">
         <f t="shared" si="11"/>
-        <v>536615540.99388826</v>
+        <v>536615789.04100889</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5595,19 +5595,19 @@
       </c>
       <c r="C98" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D98" s="36">
         <f t="shared" si="6"/>
-        <v>9012043.8701913208</v>
+        <v>9012027.7018264141</v>
       </c>
       <c r="E98" s="36">
         <f t="shared" si="10"/>
-        <v>6567305.3517683996</v>
+        <v>6567359.3659634851</v>
       </c>
       <c r="F98" s="36">
         <f t="shared" si="11"/>
-        <v>527603497.12369692</v>
+        <v>527603761.3391825</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5620,19 +5620,19 @@
       </c>
       <c r="C99" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D99" s="36">
         <f t="shared" si="6"/>
-        <v>9122336.6951614283</v>
+        <v>9122321.1850645468</v>
       </c>
       <c r="E99" s="36">
         <f t="shared" si="10"/>
-        <v>6457012.5267982911</v>
+        <v>6457065.8827253524</v>
       </c>
       <c r="F99" s="36">
         <f t="shared" si="11"/>
-        <v>518481160.42853552</v>
+        <v>518481440.15411794</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5645,19 +5645,19 @@
       </c>
       <c r="C100" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D100" s="36">
         <f t="shared" si="6"/>
-        <v>9233979.3257267065</v>
+        <v>9233964.4924318641</v>
       </c>
       <c r="E100" s="36">
         <f t="shared" si="10"/>
-        <v>6345369.8962330138</v>
+        <v>6345422.575358035</v>
       </c>
       <c r="F100" s="36">
         <f t="shared" si="11"/>
-        <v>509247181.10280883</v>
+        <v>509247475.66168606</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5670,19 +5670,19 @@
       </c>
       <c r="C101" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D101" s="36">
         <f t="shared" si="6"/>
-        <v>9346988.2813220751</v>
+        <v>9346974.1437183507</v>
       </c>
       <c r="E101" s="36">
         <f t="shared" si="10"/>
-        <v>6232360.9406376444</v>
+        <v>6232412.9240715494</v>
       </c>
       <c r="F101" s="36">
         <f t="shared" si="11"/>
-        <v>499900192.82148677</v>
+        <v>499900501.5179677</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5695,19 +5695,19 @@
       </c>
       <c r="C102" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D102" s="36">
         <f t="shared" si="6"/>
-        <v>9461380.2835535984</v>
+        <v>9461366.8608910386</v>
       </c>
       <c r="E102" s="36">
         <f t="shared" si="10"/>
-        <v>6117968.938406121</v>
+        <v>6118020.2068988606</v>
       </c>
       <c r="F102" s="36">
         <f t="shared" si="11"/>
-        <v>490438812.53793317</v>
+        <v>490439134.65707666</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5720,19 +5720,19 @@
       </c>
       <c r="C103" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D103" s="36">
         <f t="shared" si="6"/>
-        <v>9577172.258672718</v>
+        <v>9577159.5705683529</v>
       </c>
       <c r="E103" s="36">
         <f t="shared" si="10"/>
-        <v>6002176.9632870005</v>
+        <v>6002227.4972215453</v>
       </c>
       <c r="F103" s="36">
         <f t="shared" si="11"/>
-        <v>480861640.27926046</v>
+        <v>480861975.08650827</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -5745,19 +5745,19 @@
       </c>
       <c r="C104" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D104" s="36">
         <f t="shared" si="6"/>
-        <v>9694381.3400807902</v>
+        <v>9694369.4065247327</v>
       </c>
       <c r="E104" s="36">
         <f t="shared" si="10"/>
-        <v>5884967.8818789292</v>
+        <v>5885017.6612651665</v>
       </c>
       <c r="F104" s="36">
         <f t="shared" si="11"/>
-        <v>471167258.93917966</v>
+        <v>471167605.67998356</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C105" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D105" s="36">
         <f t="shared" si="6"/>
-        <v>9813024.8708642609</v>
+        <v>9813013.7122258916</v>
       </c>
       <c r="E105" s="36">
         <f t="shared" si="10"/>
-        <v>5766324.3510954594</v>
+        <v>5766373.3555640085</v>
       </c>
       <c r="F105" s="36">
         <f t="shared" si="11"/>
-        <v>461354234.06831539</v>
+        <v>461354591.96775764</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5795,19 +5795,19 @@
       </c>
       <c r="C106" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D106" s="36">
         <f t="shared" si="6"/>
-        <v>9933120.4063608684</v>
+        <v>9933110.0433951356</v>
       </c>
       <c r="E106" s="36">
         <f t="shared" si="10"/>
-        <v>5646228.8155988511</v>
+        <v>5646277.0243947627</v>
       </c>
       <c r="F106" s="36">
         <f t="shared" si="11"/>
-        <v>451421113.66195452</v>
+        <v>451421481.92436248</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5820,19 +5820,19 @@
       </c>
       <c r="C107" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D107" s="36">
         <f t="shared" si="6"/>
-        <v>10054685.716757268</v>
+        <v>10054676.170611069</v>
       </c>
       <c r="E107" s="36">
         <f t="shared" si="10"/>
-        <v>5524663.5052024527</v>
+        <v>5524710.8971788306</v>
       </c>
       <c r="F107" s="36">
         <f t="shared" si="11"/>
-        <v>441366427.94519722</v>
+        <v>441366805.7537514</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5845,19 +5845,19 @@
       </c>
       <c r="C108" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D108" s="36">
         <f t="shared" si="6"/>
-        <v>10177738.789718419</v>
+        <v>10177730.081937086</v>
       </c>
       <c r="E108" s="36">
         <f t="shared" si="10"/>
-        <v>5401610.4322412992</v>
+        <v>5401656.9858528143</v>
       </c>
       <c r="F108" s="36">
         <f t="shared" si="11"/>
-        <v>431188689.15547884</v>
+        <v>431189075.67181432</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -5870,19 +5870,19 @@
       </c>
       <c r="C109" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D109" s="36">
         <f t="shared" si="6"/>
-        <v>10302297.833049182</v>
+        <v>10302289.985583061</v>
       </c>
       <c r="E109" s="36">
         <f t="shared" si="10"/>
-        <v>5277051.3889105367</v>
+        <v>5277097.0822068378</v>
       </c>
       <c r="F109" s="36">
         <f t="shared" si="11"/>
-        <v>420886391.32242966</v>
+        <v>420886785.68623126</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -5895,19 +5895,19 @@
       </c>
       <c r="C110" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D110" s="36">
         <f t="shared" si="6"/>
-        <v>10428381.277388465</v>
+        <v>10428374.312599612</v>
       </c>
       <c r="E110" s="36">
         <f t="shared" si="10"/>
-        <v>5150967.9445712557</v>
+        <v>5151012.7551902868</v>
       </c>
       <c r="F110" s="36">
         <f t="shared" si="11"/>
-        <v>410458010.0450412</v>
+        <v>410458411.37363166</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -5920,19 +5920,19 @@
       </c>
       <c r="C111" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D111" s="36">
         <f t="shared" si="6"/>
-        <v>10556007.778936345</v>
+        <v>10556001.719605315</v>
       </c>
       <c r="E111" s="36">
         <f t="shared" si="10"/>
-        <v>5023341.4430233734</v>
+        <v>5023385.3481845828</v>
       </c>
       <c r="F111" s="36">
         <f t="shared" si="11"/>
-        <v>399902002.26610488</v>
+        <v>399902409.65402633</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -5945,19 +5945,19 @@
       </c>
       <c r="C112" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D112" s="36">
         <f t="shared" si="6"/>
-        <v>10685196.222214598</v>
+        <v>10685191.091547331</v>
       </c>
       <c r="E112" s="36">
         <f t="shared" si="10"/>
-        <v>4894152.9997451212</v>
+        <v>4894195.9762425683</v>
       </c>
       <c r="F112" s="36">
         <f t="shared" si="11"/>
-        <v>389216806.0438903</v>
+        <v>389217218.56247902</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -5970,19 +5970,19 @@
       </c>
       <c r="C113" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D113" s="36">
         <f t="shared" si="6"/>
-        <v>10815965.722860955</v>
+        <v>10815961.544495782</v>
       </c>
       <c r="E113" s="36">
         <f t="shared" si="10"/>
-        <v>4763383.4990987647</v>
+        <v>4763425.5232941173</v>
       </c>
       <c r="F113" s="36">
         <f t="shared" si="11"/>
-        <v>378400840.32102937</v>
+        <v>378401257.01798326</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -5995,19 +5995,19 @@
       </c>
       <c r="C114" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D114" s="36">
         <f t="shared" si="6"/>
-        <v>10948335.630457606</v>
+        <v>10948332.428472355</v>
       </c>
       <c r="E114" s="36">
         <f t="shared" si="10"/>
-        <v>4631013.5915021133</v>
+        <v>4631054.6393175432</v>
       </c>
       <c r="F114" s="36">
         <f t="shared" si="11"/>
-        <v>367452504.69057178</v>
+        <v>367452924.58951092</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6020,19 +6020,19 @@
       </c>
       <c r="C115" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D115" s="36">
         <f t="shared" si="6"/>
-        <v>11082325.531394299</v>
+        <v>11082323.330313515</v>
       </c>
       <c r="E115" s="36">
         <f t="shared" si="10"/>
-        <v>4497023.6905654203</v>
+        <v>4497063.7374763852</v>
       </c>
       <c r="F115" s="36">
         <f t="shared" si="11"/>
-        <v>356370179.15917748</v>
+        <v>356370601.25919741</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -6045,19 +6045,19 @@
       </c>
       <c r="C116" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D116" s="36">
         <f t="shared" si="6"/>
-        <v>11217955.251766477</v>
+        <v>11217954.076568741</v>
       </c>
       <c r="E116" s="36">
         <f t="shared" si="10"/>
-        <v>4361393.9701932436</v>
+        <v>4361432.9912211569</v>
       </c>
       <c r="F116" s="36">
         <f t="shared" si="11"/>
-        <v>345152223.90741098</v>
+        <v>345152647.18262869</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -6070,19 +6070,19 @@
       </c>
       <c r="C117" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D117" s="36">
         <f t="shared" si="6"/>
-        <v>11355244.860308886</v>
+        <v>11355244.736434272</v>
       </c>
       <c r="E117" s="36">
         <f t="shared" si="10"/>
-        <v>4224104.3616508339</v>
+        <v>4224142.3313556276</v>
       </c>
       <c r="F117" s="36">
         <f t="shared" si="11"/>
-        <v>333796979.04710209</v>
+        <v>333797402.44619441</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -6095,19 +6095,19 @@
       </c>
       <c r="C118" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D118" s="36">
         <f t="shared" si="6"/>
-        <v>11494214.671365097</v>
+        <v>11494215.624722708</v>
       </c>
       <c r="E118" s="36">
         <f t="shared" si="10"/>
-        <v>4085134.5505946223</v>
+        <v>4085171.4430671912</v>
       </c>
       <c r="F118" s="36">
         <f t="shared" si="11"/>
-        <v>322302764.37573701</v>
+        <v>322303186.82147169</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -6120,19 +6120,19 @@
       </c>
       <c r="C119" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D119" s="36">
         <f t="shared" si="6"/>
-        <v>11634885.24789335</v>
+        <v>11634887.304869</v>
       </c>
       <c r="E119" s="36">
         <f t="shared" si="10"/>
-        <v>3944463.9740663692</v>
+        <v>3944499.7629208998</v>
       </c>
       <c r="F119" s="36">
         <f t="shared" si="11"/>
-        <v>310667879.12784368</v>
+        <v>310668299.51660269</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -6145,19 +6145,19 @@
       </c>
       <c r="C120" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D120" s="36">
         <f t="shared" si="6"/>
-        <v>11777277.404509202</v>
+        <v>11777280.591973195</v>
       </c>
       <c r="E120" s="36">
         <f t="shared" si="10"/>
-        <v>3802071.8174505187</v>
+        <v>3802106.4758167039</v>
       </c>
       <c r="F120" s="36">
         <f t="shared" si="11"/>
-        <v>298890601.72333449</v>
+        <v>298891018.92462951</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -6170,19 +6170,19 @@
       </c>
       <c r="C121" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D121" s="36">
         <f t="shared" si="6"/>
-        <v>11921412.210565396</v>
+        <v>11921416.555880446</v>
       </c>
       <c r="E121" s="36">
         <f t="shared" si="10"/>
-        <v>3657937.0113943238</v>
+        <v>3657970.5119094541</v>
       </c>
       <c r="F121" s="36">
         <f t="shared" si="11"/>
-        <v>286969189.5127691</v>
+        <v>286969602.36874908</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -6195,19 +6195,19 @@
       </c>
       <c r="C122" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D122" s="36">
         <f t="shared" si="6"/>
-        <v>12067310.993269445</v>
+        <v>12067316.524298687</v>
       </c>
       <c r="E122" s="36">
         <f t="shared" si="10"/>
-        <v>3512038.2286902745</v>
+        <v>3512070.5434912117</v>
       </c>
       <c r="F122" s="36">
         <f t="shared" si="11"/>
-        <v>274901878.51949966</v>
+        <v>274902285.84445041</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6220,19 +6220,19 @@
       </c>
       <c r="C123" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D123" s="36">
         <f t="shared" si="6"/>
-        <v>12214995.340839347</v>
+        <v>12215002.0859545</v>
       </c>
       <c r="E123" s="36">
         <f t="shared" si="10"/>
-        <v>3364353.881120373</v>
+        <v>3364384.9818353984</v>
       </c>
       <c r="F123" s="36">
         <f t="shared" si="11"/>
-        <v>262686883.1786603</v>
+        <v>262687283.75849593</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6245,19 +6245,19 @@
       </c>
       <c r="C124" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D124" s="36">
         <f t="shared" si="6"/>
-        <v>12364487.10569793</v>
+        <v>12364495.093787571</v>
       </c>
       <c r="E124" s="36">
         <f t="shared" si="10"/>
-        <v>3214862.1162617886</v>
+        <v>3214891.9740023282</v>
       </c>
       <c r="F124" s="36">
         <f t="shared" si="11"/>
-        <v>250322396.07296237</v>
+        <v>250322788.66470835</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6270,19 +6270,19 @@
       </c>
       <c r="C125" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D125" s="36">
         <f t="shared" si="6"/>
-        <v>12515808.407706302</v>
+        <v>12515817.668184258</v>
       </c>
       <c r="E125" s="36">
         <f t="shared" si="10"/>
-        <v>3063540.8142534178</v>
+        <v>3063569.3996056402</v>
       </c>
       <c r="F125" s="36">
         <f t="shared" si="11"/>
-        <v>237806587.66525608</v>
+        <v>237806970.9965241</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6295,19 +6295,19 @@
       </c>
       <c r="C126" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D126" s="36">
         <f t="shared" si="6"/>
-        <v>12668981.637436846</v>
+        <v>12668992.200250737</v>
       </c>
       <c r="E126" s="36">
         <f t="shared" si="10"/>
-        <v>2910367.5845228732</v>
+        <v>2910394.8675391609</v>
       </c>
       <c r="F126" s="36">
         <f t="shared" si="11"/>
-        <v>225137606.02781925</v>
+        <v>225137978.79627335</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6320,19 +6320,19 @@
       </c>
       <c r="C127" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D127" s="36">
         <f t="shared" si="6"/>
-        <v>12824029.459486306</v>
+        <v>12824041.355126195</v>
       </c>
       <c r="E127" s="36">
         <f t="shared" si="10"/>
-        <v>2755319.7624734142</v>
+        <v>2755345.7126637036</v>
       </c>
       <c r="F127" s="36">
         <f t="shared" si="11"/>
-        <v>212313576.56833294</v>
+        <v>212313937.44114715</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -6345,19 +6345,19 @@
       </c>
       <c r="C128" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D128" s="36">
         <f t="shared" si="6"/>
-        <v>12980974.815829385</v>
+        <v>12980988.075336576</v>
       </c>
       <c r="E128" s="36">
         <f t="shared" si="10"/>
-        <v>2598374.4061303348</v>
+        <v>2598398.9924533246</v>
       </c>
       <c r="F128" s="36">
         <f t="shared" si="11"/>
-        <v>199332601.75250354</v>
+        <v>199332949.36581057</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6370,19 +6370,19 @@
       </c>
       <c r="C129" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D129" s="36">
         <f t="shared" si="6"/>
-        <v>13139840.929213414</v>
+        <v>13139855.58418937</v>
       </c>
       <c r="E129" s="36">
         <f t="shared" si="10"/>
-        <v>2439508.2927463059</v>
+        <v>2439531.4836005298</v>
       </c>
       <c r="F129" s="36">
         <f t="shared" si="11"/>
-        <v>186192760.82329014</v>
+        <v>186193093.78162122</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6395,19 +6395,19 @@
       </c>
       <c r="C130" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D130" s="36">
         <f t="shared" si="6"/>
-        <v>13300651.306594547</v>
+        <v>13300667.389209962</v>
       </c>
       <c r="E130" s="36">
         <f t="shared" si="10"/>
-        <v>2278697.9153651716</v>
+        <v>2278719.6785799381</v>
       </c>
       <c r="F130" s="36">
         <f t="shared" si="11"/>
-        <v>172892109.51669559</v>
+        <v>172892426.39241126</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6420,19 +6420,19 @@
       </c>
       <c r="C131" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D131" s="36">
         <f t="shared" si="6"/>
-        <v>13463429.742616024</v>
+        <v>13463447.285620011</v>
       </c>
       <c r="E131" s="36">
         <f t="shared" si="10"/>
-        <v>2115919.4793436946</v>
+        <v>2115939.7821698873</v>
       </c>
       <c r="F131" s="36">
         <f t="shared" si="11"/>
-        <v>159428679.77407956</v>
+        <v>159428979.10679126</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6445,19 +6445,19 @@
       </c>
       <c r="C132" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D132" s="36">
         <f t="shared" si="6"/>
-        <v>13628200.323128987</v>
+        <v>13628219.359858429</v>
       </c>
       <c r="E132" s="36">
         <f t="shared" si="10"/>
-        <v>1951148.8988307328</v>
+        <v>1951167.7079314697</v>
       </c>
       <c r="F132" s="36">
         <f t="shared" si="11"/>
-        <v>145800479.45095056</v>
+        <v>145800759.74693283</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6470,19 +6470,19 @@
       </c>
       <c r="C133" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D133" s="36">
         <f t="shared" si="6"/>
-        <v>13794987.428756395</v>
+        <v>13795007.993145423</v>
       </c>
       <c r="E133" s="36">
         <f t="shared" si="10"/>
-        <v>1784361.7932033238</v>
+        <v>1784379.0746444769</v>
       </c>
       <c r="F133" s="36">
         <f t="shared" si="11"/>
-        <v>132005492.02219416</v>
+        <v>132005751.75378741</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6495,19 +6495,19 @@
       </c>
       <c r="C134" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D134" s="36">
         <f t="shared" si="6"/>
-        <v>13963815.738500562</v>
+        <v>13963837.865090173</v>
       </c>
       <c r="E134" s="36">
         <f t="shared" si="10"/>
-        <v>1615533.4834591572</v>
+        <v>1615549.2026997264</v>
       </c>
       <c r="F134" s="36">
         <f t="shared" si="11"/>
-        <v>118041676.2836936</v>
+        <v>118041913.88869724</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6520,19 +6520,19 @@
       </c>
       <c r="C135" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D135" s="36">
         <f t="shared" si="6"/>
-        <v>14134710.233394826</v>
+        <v>14134733.957342664</v>
       </c>
       <c r="E135" s="36">
         <f t="shared" si="10"/>
-        <v>1444638.9885648936</v>
+        <v>1444653.1104472354</v>
       </c>
       <c r="F135" s="36">
         <f t="shared" si="11"/>
-        <v>103906966.05029877</v>
+        <v>103907179.93135457</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6545,19 +6545,19 @@
       </c>
       <c r="C136" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D136" s="36">
         <f t="shared" si="6"/>
-        <v>14307696.200199926</v>
+        <v>14307721.557290198</v>
       </c>
       <c r="E136" s="36">
         <f t="shared" si="10"/>
-        <v>1271653.0217597936</v>
+        <v>1271665.5104997011</v>
       </c>
       <c r="F136" s="36">
         <f t="shared" si="11"/>
-        <v>89599269.850098833</v>
+        <v>89599458.374064371</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6570,19 +6570,19 @@
       </c>
       <c r="C137" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D137" s="36">
         <f t="shared" si="6"/>
-        <v>14482799.235145608</v>
+        <v>14482826.261799157</v>
       </c>
       <c r="E137" s="36">
         <f t="shared" si="10"/>
-        <v>1096549.9868141108</v>
+        <v>1096560.8059907428</v>
       </c>
       <c r="F137" s="36">
         <f t="shared" si="11"/>
-        <v>75116470.61495322</v>
+        <v>75116632.112265214</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6595,19 +6595,19 @@
       </c>
       <c r="C138" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D138" s="36">
         <f t="shared" si="6"/>
-        <v>14660045.247718029</v>
+        <v>14660073.981002551</v>
       </c>
       <c r="E138" s="36">
         <f t="shared" si="10"/>
-        <v>919303.97424169001</v>
+        <v>919313.0867873485</v>
       </c>
       <c r="F138" s="36">
         <f t="shared" si="11"/>
-        <v>60456425.367235191</v>
+        <v>60456558.13126266</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6620,19 +6620,19 @@
       </c>
       <c r="C139" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D139" s="36">
         <f t="shared" si="6"/>
-        <v>14839460.464493502</v>
+        <v>14839490.94213393</v>
       </c>
       <c r="E139" s="36">
         <f t="shared" si="10"/>
-        <v>739888.75746621832</v>
+        <v>739896.12565596984</v>
       </c>
       <c r="F139" s="36">
         <f t="shared" si="11"/>
-        <v>45616964.902741686</v>
+        <v>45617067.189128727</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6645,19 +6645,19 @@
       </c>
       <c r="C140" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D140" s="36">
         <f t="shared" si="6"/>
-        <v>15021071.433019167</v>
+        <v>15021103.693408204</v>
       </c>
       <c r="E140" s="36">
         <f t="shared" si="10"/>
-        <v>558277.7889405532</v>
+        <v>558283.37438169483</v>
       </c>
       <c r="F140" s="36">
         <f t="shared" si="11"/>
-        <v>30595893.469722517</v>
+        <v>30595963.495720521</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -6670,19 +6670,19 @@
       </c>
       <c r="C141" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D141" s="36">
         <f t="shared" si="6"/>
-        <v>15204905.025741158</v>
+        <v>15204939.107949974</v>
       </c>
       <c r="E141" s="36">
         <f t="shared" si="10"/>
-        <v>374444.19621856051</v>
+        <v>374447.95983992447</v>
       </c>
       <c r="F141" s="36">
         <f t="shared" si="11"/>
-        <v>15390988.443981359</v>
+        <v>15391024.387770547</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -6695,19 +6695,19 @@
       </c>
       <c r="C142" s="36">
         <f t="shared" si="9"/>
-        <v>15579349.221959719</v>
+        <v>15579387.067789899</v>
       </c>
       <c r="D142" s="36">
         <f t="shared" si="6"/>
-        <v>15390988.443980843</v>
+        <v>15391024.387769924</v>
       </c>
       <c r="E142" s="36">
         <f t="shared" si="10"/>
-        <v>188360.77797887629</v>
+        <v>188362.68001997381</v>
       </c>
       <c r="F142" s="36">
         <f t="shared" si="11"/>
-        <v>5.159527063369751E-7</v>
+        <v>6.2212347984313965E-7</v>
       </c>
     </row>
     <row r="144" spans="1:6" s="42" customFormat="1" ht="57" customHeight="1">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="E147" s="43">
         <f ca="1">SUM(E151:INDIRECT(CONCATENATE("E",150+B10)))</f>
-        <v>288097859.33309495</v>
+        <v>288100108.04605484</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -6749,14 +6749,14 @@
       </c>
       <c r="B148" s="94">
         <f ca="1">PMT(B9,B10-B146,-INDIRECT(CONCATENATE("F",150+B146)),0,0)</f>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D148" s="78" t="s">
         <v>70</v>
       </c>
       <c r="E148" s="43">
         <f ca="1">F150+E147</f>
-        <v>955598859.33309495</v>
+        <v>955601108.04605484</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -6875,19 +6875,19 @@
       </c>
       <c r="C154" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D154" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>8165760.824370835</v>
+        <v>8165736.862880392</v>
       </c>
       <c r="E154" s="77">
         <f t="shared" si="15"/>
-        <v>8169131.4446308333</v>
+        <v>8169194.8572258335</v>
       </c>
       <c r="F154" s="77">
         <f ca="1">F153-D154</f>
-        <v>659335239.17562914</v>
+        <v>659335263.13711965</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -6900,19 +6900,19 @@
       </c>
       <c r="C155" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D155" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>8265696.5151333995</v>
+        <v>8265673.0361381127</v>
       </c>
       <c r="E155" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>8069195.7538682688</v>
+        <v>8069258.6839681128</v>
       </c>
       <c r="F155" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>651069542.66049576</v>
+        <v>651069590.10098159</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -6925,19 +6925,19 @@
       </c>
       <c r="C156" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D156" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>8366855.2569383578</v>
+        <v>8366832.2758371234</v>
       </c>
       <c r="E156" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>7968037.0120633105</v>
+        <v>7968099.4442691021</v>
       </c>
       <c r="F156" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>642702687.40355742</v>
+        <v>642702757.82514453</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -6950,19 +6950,19 @@
       </c>
       <c r="C157" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D157" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>8469252.0179501474</v>
+        <v>8469229.5504465085</v>
       </c>
       <c r="E157" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>7865640.2510515219</v>
+        <v>7865702.169659717</v>
       </c>
       <c r="F157" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>634233435.38560724</v>
+        <v>634233528.27469802</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -6975,19 +6975,19 @@
       </c>
       <c r="C158" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D158" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>8572901.949519299</v>
+        <v>8572880.0116266012</v>
       </c>
       <c r="E158" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>7761990.3194823703</v>
+        <v>7762051.7084796252</v>
       </c>
       <c r="F158" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>625660533.43608797</v>
+        <v>625660648.26307142</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -7000,19 +7000,19 @@
       </c>
       <c r="C159" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D159" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>8677820.3884243406</v>
+        <v>8677798.996470958</v>
       </c>
       <c r="E159" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>7657071.8805773277</v>
+        <v>7657132.7236352665</v>
       </c>
       <c r="F159" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>616982713.04766357</v>
+        <v>616982849.26660049</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -7025,19 +7025,19 @@
       </c>
       <c r="C160" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D160" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>8784022.859141143</v>
+        <v>8784002.0297757927</v>
       </c>
       <c r="E160" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>7550869.4098605253</v>
+        <v>7550929.6903304327</v>
       </c>
       <c r="F160" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>608198690.18852246</v>
+        <v>608198847.23682475</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -7050,19 +7050,19 @@
       </c>
       <c r="C161" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D161" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>8891525.0761400163</v>
+        <v>8891504.826337155</v>
       </c>
       <c r="E161" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>7443367.1928616511</v>
+        <v>7443426.8937690714</v>
       </c>
       <c r="F161" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>599307165.11238241</v>
+        <v>599307342.41048765</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -7075,19 +7075,19 @@
       </c>
       <c r="C162" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D162" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>9000342.9462109525</v>
+        <v>9000323.2932762466</v>
       </c>
       <c r="E162" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>7334549.3227907158</v>
+        <v>7334608.4268299779</v>
       </c>
       <c r="F162" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>590306822.16617143</v>
+        <v>590307019.11721146</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -7100,19 +7100,19 @@
       </c>
       <c r="C163" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D163" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>9110492.570817288</v>
+        <v>9110473.5323931947</v>
       </c>
       <c r="E163" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>7224399.6981843803</v>
+        <v>7224458.1877130307</v>
       </c>
       <c r="F163" s="77">
         <f t="shared" ref="F163:F210" ca="1" si="17">F162-D163</f>
-        <v>581196329.5953542</v>
+        <v>581196545.58481824</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -7125,19 +7125,19 @@
       </c>
       <c r="C164" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D164" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>9221990.248478204</v>
+        <v>9221971.8425496127</v>
       </c>
       <c r="E164" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>7112902.0205234652</v>
+        <v>7112959.8775566127</v>
       </c>
       <c r="F164" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>571974339.34687603</v>
+        <v>571974573.74226868</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -7150,19 +7150,19 @@
       </c>
       <c r="C165" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D165" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>9334852.4771803655</v>
+        <v>9334834.722080335</v>
       </c>
       <c r="E165" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>7000039.7918213028</v>
+        <v>7000096.9980258895</v>
       </c>
       <c r="F165" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>562639486.86969566</v>
+        <v>562639739.02018833</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -7175,19 +7175,19 @@
       </c>
       <c r="C166" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D166" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>9449095.9568190835</v>
+        <v>9449078.8712346777</v>
       </c>
       <c r="E166" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>6885796.3121825848</v>
+        <v>6885852.8488715487</v>
       </c>
       <c r="F166" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>553190390.91287661</v>
+        <v>553190660.14895368</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -7200,19 +7200,19 @@
       </c>
       <c r="C167" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D167" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>9564737.5916693453</v>
+        <v>9564721.1946475431</v>
       </c>
       <c r="E167" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>6770154.677332323</v>
+        <v>6770210.5254586823</v>
       </c>
       <c r="F167" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>543625653.32120728</v>
+        <v>543625938.95430613</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -7225,19 +7225,19 @@
       </c>
       <c r="C168" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D168" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>9681794.4928870946</v>
+        <v>9681778.8038408086</v>
       </c>
       <c r="E168" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>6653097.7761145746</v>
+        <v>6653152.9162654178</v>
       </c>
       <c r="F168" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>533943858.82832021</v>
+        <v>533944160.15046531</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -7250,19 +7250,19 @@
       </c>
       <c r="C169" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D169" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>9800283.9810411148</v>
+        <v>9800269.0197552927</v>
       </c>
       <c r="E169" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>6534608.2879605526</v>
+        <v>6534662.7003509328</v>
       </c>
       <c r="F169" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>524143574.84727907</v>
+        <v>524143891.13071001</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -7275,19 +7275,19 @@
       </c>
       <c r="C170" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D170" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>9920223.5886759125</v>
+        <v>9920209.3753137328</v>
       </c>
       <c r="E170" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>6414668.6803257558</v>
+        <v>6414722.3447924918</v>
       </c>
       <c r="F170" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>514223351.25860316</v>
+        <v>514223681.75539625</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -7300,19 +7300,19 @@
       </c>
       <c r="C171" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D171" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>10041631.062905945</v>
+        <v>10041617.618015118</v>
       </c>
       <c r="E171" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>6293261.2060957225</v>
+        <v>6293314.1020911075</v>
       </c>
       <c r="F171" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>504181720.19569719</v>
+        <v>504182064.13738114</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -7325,19 +7325,19 @@
       </c>
       <c r="C172" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D172" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>10164524.36804162</v>
+        <v>10164511.712560769</v>
       </c>
       <c r="E172" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>6170367.9009600496</v>
+        <v>6170420.0075454554</v>
       </c>
       <c r="F172" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>494017195.82765555</v>
+        <v>494017552.42482036</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -7350,19 +7350,19 @@
       </c>
       <c r="C173" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D173" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>10288921.688247409</v>
+        <v>10288909.843512578</v>
       </c>
       <c r="E173" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>6045970.5807542596</v>
+        <v>6046021.8765936475</v>
       </c>
       <c r="F173" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>483728274.13940817</v>
+        <v>483728642.58130777</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -7375,19 +7375,19 @@
       </c>
       <c r="C174" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D174" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>10414841.430232523</v>
+        <v>10414830.417983752</v>
       </c>
       <c r="E174" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>5920050.8387691453</v>
+        <v>5920101.3021224728</v>
       </c>
       <c r="F174" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>473313432.70917565</v>
+        <v>473313812.163324</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -7400,19 +7400,19 @@
       </c>
       <c r="C175" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D175" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>10542302.225974487</v>
+        <v>10542292.068362512</v>
       </c>
       <c r="E175" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>5792590.0430271812</v>
+        <v>5792639.6517437138</v>
       </c>
       <c r="F175" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>462771130.48320115</v>
+        <v>462771520.09496146</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -7425,19 +7425,19 @@
       </c>
       <c r="C176" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D176" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>10671322.935476061</v>
+        <v>10671313.655069109</v>
       </c>
       <c r="E176" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>5663569.3335256074</v>
+        <v>5663618.0650371173</v>
       </c>
       <c r="F176" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>452099807.54772508</v>
+        <v>452100206.43989235</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -7450,19 +7450,19 @@
       </c>
       <c r="C177" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D177" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>10801922.649555901</v>
+        <v>10801914.269346591</v>
       </c>
       <c r="E177" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>5532969.6194457673</v>
+        <v>5533017.4507596334</v>
       </c>
       <c r="F177" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>441297884.89816916</v>
+        <v>441298292.17054576</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -7475,19 +7475,19 @@
       </c>
       <c r="C178" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D178" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>10934120.692673376</v>
+        <v>10934113.236085728</v>
       </c>
       <c r="E178" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>5400771.5763282925</v>
+        <v>5400818.4840204967</v>
       </c>
       <c r="F178" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>430363764.20549577</v>
+        <v>430364178.93446004</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -7500,19 +7500,19 @@
       </c>
       <c r="C179" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D179" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>11067936.625787944</v>
+        <v>11067930.116684493</v>
       </c>
       <c r="E179" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>5266955.6432137256</v>
+        <v>5267001.6034217319</v>
       </c>
       <c r="F179" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>419295827.57970786</v>
+        <v>419296248.81777555</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -7525,19 +7525,19 @@
       </c>
       <c r="C180" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D180" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>11203390.249253534</v>
+        <v>11203384.711942559</v>
       </c>
       <c r="E180" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>5131502.0197481345</v>
+        <v>5131547.0081636664</v>
       </c>
       <c r="F180" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>408092437.33045435</v>
+        <v>408092864.10583299</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -7550,19 +7550,19 @@
       </c>
       <c r="C181" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D181" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>11340501.605748352</v>
+        <v>11340497.064991204</v>
       </c>
       <c r="E181" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>4994390.6632533167</v>
+        <v>4994434.6551150214</v>
       </c>
       <c r="F181" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>396751935.72470599</v>
+        <v>396752367.04084182</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -7575,19 +7575,19 @@
       </c>
       <c r="C182" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D182" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>11479290.983240528</v>
+        <v>11479287.464259086</v>
       </c>
       <c r="E182" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>4855601.2857611403</v>
+        <v>4855644.2558471393</v>
       </c>
       <c r="F182" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>385272644.74146545</v>
+        <v>385273079.57658273</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -7600,19 +7600,19 @@
       </c>
       <c r="C183" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D183" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>11619778.917990075</v>
+        <v>11619776.446474306</v>
       </c>
       <c r="E183" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>4715113.3510115929</v>
+        <v>4715155.2736319182</v>
       </c>
       <c r="F183" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>373652865.82347536</v>
+        <v>373653303.13010842</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -7625,19 +7625,19 @@
       </c>
       <c r="C184" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D184" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>11761986.197587576</v>
+        <v>11761984.799703218</v>
       </c>
       <c r="E184" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>4572906.0714140926</v>
+        <v>4572946.9204030065</v>
       </c>
       <c r="F184" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>361890879.62588781</v>
+        <v>361891318.33040518</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -7650,19 +7650,19 @@
       </c>
       <c r="C185" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D185" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>11905933.864030063</v>
+        <v>11905933.566426422</v>
       </c>
       <c r="E185" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>4428958.4049716061</v>
+        <v>4428998.1536798039</v>
       </c>
       <c r="F185" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>349984945.76185775</v>
+        <v>349985384.76397878</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -7675,19 +7675,19 @@
       </c>
       <c r="C186" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D186" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>12051643.216834541</v>
+        <v>12051644.046652403</v>
       </c>
       <c r="E186" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>4283249.052167126</v>
+        <v>4283287.6734538227</v>
       </c>
       <c r="F186" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>337933302.5450232</v>
+        <v>337933740.7173264</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -7700,19 +7700,19 @@
       </c>
       <c r="C187" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D187" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>12199135.816189623</v>
+        <v>12199137.801069293</v>
       </c>
       <c r="E187" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>4135756.4528120463</v>
+        <v>4135793.9190369318</v>
       </c>
       <c r="F187" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>325734166.72883356</v>
+        <v>325734602.91625708</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -7725,19 +7725,19 @@
       </c>
       <c r="C188" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D188" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>12348433.486145707</v>
+        <v>12348436.654235184</v>
       </c>
       <c r="E188" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>3986458.782855961</v>
+        <v>3986495.0658710417</v>
       </c>
       <c r="F188" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>313385733.24268782</v>
+        <v>313386166.2620219</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -7750,19 +7750,19 @@
       </c>
       <c r="C189" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D189" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>12499558.317844246</v>
+        <v>12499562.697807489</v>
       </c>
       <c r="E189" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>3835333.9511574232</v>
+        <v>3835369.022298737</v>
       </c>
       <c r="F189" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>300886174.92484355</v>
+        <v>300886603.56421441</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -7775,19 +7775,19 @@
       </c>
       <c r="C190" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D190" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>12652532.672786482</v>
+        <v>12652538.293811841</v>
       </c>
       <c r="E190" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>3682359.5962151857</v>
+        <v>3682393.426294385</v>
       </c>
       <c r="F190" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>288233642.25205708</v>
+        <v>288234065.27040255</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -7800,19 +7800,19 @@
       </c>
       <c r="C191" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D191" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>12807379.186142236</v>
+        <v>12807386.077950981</v>
       </c>
       <c r="E191" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>3527513.0828594319</v>
+        <v>3527545.642155244</v>
       </c>
       <c r="F191" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>275426263.06591487</v>
+        <v>275426679.1924516</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -7825,19 +7825,19 @@
       </c>
       <c r="C192" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D192" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>12964120.770099152</v>
+        <v>12964128.962954154</v>
       </c>
       <c r="E192" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>3370771.4989025169</v>
+        <v>3370802.7571520717</v>
       </c>
       <c r="F192" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>262462142.29581571</v>
+        <v>262462550.22949743</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -7850,19 +7850,19 @@
       </c>
       <c r="C193" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D193" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>13122780.617252951</v>
+        <v>13122790.141967485</v>
       </c>
       <c r="E193" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>3212111.6517487168</v>
+        <v>3212141.5781387403</v>
       </c>
       <c r="F193" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>249339361.67856276</v>
+        <v>249339760.08752996</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -7875,19 +7875,19 @@
       </c>
       <c r="C194" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D194" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>13283382.204039179</v>
+        <v>13283393.091985859</v>
       </c>
       <c r="E194" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>3051510.06496249</v>
+        <v>3051538.6281203665</v>
       </c>
       <c r="F194" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>236055979.47452357</v>
+        <v>236056366.99554411</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -7900,19 +7900,19 @@
       </c>
       <c r="C195" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D195" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>13445949.294206932</v>
+        <v>13445961.577326795</v>
       </c>
       <c r="E195" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>2888942.9747947361</v>
+        <v>2888970.1427794308</v>
       </c>
       <c r="F195" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>222610030.18031663</v>
+        <v>222610405.4182173</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -7925,19 +7925,19 @@
       </c>
       <c r="C196" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D196" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>13610505.942335127</v>
+        <v>13610519.653146837</v>
       </c>
       <c r="E196" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>2724386.3266665419</v>
+        <v>2724412.0669593881</v>
       </c>
       <c r="F196" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>208999524.2379815</v>
+        <v>208999885.76507047</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -7950,19 +7950,19 @@
       </c>
       <c r="C197" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D197" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>13777076.49739177</v>
+        <v>13777091.669000983</v>
       </c>
       <c r="E197" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>2557815.7716098982</v>
+        <v>2557840.0511052422</v>
       </c>
       <c r="F197" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>195222447.74058974</v>
+        <v>195222794.09606948</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -7975,19 +7975,19 @@
       </c>
       <c r="C198" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D198" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>13945685.606336817</v>
+        <v>13945702.272445669</v>
       </c>
       <c r="E198" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>2389206.6626648516</v>
+        <v>2389229.4476605556</v>
       </c>
       <c r="F198" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>181276762.13425291</v>
+        <v>181277091.82362381</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -8000,19 +8000,19 @@
       </c>
       <c r="C199" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D199" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>14116358.217769101</v>
+        <v>14116376.412685858</v>
       </c>
       <c r="E199" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>2218534.0512325666</v>
+        <v>2218555.3074203674</v>
       </c>
       <c r="F199" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>167160403.91648382</v>
+        <v>167160715.41093794</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -8025,19 +8025,19 @@
       </c>
       <c r="C200" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D200" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>14289119.585617915</v>
+        <v>14289139.34426675</v>
       </c>
       <c r="E200" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>2045772.6833837538</v>
+        <v>2045792.3758394748</v>
       </c>
       <c r="F200" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>152871284.33086592</v>
+        <v>152871576.06667119</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -8050,19 +8050,19 @@
       </c>
       <c r="C201" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D201" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>14463995.27287975</v>
+        <v>14464016.630810691</v>
       </c>
       <c r="E201" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>1870896.9961219197</v>
+        <v>1870915.0892955337</v>
       </c>
       <c r="F201" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>138407289.05798617</v>
+        <v>138407559.43586051</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -8075,19 +8075,19 @@
       </c>
       <c r="C202" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D202" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>14641011.155400785</v>
+        <v>14641034.148799799</v>
       </c>
       <c r="E202" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>1693881.1136008843</v>
+        <v>1693897.5713064258</v>
       </c>
       <c r="F202" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>123766277.90258539</v>
+        <v>123766525.28706071</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -8100,19 +8100,19 @@
       </c>
       <c r="C203" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D203" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>14820193.42570566</v>
+        <v>14820218.091404894</v>
       </c>
       <c r="E203" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>1514698.8432960077</v>
+        <v>1514713.6287013313</v>
       </c>
       <c r="F203" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>108946084.47687973</v>
+        <v>108946307.19565581</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -8125,19 +8125,19 @@
       </c>
       <c r="C204" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D204" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>15001568.596873108</v>
+        <v>15001594.972361282</v>
       </c>
       <c r="E204" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>1333323.6721285591</v>
+        <v>1333336.747744943</v>
       </c>
       <c r="F204" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>93944515.880006626</v>
+        <v>93944712.223294526</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -8150,19 +8150,19 @@
       </c>
       <c r="C205" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D205" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>15185163.506459016</v>
+        <v>15185191.62989198</v>
       </c>
       <c r="E205" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>1149728.762542652</v>
+        <v>1149740.0902142446</v>
       </c>
       <c r="F205" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>78759352.373547614</v>
+        <v>78759520.59340255</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -8175,19 +8175,19 @@
       </c>
       <c r="C206" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D206" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>15371005.320467496</v>
+        <v>15371035.23067895</v>
       </c>
       <c r="E206" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>963886.94853417121</v>
+        <v>963896.48942727607</v>
       </c>
       <c r="F206" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>63388347.053080119</v>
+        <v>63388485.362723604</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -8200,19 +8200,19 @@
       </c>
       <c r="C207" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D207" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>15559121.537370572</v>
+        <v>15559153.273882929</v>
       </c>
       <c r="E207" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>775770.73163109715</v>
+        <v>775778.44622329657</v>
       </c>
       <c r="F207" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>47829225.515709549</v>
+        <v>47829332.088840678</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -8225,19 +8225,19 @@
       </c>
       <c r="C208" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D208" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>15749539.992177032</v>
+        <v>15749573.595212474</v>
       </c>
       <c r="E208" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>585352.27682463732</v>
+        <v>585358.12489375111</v>
       </c>
       <c r="F208" s="36">
         <f t="shared" ca="1" si="17"/>
-        <v>32079685.523532517</v>
+        <v>32079758.493628204</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -8250,19 +8250,19 @@
       </c>
       <c r="C209" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D209" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>15942288.860551108</v>
+        <v>15942324.371042786</v>
       </c>
       <c r="E209" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>392603.40845056117</v>
+        <v>392607.34906343854</v>
       </c>
       <c r="F209" s="36">
         <f t="shared" ca="1" si="17"/>
-        <v>16137396.66298141</v>
+        <v>16137434.122585418</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -8275,19 +8275,19 @@
       </c>
       <c r="C210" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334892.269001668</v>
+        <v>16334931.720106225</v>
       </c>
       <c r="D210" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>16137396.66298154</v>
+        <v>16137434.122584956</v>
       </c>
       <c r="E210" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>197495.60602012897</v>
+        <v>197497.59752127033</v>
       </c>
       <c r="F210" s="36">
         <f t="shared" ca="1" si="17"/>
-        <v>-1.3038516044616699E-7</v>
+        <v>4.6193599700927734E-7</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -8310,7 +8310,7 @@
       </c>
       <c r="E213" s="43">
         <f ca="1">SUM(E217:INDIRECT(CONCATENATE("E",216+B10)))</f>
-        <v>298192995.99152446</v>
+        <v>298195600.1767593</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -8319,14 +8319,14 @@
       </c>
       <c r="B214" s="93">
         <f ca="1">PMT(B9,B10-B212,-INDIRECT(CONCATENATE("F",216+B212)),0,0)</f>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D214" s="78" t="s">
         <v>70</v>
       </c>
       <c r="E214" s="43">
         <f ca="1">F216+E213</f>
-        <v>965693995.99152446</v>
+        <v>965696600.17675924</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -8374,15 +8374,15 @@
       </c>
       <c r="D217" s="36">
         <f t="shared" ref="D217:D276" si="19">C217-E217</f>
-        <v>-8169131.4446308333</v>
+        <v>-8169194.8572258335</v>
       </c>
       <c r="E217" s="36">
         <f t="shared" ref="E217:E276" si="20">F216*$B$9</f>
-        <v>8169131.4446308333</v>
+        <v>8169194.8572258335</v>
       </c>
       <c r="F217" s="36">
         <f t="shared" ref="F217:F228" si="21">F216-D217</f>
-        <v>675670131.44463086</v>
+        <v>675670194.85722578</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -8399,15 +8399,15 @@
       </c>
       <c r="D218" s="36">
         <f t="shared" si="19"/>
-        <v>-8269108.3863277845</v>
+        <v>-8269173.3510637823</v>
       </c>
       <c r="E218" s="36">
         <f t="shared" si="20"/>
-        <v>8269108.3863277845</v>
+        <v>8269173.3510637823</v>
       </c>
       <c r="F218" s="36">
         <f t="shared" si="21"/>
-        <v>683939239.8309586</v>
+        <v>683939368.2082895</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -8424,15 +8424,15 @@
       </c>
       <c r="D219" s="36">
         <f t="shared" si="19"/>
-        <v>-8370308.8839117736</v>
+        <v>-8370375.4292824194</v>
       </c>
       <c r="E219" s="36">
         <f t="shared" si="20"/>
-        <v>8370308.8839117736</v>
+        <v>8370375.4292824194</v>
       </c>
       <c r="F219" s="36">
         <f t="shared" si="21"/>
-        <v>692309548.71487033</v>
+        <v>692309743.63757193</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -8445,19 +8445,19 @@
       </c>
       <c r="C220" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D220" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>8469252.0179501437</v>
+        <v>8469229.5504465085</v>
       </c>
       <c r="E220" s="36">
         <f t="shared" si="20"/>
-        <v>8472747.9117257185</v>
+        <v>8472816.0666896198</v>
       </c>
       <c r="F220" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>683840296.69692016</v>
+        <v>683840514.08712542</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -8470,19 +8470,19 @@
       </c>
       <c r="C221" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D221" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>8572901.9495192952</v>
+        <v>8572880.0116266012</v>
       </c>
       <c r="E221" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>8369097.9801565669</v>
+        <v>8369165.605509527</v>
       </c>
       <c r="F221" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>675267394.74740088</v>
+        <v>675267634.07549882</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -8495,19 +8495,19 @@
       </c>
       <c r="C222" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D222" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>8677820.3884243369</v>
+        <v>8677798.9964709599</v>
       </c>
       <c r="E222" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>8264179.5412515244</v>
+        <v>8264246.6206651684</v>
       </c>
       <c r="F222" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>666589574.3589766</v>
+        <v>666589835.07902789</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -8520,19 +8520,19 @@
       </c>
       <c r="C223" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D223" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>8784022.8591411375</v>
+        <v>8784002.0297757927</v>
       </c>
       <c r="E223" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>8157977.0705347238</v>
+        <v>8158043.5873603355</v>
       </c>
       <c r="F223" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>657805551.49983549</v>
+        <v>657805833.04925215</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -8545,19 +8545,19 @@
       </c>
       <c r="C224" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D224" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>8891525.0761400126</v>
+        <v>8891504.826337155</v>
       </c>
       <c r="E224" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>8050474.8535358496</v>
+        <v>8050540.7907989733</v>
       </c>
       <c r="F224" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>648914026.42369545</v>
+        <v>648914328.22291505</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -8570,19 +8570,19 @@
       </c>
       <c r="C225" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D225" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>9000342.9462109469</v>
+        <v>9000323.2932762466</v>
       </c>
       <c r="E225" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>7941656.9834649144</v>
+        <v>7941722.3238598807</v>
       </c>
       <c r="F225" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>639913683.47748446</v>
+        <v>639914004.92963886</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -8595,19 +8595,19 @@
       </c>
       <c r="C226" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D226" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>9110492.5708172843</v>
+        <v>9110473.5323931947</v>
       </c>
       <c r="E226" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>7831507.3588585788</v>
+        <v>7831572.0847429326</v>
       </c>
       <c r="F226" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>630803190.90666723</v>
+        <v>630803531.39724565</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -8620,19 +8620,19 @@
       </c>
       <c r="C227" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D227" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>9221990.2484781984</v>
+        <v>9221971.8425496127</v>
       </c>
       <c r="E227" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>7720009.6811976638</v>
+        <v>7720073.7745865155</v>
       </c>
       <c r="F227" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>621581200.65818906</v>
+        <v>621581559.55469608</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -8645,19 +8645,19 @@
       </c>
       <c r="C228" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D228" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>9334852.4771803617</v>
+        <v>9334834.722080335</v>
       </c>
       <c r="E228" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>7607147.4524955014</v>
+        <v>7607210.8950557923</v>
       </c>
       <c r="F228" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>612246348.1810087</v>
+        <v>612246724.83261573</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -8670,19 +8670,19 @@
       </c>
       <c r="C229" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D229" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>9449095.9568190798</v>
+        <v>9449078.8712346777</v>
       </c>
       <c r="E229" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>7492903.9728567833</v>
+        <v>7492966.7459014505</v>
       </c>
       <c r="F229" s="36">
         <f t="shared" ref="F229:F276" ca="1" si="23">F228-D229</f>
-        <v>602797252.22418964</v>
+        <v>602797645.96138108</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -8695,19 +8695,19 @@
       </c>
       <c r="C230" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D230" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>9564737.5916693397</v>
+        <v>9564721.1946475431</v>
       </c>
       <c r="E230" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>7377262.3380065216</v>
+        <v>7377324.4224885851</v>
       </c>
       <c r="F230" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>593232514.63252032</v>
+        <v>593232924.76673353</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -8720,19 +8720,19 @@
       </c>
       <c r="C231" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D231" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>9681794.4928870909</v>
+        <v>9681778.8038408086</v>
       </c>
       <c r="E231" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>7260205.4367887722</v>
+        <v>7260266.8132953197</v>
       </c>
       <c r="F231" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>583550720.13963318</v>
+        <v>583551145.96289277</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -8745,19 +8745,19 @@
       </c>
       <c r="C232" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D232" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>9800283.9810411111</v>
+        <v>9800269.0197552927</v>
       </c>
       <c r="E232" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>7141715.9486347502</v>
+        <v>7141776.5973808356</v>
       </c>
       <c r="F232" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>573750436.1585921</v>
+        <v>573750876.94313753</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -8770,19 +8770,19 @@
       </c>
       <c r="C233" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D233" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>9920223.5886759087</v>
+        <v>9920209.3753137328</v>
       </c>
       <c r="E233" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>7021776.3409999534</v>
+        <v>7021836.2418223955</v>
       </c>
       <c r="F233" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>563830212.56991625</v>
+        <v>563830667.56782377</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -8795,19 +8795,19 @@
       </c>
       <c r="C234" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D234" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>10041631.062905941</v>
+        <v>10041617.618015118</v>
       </c>
       <c r="E234" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>6900368.866769922</v>
+        <v>6900427.9991210112</v>
       </c>
       <c r="F234" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>553788581.50701034</v>
+        <v>553789049.9498086</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -8820,19 +8820,19 @@
       </c>
       <c r="C235" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D235" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>10164524.368041612</v>
+        <v>10164511.712560769</v>
       </c>
       <c r="E235" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>6777475.56163425</v>
+        <v>6777533.9045753591</v>
       </c>
       <c r="F235" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>543624057.13896871</v>
+        <v>543624538.23724782</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -8845,19 +8845,19 @@
       </c>
       <c r="C236" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D236" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>10288921.688247403</v>
+        <v>10288909.843512578</v>
       </c>
       <c r="E236" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>6653078.2414284591</v>
+        <v>6653135.7736235503</v>
       </c>
       <c r="F236" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>533335135.45072132</v>
+        <v>533335628.39373523</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -8870,19 +8870,19 @@
       </c>
       <c r="C237" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D237" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>10414841.430232517</v>
+        <v>10414830.417983752</v>
       </c>
       <c r="E237" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>6527158.4994433448</v>
+        <v>6527215.1991523756</v>
       </c>
       <c r="F237" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>522920294.0204888</v>
+        <v>522920797.97575146</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -8895,19 +8895,19 @@
       </c>
       <c r="C238" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D238" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>10542302.225974482</v>
+        <v>10542292.068362512</v>
       </c>
       <c r="E238" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>6399697.7037013816</v>
+        <v>6399753.5487736166</v>
       </c>
       <c r="F238" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>512377991.7945143</v>
+        <v>512378505.90738893</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -8920,19 +8920,19 @@
       </c>
       <c r="C239" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D239" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>10671322.935476054</v>
+        <v>10671313.655069109</v>
       </c>
       <c r="E239" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>6270676.9941998078</v>
+        <v>6270731.9620670201</v>
       </c>
       <c r="F239" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>501706668.85903823</v>
+        <v>501707192.25231981</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -8945,19 +8945,19 @@
       </c>
       <c r="C240" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D240" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>10801922.649555895</v>
+        <v>10801914.269346591</v>
       </c>
       <c r="E240" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>6140077.2801199667</v>
+        <v>6140131.3477895362</v>
       </c>
       <c r="F240" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>490904746.20948231</v>
+        <v>490905277.98297322</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -8970,19 +8970,19 @@
       </c>
       <c r="C241" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D241" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>10934120.69267337</v>
+        <v>10934113.236085728</v>
       </c>
       <c r="E241" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>6007879.2370024929</v>
+        <v>6007932.3810503995</v>
       </c>
       <c r="F241" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>479970625.51680893</v>
+        <v>479971164.74688751</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -8995,19 +8995,19 @@
       </c>
       <c r="C242" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D242" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>11067936.625787936</v>
+        <v>11067930.116684493</v>
       </c>
       <c r="E242" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>5874063.3038879251</v>
+        <v>5874115.5004516346</v>
       </c>
       <c r="F242" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>468902688.89102101</v>
+        <v>468903234.63020301</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -9020,19 +9020,19 @@
       </c>
       <c r="C243" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D243" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>11203390.249253528</v>
+        <v>11203384.711942559</v>
       </c>
       <c r="E243" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>5738609.680422334</v>
+        <v>5738660.9051935691</v>
       </c>
       <c r="F243" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>457699298.6417675</v>
+        <v>457699849.91826046</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -9045,19 +9045,19 @@
       </c>
       <c r="C244" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D244" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>11340501.605748344</v>
+        <v>11340497.064991204</v>
       </c>
       <c r="E244" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>5601498.323927517</v>
+        <v>5601548.5521449242</v>
       </c>
       <c r="F244" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>446358797.03601915</v>
+        <v>446359352.85326928</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -9070,19 +9070,19 @@
       </c>
       <c r="C245" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D245" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>11479290.983240522</v>
+        <v>11479287.464259086</v>
       </c>
       <c r="E245" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>5462708.9464353397</v>
+        <v>5462758.1528770421</v>
       </c>
       <c r="F245" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>434879506.0527786</v>
+        <v>434880065.38901019</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -9095,19 +9095,19 @@
       </c>
       <c r="C246" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D246" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>11619778.91799007</v>
+        <v>11619776.446474306</v>
       </c>
       <c r="E246" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>5322221.0116857924</v>
+        <v>5322269.170661821</v>
       </c>
       <c r="F246" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>423259727.13478851</v>
+        <v>423260288.94253588</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -9120,19 +9120,19 @@
       </c>
       <c r="C247" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D247" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>11761986.19758757</v>
+        <v>11761984.799703218</v>
       </c>
       <c r="E247" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>5180013.732088292</v>
+        <v>5180060.8174329093</v>
       </c>
       <c r="F247" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>411497740.93720096</v>
+        <v>411498304.14283264</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -9145,19 +9145,19 @@
       </c>
       <c r="C248" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D248" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>11905933.864030056</v>
+        <v>11905933.566426422</v>
       </c>
       <c r="E248" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>5036066.0656458056</v>
+        <v>5036112.0507097067</v>
       </c>
       <c r="F248" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>399591807.0731709</v>
+        <v>399592370.57640624</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -9170,19 +9170,19 @@
       </c>
       <c r="C249" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D249" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>12051643.216834538</v>
+        <v>12051644.046652403</v>
       </c>
       <c r="E249" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>4890356.7128413254</v>
+        <v>4890401.5704837255</v>
       </c>
       <c r="F249" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>387540163.85633636</v>
+        <v>387540726.52975386</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -9195,19 +9195,19 @@
       </c>
       <c r="C250" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D250" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>12199135.816189617</v>
+        <v>12199137.801069293</v>
       </c>
       <c r="E250" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>4742864.1134862462</v>
+        <v>4742907.8160668351</v>
       </c>
       <c r="F250" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>375341028.04014671</v>
+        <v>375341588.72868454</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -9220,19 +9220,19 @@
       </c>
       <c r="C251" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D251" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>12348433.486145701</v>
+        <v>12348436.654235184</v>
       </c>
       <c r="E251" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>4593566.4435301609</v>
+        <v>4593608.962900945</v>
       </c>
       <c r="F251" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>362992594.55400103</v>
+        <v>362993152.07444936</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -9245,19 +9245,19 @@
       </c>
       <c r="C252" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D252" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>12499558.317844238</v>
+        <v>12499562.697807487</v>
       </c>
       <c r="E252" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>4442441.6118316241</v>
+        <v>4442482.9193286402</v>
       </c>
       <c r="F252" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>350493036.23615682</v>
+        <v>350493589.37664187</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -9270,19 +9270,19 @@
       </c>
       <c r="C253" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D253" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>12652532.672786474</v>
+        <v>12652538.293811839</v>
       </c>
       <c r="E253" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>4289467.256889387</v>
+        <v>4289507.3233242882</v>
       </c>
       <c r="F253" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>337840503.56337035</v>
+        <v>337841051.08283001</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -9295,19 +9295,19 @@
       </c>
       <c r="C254" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D254" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>12807379.186142229</v>
+        <v>12807386.077950981</v>
       </c>
       <c r="E254" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>4134620.7435336332</v>
+        <v>4134659.5391851473</v>
       </c>
       <c r="F254" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>325033124.37722814</v>
+        <v>325033665.00487906</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -9320,19 +9320,19 @@
       </c>
       <c r="C255" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D255" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>12964120.770099144</v>
+        <v>12964128.962954152</v>
       </c>
       <c r="E255" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>3977879.1595767182</v>
+        <v>3977916.6541819749</v>
       </c>
       <c r="F255" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>312069003.60712898</v>
+        <v>312069536.04192489</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -9345,19 +9345,19 @@
       </c>
       <c r="C256" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D256" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>13122780.617252944</v>
+        <v>13122790.141967485</v>
       </c>
       <c r="E256" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>3819219.3124229182</v>
+        <v>3819255.4751686435</v>
       </c>
       <c r="F256" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>298946222.98987603</v>
+        <v>298946745.89995742</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -9370,19 +9370,19 @@
       </c>
       <c r="C257" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D257" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>13283382.204039171</v>
+        <v>13283393.091985859</v>
       </c>
       <c r="E257" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>3658617.7256366913</v>
+        <v>3658652.5251502697</v>
       </c>
       <c r="F257" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>285662840.78583688</v>
+        <v>285663352.80797154</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -9395,19 +9395,19 @@
       </c>
       <c r="C258" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D258" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>13445949.294206925</v>
+        <v>13445961.577326795</v>
       </c>
       <c r="E258" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>3496050.6354689375</v>
+        <v>3496084.0398093336</v>
       </c>
       <c r="F258" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>272216891.49162996</v>
+        <v>272217391.23064476</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -9420,19 +9420,19 @@
       </c>
       <c r="C259" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D259" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>13610505.942335118</v>
+        <v>13610519.653146837</v>
       </c>
       <c r="E259" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>3331493.9873407437</v>
+        <v>3331525.9639892913</v>
       </c>
       <c r="F259" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>258606385.54929483</v>
+        <v>258606871.57749793</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -9445,19 +9445,19 @@
       </c>
       <c r="C260" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D260" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>13777076.497391762</v>
+        <v>13777091.669000983</v>
       </c>
       <c r="E260" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>3164923.4322841</v>
+        <v>3164953.9481351455</v>
       </c>
       <c r="F260" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>244829309.05190307</v>
+        <v>244829779.90849695</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -9470,19 +9470,19 @@
       </c>
       <c r="C261" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D261" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>13945685.60633681</v>
+        <v>13945702.272445669</v>
       </c>
       <c r="E261" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>2996314.3233390534</v>
+        <v>2996343.3446904588</v>
       </c>
       <c r="F261" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>230883623.44556627</v>
+        <v>230884077.63605127</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -9495,19 +9495,19 @@
       </c>
       <c r="C262" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D262" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>14116358.217769094</v>
+        <v>14116376.412685858</v>
       </c>
       <c r="E262" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>2825641.7119067688</v>
+        <v>2825669.2044502706</v>
       </c>
       <c r="F262" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>216767265.22779718</v>
+        <v>216767701.2233654</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -9520,19 +9520,19 @@
       </c>
       <c r="C263" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D263" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>14289119.585617905</v>
+        <v>14289139.34426675</v>
       </c>
       <c r="E263" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>2652880.3440579562</v>
+        <v>2652906.2728693779</v>
       </c>
       <c r="F263" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>202478145.64217928</v>
+        <v>202478561.87909865</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -9545,19 +9545,19 @@
       </c>
       <c r="C264" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D264" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>14463995.27287974</v>
+        <v>14464016.630810691</v>
       </c>
       <c r="E264" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>2478004.656796122</v>
+        <v>2478028.9863254367</v>
       </c>
       <c r="F264" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>188014150.36929953</v>
+        <v>188014545.24828798</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -9570,19 +9570,19 @@
       </c>
       <c r="C265" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D265" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>14641011.155400775</v>
+        <v>14641034.148799799</v>
       </c>
       <c r="E265" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>2300988.7742750864</v>
+        <v>2301011.4683363289</v>
       </c>
       <c r="F265" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>173373139.21389875</v>
+        <v>173373511.09948817</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -9595,19 +9595,19 @@
       </c>
       <c r="C266" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D266" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>14820193.425705653</v>
+        <v>14820218.091404894</v>
       </c>
       <c r="E266" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>2121806.50397021</v>
+        <v>2121827.5257312343</v>
       </c>
       <c r="F266" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>158552945.78819311</v>
+        <v>158553293.00808328</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -9620,19 +9620,19 @@
       </c>
       <c r="C267" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D267" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>15001568.596873101</v>
+        <v>15001594.972361282</v>
       </c>
       <c r="E267" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>1940431.3328027616</v>
+        <v>1940450.6447748463</v>
       </c>
       <c r="F267" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>143551377.19132</v>
+        <v>143551698.03572202</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -9645,19 +9645,19 @@
       </c>
       <c r="C268" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D268" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>15185163.506459007</v>
+        <v>15185191.62989198</v>
       </c>
       <c r="E268" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>1756836.4232168545</v>
+        <v>1756853.987244148</v>
       </c>
       <c r="F268" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>128366213.68486099</v>
+        <v>128366506.40583004</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -9670,19 +9670,19 @@
       </c>
       <c r="C269" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D269" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>15371005.320467489</v>
+        <v>15371035.23067895</v>
       </c>
       <c r="E269" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>1570994.6092083738</v>
+        <v>1571010.3864571794</v>
       </c>
       <c r="F269" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>112995208.3643935</v>
+        <v>112995471.17515109</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -9695,19 +9695,19 @@
       </c>
       <c r="C270" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D270" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>15559121.537370563</v>
+        <v>15559153.273882929</v>
       </c>
       <c r="E270" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>1382878.3923052996</v>
+        <v>1382892.3432531999</v>
       </c>
       <c r="F270" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>97436086.82702294</v>
+        <v>97436317.901268169</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -9720,19 +9720,19 @@
       </c>
       <c r="C271" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D271" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>15749539.992177023</v>
+        <v>15749573.595212474</v>
       </c>
       <c r="E271" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>1192459.93749884</v>
+        <v>1192472.0219236545</v>
       </c>
       <c r="F271" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>81686546.834845915</v>
+        <v>81686744.306055695</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -9745,19 +9745,19 @@
       </c>
       <c r="C272" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D272" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>15942288.860551098</v>
+        <v>15942324.371042786</v>
       </c>
       <c r="E272" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>999711.06912476383</v>
+        <v>999721.24609334185</v>
       </c>
       <c r="F272" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>65744257.974294819</v>
+        <v>65744419.935012907</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -9770,19 +9770,19 @@
       </c>
       <c r="C273" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D273" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>16137396.662981531</v>
+        <v>16137434.122584954</v>
       </c>
       <c r="E273" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>804603.26669433189</v>
+        <v>804611.49455117364</v>
       </c>
       <c r="F273" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>49606861.311313286</v>
+        <v>49606985.812427953</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -9795,19 +9795,19 @@
       </c>
       <c r="C274" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D274" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>16334892.269001661</v>
+        <v>16334931.72010622</v>
       </c>
       <c r="E274" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>607107.66067420132</v>
+        <v>607113.89702990907</v>
       </c>
       <c r="F274" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>33271969.042311624</v>
+        <v>33272054.092321731</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -9820,19 +9820,19 @@
       </c>
       <c r="C275" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D275" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>16534804.901461175</v>
+        <v>16534846.387201888</v>
       </c>
       <c r="E275" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>407195.02821468661</v>
+        <v>407199.22993423895</v>
       </c>
       <c r="F275" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>16737164.140850449</v>
+        <v>16737207.705119843</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -9845,19 +9845,19 @@
       </c>
       <c r="C276" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16941999.929675862</v>
+        <v>16942045.617136128</v>
       </c>
       <c r="D276" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>16737164.140850125</v>
+        <v>16737207.705119539</v>
       </c>
       <c r="E276" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>204835.7888257381</v>
+        <v>204837.91201658966</v>
       </c>
       <c r="F276" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>3.2410025596618652E-7</v>
+        <v>3.03611159324646E-7</v>
       </c>
     </row>
   </sheetData>

--- a/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
+++ b/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D1" s="3">
         <f ca="1">IF(B16=1,'Regular Fixed'!E79,IF(AND(B16=0,E16=0),'Regular Fixed'!E15,IF(AND(B16=0,E16&gt;0,E15&gt;0),'Regular Fixed'!E147,IF(AND(B16=0,E16&gt;0,E15=0),'Regular Fixed'!E213))))</f>
-        <v>298195600.1767593</v>
+        <v>67721552.548292771</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1671,7 +1671,7 @@
         <v>98</v>
       </c>
       <c r="B2">
-        <v>350320000</v>
+        <v>349700000</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1679,7 +1679,7 @@
         <v>70</v>
       </c>
       <c r="B3">
-        <v>965696600.17999995</v>
+        <v>733842552.54999995</v>
       </c>
       <c r="C3" s="86" t="s">
         <v>96</v>
@@ -1701,7 +1701,7 @@
         <v>29</v>
       </c>
       <c r="B5">
-        <v>1002000000</v>
+        <v>1000000000</v>
       </c>
       <c r="C5" s="82" t="s">
         <v>93</v>
@@ -1721,7 +1721,7 @@
         <v>99</v>
       </c>
       <c r="B6">
-        <v>350620000</v>
+        <v>350000000</v>
       </c>
       <c r="C6" s="82" t="s">
         <v>93</v>
@@ -1730,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>20961500</v>
+        <v>9468000</v>
       </c>
       <c r="F6" s="82" t="s">
         <v>93</v>
@@ -1739,7 +1739,7 @@
         <v>12</v>
       </c>
       <c r="H6">
-        <v>20815976.75</v>
+        <v>9407348.8399999999</v>
       </c>
       <c r="I6" s="82" t="s">
         <v>93</v>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B7" s="88">
         <f>B5-B6+D24+D25+D26+D27+D28+D29+D30+D31+D38</f>
-        <v>667501000</v>
+        <v>666121000</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>5</v>
@@ -1777,7 +1777,7 @@
         <v>33</v>
       </c>
       <c r="B8">
-        <v>0.14686171000000001</v>
+        <v>0.14686602000000001</v>
       </c>
       <c r="C8" s="82" t="s">
         <v>93</v>
@@ -1795,7 +1795,7 @@
         <v>15</v>
       </c>
       <c r="H8">
-        <v>128705</v>
+        <v>59370</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>93</v>
@@ -1806,7 +1806,7 @@
         <v>34</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C9" s="82" t="s">
         <v>93</v>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B12" s="19">
         <f>B8/(12/B10)</f>
-        <v>1.2238475833333333E-2</v>
+        <v>1.2238835000000002E-2</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>10</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="B13" s="18">
         <f>B9/B10</f>
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>11</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="B15" s="3">
         <f>IF(B16=1,B2+SUM(E6:E14)-SUM(D24:D31,D38)+B18,B2+SUM(E6:E14)-SUM(D24:D31,D38))</f>
-        <v>360110500</v>
+        <v>347997000</v>
       </c>
       <c r="D15" s="81" t="s">
         <v>94</v>
@@ -1969,7 +1969,7 @@
         <v>41</v>
       </c>
       <c r="B17">
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="C17" s="81" t="s">
         <v>92</v>
@@ -1978,7 +1978,7 @@
     <row r="18" spans="1:13">
       <c r="B18" s="89">
         <f>ROUND(B17,0)</f>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>42</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="B19" s="13">
         <f ca="1">(D1/B7)/(B9/12)*100</f>
-        <v>8.9346862454665779</v>
+        <v>10.166554206862234</v>
       </c>
       <c r="F19" s="84" t="s">
         <v>43</v>
@@ -2023,14 +2023,14 @@
       </c>
       <c r="G20" s="99">
         <f>IF(B16=0,-B7,0)</f>
-        <v>-667501000</v>
+        <v>-666121000</v>
       </c>
       <c r="I20" s="84">
         <v>0</v>
       </c>
       <c r="J20" s="99">
         <f>IF(B16=0,B37-C37,0)</f>
-        <v>-663570201.75</v>
+        <v>-662205738.84000003</v>
       </c>
       <c r="L20" s="13"/>
     </row>
@@ -2041,7 +2041,7 @@
       <c r="B21" s="21"/>
       <c r="C21" s="22">
         <f>B5</f>
-        <v>1002000000</v>
+        <v>1000000000</v>
       </c>
       <c r="D21" s="20"/>
       <c r="F21" s="104">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="B22" s="22">
         <f>B6</f>
-        <v>350620000</v>
+        <v>350000000</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="20"/>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="B24" s="97">
         <f t="shared" ref="B24:B31" si="0">E6-D24</f>
-        <v>6400500</v>
+        <v>-5093000</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="G24" s="101">
         <f>IF($B$16=0,IF(F24&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H24" s="103"/>
       <c r="I24" s="84">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="J24" s="99">
         <f t="shared" ref="J24:J81" si="1">IF($B$16=0,IF(I24&lt;=$E$16,$E$15,$B$18),$B$18)</f>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="106"/>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="G25" s="101">
         <f t="shared" ref="G25:G81" si="2">IF($B$16=0,IF(F25&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H25" s="103"/>
       <c r="I25" s="84">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="J25" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L25" s="13"/>
       <c r="M25" s="55"/>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="G26" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H26" s="103"/>
       <c r="I26" s="84">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="J26" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L26" s="13"/>
     </row>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="G27" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H27" s="103"/>
       <c r="I27" s="84">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="J27" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L27" s="13"/>
     </row>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="G28" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H28" s="103"/>
       <c r="I28" s="84">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="J28" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L28" s="13"/>
     </row>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="G29" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H29" s="103"/>
       <c r="I29" s="84">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="J29" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L29" s="13"/>
     </row>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="G30" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H30" s="103"/>
       <c r="I30" s="84">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="J30" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L30" s="13"/>
     </row>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="G31" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H31" s="103"/>
       <c r="I31" s="84">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="J31" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L31" s="13"/>
     </row>
@@ -2375,7 +2375,7 @@
       <c r="B32" s="21"/>
       <c r="C32" s="23">
         <f>H6</f>
-        <v>20815976.75</v>
+        <v>9407348.8399999999</v>
       </c>
       <c r="D32" s="20"/>
       <c r="F32" s="104">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="G32" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H32" s="103"/>
       <c r="I32" s="84">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="J32" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L32" s="13"/>
     </row>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="G33" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H33" s="103"/>
       <c r="I33" s="84">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="J33" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L33" s="13"/>
     </row>
@@ -2429,7 +2429,7 @@
       <c r="B34" s="22"/>
       <c r="C34" s="98">
         <f>H8</f>
-        <v>128705</v>
+        <v>59370</v>
       </c>
       <c r="D34" s="20"/>
       <c r="F34" s="104">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="G34" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H34" s="103"/>
       <c r="I34" s="84">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="J34" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L34" s="13"/>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="G35" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H35" s="103"/>
       <c r="I35" s="84">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="J35" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L35" s="13"/>
     </row>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="G36" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H36" s="103"/>
       <c r="I36" s="84">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="J36" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L36" s="13"/>
     </row>
@@ -2503,11 +2503,11 @@
       </c>
       <c r="B37" s="16">
         <f>SUM(B21:B35)+B39</f>
-        <v>360380500</v>
+        <v>348267000</v>
       </c>
       <c r="C37" s="16">
         <f>SUM(C21:C35)</f>
-        <v>1023950701.75</v>
+        <v>1010472738.84</v>
       </c>
       <c r="D37" t="s">
         <v>49</v>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="G37" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H37" s="103"/>
       <c r="I37" s="84">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="J37" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L37" s="13"/>
     </row>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="G38" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H38" s="103"/>
       <c r="I38" s="84">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="J38" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L38" s="13"/>
     </row>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="G39" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H39" s="103"/>
       <c r="I39" s="84">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="J39" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="K39" s="34"/>
       <c r="L39" s="13"/>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="G40" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H40" s="103"/>
       <c r="I40" s="84">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="J40" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L40" s="13"/>
     </row>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="G41" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H41" s="103"/>
       <c r="I41" s="84">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="J41" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L41" s="13"/>
     </row>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="G42" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H42" s="103"/>
       <c r="I42" s="84">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="J42" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L42" s="13"/>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="G43" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H43" s="103"/>
       <c r="I43" s="84">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="J43" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L43" s="13"/>
     </row>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="G44" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H44" s="103"/>
       <c r="I44" s="84">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="J44" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L44" s="13"/>
     </row>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="G45" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H45" s="103"/>
       <c r="I45" s="84">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="J45" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L45" s="13"/>
     </row>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="G46" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H46" s="103"/>
       <c r="I46" s="84">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="J46" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L46" s="13"/>
     </row>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="G47" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H47" s="103"/>
       <c r="I47" s="84">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="J47" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L47" s="13"/>
     </row>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="G48" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H48" s="103"/>
       <c r="I48" s="84">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="J48" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L48" s="13"/>
     </row>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="G49" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H49" s="103"/>
       <c r="I49" s="84">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="J49" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L49" s="13"/>
     </row>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="G50" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H50" s="103"/>
       <c r="I50" s="84">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="J50" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L50" s="13"/>
     </row>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="G51" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H51" s="103"/>
       <c r="I51" s="84">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="J51" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L51" s="13"/>
     </row>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="G52" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H52" s="103"/>
       <c r="I52" s="84">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="J52" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L52" s="13"/>
     </row>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="G53" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H53" s="103"/>
       <c r="I53" s="84">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="J53" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L53" s="13"/>
     </row>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="G54" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H54" s="103"/>
       <c r="I54" s="84">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="J54" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L54" s="13"/>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="G55" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H55" s="103"/>
       <c r="I55" s="84">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="J55" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L55" s="13"/>
     </row>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="G56" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H56" s="103"/>
       <c r="I56" s="84">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="J56" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L56" s="13"/>
     </row>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="G57" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H57" s="103"/>
       <c r="I57" s="84">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="J57" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L57" s="13"/>
     </row>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="G58" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H58" s="103"/>
       <c r="I58" s="84">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="J58" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L58" s="13"/>
     </row>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="G59" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H59" s="103"/>
       <c r="I59" s="84">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="J59" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L59" s="13"/>
     </row>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="G60" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H60" s="103"/>
       <c r="I60" s="84">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="J60" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L60" s="13"/>
     </row>
@@ -2968,7 +2968,7 @@
       </c>
       <c r="G61" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H61" s="103"/>
       <c r="I61" s="84">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="J61" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L61" s="13"/>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="G62" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H62" s="103"/>
       <c r="I62" s="84">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="J62" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L62" s="13"/>
     </row>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="G63" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H63" s="103"/>
       <c r="I63" s="84">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="J63" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L63" s="13"/>
     </row>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="G64" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H64" s="103"/>
       <c r="I64" s="84">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="J64" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L64" s="13"/>
     </row>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="G65" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H65" s="103"/>
       <c r="I65" s="84">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="J65" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L65" s="13"/>
     </row>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="G66" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H66" s="103"/>
       <c r="I66" s="84">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="J66" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L66" s="13"/>
     </row>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="G67" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H67" s="103"/>
       <c r="I67" s="84">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="J67" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L67" s="13"/>
     </row>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="G68" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H68" s="103"/>
       <c r="I68" s="84">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="J68" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L68" s="13"/>
     </row>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="G69" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H69" s="103"/>
       <c r="I69" s="84">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="J69" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L69" s="13"/>
     </row>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G70" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H70" s="103"/>
       <c r="I70" s="84">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="J70" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L70" s="13"/>
     </row>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="G71" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H71" s="103"/>
       <c r="I71" s="84">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="J71" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L71" s="13"/>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="G72" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H72" s="103"/>
       <c r="I72" s="84">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="J72" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L72" s="13"/>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="G73" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H73" s="103"/>
       <c r="I73" s="84">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="J73" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L73" s="13"/>
     </row>
@@ -3202,7 +3202,7 @@
       </c>
       <c r="G74" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H74" s="103"/>
       <c r="I74" s="84">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="J74" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L74" s="13"/>
     </row>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="G75" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H75" s="103"/>
       <c r="I75" s="84">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="J75" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L75" s="13"/>
     </row>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="G76" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H76" s="103"/>
       <c r="I76" s="84">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="J76" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L76" s="13"/>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="G77" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H77" s="103"/>
       <c r="I77" s="84">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="J77" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L77" s="13"/>
     </row>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="G78" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H78" s="103"/>
       <c r="I78" s="84">
@@ -3282,7 +3282,7 @@
       </c>
       <c r="J78" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L78" s="13"/>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="G79" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H79" s="103"/>
       <c r="I79" s="84">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="J79" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L79" s="13"/>
     </row>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="G80" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H80" s="103"/>
       <c r="I80" s="84">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="J80" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L80" s="13"/>
     </row>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="G81" s="101">
         <f t="shared" si="2"/>
-        <v>16942045.620000001</v>
+        <v>81538061.390000001</v>
       </c>
       <c r="H81" s="103"/>
       <c r="I81" s="84">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="J81" s="99">
         <f t="shared" si="1"/>
-        <v>16942046</v>
+        <v>81538061</v>
       </c>
       <c r="L81" s="13"/>
       <c r="M81" s="106"/>
@@ -3355,26 +3355,26 @@
       <c r="F83" s="105"/>
       <c r="G83" s="14">
         <f ca="1">_xlfn.NUMBERVALUE(IRR(G20:INDIRECT(CONCATENATE("G",IF(B16=1,B13+20+1,B13+20)))))</f>
-        <v>1.22384758392884E-2</v>
+        <v>1.223883499333E-2</v>
       </c>
       <c r="J83" s="55">
         <f ca="1">IRR(J20:INDIRECT(CONCATENATE("J",B13+20)))</f>
-        <v>1.2446761857640487E-2</v>
+        <v>1.2992887467552006E-2</v>
       </c>
       <c r="K83" s="109">
         <f ca="1">J83*(12/B10)*100</f>
-        <v>14.936114229168584</v>
+        <v>15.591464961062407</v>
       </c>
       <c r="L83" s="103"/>
     </row>
     <row r="84" spans="6:13">
       <c r="G84">
         <f ca="1">_xlfn.NUMBERVALUE(G83*12*100)</f>
-        <v>14.6861710071461</v>
+        <v>14.686601991996</v>
       </c>
       <c r="J84">
         <f ca="1">_xlfn.NUMBERVALUE(K83)</f>
-        <v>14.9361142291686</v>
+        <v>15.5914649610624</v>
       </c>
     </row>
     <row r="85" spans="6:13">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="B3" s="87">
         <f>'Gross Yield (CF)'!B7</f>
-        <v>667501000</v>
+        <v>666121000</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>86</v>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B4" s="54">
         <f>'Gross Yield (CF)'!B8</f>
-        <v>0.14686171000000001</v>
+        <v>0.14686602000000001</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>84</v>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="B5" s="42">
         <f>'Gross Yield (CF)'!B9</f>
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>82</v>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="B9" s="56">
         <f>B4/(12/B6)</f>
-        <v>1.2238475833333333E-2</v>
+        <v>1.2238835000000002E-2</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>80</v>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="B10" s="51">
         <f>B5/B6</f>
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>79</v>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="B11" s="51">
         <f>B3*-1</f>
-        <v>-667501000</v>
+        <v>-666121000</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>77</v>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="B14" s="94">
         <f>PMT(B9,B10,B11,B12,B13)</f>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="39" t="s">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="E14" s="39">
         <f ca="1">E15+F16</f>
-        <v>946203301.19503188</v>
+        <v>720293919.92055702</v>
       </c>
       <c r="F14" s="42"/>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="E15" s="39">
         <f ca="1">SUM(E17:INDIRECT(CONCATENATE("E",16+B10)))</f>
-        <v>278702301.19503188</v>
+        <v>54172919.920557059</v>
       </c>
       <c r="F15" s="38" t="s">
         <v>63</v>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="F16" s="38">
         <f>B3</f>
-        <v>667501000</v>
+        <v>666121000</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3646,19 +3646,19 @@
       </c>
       <c r="C17" s="36">
         <f>B14</f>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D17" s="36">
         <f t="shared" ref="D17:D76" si="0">C17-E17</f>
-        <v>7600860.1626913603</v>
+        <v>51871948.317678079</v>
       </c>
       <c r="E17" s="36">
         <f t="shared" ref="E17:E76" si="1">F16*$B$9</f>
-        <v>8169194.8572258335</v>
+        <v>8152545.0090350015</v>
       </c>
       <c r="F17" s="36">
         <f t="shared" ref="F17:F27" si="2">F16-D17</f>
-        <v>659900139.83730865</v>
+        <v>614249051.68232191</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3671,19 +3671,19 @@
       </c>
       <c r="C18" s="36">
         <f t="shared" ref="C18:C76" si="4">$C$17</f>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D18" s="36">
         <f t="shared" si="0"/>
-        <v>7693883.1061050044</v>
+        <v>52506800.534266666</v>
       </c>
       <c r="E18" s="36">
         <f t="shared" si="1"/>
-        <v>8076171.9138121894</v>
+        <v>7517692.7924464112</v>
       </c>
       <c r="F18" s="36">
         <f t="shared" si="2"/>
-        <v>652206256.73120368</v>
+        <v>561742251.1480552</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3696,19 +3696,19 @@
       </c>
       <c r="C19" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D19" s="36">
         <f t="shared" si="0"/>
-        <v>7788044.5085635623</v>
+        <v>53149422.602383465</v>
       </c>
       <c r="E19" s="36">
         <f t="shared" si="1"/>
-        <v>7982010.5113536315</v>
+        <v>6875070.7243296094</v>
       </c>
       <c r="F19" s="36">
         <f t="shared" si="2"/>
-        <v>644418212.22264016</v>
+        <v>508592828.5456717</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3721,19 +3721,19 @@
       </c>
       <c r="C20" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D20" s="36">
         <f t="shared" si="0"/>
-        <v>7883358.3030705405</v>
+        <v>53799909.615959309</v>
       </c>
       <c r="E20" s="36">
         <f t="shared" si="1"/>
-        <v>7886696.7168466533</v>
+        <v>6224583.7107537668</v>
       </c>
       <c r="F20" s="36">
         <f t="shared" si="2"/>
-        <v>636534853.91956961</v>
+        <v>454792918.92971241</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3746,19 +3746,19 @@
       </c>
       <c r="C21" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D21" s="36">
         <f t="shared" si="0"/>
-        <v>7979838.5931481775</v>
+        <v>54458357.832763948</v>
       </c>
       <c r="E21" s="36">
         <f t="shared" si="1"/>
-        <v>7790216.4267690163</v>
+        <v>5566135.4939491274</v>
       </c>
       <c r="F21" s="36">
         <f t="shared" si="2"/>
-        <v>628555015.32642138</v>
+        <v>400334561.09694844</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3771,19 +3771,19 @@
       </c>
       <c r="C22" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D22" s="36">
         <f t="shared" si="0"/>
-        <v>8077499.6549243229</v>
+        <v>55124864.688650109</v>
       </c>
       <c r="E22" s="36">
         <f t="shared" si="1"/>
-        <v>7692555.3649928709</v>
+        <v>4899628.6380629716</v>
       </c>
       <c r="F22" s="36">
         <f t="shared" si="2"/>
-        <v>620477515.67149711</v>
+        <v>345209696.40829831</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3796,19 +3796,19 @@
       </c>
       <c r="C23" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D23" s="36">
         <f t="shared" si="0"/>
-        <v>8176355.939244872</v>
+        <v>55799528.811971821</v>
       </c>
       <c r="E23" s="36">
         <f t="shared" si="1"/>
-        <v>7593699.0806723218</v>
+        <v>4224964.5147412559</v>
       </c>
       <c r="F23" s="36">
         <f t="shared" si="2"/>
-        <v>612301159.73225224</v>
+        <v>289410167.59632647</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3821,19 +3821,19 @@
       </c>
       <c r="C24" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D24" s="36">
         <f t="shared" si="0"/>
-        <v>8276422.0738120517</v>
+        <v>56482450.038179293</v>
       </c>
       <c r="E24" s="36">
         <f t="shared" si="1"/>
-        <v>7493632.9461051421</v>
+        <v>3542043.2885337868</v>
       </c>
       <c r="F24" s="36">
         <f t="shared" si="2"/>
-        <v>604024737.65844023</v>
+        <v>232927717.55814719</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3846,19 +3846,19 @@
       </c>
       <c r="C25" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D25" s="36">
         <f t="shared" si="0"/>
-        <v>8377712.8653488662</v>
+        <v>57173729.424592309</v>
       </c>
       <c r="E25" s="36">
         <f t="shared" si="1"/>
-        <v>7392342.1545683276</v>
+        <v>2850763.9021207667</v>
       </c>
       <c r="F25" s="36">
         <f t="shared" si="2"/>
-        <v>595647024.79309142</v>
+        <v>175753988.13355488</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3871,19 +3871,19 @@
       </c>
       <c r="C26" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D26" s="36">
         <f t="shared" si="0"/>
-        <v>8480243.3017900437</v>
+        <v>57873469.265354544</v>
       </c>
       <c r="E26" s="36">
         <f t="shared" si="1"/>
-        <v>7289811.7181271501</v>
+        <v>2151024.0613585366</v>
       </c>
       <c r="F26" s="36">
         <f t="shared" si="2"/>
-        <v>587166781.49130142</v>
+        <v>117880518.86820033</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3896,19 +3896,19 @@
       </c>
       <c r="C27" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D27" s="36">
         <f t="shared" si="0"/>
-        <v>8584028.5544997863</v>
+        <v>58581773.106570788</v>
       </c>
       <c r="E27" s="36">
         <f t="shared" si="1"/>
-        <v>7186026.4654174065</v>
+        <v>1442720.2201422909</v>
       </c>
       <c r="F27" s="36">
         <f t="shared" si="2"/>
-        <v>578582752.93680167</v>
+        <v>59298745.761629544</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3921,19 +3921,19 @@
       </c>
       <c r="C28" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D28" s="36">
         <f t="shared" si="0"/>
-        <v>8689083.9805166759</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="E28" s="36">
         <f t="shared" si="1"/>
-        <v>7080971.0394005179</v>
+        <v>725747.56508353341</v>
       </c>
       <c r="F28" s="36">
         <f t="shared" ref="F28:F76" si="5">F27-D28</f>
-        <v>569893668.956285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3946,19 +3946,19 @@
       </c>
       <c r="C29" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D29" s="36">
         <f t="shared" si="0"/>
-        <v>8795425.1248260327</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="E29" s="36">
         <f t="shared" si="1"/>
-        <v>6974629.8950911611</v>
+        <v>0</v>
       </c>
       <c r="F29" s="36">
         <f t="shared" si="5"/>
-        <v>561098243.83145893</v>
+        <v>-60024493.326713078</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3971,19 +3971,19 @@
       </c>
       <c r="C30" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D30" s="36">
         <f t="shared" si="0"/>
-        <v>8903067.7226601094</v>
+        <v>60759123.196497321</v>
       </c>
       <c r="E30" s="36">
         <f t="shared" si="1"/>
-        <v>6866987.2972570844</v>
+        <v>-734629.86978424259</v>
       </c>
       <c r="F30" s="36">
         <f t="shared" si="5"/>
-        <v>552195176.10879886</v>
+        <v>-120783616.52321041</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3996,19 +3996,19 @@
       </c>
       <c r="C31" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D31" s="36">
         <f t="shared" si="0"/>
-        <v>9012027.701826416</v>
+        <v>61502744.080043927</v>
       </c>
       <c r="E31" s="36">
         <f t="shared" si="1"/>
-        <v>6758027.3180907788</v>
+        <v>-1478250.7533308461</v>
       </c>
       <c r="F31" s="36">
         <f t="shared" si="5"/>
-        <v>543183148.40697241</v>
+        <v>-182286360.60325432</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4021,19 +4021,19 @@
       </c>
       <c r="C32" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D32" s="36">
         <f t="shared" si="0"/>
-        <v>9122321.1850645486</v>
+        <v>62255466.016886808</v>
       </c>
       <c r="E32" s="36">
         <f t="shared" si="1"/>
-        <v>6647733.8348526452</v>
+        <v>-2230972.6901737303</v>
       </c>
       <c r="F32" s="36">
         <f t="shared" si="5"/>
-        <v>534060827.22190785</v>
+        <v>-244541826.62014112</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4046,19 +4046,19 @@
       </c>
       <c r="C33" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D33" s="36">
         <f t="shared" si="0"/>
-        <v>9233964.492431866</v>
+        <v>63017400.393315591</v>
       </c>
       <c r="E33" s="36">
         <f t="shared" si="1"/>
-        <v>6536090.5274853278</v>
+        <v>-2992907.0666025151</v>
       </c>
       <c r="F33" s="36">
         <f t="shared" si="5"/>
-        <v>524826862.72947598</v>
+        <v>-307559227.0134567</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4071,19 +4071,19 @@
       </c>
       <c r="C34" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D34" s="36">
         <f t="shared" si="0"/>
-        <v>9346974.1437183507</v>
+        <v>63788659.958858319</v>
       </c>
       <c r="E34" s="36">
         <f t="shared" si="1"/>
-        <v>6423080.8761988422</v>
+        <v>-3764166.63214524</v>
       </c>
       <c r="F34" s="36">
         <f t="shared" si="5"/>
-        <v>515479888.58575761</v>
+        <v>-371347886.97231501</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4096,19 +4096,19 @@
       </c>
       <c r="C35" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D35" s="36">
         <f t="shared" si="0"/>
-        <v>9461366.8608910404</v>
+        <v>64569358.842965893</v>
       </c>
       <c r="E35" s="36">
         <f t="shared" si="1"/>
-        <v>6308688.1590261534</v>
+        <v>-4544865.5162528139</v>
       </c>
       <c r="F35" s="36">
         <f t="shared" si="5"/>
-        <v>506018521.72486657</v>
+        <v>-435917245.81528091</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4121,19 +4121,19 @@
       </c>
       <c r="C36" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D36" s="36">
         <f t="shared" si="0"/>
-        <v>9577159.5705683567</v>
+        <v>65359612.57190074</v>
       </c>
       <c r="E36" s="36">
         <f t="shared" si="1"/>
-        <v>6192895.4493488381</v>
+        <v>-5335119.2451876644</v>
       </c>
       <c r="F36" s="36">
         <f t="shared" si="5"/>
-        <v>496441362.15429819</v>
+        <v>-501276858.38718164</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C37" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D37" s="36">
         <f t="shared" si="0"/>
-        <v>9694369.4065247346</v>
+        <v>66159538.085832164</v>
       </c>
       <c r="E37" s="36">
         <f t="shared" si="1"/>
-        <v>6075685.6133924592</v>
+        <v>-6135044.7591190832</v>
       </c>
       <c r="F37" s="36">
         <f t="shared" si="5"/>
-        <v>486746992.74777347</v>
+        <v>-567436396.47301376</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4171,19 +4171,19 @@
       </c>
       <c r="C38" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D38" s="36">
         <f t="shared" si="0"/>
-        <v>9813013.7122258916</v>
+        <v>66969253.756140873</v>
       </c>
       <c r="E38" s="36">
         <f t="shared" si="1"/>
-        <v>5957041.3076913012</v>
+        <v>-6944760.4294277979</v>
       </c>
       <c r="F38" s="36">
         <f t="shared" si="5"/>
-        <v>476933979.03554755</v>
+        <v>-634405650.22915459</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4196,19 +4196,19 @@
       </c>
       <c r="C39" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D39" s="36">
         <f t="shared" si="0"/>
-        <v>9933110.0433951393</v>
+        <v>67788879.402935416</v>
       </c>
       <c r="E39" s="36">
         <f t="shared" si="1"/>
-        <v>5836944.9765220555</v>
+        <v>-7764386.0762223359</v>
       </c>
       <c r="F39" s="36">
         <f t="shared" si="5"/>
-        <v>467000868.99215239</v>
+        <v>-702194529.63208997</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4221,19 +4221,19 @@
       </c>
       <c r="C40" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D40" s="36">
         <f t="shared" si="0"/>
-        <v>10054676.17061107</v>
+        <v>68618536.312782839</v>
       </c>
       <c r="E40" s="36">
         <f t="shared" si="1"/>
-        <v>5715378.8493061233</v>
+        <v>-8594042.9860697612</v>
       </c>
       <c r="F40" s="36">
         <f t="shared" si="5"/>
-        <v>456946192.82154131</v>
+        <v>-770813065.94487286</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4246,19 +4246,19 @@
       </c>
       <c r="C41" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D41" s="36">
         <f t="shared" si="0"/>
-        <v>10177730.081937086</v>
+        <v>69458347.256656498</v>
       </c>
       <c r="E41" s="36">
         <f t="shared" si="1"/>
-        <v>5592324.937980107</v>
+        <v>-9433853.92994342</v>
       </c>
       <c r="F41" s="36">
         <f t="shared" si="5"/>
-        <v>446768462.73960423</v>
+        <v>-840271413.20152938</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4271,19 +4271,19 @@
       </c>
       <c r="C42" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D42" s="36">
         <f t="shared" si="0"/>
-        <v>10302289.985583063</v>
+        <v>70308436.508103415</v>
       </c>
       <c r="E42" s="36">
         <f t="shared" si="1"/>
-        <v>5467765.0343341306</v>
+        <v>-10283943.181390341</v>
       </c>
       <c r="F42" s="36">
         <f t="shared" si="5"/>
-        <v>436466172.75402117</v>
+        <v>-910579849.70963275</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4296,19 +4296,19 @@
       </c>
       <c r="C43" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D43" s="36">
         <f t="shared" si="0"/>
-        <v>10428374.312599614</v>
+        <v>71168929.861634076</v>
       </c>
       <c r="E43" s="36">
         <f t="shared" si="1"/>
-        <v>5341680.7073175795</v>
+        <v>-11144436.534920994</v>
       </c>
       <c r="F43" s="36">
         <f t="shared" si="5"/>
-        <v>426037798.44142157</v>
+        <v>-981748779.57126689</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4321,19 +4321,19 @@
       </c>
       <c r="C44" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D44" s="36">
         <f t="shared" si="0"/>
-        <v>10556001.719605319</v>
+        <v>72039954.651337191</v>
       </c>
       <c r="E44" s="36">
         <f t="shared" si="1"/>
-        <v>5214053.3003118755</v>
+        <v>-12015461.324624108</v>
       </c>
       <c r="F44" s="36">
         <f t="shared" si="5"/>
-        <v>415481796.72181624</v>
+        <v>-1053788734.222604</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4346,19 +4346,19 @@
       </c>
       <c r="C45" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D45" s="36">
         <f t="shared" si="0"/>
-        <v>10685191.091547333</v>
+        <v>72921639.769722387</v>
       </c>
       <c r="E45" s="36">
         <f t="shared" si="1"/>
-        <v>5084863.9283698602</v>
+        <v>-12897146.443009306</v>
       </c>
       <c r="F45" s="36">
         <f t="shared" si="5"/>
-        <v>404796605.63026893</v>
+        <v>-1126710373.9923265</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4371,19 +4371,19 @@
       </c>
       <c r="C46" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D46" s="36">
         <f t="shared" si="0"/>
-        <v>10815961.544495784</v>
+        <v>73814115.686793461</v>
       </c>
       <c r="E46" s="36">
         <f t="shared" si="1"/>
-        <v>4954093.4754214101</v>
+        <v>-13789622.360080378</v>
       </c>
       <c r="F46" s="36">
         <f t="shared" si="5"/>
-        <v>393980644.08577317</v>
+        <v>-1200524489.6791201</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4396,19 +4396,19 @@
       </c>
       <c r="C47" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D47" s="36">
         <f t="shared" si="0"/>
-        <v>10948332.428472359</v>
+        <v>74717514.469355032</v>
       </c>
       <c r="E47" s="36">
         <f t="shared" si="1"/>
-        <v>4821722.591444836</v>
+        <v>-14693021.142641956</v>
       </c>
       <c r="F47" s="36">
         <f t="shared" si="5"/>
-        <v>383032311.65730083</v>
+        <v>-1275242004.1484752</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4421,19 +4421,19 @@
       </c>
       <c r="C48" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D48" s="36">
         <f t="shared" si="0"/>
-        <v>11082323.330313515</v>
+        <v>75631969.800555587</v>
       </c>
       <c r="E48" s="36">
         <f t="shared" si="1"/>
-        <v>4687731.689603678</v>
+        <v>-15607476.473842505</v>
       </c>
       <c r="F48" s="36">
         <f t="shared" si="5"/>
-        <v>371949988.32698733</v>
+        <v>-1350873973.9490309</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4446,19 +4446,19 @@
       </c>
       <c r="C49" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D49" s="36">
         <f t="shared" si="0"/>
-        <v>11217954.076568745</v>
+        <v>76557616.999669567</v>
       </c>
       <c r="E49" s="36">
         <f t="shared" si="1"/>
-        <v>4552100.9433484497</v>
+        <v>-16533123.672956489</v>
       </c>
       <c r="F49" s="36">
         <f t="shared" si="5"/>
-        <v>360732034.2504186</v>
+        <v>-1427431590.9487004</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4471,19 +4471,19 @@
       </c>
       <c r="C50" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D50" s="36">
         <f t="shared" si="0"/>
-        <v>11355244.736434273</v>
+        <v>77494593.042121723</v>
       </c>
       <c r="E50" s="36">
         <f t="shared" si="1"/>
-        <v>4414810.2834829204</v>
+        <v>-17470099.715408642</v>
       </c>
       <c r="F50" s="36">
         <f t="shared" si="5"/>
-        <v>349376789.51398432</v>
+        <v>-1504926183.9908221</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4496,19 +4496,19 @@
       </c>
       <c r="C51" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D51" s="36">
         <f t="shared" si="0"/>
-        <v>11494215.62472271</v>
+        <v>78443036.579756394</v>
       </c>
       <c r="E51" s="36">
         <f t="shared" si="1"/>
-        <v>4275839.3951944839</v>
+        <v>-18418543.253043316</v>
       </c>
       <c r="F51" s="36">
         <f t="shared" si="5"/>
-        <v>337882573.8892616</v>
+        <v>-1583369220.5705786</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4521,19 +4521,19 @@
       </c>
       <c r="C52" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D52" s="36">
         <f t="shared" si="0"/>
-        <v>11634887.304869002</v>
+        <v>79403087.961355001</v>
       </c>
       <c r="E52" s="36">
         <f t="shared" si="1"/>
-        <v>4135167.7150481925</v>
+        <v>-19378594.634641919</v>
       </c>
       <c r="F52" s="36">
         <f t="shared" si="5"/>
-        <v>326247686.58439261</v>
+        <v>-1662772308.5319335</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4546,19 +4546,19 @@
       </c>
       <c r="C53" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D53" s="36">
         <f t="shared" si="0"/>
-        <v>11777280.591973197</v>
+        <v>80374889.253404513</v>
       </c>
       <c r="E53" s="36">
         <f t="shared" si="1"/>
-        <v>3992774.4279439966</v>
+        <v>-20350395.926691432</v>
       </c>
       <c r="F53" s="36">
         <f t="shared" si="5"/>
-        <v>314470405.99241942</v>
+        <v>-1743147197.7853382</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4571,19 +4571,19 @@
       </c>
       <c r="C54" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D54" s="36">
         <f t="shared" si="0"/>
-        <v>11921416.555880446</v>
+        <v>81358584.2611202</v>
       </c>
       <c r="E54" s="36">
         <f t="shared" si="1"/>
-        <v>3848638.4640367469</v>
+        <v>-21334090.934407122</v>
       </c>
       <c r="F54" s="36">
         <f t="shared" si="5"/>
-        <v>302548989.43653899</v>
+        <v>-1824505782.0464582</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4596,19 +4596,19 @@
       </c>
       <c r="C55" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D55" s="36">
         <f t="shared" si="0"/>
-        <v>12067316.52429869</v>
+        <v>82354318.549725652</v>
       </c>
       <c r="E55" s="36">
         <f t="shared" si="1"/>
-        <v>3702738.4956185045</v>
+        <v>-22329825.223012567</v>
       </c>
       <c r="F55" s="36">
         <f t="shared" si="5"/>
-        <v>290481672.91224033</v>
+        <v>-1906860100.5961838</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4621,19 +4621,19 @@
       </c>
       <c r="C56" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D56" s="36">
         <f t="shared" si="0"/>
-        <v>12215002.085954502</v>
+        <v>83362239.465993181</v>
       </c>
       <c r="E56" s="36">
         <f t="shared" si="1"/>
-        <v>3555052.9339626911</v>
+        <v>-23337746.139280099</v>
       </c>
       <c r="F56" s="36">
         <f t="shared" si="5"/>
-        <v>278266670.82628584</v>
+        <v>-1990222340.0621769</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4646,19 +4646,19 @@
       </c>
       <c r="C57" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D57" s="36">
         <f t="shared" si="0"/>
-        <v>12364495.093787573</v>
+        <v>84382496.160047948</v>
       </c>
       <c r="E57" s="36">
         <f t="shared" si="1"/>
-        <v>3405559.926129621</v>
+        <v>-24358002.833334878</v>
       </c>
       <c r="F57" s="36">
         <f t="shared" si="5"/>
-        <v>265902175.73249826</v>
+        <v>-2074604836.222225</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4671,19 +4671,19 @@
       </c>
       <c r="C58" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D58" s="36">
         <f t="shared" si="0"/>
-        <v>12515817.668184262</v>
+        <v>85415239.607438922</v>
       </c>
       <c r="E58" s="36">
         <f t="shared" si="1"/>
-        <v>3254237.351732933</v>
+        <v>-25390746.280725837</v>
       </c>
       <c r="F58" s="36">
         <f t="shared" si="5"/>
-        <v>253386358.06431401</v>
+        <v>-2160020075.8296638</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4696,19 +4696,19 @@
       </c>
       <c r="C59" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D59" s="36">
         <f t="shared" si="0"/>
-        <v>12668992.200250741</v>
+        <v>86460622.63147983</v>
       </c>
       <c r="E59" s="36">
         <f t="shared" si="1"/>
-        <v>3101062.8196664536</v>
+        <v>-26436129.304766748</v>
       </c>
       <c r="F59" s="36">
         <f t="shared" si="5"/>
-        <v>240717365.86406326</v>
+        <v>-2246480698.4611435</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4721,19 +4721,19 @@
       </c>
       <c r="C60" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D60" s="36">
         <f t="shared" si="0"/>
-        <v>12824041.355126198</v>
+        <v>87518799.925863773</v>
       </c>
       <c r="E60" s="36">
         <f t="shared" si="1"/>
-        <v>2946013.6647909964</v>
+        <v>-27494306.599150691</v>
       </c>
       <c r="F60" s="36">
         <f t="shared" si="5"/>
-        <v>227893324.50893706</v>
+        <v>-2333999498.3870072</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4746,19 +4746,19 @@
       </c>
       <c r="C61" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D61" s="36">
         <f t="shared" si="0"/>
-        <v>12980988.075336576</v>
+        <v>88589928.077554435</v>
       </c>
       <c r="E61" s="36">
         <f t="shared" si="1"/>
-        <v>2789066.9445806174</v>
+        <v>-28565434.750841353</v>
       </c>
       <c r="F61" s="36">
         <f t="shared" si="5"/>
-        <v>214912336.43360049</v>
+        <v>-2422589426.4645615</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4771,19 +4771,19 @@
       </c>
       <c r="C62" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D62" s="36">
         <f t="shared" si="0"/>
-        <v>13139855.58418937</v>
+        <v>89674165.589957476</v>
       </c>
       <c r="E62" s="36">
         <f t="shared" si="1"/>
-        <v>2630199.4357278226</v>
+        <v>-29649672.263244405</v>
       </c>
       <c r="F62" s="36">
         <f t="shared" si="5"/>
-        <v>201772480.84941113</v>
+        <v>-2512263592.0545187</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4796,19 +4796,19 @@
       </c>
       <c r="C63" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D63" s="36">
         <f t="shared" si="0"/>
-        <v>13300667.389209963</v>
+        <v>90771672.906375647</v>
       </c>
       <c r="E63" s="36">
         <f t="shared" si="1"/>
-        <v>2469387.6307072309</v>
+        <v>-30747179.579662569</v>
       </c>
       <c r="F63" s="36">
         <f t="shared" si="5"/>
-        <v>188471813.46020117</v>
+        <v>-2603035264.9608946</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4821,19 +4821,19 @@
       </c>
       <c r="C64" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D64" s="36">
         <f t="shared" si="0"/>
-        <v>13463447.285620013</v>
+        <v>91882612.433750749</v>
       </c>
       <c r="E64" s="36">
         <f t="shared" si="1"/>
-        <v>2306607.7342971801</v>
+        <v>-31858119.107037675</v>
       </c>
       <c r="F64" s="36">
         <f t="shared" si="5"/>
-        <v>175008366.17458117</v>
+        <v>-2694917877.3946452</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C65" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D65" s="36">
         <f t="shared" si="0"/>
-        <v>13628219.359858431</v>
+        <v>93007148.566696376</v>
       </c>
       <c r="E65" s="36">
         <f t="shared" si="1"/>
-        <v>2141835.6600587624</v>
+        <v>-32982655.239983298</v>
       </c>
       <c r="F65" s="36">
         <f t="shared" si="5"/>
-        <v>161380146.81472275</v>
+        <v>-2787925025.9613414</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4871,19 +4871,19 @@
       </c>
       <c r="C66" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D66" s="36">
         <f t="shared" si="0"/>
-        <v>13795007.993145425</v>
+        <v>94145447.711824656</v>
       </c>
       <c r="E66" s="36">
         <f t="shared" si="1"/>
-        <v>1975047.0267717696</v>
+        <v>-34120954.385111578</v>
       </c>
       <c r="F66" s="36">
         <f t="shared" si="5"/>
-        <v>147585138.82157731</v>
+        <v>-2882070473.6731663</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4896,19 +4896,19 @@
       </c>
       <c r="C67" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D67" s="36">
         <f t="shared" si="0"/>
-        <v>13963837.865090175</v>
+        <v>95297678.312370807</v>
       </c>
       <c r="E67" s="36">
         <f t="shared" si="1"/>
-        <v>1806217.154827019</v>
+        <v>-35273184.985657729</v>
       </c>
       <c r="F67" s="36">
         <f t="shared" si="5"/>
-        <v>133621300.95648713</v>
+        <v>-2977368151.9855371</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4921,19 +4921,19 @@
       </c>
       <c r="C68" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D68" s="36">
         <f t="shared" si="0"/>
-        <v>14134733.957342666</v>
+        <v>96464010.873118997</v>
       </c>
       <c r="E68" s="36">
         <f t="shared" si="1"/>
-        <v>1635321.0625745279</v>
+        <v>-36439517.546405919</v>
       </c>
       <c r="F68" s="36">
         <f t="shared" si="5"/>
-        <v>119486566.99914446</v>
+        <v>-3073832162.8586559</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4946,19 +4946,19 @@
       </c>
       <c r="C69" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D69" s="36">
         <f t="shared" si="0"/>
-        <v>14307721.5572902</v>
+        <v>97644617.985633299</v>
       </c>
       <c r="E69" s="36">
         <f t="shared" si="1"/>
-        <v>1462333.4626269937</v>
+        <v>-37620124.658920221</v>
       </c>
       <c r="F69" s="36">
         <f t="shared" si="5"/>
-        <v>105178845.44185427</v>
+        <v>-3171476780.8442893</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4971,19 +4971,19 @@
       </c>
       <c r="C70" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D70" s="36">
         <f t="shared" si="0"/>
-        <v>14482826.261799159</v>
+        <v>98839674.353797495</v>
       </c>
       <c r="E70" s="36">
         <f t="shared" si="1"/>
-        <v>1287228.7581180353</v>
+        <v>-38815181.027084425</v>
       </c>
       <c r="F70" s="36">
         <f t="shared" si="5"/>
-        <v>90696019.180055112</v>
+        <v>-3270316455.1980867</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4996,19 +4996,19 @@
       </c>
       <c r="C71" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D71" s="36">
         <f t="shared" si="0"/>
-        <v>14660073.981002552</v>
+        <v>100049356.81966737</v>
       </c>
       <c r="E71" s="36">
         <f t="shared" si="1"/>
-        <v>1109981.0389146409</v>
+        <v>-40024863.492954284</v>
       </c>
       <c r="F71" s="36">
         <f t="shared" si="5"/>
-        <v>76035945.199052557</v>
+        <v>-3370365812.0177541</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5021,19 +5021,19 @@
       </c>
       <c r="C72" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D72" s="36">
         <f t="shared" si="0"/>
-        <v>14839490.942133931</v>
+        <v>101273844.38963939</v>
       </c>
       <c r="E72" s="36">
         <f t="shared" si="1"/>
-        <v>930564.07778326236</v>
+        <v>-41249351.062926315</v>
       </c>
       <c r="F72" s="36">
         <f t="shared" si="5"/>
-        <v>61196454.256918624</v>
+        <v>-3471639656.4073935</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5046,19 +5046,19 @@
       </c>
       <c r="C73" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D73" s="36">
         <f t="shared" si="0"/>
-        <v>15021103.693408206</v>
+        <v>102513318.26093987</v>
       </c>
       <c r="E73" s="36">
         <f t="shared" si="1"/>
-        <v>748951.32650898735</v>
+        <v>-42488824.934226789</v>
       </c>
       <c r="F73" s="36">
         <f t="shared" si="5"/>
-        <v>46175350.563510418</v>
+        <v>-3574152974.6683335</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5071,19 +5071,19 @@
       </c>
       <c r="C74" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D74" s="36">
         <f t="shared" si="0"/>
-        <v>15204939.107949976</v>
+        <v>103767961.84843799</v>
       </c>
       <c r="E74" s="36">
         <f t="shared" si="1"/>
-        <v>565115.91196721699</v>
+        <v>-43743468.521724917</v>
       </c>
       <c r="F74" s="36">
         <f t="shared" si="5"/>
-        <v>30970411.455560442</v>
+        <v>-3677920936.5167713</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5096,19 +5096,19 @@
       </c>
       <c r="C75" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D75" s="36">
         <f t="shared" si="0"/>
-        <v>15391024.387769928</v>
+        <v>105037960.81178732</v>
       </c>
       <c r="E75" s="36">
         <f t="shared" si="1"/>
-        <v>379030.6321472663</v>
+        <v>-45013467.485074244</v>
       </c>
       <c r="F75" s="36">
         <f t="shared" si="5"/>
-        <v>15579387.067790514</v>
+        <v>-3782958897.3285584</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5121,19 +5121,19 @@
       </c>
       <c r="C76" s="36">
         <f t="shared" si="4"/>
-        <v>15770055.019917194</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="D76" s="36">
         <f t="shared" si="0"/>
-        <v>15579387.067789894</v>
+        <v>106323503.08289924</v>
       </c>
       <c r="E76" s="36">
         <f t="shared" si="1"/>
-        <v>190667.95212730006</v>
+        <v>-46299009.756186172</v>
       </c>
       <c r="F76" s="36">
         <f t="shared" si="5"/>
-        <v>6.2026083469390869E-7</v>
+        <v>-3889282400.4114575</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5159,7 +5159,7 @@
       </c>
       <c r="E79" s="39">
         <f ca="1">SUM(E83:INDIRECT(CONCATENATE("E",82+B10)))</f>
-        <v>267262224.06739432</v>
+        <v>45463949.139554672</v>
       </c>
       <c r="F79" s="43"/>
     </row>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B80" s="94">
         <f>PMT(B9,B10,B11,B12,B79)</f>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="C80" s="46"/>
       <c r="D80" s="45" t="s">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="E80" s="44">
         <f ca="1">F82+E79</f>
-        <v>934763224.06739426</v>
+        <v>711584949.13955462</v>
       </c>
       <c r="F80" s="43"/>
     </row>
@@ -5208,7 +5208,7 @@
       </c>
       <c r="F82" s="38">
         <f>B3</f>
-        <v>667501000</v>
+        <v>666121000</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5221,18 +5221,18 @@
       </c>
       <c r="C83" s="36">
         <f>B80</f>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D83" s="36">
         <f t="shared" ref="D83:D142" si="6">C83-E83</f>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="E83" s="36">
         <v>0</v>
       </c>
       <c r="F83" s="36">
         <f t="shared" ref="F83:F94" si="7">F82-D83</f>
-        <v>651921612.93221009</v>
+        <v>606822254.23837042</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5245,19 +5245,19 @@
       </c>
       <c r="C84" s="36">
         <f t="shared" ref="C84:C142" si="9">$C$83</f>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D84" s="36">
         <f t="shared" si="6"/>
-        <v>7600860.1626913585</v>
+        <v>51871948.317678079</v>
       </c>
       <c r="E84" s="36">
         <f t="shared" ref="E84:E142" si="10">F83*$B$9</f>
-        <v>7978526.9050985407</v>
+        <v>7426797.4439514671</v>
       </c>
       <c r="F84" s="36">
         <f t="shared" si="7"/>
-        <v>644320752.76951873</v>
+        <v>554950305.92069232</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5270,19 +5270,19 @@
       </c>
       <c r="C85" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D85" s="36">
         <f t="shared" si="6"/>
-        <v>7693883.1061050026</v>
+        <v>52506800.534266666</v>
       </c>
       <c r="E85" s="36">
         <f t="shared" si="10"/>
-        <v>7885503.9616848966</v>
+        <v>6791945.2273628777</v>
       </c>
       <c r="F85" s="36">
         <f t="shared" si="7"/>
-        <v>636626869.66341376</v>
+        <v>502443505.38642567</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5295,19 +5295,19 @@
       </c>
       <c r="C86" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D86" s="36">
         <f t="shared" si="6"/>
-        <v>7788044.5085635604</v>
+        <v>53149422.602383465</v>
       </c>
       <c r="E86" s="36">
         <f t="shared" si="10"/>
-        <v>7791342.5592263388</v>
+        <v>6149323.1592460759</v>
       </c>
       <c r="F86" s="36">
         <f t="shared" si="7"/>
-        <v>628838825.15485024</v>
+        <v>449294082.78404224</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5320,19 +5320,19 @@
       </c>
       <c r="C87" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D87" s="36">
         <f t="shared" si="6"/>
-        <v>7883358.3030705387</v>
+        <v>53799909.615959309</v>
       </c>
       <c r="E87" s="36">
         <f t="shared" si="10"/>
-        <v>7696028.7647193605</v>
+        <v>5498836.1456702342</v>
       </c>
       <c r="F87" s="36">
         <f t="shared" si="7"/>
-        <v>620955466.8517797</v>
+        <v>395494173.16808295</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5345,19 +5345,19 @@
       </c>
       <c r="C88" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D88" s="36">
         <f t="shared" si="6"/>
-        <v>7979838.5931481756</v>
+        <v>54458357.832763948</v>
       </c>
       <c r="E88" s="36">
         <f t="shared" si="10"/>
-        <v>7599548.4746417236</v>
+        <v>4840387.9288655948</v>
       </c>
       <c r="F88" s="36">
         <f t="shared" si="7"/>
-        <v>612975628.25863147</v>
+        <v>341035815.33531898</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5370,19 +5370,19 @@
       </c>
       <c r="C89" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D89" s="36">
         <f t="shared" si="6"/>
-        <v>8077499.654924321</v>
+        <v>55124864.688650101</v>
       </c>
       <c r="E89" s="36">
         <f t="shared" si="10"/>
-        <v>7501887.4128655782</v>
+        <v>4173881.0729794395</v>
       </c>
       <c r="F89" s="36">
         <f t="shared" si="7"/>
-        <v>604898128.60370719</v>
+        <v>285910950.64666891</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5395,19 +5395,19 @@
       </c>
       <c r="C90" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D90" s="36">
         <f t="shared" si="6"/>
-        <v>8176355.9392448701</v>
+        <v>55799528.811971821</v>
       </c>
       <c r="E90" s="36">
         <f t="shared" si="10"/>
-        <v>7403031.1285450291</v>
+        <v>3499216.9496577247</v>
       </c>
       <c r="F90" s="36">
         <f t="shared" si="7"/>
-        <v>596721772.66446233</v>
+        <v>230111421.8346971</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5420,19 +5420,19 @@
       </c>
       <c r="C91" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D91" s="36">
         <f t="shared" si="6"/>
-        <v>8276422.0738120498</v>
+        <v>56482450.038179286</v>
       </c>
       <c r="E91" s="36">
         <f t="shared" si="10"/>
-        <v>7302964.9939778494</v>
+        <v>2816295.7234502556</v>
       </c>
       <c r="F91" s="36">
         <f t="shared" si="7"/>
-        <v>588445350.59065032</v>
+        <v>173628971.79651782</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5445,19 +5445,19 @@
       </c>
       <c r="C92" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D92" s="36">
         <f t="shared" si="6"/>
-        <v>8377712.8653488643</v>
+        <v>57173729.424592309</v>
       </c>
       <c r="E92" s="36">
         <f t="shared" si="10"/>
-        <v>7201674.2024410348</v>
+        <v>2125016.3370372355</v>
       </c>
       <c r="F92" s="36">
         <f t="shared" si="7"/>
-        <v>580067637.7253015</v>
+        <v>116455242.3719255</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5470,19 +5470,19 @@
       </c>
       <c r="C93" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D93" s="36">
         <f t="shared" si="6"/>
-        <v>8480243.3017900418</v>
+        <v>57873469.265354536</v>
       </c>
       <c r="E93" s="36">
         <f t="shared" si="10"/>
-        <v>7099143.7659998573</v>
+        <v>1425276.4962750052</v>
       </c>
       <c r="F93" s="36">
         <f t="shared" si="7"/>
-        <v>571587394.42351151</v>
+        <v>58581773.106570967</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5495,19 +5495,19 @@
       </c>
       <c r="C94" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D94" s="36">
         <f t="shared" si="6"/>
-        <v>8584028.5544997863</v>
+        <v>58581773.106570788</v>
       </c>
       <c r="E94" s="36">
         <f t="shared" si="10"/>
-        <v>6995358.5132901138</v>
+        <v>716972.65505875961</v>
       </c>
       <c r="F94" s="36">
         <f t="shared" si="7"/>
-        <v>563003365.86901176</v>
+        <v>1.7881393432617188E-7</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5520,19 +5520,19 @@
       </c>
       <c r="C95" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D95" s="36">
         <f t="shared" si="6"/>
-        <v>8689083.980516674</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="E95" s="36">
         <f t="shared" si="10"/>
-        <v>6890303.0872732252</v>
+        <v>2.188474237918854E-9</v>
       </c>
       <c r="F95" s="36">
         <f t="shared" ref="F95:F142" si="11">F94-D95</f>
-        <v>554314281.88849509</v>
+        <v>-59298745.761629365</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5545,19 +5545,19 @@
       </c>
       <c r="C96" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D96" s="36">
         <f t="shared" si="6"/>
-        <v>8795425.1248260308</v>
+        <v>60024493.326713078</v>
       </c>
       <c r="E96" s="36">
         <f t="shared" si="10"/>
-        <v>6783961.9429638684</v>
+        <v>-725747.5650835312</v>
       </c>
       <c r="F96" s="36">
         <f t="shared" si="11"/>
-        <v>545518856.76366901</v>
+        <v>-119323239.08834244</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5570,19 +5570,19 @@
       </c>
       <c r="C97" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D97" s="36">
         <f t="shared" si="6"/>
-        <v>8903067.7226601075</v>
+        <v>60759123.196497321</v>
       </c>
       <c r="E97" s="36">
         <f t="shared" si="10"/>
-        <v>6676319.3451297916</v>
+        <v>-1460377.4348677739</v>
       </c>
       <c r="F97" s="36">
         <f t="shared" si="11"/>
-        <v>536615789.04100889</v>
+        <v>-180082362.28483975</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5595,19 +5595,19 @@
       </c>
       <c r="C98" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D98" s="36">
         <f t="shared" si="6"/>
-        <v>9012027.7018264141</v>
+        <v>61502744.080043919</v>
       </c>
       <c r="E98" s="36">
         <f t="shared" si="10"/>
-        <v>6567359.3659634851</v>
+        <v>-2203998.318414377</v>
       </c>
       <c r="F98" s="36">
         <f t="shared" si="11"/>
-        <v>527603761.3391825</v>
+        <v>-241585106.36488366</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5620,19 +5620,19 @@
       </c>
       <c r="C99" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D99" s="36">
         <f t="shared" si="6"/>
-        <v>9122321.1850645468</v>
+        <v>62255466.016886808</v>
       </c>
       <c r="E99" s="36">
         <f t="shared" si="10"/>
-        <v>6457065.8827253524</v>
+        <v>-2956720.2552572615</v>
       </c>
       <c r="F99" s="36">
         <f t="shared" si="11"/>
-        <v>518481440.15411794</v>
+        <v>-303840572.38177049</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5645,19 +5645,19 @@
       </c>
       <c r="C100" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D100" s="36">
         <f t="shared" si="6"/>
-        <v>9233964.4924318641</v>
+        <v>63017400.393315591</v>
       </c>
       <c r="E100" s="36">
         <f t="shared" si="10"/>
-        <v>6345422.575358035</v>
+        <v>-3718654.6316860467</v>
       </c>
       <c r="F100" s="36">
         <f t="shared" si="11"/>
-        <v>509247475.66168606</v>
+        <v>-366857972.7750861</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5670,19 +5670,19 @@
       </c>
       <c r="C101" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D101" s="36">
         <f t="shared" si="6"/>
-        <v>9346974.1437183507</v>
+        <v>63788659.958858319</v>
       </c>
       <c r="E101" s="36">
         <f t="shared" si="10"/>
-        <v>6232412.9240715494</v>
+        <v>-4489914.1972287716</v>
       </c>
       <c r="F101" s="36">
         <f t="shared" si="11"/>
-        <v>499900501.5179677</v>
+        <v>-430646632.73394442</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5695,19 +5695,19 @@
       </c>
       <c r="C102" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D102" s="36">
         <f t="shared" si="6"/>
-        <v>9461366.8608910386</v>
+        <v>64569358.842965886</v>
       </c>
       <c r="E102" s="36">
         <f t="shared" si="10"/>
-        <v>6118020.2068988606</v>
+        <v>-5270613.0813363455</v>
       </c>
       <c r="F102" s="36">
         <f t="shared" si="11"/>
-        <v>490439134.65707666</v>
+        <v>-495215991.57691032</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5720,19 +5720,19 @@
       </c>
       <c r="C103" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D103" s="36">
         <f t="shared" si="6"/>
-        <v>9577159.5705683529</v>
+        <v>65359612.57190074</v>
       </c>
       <c r="E103" s="36">
         <f t="shared" si="10"/>
-        <v>6002227.4972215453</v>
+        <v>-6060866.8102711961</v>
       </c>
       <c r="F103" s="36">
         <f t="shared" si="11"/>
-        <v>480861975.08650827</v>
+        <v>-560575604.1488111</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -5745,19 +5745,19 @@
       </c>
       <c r="C104" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D104" s="36">
         <f t="shared" si="6"/>
-        <v>9694369.4065247327</v>
+        <v>66159538.085832164</v>
       </c>
       <c r="E104" s="36">
         <f t="shared" si="10"/>
-        <v>5885017.6612651665</v>
+        <v>-6860792.3242026158</v>
       </c>
       <c r="F104" s="36">
         <f t="shared" si="11"/>
-        <v>471167605.67998356</v>
+        <v>-626735142.23464322</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C105" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D105" s="36">
         <f t="shared" si="6"/>
-        <v>9813013.7122258916</v>
+        <v>66969253.756140873</v>
       </c>
       <c r="E105" s="36">
         <f t="shared" si="10"/>
-        <v>5766373.3555640085</v>
+        <v>-7670507.9945113305</v>
       </c>
       <c r="F105" s="36">
         <f t="shared" si="11"/>
-        <v>461354591.96775764</v>
+        <v>-693704395.99078405</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5795,19 +5795,19 @@
       </c>
       <c r="C106" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D106" s="36">
         <f t="shared" si="6"/>
-        <v>9933110.0433951356</v>
+        <v>67788879.402935416</v>
       </c>
       <c r="E106" s="36">
         <f t="shared" si="10"/>
-        <v>5646277.0243947627</v>
+        <v>-8490133.6413058694</v>
       </c>
       <c r="F106" s="36">
         <f t="shared" si="11"/>
-        <v>451421481.92436248</v>
+        <v>-761493275.39371943</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5820,19 +5820,19 @@
       </c>
       <c r="C107" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D107" s="36">
         <f t="shared" si="6"/>
-        <v>10054676.170611069</v>
+        <v>68618536.312782839</v>
       </c>
       <c r="E107" s="36">
         <f t="shared" si="10"/>
-        <v>5524710.8971788306</v>
+        <v>-9319790.5511532929</v>
       </c>
       <c r="F107" s="36">
         <f t="shared" si="11"/>
-        <v>441366805.7537514</v>
+        <v>-830111811.70650232</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5845,19 +5845,19 @@
       </c>
       <c r="C108" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D108" s="36">
         <f t="shared" si="6"/>
-        <v>10177730.081937086</v>
+        <v>69458347.256656498</v>
       </c>
       <c r="E108" s="36">
         <f t="shared" si="10"/>
-        <v>5401656.9858528143</v>
+        <v>-10159601.495026952</v>
       </c>
       <c r="F108" s="36">
         <f t="shared" si="11"/>
-        <v>431189075.67181432</v>
+        <v>-899570158.96315885</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -5870,19 +5870,19 @@
       </c>
       <c r="C109" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D109" s="36">
         <f t="shared" si="6"/>
-        <v>10302289.985583061</v>
+        <v>70308436.508103415</v>
       </c>
       <c r="E109" s="36">
         <f t="shared" si="10"/>
-        <v>5277097.0822068378</v>
+        <v>-11009690.746473873</v>
       </c>
       <c r="F109" s="36">
         <f t="shared" si="11"/>
-        <v>420886785.68623126</v>
+        <v>-969878595.47126222</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -5895,19 +5895,19 @@
       </c>
       <c r="C110" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D110" s="36">
         <f t="shared" si="6"/>
-        <v>10428374.312599612</v>
+        <v>71168929.861634076</v>
       </c>
       <c r="E110" s="36">
         <f t="shared" si="10"/>
-        <v>5151012.7551902868</v>
+        <v>-11870184.100004528</v>
       </c>
       <c r="F110" s="36">
         <f t="shared" si="11"/>
-        <v>410458411.37363166</v>
+        <v>-1041047525.3328962</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -5920,19 +5920,19 @@
       </c>
       <c r="C111" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D111" s="36">
         <f t="shared" si="6"/>
-        <v>10556001.719605315</v>
+        <v>72039954.651337177</v>
       </c>
       <c r="E111" s="36">
         <f t="shared" si="10"/>
-        <v>5023385.3481845828</v>
+        <v>-12741208.889707638</v>
       </c>
       <c r="F111" s="36">
         <f t="shared" si="11"/>
-        <v>399902409.65402633</v>
+        <v>-1113087479.9842334</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -5945,19 +5945,19 @@
       </c>
       <c r="C112" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D112" s="36">
         <f t="shared" si="6"/>
-        <v>10685191.091547331</v>
+        <v>72921639.769722387</v>
       </c>
       <c r="E112" s="36">
         <f t="shared" si="10"/>
-        <v>4894195.9762425683</v>
+        <v>-13622894.008092837</v>
       </c>
       <c r="F112" s="36">
         <f t="shared" si="11"/>
-        <v>389217218.56247902</v>
+        <v>-1186009119.7539558</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -5970,19 +5970,19 @@
       </c>
       <c r="C113" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D113" s="36">
         <f t="shared" si="6"/>
-        <v>10815961.544495782</v>
+        <v>73814115.686793447</v>
       </c>
       <c r="E113" s="36">
         <f t="shared" si="10"/>
-        <v>4763425.5232941173</v>
+        <v>-14515369.925163908</v>
       </c>
       <c r="F113" s="36">
         <f t="shared" si="11"/>
-        <v>378401257.01798326</v>
+        <v>-1259823235.4407492</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -5995,19 +5995,19 @@
       </c>
       <c r="C114" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D114" s="36">
         <f t="shared" si="6"/>
-        <v>10948332.428472355</v>
+        <v>74717514.469355032</v>
       </c>
       <c r="E114" s="36">
         <f t="shared" si="10"/>
-        <v>4631054.6393175432</v>
+        <v>-15418768.707725484</v>
       </c>
       <c r="F114" s="36">
         <f t="shared" si="11"/>
-        <v>367452924.58951092</v>
+        <v>-1334540749.9101043</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6020,19 +6020,19 @@
       </c>
       <c r="C115" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D115" s="36">
         <f t="shared" si="6"/>
-        <v>11082323.330313515</v>
+        <v>75631969.800555572</v>
       </c>
       <c r="E115" s="36">
         <f t="shared" si="10"/>
-        <v>4497063.7374763852</v>
+        <v>-16333224.038926033</v>
       </c>
       <c r="F115" s="36">
         <f t="shared" si="11"/>
-        <v>356370601.25919741</v>
+        <v>-1410172719.7106597</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -6045,19 +6045,19 @@
       </c>
       <c r="C116" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D116" s="36">
         <f t="shared" si="6"/>
-        <v>11217954.076568741</v>
+        <v>76557616.999669552</v>
       </c>
       <c r="E116" s="36">
         <f t="shared" si="10"/>
-        <v>4361432.9912211569</v>
+        <v>-17258871.238040015</v>
       </c>
       <c r="F116" s="36">
         <f t="shared" si="11"/>
-        <v>345152647.18262869</v>
+        <v>-1486730336.7103293</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -6070,19 +6070,19 @@
       </c>
       <c r="C117" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D117" s="36">
         <f t="shared" si="6"/>
-        <v>11355244.736434272</v>
+        <v>77494593.042121708</v>
       </c>
       <c r="E117" s="36">
         <f t="shared" si="10"/>
-        <v>4224142.3313556276</v>
+        <v>-18195847.280492164</v>
       </c>
       <c r="F117" s="36">
         <f t="shared" si="11"/>
-        <v>333797402.44619441</v>
+        <v>-1564224929.7524509</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -6095,19 +6095,19 @@
       </c>
       <c r="C118" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D118" s="36">
         <f t="shared" si="6"/>
-        <v>11494215.624722708</v>
+        <v>78443036.579756379</v>
       </c>
       <c r="E118" s="36">
         <f t="shared" si="10"/>
-        <v>4085171.4430671912</v>
+        <v>-19144290.818126842</v>
       </c>
       <c r="F118" s="36">
         <f t="shared" si="11"/>
-        <v>322303186.82147169</v>
+        <v>-1642667966.3322072</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -6120,19 +6120,19 @@
       </c>
       <c r="C119" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D119" s="36">
         <f t="shared" si="6"/>
-        <v>11634887.304869</v>
+        <v>79403087.961354986</v>
       </c>
       <c r="E119" s="36">
         <f t="shared" si="10"/>
-        <v>3944499.7629208998</v>
+        <v>-20104342.199725442</v>
       </c>
       <c r="F119" s="36">
         <f t="shared" si="11"/>
-        <v>310668299.51660269</v>
+        <v>-1722071054.2935622</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -6145,19 +6145,19 @@
       </c>
       <c r="C120" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D120" s="36">
         <f t="shared" si="6"/>
-        <v>11777280.591973195</v>
+        <v>80374889.253404498</v>
       </c>
       <c r="E120" s="36">
         <f t="shared" si="10"/>
-        <v>3802106.4758167039</v>
+        <v>-21076143.49177495</v>
       </c>
       <c r="F120" s="36">
         <f t="shared" si="11"/>
-        <v>298891018.92462951</v>
+        <v>-1802445943.5469666</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -6170,19 +6170,19 @@
       </c>
       <c r="C121" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D121" s="36">
         <f t="shared" si="6"/>
-        <v>11921416.555880446</v>
+        <v>81358584.261120185</v>
       </c>
       <c r="E121" s="36">
         <f t="shared" si="10"/>
-        <v>3657970.5119094541</v>
+        <v>-22059838.499490641</v>
       </c>
       <c r="F121" s="36">
         <f t="shared" si="11"/>
-        <v>286969602.36874908</v>
+        <v>-1883804527.8080866</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -6195,19 +6195,19 @@
       </c>
       <c r="C122" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D122" s="36">
         <f t="shared" si="6"/>
-        <v>12067316.524298687</v>
+        <v>82354318.549725637</v>
       </c>
       <c r="E122" s="36">
         <f t="shared" si="10"/>
-        <v>3512070.5434912117</v>
+        <v>-23055572.788096089</v>
       </c>
       <c r="F122" s="36">
         <f t="shared" si="11"/>
-        <v>274902285.84445041</v>
+        <v>-1966158846.3578122</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6220,19 +6220,19 @@
       </c>
       <c r="C123" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D123" s="36">
         <f t="shared" si="6"/>
-        <v>12215002.0859545</v>
+        <v>83362239.465993166</v>
       </c>
       <c r="E123" s="36">
         <f t="shared" si="10"/>
-        <v>3364384.9818353984</v>
+        <v>-24063493.704363618</v>
       </c>
       <c r="F123" s="36">
         <f t="shared" si="11"/>
-        <v>262687283.75849593</v>
+        <v>-2049521085.8238053</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6245,19 +6245,19 @@
       </c>
       <c r="C124" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D124" s="36">
         <f t="shared" si="6"/>
-        <v>12364495.093787571</v>
+        <v>84382496.160047948</v>
       </c>
       <c r="E124" s="36">
         <f t="shared" si="10"/>
-        <v>3214891.9740023282</v>
+        <v>-25083750.398418397</v>
       </c>
       <c r="F124" s="36">
         <f t="shared" si="11"/>
-        <v>250322788.66470835</v>
+        <v>-2133903581.9838533</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6270,19 +6270,19 @@
       </c>
       <c r="C125" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D125" s="36">
         <f t="shared" si="6"/>
-        <v>12515817.668184258</v>
+        <v>85415239.607438907</v>
       </c>
       <c r="E125" s="36">
         <f t="shared" si="10"/>
-        <v>3063569.3996056402</v>
+        <v>-26116493.845809359</v>
       </c>
       <c r="F125" s="36">
         <f t="shared" si="11"/>
-        <v>237806970.9965241</v>
+        <v>-2219318821.5912924</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6295,19 +6295,19 @@
       </c>
       <c r="C126" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D126" s="36">
         <f t="shared" si="6"/>
-        <v>12668992.200250737</v>
+        <v>86460622.631479815</v>
       </c>
       <c r="E126" s="36">
         <f t="shared" si="10"/>
-        <v>2910394.8675391609</v>
+        <v>-27161876.86985027</v>
       </c>
       <c r="F126" s="36">
         <f t="shared" si="11"/>
-        <v>225137978.79627335</v>
+        <v>-2305779444.2227721</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6320,19 +6320,19 @@
       </c>
       <c r="C127" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D127" s="36">
         <f t="shared" si="6"/>
-        <v>12824041.355126195</v>
+        <v>87518799.925863758</v>
       </c>
       <c r="E127" s="36">
         <f t="shared" si="10"/>
-        <v>2755345.7126637036</v>
+        <v>-28220054.164234214</v>
       </c>
       <c r="F127" s="36">
         <f t="shared" si="11"/>
-        <v>212313937.44114715</v>
+        <v>-2393298244.1486359</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -6345,19 +6345,19 @@
       </c>
       <c r="C128" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D128" s="36">
         <f t="shared" si="6"/>
-        <v>12980988.075336576</v>
+        <v>88589928.07755442</v>
       </c>
       <c r="E128" s="36">
         <f t="shared" si="10"/>
-        <v>2598398.9924533246</v>
+        <v>-29291182.315924875</v>
       </c>
       <c r="F128" s="36">
         <f t="shared" si="11"/>
-        <v>199332949.36581057</v>
+        <v>-2481888172.2261901</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6370,19 +6370,19 @@
       </c>
       <c r="C129" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D129" s="36">
         <f t="shared" si="6"/>
-        <v>13139855.58418937</v>
+        <v>89674165.589957476</v>
       </c>
       <c r="E129" s="36">
         <f t="shared" si="10"/>
-        <v>2439531.4836005298</v>
+        <v>-30375419.828327928</v>
       </c>
       <c r="F129" s="36">
         <f t="shared" si="11"/>
-        <v>186193093.78162122</v>
+        <v>-2571562337.8161478</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6395,19 +6395,19 @@
       </c>
       <c r="C130" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D130" s="36">
         <f t="shared" si="6"/>
-        <v>13300667.389209962</v>
+        <v>90771672.906375647</v>
       </c>
       <c r="E130" s="36">
         <f t="shared" si="10"/>
-        <v>2278719.6785799381</v>
+        <v>-31472927.144746099</v>
       </c>
       <c r="F130" s="36">
         <f t="shared" si="11"/>
-        <v>172892426.39241126</v>
+        <v>-2662334010.7225237</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6420,19 +6420,19 @@
       </c>
       <c r="C131" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D131" s="36">
         <f t="shared" si="6"/>
-        <v>13463447.285620011</v>
+        <v>91882612.433750749</v>
       </c>
       <c r="E131" s="36">
         <f t="shared" si="10"/>
-        <v>2115939.7821698873</v>
+        <v>-32583866.672121204</v>
       </c>
       <c r="F131" s="36">
         <f t="shared" si="11"/>
-        <v>159428979.10679126</v>
+        <v>-2754216623.1562743</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6445,19 +6445,19 @@
       </c>
       <c r="C132" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D132" s="36">
         <f t="shared" si="6"/>
-        <v>13628219.359858429</v>
+        <v>93007148.566696376</v>
       </c>
       <c r="E132" s="36">
         <f t="shared" si="10"/>
-        <v>1951167.7079314697</v>
+        <v>-33708402.805066824</v>
       </c>
       <c r="F132" s="36">
         <f t="shared" si="11"/>
-        <v>145800759.74693283</v>
+        <v>-2847223771.7229705</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6470,19 +6470,19 @@
       </c>
       <c r="C133" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D133" s="36">
         <f t="shared" si="6"/>
-        <v>13795007.993145423</v>
+        <v>94145447.711824656</v>
       </c>
       <c r="E133" s="36">
         <f t="shared" si="10"/>
-        <v>1784379.0746444769</v>
+        <v>-34846701.950195104</v>
       </c>
       <c r="F133" s="36">
         <f t="shared" si="11"/>
-        <v>132005751.75378741</v>
+        <v>-2941369219.4347954</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6495,19 +6495,19 @@
       </c>
       <c r="C134" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D134" s="36">
         <f t="shared" si="6"/>
-        <v>13963837.865090173</v>
+        <v>95297678.312370807</v>
       </c>
       <c r="E134" s="36">
         <f t="shared" si="10"/>
-        <v>1615549.2026997264</v>
+        <v>-35998932.550741255</v>
       </c>
       <c r="F134" s="36">
         <f t="shared" si="11"/>
-        <v>118041913.88869724</v>
+        <v>-3036666897.7471662</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6520,19 +6520,19 @@
       </c>
       <c r="C135" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D135" s="36">
         <f t="shared" si="6"/>
-        <v>14134733.957342664</v>
+        <v>96464010.873118997</v>
       </c>
       <c r="E135" s="36">
         <f t="shared" si="10"/>
-        <v>1444653.1104472354</v>
+        <v>-37165265.111489445</v>
       </c>
       <c r="F135" s="36">
         <f t="shared" si="11"/>
-        <v>103907179.93135457</v>
+        <v>-3133130908.620285</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6545,19 +6545,19 @@
       </c>
       <c r="C136" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D136" s="36">
         <f t="shared" si="6"/>
-        <v>14307721.557290198</v>
+        <v>97644617.985633299</v>
       </c>
       <c r="E136" s="36">
         <f t="shared" si="10"/>
-        <v>1271665.5104997011</v>
+        <v>-38345872.224003755</v>
       </c>
       <c r="F136" s="36">
         <f t="shared" si="11"/>
-        <v>89599458.374064371</v>
+        <v>-3230775526.6059184</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6570,19 +6570,19 @@
       </c>
       <c r="C137" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D137" s="36">
         <f t="shared" si="6"/>
-        <v>14482826.261799157</v>
+        <v>98839674.353797495</v>
       </c>
       <c r="E137" s="36">
         <f t="shared" si="10"/>
-        <v>1096560.8059907428</v>
+        <v>-39540928.592167951</v>
       </c>
       <c r="F137" s="36">
         <f t="shared" si="11"/>
-        <v>75116632.112265214</v>
+        <v>-3329615200.9597158</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6595,19 +6595,19 @@
       </c>
       <c r="C138" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D138" s="36">
         <f t="shared" si="6"/>
-        <v>14660073.981002551</v>
+        <v>100049356.81966735</v>
       </c>
       <c r="E138" s="36">
         <f t="shared" si="10"/>
-        <v>919313.0867873485</v>
+        <v>-40750611.05803781</v>
       </c>
       <c r="F138" s="36">
         <f t="shared" si="11"/>
-        <v>60456558.13126266</v>
+        <v>-3429664557.7793832</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6620,19 +6620,19 @@
       </c>
       <c r="C139" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D139" s="36">
         <f t="shared" si="6"/>
-        <v>14839490.94213393</v>
+        <v>101273844.38963938</v>
       </c>
       <c r="E139" s="36">
         <f t="shared" si="10"/>
-        <v>739896.12565596984</v>
+        <v>-41975098.628009841</v>
       </c>
       <c r="F139" s="36">
         <f t="shared" si="11"/>
-        <v>45617067.189128727</v>
+        <v>-3530938402.1690226</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6645,19 +6645,19 @@
       </c>
       <c r="C140" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D140" s="36">
         <f t="shared" si="6"/>
-        <v>15021103.693408204</v>
+        <v>102513318.26093987</v>
       </c>
       <c r="E140" s="36">
         <f t="shared" si="10"/>
-        <v>558283.37438169483</v>
+        <v>-43214572.499310315</v>
       </c>
       <c r="F140" s="36">
         <f t="shared" si="11"/>
-        <v>30595963.495720521</v>
+        <v>-3633451720.4299626</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -6670,19 +6670,19 @@
       </c>
       <c r="C141" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D141" s="36">
         <f t="shared" si="6"/>
-        <v>15204939.107949974</v>
+        <v>103767961.84843799</v>
       </c>
       <c r="E141" s="36">
         <f t="shared" si="10"/>
-        <v>374447.95983992447</v>
+        <v>-44469216.086808451</v>
       </c>
       <c r="F141" s="36">
         <f t="shared" si="11"/>
-        <v>15391024.387770547</v>
+        <v>-3737219682.2784004</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -6695,19 +6695,19 @@
       </c>
       <c r="C142" s="36">
         <f t="shared" si="9"/>
-        <v>15579387.067789899</v>
+        <v>59298745.761629544</v>
       </c>
       <c r="D142" s="36">
         <f t="shared" si="6"/>
-        <v>15391024.387769924</v>
+        <v>105037960.81178731</v>
       </c>
       <c r="E142" s="36">
         <f t="shared" si="10"/>
-        <v>188362.68001997381</v>
+        <v>-45739215.050157771</v>
       </c>
       <c r="F142" s="36">
         <f t="shared" si="11"/>
-        <v>6.2212347984313965E-7</v>
+        <v>-3842257643.0901875</v>
       </c>
     </row>
     <row r="144" spans="1:6" s="42" customFormat="1" ht="57" customHeight="1">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="E147" s="43">
         <f ca="1">SUM(E151:INDIRECT(CONCATENATE("E",150+B10)))</f>
-        <v>288100108.04605484</v>
+        <v>65882738.101308547</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -6749,14 +6749,14 @@
       </c>
       <c r="B148" s="94">
         <f ca="1">PMT(B9,B10-B146,-INDIRECT(CONCATENATE("F",150+B146)),0,0)</f>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D148" s="78" t="s">
         <v>70</v>
       </c>
       <c r="E148" s="43">
         <f ca="1">F150+E147</f>
-        <v>955601108.04605484</v>
+        <v>732003738.10130858</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -6787,7 +6787,7 @@
       </c>
       <c r="F150" s="38">
         <f>B3</f>
-        <v>667501000</v>
+        <v>666121000</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="C151" s="77">
         <f>IF($B$146&gt;=A151,IF($B$15&lt;&gt;0,CEILING(E151,$B$15),E151),$B$148)</f>
-        <v>8170000</v>
+        <v>8153000</v>
       </c>
       <c r="D151" s="102">
         <f>IF($B$146&gt;=$A151,0,C151-E151)</f>
@@ -6808,11 +6808,11 @@
       </c>
       <c r="E151" s="77">
         <f>IF($B$146&gt;=A151,IF($B$15&lt;&gt;0,CEILING(F150*$B$9,B$15),F150*$B$9),F150*$B$9)</f>
-        <v>8170000</v>
+        <v>8153000</v>
       </c>
       <c r="F151" s="77">
         <f>F150-D151</f>
-        <v>667501000</v>
+        <v>666121000</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -6825,7 +6825,7 @@
       </c>
       <c r="C152" s="77">
         <f t="shared" ref="C152:C210" si="13">IF($B$146&gt;=A152,IF($B$15&lt;&gt;0,CEILING(E152,$B$15),E152),$B$148)</f>
-        <v>8170000</v>
+        <v>8153000</v>
       </c>
       <c r="D152" s="102">
         <f t="shared" ref="D152:D210" si="14">IF($B$146&gt;=$A152,0,C152-E152)</f>
@@ -6833,11 +6833,11 @@
       </c>
       <c r="E152" s="77">
         <f t="shared" ref="E152:E210" si="15">IF($B$146&gt;=A152,IF($B$15&lt;&gt;0,CEILING(F151*$B$9,B$15),F151*$B$9),F151*$B$9)</f>
-        <v>8170000</v>
+        <v>8153000</v>
       </c>
       <c r="F152" s="77">
         <f t="shared" ref="F152:F162" si="16">F151-D152</f>
-        <v>667501000</v>
+        <v>666121000</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -6850,7 +6850,7 @@
       </c>
       <c r="C153" s="77">
         <f t="shared" si="13"/>
-        <v>8170000</v>
+        <v>8153000</v>
       </c>
       <c r="D153" s="102">
         <f t="shared" si="14"/>
@@ -6858,11 +6858,11 @@
       </c>
       <c r="E153" s="77">
         <f t="shared" si="15"/>
-        <v>8170000</v>
+        <v>8153000</v>
       </c>
       <c r="F153" s="77">
         <f>F152-D153</f>
-        <v>667501000</v>
+        <v>666121000</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -6875,19 +6875,19 @@
       </c>
       <c r="C154" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D154" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>8165736.862880392</v>
+        <v>70463537.00222148</v>
       </c>
       <c r="E154" s="77">
         <f t="shared" si="15"/>
-        <v>8169194.8572258335</v>
+        <v>8152545.0090350015</v>
       </c>
       <c r="F154" s="77">
         <f ca="1">F153-D154</f>
-        <v>659335263.13711965</v>
+        <v>595657462.99777853</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -6900,19 +6900,19 @@
       </c>
       <c r="C155" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D155" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>8265673.0361381127</v>
+        <v>71325928.605108067</v>
       </c>
       <c r="E155" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>8069258.6839681128</v>
+        <v>7290153.4061484179</v>
       </c>
       <c r="F155" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>651069590.10098159</v>
+        <v>524331534.39267045</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -6925,19 +6925,19 @@
       </c>
       <c r="C156" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D156" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>8366832.2758371234</v>
+        <v>72198874.876527771</v>
       </c>
       <c r="E156" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>7968099.4442691021</v>
+        <v>6417207.1347287195</v>
       </c>
       <c r="F156" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>642702757.82514453</v>
+        <v>452132659.51614267</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -6950,19 +6950,19 @@
       </c>
       <c r="C157" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D157" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>8469229.5504465085</v>
+        <v>73082504.99332723</v>
       </c>
       <c r="E157" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>7865702.169659717</v>
+        <v>5533577.0179292504</v>
       </c>
       <c r="F157" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>634233528.27469802</v>
+        <v>379050154.52281547</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -6975,19 +6975,19 @@
       </c>
       <c r="C158" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D158" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>8572880.0116266012</v>
+        <v>73976949.713327244</v>
       </c>
       <c r="E158" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>7762051.7084796252</v>
+        <v>4639132.2979292432</v>
       </c>
       <c r="F158" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>625660648.26307142</v>
+        <v>305073204.80948824</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -7000,19 +7000,19 @@
       </c>
       <c r="C159" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D159" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>8677798.996470958</v>
+        <v>74882341.394671947</v>
       </c>
       <c r="E159" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>7657132.7236352665</v>
+        <v>3733740.6165845334</v>
       </c>
       <c r="F159" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>616982849.26660049</v>
+        <v>230190863.41481629</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -7025,19 +7025,19 @@
       </c>
       <c r="C160" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D160" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>8784002.0297757927</v>
+        <v>75798814.015415013</v>
       </c>
       <c r="E160" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>7550929.6903304327</v>
+        <v>2817267.9958414733</v>
       </c>
       <c r="F160" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>608198847.23682475</v>
+        <v>154392049.39940128</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -7050,19 +7050,19 @@
       </c>
       <c r="C161" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D161" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>8891504.826337155</v>
+        <v>76726503.193345368</v>
       </c>
       <c r="E161" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>7443426.8937690714</v>
+        <v>1889578.8179111215</v>
       </c>
       <c r="F161" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>599307342.41048765</v>
+        <v>77665546.206055909</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -7075,19 +7075,19 @@
       </c>
       <c r="C162" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D162" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>9000323.2932762466</v>
+        <v>77665546.206055686</v>
       </c>
       <c r="E162" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>7334608.4268299779</v>
+        <v>950535.80520079436</v>
       </c>
       <c r="F162" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>590307019.11721146</v>
+        <v>2.2351741790771484E-7</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -7100,19 +7100,19 @@
       </c>
       <c r="C163" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D163" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>9110473.5323931947</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="E163" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>7224458.1877130307</v>
+        <v>2.7355927973985676E-9</v>
       </c>
       <c r="F163" s="77">
         <f t="shared" ref="F163:F210" ca="1" si="17">F162-D163</f>
-        <v>581196545.58481824</v>
+        <v>-78616082.011256263</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -7125,19 +7125,19 @@
       </c>
       <c r="C164" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D164" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>9221971.8425496127</v>
+        <v>79578251.267338723</v>
       </c>
       <c r="E164" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>7112959.8775566127</v>
+        <v>-962169.25608223362</v>
       </c>
       <c r="F164" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>571974573.74226868</v>
+        <v>-158194333.27859497</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -7150,19 +7150,19 @@
       </c>
       <c r="C165" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D165" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>9334834.722080335</v>
+        <v>80552196.354188219</v>
       </c>
       <c r="E165" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>7000096.9980258895</v>
+        <v>-1936114.3429317332</v>
       </c>
       <c r="F165" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>562639739.02018833</v>
+        <v>-238746529.63278317</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -7175,19 +7175,19 @@
       </c>
       <c r="C166" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D166" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>9449078.8712346777</v>
+        <v>81538061.394254729</v>
       </c>
       <c r="E166" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>6885852.8488715487</v>
+        <v>-2921979.3829982444</v>
       </c>
       <c r="F166" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>553190660.14895368</v>
+        <v>-320284591.02703792</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -7200,19 +7200,19 @@
       </c>
       <c r="C167" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D167" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>9564721.1946475431</v>
+        <v>82535992.273878887</v>
       </c>
       <c r="E167" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>6770210.5254586823</v>
+        <v>-3919910.2626223983</v>
       </c>
       <c r="F167" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>543625938.95430613</v>
+        <v>-402820583.30091679</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -7225,19 +7225,19 @@
       </c>
       <c r="C168" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D168" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>9681778.8038408086</v>
+        <v>83546136.664880157</v>
       </c>
       <c r="E168" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>6653152.9162654178</v>
+        <v>-4930054.6536236769</v>
       </c>
       <c r="F168" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>533944160.15046531</v>
+        <v>-486366719.96579695</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -7250,19 +7250,19 @@
       </c>
       <c r="C169" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D169" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>9800269.0197552927</v>
+        <v>84568644.046409085</v>
       </c>
       <c r="E169" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>6534662.7003509328</v>
+        <v>-5952562.0351525955</v>
       </c>
       <c r="F169" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>524143891.13071001</v>
+        <v>-570935364.01220608</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -7275,19 +7275,19 @@
       </c>
       <c r="C170" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D170" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>9920209.3753137328</v>
+        <v>85603665.727066815</v>
       </c>
       <c r="E170" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>6414722.3447924918</v>
+        <v>-6987583.7158103287</v>
       </c>
       <c r="F170" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>514223681.75539625</v>
+        <v>-656539029.73927283</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -7300,19 +7300,19 @@
       </c>
       <c r="C171" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D171" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>10041617.618015118</v>
+        <v>86651354.867295533</v>
       </c>
       <c r="E171" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>6293314.1020911075</v>
+        <v>-8035272.8560390547</v>
       </c>
       <c r="F171" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>504182064.13738114</v>
+        <v>-743190384.60656834</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -7325,19 +7325,19 @@
       </c>
       <c r="C172" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D172" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>10164511.712560769</v>
+        <v>87711866.502042815</v>
       </c>
       <c r="E172" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>6170420.0075454554</v>
+        <v>-9095784.4907863308</v>
       </c>
       <c r="F172" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>494017552.42482036</v>
+        <v>-830902251.10861111</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -7350,19 +7350,19 @@
       </c>
       <c r="C173" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D173" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>10288909.843512578</v>
+        <v>88785357.563703343</v>
       </c>
       <c r="E173" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>6046021.8765936475</v>
+        <v>-10169275.552446859</v>
       </c>
       <c r="F173" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>483728642.58130777</v>
+        <v>-919687608.67231441</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -7375,19 +7375,19 @@
       </c>
       <c r="C174" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D174" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>10414830.417983752</v>
+        <v>89871986.905341506</v>
       </c>
       <c r="E174" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>5920101.3021224728</v>
+        <v>-11255904.894085027</v>
       </c>
       <c r="F174" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>473313812.163324</v>
+        <v>-1009559595.5776559</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -7400,19 +7400,19 @@
       </c>
       <c r="C175" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D175" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>10542292.068362512</v>
+        <v>90971915.324198157</v>
       </c>
       <c r="E175" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>5792639.6517437138</v>
+        <v>-12355833.312941663</v>
       </c>
       <c r="F175" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>462771520.09496146</v>
+        <v>-1100531510.901854</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -7425,19 +7425,19 @@
       </c>
       <c r="C176" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D176" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>10671313.655069109</v>
+        <v>92085305.585484982</v>
       </c>
       <c r="E176" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>5663618.0650371173</v>
+        <v>-13469223.574228495</v>
       </c>
       <c r="F176" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>452100206.43989235</v>
+        <v>-1192616816.487339</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -7450,19 +7450,19 @@
       </c>
       <c r="C177" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D177" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>10801914.269346591</v>
+        <v>93212322.446470305</v>
       </c>
       <c r="E177" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>5533017.4507596334</v>
+        <v>-14596240.435213825</v>
       </c>
       <c r="F177" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>441298292.17054576</v>
+        <v>-1285829138.9338093</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -7475,19 +7475,19 @@
       </c>
       <c r="C178" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D178" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>10934113.236085728</v>
+        <v>94353132.680859461</v>
       </c>
       <c r="E178" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>5400818.4840204967</v>
+        <v>-15737050.66960297</v>
       </c>
       <c r="F178" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>430364178.93446004</v>
+        <v>-1380182271.6146688</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -7500,19 +7500,19 @@
       </c>
       <c r="C179" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D179" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>11067930.116684493</v>
+        <v>95507905.103473604</v>
       </c>
       <c r="E179" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>5267001.6034217319</v>
+        <v>-16891823.092217118</v>
       </c>
       <c r="F179" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>419296248.81777555</v>
+        <v>-1475690176.7181425</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -7525,19 +7525,19 @@
       </c>
       <c r="C180" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D180" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>11203384.711942559</v>
+        <v>96676810.595230669</v>
       </c>
       <c r="E180" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>5131547.0081636664</v>
+        <v>-18060728.58397419</v>
       </c>
       <c r="F180" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>408092864.10583299</v>
+        <v>-1572366987.3133731</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -7550,19 +7550,19 @@
       </c>
       <c r="C181" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D181" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>11340497.064991204</v>
+        <v>97860022.128431961</v>
       </c>
       <c r="E181" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>4994434.6551150214</v>
+        <v>-19243940.117175471</v>
       </c>
       <c r="F181" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>396752367.04084182</v>
+        <v>-1670227009.4418051</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -7575,19 +7575,19 @@
       </c>
       <c r="C182" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D182" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>11479287.464259086</v>
+        <v>99057714.79235819</v>
       </c>
       <c r="E182" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>4855644.2558471393</v>
+        <v>-20441632.781101696</v>
       </c>
       <c r="F182" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>385273079.57658273</v>
+        <v>-1769284724.2341633</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -7600,19 +7600,19 @@
       </c>
       <c r="C183" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D183" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>11619776.446474306</v>
+        <v>100270065.81917891</v>
       </c>
       <c r="E183" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>4715155.2736319182</v>
+        <v>-21653983.80792243</v>
       </c>
       <c r="F183" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>373653303.13010842</v>
+        <v>-1869554790.0533421</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -7625,19 +7625,19 @@
       </c>
       <c r="C184" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D184" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>11761984.799703218</v>
+        <v>101497254.61017898</v>
       </c>
       <c r="E184" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>4572946.9204030065</v>
+        <v>-22881172.598922499</v>
       </c>
       <c r="F184" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>361891318.33040518</v>
+        <v>-1971052044.6635211</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -7650,19 +7650,19 @@
       </c>
       <c r="C185" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D185" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>11905933.566426422</v>
+        <v>102739462.76230595</v>
       </c>
       <c r="E185" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>4428998.1536798039</v>
+        <v>-24123380.751049466</v>
       </c>
       <c r="F185" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>349985384.76397878</v>
+        <v>-2073791507.425827</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -7675,19 +7675,19 @@
       </c>
       <c r="C186" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D186" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>12051644.046652403</v>
+        <v>103996874.09504247</v>
       </c>
       <c r="E186" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>4283287.6734538227</v>
+        <v>-25380792.083785973</v>
       </c>
       <c r="F186" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>337933740.7173264</v>
+        <v>-2177788381.5208693</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -7700,19 +7700,19 @@
       </c>
       <c r="C187" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D187" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>12199137.801069293</v>
+        <v>105269674.67760746</v>
       </c>
       <c r="E187" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>4135793.9190369318</v>
+        <v>-26653592.666350972</v>
       </c>
       <c r="F187" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>325734602.91625708</v>
+        <v>-2283058056.1984768</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -7725,19 +7725,19 @@
       </c>
       <c r="C188" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D188" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>12348436.654235184</v>
+        <v>106558052.85649037</v>
       </c>
       <c r="E188" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>3986495.0658710417</v>
+        <v>-27941970.845233887</v>
       </c>
       <c r="F188" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>313386166.2620219</v>
+        <v>-2389616109.0549669</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -7750,19 +7750,19 @@
       </c>
       <c r="C189" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D189" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>12499562.697807489</v>
+        <v>107862199.28332224</v>
       </c>
       <c r="E189" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>3835369.022298737</v>
+        <v>-29246117.272065751</v>
       </c>
       <c r="F189" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>300886603.56421441</v>
+        <v>-2497478308.3382893</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -7775,19 +7775,19 @@
       </c>
       <c r="C190" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D190" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>12652538.293811841</v>
+        <v>109182306.94308794</v>
       </c>
       <c r="E190" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>3682393.426294385</v>
+        <v>-30566224.931831449</v>
       </c>
       <c r="F190" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>288234065.27040255</v>
+        <v>-2606660615.2813773</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -7800,19 +7800,19 @@
       </c>
       <c r="C191" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D191" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>12807386.077950981</v>
+        <v>110518571.18268375</v>
       </c>
       <c r="E191" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>3527545.642155244</v>
+        <v>-31902489.171427261</v>
       </c>
       <c r="F191" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>275426679.1924516</v>
+        <v>-2717179186.4640613</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -7825,19 +7825,19 @@
       </c>
       <c r="C192" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D192" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>12964128.962954154</v>
+        <v>111871189.73982437</v>
       </c>
       <c r="E192" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>3370802.7571520717</v>
+        <v>-33255107.728567883</v>
       </c>
       <c r="F192" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>262462550.22949743</v>
+        <v>-2829050376.2038856</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -7850,19 +7850,19 @@
       </c>
       <c r="C193" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D193" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>13122790.141967485</v>
+        <v>113240362.77230377</v>
       </c>
       <c r="E193" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>3212141.5781387403</v>
+        <v>-34624280.761047289</v>
       </c>
       <c r="F193" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>249339760.08752996</v>
+        <v>-2942290738.9761891</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -7875,19 +7875,19 @@
       </c>
       <c r="C194" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D194" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>13283393.091985859</v>
+        <v>114626292.88761413</v>
       </c>
       <c r="E194" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>3051538.6281203665</v>
+        <v>-36010210.876357652</v>
       </c>
       <c r="F194" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>236056366.99554411</v>
+        <v>-3056917031.8638034</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -7900,19 +7900,19 @@
       </c>
       <c r="C195" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D195" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>13445961.577326795</v>
+        <v>116029185.17292732</v>
       </c>
       <c r="E195" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>2888970.1427794308</v>
+        <v>-37413103.161670834</v>
       </c>
       <c r="F195" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>222610405.4182173</v>
+        <v>-3172946217.0367308</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -7925,19 +7925,19 @@
       </c>
       <c r="C196" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D196" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>13610519.653146837</v>
+        <v>117449247.22544323</v>
       </c>
       <c r="E196" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>2724412.0669593881</v>
+        <v>-38833165.214186743</v>
       </c>
       <c r="F196" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>208999885.76507047</v>
+        <v>-3290395464.2621741</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -7950,19 +7950,19 @@
       </c>
       <c r="C197" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D197" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>13777091.669000983</v>
+        <v>118886689.18310964</v>
       </c>
       <c r="E197" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>2557840.0511052422</v>
+        <v>-40270607.171853155</v>
       </c>
       <c r="F197" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>195222794.09606948</v>
+        <v>-3409282153.4452839</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -7975,19 +7975,19 @@
       </c>
       <c r="C198" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D198" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>13945702.272445669</v>
+        <v>120341723.75571799</v>
       </c>
       <c r="E198" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>2389229.4476605556</v>
+        <v>-41725641.744461514</v>
       </c>
       <c r="F198" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>181277091.82362381</v>
+        <v>-3529623877.2010021</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -8000,19 +8000,19 @@
       </c>
       <c r="C199" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D199" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>14116376.412685858</v>
+        <v>121814566.25637981</v>
       </c>
       <c r="E199" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>2218555.3074203674</v>
+        <v>-43198484.245123334</v>
       </c>
       <c r="F199" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>167160715.41093794</v>
+        <v>-3651438443.4573817</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -8025,19 +8025,19 @@
       </c>
       <c r="C200" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D200" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>14289139.34426675</v>
+        <v>123305434.63338822</v>
       </c>
       <c r="E200" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>2045792.3758394748</v>
+        <v>-44689352.622131728</v>
       </c>
       <c r="F200" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>152871576.06667119</v>
+        <v>-3774743878.0907698</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -8050,19 +8050,19 @@
       </c>
       <c r="C201" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D201" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>14464016.630810691</v>
+        <v>124814549.50246954</v>
       </c>
       <c r="E201" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>1870915.0892955337</v>
+        <v>-46198467.491213053</v>
       </c>
       <c r="F201" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>138407559.43586051</v>
+        <v>-3899558427.5932393</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -8075,19 +8075,19 @@
       </c>
       <c r="C202" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D202" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>14641034.148799799</v>
+        <v>126342134.17942959</v>
       </c>
       <c r="E202" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>1693897.5713064258</v>
+        <v>-47726052.168173112</v>
       </c>
       <c r="F202" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>123766525.28706071</v>
+        <v>-4025900561.7726688</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -8100,19 +8100,19 @@
       </c>
       <c r="C203" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D203" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>14820218.091404894</v>
+        <v>127888414.7131995</v>
       </c>
       <c r="E203" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>1514713.6287013313</v>
+        <v>-49272332.70194301</v>
       </c>
       <c r="F203" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>108946307.19565581</v>
+        <v>-4153788976.4858685</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -8125,19 +8125,19 @@
       </c>
       <c r="C204" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D204" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>15001594.972361282</v>
+        <v>129453619.91928592</v>
       </c>
       <c r="E204" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>1333336.747744943</v>
+        <v>-50837537.90802943</v>
       </c>
       <c r="F204" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>93944712.223294526</v>
+        <v>-4283242596.4051542</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -8150,19 +8150,19 @@
       </c>
       <c r="C205" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D205" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>15185191.62989198</v>
+        <v>131037981.41363077</v>
       </c>
       <c r="E205" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>1149740.0902142446</v>
+        <v>-52421899.402374282</v>
       </c>
       <c r="F205" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>78759520.59340255</v>
+        <v>-4414280577.8187847</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -8175,19 +8175,19 @@
       </c>
       <c r="C206" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D206" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>15371035.23067895</v>
+        <v>132641733.64688526</v>
       </c>
       <c r="E206" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>963896.48942727607</v>
+        <v>-54025651.635628775</v>
       </c>
       <c r="F206" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>63388485.362723604</v>
+        <v>-4546922311.4656696</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -8200,19 +8200,19 @@
       </c>
       <c r="C207" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D207" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>15559153.273882929</v>
+        <v>134265113.93910342</v>
       </c>
       <c r="E207" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>775778.44622329657</v>
+        <v>-55649031.927846946</v>
       </c>
       <c r="F207" s="77">
         <f t="shared" ca="1" si="17"/>
-        <v>47829332.088840678</v>
+        <v>-4681187425.4047728</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -8225,19 +8225,19 @@
       </c>
       <c r="C208" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D208" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>15749573.595212474</v>
+        <v>135908362.51486033</v>
       </c>
       <c r="E208" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>585358.12489375111</v>
+        <v>-57292280.503603831</v>
       </c>
       <c r="F208" s="36">
         <f t="shared" ca="1" si="17"/>
-        <v>32079758.493628204</v>
+        <v>-4817095787.9196329</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -8250,19 +8250,19 @@
       </c>
       <c r="C209" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D209" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>15942324.371042786</v>
+        <v>137571722.53879988</v>
       </c>
       <c r="E209" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>392607.34906343854</v>
+        <v>-58955640.527543388</v>
       </c>
       <c r="F209" s="36">
         <f t="shared" ca="1" si="17"/>
-        <v>16137434.122585418</v>
+        <v>-4954667510.4584332</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -8275,19 +8275,19 @@
       </c>
       <c r="C210" s="77">
         <f t="shared" ca="1" si="13"/>
-        <v>16334931.720106225</v>
+        <v>78616082.011256486</v>
       </c>
       <c r="D210" s="102">
         <f t="shared" ca="1" si="14"/>
-        <v>16137434.122584956</v>
+        <v>139255440.15161803</v>
       </c>
       <c r="E210" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>197497.59752127033</v>
+        <v>-60639358.140361547</v>
       </c>
       <c r="F210" s="36">
         <f t="shared" ca="1" si="17"/>
-        <v>4.6193599700927734E-7</v>
+        <v>-5093922950.6100512</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -8310,7 +8310,7 @@
       </c>
       <c r="E213" s="43">
         <f ca="1">SUM(E217:INDIRECT(CONCATENATE("E",216+B10)))</f>
-        <v>298195600.1767593</v>
+        <v>67721552.548292771</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -8319,14 +8319,14 @@
       </c>
       <c r="B214" s="93">
         <f ca="1">PMT(B9,B10-B212,-INDIRECT(CONCATENATE("F",216+B212)),0,0)</f>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D214" s="78" t="s">
         <v>70</v>
       </c>
       <c r="E214" s="43">
         <f ca="1">F216+E213</f>
-        <v>965696600.17675924</v>
+        <v>733842552.54829276</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -8357,7 +8357,7 @@
       </c>
       <c r="F216" s="38">
         <f>$B$3</f>
-        <v>667501000</v>
+        <v>666121000</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -8374,15 +8374,15 @@
       </c>
       <c r="D217" s="36">
         <f t="shared" ref="D217:D276" si="19">C217-E217</f>
-        <v>-8169194.8572258335</v>
+        <v>-8152545.0090350015</v>
       </c>
       <c r="E217" s="36">
         <f t="shared" ref="E217:E276" si="20">F216*$B$9</f>
-        <v>8169194.8572258335</v>
+        <v>8152545.0090350015</v>
       </c>
       <c r="F217" s="36">
         <f t="shared" ref="F217:F228" si="21">F216-D217</f>
-        <v>675670194.85722578</v>
+        <v>674273545.00903499</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -8399,15 +8399,15 @@
       </c>
       <c r="D218" s="36">
         <f t="shared" si="19"/>
-        <v>-8269173.3510637823</v>
+        <v>-8252322.6622306537</v>
       </c>
       <c r="E218" s="36">
         <f t="shared" si="20"/>
-        <v>8269173.3510637823</v>
+        <v>8252322.6622306537</v>
       </c>
       <c r="F218" s="36">
         <f t="shared" si="21"/>
-        <v>683939368.2082895</v>
+        <v>682525867.6712656</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -8424,15 +8424,15 @@
       </c>
       <c r="D219" s="36">
         <f t="shared" si="19"/>
-        <v>-8370375.4292824194</v>
+        <v>-8353321.4776604548</v>
       </c>
       <c r="E219" s="36">
         <f t="shared" si="20"/>
-        <v>8370375.4292824194</v>
+        <v>8353321.4776604548</v>
       </c>
       <c r="F219" s="36">
         <f t="shared" si="21"/>
-        <v>692309743.63757193</v>
+        <v>690879189.14892602</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -8445,19 +8445,19 @@
       </c>
       <c r="C220" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D220" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>8469229.5504465085</v>
+        <v>73082504.993327215</v>
       </c>
       <c r="E220" s="36">
         <f t="shared" si="20"/>
-        <v>8472816.0666896198</v>
+        <v>8455556.4009274971</v>
       </c>
       <c r="F220" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>683840514.08712542</v>
+        <v>617796684.15559876</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -8470,19 +8470,19 @@
       </c>
       <c r="C221" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D221" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>8572880.0116266012</v>
+        <v>73976949.713327229</v>
       </c>
       <c r="E221" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>8369165.605509527</v>
+        <v>7561111.680927489</v>
       </c>
       <c r="F221" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>675267634.07549882</v>
+        <v>543819734.44227147</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -8495,19 +8495,19 @@
       </c>
       <c r="C222" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D222" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>8677798.9964709599</v>
+        <v>74882341.394671932</v>
       </c>
       <c r="E222" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>8264246.6206651684</v>
+        <v>6655719.9995827787</v>
       </c>
       <c r="F222" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>666589835.07902789</v>
+        <v>468937393.04759955</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -8520,19 +8520,19 @@
       </c>
       <c r="C223" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D223" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>8784002.0297757927</v>
+        <v>75798814.015414998</v>
       </c>
       <c r="E223" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>8158043.5873603355</v>
+        <v>5739247.3788397191</v>
       </c>
       <c r="F223" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>657805833.04925215</v>
+        <v>393138579.03218454</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -8545,19 +8545,19 @@
       </c>
       <c r="C224" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D224" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>8891504.826337155</v>
+        <v>76726503.193345353</v>
       </c>
       <c r="E224" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>8050540.7907989733</v>
+        <v>4811558.2009093668</v>
       </c>
       <c r="F224" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>648914328.22291505</v>
+        <v>316412075.83883917</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -8570,19 +8570,19 @@
       </c>
       <c r="C225" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D225" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>9000323.2932762466</v>
+        <v>77665546.206055671</v>
       </c>
       <c r="E225" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>7941722.3238598807</v>
+        <v>3872515.1881990395</v>
       </c>
       <c r="F225" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>639914004.92963886</v>
+        <v>238746529.6327835</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -8595,19 +8595,19 @@
       </c>
       <c r="C226" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D226" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>9110473.5323931947</v>
+        <v>78616082.011256471</v>
       </c>
       <c r="E226" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>7831572.0847429326</v>
+        <v>2921979.3829982481</v>
       </c>
       <c r="F226" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>630803531.39724565</v>
+        <v>160130447.62152702</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -8620,19 +8620,19 @@
       </c>
       <c r="C227" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D227" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>9221971.8425496127</v>
+        <v>79578251.267338708</v>
       </c>
       <c r="E227" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>7720073.7745865155</v>
+        <v>1959810.1269160118</v>
       </c>
       <c r="F227" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>621581559.55469608</v>
+        <v>80552196.354188308</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -8645,19 +8645,19 @@
       </c>
       <c r="C228" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D228" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>9334834.722080335</v>
+        <v>80552196.354188204</v>
       </c>
       <c r="E228" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>7607210.8950557923</v>
+        <v>985865.04006651242</v>
       </c>
       <c r="F228" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>612246724.83261573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -8670,19 +8670,19 @@
       </c>
       <c r="C229" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D229" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>9449078.8712346777</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="E229" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>7492966.7459014505</v>
+        <v>0</v>
       </c>
       <c r="F229" s="36">
         <f t="shared" ref="F229:F276" ca="1" si="23">F228-D229</f>
-        <v>602797645.96138108</v>
+        <v>-81538061.394254714</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -8695,19 +8695,19 @@
       </c>
       <c r="C230" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D230" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>9564721.1946475431</v>
+        <v>82535992.273878872</v>
       </c>
       <c r="E230" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>7377324.4224885851</v>
+        <v>-997930.87962415349</v>
       </c>
       <c r="F230" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>593232924.76673353</v>
+        <v>-164074053.66813359</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -8720,19 +8720,19 @@
       </c>
       <c r="C231" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D231" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>9681778.8038408086</v>
+        <v>83546136.664880142</v>
       </c>
       <c r="E231" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>7260266.8132953197</v>
+        <v>-2008075.270625432</v>
       </c>
       <c r="F231" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>583551145.96289277</v>
+        <v>-247620190.33301371</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -8745,19 +8745,19 @@
       </c>
       <c r="C232" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D232" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>9800269.0197552927</v>
+        <v>84568644.04640907</v>
       </c>
       <c r="E232" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>7141776.5973808356</v>
+        <v>-3030582.6521543502</v>
       </c>
       <c r="F232" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>573750876.94313753</v>
+        <v>-332188834.37942278</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -8770,19 +8770,19 @@
       </c>
       <c r="C233" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D233" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>9920209.3753137328</v>
+        <v>85603665.7270668</v>
       </c>
       <c r="E233" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>7021836.2418223955</v>
+        <v>-4065604.3328120834</v>
       </c>
       <c r="F233" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>563830667.56782377</v>
+        <v>-417792500.1064896</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -8795,19 +8795,19 @@
       </c>
       <c r="C234" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D234" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>10041617.618015118</v>
+        <v>86651354.867295519</v>
       </c>
       <c r="E234" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>6900427.9991210112</v>
+        <v>-5113293.4730408089</v>
       </c>
       <c r="F234" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>553789049.9498086</v>
+        <v>-504443854.9737851</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -8820,19 +8820,19 @@
       </c>
       <c r="C235" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D235" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>10164511.712560769</v>
+        <v>87711866.5020428</v>
       </c>
       <c r="E235" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>6777533.9045753591</v>
+        <v>-6173805.1077880859</v>
       </c>
       <c r="F235" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>543624538.23724782</v>
+        <v>-592155721.47582793</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -8845,19 +8845,19 @@
       </c>
       <c r="C236" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D236" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>10288909.843512578</v>
+        <v>88785357.563703328</v>
       </c>
       <c r="E236" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>6653135.7736235503</v>
+        <v>-7247296.169448616</v>
       </c>
       <c r="F236" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>533335628.39373523</v>
+        <v>-680941079.03953123</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -8870,19 +8870,19 @@
       </c>
       <c r="C237" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D237" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>10414830.417983752</v>
+        <v>89871986.905341491</v>
       </c>
       <c r="E237" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>6527215.1991523756</v>
+        <v>-8333925.5110867824</v>
       </c>
       <c r="F237" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>522920797.97575146</v>
+        <v>-770813065.94487274</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -8895,19 +8895,19 @@
       </c>
       <c r="C238" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D238" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>10542292.068362512</v>
+        <v>90971915.324198127</v>
       </c>
       <c r="E238" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>6399753.5487736166</v>
+        <v>-9433853.9299434181</v>
       </c>
       <c r="F238" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>512378505.90738893</v>
+        <v>-861784981.26907086</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -8920,19 +8920,19 @@
       </c>
       <c r="C239" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D239" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>10671313.655069109</v>
+        <v>92085305.585484967</v>
       </c>
       <c r="E239" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>6270731.9620670201</v>
+        <v>-10547244.191230251</v>
       </c>
       <c r="F239" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>501707192.25231981</v>
+        <v>-953870286.85455585</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -8945,19 +8945,19 @@
       </c>
       <c r="C240" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D240" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>10801914.269346591</v>
+        <v>93212322.44647029</v>
       </c>
       <c r="E240" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>6140131.3477895362</v>
+        <v>-11674261.05221558</v>
       </c>
       <c r="F240" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>490905277.98297322</v>
+        <v>-1047082609.3010261</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -8970,19 +8970,19 @@
       </c>
       <c r="C241" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D241" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>10934113.236085728</v>
+        <v>94353132.680859447</v>
       </c>
       <c r="E241" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>6007932.3810503995</v>
+        <v>-12815071.286604725</v>
       </c>
       <c r="F241" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>479971164.74688751</v>
+        <v>-1141435741.9818854</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -8995,19 +8995,19 @@
       </c>
       <c r="C242" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D242" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>11067930.116684493</v>
+        <v>95507905.103473589</v>
       </c>
       <c r="E242" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>5874115.5004516346</v>
+        <v>-13969843.709218871</v>
       </c>
       <c r="F242" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>468903234.63020301</v>
+        <v>-1236943647.0853591</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -9020,19 +9020,19 @@
       </c>
       <c r="C243" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D243" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>11203384.711942559</v>
+        <v>96676810.595230654</v>
       </c>
       <c r="E243" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>5738660.9051935691</v>
+        <v>-15138749.200975943</v>
       </c>
       <c r="F243" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>457699849.91826046</v>
+        <v>-1333620457.6805897</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -9045,19 +9045,19 @@
       </c>
       <c r="C244" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D244" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>11340497.064991204</v>
+        <v>97860022.128431931</v>
       </c>
       <c r="E244" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>5601548.5521449242</v>
+        <v>-16321960.734177222</v>
       </c>
       <c r="F244" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>446359352.85326928</v>
+        <v>-1431480479.8090217</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -9070,19 +9070,19 @@
       </c>
       <c r="C245" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D245" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>11479287.464259086</v>
+        <v>99057714.79235816</v>
       </c>
       <c r="E245" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>5462758.1528770421</v>
+        <v>-17519653.398103449</v>
       </c>
       <c r="F245" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>434880065.38901019</v>
+        <v>-1530538194.6013799</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -9095,19 +9095,19 @@
       </c>
       <c r="C246" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D246" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>11619776.446474306</v>
+        <v>100270065.81917889</v>
       </c>
       <c r="E246" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>5322269.170661821</v>
+        <v>-18732004.42492418</v>
       </c>
       <c r="F246" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>423260288.94253588</v>
+        <v>-1630808260.4205587</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -9120,19 +9120,19 @@
       </c>
       <c r="C247" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D247" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>11761984.799703218</v>
+        <v>101497254.61017896</v>
       </c>
       <c r="E247" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>5180060.8174329093</v>
+        <v>-19959193.215924252</v>
       </c>
       <c r="F247" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>411498304.14283264</v>
+        <v>-1732305515.0307376</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -9145,19 +9145,19 @@
       </c>
       <c r="C248" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D248" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>11905933.566426422</v>
+        <v>102739462.76230593</v>
       </c>
       <c r="E248" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>5036112.0507097067</v>
+        <v>-21201401.36805122</v>
       </c>
       <c r="F248" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>399592370.57640624</v>
+        <v>-1835044977.7930436</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -9170,19 +9170,19 @@
       </c>
       <c r="C249" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D249" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>12051644.046652403</v>
+        <v>103996874.09504244</v>
       </c>
       <c r="E249" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>4890401.5704837255</v>
+        <v>-22458812.700787727</v>
       </c>
       <c r="F249" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>387540726.52975386</v>
+        <v>-1939041851.8880861</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -9195,19 +9195,19 @@
       </c>
       <c r="C250" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D250" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>12199137.801069293</v>
+        <v>105269674.67760745</v>
       </c>
       <c r="E250" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>4742907.8160668351</v>
+        <v>-23731613.283352729</v>
       </c>
       <c r="F250" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>375341588.72868454</v>
+        <v>-2044311526.5656936</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -9220,19 +9220,19 @@
       </c>
       <c r="C251" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D251" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>12348436.654235184</v>
+        <v>106558052.85649036</v>
       </c>
       <c r="E251" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>4593608.962900945</v>
+        <v>-25019991.462235644</v>
       </c>
       <c r="F251" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>362993152.07444936</v>
+        <v>-2150869579.422184</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -9245,19 +9245,19 @@
       </c>
       <c r="C252" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D252" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>12499562.697807487</v>
+        <v>107862199.28332222</v>
       </c>
       <c r="E252" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>4442482.9193286402</v>
+        <v>-26324137.889067508</v>
       </c>
       <c r="F252" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>350493589.37664187</v>
+        <v>-2258731778.7055063</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -9270,19 +9270,19 @@
       </c>
       <c r="C253" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D253" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>12652538.293811839</v>
+        <v>109182306.94308792</v>
       </c>
       <c r="E253" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>4289507.3233242882</v>
+        <v>-27644245.54883321</v>
       </c>
       <c r="F253" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>337841051.08283001</v>
+        <v>-2367914085.6485944</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -9295,19 +9295,19 @@
       </c>
       <c r="C254" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D254" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>12807386.077950981</v>
+        <v>110518571.18268374</v>
       </c>
       <c r="E254" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>4134659.5391851473</v>
+        <v>-28980509.788429018</v>
       </c>
       <c r="F254" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>325033665.00487906</v>
+        <v>-2478432656.8312783</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -9320,19 +9320,19 @@
       </c>
       <c r="C255" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D255" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>12964128.962954152</v>
+        <v>111871189.73982435</v>
       </c>
       <c r="E255" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>3977916.6541819749</v>
+        <v>-30333128.345569644</v>
       </c>
       <c r="F255" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>312069536.04192489</v>
+        <v>-2590303846.5711026</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -9345,19 +9345,19 @@
       </c>
       <c r="C256" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D256" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>13122790.141967485</v>
+        <v>113240362.77230376</v>
       </c>
       <c r="E256" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>3819255.4751686435</v>
+        <v>-31702301.378049046</v>
       </c>
       <c r="F256" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>298946745.89995742</v>
+        <v>-2703544209.3434062</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -9370,19 +9370,19 @@
       </c>
       <c r="C257" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D257" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>13283393.091985859</v>
+        <v>114626292.88761413</v>
       </c>
       <c r="E257" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>3658652.5251502697</v>
+        <v>-33088231.493359413</v>
       </c>
       <c r="F257" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>285663352.80797154</v>
+        <v>-2818170502.2310205</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -9395,19 +9395,19 @@
       </c>
       <c r="C258" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D258" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>13445961.577326795</v>
+        <v>116029185.17292732</v>
       </c>
       <c r="E258" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>3496084.0398093336</v>
+        <v>-34491123.778672598</v>
       </c>
       <c r="F258" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>272217391.23064476</v>
+        <v>-2934199687.4039478</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -9420,19 +9420,19 @@
       </c>
       <c r="C259" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D259" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>13610519.653146837</v>
+        <v>117449247.22544321</v>
       </c>
       <c r="E259" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>3331525.9639892913</v>
+        <v>-35911185.8311885</v>
       </c>
       <c r="F259" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>258606871.57749793</v>
+        <v>-3051648934.6293912</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -9445,19 +9445,19 @@
       </c>
       <c r="C260" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D260" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>13777091.669000983</v>
+        <v>118886689.18310963</v>
       </c>
       <c r="E260" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>3164953.9481351455</v>
+        <v>-37348627.788854912</v>
       </c>
       <c r="F260" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>244829779.90849695</v>
+        <v>-3170535623.812501</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -9470,19 +9470,19 @@
       </c>
       <c r="C261" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D261" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>13945702.272445669</v>
+        <v>120341723.75571799</v>
       </c>
       <c r="E261" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>2996343.3446904588</v>
+        <v>-38803662.361463279</v>
       </c>
       <c r="F261" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>230884077.63605127</v>
+        <v>-3290877347.5682192</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -9495,19 +9495,19 @@
       </c>
       <c r="C262" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D262" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>14116376.412685858</v>
+        <v>121814566.25637981</v>
       </c>
       <c r="E262" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>2825669.2044502706</v>
+        <v>-40276504.862125091</v>
       </c>
       <c r="F262" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>216767701.2233654</v>
+        <v>-3412691913.8245988</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -9520,19 +9520,19 @@
       </c>
       <c r="C263" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D263" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>14289139.34426675</v>
+        <v>123305434.63338821</v>
       </c>
       <c r="E263" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>2652906.2728693779</v>
+        <v>-41767373.239133492</v>
       </c>
       <c r="F263" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>202478561.87909865</v>
+        <v>-3535997348.4579868</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -9545,19 +9545,19 @@
       </c>
       <c r="C264" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D264" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>14464016.630810691</v>
+        <v>124814549.50246952</v>
       </c>
       <c r="E264" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>2478028.9863254367</v>
+        <v>-43276488.10821481</v>
       </c>
       <c r="F264" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>188014545.24828798</v>
+        <v>-3660811897.9604564</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -9570,19 +9570,19 @@
       </c>
       <c r="C265" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D265" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>14641034.148799799</v>
+        <v>126342134.17942959</v>
       </c>
       <c r="E265" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>2301011.4683363289</v>
+        <v>-44804072.785174869</v>
       </c>
       <c r="F265" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>173373511.09948817</v>
+        <v>-3787154032.1398859</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -9595,19 +9595,19 @@
       </c>
       <c r="C266" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D266" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>14820218.091404894</v>
+        <v>127888414.71319948</v>
       </c>
       <c r="E266" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>2121827.5257312343</v>
+        <v>-46350353.318944767</v>
       </c>
       <c r="F266" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>158553293.00808328</v>
+        <v>-3915042446.8530855</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -9620,19 +9620,19 @@
       </c>
       <c r="C267" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D267" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>15001594.972361282</v>
+        <v>129453619.91928589</v>
       </c>
       <c r="E267" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>1940450.6447748463</v>
+        <v>-47915558.525031187</v>
       </c>
       <c r="F267" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>143551698.03572202</v>
+        <v>-4044496066.7723713</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -9645,19 +9645,19 @@
       </c>
       <c r="C268" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D268" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>15185191.62989198</v>
+        <v>131037981.41363075</v>
       </c>
       <c r="E268" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>1756853.987244148</v>
+        <v>-49499920.01937604</v>
       </c>
       <c r="F268" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>128366506.40583004</v>
+        <v>-4175534048.1860023</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -9670,19 +9670,19 @@
       </c>
       <c r="C269" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D269" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>15371035.23067895</v>
+        <v>132641733.64688525</v>
       </c>
       <c r="E269" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>1571010.3864571794</v>
+        <v>-51103672.252630539</v>
       </c>
       <c r="F269" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>112995471.17515109</v>
+        <v>-4308175781.8328876</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -9695,19 +9695,19 @@
       </c>
       <c r="C270" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D270" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>15559153.273882929</v>
+        <v>134265113.93910342</v>
       </c>
       <c r="E270" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>1382892.3432531999</v>
+        <v>-52727052.544848718</v>
       </c>
       <c r="F270" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>97436317.901268169</v>
+        <v>-4442440895.7719908</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -9720,19 +9720,19 @@
       </c>
       <c r="C271" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D271" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>15749573.595212474</v>
+        <v>135908362.51486033</v>
       </c>
       <c r="E271" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>1192472.0219236545</v>
+        <v>-54370301.120605603</v>
       </c>
       <c r="F271" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>81686744.306055695</v>
+        <v>-4578349258.2868509</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -9745,19 +9745,19 @@
       </c>
       <c r="C272" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D272" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>15942324.371042786</v>
+        <v>137571722.53879988</v>
       </c>
       <c r="E272" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>999721.24609334185</v>
+        <v>-56033661.14454516</v>
       </c>
       <c r="F272" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>65744419.935012907</v>
+        <v>-4715920980.8256512</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -9770,19 +9770,19 @@
       </c>
       <c r="C273" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D273" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>16137434.122584954</v>
+        <v>139255440.15161803</v>
       </c>
       <c r="E273" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>804611.49455117364</v>
+        <v>-57717378.757363319</v>
       </c>
       <c r="F273" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>49606985.812427953</v>
+        <v>-4855176420.9772692</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -9795,19 +9795,19 @@
       </c>
       <c r="C274" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D274" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>16334931.72010622</v>
+        <v>140959764.50648606</v>
       </c>
       <c r="E274" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>607113.89702990907</v>
+        <v>-59421703.112231344</v>
       </c>
       <c r="F274" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>33272054.092321731</v>
+        <v>-4996136185.4837551</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -9820,19 +9820,19 @@
       </c>
       <c r="C275" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D275" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>16534846.387201888</v>
+        <v>142684947.8059198</v>
       </c>
       <c r="E275" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>407199.22993423895</v>
+        <v>-61146886.411665082</v>
       </c>
       <c r="F275" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>16737207.705119843</v>
+        <v>-5138821133.2896748</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -9845,19 +9845,19 @@
       </c>
       <c r="C276" s="36">
         <f t="shared" ca="1" si="22"/>
-        <v>16942045.617136128</v>
+        <v>81538061.394254714</v>
       </c>
       <c r="D276" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>16737207.705119539</v>
+        <v>144431245.33910006</v>
       </c>
       <c r="E276" s="36">
         <f t="shared" ca="1" si="20"/>
-        <v>204837.91201658966</v>
+        <v>-62893183.944845349</v>
       </c>
       <c r="F276" s="36">
         <f t="shared" ca="1" si="23"/>
-        <v>3.03611159324646E-7</v>
+        <v>-5283252378.6287746</v>
       </c>
     </row>
   </sheetData>

--- a/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
+++ b/Simulasi/Simulasi Perhitungan Gross Yield & Angsuran Regular Fixed CF.xlsx
@@ -1633,7 +1633,7 @@
   <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D1" s="3">
         <f ca="1">IF(B16=1,'Regular Fixed'!E79,IF(AND(B16=0,E16=0),'Regular Fixed'!E15,IF(AND(B16=0,E16&gt;0,E15&gt;0),'Regular Fixed'!E147,IF(AND(B16=0,E16&gt;0,E15=0),'Regular Fixed'!E213))))</f>
-        <v>67721552.548292771</v>
+        <v>66237997.922472976</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1679,7 +1679,7 @@
         <v>70</v>
       </c>
       <c r="B3">
-        <v>733842552.54999995</v>
+        <v>717677997.91999996</v>
       </c>
       <c r="C3" s="86" t="s">
         <v>96</v>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B7" s="88">
         <f>B5-B6+D24+D25+D26+D27+D28+D29+D30+D31+D38</f>
-        <v>666121000</v>
+        <v>651440000</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>5</v>
@@ -1777,7 +1777,7 @@
         <v>33</v>
       </c>
       <c r="B8">
-        <v>0.14686602000000001</v>
+        <v>0.14688524999999999</v>
       </c>
       <c r="C8" s="82" t="s">
         <v>93</v>
@@ -1795,7 +1795,7 @@
         <v>15</v>
       </c>
       <c r="H8">
-        <v>59370</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>93</v>
@@ -1824,7 +1824,7 @@
         <v>16</v>
       </c>
       <c r="H9">
-        <v>1006020</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>93</v>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B12" s="19">
         <f>B8/(12/B10)</f>
-        <v>1.2238835000000002E-2</v>
+        <v>1.22404375E-2</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>10</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="B15" s="3">
         <f>IF(B16=1,B2+SUM(E6:E14)-SUM(D24:D31,D38)+B18,B2+SUM(E6:E14)-SUM(D24:D31,D38))</f>
-        <v>347997000</v>
+        <v>362678000</v>
       </c>
       <c r="D15" s="81" t="s">
         <v>94</v>
@@ -1969,7 +1969,7 @@
         <v>41</v>
       </c>
       <c r="B17">
-        <v>81538061.390000001</v>
+        <v>79741999.769999996</v>
       </c>
       <c r="C17" s="81" t="s">
         <v>92</v>
@@ -1978,7 +1978,7 @@
     <row r="18" spans="1:13">
       <c r="B18" s="89">
         <f>ROUND(B17,0)</f>
-        <v>81538061</v>
+        <v>79742000</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>42</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="B19" s="13">
         <f ca="1">(D1/B7)/(B9/12)*100</f>
-        <v>10.166554206862234</v>
+        <v>10.167935331338724</v>
       </c>
       <c r="F19" s="84" t="s">
         <v>43</v>
@@ -2023,14 +2023,14 @@
       </c>
       <c r="G20" s="99">
         <f>IF(B16=0,-B7,0)</f>
-        <v>-666121000</v>
+        <v>-651440000</v>
       </c>
       <c r="I20" s="84">
         <v>0</v>
       </c>
       <c r="J20" s="99">
         <f>IF(B16=0,B37-C37,0)</f>
-        <v>-662205738.84000003</v>
+        <v>-646479348.84000003</v>
       </c>
       <c r="L20" s="13"/>
     </row>
@@ -2118,11 +2118,11 @@
       </c>
       <c r="B24" s="97">
         <f t="shared" ref="B24:B31" si="0">E6-D24</f>
-        <v>-5093000</v>
+        <v>9468000</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24">
-        <v>14561000</v>
+        <v>0</v>
       </c>
       <c r="E24" s="82" t="s">
         <v>93</v>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="G24" s="101">
         <f>IF($B$16=0,IF(F24&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>81538061.390000001</v>
+        <v>79741999.769999996</v>
       </c>
       <c r="H24" s="103"/>
       <c r="I24" s="84">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="J24" s="99">
         <f t="shared" ref="J24:J81" si="1">IF($B$16=0,IF(I24&lt;=$E$16,$E$15,$B$18),$B$18)</f>
-        <v>81538061</v>
+        <v>79742000</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="106"/>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="G25" s="101">
         <f t="shared" ref="G25:G81" si="2">IF($B$16=0,IF(F25&lt;=$E$16,$E$15,$B$17),$B$17)</f>
-        <v>81538061.390000001</v>
+        <v>79741999.769999996</v>
       </c>
       <c r="H25" s="103"/>
       <c r="I25" s="84">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="J25" s="99">
         <f t="shared" si="1"/>
-        <v>81538061</v>
+        <v>79742000</v>
       </c>
       <c r="L25" s="13"/>
       <c r="M25" s="55"/>
@@ -2184,11 +2184,11 @@
       </c>
       <c r="B26" s="22">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>150000</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="E26" s="82" t="s">
         <v>93</v>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="G26" s="101">
         <f t="shared" si="2"/>
-        <v>81538061.390000001</v>
+        <v>79741999.769999996</v>
       </c>
       <c r="H26" s="103"/>
       <c r="I26" s="84">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="J26" s="99">
         <f t="shared" si="1"/>
-        <v>81538061</v>
+        <v>79742000</v>
       </c>
       <c r="L26" s="13"/>
     </row>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="G27" s="101">
         <f t="shared" si="2"/>
-        <v>81538061.390000001</v>
+        <v>79741999.769999996</v>
       </c>
       <c r="H27" s="103"/>
       <c r="I27" s="84">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="J27" s="99">
         <f t="shared" si="1"/>
-        <v>81538061</v>
+        <v>79742000</v>
       </c>
       <c r="L27" s="13"/>
     </row>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="G28" s="101">
         <f t="shared" si="2"/>
-        <v>81538061.390000001</v>
+        <v>79741999.769999996</v>
       </c>
       <c r="H28" s="103"/>
       <c r="I28" s="84">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="J28" s="99">
         <f t="shared" si="1"/>
-        <v>81538061</v>
+        <v>79742000</v>
       </c>
       <c r="L28" s="13"/>
     </row>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="G29" s="101">
         <f t="shared" si="2"/>
-        <v>81538061.390000001</v>
+        <v>79741999.769999996</v>
       </c>
       <c r="H29" s="103"/>
       <c r="I29" s="84">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="J29" s="99">
         <f t="shared" si="1"/>
-        <v>81538061</v>
+        <v>79742000</v>
       </c>
       <c r="L29" s="13"/>
     </row>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="G30" s="101">
         <f t="shared" si="2"/>
-        <v>81538061.390000001</v>
+        <v>79741999.769999996</v>
       </c>
       <c r="H30" s="103"/>
       <c r="I30" s="84">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="J30" s="99">
         <f t="shared" si="1"/>
-        <v>81538061</v>
+        <v>79742000</v>
       </c>
       <c r="L30" s="13"/>
     </row>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="G31" s="101">
         <f t="shared" si="2"/>
-        <v>81538061.390000001</v>
+        <v>79741999.769999996</v>
       </c>
       <c r="H31" s="103"/>
       <c r="I31" s="84">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="J31" s="99">
         <f t="shared" si="1"/>
-        <v>81538061</v>
+        <v>79742000</v>
       </c>
       <c r="L31" s="13"/>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="G32" s="101">
         <f t="shared" si="2"/>
-        <v>81538061.390000001</v>
+        <v>79741999.769999996</v>
       </c>
       <c r="H32" s="103"/>
       <c r="I32" s="84">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="J32" s="99">
         <f t="shared" si="1"/>
-        <v>81538061</v>
+        <v>79742000</v>
       </c>
       <c r="L32" s="13"/>
     </row>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="G33" s="101">
         <f t="shared" si="2"/>
-        <v>81538061.390000001</v>
+        <v>79741999.769999996</v>
       </c>
   